--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175582</v>
+        <v>0.255828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187398</v>
+        <v>0.236531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196981</v>
+        <v>0.249068</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175593</v>
+        <v>0.256439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18811</v>
+        <v>0.236727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197429</v>
+        <v>0.24952</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176977</v>
+        <v>0.258186</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188968</v>
+        <v>0.237559</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198779</v>
+        <v>0.250918</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17769</v>
+        <v>0.260618</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19052</v>
+        <v>0.238338</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200464</v>
+        <v>0.252197</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178599</v>
+        <v>0.262613</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192027</v>
+        <v>0.238932</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20246</v>
+        <v>0.253058</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18004</v>
+        <v>0.266083</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194634</v>
+        <v>0.24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205486</v>
+        <v>0.255271</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182486</v>
+        <v>0.271646</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197555</v>
+        <v>0.24214</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210282</v>
+        <v>0.259876</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.18621</v>
+        <v>0.280481</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201365</v>
+        <v>0.247024</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193639</v>
+        <v>0.250663</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.183707</v>
+        <v>0.253341</v>
       </c>
       <c r="C10" t="n">
-        <v>0.188636</v>
+        <v>0.238907</v>
       </c>
       <c r="D10" t="n">
-        <v>0.195159</v>
+        <v>0.252424</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.184576</v>
+        <v>0.25531</v>
       </c>
       <c r="C11" t="n">
-        <v>0.189457</v>
+        <v>0.238991</v>
       </c>
       <c r="D11" t="n">
-        <v>0.196928</v>
+        <v>0.252482</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.181526</v>
+        <v>0.256063</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187113</v>
+        <v>0.239449</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194229</v>
+        <v>0.252842</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.183858</v>
+        <v>0.256483</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187459</v>
+        <v>0.239477</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194593</v>
+        <v>0.252871</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.184466</v>
+        <v>0.257555</v>
       </c>
       <c r="C14" t="n">
-        <v>0.189711</v>
+        <v>0.240012</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196403</v>
+        <v>0.253338</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.185488</v>
+        <v>0.258771</v>
       </c>
       <c r="C15" t="n">
-        <v>0.18919</v>
+        <v>0.240669</v>
       </c>
       <c r="D15" t="n">
-        <v>0.196249</v>
+        <v>0.253754</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.182308</v>
+        <v>0.259995</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189207</v>
+        <v>0.24206</v>
       </c>
       <c r="D16" t="n">
-        <v>0.19629</v>
+        <v>0.255102</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.184681</v>
+        <v>0.261435</v>
       </c>
       <c r="C17" t="n">
-        <v>0.190861</v>
+        <v>0.241938</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197142</v>
+        <v>0.255158</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.184225</v>
+        <v>0.263024</v>
       </c>
       <c r="C18" t="n">
-        <v>0.192238</v>
+        <v>0.242478</v>
       </c>
       <c r="D18" t="n">
-        <v>0.198369</v>
+        <v>0.256056</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.185597</v>
+        <v>0.265496</v>
       </c>
       <c r="C19" t="n">
-        <v>0.193545</v>
+        <v>0.243791</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200681</v>
+        <v>0.257538</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187712</v>
+        <v>0.268632</v>
       </c>
       <c r="C20" t="n">
-        <v>0.194244</v>
+        <v>0.244754</v>
       </c>
       <c r="D20" t="n">
-        <v>0.202277</v>
+        <v>0.25909</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.189019</v>
+        <v>0.273556</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196579</v>
+        <v>0.247249</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205238</v>
+        <v>0.262311</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.192023</v>
+        <v>0.280353</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198476</v>
+        <v>0.249877</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208539</v>
+        <v>0.267594</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.194005</v>
+        <v>0.289802</v>
       </c>
       <c r="C23" t="n">
-        <v>0.201895</v>
+        <v>0.25378</v>
       </c>
       <c r="D23" t="n">
-        <v>0.201314</v>
+        <v>0.262075</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.203676</v>
+        <v>0.270502</v>
       </c>
       <c r="C24" t="n">
-        <v>0.189455</v>
+        <v>0.260331</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201696</v>
+        <v>0.268281</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.20453</v>
+        <v>0.271317</v>
       </c>
       <c r="C25" t="n">
-        <v>0.189835</v>
+        <v>0.258888</v>
       </c>
       <c r="D25" t="n">
-        <v>0.201456</v>
+        <v>0.269758</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.203239</v>
+        <v>0.273032</v>
       </c>
       <c r="C26" t="n">
-        <v>0.191911</v>
+        <v>0.260591</v>
       </c>
       <c r="D26" t="n">
-        <v>0.201374</v>
+        <v>0.270049</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.20221</v>
+        <v>0.274157</v>
       </c>
       <c r="C27" t="n">
-        <v>0.191548</v>
+        <v>0.261126</v>
       </c>
       <c r="D27" t="n">
-        <v>0.202851</v>
+        <v>0.269704</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.202521</v>
+        <v>0.27572</v>
       </c>
       <c r="C28" t="n">
-        <v>0.192591</v>
+        <v>0.262005</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20341</v>
+        <v>0.269789</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.201388</v>
+        <v>0.277078</v>
       </c>
       <c r="C29" t="n">
-        <v>0.192623</v>
+        <v>0.261268</v>
       </c>
       <c r="D29" t="n">
-        <v>0.204009</v>
+        <v>0.270349</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2018</v>
+        <v>0.278018</v>
       </c>
       <c r="C30" t="n">
-        <v>0.193874</v>
+        <v>0.262031</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206042</v>
+        <v>0.269529</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202342</v>
+        <v>0.278063</v>
       </c>
       <c r="C31" t="n">
-        <v>0.194468</v>
+        <v>0.261835</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205299</v>
+        <v>0.269439</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202944</v>
+        <v>0.280718</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194848</v>
+        <v>0.263248</v>
       </c>
       <c r="D32" t="n">
-        <v>0.206398</v>
+        <v>0.271521</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.203647</v>
+        <v>0.283956</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196121</v>
+        <v>0.265386</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208303</v>
+        <v>0.272544</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.204892</v>
+        <v>0.287546</v>
       </c>
       <c r="C34" t="n">
-        <v>0.19851</v>
+        <v>0.26612</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209739</v>
+        <v>0.277088</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.205945</v>
+        <v>0.292684</v>
       </c>
       <c r="C35" t="n">
-        <v>0.199843</v>
+        <v>0.268725</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212553</v>
+        <v>0.280016</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.207623</v>
+        <v>0.298866</v>
       </c>
       <c r="C36" t="n">
-        <v>0.202885</v>
+        <v>0.273451</v>
       </c>
       <c r="D36" t="n">
-        <v>0.216344</v>
+        <v>0.287821</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21211</v>
+        <v>0.306593</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207161</v>
+        <v>0.282874</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220482</v>
+        <v>0.297026</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.234247</v>
+        <v>0.304185</v>
       </c>
       <c r="C38" t="n">
-        <v>0.20804</v>
+        <v>0.292709</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219658</v>
+        <v>0.297283</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232953</v>
+        <v>0.30242</v>
       </c>
       <c r="C39" t="n">
-        <v>0.208877</v>
+        <v>0.292368</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220178</v>
+        <v>0.297514</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233497</v>
+        <v>0.30305</v>
       </c>
       <c r="C40" t="n">
-        <v>0.209484</v>
+        <v>0.2915</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220446</v>
+        <v>0.297736</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234541</v>
+        <v>0.304503</v>
       </c>
       <c r="C41" t="n">
-        <v>0.209716</v>
+        <v>0.2921</v>
       </c>
       <c r="D41" t="n">
-        <v>0.220578</v>
+        <v>0.297201</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.233453</v>
+        <v>0.304233</v>
       </c>
       <c r="C42" t="n">
-        <v>0.211874</v>
+        <v>0.290795</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222485</v>
+        <v>0.298463</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.233087</v>
+        <v>0.306842</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213347</v>
+        <v>0.29184</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22283</v>
+        <v>0.298589</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.233432</v>
+        <v>0.304978</v>
       </c>
       <c r="C44" t="n">
-        <v>0.212713</v>
+        <v>0.292354</v>
       </c>
       <c r="D44" t="n">
-        <v>0.222711</v>
+        <v>0.298535</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.23335</v>
+        <v>0.307595</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214313</v>
+        <v>0.294294</v>
       </c>
       <c r="D45" t="n">
-        <v>0.224372</v>
+        <v>0.300206</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.233815</v>
+        <v>0.310256</v>
       </c>
       <c r="C46" t="n">
-        <v>0.215508</v>
+        <v>0.293228</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22563</v>
+        <v>0.301835</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.233932</v>
+        <v>0.311824</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216277</v>
+        <v>0.294663</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226924</v>
+        <v>0.303178</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.234269</v>
+        <v>0.315296</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218531</v>
+        <v>0.296962</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229042</v>
+        <v>0.305275</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235322</v>
+        <v>0.321429</v>
       </c>
       <c r="C49" t="n">
-        <v>0.221933</v>
+        <v>0.298657</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232807</v>
+        <v>0.308878</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237015</v>
+        <v>0.326722</v>
       </c>
       <c r="C50" t="n">
-        <v>0.224533</v>
+        <v>0.302302</v>
       </c>
       <c r="D50" t="n">
-        <v>0.236966</v>
+        <v>0.315245</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.242067</v>
+        <v>0.331343</v>
       </c>
       <c r="C51" t="n">
-        <v>0.228914</v>
+        <v>0.307288</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23446</v>
+        <v>0.326586</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.243919</v>
+        <v>0.342688</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235722</v>
+        <v>0.312789</v>
       </c>
       <c r="D52" t="n">
-        <v>0.234614</v>
+        <v>0.320062</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.258437</v>
+        <v>0.331081</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226194</v>
+        <v>0.319353</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233565</v>
+        <v>0.325681</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.258033</v>
+        <v>0.330689</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226792</v>
+        <v>0.318338</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232832</v>
+        <v>0.326123</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259284</v>
+        <v>0.330482</v>
       </c>
       <c r="C55" t="n">
-        <v>0.228052</v>
+        <v>0.317951</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234463</v>
+        <v>0.327549</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259109</v>
+        <v>0.331726</v>
       </c>
       <c r="C56" t="n">
-        <v>0.228121</v>
+        <v>0.320037</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235231</v>
+        <v>0.327341</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.260179</v>
+        <v>0.332695</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228773</v>
+        <v>0.319308</v>
       </c>
       <c r="D57" t="n">
-        <v>0.234888</v>
+        <v>0.327411</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.259784</v>
+        <v>0.33374</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230134</v>
+        <v>0.319415</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236632</v>
+        <v>0.328358</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.260977</v>
+        <v>0.333814</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231585</v>
+        <v>0.320506</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237538</v>
+        <v>0.32987</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.260374</v>
+        <v>0.33653</v>
       </c>
       <c r="C60" t="n">
-        <v>0.233296</v>
+        <v>0.320741</v>
       </c>
       <c r="D60" t="n">
-        <v>0.23909</v>
+        <v>0.329973</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260882</v>
+        <v>0.340301</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234622</v>
+        <v>0.321969</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24117</v>
+        <v>0.332316</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.262431</v>
+        <v>0.34284</v>
       </c>
       <c r="C62" t="n">
-        <v>0.236642</v>
+        <v>0.322616</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242845</v>
+        <v>0.333455</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.261495</v>
+        <v>0.345205</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238526</v>
+        <v>0.324989</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246182</v>
+        <v>0.337193</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265897</v>
+        <v>0.351962</v>
       </c>
       <c r="C64" t="n">
-        <v>0.24342</v>
+        <v>0.327173</v>
       </c>
       <c r="D64" t="n">
-        <v>0.25187</v>
+        <v>0.341291</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266474</v>
+        <v>0.357418</v>
       </c>
       <c r="C65" t="n">
-        <v>0.247159</v>
+        <v>0.332371</v>
       </c>
       <c r="D65" t="n">
-        <v>0.257727</v>
+        <v>0.349233</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.271543</v>
+        <v>0.365344</v>
       </c>
       <c r="C66" t="n">
-        <v>0.252401</v>
+        <v>0.341687</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241435</v>
+        <v>0.344126</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.277518</v>
+        <v>0.347519</v>
       </c>
       <c r="C67" t="n">
-        <v>0.237543</v>
+        <v>0.337072</v>
       </c>
       <c r="D67" t="n">
-        <v>0.241139</v>
+        <v>0.343598</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.277904</v>
+        <v>0.348205</v>
       </c>
       <c r="C68" t="n">
-        <v>0.237824</v>
+        <v>0.336956</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24118</v>
+        <v>0.346237</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.27775</v>
+        <v>0.348891</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238483</v>
+        <v>0.337486</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241698</v>
+        <v>0.346231</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.278386</v>
+        <v>0.349581</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238761</v>
+        <v>0.337765</v>
       </c>
       <c r="D70" t="n">
-        <v>0.242322</v>
+        <v>0.346801</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.27793</v>
+        <v>0.349885</v>
       </c>
       <c r="C71" t="n">
-        <v>0.239257</v>
+        <v>0.336116</v>
       </c>
       <c r="D71" t="n">
-        <v>0.242804</v>
+        <v>0.346705</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278796</v>
+        <v>0.350864</v>
       </c>
       <c r="C72" t="n">
-        <v>0.239872</v>
+        <v>0.338467</v>
       </c>
       <c r="D72" t="n">
-        <v>0.243515</v>
+        <v>0.34753</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.278233</v>
+        <v>0.351467</v>
       </c>
       <c r="C73" t="n">
-        <v>0.241485</v>
+        <v>0.339022</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24489</v>
+        <v>0.34831</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279076</v>
+        <v>0.355185</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24288</v>
+        <v>0.33797</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246551</v>
+        <v>0.349249</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279777</v>
+        <v>0.357018</v>
       </c>
       <c r="C75" t="n">
-        <v>0.24434</v>
+        <v>0.340325</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248422</v>
+        <v>0.350322</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280362</v>
+        <v>0.360488</v>
       </c>
       <c r="C76" t="n">
-        <v>0.246544</v>
+        <v>0.34223</v>
       </c>
       <c r="D76" t="n">
-        <v>0.251149</v>
+        <v>0.352833</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.28151</v>
+        <v>0.362474</v>
       </c>
       <c r="C77" t="n">
-        <v>0.247136</v>
+        <v>0.343644</v>
       </c>
       <c r="D77" t="n">
-        <v>0.254003</v>
+        <v>0.355645</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.283404</v>
+        <v>0.367637</v>
       </c>
       <c r="C78" t="n">
-        <v>0.251426</v>
+        <v>0.345498</v>
       </c>
       <c r="D78" t="n">
-        <v>0.258767</v>
+        <v>0.359224</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.28619</v>
+        <v>0.374505</v>
       </c>
       <c r="C79" t="n">
-        <v>0.255823</v>
+        <v>0.347725</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265637</v>
+        <v>0.365438</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290359</v>
+        <v>0.382477</v>
       </c>
       <c r="C80" t="n">
-        <v>0.260164</v>
+        <v>0.355158</v>
       </c>
       <c r="D80" t="n">
-        <v>0.254739</v>
+        <v>0.365143</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.295387</v>
+        <v>0.376926</v>
       </c>
       <c r="C81" t="n">
-        <v>0.233</v>
+        <v>0.359079</v>
       </c>
       <c r="D81" t="n">
-        <v>0.245329</v>
+        <v>0.364778</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.288776</v>
+        <v>0.369869</v>
       </c>
       <c r="C82" t="n">
-        <v>0.246822</v>
+        <v>0.360474</v>
       </c>
       <c r="D82" t="n">
-        <v>0.258101</v>
+        <v>0.365547</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.304821</v>
+        <v>0.37255</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241656</v>
+        <v>0.360426</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253278</v>
+        <v>0.364923</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.29939</v>
+        <v>0.37265</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238541</v>
+        <v>0.362902</v>
       </c>
       <c r="D84" t="n">
-        <v>0.251525</v>
+        <v>0.364607</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.292841</v>
+        <v>0.372334</v>
       </c>
       <c r="C85" t="n">
-        <v>0.244436</v>
+        <v>0.36138</v>
       </c>
       <c r="D85" t="n">
-        <v>0.254599</v>
+        <v>0.3655</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.300968</v>
+        <v>0.376278</v>
       </c>
       <c r="C86" t="n">
-        <v>0.238515</v>
+        <v>0.360797</v>
       </c>
       <c r="D86" t="n">
-        <v>0.249057</v>
+        <v>0.366768</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.293985</v>
+        <v>0.374844</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243792</v>
+        <v>0.366306</v>
       </c>
       <c r="D87" t="n">
-        <v>0.256547</v>
+        <v>0.367114</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300239</v>
+        <v>0.377581</v>
       </c>
       <c r="C88" t="n">
-        <v>0.244854</v>
+        <v>0.366194</v>
       </c>
       <c r="D88" t="n">
-        <v>0.257352</v>
+        <v>0.370738</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.303749</v>
+        <v>0.382841</v>
       </c>
       <c r="C89" t="n">
-        <v>0.243893</v>
+        <v>0.366049</v>
       </c>
       <c r="D89" t="n">
-        <v>0.254544</v>
+        <v>0.368664</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.300578</v>
+        <v>0.384958</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248155</v>
+        <v>0.365558</v>
       </c>
       <c r="D90" t="n">
-        <v>0.26131</v>
+        <v>0.372077</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.305305</v>
+        <v>0.38583</v>
       </c>
       <c r="C91" t="n">
-        <v>0.24974</v>
+        <v>0.365186</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264361</v>
+        <v>0.37618</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.305304</v>
+        <v>0.391415</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253491</v>
+        <v>0.369868</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269643</v>
+        <v>0.376689</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.307001</v>
+        <v>0.397627</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258732</v>
+        <v>0.375095</v>
       </c>
       <c r="D93" t="n">
-        <v>0.276767</v>
+        <v>0.382678</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.31263</v>
+        <v>0.40402</v>
       </c>
       <c r="C94" t="n">
-        <v>0.263013</v>
+        <v>0.387058</v>
       </c>
       <c r="D94" t="n">
-        <v>0.400516</v>
+        <v>0.5293020000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.476803</v>
+        <v>0.579739</v>
       </c>
       <c r="C95" t="n">
-        <v>0.417707</v>
+        <v>0.558057</v>
       </c>
       <c r="D95" t="n">
-        <v>0.403098</v>
+        <v>0.523819</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.477214</v>
+        <v>0.586791</v>
       </c>
       <c r="C96" t="n">
-        <v>0.412554</v>
+        <v>0.557086</v>
       </c>
       <c r="D96" t="n">
-        <v>0.39846</v>
+        <v>0.53035</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.48104</v>
+        <v>0.587973</v>
       </c>
       <c r="C97" t="n">
-        <v>0.407924</v>
+        <v>0.563229</v>
       </c>
       <c r="D97" t="n">
-        <v>0.395149</v>
+        <v>0.536318</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.477036</v>
+        <v>0.587449</v>
       </c>
       <c r="C98" t="n">
-        <v>0.409837</v>
+        <v>0.55328</v>
       </c>
       <c r="D98" t="n">
-        <v>0.390914</v>
+        <v>0.538067</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.481234</v>
+        <v>0.583199</v>
       </c>
       <c r="C99" t="n">
-        <v>0.411013</v>
+        <v>0.557609</v>
       </c>
       <c r="D99" t="n">
-        <v>0.399393</v>
+        <v>0.534431</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.488578</v>
+        <v>0.590015</v>
       </c>
       <c r="C100" t="n">
-        <v>0.417174</v>
+        <v>0.5564519999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.393679</v>
+        <v>0.530976</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.490411</v>
+        <v>0.583728</v>
       </c>
       <c r="C101" t="n">
-        <v>0.409481</v>
+        <v>0.561292</v>
       </c>
       <c r="D101" t="n">
-        <v>0.388526</v>
+        <v>0.527687</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.478422</v>
+        <v>0.586645</v>
       </c>
       <c r="C102" t="n">
-        <v>0.408886</v>
+        <v>0.556275</v>
       </c>
       <c r="D102" t="n">
-        <v>0.401719</v>
+        <v>0.533146</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.486595</v>
+        <v>0.586566</v>
       </c>
       <c r="C103" t="n">
-        <v>0.415632</v>
+        <v>0.56073</v>
       </c>
       <c r="D103" t="n">
-        <v>0.408842</v>
+        <v>0.532397</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.477532</v>
+        <v>0.592544</v>
       </c>
       <c r="C104" t="n">
-        <v>0.419316</v>
+        <v>0.55242</v>
       </c>
       <c r="D104" t="n">
-        <v>0.412563</v>
+        <v>0.53847</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.480502</v>
+        <v>0.586435</v>
       </c>
       <c r="C105" t="n">
-        <v>0.418588</v>
+        <v>0.556369</v>
       </c>
       <c r="D105" t="n">
-        <v>0.410654</v>
+        <v>0.533573</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.475954</v>
+        <v>0.5958290000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.384605</v>
+        <v>0.558788</v>
       </c>
       <c r="D106" t="n">
-        <v>0.367507</v>
+        <v>0.535548</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.444713</v>
+        <v>0.595703</v>
       </c>
       <c r="C107" t="n">
-        <v>0.423627</v>
+        <v>0.562463</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4079</v>
+        <v>0.533573</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.48205</v>
+        <v>0.608457</v>
       </c>
       <c r="C108" t="n">
-        <v>0.426169</v>
+        <v>0.560236</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6649350000000001</v>
+        <v>0.979704</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.492807</v>
+        <v>0.612347</v>
       </c>
       <c r="C109" t="n">
-        <v>0.433394</v>
+        <v>0.585202</v>
       </c>
       <c r="D109" t="n">
-        <v>0.665007</v>
+        <v>0.983333</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7757540000000001</v>
+        <v>1.04031</v>
       </c>
       <c r="C110" t="n">
-        <v>0.663028</v>
+        <v>1.0004</v>
       </c>
       <c r="D110" t="n">
-        <v>0.666459</v>
+        <v>0.981603</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.772755</v>
+        <v>1.03756</v>
       </c>
       <c r="C111" t="n">
-        <v>0.663344</v>
+        <v>0.999132</v>
       </c>
       <c r="D111" t="n">
-        <v>0.656247</v>
+        <v>0.980862</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.778676</v>
+        <v>1.04083</v>
       </c>
       <c r="C112" t="n">
-        <v>0.66453</v>
+        <v>1.00064</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6685179999999999</v>
+        <v>0.980113</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.77629</v>
+        <v>1.03906</v>
       </c>
       <c r="C113" t="n">
-        <v>0.664819</v>
+        <v>0.999072</v>
       </c>
       <c r="D113" t="n">
-        <v>0.669671</v>
+        <v>0.981019</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.780725</v>
+        <v>1.03986</v>
       </c>
       <c r="C114" t="n">
-        <v>0.666248</v>
+        <v>1.00182</v>
       </c>
       <c r="D114" t="n">
-        <v>0.658605</v>
+        <v>0.980339</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.777699</v>
+        <v>1.04344</v>
       </c>
       <c r="C115" t="n">
-        <v>0.669109</v>
+        <v>1.00127</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6609159999999999</v>
+        <v>0.979477</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.773817</v>
+        <v>1.0423</v>
       </c>
       <c r="C116" t="n">
-        <v>0.65315</v>
+        <v>0.999116</v>
       </c>
       <c r="D116" t="n">
-        <v>0.675315</v>
+        <v>0.977833</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.776245</v>
+        <v>1.04066</v>
       </c>
       <c r="C117" t="n">
-        <v>0.671681</v>
+        <v>1.001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.677643</v>
+        <v>0.978924</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.771709</v>
+        <v>1.04282</v>
       </c>
       <c r="C118" t="n">
-        <v>0.674525</v>
+        <v>1.00159</v>
       </c>
       <c r="D118" t="n">
-        <v>0.680607</v>
+        <v>0.979521</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.774236</v>
+        <v>1.04369</v>
       </c>
       <c r="C119" t="n">
-        <v>0.677685</v>
+        <v>0.999534</v>
       </c>
       <c r="D119" t="n">
-        <v>0.671281</v>
+        <v>0.980646</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.776613</v>
+        <v>1.04892</v>
       </c>
       <c r="C120" t="n">
-        <v>0.681552</v>
+        <v>1.0089</v>
       </c>
       <c r="D120" t="n">
-        <v>0.689898</v>
+        <v>0.982477</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.76011</v>
+        <v>1.05311</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6865250000000001</v>
+        <v>1.01097</v>
       </c>
       <c r="D121" t="n">
-        <v>0.69617</v>
+        <v>0.9861220000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.790106</v>
+        <v>1.05607</v>
       </c>
       <c r="C122" t="n">
-        <v>0.678732</v>
+        <v>1.01418</v>
       </c>
       <c r="D122" t="n">
-        <v>0.693424</v>
+        <v>0.991238</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.777213</v>
+        <v>1.06127</v>
       </c>
       <c r="C123" t="n">
-        <v>0.703301</v>
+        <v>1.01405</v>
       </c>
       <c r="D123" t="n">
-        <v>0.777894</v>
+        <v>1.30569</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.032</v>
+        <v>1.32668</v>
       </c>
       <c r="C124" t="n">
-        <v>0.769261</v>
+        <v>1.31417</v>
       </c>
       <c r="D124" t="n">
-        <v>0.779385</v>
+        <v>1.31165</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04384</v>
+        <v>1.31234</v>
       </c>
       <c r="C125" t="n">
-        <v>0.763287</v>
+        <v>1.31179</v>
       </c>
       <c r="D125" t="n">
-        <v>0.781417</v>
+        <v>1.30997</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03512</v>
+        <v>1.31436</v>
       </c>
       <c r="C126" t="n">
-        <v>0.764727</v>
+        <v>1.30622</v>
       </c>
       <c r="D126" t="n">
-        <v>0.781675</v>
+        <v>1.30292</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03478</v>
+        <v>1.30944</v>
       </c>
       <c r="C127" t="n">
-        <v>0.772716</v>
+        <v>1.3161</v>
       </c>
       <c r="D127" t="n">
-        <v>0.77679</v>
+        <v>1.30884</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03908</v>
+        <v>1.31634</v>
       </c>
       <c r="C128" t="n">
-        <v>0.773665</v>
+        <v>1.3133</v>
       </c>
       <c r="D128" t="n">
-        <v>0.778334</v>
+        <v>1.31346</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.02628</v>
+        <v>1.32736</v>
       </c>
       <c r="C129" t="n">
-        <v>0.776442</v>
+        <v>1.30686</v>
       </c>
       <c r="D129" t="n">
-        <v>0.788753</v>
+        <v>1.3077</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03808</v>
+        <v>1.31766</v>
       </c>
       <c r="C130" t="n">
-        <v>0.771387</v>
+        <v>1.31256</v>
       </c>
       <c r="D130" t="n">
-        <v>0.790849</v>
+        <v>1.31355</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.01243</v>
+        <v>1.31021</v>
       </c>
       <c r="C131" t="n">
-        <v>0.782213</v>
+        <v>1.31734</v>
       </c>
       <c r="D131" t="n">
-        <v>0.788184</v>
+        <v>1.31338</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04498</v>
+        <v>1.3187</v>
       </c>
       <c r="C132" t="n">
-        <v>0.785311</v>
+        <v>1.31428</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7913520000000001</v>
+        <v>1.3107</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.01934</v>
+        <v>1.32238</v>
       </c>
       <c r="C133" t="n">
-        <v>0.788792</v>
+        <v>1.31674</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8030890000000001</v>
+        <v>1.30493</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04257</v>
+        <v>1.32962</v>
       </c>
       <c r="C134" t="n">
-        <v>0.794122</v>
+        <v>1.31208</v>
       </c>
       <c r="D134" t="n">
-        <v>0.811127</v>
+        <v>1.31964</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.02015</v>
+        <v>1.32575</v>
       </c>
       <c r="C135" t="n">
-        <v>0.801991</v>
+        <v>1.31819</v>
       </c>
       <c r="D135" t="n">
-        <v>0.820533</v>
+        <v>1.30486</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04755</v>
+        <v>1.33341</v>
       </c>
       <c r="C136" t="n">
-        <v>0.804652</v>
+        <v>1.32723</v>
       </c>
       <c r="D136" t="n">
-        <v>0.83536</v>
+        <v>1.31903</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05496</v>
+        <v>1.3579</v>
       </c>
       <c r="C137" t="n">
-        <v>0.824147</v>
+        <v>1.33842</v>
       </c>
       <c r="D137" t="n">
-        <v>0.829619</v>
+        <v>1.42195</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25008</v>
+        <v>1.43895</v>
       </c>
       <c r="C138" t="n">
-        <v>0.816793</v>
+        <v>1.42036</v>
       </c>
       <c r="D138" t="n">
-        <v>0.827971</v>
+        <v>1.41929</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26411</v>
+        <v>1.44184</v>
       </c>
       <c r="C139" t="n">
-        <v>0.818452</v>
+        <v>1.43081</v>
       </c>
       <c r="D139" t="n">
-        <v>0.833684</v>
+        <v>1.4266</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26271</v>
+        <v>1.44336</v>
       </c>
       <c r="C140" t="n">
-        <v>0.821253</v>
+        <v>1.42877</v>
       </c>
       <c r="D140" t="n">
-        <v>0.834429</v>
+        <v>1.42994</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26331</v>
+        <v>1.44997</v>
       </c>
       <c r="C141" t="n">
-        <v>0.820883</v>
+        <v>1.42141</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8359</v>
+        <v>1.4338</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26367</v>
+        <v>1.44979</v>
       </c>
       <c r="C142" t="n">
-        <v>0.823438</v>
+        <v>1.42722</v>
       </c>
       <c r="D142" t="n">
-        <v>0.838637</v>
+        <v>1.4295</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26437</v>
+        <v>1.44947</v>
       </c>
       <c r="C143" t="n">
-        <v>0.823267</v>
+        <v>1.42432</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8421920000000001</v>
+        <v>1.4296</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.255828</v>
+        <v>0.256143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236531</v>
+        <v>0.236525</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249068</v>
+        <v>0.249571</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256439</v>
+        <v>0.256501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236727</v>
+        <v>0.236514</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24952</v>
+        <v>0.250052</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258186</v>
+        <v>0.258284</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237559</v>
+        <v>0.237417</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250918</v>
+        <v>0.251389</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260618</v>
+        <v>0.260586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238338</v>
+        <v>0.238387</v>
       </c>
       <c r="D5" t="n">
-        <v>0.252197</v>
+        <v>0.25265</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262613</v>
+        <v>0.262869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238932</v>
+        <v>0.238751</v>
       </c>
       <c r="D6" t="n">
-        <v>0.253058</v>
+        <v>0.25352</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.266083</v>
+        <v>0.266613</v>
       </c>
       <c r="C7" t="n">
-        <v>0.24</v>
+        <v>0.239833</v>
       </c>
       <c r="D7" t="n">
-        <v>0.255271</v>
+        <v>0.255754</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.271646</v>
+        <v>0.272692</v>
       </c>
       <c r="C8" t="n">
-        <v>0.24214</v>
+        <v>0.241977</v>
       </c>
       <c r="D8" t="n">
-        <v>0.259876</v>
+        <v>0.260424</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.280481</v>
+        <v>0.2815</v>
       </c>
       <c r="C9" t="n">
-        <v>0.247024</v>
+        <v>0.246376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.250663</v>
+        <v>0.251046</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.253341</v>
+        <v>0.254618</v>
       </c>
       <c r="C10" t="n">
-        <v>0.238907</v>
+        <v>0.240375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.252424</v>
+        <v>0.253711</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.25531</v>
+        <v>0.258617</v>
       </c>
       <c r="C11" t="n">
-        <v>0.238991</v>
+        <v>0.2423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252482</v>
+        <v>0.25388</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.256063</v>
+        <v>0.26143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.239449</v>
+        <v>0.246447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.252842</v>
+        <v>0.254574</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.256483</v>
+        <v>0.259787</v>
       </c>
       <c r="C13" t="n">
-        <v>0.239477</v>
+        <v>0.241671</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252871</v>
+        <v>0.254932</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.257555</v>
+        <v>0.258041</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240012</v>
+        <v>0.240245</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253338</v>
+        <v>0.253809</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.258771</v>
+        <v>0.264583</v>
       </c>
       <c r="C15" t="n">
-        <v>0.240669</v>
+        <v>0.243687</v>
       </c>
       <c r="D15" t="n">
-        <v>0.253754</v>
+        <v>0.255478</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.259995</v>
+        <v>0.267594</v>
       </c>
       <c r="C16" t="n">
-        <v>0.24206</v>
+        <v>0.247022</v>
       </c>
       <c r="D16" t="n">
-        <v>0.255102</v>
+        <v>0.257136</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.261435</v>
+        <v>0.265439</v>
       </c>
       <c r="C17" t="n">
-        <v>0.241938</v>
+        <v>0.243762</v>
       </c>
       <c r="D17" t="n">
-        <v>0.255158</v>
+        <v>0.257001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.263024</v>
+        <v>0.264343</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242478</v>
+        <v>0.243712</v>
       </c>
       <c r="D18" t="n">
-        <v>0.256056</v>
+        <v>0.257556</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.265496</v>
+        <v>0.273031</v>
       </c>
       <c r="C19" t="n">
-        <v>0.243791</v>
+        <v>0.249477</v>
       </c>
       <c r="D19" t="n">
-        <v>0.257538</v>
+        <v>0.261868</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.268632</v>
+        <v>0.270243</v>
       </c>
       <c r="C20" t="n">
-        <v>0.244754</v>
+        <v>0.246501</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25909</v>
+        <v>0.259566</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.273556</v>
+        <v>0.276892</v>
       </c>
       <c r="C21" t="n">
-        <v>0.247249</v>
+        <v>0.247164</v>
       </c>
       <c r="D21" t="n">
-        <v>0.262311</v>
+        <v>0.262364</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.280353</v>
+        <v>0.285781</v>
       </c>
       <c r="C22" t="n">
-        <v>0.249877</v>
+        <v>0.253694</v>
       </c>
       <c r="D22" t="n">
-        <v>0.267594</v>
+        <v>0.26974</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289802</v>
+        <v>0.293123</v>
       </c>
       <c r="C23" t="n">
-        <v>0.25378</v>
+        <v>0.256752</v>
       </c>
       <c r="D23" t="n">
-        <v>0.262075</v>
+        <v>0.257895</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.270502</v>
+        <v>0.271007</v>
       </c>
       <c r="C24" t="n">
-        <v>0.260331</v>
+        <v>0.259304</v>
       </c>
       <c r="D24" t="n">
-        <v>0.268281</v>
+        <v>0.268221</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.271317</v>
+        <v>0.274436</v>
       </c>
       <c r="C25" t="n">
-        <v>0.258888</v>
+        <v>0.259895</v>
       </c>
       <c r="D25" t="n">
-        <v>0.269758</v>
+        <v>0.268813</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.273032</v>
+        <v>0.275623</v>
       </c>
       <c r="C26" t="n">
-        <v>0.260591</v>
+        <v>0.259213</v>
       </c>
       <c r="D26" t="n">
-        <v>0.270049</v>
+        <v>0.269493</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.274157</v>
+        <v>0.276032</v>
       </c>
       <c r="C27" t="n">
-        <v>0.261126</v>
+        <v>0.260376</v>
       </c>
       <c r="D27" t="n">
-        <v>0.269704</v>
+        <v>0.271478</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.27572</v>
+        <v>0.277515</v>
       </c>
       <c r="C28" t="n">
-        <v>0.262005</v>
+        <v>0.260844</v>
       </c>
       <c r="D28" t="n">
-        <v>0.269789</v>
+        <v>0.271136</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.277078</v>
+        <v>0.278396</v>
       </c>
       <c r="C29" t="n">
-        <v>0.261268</v>
+        <v>0.260699</v>
       </c>
       <c r="D29" t="n">
-        <v>0.270349</v>
+        <v>0.269442</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.278018</v>
+        <v>0.27942</v>
       </c>
       <c r="C30" t="n">
-        <v>0.262031</v>
+        <v>0.263704</v>
       </c>
       <c r="D30" t="n">
-        <v>0.269529</v>
+        <v>0.272179</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.278063</v>
+        <v>0.282623</v>
       </c>
       <c r="C31" t="n">
-        <v>0.261835</v>
+        <v>0.263133</v>
       </c>
       <c r="D31" t="n">
-        <v>0.269439</v>
+        <v>0.27377</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280718</v>
+        <v>0.283232</v>
       </c>
       <c r="C32" t="n">
-        <v>0.263248</v>
+        <v>0.264787</v>
       </c>
       <c r="D32" t="n">
-        <v>0.271521</v>
+        <v>0.274095</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.283956</v>
+        <v>0.2857</v>
       </c>
       <c r="C33" t="n">
-        <v>0.265386</v>
+        <v>0.264967</v>
       </c>
       <c r="D33" t="n">
-        <v>0.272544</v>
+        <v>0.273514</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.287546</v>
+        <v>0.288667</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26612</v>
+        <v>0.265963</v>
       </c>
       <c r="D34" t="n">
-        <v>0.277088</v>
+        <v>0.276563</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292684</v>
+        <v>0.294981</v>
       </c>
       <c r="C35" t="n">
-        <v>0.268725</v>
+        <v>0.269347</v>
       </c>
       <c r="D35" t="n">
-        <v>0.280016</v>
+        <v>0.281193</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.298866</v>
+        <v>0.301381</v>
       </c>
       <c r="C36" t="n">
-        <v>0.273451</v>
+        <v>0.271249</v>
       </c>
       <c r="D36" t="n">
-        <v>0.287821</v>
+        <v>0.286558</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.306593</v>
+        <v>0.307725</v>
       </c>
       <c r="C37" t="n">
-        <v>0.282874</v>
+        <v>0.277108</v>
       </c>
       <c r="D37" t="n">
-        <v>0.297026</v>
+        <v>0.296968</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.304185</v>
+        <v>0.302675</v>
       </c>
       <c r="C38" t="n">
-        <v>0.292709</v>
+        <v>0.292991</v>
       </c>
       <c r="D38" t="n">
-        <v>0.297283</v>
+        <v>0.299843</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.30242</v>
+        <v>0.300852</v>
       </c>
       <c r="C39" t="n">
-        <v>0.292368</v>
+        <v>0.290976</v>
       </c>
       <c r="D39" t="n">
-        <v>0.297514</v>
+        <v>0.298081</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.30305</v>
+        <v>0.303221</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2915</v>
+        <v>0.291697</v>
       </c>
       <c r="D40" t="n">
-        <v>0.297736</v>
+        <v>0.297226</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304503</v>
+        <v>0.305224</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2921</v>
+        <v>0.292103</v>
       </c>
       <c r="D41" t="n">
-        <v>0.297201</v>
+        <v>0.297651</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.304233</v>
+        <v>0.304998</v>
       </c>
       <c r="C42" t="n">
-        <v>0.290795</v>
+        <v>0.291242</v>
       </c>
       <c r="D42" t="n">
-        <v>0.298463</v>
+        <v>0.298485</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.306842</v>
+        <v>0.303415</v>
       </c>
       <c r="C43" t="n">
-        <v>0.29184</v>
+        <v>0.291781</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298589</v>
+        <v>0.299851</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.304978</v>
+        <v>0.305319</v>
       </c>
       <c r="C44" t="n">
-        <v>0.292354</v>
+        <v>0.293474</v>
       </c>
       <c r="D44" t="n">
-        <v>0.298535</v>
+        <v>0.299984</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.307595</v>
+        <v>0.30769</v>
       </c>
       <c r="C45" t="n">
-        <v>0.294294</v>
+        <v>0.29267</v>
       </c>
       <c r="D45" t="n">
-        <v>0.300206</v>
+        <v>0.300697</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.310256</v>
+        <v>0.311718</v>
       </c>
       <c r="C46" t="n">
-        <v>0.293228</v>
+        <v>0.293007</v>
       </c>
       <c r="D46" t="n">
-        <v>0.301835</v>
+        <v>0.301098</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.311824</v>
+        <v>0.311621</v>
       </c>
       <c r="C47" t="n">
-        <v>0.294663</v>
+        <v>0.294874</v>
       </c>
       <c r="D47" t="n">
-        <v>0.303178</v>
+        <v>0.303465</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.315296</v>
+        <v>0.314575</v>
       </c>
       <c r="C48" t="n">
-        <v>0.296962</v>
+        <v>0.296889</v>
       </c>
       <c r="D48" t="n">
-        <v>0.305275</v>
+        <v>0.305453</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.321429</v>
+        <v>0.319487</v>
       </c>
       <c r="C49" t="n">
-        <v>0.298657</v>
+        <v>0.296106</v>
       </c>
       <c r="D49" t="n">
-        <v>0.308878</v>
+        <v>0.307403</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.326722</v>
+        <v>0.322367</v>
       </c>
       <c r="C50" t="n">
-        <v>0.302302</v>
+        <v>0.302928</v>
       </c>
       <c r="D50" t="n">
-        <v>0.315245</v>
+        <v>0.314905</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.331343</v>
+        <v>0.331033</v>
       </c>
       <c r="C51" t="n">
-        <v>0.307288</v>
+        <v>0.30508</v>
       </c>
       <c r="D51" t="n">
-        <v>0.326586</v>
+        <v>0.327343</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.342688</v>
+        <v>0.340005</v>
       </c>
       <c r="C52" t="n">
-        <v>0.312789</v>
+        <v>0.312031</v>
       </c>
       <c r="D52" t="n">
-        <v>0.320062</v>
+        <v>0.327766</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.331081</v>
+        <v>0.329332</v>
       </c>
       <c r="C53" t="n">
-        <v>0.319353</v>
+        <v>0.319845</v>
       </c>
       <c r="D53" t="n">
-        <v>0.325681</v>
+        <v>0.327314</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.330689</v>
+        <v>0.329996</v>
       </c>
       <c r="C54" t="n">
-        <v>0.318338</v>
+        <v>0.320248</v>
       </c>
       <c r="D54" t="n">
-        <v>0.326123</v>
+        <v>0.326024</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330482</v>
+        <v>0.33086</v>
       </c>
       <c r="C55" t="n">
-        <v>0.317951</v>
+        <v>0.319354</v>
       </c>
       <c r="D55" t="n">
-        <v>0.327549</v>
+        <v>0.326218</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331726</v>
+        <v>0.332182</v>
       </c>
       <c r="C56" t="n">
-        <v>0.320037</v>
+        <v>0.318303</v>
       </c>
       <c r="D56" t="n">
-        <v>0.327341</v>
+        <v>0.327962</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332695</v>
+        <v>0.331633</v>
       </c>
       <c r="C57" t="n">
-        <v>0.319308</v>
+        <v>0.319817</v>
       </c>
       <c r="D57" t="n">
-        <v>0.327411</v>
+        <v>0.32798</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.33374</v>
+        <v>0.332084</v>
       </c>
       <c r="C58" t="n">
-        <v>0.319415</v>
+        <v>0.319139</v>
       </c>
       <c r="D58" t="n">
-        <v>0.328358</v>
+        <v>0.329016</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.333814</v>
+        <v>0.333809</v>
       </c>
       <c r="C59" t="n">
-        <v>0.320506</v>
+        <v>0.321224</v>
       </c>
       <c r="D59" t="n">
-        <v>0.32987</v>
+        <v>0.328468</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.33653</v>
+        <v>0.335989</v>
       </c>
       <c r="C60" t="n">
-        <v>0.320741</v>
+        <v>0.320102</v>
       </c>
       <c r="D60" t="n">
-        <v>0.329973</v>
+        <v>0.329424</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.340301</v>
+        <v>0.337131</v>
       </c>
       <c r="C61" t="n">
-        <v>0.321969</v>
+        <v>0.322257</v>
       </c>
       <c r="D61" t="n">
-        <v>0.332316</v>
+        <v>0.330826</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.34284</v>
+        <v>0.341044</v>
       </c>
       <c r="C62" t="n">
-        <v>0.322616</v>
+        <v>0.322604</v>
       </c>
       <c r="D62" t="n">
-        <v>0.333455</v>
+        <v>0.333254</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.345205</v>
+        <v>0.344285</v>
       </c>
       <c r="C63" t="n">
-        <v>0.324989</v>
+        <v>0.325692</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337193</v>
+        <v>0.337806</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.351962</v>
+        <v>0.349677</v>
       </c>
       <c r="C64" t="n">
-        <v>0.327173</v>
+        <v>0.328914</v>
       </c>
       <c r="D64" t="n">
-        <v>0.341291</v>
+        <v>0.341949</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.357418</v>
+        <v>0.356893</v>
       </c>
       <c r="C65" t="n">
-        <v>0.332371</v>
+        <v>0.331571</v>
       </c>
       <c r="D65" t="n">
-        <v>0.349233</v>
+        <v>0.347339</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.365344</v>
+        <v>0.365949</v>
       </c>
       <c r="C66" t="n">
-        <v>0.341687</v>
+        <v>0.338152</v>
       </c>
       <c r="D66" t="n">
-        <v>0.344126</v>
+        <v>0.345273</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347519</v>
+        <v>0.347094</v>
       </c>
       <c r="C67" t="n">
-        <v>0.337072</v>
+        <v>0.336896</v>
       </c>
       <c r="D67" t="n">
-        <v>0.343598</v>
+        <v>0.345218</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.348205</v>
+        <v>0.347668</v>
       </c>
       <c r="C68" t="n">
-        <v>0.336956</v>
+        <v>0.337144</v>
       </c>
       <c r="D68" t="n">
-        <v>0.346237</v>
+        <v>0.345545</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.348891</v>
+        <v>0.348564</v>
       </c>
       <c r="C69" t="n">
-        <v>0.337486</v>
+        <v>0.3375</v>
       </c>
       <c r="D69" t="n">
-        <v>0.346231</v>
+        <v>0.345975</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.349581</v>
+        <v>0.349155</v>
       </c>
       <c r="C70" t="n">
-        <v>0.337765</v>
+        <v>0.337582</v>
       </c>
       <c r="D70" t="n">
-        <v>0.346801</v>
+        <v>0.346081</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.349885</v>
+        <v>0.350279</v>
       </c>
       <c r="C71" t="n">
-        <v>0.336116</v>
+        <v>0.337902</v>
       </c>
       <c r="D71" t="n">
-        <v>0.346705</v>
+        <v>0.347085</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.350864</v>
+        <v>0.351874</v>
       </c>
       <c r="C72" t="n">
-        <v>0.338467</v>
+        <v>0.338643</v>
       </c>
       <c r="D72" t="n">
-        <v>0.34753</v>
+        <v>0.3474</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.351467</v>
+        <v>0.35256</v>
       </c>
       <c r="C73" t="n">
-        <v>0.339022</v>
+        <v>0.339217</v>
       </c>
       <c r="D73" t="n">
-        <v>0.34831</v>
+        <v>0.348097</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.355185</v>
+        <v>0.354308</v>
       </c>
       <c r="C74" t="n">
-        <v>0.33797</v>
+        <v>0.339994</v>
       </c>
       <c r="D74" t="n">
-        <v>0.349249</v>
+        <v>0.348991</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.357018</v>
+        <v>0.357046</v>
       </c>
       <c r="C75" t="n">
-        <v>0.340325</v>
+        <v>0.341082</v>
       </c>
       <c r="D75" t="n">
-        <v>0.350322</v>
+        <v>0.350692</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.360488</v>
+        <v>0.359046</v>
       </c>
       <c r="C76" t="n">
-        <v>0.34223</v>
+        <v>0.34208</v>
       </c>
       <c r="D76" t="n">
-        <v>0.352833</v>
+        <v>0.352286</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.362474</v>
+        <v>0.363158</v>
       </c>
       <c r="C77" t="n">
-        <v>0.343644</v>
+        <v>0.34403</v>
       </c>
       <c r="D77" t="n">
-        <v>0.355645</v>
+        <v>0.355186</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.367637</v>
+        <v>0.367257</v>
       </c>
       <c r="C78" t="n">
-        <v>0.345498</v>
+        <v>0.346233</v>
       </c>
       <c r="D78" t="n">
-        <v>0.359224</v>
+        <v>0.359067</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.374505</v>
+        <v>0.374161</v>
       </c>
       <c r="C79" t="n">
-        <v>0.347725</v>
+        <v>0.349709</v>
       </c>
       <c r="D79" t="n">
-        <v>0.365438</v>
+        <v>0.364823</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.382477</v>
+        <v>0.382073</v>
       </c>
       <c r="C80" t="n">
-        <v>0.355158</v>
+        <v>0.354904</v>
       </c>
       <c r="D80" t="n">
-        <v>0.365143</v>
+        <v>0.364197</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.376926</v>
+        <v>0.372662</v>
       </c>
       <c r="C81" t="n">
-        <v>0.359079</v>
+        <v>0.348101</v>
       </c>
       <c r="D81" t="n">
-        <v>0.364778</v>
+        <v>0.363479</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.369869</v>
+        <v>0.369901</v>
       </c>
       <c r="C82" t="n">
-        <v>0.360474</v>
+        <v>0.359873</v>
       </c>
       <c r="D82" t="n">
-        <v>0.365547</v>
+        <v>0.365599</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.37255</v>
+        <v>0.372433</v>
       </c>
       <c r="C83" t="n">
-        <v>0.360426</v>
+        <v>0.361312</v>
       </c>
       <c r="D83" t="n">
-        <v>0.364923</v>
+        <v>0.361041</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.37265</v>
+        <v>0.372332</v>
       </c>
       <c r="C84" t="n">
-        <v>0.362902</v>
+        <v>0.363951</v>
       </c>
       <c r="D84" t="n">
-        <v>0.364607</v>
+        <v>0.365899</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.372334</v>
+        <v>0.373171</v>
       </c>
       <c r="C85" t="n">
-        <v>0.36138</v>
+        <v>0.36164</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3655</v>
+        <v>0.367255</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.376278</v>
+        <v>0.373012</v>
       </c>
       <c r="C86" t="n">
-        <v>0.360797</v>
+        <v>0.364678</v>
       </c>
       <c r="D86" t="n">
-        <v>0.366768</v>
+        <v>0.362064</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.374844</v>
+        <v>0.375085</v>
       </c>
       <c r="C87" t="n">
-        <v>0.366306</v>
+        <v>0.365242</v>
       </c>
       <c r="D87" t="n">
-        <v>0.367114</v>
+        <v>0.363002</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.377581</v>
+        <v>0.376621</v>
       </c>
       <c r="C88" t="n">
-        <v>0.366194</v>
+        <v>0.367265</v>
       </c>
       <c r="D88" t="n">
-        <v>0.370738</v>
+        <v>0.371175</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.382841</v>
+        <v>0.378783</v>
       </c>
       <c r="C89" t="n">
-        <v>0.366049</v>
+        <v>0.364285</v>
       </c>
       <c r="D89" t="n">
-        <v>0.368664</v>
+        <v>0.370498</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.384958</v>
+        <v>0.381546</v>
       </c>
       <c r="C90" t="n">
-        <v>0.365558</v>
+        <v>0.352963</v>
       </c>
       <c r="D90" t="n">
-        <v>0.372077</v>
+        <v>0.371962</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.38583</v>
+        <v>0.384862</v>
       </c>
       <c r="C91" t="n">
-        <v>0.365186</v>
+        <v>0.368199</v>
       </c>
       <c r="D91" t="n">
-        <v>0.37618</v>
+        <v>0.367166</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.391415</v>
+        <v>0.393188</v>
       </c>
       <c r="C92" t="n">
-        <v>0.369868</v>
+        <v>0.367473</v>
       </c>
       <c r="D92" t="n">
-        <v>0.376689</v>
+        <v>0.368782</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.397627</v>
+        <v>0.397576</v>
       </c>
       <c r="C93" t="n">
-        <v>0.375095</v>
+        <v>0.372944</v>
       </c>
       <c r="D93" t="n">
-        <v>0.382678</v>
+        <v>0.374318</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.40402</v>
+        <v>0.405528</v>
       </c>
       <c r="C94" t="n">
-        <v>0.387058</v>
+        <v>0.376064</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5293020000000001</v>
+        <v>0.521613</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.579739</v>
+        <v>0.563196</v>
       </c>
       <c r="C95" t="n">
-        <v>0.558057</v>
+        <v>0.557944</v>
       </c>
       <c r="D95" t="n">
-        <v>0.523819</v>
+        <v>0.48827</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.586791</v>
+        <v>0.592774</v>
       </c>
       <c r="C96" t="n">
-        <v>0.557086</v>
+        <v>0.554462</v>
       </c>
       <c r="D96" t="n">
-        <v>0.53035</v>
+        <v>0.5219819999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.587973</v>
+        <v>0.575973</v>
       </c>
       <c r="C97" t="n">
-        <v>0.563229</v>
+        <v>0.559473</v>
       </c>
       <c r="D97" t="n">
-        <v>0.536318</v>
+        <v>0.518137</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.587449</v>
+        <v>0.585939</v>
       </c>
       <c r="C98" t="n">
-        <v>0.55328</v>
+        <v>0.548428</v>
       </c>
       <c r="D98" t="n">
-        <v>0.538067</v>
+        <v>0.480895</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.583199</v>
+        <v>0.596458</v>
       </c>
       <c r="C99" t="n">
-        <v>0.557609</v>
+        <v>0.542365</v>
       </c>
       <c r="D99" t="n">
-        <v>0.534431</v>
+        <v>0.522641</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.590015</v>
+        <v>0.589913</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5564519999999999</v>
+        <v>0.549303</v>
       </c>
       <c r="D100" t="n">
-        <v>0.530976</v>
+        <v>0.520869</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.583728</v>
+        <v>0.592336</v>
       </c>
       <c r="C101" t="n">
-        <v>0.561292</v>
+        <v>0.554194</v>
       </c>
       <c r="D101" t="n">
-        <v>0.527687</v>
+        <v>0.523907</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.586645</v>
+        <v>0.600244</v>
       </c>
       <c r="C102" t="n">
-        <v>0.556275</v>
+        <v>0.5508729999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.533146</v>
+        <v>0.476656</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.586566</v>
+        <v>0.6047129999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.56073</v>
+        <v>0.551563</v>
       </c>
       <c r="D103" t="n">
-        <v>0.532397</v>
+        <v>0.52819</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.592544</v>
+        <v>0.594354</v>
       </c>
       <c r="C104" t="n">
-        <v>0.55242</v>
+        <v>0.510623</v>
       </c>
       <c r="D104" t="n">
-        <v>0.53847</v>
+        <v>0.48713</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.586435</v>
+        <v>0.597657</v>
       </c>
       <c r="C105" t="n">
-        <v>0.556369</v>
+        <v>0.55844</v>
       </c>
       <c r="D105" t="n">
-        <v>0.533573</v>
+        <v>0.530105</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5958290000000001</v>
+        <v>0.605203</v>
       </c>
       <c r="C106" t="n">
-        <v>0.558788</v>
+        <v>0.55628</v>
       </c>
       <c r="D106" t="n">
-        <v>0.535548</v>
+        <v>0.530014</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.595703</v>
+        <v>0.606133</v>
       </c>
       <c r="C107" t="n">
-        <v>0.562463</v>
+        <v>0.527879</v>
       </c>
       <c r="D107" t="n">
-        <v>0.533573</v>
+        <v>0.531878</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.608457</v>
+        <v>0.599207</v>
       </c>
       <c r="C108" t="n">
-        <v>0.560236</v>
+        <v>0.576777</v>
       </c>
       <c r="D108" t="n">
-        <v>0.979704</v>
+        <v>0.99336</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.612347</v>
+        <v>0.617434</v>
       </c>
       <c r="C109" t="n">
-        <v>0.585202</v>
+        <v>0.573695</v>
       </c>
       <c r="D109" t="n">
-        <v>0.983333</v>
+        <v>0.996043</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.04031</v>
+        <v>1.05249</v>
       </c>
       <c r="C110" t="n">
-        <v>1.0004</v>
+        <v>1.01463</v>
       </c>
       <c r="D110" t="n">
-        <v>0.981603</v>
+        <v>0.994374</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.03756</v>
+        <v>1.05229</v>
       </c>
       <c r="C111" t="n">
-        <v>0.999132</v>
+        <v>1.0126</v>
       </c>
       <c r="D111" t="n">
-        <v>0.980862</v>
+        <v>0.9660029999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.04083</v>
+        <v>1.05119</v>
       </c>
       <c r="C112" t="n">
-        <v>1.00064</v>
+        <v>1.01189</v>
       </c>
       <c r="D112" t="n">
-        <v>0.980113</v>
+        <v>0.990084</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.03906</v>
+        <v>1.05145</v>
       </c>
       <c r="C113" t="n">
-        <v>0.999072</v>
+        <v>0.983899</v>
       </c>
       <c r="D113" t="n">
-        <v>0.981019</v>
+        <v>0.99119</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.03986</v>
+        <v>1.05114</v>
       </c>
       <c r="C114" t="n">
-        <v>1.00182</v>
+        <v>1.01052</v>
       </c>
       <c r="D114" t="n">
-        <v>0.980339</v>
+        <v>0.987711</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.04344</v>
+        <v>1.05034</v>
       </c>
       <c r="C115" t="n">
-        <v>1.00127</v>
+        <v>0.982175</v>
       </c>
       <c r="D115" t="n">
-        <v>0.979477</v>
+        <v>0.987475</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.0423</v>
+        <v>1.05058</v>
       </c>
       <c r="C116" t="n">
-        <v>0.999116</v>
+        <v>1.01234</v>
       </c>
       <c r="D116" t="n">
-        <v>0.977833</v>
+        <v>0.987845</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.04066</v>
+        <v>1.05134</v>
       </c>
       <c r="C117" t="n">
-        <v>1.001</v>
+        <v>0.9833</v>
       </c>
       <c r="D117" t="n">
-        <v>0.978924</v>
+        <v>0.990409</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.04282</v>
+        <v>1.0542</v>
       </c>
       <c r="C118" t="n">
-        <v>1.00159</v>
+        <v>1.01203</v>
       </c>
       <c r="D118" t="n">
-        <v>0.979521</v>
+        <v>0.990111</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.04369</v>
+        <v>1.05723</v>
       </c>
       <c r="C119" t="n">
-        <v>0.999534</v>
+        <v>1.01162</v>
       </c>
       <c r="D119" t="n">
-        <v>0.980646</v>
+        <v>0.965614</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.04892</v>
+        <v>1.05774</v>
       </c>
       <c r="C120" t="n">
-        <v>1.0089</v>
+        <v>0.987025</v>
       </c>
       <c r="D120" t="n">
-        <v>0.982477</v>
+        <v>0.988322</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.05311</v>
+        <v>1.05866</v>
       </c>
       <c r="C121" t="n">
-        <v>1.01097</v>
+        <v>1.01432</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9861220000000001</v>
+        <v>0.995214</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.05607</v>
+        <v>1.06232</v>
       </c>
       <c r="C122" t="n">
-        <v>1.01418</v>
+        <v>1.02029</v>
       </c>
       <c r="D122" t="n">
-        <v>0.991238</v>
+        <v>0.997009</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.06127</v>
+        <v>1.06666</v>
       </c>
       <c r="C123" t="n">
-        <v>1.01405</v>
+        <v>1.02137</v>
       </c>
       <c r="D123" t="n">
-        <v>1.30569</v>
+        <v>1.30768</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.32668</v>
+        <v>1.31049</v>
       </c>
       <c r="C124" t="n">
-        <v>1.31417</v>
+        <v>1.29361</v>
       </c>
       <c r="D124" t="n">
-        <v>1.31165</v>
+        <v>1.30712</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31234</v>
+        <v>1.32355</v>
       </c>
       <c r="C125" t="n">
-        <v>1.31179</v>
+        <v>1.3057</v>
       </c>
       <c r="D125" t="n">
-        <v>1.30997</v>
+        <v>1.30424</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.31436</v>
+        <v>1.33823</v>
       </c>
       <c r="C126" t="n">
-        <v>1.30622</v>
+        <v>1.31134</v>
       </c>
       <c r="D126" t="n">
-        <v>1.30292</v>
+        <v>1.31241</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.30944</v>
+        <v>1.31999</v>
       </c>
       <c r="C127" t="n">
-        <v>1.3161</v>
+        <v>1.30506</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30884</v>
+        <v>1.28757</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31634</v>
+        <v>1.3196</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3133</v>
+        <v>1.30253</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31346</v>
+        <v>1.30529</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.32736</v>
+        <v>1.31325</v>
       </c>
       <c r="C129" t="n">
-        <v>1.30686</v>
+        <v>1.30789</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3077</v>
+        <v>1.30662</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.31766</v>
+        <v>1.31392</v>
       </c>
       <c r="C130" t="n">
-        <v>1.31256</v>
+        <v>1.31103</v>
       </c>
       <c r="D130" t="n">
-        <v>1.31355</v>
+        <v>1.30992</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.31021</v>
+        <v>1.31889</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31734</v>
+        <v>1.3113</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31338</v>
+        <v>1.31063</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.3187</v>
+        <v>1.33095</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31428</v>
+        <v>1.3144</v>
       </c>
       <c r="D132" t="n">
-        <v>1.3107</v>
+        <v>1.29907</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32238</v>
+        <v>1.32742</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31674</v>
+        <v>1.31682</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30493</v>
+        <v>1.31252</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.32962</v>
+        <v>1.32193</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31208</v>
+        <v>1.30672</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31964</v>
+        <v>1.31641</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.32575</v>
+        <v>1.33233</v>
       </c>
       <c r="C135" t="n">
-        <v>1.31819</v>
+        <v>1.32563</v>
       </c>
       <c r="D135" t="n">
-        <v>1.30486</v>
+        <v>1.30642</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.33341</v>
+        <v>1.34045</v>
       </c>
       <c r="C136" t="n">
-        <v>1.32723</v>
+        <v>1.3256</v>
       </c>
       <c r="D136" t="n">
-        <v>1.31903</v>
+        <v>1.32867</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.3579</v>
+        <v>1.35281</v>
       </c>
       <c r="C137" t="n">
-        <v>1.33842</v>
+        <v>1.32205</v>
       </c>
       <c r="D137" t="n">
-        <v>1.42195</v>
+        <v>1.44435</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.43895</v>
+        <v>1.44685</v>
       </c>
       <c r="C138" t="n">
-        <v>1.42036</v>
+        <v>1.43483</v>
       </c>
       <c r="D138" t="n">
-        <v>1.41929</v>
+        <v>1.43988</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.44184</v>
+        <v>1.44736</v>
       </c>
       <c r="C139" t="n">
-        <v>1.43081</v>
+        <v>1.43239</v>
       </c>
       <c r="D139" t="n">
-        <v>1.4266</v>
+        <v>1.42377</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.44336</v>
+        <v>1.45121</v>
       </c>
       <c r="C140" t="n">
-        <v>1.42877</v>
+        <v>1.43288</v>
       </c>
       <c r="D140" t="n">
-        <v>1.42994</v>
+        <v>1.43095</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.44997</v>
+        <v>1.45242</v>
       </c>
       <c r="C141" t="n">
-        <v>1.42141</v>
+        <v>1.43281</v>
       </c>
       <c r="D141" t="n">
-        <v>1.4338</v>
+        <v>1.42576</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.44979</v>
+        <v>1.448</v>
       </c>
       <c r="C142" t="n">
-        <v>1.42722</v>
+        <v>1.44009</v>
       </c>
       <c r="D142" t="n">
-        <v>1.4295</v>
+        <v>1.43656</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.44947</v>
+        <v>1.45438</v>
       </c>
       <c r="C143" t="n">
-        <v>1.42432</v>
+        <v>1.4343</v>
       </c>
       <c r="D143" t="n">
-        <v>1.4296</v>
+        <v>1.43917</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.256143</v>
+        <v>0.255978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236525</v>
+        <v>0.236423</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249571</v>
+        <v>0.249534</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256501</v>
+        <v>0.256343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236514</v>
+        <v>0.236554</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250052</v>
+        <v>0.250033</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258284</v>
+        <v>0.258116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237417</v>
+        <v>0.237352</v>
       </c>
       <c r="D4" t="n">
-        <v>0.251389</v>
+        <v>0.251423</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260586</v>
+        <v>0.26052</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238387</v>
+        <v>0.238311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25265</v>
+        <v>0.252615</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262869</v>
+        <v>0.262738</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238751</v>
+        <v>0.238681</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25352</v>
+        <v>0.253569</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.266613</v>
+        <v>0.266597</v>
       </c>
       <c r="C7" t="n">
-        <v>0.239833</v>
+        <v>0.239851</v>
       </c>
       <c r="D7" t="n">
-        <v>0.255754</v>
+        <v>0.255741</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.272692</v>
+        <v>0.272362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.241977</v>
+        <v>0.24196</v>
       </c>
       <c r="D8" t="n">
-        <v>0.260424</v>
+        <v>0.26029</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2815</v>
+        <v>0.281402</v>
       </c>
       <c r="C9" t="n">
-        <v>0.246376</v>
+        <v>0.246455</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251046</v>
+        <v>0.253181</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.254618</v>
+        <v>0.254237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240375</v>
+        <v>0.238962</v>
       </c>
       <c r="D10" t="n">
-        <v>0.253711</v>
+        <v>0.252721</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.258617</v>
+        <v>0.255377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2423</v>
+        <v>0.239021</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25388</v>
+        <v>0.25276</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26143</v>
+        <v>0.257267</v>
       </c>
       <c r="C12" t="n">
-        <v>0.246447</v>
+        <v>0.239598</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254574</v>
+        <v>0.25334</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.259787</v>
+        <v>0.25779</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241671</v>
+        <v>0.241487</v>
       </c>
       <c r="D13" t="n">
-        <v>0.254932</v>
+        <v>0.254014</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.258041</v>
+        <v>0.257729</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240245</v>
+        <v>0.239997</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253809</v>
+        <v>0.253659</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264583</v>
+        <v>0.258982</v>
       </c>
       <c r="C15" t="n">
-        <v>0.243687</v>
+        <v>0.240636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.255478</v>
+        <v>0.254321</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.267594</v>
+        <v>0.260092</v>
       </c>
       <c r="C16" t="n">
-        <v>0.247022</v>
+        <v>0.241014</v>
       </c>
       <c r="D16" t="n">
-        <v>0.257136</v>
+        <v>0.255019</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.265439</v>
+        <v>0.262688</v>
       </c>
       <c r="C17" t="n">
-        <v>0.243762</v>
+        <v>0.242666</v>
       </c>
       <c r="D17" t="n">
-        <v>0.257001</v>
+        <v>0.255741</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.264343</v>
+        <v>0.263403</v>
       </c>
       <c r="C18" t="n">
-        <v>0.243712</v>
+        <v>0.242447</v>
       </c>
       <c r="D18" t="n">
-        <v>0.257556</v>
+        <v>0.256634</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.273031</v>
+        <v>0.267978</v>
       </c>
       <c r="C19" t="n">
-        <v>0.249477</v>
+        <v>0.244695</v>
       </c>
       <c r="D19" t="n">
-        <v>0.261868</v>
+        <v>0.258229</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.270243</v>
+        <v>0.269244</v>
       </c>
       <c r="C20" t="n">
-        <v>0.246501</v>
+        <v>0.244669</v>
       </c>
       <c r="D20" t="n">
-        <v>0.259566</v>
+        <v>0.259627</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.276892</v>
+        <v>0.274188</v>
       </c>
       <c r="C21" t="n">
-        <v>0.247164</v>
+        <v>0.24627</v>
       </c>
       <c r="D21" t="n">
-        <v>0.262364</v>
+        <v>0.262318</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.285781</v>
+        <v>0.280332</v>
       </c>
       <c r="C22" t="n">
-        <v>0.253694</v>
+        <v>0.24959</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26974</v>
+        <v>0.267637</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293123</v>
+        <v>0.290808</v>
       </c>
       <c r="C23" t="n">
-        <v>0.256752</v>
+        <v>0.255392</v>
       </c>
       <c r="D23" t="n">
-        <v>0.257895</v>
+        <v>0.265555</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.271007</v>
+        <v>0.271273</v>
       </c>
       <c r="C24" t="n">
-        <v>0.259304</v>
+        <v>0.259929</v>
       </c>
       <c r="D24" t="n">
-        <v>0.268221</v>
+        <v>0.26586</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.274436</v>
+        <v>0.27225</v>
       </c>
       <c r="C25" t="n">
-        <v>0.259895</v>
+        <v>0.258106</v>
       </c>
       <c r="D25" t="n">
-        <v>0.268813</v>
+        <v>0.267794</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.275623</v>
+        <v>0.274308</v>
       </c>
       <c r="C26" t="n">
-        <v>0.259213</v>
+        <v>0.260385</v>
       </c>
       <c r="D26" t="n">
-        <v>0.269493</v>
+        <v>0.267466</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276032</v>
+        <v>0.27485</v>
       </c>
       <c r="C27" t="n">
-        <v>0.260376</v>
+        <v>0.258552</v>
       </c>
       <c r="D27" t="n">
-        <v>0.271478</v>
+        <v>0.267175</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277515</v>
+        <v>0.277133</v>
       </c>
       <c r="C28" t="n">
-        <v>0.260844</v>
+        <v>0.260828</v>
       </c>
       <c r="D28" t="n">
-        <v>0.271136</v>
+        <v>0.270004</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.278396</v>
+        <v>0.277856</v>
       </c>
       <c r="C29" t="n">
-        <v>0.260699</v>
+        <v>0.260904</v>
       </c>
       <c r="D29" t="n">
-        <v>0.269442</v>
+        <v>0.269832</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.27942</v>
+        <v>0.279169</v>
       </c>
       <c r="C30" t="n">
-        <v>0.263704</v>
+        <v>0.261998</v>
       </c>
       <c r="D30" t="n">
-        <v>0.272179</v>
+        <v>0.270452</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.282623</v>
+        <v>0.279469</v>
       </c>
       <c r="C31" t="n">
-        <v>0.263133</v>
+        <v>0.260729</v>
       </c>
       <c r="D31" t="n">
-        <v>0.27377</v>
+        <v>0.270183</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.283232</v>
+        <v>0.281229</v>
       </c>
       <c r="C32" t="n">
-        <v>0.264787</v>
+        <v>0.261339</v>
       </c>
       <c r="D32" t="n">
-        <v>0.274095</v>
+        <v>0.272731</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2857</v>
+        <v>0.283877</v>
       </c>
       <c r="C33" t="n">
-        <v>0.264967</v>
+        <v>0.264398</v>
       </c>
       <c r="D33" t="n">
-        <v>0.273514</v>
+        <v>0.274414</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.288667</v>
+        <v>0.28783</v>
       </c>
       <c r="C34" t="n">
-        <v>0.265963</v>
+        <v>0.26531</v>
       </c>
       <c r="D34" t="n">
-        <v>0.276563</v>
+        <v>0.275498</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.294981</v>
+        <v>0.293267</v>
       </c>
       <c r="C35" t="n">
-        <v>0.269347</v>
+        <v>0.267021</v>
       </c>
       <c r="D35" t="n">
-        <v>0.281193</v>
+        <v>0.27811</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.301381</v>
+        <v>0.2988</v>
       </c>
       <c r="C36" t="n">
-        <v>0.271249</v>
+        <v>0.27073</v>
       </c>
       <c r="D36" t="n">
-        <v>0.286558</v>
+        <v>0.283243</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.307725</v>
+        <v>0.305651</v>
       </c>
       <c r="C37" t="n">
-        <v>0.277108</v>
+        <v>0.275865</v>
       </c>
       <c r="D37" t="n">
-        <v>0.296968</v>
+        <v>0.299417</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.302675</v>
+        <v>0.302248</v>
       </c>
       <c r="C38" t="n">
-        <v>0.292991</v>
+        <v>0.291826</v>
       </c>
       <c r="D38" t="n">
-        <v>0.299843</v>
+        <v>0.296481</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.300852</v>
+        <v>0.302747</v>
       </c>
       <c r="C39" t="n">
-        <v>0.290976</v>
+        <v>0.293092</v>
       </c>
       <c r="D39" t="n">
-        <v>0.298081</v>
+        <v>0.297546</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.303221</v>
+        <v>0.303415</v>
       </c>
       <c r="C40" t="n">
-        <v>0.291697</v>
+        <v>0.293935</v>
       </c>
       <c r="D40" t="n">
-        <v>0.297226</v>
+        <v>0.300547</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.305224</v>
+        <v>0.30478</v>
       </c>
       <c r="C41" t="n">
-        <v>0.292103</v>
+        <v>0.291114</v>
       </c>
       <c r="D41" t="n">
-        <v>0.297651</v>
+        <v>0.299037</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.304998</v>
+        <v>0.305262</v>
       </c>
       <c r="C42" t="n">
-        <v>0.291242</v>
+        <v>0.292786</v>
       </c>
       <c r="D42" t="n">
-        <v>0.298485</v>
+        <v>0.299521</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.303415</v>
+        <v>0.304185</v>
       </c>
       <c r="C43" t="n">
-        <v>0.291781</v>
+        <v>0.29327</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299851</v>
+        <v>0.299493</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.305319</v>
+        <v>0.305888</v>
       </c>
       <c r="C44" t="n">
-        <v>0.293474</v>
+        <v>0.292799</v>
       </c>
       <c r="D44" t="n">
-        <v>0.299984</v>
+        <v>0.299076</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30769</v>
+        <v>0.308656</v>
       </c>
       <c r="C45" t="n">
-        <v>0.29267</v>
+        <v>0.291982</v>
       </c>
       <c r="D45" t="n">
-        <v>0.300697</v>
+        <v>0.299345</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.311718</v>
+        <v>0.309142</v>
       </c>
       <c r="C46" t="n">
-        <v>0.293007</v>
+        <v>0.29308</v>
       </c>
       <c r="D46" t="n">
-        <v>0.301098</v>
+        <v>0.301107</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.311621</v>
+        <v>0.31288</v>
       </c>
       <c r="C47" t="n">
-        <v>0.294874</v>
+        <v>0.293917</v>
       </c>
       <c r="D47" t="n">
-        <v>0.303465</v>
+        <v>0.302888</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.314575</v>
+        <v>0.317566</v>
       </c>
       <c r="C48" t="n">
-        <v>0.296889</v>
+        <v>0.295331</v>
       </c>
       <c r="D48" t="n">
-        <v>0.305453</v>
+        <v>0.305455</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.319487</v>
+        <v>0.318299</v>
       </c>
       <c r="C49" t="n">
-        <v>0.296106</v>
+        <v>0.297333</v>
       </c>
       <c r="D49" t="n">
-        <v>0.307403</v>
+        <v>0.308049</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.322367</v>
+        <v>0.324495</v>
       </c>
       <c r="C50" t="n">
-        <v>0.302928</v>
+        <v>0.301226</v>
       </c>
       <c r="D50" t="n">
-        <v>0.314905</v>
+        <v>0.314535</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.331033</v>
+        <v>0.330106</v>
       </c>
       <c r="C51" t="n">
-        <v>0.30508</v>
+        <v>0.307629</v>
       </c>
       <c r="D51" t="n">
-        <v>0.327343</v>
+        <v>0.326547</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340005</v>
+        <v>0.341241</v>
       </c>
       <c r="C52" t="n">
-        <v>0.312031</v>
+        <v>0.312414</v>
       </c>
       <c r="D52" t="n">
-        <v>0.327766</v>
+        <v>0.327314</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329332</v>
+        <v>0.3297</v>
       </c>
       <c r="C53" t="n">
-        <v>0.319845</v>
+        <v>0.318356</v>
       </c>
       <c r="D53" t="n">
-        <v>0.327314</v>
+        <v>0.326584</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.329996</v>
+        <v>0.329508</v>
       </c>
       <c r="C54" t="n">
-        <v>0.320248</v>
+        <v>0.319178</v>
       </c>
       <c r="D54" t="n">
-        <v>0.326024</v>
+        <v>0.327119</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33086</v>
+        <v>0.330145</v>
       </c>
       <c r="C55" t="n">
-        <v>0.319354</v>
+        <v>0.317968</v>
       </c>
       <c r="D55" t="n">
-        <v>0.326218</v>
+        <v>0.326183</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.332182</v>
+        <v>0.331164</v>
       </c>
       <c r="C56" t="n">
-        <v>0.318303</v>
+        <v>0.31805</v>
       </c>
       <c r="D56" t="n">
-        <v>0.327962</v>
+        <v>0.327866</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.331633</v>
+        <v>0.332005</v>
       </c>
       <c r="C57" t="n">
-        <v>0.319817</v>
+        <v>0.31875</v>
       </c>
       <c r="D57" t="n">
-        <v>0.32798</v>
+        <v>0.328145</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.332084</v>
+        <v>0.333107</v>
       </c>
       <c r="C58" t="n">
-        <v>0.319139</v>
+        <v>0.31952</v>
       </c>
       <c r="D58" t="n">
-        <v>0.329016</v>
+        <v>0.328727</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.333809</v>
+        <v>0.335129</v>
       </c>
       <c r="C59" t="n">
-        <v>0.321224</v>
+        <v>0.320709</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328468</v>
+        <v>0.329343</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.335989</v>
+        <v>0.33674</v>
       </c>
       <c r="C60" t="n">
-        <v>0.320102</v>
+        <v>0.31981</v>
       </c>
       <c r="D60" t="n">
-        <v>0.329424</v>
+        <v>0.32932</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.337131</v>
+        <v>0.33882</v>
       </c>
       <c r="C61" t="n">
-        <v>0.322257</v>
+        <v>0.321451</v>
       </c>
       <c r="D61" t="n">
-        <v>0.330826</v>
+        <v>0.330954</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.341044</v>
+        <v>0.342196</v>
       </c>
       <c r="C62" t="n">
-        <v>0.322604</v>
+        <v>0.32503</v>
       </c>
       <c r="D62" t="n">
-        <v>0.333254</v>
+        <v>0.334572</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.344285</v>
+        <v>0.346713</v>
       </c>
       <c r="C63" t="n">
-        <v>0.325692</v>
+        <v>0.32667</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337806</v>
+        <v>0.337626</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.349677</v>
+        <v>0.350341</v>
       </c>
       <c r="C64" t="n">
-        <v>0.328914</v>
+        <v>0.327591</v>
       </c>
       <c r="D64" t="n">
-        <v>0.341949</v>
+        <v>0.340848</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.356893</v>
+        <v>0.3552</v>
       </c>
       <c r="C65" t="n">
-        <v>0.331571</v>
+        <v>0.331382</v>
       </c>
       <c r="D65" t="n">
-        <v>0.347339</v>
+        <v>0.347419</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.365949</v>
+        <v>0.364596</v>
       </c>
       <c r="C66" t="n">
-        <v>0.338152</v>
+        <v>0.336777</v>
       </c>
       <c r="D66" t="n">
-        <v>0.345273</v>
+        <v>0.341372</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347094</v>
+        <v>0.343736</v>
       </c>
       <c r="C67" t="n">
-        <v>0.336896</v>
+        <v>0.331847</v>
       </c>
       <c r="D67" t="n">
-        <v>0.345218</v>
+        <v>0.345353</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347668</v>
+        <v>0.34451</v>
       </c>
       <c r="C68" t="n">
-        <v>0.337144</v>
+        <v>0.337952</v>
       </c>
       <c r="D68" t="n">
-        <v>0.345545</v>
+        <v>0.346116</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.348564</v>
+        <v>0.344754</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3375</v>
+        <v>0.337987</v>
       </c>
       <c r="D69" t="n">
-        <v>0.345975</v>
+        <v>0.346281</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.349155</v>
+        <v>0.345561</v>
       </c>
       <c r="C70" t="n">
-        <v>0.337582</v>
+        <v>0.33821</v>
       </c>
       <c r="D70" t="n">
-        <v>0.346081</v>
+        <v>0.346729</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350279</v>
+        <v>0.347084</v>
       </c>
       <c r="C71" t="n">
-        <v>0.337902</v>
+        <v>0.338358</v>
       </c>
       <c r="D71" t="n">
-        <v>0.347085</v>
+        <v>0.346802</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.351874</v>
+        <v>0.348002</v>
       </c>
       <c r="C72" t="n">
-        <v>0.338643</v>
+        <v>0.338739</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3474</v>
+        <v>0.347202</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.35256</v>
+        <v>0.353064</v>
       </c>
       <c r="C73" t="n">
-        <v>0.339217</v>
+        <v>0.33976</v>
       </c>
       <c r="D73" t="n">
-        <v>0.348097</v>
+        <v>0.348045</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.354308</v>
+        <v>0.354869</v>
       </c>
       <c r="C74" t="n">
-        <v>0.339994</v>
+        <v>0.334196</v>
       </c>
       <c r="D74" t="n">
-        <v>0.348991</v>
+        <v>0.349188</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.357046</v>
+        <v>0.35696</v>
       </c>
       <c r="C75" t="n">
-        <v>0.341082</v>
+        <v>0.340888</v>
       </c>
       <c r="D75" t="n">
-        <v>0.350692</v>
+        <v>0.350347</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.359046</v>
+        <v>0.356387</v>
       </c>
       <c r="C76" t="n">
-        <v>0.34208</v>
+        <v>0.339956</v>
       </c>
       <c r="D76" t="n">
-        <v>0.352286</v>
+        <v>0.352679</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.363158</v>
+        <v>0.359644</v>
       </c>
       <c r="C77" t="n">
-        <v>0.34403</v>
+        <v>0.343388</v>
       </c>
       <c r="D77" t="n">
-        <v>0.355186</v>
+        <v>0.354972</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.367257</v>
+        <v>0.364844</v>
       </c>
       <c r="C78" t="n">
-        <v>0.346233</v>
+        <v>0.340785</v>
       </c>
       <c r="D78" t="n">
-        <v>0.359067</v>
+        <v>0.357479</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.374161</v>
+        <v>0.370419</v>
       </c>
       <c r="C79" t="n">
-        <v>0.349709</v>
+        <v>0.349714</v>
       </c>
       <c r="D79" t="n">
-        <v>0.364823</v>
+        <v>0.365278</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.382073</v>
+        <v>0.378483</v>
       </c>
       <c r="C80" t="n">
-        <v>0.354904</v>
+        <v>0.354917</v>
       </c>
       <c r="D80" t="n">
-        <v>0.364197</v>
+        <v>0.362773</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.372662</v>
+        <v>0.368491</v>
       </c>
       <c r="C81" t="n">
-        <v>0.348101</v>
+        <v>0.358632</v>
       </c>
       <c r="D81" t="n">
-        <v>0.363479</v>
+        <v>0.36323</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.369901</v>
+        <v>0.368759</v>
       </c>
       <c r="C82" t="n">
-        <v>0.359873</v>
+        <v>0.34645</v>
       </c>
       <c r="D82" t="n">
-        <v>0.365599</v>
+        <v>0.354957</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.372433</v>
+        <v>0.370302</v>
       </c>
       <c r="C83" t="n">
-        <v>0.361312</v>
+        <v>0.35846</v>
       </c>
       <c r="D83" t="n">
-        <v>0.361041</v>
+        <v>0.363094</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.372332</v>
+        <v>0.371475</v>
       </c>
       <c r="C84" t="n">
-        <v>0.363951</v>
+        <v>0.347839</v>
       </c>
       <c r="D84" t="n">
-        <v>0.365899</v>
+        <v>0.364348</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.373171</v>
+        <v>0.374774</v>
       </c>
       <c r="C85" t="n">
-        <v>0.36164</v>
+        <v>0.361562</v>
       </c>
       <c r="D85" t="n">
-        <v>0.367255</v>
+        <v>0.357257</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.373012</v>
+        <v>0.37236</v>
       </c>
       <c r="C86" t="n">
-        <v>0.364678</v>
+        <v>0.360476</v>
       </c>
       <c r="D86" t="n">
-        <v>0.362064</v>
+        <v>0.356697</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.375085</v>
+        <v>0.375408</v>
       </c>
       <c r="C87" t="n">
-        <v>0.365242</v>
+        <v>0.36127</v>
       </c>
       <c r="D87" t="n">
-        <v>0.363002</v>
+        <v>0.365162</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.376621</v>
+        <v>0.378375</v>
       </c>
       <c r="C88" t="n">
-        <v>0.367265</v>
+        <v>0.361698</v>
       </c>
       <c r="D88" t="n">
-        <v>0.371175</v>
+        <v>0.367809</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.378783</v>
+        <v>0.379575</v>
       </c>
       <c r="C89" t="n">
-        <v>0.364285</v>
+        <v>0.351048</v>
       </c>
       <c r="D89" t="n">
-        <v>0.370498</v>
+        <v>0.367785</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.381546</v>
+        <v>0.381964</v>
       </c>
       <c r="C90" t="n">
-        <v>0.352963</v>
+        <v>0.363741</v>
       </c>
       <c r="D90" t="n">
-        <v>0.371962</v>
+        <v>0.370203</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.384862</v>
+        <v>0.384957</v>
       </c>
       <c r="C91" t="n">
-        <v>0.368199</v>
+        <v>0.371859</v>
       </c>
       <c r="D91" t="n">
-        <v>0.367166</v>
+        <v>0.374267</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.393188</v>
+        <v>0.391505</v>
       </c>
       <c r="C92" t="n">
-        <v>0.367473</v>
+        <v>0.359039</v>
       </c>
       <c r="D92" t="n">
-        <v>0.368782</v>
+        <v>0.377035</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.397576</v>
+        <v>0.395109</v>
       </c>
       <c r="C93" t="n">
-        <v>0.372944</v>
+        <v>0.371466</v>
       </c>
       <c r="D93" t="n">
-        <v>0.374318</v>
+        <v>0.382393</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.405528</v>
+        <v>0.403911</v>
       </c>
       <c r="C94" t="n">
-        <v>0.376064</v>
+        <v>0.365095</v>
       </c>
       <c r="D94" t="n">
-        <v>0.521613</v>
+        <v>0.535875</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.563196</v>
+        <v>0.59277</v>
       </c>
       <c r="C95" t="n">
-        <v>0.557944</v>
+        <v>0.5735130000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.48827</v>
+        <v>0.541863</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.592774</v>
+        <v>0.594971</v>
       </c>
       <c r="C96" t="n">
-        <v>0.554462</v>
+        <v>0.569724</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5219819999999999</v>
+        <v>0.544077</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.575973</v>
+        <v>0.607241</v>
       </c>
       <c r="C97" t="n">
-        <v>0.559473</v>
+        <v>0.573701</v>
       </c>
       <c r="D97" t="n">
-        <v>0.518137</v>
+        <v>0.549777</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.585939</v>
+        <v>0.592706</v>
       </c>
       <c r="C98" t="n">
-        <v>0.548428</v>
+        <v>0.571326</v>
       </c>
       <c r="D98" t="n">
-        <v>0.480895</v>
+        <v>0.554118</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.596458</v>
+        <v>0.588493</v>
       </c>
       <c r="C99" t="n">
-        <v>0.542365</v>
+        <v>0.564545</v>
       </c>
       <c r="D99" t="n">
-        <v>0.522641</v>
+        <v>0.538461</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.589913</v>
+        <v>0.595467</v>
       </c>
       <c r="C100" t="n">
-        <v>0.549303</v>
+        <v>0.525919</v>
       </c>
       <c r="D100" t="n">
-        <v>0.520869</v>
+        <v>0.502535</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.592336</v>
+        <v>0.593804</v>
       </c>
       <c r="C101" t="n">
-        <v>0.554194</v>
+        <v>0.558578</v>
       </c>
       <c r="D101" t="n">
-        <v>0.523907</v>
+        <v>0.495931</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.600244</v>
+        <v>0.587931</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5508729999999999</v>
+        <v>0.568526</v>
       </c>
       <c r="D102" t="n">
-        <v>0.476656</v>
+        <v>0.5412709999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6047129999999999</v>
+        <v>0.597105</v>
       </c>
       <c r="C103" t="n">
-        <v>0.551563</v>
+        <v>0.527764</v>
       </c>
       <c r="D103" t="n">
-        <v>0.52819</v>
+        <v>0.498466</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.594354</v>
+        <v>0.601556</v>
       </c>
       <c r="C104" t="n">
-        <v>0.510623</v>
+        <v>0.529019</v>
       </c>
       <c r="D104" t="n">
-        <v>0.48713</v>
+        <v>0.541878</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.597657</v>
+        <v>0.602757</v>
       </c>
       <c r="C105" t="n">
-        <v>0.55844</v>
+        <v>0.559649</v>
       </c>
       <c r="D105" t="n">
-        <v>0.530105</v>
+        <v>0.49028</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.605203</v>
+        <v>0.603876</v>
       </c>
       <c r="C106" t="n">
-        <v>0.55628</v>
+        <v>0.522564</v>
       </c>
       <c r="D106" t="n">
-        <v>0.530014</v>
+        <v>0.497687</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.606133</v>
+        <v>0.605808</v>
       </c>
       <c r="C107" t="n">
-        <v>0.527879</v>
+        <v>0.530627</v>
       </c>
       <c r="D107" t="n">
-        <v>0.531878</v>
+        <v>0.52129</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.599207</v>
+        <v>0.617778</v>
       </c>
       <c r="C108" t="n">
-        <v>0.576777</v>
+        <v>0.576771</v>
       </c>
       <c r="D108" t="n">
-        <v>0.99336</v>
+        <v>0.960626</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.617434</v>
+        <v>0.623848</v>
       </c>
       <c r="C109" t="n">
-        <v>0.573695</v>
+        <v>0.581328</v>
       </c>
       <c r="D109" t="n">
-        <v>0.996043</v>
+        <v>0.992259</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05249</v>
+        <v>1.05136</v>
       </c>
       <c r="C110" t="n">
-        <v>1.01463</v>
+        <v>0.984407</v>
       </c>
       <c r="D110" t="n">
-        <v>0.994374</v>
+        <v>0.9890060000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05229</v>
+        <v>1.04916</v>
       </c>
       <c r="C111" t="n">
-        <v>1.0126</v>
+        <v>1.01152</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9660029999999999</v>
+        <v>0.991598</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05119</v>
+        <v>1.04844</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01189</v>
+        <v>1.01049</v>
       </c>
       <c r="D112" t="n">
-        <v>0.990084</v>
+        <v>0.990954</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05145</v>
+        <v>1.04858</v>
       </c>
       <c r="C113" t="n">
-        <v>0.983899</v>
+        <v>1.00838</v>
       </c>
       <c r="D113" t="n">
-        <v>0.99119</v>
+        <v>0.989447</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05114</v>
+        <v>1.04908</v>
       </c>
       <c r="C114" t="n">
-        <v>1.01052</v>
+        <v>0.983612</v>
       </c>
       <c r="D114" t="n">
-        <v>0.987711</v>
+        <v>0.962777</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05034</v>
+        <v>1.05061</v>
       </c>
       <c r="C115" t="n">
-        <v>0.982175</v>
+        <v>1.00986</v>
       </c>
       <c r="D115" t="n">
-        <v>0.987475</v>
+        <v>0.989069</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05058</v>
+        <v>1.05109</v>
       </c>
       <c r="C116" t="n">
-        <v>1.01234</v>
+        <v>1.01127</v>
       </c>
       <c r="D116" t="n">
-        <v>0.987845</v>
+        <v>0.989981</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05134</v>
+        <v>1.05291</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9833</v>
+        <v>0.985728</v>
       </c>
       <c r="D117" t="n">
-        <v>0.990409</v>
+        <v>0.989119</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.0542</v>
+        <v>1.05186</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01203</v>
+        <v>1.01215</v>
       </c>
       <c r="D118" t="n">
-        <v>0.990111</v>
+        <v>0.986229</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05723</v>
+        <v>1.05388</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01162</v>
+        <v>1.01424</v>
       </c>
       <c r="D119" t="n">
-        <v>0.965614</v>
+        <v>0.965109</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05774</v>
+        <v>1.05635</v>
       </c>
       <c r="C120" t="n">
-        <v>0.987025</v>
+        <v>1.01359</v>
       </c>
       <c r="D120" t="n">
-        <v>0.988322</v>
+        <v>0.965259</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.05866</v>
+        <v>1.05903</v>
       </c>
       <c r="C121" t="n">
-        <v>1.01432</v>
+        <v>1.01665</v>
       </c>
       <c r="D121" t="n">
-        <v>0.995214</v>
+        <v>0.990084</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06232</v>
+        <v>1.06451</v>
       </c>
       <c r="C122" t="n">
-        <v>1.02029</v>
+        <v>1.01986</v>
       </c>
       <c r="D122" t="n">
-        <v>0.997009</v>
+        <v>0.970624</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.06666</v>
+        <v>1.06804</v>
       </c>
       <c r="C123" t="n">
-        <v>1.02137</v>
+        <v>1.02586</v>
       </c>
       <c r="D123" t="n">
-        <v>1.30768</v>
+        <v>1.27837</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.31049</v>
+        <v>1.30202</v>
       </c>
       <c r="C124" t="n">
-        <v>1.29361</v>
+        <v>1.31357</v>
       </c>
       <c r="D124" t="n">
-        <v>1.30712</v>
+        <v>1.28251</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.32355</v>
+        <v>1.3025</v>
       </c>
       <c r="C125" t="n">
-        <v>1.3057</v>
+        <v>1.29642</v>
       </c>
       <c r="D125" t="n">
-        <v>1.30424</v>
+        <v>1.30621</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33823</v>
+        <v>1.29958</v>
       </c>
       <c r="C126" t="n">
-        <v>1.31134</v>
+        <v>1.2998</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31241</v>
+        <v>1.28346</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31999</v>
+        <v>1.32611</v>
       </c>
       <c r="C127" t="n">
-        <v>1.30506</v>
+        <v>1.31409</v>
       </c>
       <c r="D127" t="n">
-        <v>1.28757</v>
+        <v>1.31197</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.3196</v>
+        <v>1.30674</v>
       </c>
       <c r="C128" t="n">
-        <v>1.30253</v>
+        <v>1.29332</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30529</v>
+        <v>1.29668</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31325</v>
+        <v>1.30426</v>
       </c>
       <c r="C129" t="n">
-        <v>1.30789</v>
+        <v>1.29056</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30662</v>
+        <v>1.29966</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.31392</v>
+        <v>1.30771</v>
       </c>
       <c r="C130" t="n">
-        <v>1.31103</v>
+        <v>1.29743</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30992</v>
+        <v>1.30348</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.31889</v>
+        <v>1.30413</v>
       </c>
       <c r="C131" t="n">
-        <v>1.3113</v>
+        <v>1.29011</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31063</v>
+        <v>1.30424</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.33095</v>
+        <v>1.31376</v>
       </c>
       <c r="C132" t="n">
-        <v>1.3144</v>
+        <v>1.29343</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29907</v>
+        <v>1.31155</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32742</v>
+        <v>1.31236</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31682</v>
+        <v>1.30958</v>
       </c>
       <c r="D133" t="n">
-        <v>1.31252</v>
+        <v>1.30992</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.32193</v>
+        <v>1.31342</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30672</v>
+        <v>1.31124</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31641</v>
+        <v>1.30817</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.33233</v>
+        <v>1.31623</v>
       </c>
       <c r="C135" t="n">
-        <v>1.32563</v>
+        <v>1.30677</v>
       </c>
       <c r="D135" t="n">
-        <v>1.30642</v>
+        <v>1.32202</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.34045</v>
+        <v>1.33919</v>
       </c>
       <c r="C136" t="n">
-        <v>1.3256</v>
+        <v>1.30328</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32867</v>
+        <v>1.32508</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35281</v>
+        <v>1.35054</v>
       </c>
       <c r="C137" t="n">
-        <v>1.32205</v>
+        <v>1.31889</v>
       </c>
       <c r="D137" t="n">
-        <v>1.44435</v>
+        <v>1.43851</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.44685</v>
+        <v>1.44977</v>
       </c>
       <c r="C138" t="n">
-        <v>1.43483</v>
+        <v>1.43349</v>
       </c>
       <c r="D138" t="n">
-        <v>1.43988</v>
+        <v>1.42554</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.44736</v>
+        <v>1.45283</v>
       </c>
       <c r="C139" t="n">
-        <v>1.43239</v>
+        <v>1.42366</v>
       </c>
       <c r="D139" t="n">
-        <v>1.42377</v>
+        <v>1.44059</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.45121</v>
+        <v>1.44781</v>
       </c>
       <c r="C140" t="n">
-        <v>1.43288</v>
+        <v>1.43346</v>
       </c>
       <c r="D140" t="n">
-        <v>1.43095</v>
+        <v>1.43598</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.45242</v>
+        <v>1.45168</v>
       </c>
       <c r="C141" t="n">
-        <v>1.43281</v>
+        <v>1.43818</v>
       </c>
       <c r="D141" t="n">
-        <v>1.42576</v>
+        <v>1.42575</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.448</v>
+        <v>1.44789</v>
       </c>
       <c r="C142" t="n">
-        <v>1.44009</v>
+        <v>1.43503</v>
       </c>
       <c r="D142" t="n">
-        <v>1.43656</v>
+        <v>1.44205</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.45438</v>
+        <v>1.45242</v>
       </c>
       <c r="C143" t="n">
-        <v>1.4343</v>
+        <v>1.42109</v>
       </c>
       <c r="D143" t="n">
-        <v>1.43917</v>
+        <v>1.43859</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.255978</v>
+        <v>0.255708</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236423</v>
+        <v>0.236285</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249534</v>
+        <v>0.249665</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256343</v>
+        <v>0.256338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236554</v>
+        <v>0.236328</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250033</v>
+        <v>0.250006</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258116</v>
+        <v>0.258275</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237352</v>
+        <v>0.237197</v>
       </c>
       <c r="D4" t="n">
-        <v>0.251423</v>
+        <v>0.251147</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.26052</v>
+        <v>0.260287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238311</v>
+        <v>0.238028</v>
       </c>
       <c r="D5" t="n">
-        <v>0.252615</v>
+        <v>0.252467</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262738</v>
+        <v>0.262642</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238681</v>
+        <v>0.238483</v>
       </c>
       <c r="D6" t="n">
-        <v>0.253569</v>
+        <v>0.253376</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.266597</v>
+        <v>0.266496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.239851</v>
+        <v>0.239649</v>
       </c>
       <c r="D7" t="n">
-        <v>0.255741</v>
+        <v>0.255639</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.272362</v>
+        <v>0.272716</v>
       </c>
       <c r="C8" t="n">
-        <v>0.24196</v>
+        <v>0.241815</v>
       </c>
       <c r="D8" t="n">
-        <v>0.26029</v>
+        <v>0.260262</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.281402</v>
+        <v>0.281551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.246455</v>
+        <v>0.24655</v>
       </c>
       <c r="D9" t="n">
-        <v>0.253181</v>
+        <v>0.254187</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.254237</v>
+        <v>0.260432</v>
       </c>
       <c r="C10" t="n">
-        <v>0.238962</v>
+        <v>0.240799</v>
       </c>
       <c r="D10" t="n">
-        <v>0.252721</v>
+        <v>0.253177</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255377</v>
+        <v>0.261113</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239021</v>
+        <v>0.240641</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25276</v>
+        <v>0.254267</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.257267</v>
+        <v>0.262784</v>
       </c>
       <c r="C12" t="n">
-        <v>0.239598</v>
+        <v>0.244228</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25334</v>
+        <v>0.256614</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25779</v>
+        <v>0.261996</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241487</v>
+        <v>0.243708</v>
       </c>
       <c r="D13" t="n">
-        <v>0.254014</v>
+        <v>0.254771</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.257729</v>
+        <v>0.260279</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239997</v>
+        <v>0.241139</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253659</v>
+        <v>0.255238</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.258982</v>
+        <v>0.267103</v>
       </c>
       <c r="C15" t="n">
-        <v>0.240636</v>
+        <v>0.248096</v>
       </c>
       <c r="D15" t="n">
-        <v>0.254321</v>
+        <v>0.25946</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260092</v>
+        <v>0.266186</v>
       </c>
       <c r="C16" t="n">
-        <v>0.241014</v>
+        <v>0.244903</v>
       </c>
       <c r="D16" t="n">
-        <v>0.255019</v>
+        <v>0.257148</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.262688</v>
+        <v>0.263497</v>
       </c>
       <c r="C17" t="n">
-        <v>0.242666</v>
+        <v>0.242748</v>
       </c>
       <c r="D17" t="n">
-        <v>0.255741</v>
+        <v>0.256569</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.263403</v>
+        <v>0.267864</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242447</v>
+        <v>0.244255</v>
       </c>
       <c r="D18" t="n">
-        <v>0.256634</v>
+        <v>0.258295</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.267978</v>
+        <v>0.273535</v>
       </c>
       <c r="C19" t="n">
-        <v>0.244695</v>
+        <v>0.246046</v>
       </c>
       <c r="D19" t="n">
-        <v>0.258229</v>
+        <v>0.259787</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269244</v>
+        <v>0.272894</v>
       </c>
       <c r="C20" t="n">
-        <v>0.244669</v>
+        <v>0.246617</v>
       </c>
       <c r="D20" t="n">
-        <v>0.259627</v>
+        <v>0.260754</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.274188</v>
+        <v>0.278713</v>
       </c>
       <c r="C21" t="n">
-        <v>0.24627</v>
+        <v>0.250788</v>
       </c>
       <c r="D21" t="n">
-        <v>0.262318</v>
+        <v>0.264767</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.280332</v>
+        <v>0.284255</v>
       </c>
       <c r="C22" t="n">
-        <v>0.24959</v>
+        <v>0.251292</v>
       </c>
       <c r="D22" t="n">
-        <v>0.267637</v>
+        <v>0.269763</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.290808</v>
+        <v>0.293694</v>
       </c>
       <c r="C23" t="n">
-        <v>0.255392</v>
+        <v>0.255357</v>
       </c>
       <c r="D23" t="n">
-        <v>0.265555</v>
+        <v>0.265889</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.271273</v>
+        <v>0.272865</v>
       </c>
       <c r="C24" t="n">
-        <v>0.259929</v>
+        <v>0.259143</v>
       </c>
       <c r="D24" t="n">
-        <v>0.26586</v>
+        <v>0.267416</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.27225</v>
+        <v>0.273475</v>
       </c>
       <c r="C25" t="n">
-        <v>0.258106</v>
+        <v>0.258459</v>
       </c>
       <c r="D25" t="n">
-        <v>0.267794</v>
+        <v>0.268037</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274308</v>
+        <v>0.273972</v>
       </c>
       <c r="C26" t="n">
-        <v>0.260385</v>
+        <v>0.25907</v>
       </c>
       <c r="D26" t="n">
-        <v>0.267466</v>
+        <v>0.26823</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.27485</v>
+        <v>0.275379</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258552</v>
+        <v>0.259417</v>
       </c>
       <c r="D27" t="n">
-        <v>0.267175</v>
+        <v>0.269071</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277133</v>
+        <v>0.276681</v>
       </c>
       <c r="C28" t="n">
-        <v>0.260828</v>
+        <v>0.259343</v>
       </c>
       <c r="D28" t="n">
-        <v>0.270004</v>
+        <v>0.267853</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.277856</v>
+        <v>0.277364</v>
       </c>
       <c r="C29" t="n">
-        <v>0.260904</v>
+        <v>0.260001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.269832</v>
+        <v>0.268703</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.279169</v>
+        <v>0.279299</v>
       </c>
       <c r="C30" t="n">
-        <v>0.261998</v>
+        <v>0.261661</v>
       </c>
       <c r="D30" t="n">
-        <v>0.270452</v>
+        <v>0.27083</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.279469</v>
+        <v>0.281409</v>
       </c>
       <c r="C31" t="n">
-        <v>0.260729</v>
+        <v>0.26157</v>
       </c>
       <c r="D31" t="n">
-        <v>0.270183</v>
+        <v>0.271585</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.281229</v>
+        <v>0.283113</v>
       </c>
       <c r="C32" t="n">
-        <v>0.261339</v>
+        <v>0.262549</v>
       </c>
       <c r="D32" t="n">
-        <v>0.272731</v>
+        <v>0.270838</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.283877</v>
+        <v>0.28426</v>
       </c>
       <c r="C33" t="n">
-        <v>0.264398</v>
+        <v>0.262883</v>
       </c>
       <c r="D33" t="n">
-        <v>0.274414</v>
+        <v>0.272199</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.28783</v>
+        <v>0.288115</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26531</v>
+        <v>0.265254</v>
       </c>
       <c r="D34" t="n">
-        <v>0.275498</v>
+        <v>0.276422</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.293267</v>
+        <v>0.293336</v>
       </c>
       <c r="C35" t="n">
-        <v>0.267021</v>
+        <v>0.26663</v>
       </c>
       <c r="D35" t="n">
-        <v>0.27811</v>
+        <v>0.278713</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2988</v>
+        <v>0.299643</v>
       </c>
       <c r="C36" t="n">
-        <v>0.27073</v>
+        <v>0.269399</v>
       </c>
       <c r="D36" t="n">
-        <v>0.283243</v>
+        <v>0.283974</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.305651</v>
+        <v>0.307586</v>
       </c>
       <c r="C37" t="n">
-        <v>0.275865</v>
+        <v>0.275016</v>
       </c>
       <c r="D37" t="n">
-        <v>0.299417</v>
+        <v>0.296322</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.302248</v>
+        <v>0.303531</v>
       </c>
       <c r="C38" t="n">
-        <v>0.291826</v>
+        <v>0.293684</v>
       </c>
       <c r="D38" t="n">
-        <v>0.296481</v>
+        <v>0.298675</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302747</v>
+        <v>0.303945</v>
       </c>
       <c r="C39" t="n">
-        <v>0.293092</v>
+        <v>0.293748</v>
       </c>
       <c r="D39" t="n">
-        <v>0.297546</v>
+        <v>0.299829</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.303415</v>
+        <v>0.304151</v>
       </c>
       <c r="C40" t="n">
-        <v>0.293935</v>
+        <v>0.291367</v>
       </c>
       <c r="D40" t="n">
-        <v>0.300547</v>
+        <v>0.297794</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.30478</v>
+        <v>0.305168</v>
       </c>
       <c r="C41" t="n">
-        <v>0.291114</v>
+        <v>0.292958</v>
       </c>
       <c r="D41" t="n">
-        <v>0.299037</v>
+        <v>0.299039</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.305262</v>
+        <v>0.305565</v>
       </c>
       <c r="C42" t="n">
-        <v>0.292786</v>
+        <v>0.292429</v>
       </c>
       <c r="D42" t="n">
-        <v>0.299521</v>
+        <v>0.2993</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.304185</v>
+        <v>0.306858</v>
       </c>
       <c r="C43" t="n">
-        <v>0.29327</v>
+        <v>0.292771</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299493</v>
+        <v>0.299448</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.305888</v>
+        <v>0.306198</v>
       </c>
       <c r="C44" t="n">
-        <v>0.292799</v>
+        <v>0.293411</v>
       </c>
       <c r="D44" t="n">
-        <v>0.299076</v>
+        <v>0.301741</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.308656</v>
+        <v>0.309247</v>
       </c>
       <c r="C45" t="n">
-        <v>0.291982</v>
+        <v>0.295259</v>
       </c>
       <c r="D45" t="n">
-        <v>0.299345</v>
+        <v>0.301901</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.309142</v>
+        <v>0.312178</v>
       </c>
       <c r="C46" t="n">
-        <v>0.29308</v>
+        <v>0.294605</v>
       </c>
       <c r="D46" t="n">
-        <v>0.301107</v>
+        <v>0.302042</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.31288</v>
+        <v>0.3151</v>
       </c>
       <c r="C47" t="n">
-        <v>0.293917</v>
+        <v>0.298293</v>
       </c>
       <c r="D47" t="n">
-        <v>0.302888</v>
+        <v>0.307292</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.317566</v>
+        <v>0.31798</v>
       </c>
       <c r="C48" t="n">
-        <v>0.295331</v>
+        <v>0.299807</v>
       </c>
       <c r="D48" t="n">
-        <v>0.305455</v>
+        <v>0.30856</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.318299</v>
+        <v>0.324012</v>
       </c>
       <c r="C49" t="n">
-        <v>0.297333</v>
+        <v>0.299159</v>
       </c>
       <c r="D49" t="n">
-        <v>0.308049</v>
+        <v>0.310971</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.324495</v>
+        <v>0.325483</v>
       </c>
       <c r="C50" t="n">
-        <v>0.301226</v>
+        <v>0.301201</v>
       </c>
       <c r="D50" t="n">
-        <v>0.314535</v>
+        <v>0.31368</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.330106</v>
+        <v>0.335401</v>
       </c>
       <c r="C51" t="n">
-        <v>0.307629</v>
+        <v>0.305804</v>
       </c>
       <c r="D51" t="n">
-        <v>0.326547</v>
+        <v>0.324722</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.341241</v>
+        <v>0.340021</v>
       </c>
       <c r="C52" t="n">
-        <v>0.312414</v>
+        <v>0.313054</v>
       </c>
       <c r="D52" t="n">
-        <v>0.327314</v>
+        <v>0.322836</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3297</v>
+        <v>0.330712</v>
       </c>
       <c r="C53" t="n">
-        <v>0.318356</v>
+        <v>0.318782</v>
       </c>
       <c r="D53" t="n">
-        <v>0.326584</v>
+        <v>0.321014</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.329508</v>
+        <v>0.333329</v>
       </c>
       <c r="C54" t="n">
-        <v>0.319178</v>
+        <v>0.319507</v>
       </c>
       <c r="D54" t="n">
-        <v>0.327119</v>
+        <v>0.325131</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330145</v>
+        <v>0.332013</v>
       </c>
       <c r="C55" t="n">
-        <v>0.317968</v>
+        <v>0.318902</v>
       </c>
       <c r="D55" t="n">
-        <v>0.326183</v>
+        <v>0.327586</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331164</v>
+        <v>0.330479</v>
       </c>
       <c r="C56" t="n">
-        <v>0.31805</v>
+        <v>0.31415</v>
       </c>
       <c r="D56" t="n">
-        <v>0.327866</v>
+        <v>0.328009</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332005</v>
+        <v>0.33343</v>
       </c>
       <c r="C57" t="n">
-        <v>0.31875</v>
+        <v>0.313338</v>
       </c>
       <c r="D57" t="n">
-        <v>0.328145</v>
+        <v>0.328141</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.333107</v>
+        <v>0.329365</v>
       </c>
       <c r="C58" t="n">
-        <v>0.31952</v>
+        <v>0.320189</v>
       </c>
       <c r="D58" t="n">
-        <v>0.328727</v>
+        <v>0.328788</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.335129</v>
+        <v>0.331531</v>
       </c>
       <c r="C59" t="n">
-        <v>0.320709</v>
+        <v>0.320901</v>
       </c>
       <c r="D59" t="n">
-        <v>0.329343</v>
+        <v>0.32494</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.33674</v>
+        <v>0.334203</v>
       </c>
       <c r="C60" t="n">
-        <v>0.31981</v>
+        <v>0.321883</v>
       </c>
       <c r="D60" t="n">
-        <v>0.32932</v>
+        <v>0.33101</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.33882</v>
+        <v>0.338484</v>
       </c>
       <c r="C61" t="n">
-        <v>0.321451</v>
+        <v>0.322613</v>
       </c>
       <c r="D61" t="n">
-        <v>0.330954</v>
+        <v>0.33297</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.342196</v>
+        <v>0.34163</v>
       </c>
       <c r="C62" t="n">
-        <v>0.32503</v>
+        <v>0.324102</v>
       </c>
       <c r="D62" t="n">
-        <v>0.334572</v>
+        <v>0.334429</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.346713</v>
+        <v>0.338716</v>
       </c>
       <c r="C63" t="n">
-        <v>0.32667</v>
+        <v>0.325375</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337626</v>
+        <v>0.336743</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.350341</v>
+        <v>0.35045</v>
       </c>
       <c r="C64" t="n">
-        <v>0.327591</v>
+        <v>0.327514</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340848</v>
+        <v>0.340996</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3552</v>
+        <v>0.35573</v>
       </c>
       <c r="C65" t="n">
-        <v>0.331382</v>
+        <v>0.331517</v>
       </c>
       <c r="D65" t="n">
-        <v>0.347419</v>
+        <v>0.347698</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.364596</v>
+        <v>0.364289</v>
       </c>
       <c r="C66" t="n">
-        <v>0.336777</v>
+        <v>0.336312</v>
       </c>
       <c r="D66" t="n">
-        <v>0.341372</v>
+        <v>0.343884</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.343736</v>
+        <v>0.347644</v>
       </c>
       <c r="C67" t="n">
-        <v>0.331847</v>
+        <v>0.335769</v>
       </c>
       <c r="D67" t="n">
-        <v>0.345353</v>
+        <v>0.344692</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.34451</v>
+        <v>0.346611</v>
       </c>
       <c r="C68" t="n">
-        <v>0.337952</v>
+        <v>0.337078</v>
       </c>
       <c r="D68" t="n">
-        <v>0.346116</v>
+        <v>0.344449</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.344754</v>
+        <v>0.347764</v>
       </c>
       <c r="C69" t="n">
-        <v>0.337987</v>
+        <v>0.337745</v>
       </c>
       <c r="D69" t="n">
-        <v>0.346281</v>
+        <v>0.3461</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.345561</v>
+        <v>0.348308</v>
       </c>
       <c r="C70" t="n">
-        <v>0.33821</v>
+        <v>0.338275</v>
       </c>
       <c r="D70" t="n">
-        <v>0.346729</v>
+        <v>0.346722</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.347084</v>
+        <v>0.350157</v>
       </c>
       <c r="C71" t="n">
-        <v>0.338358</v>
+        <v>0.33819</v>
       </c>
       <c r="D71" t="n">
-        <v>0.346802</v>
+        <v>0.346112</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.348002</v>
+        <v>0.35126</v>
       </c>
       <c r="C72" t="n">
-        <v>0.338739</v>
+        <v>0.338132</v>
       </c>
       <c r="D72" t="n">
-        <v>0.347202</v>
+        <v>0.346636</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.353064</v>
+        <v>0.35274</v>
       </c>
       <c r="C73" t="n">
-        <v>0.33976</v>
+        <v>0.339068</v>
       </c>
       <c r="D73" t="n">
-        <v>0.348045</v>
+        <v>0.347745</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.354869</v>
+        <v>0.35451</v>
       </c>
       <c r="C74" t="n">
-        <v>0.334196</v>
+        <v>0.340282</v>
       </c>
       <c r="D74" t="n">
-        <v>0.349188</v>
+        <v>0.348471</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.35696</v>
+        <v>0.35662</v>
       </c>
       <c r="C75" t="n">
-        <v>0.340888</v>
+        <v>0.341204</v>
       </c>
       <c r="D75" t="n">
-        <v>0.350347</v>
+        <v>0.350671</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.356387</v>
+        <v>0.359817</v>
       </c>
       <c r="C76" t="n">
-        <v>0.339956</v>
+        <v>0.340951</v>
       </c>
       <c r="D76" t="n">
-        <v>0.352679</v>
+        <v>0.352835</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.359644</v>
+        <v>0.36372</v>
       </c>
       <c r="C77" t="n">
-        <v>0.343388</v>
+        <v>0.344338</v>
       </c>
       <c r="D77" t="n">
-        <v>0.354972</v>
+        <v>0.354664</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.364844</v>
+        <v>0.368189</v>
       </c>
       <c r="C78" t="n">
-        <v>0.340785</v>
+        <v>0.345092</v>
       </c>
       <c r="D78" t="n">
-        <v>0.357479</v>
+        <v>0.359375</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.370419</v>
+        <v>0.374986</v>
       </c>
       <c r="C79" t="n">
-        <v>0.349714</v>
+        <v>0.349434</v>
       </c>
       <c r="D79" t="n">
-        <v>0.365278</v>
+        <v>0.365291</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.378483</v>
+        <v>0.382926</v>
       </c>
       <c r="C80" t="n">
-        <v>0.354917</v>
+        <v>0.35579</v>
       </c>
       <c r="D80" t="n">
-        <v>0.362773</v>
+        <v>0.363508</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.368491</v>
+        <v>0.37012</v>
       </c>
       <c r="C81" t="n">
-        <v>0.358632</v>
+        <v>0.351194</v>
       </c>
       <c r="D81" t="n">
-        <v>0.36323</v>
+        <v>0.362939</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.368759</v>
+        <v>0.36939</v>
       </c>
       <c r="C82" t="n">
-        <v>0.34645</v>
+        <v>0.359412</v>
       </c>
       <c r="D82" t="n">
-        <v>0.354957</v>
+        <v>0.355362</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.370302</v>
+        <v>0.371433</v>
       </c>
       <c r="C83" t="n">
-        <v>0.35846</v>
+        <v>0.362738</v>
       </c>
       <c r="D83" t="n">
-        <v>0.363094</v>
+        <v>0.363832</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.371475</v>
+        <v>0.37496</v>
       </c>
       <c r="C84" t="n">
-        <v>0.347839</v>
+        <v>0.359966</v>
       </c>
       <c r="D84" t="n">
-        <v>0.364348</v>
+        <v>0.364055</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.374774</v>
+        <v>0.371664</v>
       </c>
       <c r="C85" t="n">
-        <v>0.361562</v>
+        <v>0.359712</v>
       </c>
       <c r="D85" t="n">
-        <v>0.357257</v>
+        <v>0.364623</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.37236</v>
+        <v>0.374412</v>
       </c>
       <c r="C86" t="n">
-        <v>0.360476</v>
+        <v>0.35996</v>
       </c>
       <c r="D86" t="n">
-        <v>0.356697</v>
+        <v>0.365153</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.375408</v>
+        <v>0.373742</v>
       </c>
       <c r="C87" t="n">
-        <v>0.36127</v>
+        <v>0.361646</v>
       </c>
       <c r="D87" t="n">
-        <v>0.365162</v>
+        <v>0.366126</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.378375</v>
+        <v>0.376596</v>
       </c>
       <c r="C88" t="n">
-        <v>0.361698</v>
+        <v>0.361707</v>
       </c>
       <c r="D88" t="n">
-        <v>0.367809</v>
+        <v>0.358799</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.379575</v>
+        <v>0.378658</v>
       </c>
       <c r="C89" t="n">
-        <v>0.351048</v>
+        <v>0.362132</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367785</v>
+        <v>0.367241</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.381964</v>
+        <v>0.380385</v>
       </c>
       <c r="C90" t="n">
-        <v>0.363741</v>
+        <v>0.352199</v>
       </c>
       <c r="D90" t="n">
-        <v>0.370203</v>
+        <v>0.369682</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.384957</v>
+        <v>0.385922</v>
       </c>
       <c r="C91" t="n">
-        <v>0.371859</v>
+        <v>0.366267</v>
       </c>
       <c r="D91" t="n">
-        <v>0.374267</v>
+        <v>0.372273</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.391505</v>
+        <v>0.397706</v>
       </c>
       <c r="C92" t="n">
-        <v>0.359039</v>
+        <v>0.369168</v>
       </c>
       <c r="D92" t="n">
-        <v>0.377035</v>
+        <v>0.378529</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.395109</v>
+        <v>0.394675</v>
       </c>
       <c r="C93" t="n">
-        <v>0.371466</v>
+        <v>0.371383</v>
       </c>
       <c r="D93" t="n">
-        <v>0.382393</v>
+        <v>0.374193</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.403911</v>
+        <v>0.403236</v>
       </c>
       <c r="C94" t="n">
-        <v>0.365095</v>
+        <v>0.375677</v>
       </c>
       <c r="D94" t="n">
-        <v>0.535875</v>
+        <v>0.531872</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.59277</v>
+        <v>0.585709</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5735130000000001</v>
+        <v>0.568242</v>
       </c>
       <c r="D95" t="n">
-        <v>0.541863</v>
+        <v>0.532184</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.594971</v>
+        <v>0.5722390000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.569724</v>
+        <v>0.562667</v>
       </c>
       <c r="D96" t="n">
-        <v>0.544077</v>
+        <v>0.548701</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.607241</v>
+        <v>0.587334</v>
       </c>
       <c r="C97" t="n">
-        <v>0.573701</v>
+        <v>0.5736250000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.549777</v>
+        <v>0.535004</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.592706</v>
+        <v>0.595989</v>
       </c>
       <c r="C98" t="n">
-        <v>0.571326</v>
+        <v>0.554579</v>
       </c>
       <c r="D98" t="n">
-        <v>0.554118</v>
+        <v>0.537795</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.588493</v>
+        <v>0.591442</v>
       </c>
       <c r="C99" t="n">
-        <v>0.564545</v>
+        <v>0.567059</v>
       </c>
       <c r="D99" t="n">
-        <v>0.538461</v>
+        <v>0.521378</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.595467</v>
+        <v>0.592815</v>
       </c>
       <c r="C100" t="n">
-        <v>0.525919</v>
+        <v>0.552841</v>
       </c>
       <c r="D100" t="n">
-        <v>0.502535</v>
+        <v>0.530103</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.593804</v>
+        <v>0.587476</v>
       </c>
       <c r="C101" t="n">
-        <v>0.558578</v>
+        <v>0.517754</v>
       </c>
       <c r="D101" t="n">
-        <v>0.495931</v>
+        <v>0.525741</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.587931</v>
+        <v>0.594036</v>
       </c>
       <c r="C102" t="n">
-        <v>0.568526</v>
+        <v>0.558208</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5412709999999999</v>
+        <v>0.486214</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.597105</v>
+        <v>0.59108</v>
       </c>
       <c r="C103" t="n">
-        <v>0.527764</v>
+        <v>0.562235</v>
       </c>
       <c r="D103" t="n">
-        <v>0.498466</v>
+        <v>0.531047</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.601556</v>
+        <v>0.595183</v>
       </c>
       <c r="C104" t="n">
-        <v>0.529019</v>
+        <v>0.55247</v>
       </c>
       <c r="D104" t="n">
-        <v>0.541878</v>
+        <v>0.530772</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.602757</v>
+        <v>0.589316</v>
       </c>
       <c r="C105" t="n">
-        <v>0.559649</v>
+        <v>0.560508</v>
       </c>
       <c r="D105" t="n">
-        <v>0.49028</v>
+        <v>0.534245</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.603876</v>
+        <v>0.599512</v>
       </c>
       <c r="C106" t="n">
-        <v>0.522564</v>
+        <v>0.561923</v>
       </c>
       <c r="D106" t="n">
-        <v>0.497687</v>
+        <v>0.532351</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.605808</v>
+        <v>0.607415</v>
       </c>
       <c r="C107" t="n">
-        <v>0.530627</v>
+        <v>0.565504</v>
       </c>
       <c r="D107" t="n">
-        <v>0.52129</v>
+        <v>0.555849</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.617778</v>
+        <v>0.60632</v>
       </c>
       <c r="C108" t="n">
-        <v>0.576771</v>
+        <v>0.582411</v>
       </c>
       <c r="D108" t="n">
-        <v>0.960626</v>
+        <v>0.977877</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.623848</v>
+        <v>0.622183</v>
       </c>
       <c r="C109" t="n">
-        <v>0.581328</v>
+        <v>0.5747679999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.992259</v>
+        <v>1.00662</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05136</v>
+        <v>1.06893</v>
       </c>
       <c r="C110" t="n">
-        <v>0.984407</v>
+        <v>0.999404</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9890060000000001</v>
+        <v>1.00984</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.04916</v>
+        <v>1.06704</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01152</v>
+        <v>0.997543</v>
       </c>
       <c r="D111" t="n">
-        <v>0.991598</v>
+        <v>1.00238</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.04844</v>
+        <v>1.06338</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01049</v>
+        <v>1.02892</v>
       </c>
       <c r="D112" t="n">
-        <v>0.990954</v>
+        <v>0.980151</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.04858</v>
+        <v>1.06679</v>
       </c>
       <c r="C113" t="n">
-        <v>1.00838</v>
+        <v>1.0279</v>
       </c>
       <c r="D113" t="n">
-        <v>0.989447</v>
+        <v>0.952367</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.04908</v>
+        <v>1.06667</v>
       </c>
       <c r="C114" t="n">
-        <v>0.983612</v>
+        <v>1.02605</v>
       </c>
       <c r="D114" t="n">
-        <v>0.962777</v>
+        <v>1.00666</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05061</v>
+        <v>1.06974</v>
       </c>
       <c r="C115" t="n">
-        <v>1.00986</v>
+        <v>0.9990019999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.989069</v>
+        <v>1.00388</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05109</v>
+        <v>1.06898</v>
       </c>
       <c r="C116" t="n">
-        <v>1.01127</v>
+        <v>0.998004</v>
       </c>
       <c r="D116" t="n">
-        <v>0.989981</v>
+        <v>1.00015</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05291</v>
+        <v>1.06802</v>
       </c>
       <c r="C117" t="n">
-        <v>0.985728</v>
+        <v>1.02593</v>
       </c>
       <c r="D117" t="n">
-        <v>0.989119</v>
+        <v>0.979577</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05186</v>
+        <v>1.07043</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01215</v>
+        <v>1.02619</v>
       </c>
       <c r="D118" t="n">
-        <v>0.986229</v>
+        <v>1.00473</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05388</v>
+        <v>1.07031</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01424</v>
+        <v>1.03111</v>
       </c>
       <c r="D119" t="n">
-        <v>0.965109</v>
+        <v>1.0074</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05635</v>
+        <v>1.07455</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01359</v>
+        <v>1.03009</v>
       </c>
       <c r="D120" t="n">
-        <v>0.965259</v>
+        <v>1.00831</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.05903</v>
+        <v>1.07611</v>
       </c>
       <c r="C121" t="n">
-        <v>1.01665</v>
+        <v>1.00867</v>
       </c>
       <c r="D121" t="n">
-        <v>0.990084</v>
+        <v>0.983061</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06451</v>
+        <v>1.07939</v>
       </c>
       <c r="C122" t="n">
-        <v>1.01986</v>
+        <v>1.03408</v>
       </c>
       <c r="D122" t="n">
-        <v>0.970624</v>
+        <v>1.01173</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.06804</v>
+        <v>1.08611</v>
       </c>
       <c r="C123" t="n">
-        <v>1.02586</v>
+        <v>1.03978</v>
       </c>
       <c r="D123" t="n">
-        <v>1.27837</v>
+        <v>1.29453</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.30202</v>
+        <v>1.34165</v>
       </c>
       <c r="C124" t="n">
-        <v>1.31357</v>
+        <v>1.29259</v>
       </c>
       <c r="D124" t="n">
-        <v>1.28251</v>
+        <v>1.30551</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.3025</v>
+        <v>1.34047</v>
       </c>
       <c r="C125" t="n">
-        <v>1.29642</v>
+        <v>1.32756</v>
       </c>
       <c r="D125" t="n">
-        <v>1.30621</v>
+        <v>1.27497</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.29958</v>
+        <v>1.34094</v>
       </c>
       <c r="C126" t="n">
-        <v>1.2998</v>
+        <v>1.3257</v>
       </c>
       <c r="D126" t="n">
-        <v>1.28346</v>
+        <v>1.27695</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32611</v>
+        <v>1.34259</v>
       </c>
       <c r="C127" t="n">
-        <v>1.31409</v>
+        <v>1.29869</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31197</v>
+        <v>1.30009</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.30674</v>
+        <v>1.3426</v>
       </c>
       <c r="C128" t="n">
-        <v>1.29332</v>
+        <v>1.31703</v>
       </c>
       <c r="D128" t="n">
-        <v>1.29668</v>
+        <v>1.32104</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.30426</v>
+        <v>1.34101</v>
       </c>
       <c r="C129" t="n">
-        <v>1.29056</v>
+        <v>1.29221</v>
       </c>
       <c r="D129" t="n">
-        <v>1.29966</v>
+        <v>1.309</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30771</v>
+        <v>1.34039</v>
       </c>
       <c r="C130" t="n">
-        <v>1.29743</v>
+        <v>1.32331</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30348</v>
+        <v>1.32472</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.30413</v>
+        <v>1.35194</v>
       </c>
       <c r="C131" t="n">
-        <v>1.29011</v>
+        <v>1.33503</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30424</v>
+        <v>1.33219</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.31376</v>
+        <v>1.35181</v>
       </c>
       <c r="C132" t="n">
-        <v>1.29343</v>
+        <v>1.32202</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31155</v>
+        <v>1.31894</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.31236</v>
+        <v>1.35739</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30958</v>
+        <v>1.32302</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30992</v>
+        <v>1.31722</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31342</v>
+        <v>1.34693</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31124</v>
+        <v>1.3254</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30817</v>
+        <v>1.32735</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.31623</v>
+        <v>1.35678</v>
       </c>
       <c r="C135" t="n">
-        <v>1.30677</v>
+        <v>1.34396</v>
       </c>
       <c r="D135" t="n">
-        <v>1.32202</v>
+        <v>1.33996</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.33919</v>
+        <v>1.36614</v>
       </c>
       <c r="C136" t="n">
-        <v>1.30328</v>
+        <v>1.31507</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32508</v>
+        <v>1.33635</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35054</v>
+        <v>1.38122</v>
       </c>
       <c r="C137" t="n">
-        <v>1.31889</v>
+        <v>1.35538</v>
       </c>
       <c r="D137" t="n">
-        <v>1.43851</v>
+        <v>1.47559</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.44977</v>
+        <v>1.48996</v>
       </c>
       <c r="C138" t="n">
-        <v>1.43349</v>
+        <v>1.47519</v>
       </c>
       <c r="D138" t="n">
-        <v>1.42554</v>
+        <v>1.48459</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.45283</v>
+        <v>1.49369</v>
       </c>
       <c r="C139" t="n">
-        <v>1.42366</v>
+        <v>1.47139</v>
       </c>
       <c r="D139" t="n">
-        <v>1.44059</v>
+        <v>1.47405</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.44781</v>
+        <v>1.49236</v>
       </c>
       <c r="C140" t="n">
-        <v>1.43346</v>
+        <v>1.48535</v>
       </c>
       <c r="D140" t="n">
-        <v>1.43598</v>
+        <v>1.46156</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.45168</v>
+        <v>1.48642</v>
       </c>
       <c r="C141" t="n">
-        <v>1.43818</v>
+        <v>1.48312</v>
       </c>
       <c r="D141" t="n">
-        <v>1.42575</v>
+        <v>1.48209</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.44789</v>
+        <v>1.49034</v>
       </c>
       <c r="C142" t="n">
-        <v>1.43503</v>
+        <v>1.47118</v>
       </c>
       <c r="D142" t="n">
-        <v>1.44205</v>
+        <v>1.47122</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.45242</v>
+        <v>1.49861</v>
       </c>
       <c r="C143" t="n">
-        <v>1.42109</v>
+        <v>1.47887</v>
       </c>
       <c r="D143" t="n">
-        <v>1.43859</v>
+        <v>1.47454</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.255708</v>
+        <v>0.256037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236285</v>
+        <v>0.236248</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249665</v>
+        <v>0.249229</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256338</v>
+        <v>0.256561</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236328</v>
+        <v>0.236399</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250006</v>
+        <v>0.249454</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258275</v>
+        <v>0.258365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237197</v>
+        <v>0.237305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.251147</v>
+        <v>0.250734</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260287</v>
+        <v>0.26067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238028</v>
+        <v>0.238308</v>
       </c>
       <c r="D5" t="n">
-        <v>0.252467</v>
+        <v>0.252099</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262642</v>
+        <v>0.262875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238483</v>
+        <v>0.238412</v>
       </c>
       <c r="D6" t="n">
-        <v>0.253376</v>
+        <v>0.25297</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.266496</v>
+        <v>0.266412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.239649</v>
+        <v>0.23982</v>
       </c>
       <c r="D7" t="n">
-        <v>0.255639</v>
+        <v>0.255476</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.272716</v>
+        <v>0.27249</v>
       </c>
       <c r="C8" t="n">
-        <v>0.241815</v>
+        <v>0.241808</v>
       </c>
       <c r="D8" t="n">
-        <v>0.260262</v>
+        <v>0.259297</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.281551</v>
+        <v>0.28105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.24655</v>
+        <v>0.246389</v>
       </c>
       <c r="D9" t="n">
-        <v>0.254187</v>
+        <v>0.251096</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.260432</v>
+        <v>0.25371</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240799</v>
+        <v>0.238732</v>
       </c>
       <c r="D10" t="n">
-        <v>0.253177</v>
+        <v>0.252499</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.261113</v>
+        <v>0.256102</v>
       </c>
       <c r="C11" t="n">
-        <v>0.240641</v>
+        <v>0.239602</v>
       </c>
       <c r="D11" t="n">
-        <v>0.254267</v>
+        <v>0.253855</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.262784</v>
+        <v>0.259279</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244228</v>
+        <v>0.241744</v>
       </c>
       <c r="D12" t="n">
-        <v>0.256614</v>
+        <v>0.254744</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.261996</v>
+        <v>0.25733</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243708</v>
+        <v>0.240623</v>
       </c>
       <c r="D13" t="n">
-        <v>0.254771</v>
+        <v>0.253817</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.260279</v>
+        <v>0.258719</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241139</v>
+        <v>0.240992</v>
       </c>
       <c r="D14" t="n">
-        <v>0.255238</v>
+        <v>0.253223</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.267103</v>
+        <v>0.260578</v>
       </c>
       <c r="C15" t="n">
-        <v>0.248096</v>
+        <v>0.241023</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25946</v>
+        <v>0.253971</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266186</v>
+        <v>0.262338</v>
       </c>
       <c r="C16" t="n">
-        <v>0.244903</v>
+        <v>0.242272</v>
       </c>
       <c r="D16" t="n">
-        <v>0.257148</v>
+        <v>0.254858</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.263497</v>
+        <v>0.261709</v>
       </c>
       <c r="C17" t="n">
-        <v>0.242748</v>
+        <v>0.24179</v>
       </c>
       <c r="D17" t="n">
-        <v>0.256569</v>
+        <v>0.255351</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.267864</v>
+        <v>0.263726</v>
       </c>
       <c r="C18" t="n">
-        <v>0.244255</v>
+        <v>0.242189</v>
       </c>
       <c r="D18" t="n">
-        <v>0.258295</v>
+        <v>0.255871</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.273535</v>
+        <v>0.267703</v>
       </c>
       <c r="C19" t="n">
-        <v>0.246046</v>
+        <v>0.245533</v>
       </c>
       <c r="D19" t="n">
-        <v>0.259787</v>
+        <v>0.25778</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.272894</v>
+        <v>0.269313</v>
       </c>
       <c r="C20" t="n">
-        <v>0.246617</v>
+        <v>0.244697</v>
       </c>
       <c r="D20" t="n">
-        <v>0.260754</v>
+        <v>0.258824</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.278713</v>
+        <v>0.273918</v>
       </c>
       <c r="C21" t="n">
-        <v>0.250788</v>
+        <v>0.246235</v>
       </c>
       <c r="D21" t="n">
-        <v>0.264767</v>
+        <v>0.261609</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.284255</v>
+        <v>0.281692</v>
       </c>
       <c r="C22" t="n">
-        <v>0.251292</v>
+        <v>0.248798</v>
       </c>
       <c r="D22" t="n">
-        <v>0.269763</v>
+        <v>0.266829</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293694</v>
+        <v>0.290409</v>
       </c>
       <c r="C23" t="n">
-        <v>0.255357</v>
+        <v>0.254077</v>
       </c>
       <c r="D23" t="n">
-        <v>0.265889</v>
+        <v>0.26079</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.272865</v>
+        <v>0.277207</v>
       </c>
       <c r="C24" t="n">
-        <v>0.259143</v>
+        <v>0.264093</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267416</v>
+        <v>0.269579</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.273475</v>
+        <v>0.278297</v>
       </c>
       <c r="C25" t="n">
-        <v>0.258459</v>
+        <v>0.263614</v>
       </c>
       <c r="D25" t="n">
-        <v>0.268037</v>
+        <v>0.269359</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.273972</v>
+        <v>0.279118</v>
       </c>
       <c r="C26" t="n">
-        <v>0.25907</v>
+        <v>0.263643</v>
       </c>
       <c r="D26" t="n">
-        <v>0.26823</v>
+        <v>0.267643</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.275379</v>
+        <v>0.278444</v>
       </c>
       <c r="C27" t="n">
-        <v>0.259417</v>
+        <v>0.262152</v>
       </c>
       <c r="D27" t="n">
-        <v>0.269071</v>
+        <v>0.26815</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.276681</v>
+        <v>0.280003</v>
       </c>
       <c r="C28" t="n">
-        <v>0.259343</v>
+        <v>0.263133</v>
       </c>
       <c r="D28" t="n">
-        <v>0.267853</v>
+        <v>0.268908</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.277364</v>
+        <v>0.2789</v>
       </c>
       <c r="C29" t="n">
-        <v>0.260001</v>
+        <v>0.261446</v>
       </c>
       <c r="D29" t="n">
-        <v>0.268703</v>
+        <v>0.269691</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.279299</v>
+        <v>0.279209</v>
       </c>
       <c r="C30" t="n">
-        <v>0.261661</v>
+        <v>0.262113</v>
       </c>
       <c r="D30" t="n">
-        <v>0.27083</v>
+        <v>0.26955</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.281409</v>
+        <v>0.281235</v>
       </c>
       <c r="C31" t="n">
-        <v>0.26157</v>
+        <v>0.261337</v>
       </c>
       <c r="D31" t="n">
-        <v>0.271585</v>
+        <v>0.271561</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.283113</v>
+        <v>0.283646</v>
       </c>
       <c r="C32" t="n">
-        <v>0.262549</v>
+        <v>0.263676</v>
       </c>
       <c r="D32" t="n">
-        <v>0.270838</v>
+        <v>0.272153</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.28426</v>
+        <v>0.284301</v>
       </c>
       <c r="C33" t="n">
-        <v>0.262883</v>
+        <v>0.261924</v>
       </c>
       <c r="D33" t="n">
-        <v>0.272199</v>
+        <v>0.271617</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.288115</v>
+        <v>0.287286</v>
       </c>
       <c r="C34" t="n">
-        <v>0.265254</v>
+        <v>0.263296</v>
       </c>
       <c r="D34" t="n">
-        <v>0.276422</v>
+        <v>0.275015</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.293336</v>
+        <v>0.292196</v>
       </c>
       <c r="C35" t="n">
-        <v>0.26663</v>
+        <v>0.265768</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278713</v>
+        <v>0.278552</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.299643</v>
+        <v>0.298373</v>
       </c>
       <c r="C36" t="n">
-        <v>0.269399</v>
+        <v>0.270374</v>
       </c>
       <c r="D36" t="n">
-        <v>0.283974</v>
+        <v>0.284909</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.307586</v>
+        <v>0.306699</v>
       </c>
       <c r="C37" t="n">
-        <v>0.275016</v>
+        <v>0.274967</v>
       </c>
       <c r="D37" t="n">
-        <v>0.296322</v>
+        <v>0.297285</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.303531</v>
+        <v>0.300335</v>
       </c>
       <c r="C38" t="n">
-        <v>0.293684</v>
+        <v>0.291283</v>
       </c>
       <c r="D38" t="n">
-        <v>0.298675</v>
+        <v>0.297722</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.303945</v>
+        <v>0.303391</v>
       </c>
       <c r="C39" t="n">
-        <v>0.293748</v>
+        <v>0.291749</v>
       </c>
       <c r="D39" t="n">
-        <v>0.299829</v>
+        <v>0.298783</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304151</v>
+        <v>0.304576</v>
       </c>
       <c r="C40" t="n">
-        <v>0.291367</v>
+        <v>0.290958</v>
       </c>
       <c r="D40" t="n">
-        <v>0.297794</v>
+        <v>0.296883</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.305168</v>
+        <v>0.304403</v>
       </c>
       <c r="C41" t="n">
-        <v>0.292958</v>
+        <v>0.289871</v>
       </c>
       <c r="D41" t="n">
-        <v>0.299039</v>
+        <v>0.298716</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.305565</v>
+        <v>0.306591</v>
       </c>
       <c r="C42" t="n">
-        <v>0.292429</v>
+        <v>0.292284</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2993</v>
+        <v>0.300071</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.306858</v>
+        <v>0.305564</v>
       </c>
       <c r="C43" t="n">
-        <v>0.292771</v>
+        <v>0.292025</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299448</v>
+        <v>0.298567</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.306198</v>
+        <v>0.308727</v>
       </c>
       <c r="C44" t="n">
-        <v>0.293411</v>
+        <v>0.293195</v>
       </c>
       <c r="D44" t="n">
-        <v>0.301741</v>
+        <v>0.299108</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.309247</v>
+        <v>0.309965</v>
       </c>
       <c r="C45" t="n">
-        <v>0.295259</v>
+        <v>0.292977</v>
       </c>
       <c r="D45" t="n">
-        <v>0.301901</v>
+        <v>0.300548</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.312178</v>
+        <v>0.312168</v>
       </c>
       <c r="C46" t="n">
-        <v>0.294605</v>
+        <v>0.293918</v>
       </c>
       <c r="D46" t="n">
-        <v>0.302042</v>
+        <v>0.302301</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3151</v>
+        <v>0.313144</v>
       </c>
       <c r="C47" t="n">
-        <v>0.298293</v>
+        <v>0.294437</v>
       </c>
       <c r="D47" t="n">
-        <v>0.307292</v>
+        <v>0.304078</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.31798</v>
+        <v>0.315685</v>
       </c>
       <c r="C48" t="n">
-        <v>0.299807</v>
+        <v>0.296532</v>
       </c>
       <c r="D48" t="n">
-        <v>0.30856</v>
+        <v>0.305314</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.324012</v>
+        <v>0.321221</v>
       </c>
       <c r="C49" t="n">
-        <v>0.299159</v>
+        <v>0.298195</v>
       </c>
       <c r="D49" t="n">
-        <v>0.310971</v>
+        <v>0.307611</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.325483</v>
+        <v>0.326459</v>
       </c>
       <c r="C50" t="n">
-        <v>0.301201</v>
+        <v>0.300671</v>
       </c>
       <c r="D50" t="n">
-        <v>0.31368</v>
+        <v>0.313167</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.335401</v>
+        <v>0.331988</v>
       </c>
       <c r="C51" t="n">
-        <v>0.305804</v>
+        <v>0.306446</v>
       </c>
       <c r="D51" t="n">
-        <v>0.324722</v>
+        <v>0.325817</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340021</v>
+        <v>0.340299</v>
       </c>
       <c r="C52" t="n">
-        <v>0.313054</v>
+        <v>0.311188</v>
       </c>
       <c r="D52" t="n">
-        <v>0.322836</v>
+        <v>0.322182</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.330712</v>
+        <v>0.328969</v>
       </c>
       <c r="C53" t="n">
-        <v>0.318782</v>
+        <v>0.319069</v>
       </c>
       <c r="D53" t="n">
-        <v>0.321014</v>
+        <v>0.326976</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.333329</v>
+        <v>0.327705</v>
       </c>
       <c r="C54" t="n">
-        <v>0.319507</v>
+        <v>0.319174</v>
       </c>
       <c r="D54" t="n">
-        <v>0.325131</v>
+        <v>0.327622</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.332013</v>
+        <v>0.33197</v>
       </c>
       <c r="C55" t="n">
-        <v>0.318902</v>
+        <v>0.319784</v>
       </c>
       <c r="D55" t="n">
-        <v>0.327586</v>
+        <v>0.328063</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330479</v>
+        <v>0.33017</v>
       </c>
       <c r="C56" t="n">
-        <v>0.31415</v>
+        <v>0.318279</v>
       </c>
       <c r="D56" t="n">
-        <v>0.328009</v>
+        <v>0.32754</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.33343</v>
+        <v>0.33197</v>
       </c>
       <c r="C57" t="n">
-        <v>0.313338</v>
+        <v>0.319023</v>
       </c>
       <c r="D57" t="n">
-        <v>0.328141</v>
+        <v>0.328453</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.329365</v>
+        <v>0.333983</v>
       </c>
       <c r="C58" t="n">
-        <v>0.320189</v>
+        <v>0.320331</v>
       </c>
       <c r="D58" t="n">
-        <v>0.328788</v>
+        <v>0.329587</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.331531</v>
+        <v>0.334027</v>
       </c>
       <c r="C59" t="n">
-        <v>0.320901</v>
+        <v>0.320262</v>
       </c>
       <c r="D59" t="n">
-        <v>0.32494</v>
+        <v>0.32959</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.334203</v>
+        <v>0.336174</v>
       </c>
       <c r="C60" t="n">
-        <v>0.321883</v>
+        <v>0.320399</v>
       </c>
       <c r="D60" t="n">
-        <v>0.33101</v>
+        <v>0.330394</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.338484</v>
+        <v>0.339793</v>
       </c>
       <c r="C61" t="n">
-        <v>0.322613</v>
+        <v>0.322316</v>
       </c>
       <c r="D61" t="n">
-        <v>0.33297</v>
+        <v>0.331745</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.34163</v>
+        <v>0.342399</v>
       </c>
       <c r="C62" t="n">
-        <v>0.324102</v>
+        <v>0.323931</v>
       </c>
       <c r="D62" t="n">
-        <v>0.334429</v>
+        <v>0.333992</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.338716</v>
+        <v>0.344365</v>
       </c>
       <c r="C63" t="n">
-        <v>0.325375</v>
+        <v>0.324844</v>
       </c>
       <c r="D63" t="n">
-        <v>0.336743</v>
+        <v>0.336844</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.35045</v>
+        <v>0.35106</v>
       </c>
       <c r="C64" t="n">
-        <v>0.327514</v>
+        <v>0.327659</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340996</v>
+        <v>0.340327</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.35573</v>
+        <v>0.35814</v>
       </c>
       <c r="C65" t="n">
-        <v>0.331517</v>
+        <v>0.332621</v>
       </c>
       <c r="D65" t="n">
-        <v>0.347698</v>
+        <v>0.349608</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.364289</v>
+        <v>0.364033</v>
       </c>
       <c r="C66" t="n">
-        <v>0.336312</v>
+        <v>0.338701</v>
       </c>
       <c r="D66" t="n">
-        <v>0.343884</v>
+        <v>0.345278</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347644</v>
+        <v>0.346929</v>
       </c>
       <c r="C67" t="n">
-        <v>0.335769</v>
+        <v>0.336594</v>
       </c>
       <c r="D67" t="n">
-        <v>0.344692</v>
+        <v>0.345596</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346611</v>
+        <v>0.348073</v>
       </c>
       <c r="C68" t="n">
-        <v>0.337078</v>
+        <v>0.336866</v>
       </c>
       <c r="D68" t="n">
-        <v>0.344449</v>
+        <v>0.345783</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.347764</v>
+        <v>0.348724</v>
       </c>
       <c r="C69" t="n">
-        <v>0.337745</v>
+        <v>0.337787</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3461</v>
+        <v>0.346064</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.348308</v>
+        <v>0.349717</v>
       </c>
       <c r="C70" t="n">
-        <v>0.338275</v>
+        <v>0.337423</v>
       </c>
       <c r="D70" t="n">
-        <v>0.346722</v>
+        <v>0.345872</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350157</v>
+        <v>0.35005</v>
       </c>
       <c r="C71" t="n">
-        <v>0.33819</v>
+        <v>0.337985</v>
       </c>
       <c r="D71" t="n">
-        <v>0.346112</v>
+        <v>0.346701</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.35126</v>
+        <v>0.351538</v>
       </c>
       <c r="C72" t="n">
-        <v>0.338132</v>
+        <v>0.338161</v>
       </c>
       <c r="D72" t="n">
-        <v>0.346636</v>
+        <v>0.346587</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.35274</v>
+        <v>0.353329</v>
       </c>
       <c r="C73" t="n">
-        <v>0.339068</v>
+        <v>0.339194</v>
       </c>
       <c r="D73" t="n">
-        <v>0.347745</v>
+        <v>0.348411</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.35451</v>
+        <v>0.354793</v>
       </c>
       <c r="C74" t="n">
-        <v>0.340282</v>
+        <v>0.339522</v>
       </c>
       <c r="D74" t="n">
-        <v>0.348471</v>
+        <v>0.348753</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.35662</v>
+        <v>0.357026</v>
       </c>
       <c r="C75" t="n">
-        <v>0.341204</v>
+        <v>0.341131</v>
       </c>
       <c r="D75" t="n">
-        <v>0.350671</v>
+        <v>0.350386</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.359817</v>
+        <v>0.359541</v>
       </c>
       <c r="C76" t="n">
-        <v>0.340951</v>
+        <v>0.34145</v>
       </c>
       <c r="D76" t="n">
-        <v>0.352835</v>
+        <v>0.351501</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.36372</v>
+        <v>0.363443</v>
       </c>
       <c r="C77" t="n">
-        <v>0.344338</v>
+        <v>0.34319</v>
       </c>
       <c r="D77" t="n">
-        <v>0.354664</v>
+        <v>0.354335</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.368189</v>
+        <v>0.368462</v>
       </c>
       <c r="C78" t="n">
-        <v>0.345092</v>
+        <v>0.345957</v>
       </c>
       <c r="D78" t="n">
-        <v>0.359375</v>
+        <v>0.358441</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.374986</v>
+        <v>0.374633</v>
       </c>
       <c r="C79" t="n">
-        <v>0.349434</v>
+        <v>0.349555</v>
       </c>
       <c r="D79" t="n">
-        <v>0.365291</v>
+        <v>0.365902</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.382926</v>
+        <v>0.382222</v>
       </c>
       <c r="C80" t="n">
-        <v>0.35579</v>
+        <v>0.354915</v>
       </c>
       <c r="D80" t="n">
-        <v>0.363508</v>
+        <v>0.362951</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.37012</v>
+        <v>0.372371</v>
       </c>
       <c r="C81" t="n">
-        <v>0.351194</v>
+        <v>0.346797</v>
       </c>
       <c r="D81" t="n">
-        <v>0.362939</v>
+        <v>0.364185</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.36939</v>
+        <v>0.374815</v>
       </c>
       <c r="C82" t="n">
-        <v>0.359412</v>
+        <v>0.34814</v>
       </c>
       <c r="D82" t="n">
-        <v>0.355362</v>
+        <v>0.363597</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.371433</v>
+        <v>0.370978</v>
       </c>
       <c r="C83" t="n">
-        <v>0.362738</v>
+        <v>0.349192</v>
       </c>
       <c r="D83" t="n">
-        <v>0.363832</v>
+        <v>0.365474</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.37496</v>
+        <v>0.373007</v>
       </c>
       <c r="C84" t="n">
-        <v>0.359966</v>
+        <v>0.350247</v>
       </c>
       <c r="D84" t="n">
-        <v>0.364055</v>
+        <v>0.366677</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.371664</v>
+        <v>0.374457</v>
       </c>
       <c r="C85" t="n">
-        <v>0.359712</v>
+        <v>0.349955</v>
       </c>
       <c r="D85" t="n">
-        <v>0.364623</v>
+        <v>0.365507</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.374412</v>
+        <v>0.373924</v>
       </c>
       <c r="C86" t="n">
-        <v>0.35996</v>
+        <v>0.348098</v>
       </c>
       <c r="D86" t="n">
-        <v>0.365153</v>
+        <v>0.365991</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.373742</v>
+        <v>0.375778</v>
       </c>
       <c r="C87" t="n">
-        <v>0.361646</v>
+        <v>0.361117</v>
       </c>
       <c r="D87" t="n">
-        <v>0.366126</v>
+        <v>0.357663</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.376596</v>
+        <v>0.38186</v>
       </c>
       <c r="C88" t="n">
-        <v>0.361707</v>
+        <v>0.361577</v>
       </c>
       <c r="D88" t="n">
-        <v>0.358799</v>
+        <v>0.366665</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.378658</v>
+        <v>0.380407</v>
       </c>
       <c r="C89" t="n">
-        <v>0.362132</v>
+        <v>0.370206</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367241</v>
+        <v>0.371573</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.380385</v>
+        <v>0.386173</v>
       </c>
       <c r="C90" t="n">
-        <v>0.352199</v>
+        <v>0.370406</v>
       </c>
       <c r="D90" t="n">
-        <v>0.369682</v>
+        <v>0.37222</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.385922</v>
+        <v>0.388299</v>
       </c>
       <c r="C91" t="n">
-        <v>0.366267</v>
+        <v>0.37168</v>
       </c>
       <c r="D91" t="n">
-        <v>0.372273</v>
+        <v>0.375112</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.397706</v>
+        <v>0.395471</v>
       </c>
       <c r="C92" t="n">
-        <v>0.369168</v>
+        <v>0.373726</v>
       </c>
       <c r="D92" t="n">
-        <v>0.378529</v>
+        <v>0.372367</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.394675</v>
+        <v>0.400575</v>
       </c>
       <c r="C93" t="n">
-        <v>0.371383</v>
+        <v>0.379076</v>
       </c>
       <c r="D93" t="n">
-        <v>0.374193</v>
+        <v>0.386286</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.403236</v>
+        <v>0.411372</v>
       </c>
       <c r="C94" t="n">
-        <v>0.375677</v>
+        <v>0.382887</v>
       </c>
       <c r="D94" t="n">
-        <v>0.531872</v>
+        <v>0.523823</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.585709</v>
+        <v>0.585518</v>
       </c>
       <c r="C95" t="n">
-        <v>0.568242</v>
+        <v>0.5121289999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.532184</v>
+        <v>0.53024</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5722390000000001</v>
+        <v>0.581475</v>
       </c>
       <c r="C96" t="n">
-        <v>0.562667</v>
+        <v>0.556414</v>
       </c>
       <c r="D96" t="n">
-        <v>0.548701</v>
+        <v>0.526416</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.587334</v>
+        <v>0.583113</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5736250000000001</v>
+        <v>0.556189</v>
       </c>
       <c r="D97" t="n">
-        <v>0.535004</v>
+        <v>0.49058</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.595989</v>
+        <v>0.587743</v>
       </c>
       <c r="C98" t="n">
-        <v>0.554579</v>
+        <v>0.506933</v>
       </c>
       <c r="D98" t="n">
-        <v>0.537795</v>
+        <v>0.484522</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.591442</v>
+        <v>0.583944</v>
       </c>
       <c r="C99" t="n">
-        <v>0.567059</v>
+        <v>0.55614</v>
       </c>
       <c r="D99" t="n">
-        <v>0.521378</v>
+        <v>0.492301</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.592815</v>
+        <v>0.590448</v>
       </c>
       <c r="C100" t="n">
-        <v>0.552841</v>
+        <v>0.515895</v>
       </c>
       <c r="D100" t="n">
-        <v>0.530103</v>
+        <v>0.490461</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.587476</v>
+        <v>0.589861</v>
       </c>
       <c r="C101" t="n">
-        <v>0.517754</v>
+        <v>0.512276</v>
       </c>
       <c r="D101" t="n">
-        <v>0.525741</v>
+        <v>0.485923</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.594036</v>
+        <v>0.584077</v>
       </c>
       <c r="C102" t="n">
-        <v>0.558208</v>
+        <v>0.556661</v>
       </c>
       <c r="D102" t="n">
-        <v>0.486214</v>
+        <v>0.533461</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.59108</v>
+        <v>0.591723</v>
       </c>
       <c r="C103" t="n">
-        <v>0.562235</v>
+        <v>0.554128</v>
       </c>
       <c r="D103" t="n">
-        <v>0.531047</v>
+        <v>0.530955</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.595183</v>
+        <v>0.596517</v>
       </c>
       <c r="C104" t="n">
-        <v>0.55247</v>
+        <v>0.559492</v>
       </c>
       <c r="D104" t="n">
-        <v>0.530772</v>
+        <v>0.542259</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.589316</v>
+        <v>0.591198</v>
       </c>
       <c r="C105" t="n">
-        <v>0.560508</v>
+        <v>0.55222</v>
       </c>
       <c r="D105" t="n">
-        <v>0.534245</v>
+        <v>0.529345</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.599512</v>
+        <v>0.5975200000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.561923</v>
+        <v>0.556714</v>
       </c>
       <c r="D106" t="n">
-        <v>0.532351</v>
+        <v>0.509451</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.607415</v>
+        <v>0.5977749999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.565504</v>
+        <v>0.524492</v>
       </c>
       <c r="D107" t="n">
-        <v>0.555849</v>
+        <v>0.494725</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.60632</v>
+        <v>0.6096200000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.582411</v>
+        <v>0.563064</v>
       </c>
       <c r="D108" t="n">
-        <v>0.977877</v>
+        <v>0.995214</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.622183</v>
+        <v>0.612127</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5747679999999999</v>
+        <v>0.574254</v>
       </c>
       <c r="D109" t="n">
-        <v>1.00662</v>
+        <v>0.994654</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.06893</v>
+        <v>1.05125</v>
       </c>
       <c r="C110" t="n">
-        <v>0.999404</v>
+        <v>0.985654</v>
       </c>
       <c r="D110" t="n">
-        <v>1.00984</v>
+        <v>0.965699</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.06704</v>
+        <v>1.05203</v>
       </c>
       <c r="C111" t="n">
-        <v>0.997543</v>
+        <v>0.983472</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00238</v>
+        <v>0.993148</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.06338</v>
+        <v>1.05346</v>
       </c>
       <c r="C112" t="n">
-        <v>1.02892</v>
+        <v>1.01384</v>
       </c>
       <c r="D112" t="n">
-        <v>0.980151</v>
+        <v>0.996408</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.06679</v>
+        <v>1.053</v>
       </c>
       <c r="C113" t="n">
-        <v>1.0279</v>
+        <v>0.983267</v>
       </c>
       <c r="D113" t="n">
-        <v>0.952367</v>
+        <v>0.96304</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.06667</v>
+        <v>1.05721</v>
       </c>
       <c r="C114" t="n">
-        <v>1.02605</v>
+        <v>1.01202</v>
       </c>
       <c r="D114" t="n">
-        <v>1.00666</v>
+        <v>0.9572850000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.06974</v>
+        <v>1.05235</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9990019999999999</v>
+        <v>1.01526</v>
       </c>
       <c r="D115" t="n">
-        <v>1.00388</v>
+        <v>0.99647</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.06898</v>
+        <v>1.05502</v>
       </c>
       <c r="C116" t="n">
-        <v>0.998004</v>
+        <v>1.01592</v>
       </c>
       <c r="D116" t="n">
-        <v>1.00015</v>
+        <v>0.994961</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.06802</v>
+        <v>1.05898</v>
       </c>
       <c r="C117" t="n">
-        <v>1.02593</v>
+        <v>1.01099</v>
       </c>
       <c r="D117" t="n">
-        <v>0.979577</v>
+        <v>0.990521</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.07043</v>
+        <v>1.0586</v>
       </c>
       <c r="C118" t="n">
-        <v>1.02619</v>
+        <v>1.01644</v>
       </c>
       <c r="D118" t="n">
-        <v>1.00473</v>
+        <v>0.99354</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.07031</v>
+        <v>1.05704</v>
       </c>
       <c r="C119" t="n">
-        <v>1.03111</v>
+        <v>1.01539</v>
       </c>
       <c r="D119" t="n">
-        <v>1.0074</v>
+        <v>0.99357</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.07455</v>
+        <v>1.05788</v>
       </c>
       <c r="C120" t="n">
-        <v>1.03009</v>
+        <v>1.01437</v>
       </c>
       <c r="D120" t="n">
-        <v>1.00831</v>
+        <v>0.994428</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.07611</v>
+        <v>1.06165</v>
       </c>
       <c r="C121" t="n">
-        <v>1.00867</v>
+        <v>1.00015</v>
       </c>
       <c r="D121" t="n">
-        <v>0.983061</v>
+        <v>0.9955619999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.07939</v>
+        <v>1.0644</v>
       </c>
       <c r="C122" t="n">
-        <v>1.03408</v>
+        <v>1.02264</v>
       </c>
       <c r="D122" t="n">
-        <v>1.01173</v>
+        <v>0.996237</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.08611</v>
+        <v>1.07423</v>
       </c>
       <c r="C123" t="n">
-        <v>1.03978</v>
+        <v>0.998312</v>
       </c>
       <c r="D123" t="n">
-        <v>1.29453</v>
+        <v>1.29107</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34165</v>
+        <v>1.33191</v>
       </c>
       <c r="C124" t="n">
-        <v>1.29259</v>
+        <v>1.30364</v>
       </c>
       <c r="D124" t="n">
-        <v>1.30551</v>
+        <v>1.30951</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.34047</v>
+        <v>1.32544</v>
       </c>
       <c r="C125" t="n">
-        <v>1.32756</v>
+        <v>1.29467</v>
       </c>
       <c r="D125" t="n">
-        <v>1.27497</v>
+        <v>1.28674</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.34094</v>
+        <v>1.32456</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3257</v>
+        <v>1.30369</v>
       </c>
       <c r="D126" t="n">
-        <v>1.27695</v>
+        <v>1.30261</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.34259</v>
+        <v>1.30932</v>
       </c>
       <c r="C127" t="n">
-        <v>1.29869</v>
+        <v>1.29698</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30009</v>
+        <v>1.31011</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.3426</v>
+        <v>1.32106</v>
       </c>
       <c r="C128" t="n">
-        <v>1.31703</v>
+        <v>1.31249</v>
       </c>
       <c r="D128" t="n">
-        <v>1.32104</v>
+        <v>1.30993</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.34101</v>
+        <v>1.34128</v>
       </c>
       <c r="C129" t="n">
-        <v>1.29221</v>
+        <v>1.3121</v>
       </c>
       <c r="D129" t="n">
-        <v>1.309</v>
+        <v>1.29995</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.34039</v>
+        <v>1.32943</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32331</v>
+        <v>1.3016</v>
       </c>
       <c r="D130" t="n">
-        <v>1.32472</v>
+        <v>1.30261</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.35194</v>
+        <v>1.33359</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33503</v>
+        <v>1.31621</v>
       </c>
       <c r="D131" t="n">
-        <v>1.33219</v>
+        <v>1.30913</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.35181</v>
+        <v>1.33203</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32202</v>
+        <v>1.30617</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31894</v>
+        <v>1.29279</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.35739</v>
+        <v>1.33477</v>
       </c>
       <c r="C133" t="n">
-        <v>1.32302</v>
+        <v>1.31234</v>
       </c>
       <c r="D133" t="n">
-        <v>1.31722</v>
+        <v>1.31533</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.34693</v>
+        <v>1.3431</v>
       </c>
       <c r="C134" t="n">
-        <v>1.3254</v>
+        <v>1.31815</v>
       </c>
       <c r="D134" t="n">
-        <v>1.32735</v>
+        <v>1.31408</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.35678</v>
+        <v>1.34165</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34396</v>
+        <v>1.31974</v>
       </c>
       <c r="D135" t="n">
-        <v>1.33996</v>
+        <v>1.30165</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.36614</v>
+        <v>1.35364</v>
       </c>
       <c r="C136" t="n">
-        <v>1.31507</v>
+        <v>1.31127</v>
       </c>
       <c r="D136" t="n">
-        <v>1.33635</v>
+        <v>1.3263</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.38122</v>
+        <v>1.36779</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35538</v>
+        <v>1.33587</v>
       </c>
       <c r="D137" t="n">
-        <v>1.47559</v>
+        <v>1.43172</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.48996</v>
+        <v>1.45235</v>
       </c>
       <c r="C138" t="n">
-        <v>1.47519</v>
+        <v>1.4309</v>
       </c>
       <c r="D138" t="n">
-        <v>1.48459</v>
+        <v>1.4313</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.49369</v>
+        <v>1.44888</v>
       </c>
       <c r="C139" t="n">
-        <v>1.47139</v>
+        <v>1.43235</v>
       </c>
       <c r="D139" t="n">
-        <v>1.47405</v>
+        <v>1.43203</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.49236</v>
+        <v>1.45008</v>
       </c>
       <c r="C140" t="n">
-        <v>1.48535</v>
+        <v>1.43201</v>
       </c>
       <c r="D140" t="n">
-        <v>1.46156</v>
+        <v>1.43152</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.48642</v>
+        <v>1.44403</v>
       </c>
       <c r="C141" t="n">
-        <v>1.48312</v>
+        <v>1.43674</v>
       </c>
       <c r="D141" t="n">
-        <v>1.48209</v>
+        <v>1.4323</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.49034</v>
+        <v>1.44693</v>
       </c>
       <c r="C142" t="n">
-        <v>1.47118</v>
+        <v>1.42962</v>
       </c>
       <c r="D142" t="n">
-        <v>1.47122</v>
+        <v>1.43558</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.49861</v>
+        <v>1.44881</v>
       </c>
       <c r="C143" t="n">
-        <v>1.47887</v>
+        <v>1.42963</v>
       </c>
       <c r="D143" t="n">
-        <v>1.47454</v>
+        <v>1.43316</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.256037</v>
+        <v>0.255866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236248</v>
+        <v>0.236617</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249229</v>
+        <v>0.249124</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256561</v>
+        <v>0.25611</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236399</v>
+        <v>0.236625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249454</v>
+        <v>0.249541</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258365</v>
+        <v>0.257975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237305</v>
+        <v>0.237526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250734</v>
+        <v>0.250644</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.26067</v>
+        <v>0.260174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238308</v>
+        <v>0.238429</v>
       </c>
       <c r="D5" t="n">
-        <v>0.252099</v>
+        <v>0.251907</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262875</v>
+        <v>0.262363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238412</v>
+        <v>0.238898</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25297</v>
+        <v>0.252513</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.266412</v>
+        <v>0.265886</v>
       </c>
       <c r="C7" t="n">
-        <v>0.23982</v>
+        <v>0.239811</v>
       </c>
       <c r="D7" t="n">
-        <v>0.255476</v>
+        <v>0.254943</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.27249</v>
+        <v>0.27192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.241808</v>
+        <v>0.242111</v>
       </c>
       <c r="D8" t="n">
-        <v>0.259297</v>
+        <v>0.25952</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.28105</v>
+        <v>0.280806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.246389</v>
+        <v>0.247073</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251096</v>
+        <v>0.252831</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25371</v>
+        <v>0.25512</v>
       </c>
       <c r="C10" t="n">
-        <v>0.238732</v>
+        <v>0.242642</v>
       </c>
       <c r="D10" t="n">
-        <v>0.252499</v>
+        <v>0.253737</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.256102</v>
+        <v>0.255416</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239602</v>
+        <v>0.240053</v>
       </c>
       <c r="D11" t="n">
-        <v>0.253855</v>
+        <v>0.253119</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.259279</v>
+        <v>0.256213</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241744</v>
+        <v>0.23956</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254744</v>
+        <v>0.252858</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25733</v>
+        <v>0.256666</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240623</v>
+        <v>0.239536</v>
       </c>
       <c r="D13" t="n">
-        <v>0.253817</v>
+        <v>0.252932</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.258719</v>
+        <v>0.261293</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240992</v>
+        <v>0.243286</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253223</v>
+        <v>0.254544</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.260578</v>
+        <v>0.263441</v>
       </c>
       <c r="C15" t="n">
-        <v>0.241023</v>
+        <v>0.245516</v>
       </c>
       <c r="D15" t="n">
-        <v>0.253971</v>
+        <v>0.257292</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262338</v>
+        <v>0.262032</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242272</v>
+        <v>0.244075</v>
       </c>
       <c r="D16" t="n">
-        <v>0.254858</v>
+        <v>0.256226</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.261709</v>
+        <v>0.26244</v>
       </c>
       <c r="C17" t="n">
-        <v>0.24179</v>
+        <v>0.243784</v>
       </c>
       <c r="D17" t="n">
-        <v>0.255351</v>
+        <v>0.255599</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.263726</v>
+        <v>0.263142</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242189</v>
+        <v>0.242588</v>
       </c>
       <c r="D18" t="n">
-        <v>0.255871</v>
+        <v>0.255912</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.267703</v>
+        <v>0.267338</v>
       </c>
       <c r="C19" t="n">
-        <v>0.245533</v>
+        <v>0.244159</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25778</v>
+        <v>0.257872</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269313</v>
+        <v>0.271696</v>
       </c>
       <c r="C20" t="n">
-        <v>0.244697</v>
+        <v>0.244667</v>
       </c>
       <c r="D20" t="n">
-        <v>0.258824</v>
+        <v>0.259033</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.273918</v>
+        <v>0.274012</v>
       </c>
       <c r="C21" t="n">
-        <v>0.246235</v>
+        <v>0.247166</v>
       </c>
       <c r="D21" t="n">
-        <v>0.261609</v>
+        <v>0.261702</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.281692</v>
+        <v>0.281584</v>
       </c>
       <c r="C22" t="n">
-        <v>0.248798</v>
+        <v>0.251238</v>
       </c>
       <c r="D22" t="n">
-        <v>0.266829</v>
+        <v>0.267339</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.290409</v>
+        <v>0.290137</v>
       </c>
       <c r="C23" t="n">
-        <v>0.254077</v>
+        <v>0.254506</v>
       </c>
       <c r="D23" t="n">
-        <v>0.26079</v>
+        <v>0.264697</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.277207</v>
+        <v>0.273463</v>
       </c>
       <c r="C24" t="n">
-        <v>0.264093</v>
+        <v>0.258479</v>
       </c>
       <c r="D24" t="n">
-        <v>0.269579</v>
+        <v>0.267902</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.278297</v>
+        <v>0.274743</v>
       </c>
       <c r="C25" t="n">
-        <v>0.263614</v>
+        <v>0.26211</v>
       </c>
       <c r="D25" t="n">
-        <v>0.269359</v>
+        <v>0.267093</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.279118</v>
+        <v>0.275108</v>
       </c>
       <c r="C26" t="n">
-        <v>0.263643</v>
+        <v>0.26031</v>
       </c>
       <c r="D26" t="n">
-        <v>0.267643</v>
+        <v>0.268203</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.278444</v>
+        <v>0.276618</v>
       </c>
       <c r="C27" t="n">
-        <v>0.262152</v>
+        <v>0.261202</v>
       </c>
       <c r="D27" t="n">
-        <v>0.26815</v>
+        <v>0.268592</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.280003</v>
+        <v>0.278575</v>
       </c>
       <c r="C28" t="n">
-        <v>0.263133</v>
+        <v>0.264413</v>
       </c>
       <c r="D28" t="n">
-        <v>0.268908</v>
+        <v>0.271418</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2789</v>
+        <v>0.27894</v>
       </c>
       <c r="C29" t="n">
-        <v>0.261446</v>
+        <v>0.262348</v>
       </c>
       <c r="D29" t="n">
-        <v>0.269691</v>
+        <v>0.270767</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.279209</v>
+        <v>0.279591</v>
       </c>
       <c r="C30" t="n">
-        <v>0.262113</v>
+        <v>0.262154</v>
       </c>
       <c r="D30" t="n">
-        <v>0.26955</v>
+        <v>0.269186</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.281235</v>
+        <v>0.280171</v>
       </c>
       <c r="C31" t="n">
-        <v>0.261337</v>
+        <v>0.261103</v>
       </c>
       <c r="D31" t="n">
-        <v>0.271561</v>
+        <v>0.270689</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.283646</v>
+        <v>0.283175</v>
       </c>
       <c r="C32" t="n">
-        <v>0.263676</v>
+        <v>0.263628</v>
       </c>
       <c r="D32" t="n">
-        <v>0.272153</v>
+        <v>0.270187</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.284301</v>
+        <v>0.285478</v>
       </c>
       <c r="C33" t="n">
-        <v>0.261924</v>
+        <v>0.265444</v>
       </c>
       <c r="D33" t="n">
-        <v>0.271617</v>
+        <v>0.273597</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.287286</v>
+        <v>0.28864</v>
       </c>
       <c r="C34" t="n">
-        <v>0.263296</v>
+        <v>0.266198</v>
       </c>
       <c r="D34" t="n">
-        <v>0.275015</v>
+        <v>0.276262</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292196</v>
+        <v>0.294171</v>
       </c>
       <c r="C35" t="n">
-        <v>0.265768</v>
+        <v>0.269078</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278552</v>
+        <v>0.280148</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.298373</v>
+        <v>0.300741</v>
       </c>
       <c r="C36" t="n">
-        <v>0.270374</v>
+        <v>0.271105</v>
       </c>
       <c r="D36" t="n">
-        <v>0.284909</v>
+        <v>0.283928</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.306699</v>
+        <v>0.307814</v>
       </c>
       <c r="C37" t="n">
-        <v>0.274967</v>
+        <v>0.289435</v>
       </c>
       <c r="D37" t="n">
-        <v>0.297285</v>
+        <v>0.299907</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.300335</v>
+        <v>0.302939</v>
       </c>
       <c r="C38" t="n">
-        <v>0.291283</v>
+        <v>0.294286</v>
       </c>
       <c r="D38" t="n">
-        <v>0.297722</v>
+        <v>0.300567</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.303391</v>
+        <v>0.30468</v>
       </c>
       <c r="C39" t="n">
-        <v>0.291749</v>
+        <v>0.292747</v>
       </c>
       <c r="D39" t="n">
-        <v>0.298783</v>
+        <v>0.300233</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304576</v>
+        <v>0.303868</v>
       </c>
       <c r="C40" t="n">
-        <v>0.290958</v>
+        <v>0.290819</v>
       </c>
       <c r="D40" t="n">
-        <v>0.296883</v>
+        <v>0.297593</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304403</v>
+        <v>0.303679</v>
       </c>
       <c r="C41" t="n">
-        <v>0.289871</v>
+        <v>0.291686</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298716</v>
+        <v>0.297977</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.306591</v>
+        <v>0.305499</v>
       </c>
       <c r="C42" t="n">
-        <v>0.292284</v>
+        <v>0.290967</v>
       </c>
       <c r="D42" t="n">
-        <v>0.300071</v>
+        <v>0.299009</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.305564</v>
+        <v>0.307204</v>
       </c>
       <c r="C43" t="n">
-        <v>0.292025</v>
+        <v>0.291728</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298567</v>
+        <v>0.29867</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.308727</v>
+        <v>0.307252</v>
       </c>
       <c r="C44" t="n">
-        <v>0.293195</v>
+        <v>0.292987</v>
       </c>
       <c r="D44" t="n">
-        <v>0.299108</v>
+        <v>0.299357</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.309965</v>
+        <v>0.308655</v>
       </c>
       <c r="C45" t="n">
-        <v>0.292977</v>
+        <v>0.292397</v>
       </c>
       <c r="D45" t="n">
-        <v>0.300548</v>
+        <v>0.299478</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.312168</v>
+        <v>0.311076</v>
       </c>
       <c r="C46" t="n">
-        <v>0.293918</v>
+        <v>0.292801</v>
       </c>
       <c r="D46" t="n">
-        <v>0.302301</v>
+        <v>0.299769</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.313144</v>
+        <v>0.313163</v>
       </c>
       <c r="C47" t="n">
-        <v>0.294437</v>
+        <v>0.294334</v>
       </c>
       <c r="D47" t="n">
-        <v>0.304078</v>
+        <v>0.301911</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.315685</v>
+        <v>0.314922</v>
       </c>
       <c r="C48" t="n">
-        <v>0.296532</v>
+        <v>0.294902</v>
       </c>
       <c r="D48" t="n">
-        <v>0.305314</v>
+        <v>0.304371</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.321221</v>
+        <v>0.319806</v>
       </c>
       <c r="C49" t="n">
-        <v>0.298195</v>
+        <v>0.297175</v>
       </c>
       <c r="D49" t="n">
-        <v>0.307611</v>
+        <v>0.307749</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.326459</v>
+        <v>0.329042</v>
       </c>
       <c r="C50" t="n">
-        <v>0.300671</v>
+        <v>0.300959</v>
       </c>
       <c r="D50" t="n">
-        <v>0.313167</v>
+        <v>0.313082</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.331988</v>
+        <v>0.330513</v>
       </c>
       <c r="C51" t="n">
-        <v>0.306446</v>
+        <v>0.305959</v>
       </c>
       <c r="D51" t="n">
-        <v>0.325817</v>
+        <v>0.327159</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340299</v>
+        <v>0.341029</v>
       </c>
       <c r="C52" t="n">
-        <v>0.311188</v>
+        <v>0.314542</v>
       </c>
       <c r="D52" t="n">
-        <v>0.322182</v>
+        <v>0.319713</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.328969</v>
+        <v>0.330452</v>
       </c>
       <c r="C53" t="n">
-        <v>0.319069</v>
+        <v>0.319319</v>
       </c>
       <c r="D53" t="n">
-        <v>0.326976</v>
+        <v>0.32699</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.327705</v>
+        <v>0.330468</v>
       </c>
       <c r="C54" t="n">
-        <v>0.319174</v>
+        <v>0.319213</v>
       </c>
       <c r="D54" t="n">
-        <v>0.327622</v>
+        <v>0.326598</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33197</v>
+        <v>0.330773</v>
       </c>
       <c r="C55" t="n">
-        <v>0.319784</v>
+        <v>0.319076</v>
       </c>
       <c r="D55" t="n">
-        <v>0.328063</v>
+        <v>0.325849</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.33017</v>
+        <v>0.332029</v>
       </c>
       <c r="C56" t="n">
-        <v>0.318279</v>
+        <v>0.319223</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32754</v>
+        <v>0.328714</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.33197</v>
+        <v>0.333125</v>
       </c>
       <c r="C57" t="n">
-        <v>0.319023</v>
+        <v>0.319816</v>
       </c>
       <c r="D57" t="n">
-        <v>0.328453</v>
+        <v>0.328009</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.333983</v>
+        <v>0.334376</v>
       </c>
       <c r="C58" t="n">
-        <v>0.320331</v>
+        <v>0.322283</v>
       </c>
       <c r="D58" t="n">
-        <v>0.329587</v>
+        <v>0.330938</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.334027</v>
+        <v>0.334967</v>
       </c>
       <c r="C59" t="n">
-        <v>0.320262</v>
+        <v>0.322558</v>
       </c>
       <c r="D59" t="n">
-        <v>0.32959</v>
+        <v>0.331402</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.336174</v>
+        <v>0.33753</v>
       </c>
       <c r="C60" t="n">
-        <v>0.320399</v>
+        <v>0.323288</v>
       </c>
       <c r="D60" t="n">
-        <v>0.330394</v>
+        <v>0.331301</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.339793</v>
+        <v>0.340897</v>
       </c>
       <c r="C61" t="n">
-        <v>0.322316</v>
+        <v>0.325042</v>
       </c>
       <c r="D61" t="n">
-        <v>0.331745</v>
+        <v>0.332893</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.342399</v>
+        <v>0.344403</v>
       </c>
       <c r="C62" t="n">
-        <v>0.323931</v>
+        <v>0.325781</v>
       </c>
       <c r="D62" t="n">
-        <v>0.333992</v>
+        <v>0.334562</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.344365</v>
+        <v>0.34692</v>
       </c>
       <c r="C63" t="n">
-        <v>0.324844</v>
+        <v>0.3268</v>
       </c>
       <c r="D63" t="n">
-        <v>0.336844</v>
+        <v>0.338195</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.35106</v>
+        <v>0.350779</v>
       </c>
       <c r="C64" t="n">
-        <v>0.327659</v>
+        <v>0.328308</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340327</v>
+        <v>0.341912</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.35814</v>
+        <v>0.359195</v>
       </c>
       <c r="C65" t="n">
-        <v>0.332621</v>
+        <v>0.33244</v>
       </c>
       <c r="D65" t="n">
-        <v>0.349608</v>
+        <v>0.348554</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.364033</v>
+        <v>0.365662</v>
       </c>
       <c r="C66" t="n">
-        <v>0.338701</v>
+        <v>0.338654</v>
       </c>
       <c r="D66" t="n">
-        <v>0.345278</v>
+        <v>0.341184</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346929</v>
+        <v>0.345631</v>
       </c>
       <c r="C67" t="n">
-        <v>0.336594</v>
+        <v>0.334836</v>
       </c>
       <c r="D67" t="n">
-        <v>0.345596</v>
+        <v>0.345827</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.348073</v>
+        <v>0.346128</v>
       </c>
       <c r="C68" t="n">
-        <v>0.336866</v>
+        <v>0.332037</v>
       </c>
       <c r="D68" t="n">
-        <v>0.345783</v>
+        <v>0.345792</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.348724</v>
+        <v>0.345055</v>
       </c>
       <c r="C69" t="n">
-        <v>0.337787</v>
+        <v>0.333055</v>
       </c>
       <c r="D69" t="n">
-        <v>0.346064</v>
+        <v>0.345794</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.349717</v>
+        <v>0.346706</v>
       </c>
       <c r="C70" t="n">
-        <v>0.337423</v>
+        <v>0.333219</v>
       </c>
       <c r="D70" t="n">
-        <v>0.345872</v>
+        <v>0.345853</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.35005</v>
+        <v>0.347479</v>
       </c>
       <c r="C71" t="n">
-        <v>0.337985</v>
+        <v>0.334638</v>
       </c>
       <c r="D71" t="n">
-        <v>0.346701</v>
+        <v>0.346894</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.351538</v>
+        <v>0.348688</v>
       </c>
       <c r="C72" t="n">
-        <v>0.338161</v>
+        <v>0.333523</v>
       </c>
       <c r="D72" t="n">
-        <v>0.346587</v>
+        <v>0.34508</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.353329</v>
+        <v>0.349902</v>
       </c>
       <c r="C73" t="n">
-        <v>0.339194</v>
+        <v>0.335385</v>
       </c>
       <c r="D73" t="n">
-        <v>0.348411</v>
+        <v>0.344042</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.354793</v>
+        <v>0.351445</v>
       </c>
       <c r="C74" t="n">
-        <v>0.339522</v>
+        <v>0.334908</v>
       </c>
       <c r="D74" t="n">
-        <v>0.348753</v>
+        <v>0.349169</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.357026</v>
+        <v>0.356309</v>
       </c>
       <c r="C75" t="n">
-        <v>0.341131</v>
+        <v>0.340847</v>
       </c>
       <c r="D75" t="n">
-        <v>0.350386</v>
+        <v>0.350617</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.359541</v>
+        <v>0.360175</v>
       </c>
       <c r="C76" t="n">
-        <v>0.34145</v>
+        <v>0.342853</v>
       </c>
       <c r="D76" t="n">
-        <v>0.351501</v>
+        <v>0.352117</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.363443</v>
+        <v>0.359991</v>
       </c>
       <c r="C77" t="n">
-        <v>0.34319</v>
+        <v>0.338926</v>
       </c>
       <c r="D77" t="n">
-        <v>0.354335</v>
+        <v>0.355112</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.368462</v>
+        <v>0.364743</v>
       </c>
       <c r="C78" t="n">
-        <v>0.345957</v>
+        <v>0.341556</v>
       </c>
       <c r="D78" t="n">
-        <v>0.358441</v>
+        <v>0.359249</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.374633</v>
+        <v>0.373428</v>
       </c>
       <c r="C79" t="n">
-        <v>0.349555</v>
+        <v>0.349702</v>
       </c>
       <c r="D79" t="n">
-        <v>0.365902</v>
+        <v>0.365082</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.382222</v>
+        <v>0.380034</v>
       </c>
       <c r="C80" t="n">
-        <v>0.354915</v>
+        <v>0.354843</v>
       </c>
       <c r="D80" t="n">
-        <v>0.362951</v>
+        <v>0.364858</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.372371</v>
+        <v>0.376523</v>
       </c>
       <c r="C81" t="n">
-        <v>0.346797</v>
+        <v>0.348014</v>
       </c>
       <c r="D81" t="n">
-        <v>0.364185</v>
+        <v>0.364326</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.374815</v>
+        <v>0.372558</v>
       </c>
       <c r="C82" t="n">
-        <v>0.34814</v>
+        <v>0.362833</v>
       </c>
       <c r="D82" t="n">
-        <v>0.363597</v>
+        <v>0.364756</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.370978</v>
+        <v>0.374489</v>
       </c>
       <c r="C83" t="n">
-        <v>0.349192</v>
+        <v>0.363259</v>
       </c>
       <c r="D83" t="n">
-        <v>0.365474</v>
+        <v>0.368546</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.373007</v>
+        <v>0.375585</v>
       </c>
       <c r="C84" t="n">
-        <v>0.350247</v>
+        <v>0.350863</v>
       </c>
       <c r="D84" t="n">
-        <v>0.366677</v>
+        <v>0.365885</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.374457</v>
+        <v>0.374242</v>
       </c>
       <c r="C85" t="n">
-        <v>0.349955</v>
+        <v>0.353347</v>
       </c>
       <c r="D85" t="n">
-        <v>0.365507</v>
+        <v>0.368112</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.373924</v>
+        <v>0.376381</v>
       </c>
       <c r="C86" t="n">
-        <v>0.348098</v>
+        <v>0.363246</v>
       </c>
       <c r="D86" t="n">
-        <v>0.365991</v>
+        <v>0.365828</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.375778</v>
+        <v>0.381027</v>
       </c>
       <c r="C87" t="n">
-        <v>0.361117</v>
+        <v>0.361778</v>
       </c>
       <c r="D87" t="n">
-        <v>0.357663</v>
+        <v>0.367004</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.38186</v>
+        <v>0.375857</v>
       </c>
       <c r="C88" t="n">
-        <v>0.361577</v>
+        <v>0.364667</v>
       </c>
       <c r="D88" t="n">
-        <v>0.366665</v>
+        <v>0.367866</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.380407</v>
+        <v>0.386788</v>
       </c>
       <c r="C89" t="n">
-        <v>0.370206</v>
+        <v>0.36413</v>
       </c>
       <c r="D89" t="n">
-        <v>0.371573</v>
+        <v>0.368616</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.386173</v>
+        <v>0.383757</v>
       </c>
       <c r="C90" t="n">
-        <v>0.370406</v>
+        <v>0.365184</v>
       </c>
       <c r="D90" t="n">
-        <v>0.37222</v>
+        <v>0.369917</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.388299</v>
+        <v>0.388513</v>
       </c>
       <c r="C91" t="n">
-        <v>0.37168</v>
+        <v>0.365652</v>
       </c>
       <c r="D91" t="n">
-        <v>0.375112</v>
+        <v>0.371798</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.395471</v>
+        <v>0.389922</v>
       </c>
       <c r="C92" t="n">
-        <v>0.373726</v>
+        <v>0.355548</v>
       </c>
       <c r="D92" t="n">
-        <v>0.372367</v>
+        <v>0.375644</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.400575</v>
+        <v>0.39603</v>
       </c>
       <c r="C93" t="n">
-        <v>0.379076</v>
+        <v>0.371719</v>
       </c>
       <c r="D93" t="n">
-        <v>0.386286</v>
+        <v>0.384192</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.411372</v>
+        <v>0.403444</v>
       </c>
       <c r="C94" t="n">
-        <v>0.382887</v>
+        <v>0.376196</v>
       </c>
       <c r="D94" t="n">
-        <v>0.523823</v>
+        <v>0.528683</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.585518</v>
+        <v>0.593402</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5121289999999999</v>
+        <v>0.565384</v>
       </c>
       <c r="D95" t="n">
-        <v>0.53024</v>
+        <v>0.55135</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.581475</v>
+        <v>0.58704</v>
       </c>
       <c r="C96" t="n">
-        <v>0.556414</v>
+        <v>0.5630309999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.526416</v>
+        <v>0.483519</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.583113</v>
+        <v>0.591168</v>
       </c>
       <c r="C97" t="n">
-        <v>0.556189</v>
+        <v>0.553247</v>
       </c>
       <c r="D97" t="n">
-        <v>0.49058</v>
+        <v>0.533561</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.587743</v>
+        <v>0.590611</v>
       </c>
       <c r="C98" t="n">
-        <v>0.506933</v>
+        <v>0.557029</v>
       </c>
       <c r="D98" t="n">
-        <v>0.484522</v>
+        <v>0.5367729999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.583944</v>
+        <v>0.579187</v>
       </c>
       <c r="C99" t="n">
-        <v>0.55614</v>
+        <v>0.521217</v>
       </c>
       <c r="D99" t="n">
-        <v>0.492301</v>
+        <v>0.489772</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.590448</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.515895</v>
+        <v>0.560873</v>
       </c>
       <c r="D100" t="n">
-        <v>0.490461</v>
+        <v>0.529597</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.589861</v>
+        <v>0.5757910000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.512276</v>
+        <v>0.552875</v>
       </c>
       <c r="D101" t="n">
-        <v>0.485923</v>
+        <v>0.478844</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.584077</v>
+        <v>0.594846</v>
       </c>
       <c r="C102" t="n">
-        <v>0.556661</v>
+        <v>0.510459</v>
       </c>
       <c r="D102" t="n">
-        <v>0.533461</v>
+        <v>0.488816</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.591723</v>
+        <v>0.581337</v>
       </c>
       <c r="C103" t="n">
-        <v>0.554128</v>
+        <v>0.549963</v>
       </c>
       <c r="D103" t="n">
-        <v>0.530955</v>
+        <v>0.5258119999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.596517</v>
+        <v>0.588745</v>
       </c>
       <c r="C104" t="n">
-        <v>0.559492</v>
+        <v>0.552751</v>
       </c>
       <c r="D104" t="n">
-        <v>0.542259</v>
+        <v>0.531435</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.591198</v>
+        <v>0.594368</v>
       </c>
       <c r="C105" t="n">
-        <v>0.55222</v>
+        <v>0.561344</v>
       </c>
       <c r="D105" t="n">
-        <v>0.529345</v>
+        <v>0.536402</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5975200000000001</v>
+        <v>0.597456</v>
       </c>
       <c r="C106" t="n">
-        <v>0.556714</v>
+        <v>0.55854</v>
       </c>
       <c r="D106" t="n">
-        <v>0.509451</v>
+        <v>0.537919</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5977749999999999</v>
+        <v>0.598587</v>
       </c>
       <c r="C107" t="n">
-        <v>0.524492</v>
+        <v>0.521249</v>
       </c>
       <c r="D107" t="n">
-        <v>0.494725</v>
+        <v>0.5363289999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6096200000000001</v>
+        <v>0.605427</v>
       </c>
       <c r="C108" t="n">
-        <v>0.563064</v>
+        <v>0.563077</v>
       </c>
       <c r="D108" t="n">
-        <v>0.995214</v>
+        <v>0.996482</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.612127</v>
+        <v>0.620848</v>
       </c>
       <c r="C109" t="n">
-        <v>0.574254</v>
+        <v>0.573111</v>
       </c>
       <c r="D109" t="n">
-        <v>0.994654</v>
+        <v>0.992617</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05125</v>
+        <v>1.05364</v>
       </c>
       <c r="C110" t="n">
-        <v>0.985654</v>
+        <v>1.01562</v>
       </c>
       <c r="D110" t="n">
-        <v>0.965699</v>
+        <v>0.99371</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05203</v>
+        <v>1.05279</v>
       </c>
       <c r="C111" t="n">
-        <v>0.983472</v>
+        <v>1.01426</v>
       </c>
       <c r="D111" t="n">
-        <v>0.993148</v>
+        <v>0.996542</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05346</v>
+        <v>1.05397</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01384</v>
+        <v>1.0154</v>
       </c>
       <c r="D112" t="n">
-        <v>0.996408</v>
+        <v>0.995461</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.053</v>
+        <v>1.0533</v>
       </c>
       <c r="C113" t="n">
-        <v>0.983267</v>
+        <v>0.986274</v>
       </c>
       <c r="D113" t="n">
-        <v>0.96304</v>
+        <v>0.992275</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05721</v>
+        <v>1.05471</v>
       </c>
       <c r="C114" t="n">
-        <v>1.01202</v>
+        <v>1.01384</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9572850000000001</v>
+        <v>0.993358</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05235</v>
+        <v>1.05333</v>
       </c>
       <c r="C115" t="n">
-        <v>1.01526</v>
+        <v>1.01424</v>
       </c>
       <c r="D115" t="n">
-        <v>0.99647</v>
+        <v>0.98234</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05502</v>
+        <v>1.05422</v>
       </c>
       <c r="C116" t="n">
-        <v>1.01592</v>
+        <v>0.987528</v>
       </c>
       <c r="D116" t="n">
-        <v>0.994961</v>
+        <v>0.995273</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05898</v>
+        <v>1.05617</v>
       </c>
       <c r="C117" t="n">
-        <v>1.01099</v>
+        <v>1.01651</v>
       </c>
       <c r="D117" t="n">
-        <v>0.990521</v>
+        <v>0.995053</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.0586</v>
+        <v>1.05744</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01644</v>
+        <v>1.01634</v>
       </c>
       <c r="D118" t="n">
-        <v>0.99354</v>
+        <v>0.9912300000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05704</v>
+        <v>1.05731</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01539</v>
+        <v>1.01435</v>
       </c>
       <c r="D119" t="n">
-        <v>0.99357</v>
+        <v>0.9932839999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05788</v>
+        <v>1.06091</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01437</v>
+        <v>1.0168</v>
       </c>
       <c r="D120" t="n">
-        <v>0.994428</v>
+        <v>0.967602</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06165</v>
+        <v>1.0618</v>
       </c>
       <c r="C121" t="n">
-        <v>1.00015</v>
+        <v>1.01832</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9955619999999999</v>
+        <v>0.995981</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.0644</v>
+        <v>1.06505</v>
       </c>
       <c r="C122" t="n">
-        <v>1.02264</v>
+        <v>0.995605</v>
       </c>
       <c r="D122" t="n">
-        <v>0.996237</v>
+        <v>1.0004</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07423</v>
+        <v>1.07161</v>
       </c>
       <c r="C123" t="n">
-        <v>0.998312</v>
+        <v>1.02736</v>
       </c>
       <c r="D123" t="n">
-        <v>1.29107</v>
+        <v>1.31344</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.33191</v>
+        <v>1.32572</v>
       </c>
       <c r="C124" t="n">
-        <v>1.30364</v>
+        <v>1.31753</v>
       </c>
       <c r="D124" t="n">
-        <v>1.30951</v>
+        <v>1.30975</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.32544</v>
+        <v>1.33361</v>
       </c>
       <c r="C125" t="n">
-        <v>1.29467</v>
+        <v>1.29828</v>
       </c>
       <c r="D125" t="n">
-        <v>1.28674</v>
+        <v>1.30867</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32456</v>
+        <v>1.32568</v>
       </c>
       <c r="C126" t="n">
-        <v>1.30369</v>
+        <v>1.3104</v>
       </c>
       <c r="D126" t="n">
-        <v>1.30261</v>
+        <v>1.30912</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.30932</v>
+        <v>1.32928</v>
       </c>
       <c r="C127" t="n">
-        <v>1.29698</v>
+        <v>1.30955</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31011</v>
+        <v>1.29153</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32106</v>
+        <v>1.32352</v>
       </c>
       <c r="C128" t="n">
-        <v>1.31249</v>
+        <v>1.3132</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30993</v>
+        <v>1.31178</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.34128</v>
+        <v>1.32725</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3121</v>
+        <v>1.3042</v>
       </c>
       <c r="D129" t="n">
-        <v>1.29995</v>
+        <v>1.29475</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.32943</v>
+        <v>1.32508</v>
       </c>
       <c r="C130" t="n">
-        <v>1.3016</v>
+        <v>1.30867</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30261</v>
+        <v>1.30195</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.33359</v>
+        <v>1.32669</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31621</v>
+        <v>1.31638</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30913</v>
+        <v>1.29377</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.33203</v>
+        <v>1.32236</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30617</v>
+        <v>1.31434</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29279</v>
+        <v>1.29529</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.33477</v>
+        <v>1.33169</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31234</v>
+        <v>1.31353</v>
       </c>
       <c r="D133" t="n">
-        <v>1.31533</v>
+        <v>1.31149</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.3431</v>
+        <v>1.32048</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31815</v>
+        <v>1.32519</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31408</v>
+        <v>1.32099</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.34165</v>
+        <v>1.34091</v>
       </c>
       <c r="C135" t="n">
-        <v>1.31974</v>
+        <v>1.32754</v>
       </c>
       <c r="D135" t="n">
-        <v>1.30165</v>
+        <v>1.32169</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.35364</v>
+        <v>1.33704</v>
       </c>
       <c r="C136" t="n">
-        <v>1.31127</v>
+        <v>1.32939</v>
       </c>
       <c r="D136" t="n">
-        <v>1.3263</v>
+        <v>1.32964</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.36779</v>
+        <v>1.34777</v>
       </c>
       <c r="C137" t="n">
-        <v>1.33587</v>
+        <v>1.33991</v>
       </c>
       <c r="D137" t="n">
-        <v>1.43172</v>
+        <v>1.43482</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.45235</v>
+        <v>1.44684</v>
       </c>
       <c r="C138" t="n">
-        <v>1.4309</v>
+        <v>1.43277</v>
       </c>
       <c r="D138" t="n">
-        <v>1.4313</v>
+        <v>1.43741</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.44888</v>
+        <v>1.44778</v>
       </c>
       <c r="C139" t="n">
-        <v>1.43235</v>
+        <v>1.4255</v>
       </c>
       <c r="D139" t="n">
-        <v>1.43203</v>
+        <v>1.43457</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.45008</v>
+        <v>1.44709</v>
       </c>
       <c r="C140" t="n">
-        <v>1.43201</v>
+        <v>1.43389</v>
       </c>
       <c r="D140" t="n">
-        <v>1.43152</v>
+        <v>1.43386</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.44403</v>
+        <v>1.44977</v>
       </c>
       <c r="C141" t="n">
-        <v>1.43674</v>
+        <v>1.43866</v>
       </c>
       <c r="D141" t="n">
-        <v>1.4323</v>
+        <v>1.43536</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.44693</v>
+        <v>1.4492</v>
       </c>
       <c r="C142" t="n">
-        <v>1.42962</v>
+        <v>1.43964</v>
       </c>
       <c r="D142" t="n">
-        <v>1.43558</v>
+        <v>1.42882</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.44881</v>
+        <v>1.44966</v>
       </c>
       <c r="C143" t="n">
-        <v>1.42963</v>
+        <v>1.43102</v>
       </c>
       <c r="D143" t="n">
-        <v>1.43316</v>
+        <v>1.44068</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.255866</v>
+        <v>0.255651</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236617</v>
+        <v>0.236522</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249124</v>
+        <v>0.248855</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.25611</v>
+        <v>0.256018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236625</v>
+        <v>0.236573</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249541</v>
+        <v>0.249264</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.257975</v>
+        <v>0.257878</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237526</v>
+        <v>0.237391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250644</v>
+        <v>0.250554</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260174</v>
+        <v>0.26015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238429</v>
+        <v>0.238311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.251907</v>
+        <v>0.251866</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262363</v>
+        <v>0.262175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238898</v>
+        <v>0.238672</v>
       </c>
       <c r="D6" t="n">
-        <v>0.252513</v>
+        <v>0.252503</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.265886</v>
+        <v>0.265996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.239811</v>
+        <v>0.239723</v>
       </c>
       <c r="D7" t="n">
-        <v>0.254943</v>
+        <v>0.254849</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.27192</v>
+        <v>0.271526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.242111</v>
+        <v>0.242066</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25952</v>
+        <v>0.25945</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.280806</v>
+        <v>0.280718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.247073</v>
+        <v>0.246924</v>
       </c>
       <c r="D9" t="n">
-        <v>0.252831</v>
+        <v>0.252744</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25512</v>
+        <v>0.256302</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242642</v>
+        <v>0.240684</v>
       </c>
       <c r="D10" t="n">
-        <v>0.253737</v>
+        <v>0.253595</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255416</v>
+        <v>0.255345</v>
       </c>
       <c r="C11" t="n">
-        <v>0.240053</v>
+        <v>0.239173</v>
       </c>
       <c r="D11" t="n">
-        <v>0.253119</v>
+        <v>0.252356</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.256213</v>
+        <v>0.256182</v>
       </c>
       <c r="C12" t="n">
-        <v>0.23956</v>
+        <v>0.23947</v>
       </c>
       <c r="D12" t="n">
-        <v>0.252858</v>
+        <v>0.252753</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.256666</v>
+        <v>0.257033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.239536</v>
+        <v>0.239647</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252932</v>
+        <v>0.25326</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.261293</v>
+        <v>0.259019</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243286</v>
+        <v>0.24174</v>
       </c>
       <c r="D14" t="n">
-        <v>0.254544</v>
+        <v>0.253585</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263441</v>
+        <v>0.259245</v>
       </c>
       <c r="C15" t="n">
-        <v>0.245516</v>
+        <v>0.241003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.257292</v>
+        <v>0.254152</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262032</v>
+        <v>0.260606</v>
       </c>
       <c r="C16" t="n">
-        <v>0.244075</v>
+        <v>0.242097</v>
       </c>
       <c r="D16" t="n">
-        <v>0.256226</v>
+        <v>0.255178</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.26244</v>
+        <v>0.262062</v>
       </c>
       <c r="C17" t="n">
-        <v>0.243784</v>
+        <v>0.242935</v>
       </c>
       <c r="D17" t="n">
-        <v>0.255599</v>
+        <v>0.256008</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.263142</v>
+        <v>0.263607</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242588</v>
+        <v>0.242624</v>
       </c>
       <c r="D18" t="n">
-        <v>0.255912</v>
+        <v>0.255873</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.267338</v>
+        <v>0.268186</v>
       </c>
       <c r="C19" t="n">
-        <v>0.244159</v>
+        <v>0.243774</v>
       </c>
       <c r="D19" t="n">
-        <v>0.257872</v>
+        <v>0.257913</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.271696</v>
+        <v>0.269299</v>
       </c>
       <c r="C20" t="n">
-        <v>0.244667</v>
+        <v>0.244534</v>
       </c>
       <c r="D20" t="n">
-        <v>0.259033</v>
+        <v>0.259252</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.274012</v>
+        <v>0.275135</v>
       </c>
       <c r="C21" t="n">
-        <v>0.247166</v>
+        <v>0.246105</v>
       </c>
       <c r="D21" t="n">
-        <v>0.261702</v>
+        <v>0.261958</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.281584</v>
+        <v>0.280919</v>
       </c>
       <c r="C22" t="n">
-        <v>0.251238</v>
+        <v>0.250711</v>
       </c>
       <c r="D22" t="n">
-        <v>0.267339</v>
+        <v>0.26814</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.290137</v>
+        <v>0.290672</v>
       </c>
       <c r="C23" t="n">
-        <v>0.254506</v>
+        <v>0.255266</v>
       </c>
       <c r="D23" t="n">
-        <v>0.264697</v>
+        <v>0.266328</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.273463</v>
+        <v>0.274301</v>
       </c>
       <c r="C24" t="n">
-        <v>0.258479</v>
+        <v>0.260156</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267902</v>
+        <v>0.268272</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.274743</v>
+        <v>0.274219</v>
       </c>
       <c r="C25" t="n">
-        <v>0.26211</v>
+        <v>0.258433</v>
       </c>
       <c r="D25" t="n">
-        <v>0.267093</v>
+        <v>0.267315</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.275108</v>
+        <v>0.275068</v>
       </c>
       <c r="C26" t="n">
-        <v>0.26031</v>
+        <v>0.258623</v>
       </c>
       <c r="D26" t="n">
-        <v>0.268203</v>
+        <v>0.268117</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276618</v>
+        <v>0.274966</v>
       </c>
       <c r="C27" t="n">
-        <v>0.261202</v>
+        <v>0.258665</v>
       </c>
       <c r="D27" t="n">
-        <v>0.268592</v>
+        <v>0.267832</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278575</v>
+        <v>0.274916</v>
       </c>
       <c r="C28" t="n">
-        <v>0.264413</v>
+        <v>0.258742</v>
       </c>
       <c r="D28" t="n">
-        <v>0.271418</v>
+        <v>0.269921</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.27894</v>
+        <v>0.275341</v>
       </c>
       <c r="C29" t="n">
-        <v>0.262348</v>
+        <v>0.258742</v>
       </c>
       <c r="D29" t="n">
-        <v>0.270767</v>
+        <v>0.270362</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.279591</v>
+        <v>0.276208</v>
       </c>
       <c r="C30" t="n">
-        <v>0.262154</v>
+        <v>0.259412</v>
       </c>
       <c r="D30" t="n">
-        <v>0.269186</v>
+        <v>0.268687</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.280171</v>
+        <v>0.278374</v>
       </c>
       <c r="C31" t="n">
-        <v>0.261103</v>
+        <v>0.261303</v>
       </c>
       <c r="D31" t="n">
-        <v>0.270689</v>
+        <v>0.270248</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.283175</v>
+        <v>0.280847</v>
       </c>
       <c r="C32" t="n">
-        <v>0.263628</v>
+        <v>0.260896</v>
       </c>
       <c r="D32" t="n">
-        <v>0.270187</v>
+        <v>0.271981</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.285478</v>
+        <v>0.284606</v>
       </c>
       <c r="C33" t="n">
-        <v>0.265444</v>
+        <v>0.262813</v>
       </c>
       <c r="D33" t="n">
-        <v>0.273597</v>
+        <v>0.271209</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.28864</v>
+        <v>0.287284</v>
       </c>
       <c r="C34" t="n">
-        <v>0.266198</v>
+        <v>0.264539</v>
       </c>
       <c r="D34" t="n">
-        <v>0.276262</v>
+        <v>0.274966</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.294171</v>
+        <v>0.292768</v>
       </c>
       <c r="C35" t="n">
-        <v>0.269078</v>
+        <v>0.265494</v>
       </c>
       <c r="D35" t="n">
-        <v>0.280148</v>
+        <v>0.277365</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.300741</v>
+        <v>0.297168</v>
       </c>
       <c r="C36" t="n">
-        <v>0.271105</v>
+        <v>0.269067</v>
       </c>
       <c r="D36" t="n">
-        <v>0.283928</v>
+        <v>0.284053</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.307814</v>
+        <v>0.306126</v>
       </c>
       <c r="C37" t="n">
-        <v>0.289435</v>
+        <v>0.273597</v>
       </c>
       <c r="D37" t="n">
-        <v>0.299907</v>
+        <v>0.298753</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.302939</v>
+        <v>0.301799</v>
       </c>
       <c r="C38" t="n">
-        <v>0.294286</v>
+        <v>0.291165</v>
       </c>
       <c r="D38" t="n">
-        <v>0.300567</v>
+        <v>0.298144</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.30468</v>
+        <v>0.303773</v>
       </c>
       <c r="C39" t="n">
-        <v>0.292747</v>
+        <v>0.292525</v>
       </c>
       <c r="D39" t="n">
-        <v>0.300233</v>
+        <v>0.298218</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.303868</v>
+        <v>0.305178</v>
       </c>
       <c r="C40" t="n">
-        <v>0.290819</v>
+        <v>0.292856</v>
       </c>
       <c r="D40" t="n">
-        <v>0.297593</v>
+        <v>0.298409</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.303679</v>
+        <v>0.304819</v>
       </c>
       <c r="C41" t="n">
-        <v>0.291686</v>
+        <v>0.292653</v>
       </c>
       <c r="D41" t="n">
-        <v>0.297977</v>
+        <v>0.298299</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.305499</v>
+        <v>0.306416</v>
       </c>
       <c r="C42" t="n">
-        <v>0.290967</v>
+        <v>0.29331</v>
       </c>
       <c r="D42" t="n">
-        <v>0.299009</v>
+        <v>0.299167</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.307204</v>
+        <v>0.306521</v>
       </c>
       <c r="C43" t="n">
-        <v>0.291728</v>
+        <v>0.29224</v>
       </c>
       <c r="D43" t="n">
-        <v>0.29867</v>
+        <v>0.3002</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.307252</v>
+        <v>0.309256</v>
       </c>
       <c r="C44" t="n">
-        <v>0.292987</v>
+        <v>0.292712</v>
       </c>
       <c r="D44" t="n">
-        <v>0.299357</v>
+        <v>0.299821</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.308655</v>
+        <v>0.309497</v>
       </c>
       <c r="C45" t="n">
-        <v>0.292397</v>
+        <v>0.293583</v>
       </c>
       <c r="D45" t="n">
-        <v>0.299478</v>
+        <v>0.299292</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.311076</v>
+        <v>0.313447</v>
       </c>
       <c r="C46" t="n">
-        <v>0.292801</v>
+        <v>0.294359</v>
       </c>
       <c r="D46" t="n">
-        <v>0.299769</v>
+        <v>0.30074</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.313163</v>
+        <v>0.313631</v>
       </c>
       <c r="C47" t="n">
-        <v>0.294334</v>
+        <v>0.295032</v>
       </c>
       <c r="D47" t="n">
-        <v>0.301911</v>
+        <v>0.30176</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.314922</v>
+        <v>0.315591</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294902</v>
+        <v>0.296487</v>
       </c>
       <c r="D48" t="n">
-        <v>0.304371</v>
+        <v>0.304014</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.319806</v>
+        <v>0.322507</v>
       </c>
       <c r="C49" t="n">
-        <v>0.297175</v>
+        <v>0.297739</v>
       </c>
       <c r="D49" t="n">
-        <v>0.307749</v>
+        <v>0.307368</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.329042</v>
+        <v>0.326085</v>
       </c>
       <c r="C50" t="n">
-        <v>0.300959</v>
+        <v>0.301245</v>
       </c>
       <c r="D50" t="n">
-        <v>0.313082</v>
+        <v>0.313774</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.330513</v>
+        <v>0.333974</v>
       </c>
       <c r="C51" t="n">
-        <v>0.305959</v>
+        <v>0.306974</v>
       </c>
       <c r="D51" t="n">
-        <v>0.327159</v>
+        <v>0.321332</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.341029</v>
+        <v>0.340771</v>
       </c>
       <c r="C52" t="n">
-        <v>0.314542</v>
+        <v>0.313567</v>
       </c>
       <c r="D52" t="n">
-        <v>0.319713</v>
+        <v>0.327345</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.330452</v>
+        <v>0.32582</v>
       </c>
       <c r="C53" t="n">
-        <v>0.319319</v>
+        <v>0.319679</v>
       </c>
       <c r="D53" t="n">
-        <v>0.32699</v>
+        <v>0.327375</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.330468</v>
+        <v>0.329928</v>
       </c>
       <c r="C54" t="n">
-        <v>0.319213</v>
+        <v>0.320439</v>
       </c>
       <c r="D54" t="n">
-        <v>0.326598</v>
+        <v>0.327313</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330773</v>
+        <v>0.331604</v>
       </c>
       <c r="C55" t="n">
-        <v>0.319076</v>
+        <v>0.319965</v>
       </c>
       <c r="D55" t="n">
-        <v>0.325849</v>
+        <v>0.328412</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.332029</v>
+        <v>0.327999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.319223</v>
+        <v>0.320758</v>
       </c>
       <c r="D56" t="n">
-        <v>0.328714</v>
+        <v>0.32837</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.333125</v>
+        <v>0.332326</v>
       </c>
       <c r="C57" t="n">
-        <v>0.319816</v>
+        <v>0.319855</v>
       </c>
       <c r="D57" t="n">
-        <v>0.328009</v>
+        <v>0.328263</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334376</v>
+        <v>0.333538</v>
       </c>
       <c r="C58" t="n">
-        <v>0.322283</v>
+        <v>0.320487</v>
       </c>
       <c r="D58" t="n">
-        <v>0.330938</v>
+        <v>0.329159</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.334967</v>
+        <v>0.333922</v>
       </c>
       <c r="C59" t="n">
-        <v>0.322558</v>
+        <v>0.320833</v>
       </c>
       <c r="D59" t="n">
-        <v>0.331402</v>
+        <v>0.329737</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.33753</v>
+        <v>0.336263</v>
       </c>
       <c r="C60" t="n">
-        <v>0.323288</v>
+        <v>0.321198</v>
       </c>
       <c r="D60" t="n">
-        <v>0.331301</v>
+        <v>0.330601</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.340897</v>
+        <v>0.338405</v>
       </c>
       <c r="C61" t="n">
-        <v>0.325042</v>
+        <v>0.32113</v>
       </c>
       <c r="D61" t="n">
-        <v>0.332893</v>
+        <v>0.331628</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.344403</v>
+        <v>0.341369</v>
       </c>
       <c r="C62" t="n">
-        <v>0.325781</v>
+        <v>0.322904</v>
       </c>
       <c r="D62" t="n">
-        <v>0.334562</v>
+        <v>0.332324</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.34692</v>
+        <v>0.344999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3268</v>
+        <v>0.324701</v>
       </c>
       <c r="D63" t="n">
-        <v>0.338195</v>
+        <v>0.336248</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.350779</v>
+        <v>0.350181</v>
       </c>
       <c r="C64" t="n">
-        <v>0.328308</v>
+        <v>0.327571</v>
       </c>
       <c r="D64" t="n">
-        <v>0.341912</v>
+        <v>0.340823</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.359195</v>
+        <v>0.357404</v>
       </c>
       <c r="C65" t="n">
-        <v>0.33244</v>
+        <v>0.330099</v>
       </c>
       <c r="D65" t="n">
-        <v>0.348554</v>
+        <v>0.347751</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.365662</v>
+        <v>0.365179</v>
       </c>
       <c r="C66" t="n">
-        <v>0.338654</v>
+        <v>0.336837</v>
       </c>
       <c r="D66" t="n">
-        <v>0.341184</v>
+        <v>0.343922</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.345631</v>
+        <v>0.347481</v>
       </c>
       <c r="C67" t="n">
-        <v>0.334836</v>
+        <v>0.337239</v>
       </c>
       <c r="D67" t="n">
-        <v>0.345827</v>
+        <v>0.345423</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346128</v>
+        <v>0.348211</v>
       </c>
       <c r="C68" t="n">
-        <v>0.332037</v>
+        <v>0.33748</v>
       </c>
       <c r="D68" t="n">
-        <v>0.345792</v>
+        <v>0.34555</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.345055</v>
+        <v>0.348416</v>
       </c>
       <c r="C69" t="n">
-        <v>0.333055</v>
+        <v>0.33785</v>
       </c>
       <c r="D69" t="n">
-        <v>0.345794</v>
+        <v>0.346335</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.346706</v>
+        <v>0.349528</v>
       </c>
       <c r="C70" t="n">
-        <v>0.333219</v>
+        <v>0.338003</v>
       </c>
       <c r="D70" t="n">
-        <v>0.345853</v>
+        <v>0.346521</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.347479</v>
+        <v>0.350361</v>
       </c>
       <c r="C71" t="n">
-        <v>0.334638</v>
+        <v>0.338796</v>
       </c>
       <c r="D71" t="n">
-        <v>0.346894</v>
+        <v>0.347529</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.348688</v>
+        <v>0.351599</v>
       </c>
       <c r="C72" t="n">
-        <v>0.333523</v>
+        <v>0.338755</v>
       </c>
       <c r="D72" t="n">
-        <v>0.34508</v>
+        <v>0.347048</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.349902</v>
+        <v>0.353063</v>
       </c>
       <c r="C73" t="n">
-        <v>0.335385</v>
+        <v>0.339434</v>
       </c>
       <c r="D73" t="n">
-        <v>0.344042</v>
+        <v>0.348154</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.351445</v>
+        <v>0.35478</v>
       </c>
       <c r="C74" t="n">
-        <v>0.334908</v>
+        <v>0.340182</v>
       </c>
       <c r="D74" t="n">
-        <v>0.349169</v>
+        <v>0.349141</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.356309</v>
+        <v>0.356878</v>
       </c>
       <c r="C75" t="n">
-        <v>0.340847</v>
+        <v>0.340898</v>
       </c>
       <c r="D75" t="n">
-        <v>0.350617</v>
+        <v>0.350369</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.360175</v>
+        <v>0.359492</v>
       </c>
       <c r="C76" t="n">
-        <v>0.342853</v>
+        <v>0.342153</v>
       </c>
       <c r="D76" t="n">
-        <v>0.352117</v>
+        <v>0.352459</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.359991</v>
+        <v>0.363201</v>
       </c>
       <c r="C77" t="n">
-        <v>0.338926</v>
+        <v>0.343985</v>
       </c>
       <c r="D77" t="n">
-        <v>0.355112</v>
+        <v>0.355261</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.364743</v>
+        <v>0.368454</v>
       </c>
       <c r="C78" t="n">
-        <v>0.341556</v>
+        <v>0.346173</v>
       </c>
       <c r="D78" t="n">
-        <v>0.359249</v>
+        <v>0.359061</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.373428</v>
+        <v>0.375493</v>
       </c>
       <c r="C79" t="n">
-        <v>0.349702</v>
+        <v>0.350289</v>
       </c>
       <c r="D79" t="n">
-        <v>0.365082</v>
+        <v>0.365768</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.380034</v>
+        <v>0.382948</v>
       </c>
       <c r="C80" t="n">
-        <v>0.354843</v>
+        <v>0.35572</v>
       </c>
       <c r="D80" t="n">
-        <v>0.364858</v>
+        <v>0.366182</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.376523</v>
+        <v>0.375508</v>
       </c>
       <c r="C81" t="n">
-        <v>0.348014</v>
+        <v>0.36448</v>
       </c>
       <c r="D81" t="n">
-        <v>0.364326</v>
+        <v>0.363993</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.372558</v>
+        <v>0.371667</v>
       </c>
       <c r="C82" t="n">
-        <v>0.362833</v>
+        <v>0.36549</v>
       </c>
       <c r="D82" t="n">
-        <v>0.364756</v>
+        <v>0.368976</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.374489</v>
+        <v>0.371651</v>
       </c>
       <c r="C83" t="n">
-        <v>0.363259</v>
+        <v>0.364172</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368546</v>
+        <v>0.365462</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.375585</v>
+        <v>0.372982</v>
       </c>
       <c r="C84" t="n">
-        <v>0.350863</v>
+        <v>0.363671</v>
       </c>
       <c r="D84" t="n">
-        <v>0.365885</v>
+        <v>0.367254</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.374242</v>
+        <v>0.37891</v>
       </c>
       <c r="C85" t="n">
-        <v>0.353347</v>
+        <v>0.362763</v>
       </c>
       <c r="D85" t="n">
-        <v>0.368112</v>
+        <v>0.367447</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.376381</v>
+        <v>0.378822</v>
       </c>
       <c r="C86" t="n">
-        <v>0.363246</v>
+        <v>0.360247</v>
       </c>
       <c r="D86" t="n">
-        <v>0.365828</v>
+        <v>0.369523</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.381027</v>
+        <v>0.376157</v>
       </c>
       <c r="C87" t="n">
-        <v>0.361778</v>
+        <v>0.362533</v>
       </c>
       <c r="D87" t="n">
-        <v>0.367004</v>
+        <v>0.366304</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.375857</v>
+        <v>0.381847</v>
       </c>
       <c r="C88" t="n">
-        <v>0.364667</v>
+        <v>0.364761</v>
       </c>
       <c r="D88" t="n">
-        <v>0.367866</v>
+        <v>0.369161</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.386788</v>
+        <v>0.382113</v>
       </c>
       <c r="C89" t="n">
-        <v>0.36413</v>
+        <v>0.362753</v>
       </c>
       <c r="D89" t="n">
-        <v>0.368616</v>
+        <v>0.36939</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.383757</v>
+        <v>0.382046</v>
       </c>
       <c r="C90" t="n">
-        <v>0.365184</v>
+        <v>0.365095</v>
       </c>
       <c r="D90" t="n">
-        <v>0.369917</v>
+        <v>0.370821</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.388513</v>
+        <v>0.386042</v>
       </c>
       <c r="C91" t="n">
-        <v>0.365652</v>
+        <v>0.366678</v>
       </c>
       <c r="D91" t="n">
-        <v>0.371798</v>
+        <v>0.372573</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.389922</v>
+        <v>0.390608</v>
       </c>
       <c r="C92" t="n">
-        <v>0.355548</v>
+        <v>0.367458</v>
       </c>
       <c r="D92" t="n">
-        <v>0.375644</v>
+        <v>0.378568</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.39603</v>
+        <v>0.396134</v>
       </c>
       <c r="C93" t="n">
-        <v>0.371719</v>
+        <v>0.371622</v>
       </c>
       <c r="D93" t="n">
-        <v>0.384192</v>
+        <v>0.382282</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.403444</v>
+        <v>0.405575</v>
       </c>
       <c r="C94" t="n">
-        <v>0.376196</v>
+        <v>0.377908</v>
       </c>
       <c r="D94" t="n">
-        <v>0.528683</v>
+        <v>0.5279199999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.593402</v>
+        <v>0.587242</v>
       </c>
       <c r="C95" t="n">
-        <v>0.565384</v>
+        <v>0.556651</v>
       </c>
       <c r="D95" t="n">
-        <v>0.55135</v>
+        <v>0.528832</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.58704</v>
+        <v>0.584543</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5630309999999999</v>
+        <v>0.558311</v>
       </c>
       <c r="D96" t="n">
-        <v>0.483519</v>
+        <v>0.522491</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.591168</v>
+        <v>0.586261</v>
       </c>
       <c r="C97" t="n">
-        <v>0.553247</v>
+        <v>0.568061</v>
       </c>
       <c r="D97" t="n">
-        <v>0.533561</v>
+        <v>0.532938</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.590611</v>
+        <v>0.589601</v>
       </c>
       <c r="C98" t="n">
-        <v>0.557029</v>
+        <v>0.55741</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5367729999999999</v>
+        <v>0.5288659999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.579187</v>
+        <v>0.593085</v>
       </c>
       <c r="C99" t="n">
-        <v>0.521217</v>
+        <v>0.561934</v>
       </c>
       <c r="D99" t="n">
-        <v>0.489772</v>
+        <v>0.5313</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5842000000000001</v>
+        <v>0.580301</v>
       </c>
       <c r="C100" t="n">
-        <v>0.560873</v>
+        <v>0.558386</v>
       </c>
       <c r="D100" t="n">
-        <v>0.529597</v>
+        <v>0.526096</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5757910000000001</v>
+        <v>0.586112</v>
       </c>
       <c r="C101" t="n">
-        <v>0.552875</v>
+        <v>0.5562009999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.478844</v>
+        <v>0.527264</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.594846</v>
+        <v>0.58841</v>
       </c>
       <c r="C102" t="n">
-        <v>0.510459</v>
+        <v>0.558453</v>
       </c>
       <c r="D102" t="n">
-        <v>0.488816</v>
+        <v>0.531288</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.581337</v>
+        <v>0.587851</v>
       </c>
       <c r="C103" t="n">
-        <v>0.549963</v>
+        <v>0.563683</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5258119999999999</v>
+        <v>0.531401</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.588745</v>
+        <v>0.591454</v>
       </c>
       <c r="C104" t="n">
-        <v>0.552751</v>
+        <v>0.556867</v>
       </c>
       <c r="D104" t="n">
-        <v>0.531435</v>
+        <v>0.529438</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.594368</v>
+        <v>0.59773</v>
       </c>
       <c r="C105" t="n">
-        <v>0.561344</v>
+        <v>0.555177</v>
       </c>
       <c r="D105" t="n">
-        <v>0.536402</v>
+        <v>0.5315299999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.597456</v>
+        <v>0.593893</v>
       </c>
       <c r="C106" t="n">
-        <v>0.55854</v>
+        <v>0.557635</v>
       </c>
       <c r="D106" t="n">
-        <v>0.537919</v>
+        <v>0.534286</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.598587</v>
+        <v>0.598704</v>
       </c>
       <c r="C107" t="n">
-        <v>0.521249</v>
+        <v>0.561793</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5363289999999999</v>
+        <v>0.538998</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.605427</v>
+        <v>0.606399</v>
       </c>
       <c r="C108" t="n">
-        <v>0.563077</v>
+        <v>0.567981</v>
       </c>
       <c r="D108" t="n">
-        <v>0.996482</v>
+        <v>0.999997</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.620848</v>
+        <v>0.621895</v>
       </c>
       <c r="C109" t="n">
-        <v>0.573111</v>
+        <v>0.581255</v>
       </c>
       <c r="D109" t="n">
-        <v>0.992617</v>
+        <v>1.00256</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05364</v>
+        <v>1.05606</v>
       </c>
       <c r="C110" t="n">
-        <v>1.01562</v>
+        <v>1.01999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.99371</v>
+        <v>0.998591</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05279</v>
+        <v>1.0562</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01426</v>
+        <v>1.01758</v>
       </c>
       <c r="D111" t="n">
-        <v>0.996542</v>
+        <v>0.997104</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05397</v>
+        <v>1.05611</v>
       </c>
       <c r="C112" t="n">
-        <v>1.0154</v>
+        <v>1.01614</v>
       </c>
       <c r="D112" t="n">
-        <v>0.995461</v>
+        <v>0.997019</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.0533</v>
+        <v>1.05548</v>
       </c>
       <c r="C113" t="n">
-        <v>0.986274</v>
+        <v>1.01526</v>
       </c>
       <c r="D113" t="n">
-        <v>0.992275</v>
+        <v>0.997537</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05471</v>
+        <v>1.0556</v>
       </c>
       <c r="C114" t="n">
-        <v>1.01384</v>
+        <v>1.01688</v>
       </c>
       <c r="D114" t="n">
-        <v>0.993358</v>
+        <v>0.994613</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05333</v>
+        <v>1.05651</v>
       </c>
       <c r="C115" t="n">
-        <v>1.01424</v>
+        <v>1.01737</v>
       </c>
       <c r="D115" t="n">
-        <v>0.98234</v>
+        <v>0.9951759999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05422</v>
+        <v>1.05814</v>
       </c>
       <c r="C116" t="n">
-        <v>0.987528</v>
+        <v>1.016</v>
       </c>
       <c r="D116" t="n">
-        <v>0.995273</v>
+        <v>0.995075</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05617</v>
+        <v>1.05791</v>
       </c>
       <c r="C117" t="n">
-        <v>1.01651</v>
+        <v>1.01561</v>
       </c>
       <c r="D117" t="n">
-        <v>0.995053</v>
+        <v>0.994125</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05744</v>
+        <v>1.05652</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01634</v>
+        <v>1.01831</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9912300000000001</v>
+        <v>0.99601</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05731</v>
+        <v>1.05911</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01435</v>
+        <v>1.01731</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9932839999999999</v>
+        <v>0.993757</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06091</v>
+        <v>1.06103</v>
       </c>
       <c r="C120" t="n">
-        <v>1.0168</v>
+        <v>1.01853</v>
       </c>
       <c r="D120" t="n">
-        <v>0.967602</v>
+        <v>0.995915</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.0618</v>
+        <v>1.06304</v>
       </c>
       <c r="C121" t="n">
-        <v>1.01832</v>
+        <v>1.02114</v>
       </c>
       <c r="D121" t="n">
-        <v>0.995981</v>
+        <v>1.00121</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06505</v>
+        <v>1.06858</v>
       </c>
       <c r="C122" t="n">
-        <v>0.995605</v>
+        <v>1.02455</v>
       </c>
       <c r="D122" t="n">
-        <v>1.0004</v>
+        <v>1.0038</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07161</v>
+        <v>1.07309</v>
       </c>
       <c r="C123" t="n">
-        <v>1.02736</v>
+        <v>1.02829</v>
       </c>
       <c r="D123" t="n">
-        <v>1.31344</v>
+        <v>1.31167</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.32572</v>
+        <v>1.33134</v>
       </c>
       <c r="C124" t="n">
-        <v>1.31753</v>
+        <v>1.31355</v>
       </c>
       <c r="D124" t="n">
-        <v>1.30975</v>
+        <v>1.31573</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33361</v>
+        <v>1.331</v>
       </c>
       <c r="C125" t="n">
-        <v>1.29828</v>
+        <v>1.31633</v>
       </c>
       <c r="D125" t="n">
-        <v>1.30867</v>
+        <v>1.30435</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32568</v>
+        <v>1.31188</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3104</v>
+        <v>1.30969</v>
       </c>
       <c r="D126" t="n">
-        <v>1.30912</v>
+        <v>1.31143</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32928</v>
+        <v>1.32143</v>
       </c>
       <c r="C127" t="n">
-        <v>1.30955</v>
+        <v>1.31682</v>
       </c>
       <c r="D127" t="n">
-        <v>1.29153</v>
+        <v>1.31261</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32352</v>
+        <v>1.31737</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3132</v>
+        <v>1.31212</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31178</v>
+        <v>1.31238</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.32725</v>
+        <v>1.32461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3042</v>
+        <v>1.31542</v>
       </c>
       <c r="D129" t="n">
-        <v>1.29475</v>
+        <v>1.30864</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.32508</v>
+        <v>1.31508</v>
       </c>
       <c r="C130" t="n">
-        <v>1.30867</v>
+        <v>1.31471</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30195</v>
+        <v>1.31047</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.32669</v>
+        <v>1.32405</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31638</v>
+        <v>1.32019</v>
       </c>
       <c r="D131" t="n">
-        <v>1.29377</v>
+        <v>1.31504</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.32236</v>
+        <v>1.32209</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31434</v>
+        <v>1.31833</v>
       </c>
       <c r="D132" t="n">
-        <v>1.29529</v>
+        <v>1.31705</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.33169</v>
+        <v>1.3254</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31353</v>
+        <v>1.31914</v>
       </c>
       <c r="D133" t="n">
-        <v>1.31149</v>
+        <v>1.31481</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.32048</v>
+        <v>1.31486</v>
       </c>
       <c r="C134" t="n">
-        <v>1.32519</v>
+        <v>1.31782</v>
       </c>
       <c r="D134" t="n">
-        <v>1.32099</v>
+        <v>1.31843</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.34091</v>
+        <v>1.31362</v>
       </c>
       <c r="C135" t="n">
-        <v>1.32754</v>
+        <v>1.32562</v>
       </c>
       <c r="D135" t="n">
-        <v>1.32169</v>
+        <v>1.32393</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.33704</v>
+        <v>1.34219</v>
       </c>
       <c r="C136" t="n">
-        <v>1.32939</v>
+        <v>1.32992</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32964</v>
+        <v>1.32545</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.34777</v>
+        <v>1.35202</v>
       </c>
       <c r="C137" t="n">
-        <v>1.33991</v>
+        <v>1.33558</v>
       </c>
       <c r="D137" t="n">
-        <v>1.43482</v>
+        <v>1.45224</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.44684</v>
+        <v>1.44349</v>
       </c>
       <c r="C138" t="n">
-        <v>1.43277</v>
+        <v>1.43215</v>
       </c>
       <c r="D138" t="n">
-        <v>1.43741</v>
+        <v>1.43106</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.44778</v>
+        <v>1.44473</v>
       </c>
       <c r="C139" t="n">
-        <v>1.4255</v>
+        <v>1.42817</v>
       </c>
       <c r="D139" t="n">
-        <v>1.43457</v>
+        <v>1.43193</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.44709</v>
+        <v>1.44589</v>
       </c>
       <c r="C140" t="n">
-        <v>1.43389</v>
+        <v>1.42737</v>
       </c>
       <c r="D140" t="n">
-        <v>1.43386</v>
+        <v>1.44065</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.44977</v>
+        <v>1.44914</v>
       </c>
       <c r="C141" t="n">
-        <v>1.43866</v>
+        <v>1.43781</v>
       </c>
       <c r="D141" t="n">
-        <v>1.43536</v>
+        <v>1.43505</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.4492</v>
+        <v>1.4473</v>
       </c>
       <c r="C142" t="n">
-        <v>1.43964</v>
+        <v>1.42749</v>
       </c>
       <c r="D142" t="n">
-        <v>1.42882</v>
+        <v>1.43256</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.44966</v>
+        <v>1.44652</v>
       </c>
       <c r="C143" t="n">
-        <v>1.43102</v>
+        <v>1.42753</v>
       </c>
       <c r="D143" t="n">
-        <v>1.44068</v>
+        <v>1.43172</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.255651</v>
+        <v>0.255909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236522</v>
+        <v>0.238848</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248855</v>
+        <v>0.248081</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256018</v>
+        <v>0.256505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236573</v>
+        <v>0.23903</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249264</v>
+        <v>0.248384</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.257878</v>
+        <v>0.258273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237391</v>
+        <v>0.239813</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250554</v>
+        <v>0.249618</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.26015</v>
+        <v>0.260313</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238311</v>
+        <v>0.240587</v>
       </c>
       <c r="D5" t="n">
-        <v>0.251866</v>
+        <v>0.250887</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262175</v>
+        <v>0.262446</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238672</v>
+        <v>0.241136</v>
       </c>
       <c r="D6" t="n">
-        <v>0.252503</v>
+        <v>0.251433</v>
       </c>
     </row>
     <row r="7">
@@ -3321,10 +3321,10 @@
         <v>0.265996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.239723</v>
+        <v>0.242173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.254849</v>
+        <v>0.25413</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.271526</v>
+        <v>0.272231</v>
       </c>
       <c r="C8" t="n">
-        <v>0.242066</v>
+        <v>0.244264</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25945</v>
+        <v>0.258222</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.280718</v>
+        <v>0.281215</v>
       </c>
       <c r="C9" t="n">
-        <v>0.246924</v>
+        <v>0.248663</v>
       </c>
       <c r="D9" t="n">
-        <v>0.252744</v>
+        <v>0.251058</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.256302</v>
+        <v>0.255604</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240684</v>
+        <v>0.242242</v>
       </c>
       <c r="D10" t="n">
-        <v>0.253595</v>
+        <v>0.250103</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255345</v>
+        <v>0.255464</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239173</v>
+        <v>0.241859</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252356</v>
+        <v>0.249882</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.256182</v>
+        <v>0.257316</v>
       </c>
       <c r="C12" t="n">
-        <v>0.23947</v>
+        <v>0.242402</v>
       </c>
       <c r="D12" t="n">
-        <v>0.252753</v>
+        <v>0.250277</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.257033</v>
+        <v>0.258254</v>
       </c>
       <c r="C13" t="n">
-        <v>0.239647</v>
+        <v>0.24326</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25326</v>
+        <v>0.250989</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.259019</v>
+        <v>0.258825</v>
       </c>
       <c r="C14" t="n">
-        <v>0.24174</v>
+        <v>0.243889</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253585</v>
+        <v>0.251448</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.259245</v>
+        <v>0.25948</v>
       </c>
       <c r="C15" t="n">
-        <v>0.241003</v>
+        <v>0.244278</v>
       </c>
       <c r="D15" t="n">
-        <v>0.254152</v>
+        <v>0.251726</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260606</v>
+        <v>0.260142</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242097</v>
+        <v>0.244395</v>
       </c>
       <c r="D16" t="n">
-        <v>0.255178</v>
+        <v>0.251774</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.262062</v>
+        <v>0.264515</v>
       </c>
       <c r="C17" t="n">
-        <v>0.242935</v>
+        <v>0.245534</v>
       </c>
       <c r="D17" t="n">
-        <v>0.256008</v>
+        <v>0.252575</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.263607</v>
+        <v>0.264159</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242624</v>
+        <v>0.246984</v>
       </c>
       <c r="D18" t="n">
-        <v>0.255873</v>
+        <v>0.254118</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.268186</v>
+        <v>0.266078</v>
       </c>
       <c r="C19" t="n">
-        <v>0.243774</v>
+        <v>0.246528</v>
       </c>
       <c r="D19" t="n">
-        <v>0.257913</v>
+        <v>0.254812</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269299</v>
+        <v>0.270081</v>
       </c>
       <c r="C20" t="n">
-        <v>0.244534</v>
+        <v>0.248378</v>
       </c>
       <c r="D20" t="n">
-        <v>0.259252</v>
+        <v>0.25691</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.275135</v>
+        <v>0.27649</v>
       </c>
       <c r="C21" t="n">
-        <v>0.246105</v>
+        <v>0.251202</v>
       </c>
       <c r="D21" t="n">
-        <v>0.261958</v>
+        <v>0.260287</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.280919</v>
+        <v>0.280955</v>
       </c>
       <c r="C22" t="n">
-        <v>0.250711</v>
+        <v>0.251718</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26814</v>
+        <v>0.264109</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.290672</v>
+        <v>0.290206</v>
       </c>
       <c r="C23" t="n">
-        <v>0.255266</v>
+        <v>0.256594</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266328</v>
+        <v>0.265913</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.274301</v>
+        <v>0.273406</v>
       </c>
       <c r="C24" t="n">
-        <v>0.260156</v>
+        <v>0.274813</v>
       </c>
       <c r="D24" t="n">
-        <v>0.268272</v>
+        <v>0.267536</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.274219</v>
+        <v>0.274123</v>
       </c>
       <c r="C25" t="n">
-        <v>0.258433</v>
+        <v>0.265246</v>
       </c>
       <c r="D25" t="n">
-        <v>0.267315</v>
+        <v>0.266717</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.275068</v>
+        <v>0.274607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.258623</v>
+        <v>0.264904</v>
       </c>
       <c r="D26" t="n">
-        <v>0.268117</v>
+        <v>0.267139</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.274966</v>
+        <v>0.276796</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258665</v>
+        <v>0.26605</v>
       </c>
       <c r="D27" t="n">
-        <v>0.267832</v>
+        <v>0.267663</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.274916</v>
+        <v>0.277363</v>
       </c>
       <c r="C28" t="n">
-        <v>0.258742</v>
+        <v>0.265038</v>
       </c>
       <c r="D28" t="n">
-        <v>0.269921</v>
+        <v>0.265892</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.275341</v>
+        <v>0.27712</v>
       </c>
       <c r="C29" t="n">
-        <v>0.258742</v>
+        <v>0.275082</v>
       </c>
       <c r="D29" t="n">
-        <v>0.270362</v>
+        <v>0.266724</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.276208</v>
+        <v>0.279992</v>
       </c>
       <c r="C30" t="n">
-        <v>0.259412</v>
+        <v>0.266359</v>
       </c>
       <c r="D30" t="n">
-        <v>0.268687</v>
+        <v>0.267428</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.278374</v>
+        <v>0.281217</v>
       </c>
       <c r="C31" t="n">
-        <v>0.261303</v>
+        <v>0.277746</v>
       </c>
       <c r="D31" t="n">
-        <v>0.270248</v>
+        <v>0.269831</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280847</v>
+        <v>0.283041</v>
       </c>
       <c r="C32" t="n">
-        <v>0.260896</v>
+        <v>0.268309</v>
       </c>
       <c r="D32" t="n">
-        <v>0.271981</v>
+        <v>0.271546</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.284606</v>
+        <v>0.284676</v>
       </c>
       <c r="C33" t="n">
-        <v>0.262813</v>
+        <v>0.2784</v>
       </c>
       <c r="D33" t="n">
-        <v>0.271209</v>
+        <v>0.27118</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.287284</v>
+        <v>0.287706</v>
       </c>
       <c r="C34" t="n">
-        <v>0.264539</v>
+        <v>0.278072</v>
       </c>
       <c r="D34" t="n">
-        <v>0.274966</v>
+        <v>0.273855</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292768</v>
+        <v>0.293856</v>
       </c>
       <c r="C35" t="n">
-        <v>0.265494</v>
+        <v>0.282135</v>
       </c>
       <c r="D35" t="n">
-        <v>0.277365</v>
+        <v>0.277286</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297168</v>
+        <v>0.298977</v>
       </c>
       <c r="C36" t="n">
-        <v>0.269067</v>
+        <v>0.273289</v>
       </c>
       <c r="D36" t="n">
-        <v>0.284053</v>
+        <v>0.285796</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.306126</v>
+        <v>0.307329</v>
       </c>
       <c r="C37" t="n">
-        <v>0.273597</v>
+        <v>0.290889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.298753</v>
+        <v>0.29625</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301799</v>
+        <v>0.303744</v>
       </c>
       <c r="C38" t="n">
-        <v>0.291165</v>
+        <v>0.294794</v>
       </c>
       <c r="D38" t="n">
-        <v>0.298144</v>
+        <v>0.295537</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.303773</v>
+        <v>0.303071</v>
       </c>
       <c r="C39" t="n">
-        <v>0.292525</v>
+        <v>0.294155</v>
       </c>
       <c r="D39" t="n">
-        <v>0.298218</v>
+        <v>0.295956</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.305178</v>
+        <v>0.305082</v>
       </c>
       <c r="C40" t="n">
-        <v>0.292856</v>
+        <v>0.294121</v>
       </c>
       <c r="D40" t="n">
-        <v>0.298409</v>
+        <v>0.293686</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304819</v>
+        <v>0.304623</v>
       </c>
       <c r="C41" t="n">
-        <v>0.292653</v>
+        <v>0.307612</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298299</v>
+        <v>0.296365</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.306416</v>
+        <v>0.304636</v>
       </c>
       <c r="C42" t="n">
-        <v>0.29331</v>
+        <v>0.295339</v>
       </c>
       <c r="D42" t="n">
-        <v>0.299167</v>
+        <v>0.296512</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.306521</v>
+        <v>0.309916</v>
       </c>
       <c r="C43" t="n">
-        <v>0.29224</v>
+        <v>0.296999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3002</v>
+        <v>0.297658</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309256</v>
+        <v>0.308094</v>
       </c>
       <c r="C44" t="n">
-        <v>0.292712</v>
+        <v>0.296977</v>
       </c>
       <c r="D44" t="n">
-        <v>0.299821</v>
+        <v>0.296717</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.309497</v>
+        <v>0.309228</v>
       </c>
       <c r="C45" t="n">
-        <v>0.293583</v>
+        <v>0.308551</v>
       </c>
       <c r="D45" t="n">
-        <v>0.299292</v>
+        <v>0.299811</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.313447</v>
+        <v>0.311466</v>
       </c>
       <c r="C46" t="n">
-        <v>0.294359</v>
+        <v>0.309271</v>
       </c>
       <c r="D46" t="n">
-        <v>0.30074</v>
+        <v>0.298167</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.313631</v>
+        <v>0.313538</v>
       </c>
       <c r="C47" t="n">
-        <v>0.295032</v>
+        <v>0.30986</v>
       </c>
       <c r="D47" t="n">
-        <v>0.30176</v>
+        <v>0.300839</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.315591</v>
+        <v>0.315798</v>
       </c>
       <c r="C48" t="n">
-        <v>0.296487</v>
+        <v>0.309821</v>
       </c>
       <c r="D48" t="n">
-        <v>0.304014</v>
+        <v>0.302741</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.322507</v>
+        <v>0.320986</v>
       </c>
       <c r="C49" t="n">
-        <v>0.297739</v>
+        <v>0.301937</v>
       </c>
       <c r="D49" t="n">
-        <v>0.307368</v>
+        <v>0.306014</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.326085</v>
+        <v>0.325771</v>
       </c>
       <c r="C50" t="n">
-        <v>0.301245</v>
+        <v>0.316059</v>
       </c>
       <c r="D50" t="n">
-        <v>0.313774</v>
+        <v>0.310296</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.333974</v>
+        <v>0.332209</v>
       </c>
       <c r="C51" t="n">
-        <v>0.306974</v>
+        <v>0.319509</v>
       </c>
       <c r="D51" t="n">
-        <v>0.321332</v>
+        <v>0.319085</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.340771</v>
+        <v>0.341234</v>
       </c>
       <c r="C52" t="n">
-        <v>0.313567</v>
+        <v>0.313744</v>
       </c>
       <c r="D52" t="n">
-        <v>0.327345</v>
+        <v>0.324536</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.32582</v>
+        <v>0.329056</v>
       </c>
       <c r="C53" t="n">
-        <v>0.319679</v>
+        <v>0.321509</v>
       </c>
       <c r="D53" t="n">
-        <v>0.327375</v>
+        <v>0.323599</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.329928</v>
+        <v>0.330549</v>
       </c>
       <c r="C54" t="n">
-        <v>0.320439</v>
+        <v>0.326106</v>
       </c>
       <c r="D54" t="n">
-        <v>0.327313</v>
+        <v>0.324594</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.331604</v>
+        <v>0.33151</v>
       </c>
       <c r="C55" t="n">
-        <v>0.319965</v>
+        <v>0.333553</v>
       </c>
       <c r="D55" t="n">
-        <v>0.328412</v>
+        <v>0.325232</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327999</v>
+        <v>0.332072</v>
       </c>
       <c r="C56" t="n">
-        <v>0.320758</v>
+        <v>0.333241</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32837</v>
+        <v>0.325005</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332326</v>
+        <v>0.33267</v>
       </c>
       <c r="C57" t="n">
-        <v>0.319855</v>
+        <v>0.324683</v>
       </c>
       <c r="D57" t="n">
-        <v>0.328263</v>
+        <v>0.325734</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.333538</v>
+        <v>0.334452</v>
       </c>
       <c r="C58" t="n">
-        <v>0.320487</v>
+        <v>0.321874</v>
       </c>
       <c r="D58" t="n">
-        <v>0.329159</v>
+        <v>0.324499</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.333922</v>
+        <v>0.335456</v>
       </c>
       <c r="C59" t="n">
-        <v>0.320833</v>
+        <v>0.333652</v>
       </c>
       <c r="D59" t="n">
-        <v>0.329737</v>
+        <v>0.32593</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.336263</v>
+        <v>0.337847</v>
       </c>
       <c r="C60" t="n">
-        <v>0.321198</v>
+        <v>0.3237</v>
       </c>
       <c r="D60" t="n">
-        <v>0.330601</v>
+        <v>0.326944</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.338405</v>
+        <v>0.339145</v>
       </c>
       <c r="C61" t="n">
-        <v>0.32113</v>
+        <v>0.323758</v>
       </c>
       <c r="D61" t="n">
-        <v>0.331628</v>
+        <v>0.328901</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.341369</v>
+        <v>0.341243</v>
       </c>
       <c r="C62" t="n">
-        <v>0.322904</v>
+        <v>0.326088</v>
       </c>
       <c r="D62" t="n">
-        <v>0.332324</v>
+        <v>0.330002</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.344999</v>
+        <v>0.346047</v>
       </c>
       <c r="C63" t="n">
-        <v>0.324701</v>
+        <v>0.338465</v>
       </c>
       <c r="D63" t="n">
-        <v>0.336248</v>
+        <v>0.332568</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.350181</v>
+        <v>0.351005</v>
       </c>
       <c r="C64" t="n">
-        <v>0.327571</v>
+        <v>0.329293</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340823</v>
+        <v>0.336479</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.357404</v>
+        <v>0.35754</v>
       </c>
       <c r="C65" t="n">
-        <v>0.330099</v>
+        <v>0.344442</v>
       </c>
       <c r="D65" t="n">
-        <v>0.347751</v>
+        <v>0.342692</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.365179</v>
+        <v>0.365371</v>
       </c>
       <c r="C66" t="n">
-        <v>0.336837</v>
+        <v>0.338761</v>
       </c>
       <c r="D66" t="n">
-        <v>0.343922</v>
+        <v>0.342284</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347481</v>
+        <v>0.347107</v>
       </c>
       <c r="C67" t="n">
-        <v>0.337239</v>
+        <v>0.33851</v>
       </c>
       <c r="D67" t="n">
-        <v>0.345423</v>
+        <v>0.34159</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.348211</v>
+        <v>0.348032</v>
       </c>
       <c r="C68" t="n">
-        <v>0.33748</v>
+        <v>0.350599</v>
       </c>
       <c r="D68" t="n">
-        <v>0.34555</v>
+        <v>0.34262</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.348416</v>
+        <v>0.348101</v>
       </c>
       <c r="C69" t="n">
-        <v>0.33785</v>
+        <v>0.350634</v>
       </c>
       <c r="D69" t="n">
-        <v>0.346335</v>
+        <v>0.342962</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.349528</v>
+        <v>0.349348</v>
       </c>
       <c r="C70" t="n">
-        <v>0.338003</v>
+        <v>0.340961</v>
       </c>
       <c r="D70" t="n">
-        <v>0.346521</v>
+        <v>0.342456</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350361</v>
+        <v>0.349636</v>
       </c>
       <c r="C71" t="n">
-        <v>0.338796</v>
+        <v>0.35084</v>
       </c>
       <c r="D71" t="n">
-        <v>0.347529</v>
+        <v>0.343068</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.351599</v>
+        <v>0.351372</v>
       </c>
       <c r="C72" t="n">
-        <v>0.338755</v>
+        <v>0.340082</v>
       </c>
       <c r="D72" t="n">
-        <v>0.347048</v>
+        <v>0.342986</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.353063</v>
+        <v>0.352624</v>
       </c>
       <c r="C73" t="n">
-        <v>0.339434</v>
+        <v>0.352201</v>
       </c>
       <c r="D73" t="n">
-        <v>0.348154</v>
+        <v>0.34447</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.35478</v>
+        <v>0.355026</v>
       </c>
       <c r="C74" t="n">
-        <v>0.340182</v>
+        <v>0.353186</v>
       </c>
       <c r="D74" t="n">
-        <v>0.349141</v>
+        <v>0.345539</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.356878</v>
+        <v>0.357286</v>
       </c>
       <c r="C75" t="n">
-        <v>0.340898</v>
+        <v>0.353711</v>
       </c>
       <c r="D75" t="n">
-        <v>0.350369</v>
+        <v>0.345864</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.359492</v>
+        <v>0.360565</v>
       </c>
       <c r="C76" t="n">
-        <v>0.342153</v>
+        <v>0.355543</v>
       </c>
       <c r="D76" t="n">
-        <v>0.352459</v>
+        <v>0.348791</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.363201</v>
+        <v>0.363569</v>
       </c>
       <c r="C77" t="n">
-        <v>0.343985</v>
+        <v>0.344726</v>
       </c>
       <c r="D77" t="n">
-        <v>0.355261</v>
+        <v>0.350443</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.368454</v>
+        <v>0.367944</v>
       </c>
       <c r="C78" t="n">
-        <v>0.346173</v>
+        <v>0.35936</v>
       </c>
       <c r="D78" t="n">
-        <v>0.359061</v>
+        <v>0.354579</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.375493</v>
+        <v>0.374676</v>
       </c>
       <c r="C79" t="n">
-        <v>0.350289</v>
+        <v>0.363999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.365768</v>
+        <v>0.360977</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.382948</v>
+        <v>0.383198</v>
       </c>
       <c r="C80" t="n">
-        <v>0.35572</v>
+        <v>0.369567</v>
       </c>
       <c r="D80" t="n">
-        <v>0.366182</v>
+        <v>0.361165</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.375508</v>
+        <v>0.372762</v>
       </c>
       <c r="C81" t="n">
-        <v>0.36448</v>
+        <v>0.364788</v>
       </c>
       <c r="D81" t="n">
-        <v>0.363993</v>
+        <v>0.361223</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.371667</v>
+        <v>0.372493</v>
       </c>
       <c r="C82" t="n">
-        <v>0.36549</v>
+        <v>0.374551</v>
       </c>
       <c r="D82" t="n">
-        <v>0.368976</v>
+        <v>0.360904</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.371651</v>
+        <v>0.380383</v>
       </c>
       <c r="C83" t="n">
-        <v>0.364172</v>
+        <v>0.364194</v>
       </c>
       <c r="D83" t="n">
-        <v>0.365462</v>
+        <v>0.365217</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.372982</v>
+        <v>0.377201</v>
       </c>
       <c r="C84" t="n">
-        <v>0.363671</v>
+        <v>0.365446</v>
       </c>
       <c r="D84" t="n">
-        <v>0.367254</v>
+        <v>0.364915</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.37891</v>
+        <v>0.37339</v>
       </c>
       <c r="C85" t="n">
-        <v>0.362763</v>
+        <v>0.378144</v>
       </c>
       <c r="D85" t="n">
-        <v>0.367447</v>
+        <v>0.361322</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.378822</v>
+        <v>0.37669</v>
       </c>
       <c r="C86" t="n">
-        <v>0.360247</v>
+        <v>0.36327</v>
       </c>
       <c r="D86" t="n">
-        <v>0.369523</v>
+        <v>0.363195</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.376157</v>
+        <v>0.37592</v>
       </c>
       <c r="C87" t="n">
-        <v>0.362533</v>
+        <v>0.365443</v>
       </c>
       <c r="D87" t="n">
-        <v>0.366304</v>
+        <v>0.362833</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.381847</v>
+        <v>0.380036</v>
       </c>
       <c r="C88" t="n">
-        <v>0.364761</v>
+        <v>0.36392</v>
       </c>
       <c r="D88" t="n">
-        <v>0.369161</v>
+        <v>0.36358</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.382113</v>
+        <v>0.379698</v>
       </c>
       <c r="C89" t="n">
-        <v>0.362753</v>
+        <v>0.377597</v>
       </c>
       <c r="D89" t="n">
-        <v>0.36939</v>
+        <v>0.364485</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.382046</v>
+        <v>0.384421</v>
       </c>
       <c r="C90" t="n">
-        <v>0.365095</v>
+        <v>0.379491</v>
       </c>
       <c r="D90" t="n">
-        <v>0.370821</v>
+        <v>0.367013</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.386042</v>
+        <v>0.386982</v>
       </c>
       <c r="C91" t="n">
-        <v>0.366678</v>
+        <v>0.368366</v>
       </c>
       <c r="D91" t="n">
-        <v>0.372573</v>
+        <v>0.370285</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.390608</v>
+        <v>0.393464</v>
       </c>
       <c r="C92" t="n">
-        <v>0.367458</v>
+        <v>0.387881</v>
       </c>
       <c r="D92" t="n">
-        <v>0.378568</v>
+        <v>0.375795</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.396134</v>
+        <v>0.396864</v>
       </c>
       <c r="C93" t="n">
-        <v>0.371622</v>
+        <v>0.383603</v>
       </c>
       <c r="D93" t="n">
-        <v>0.382282</v>
+        <v>0.378319</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.405575</v>
+        <v>0.413246</v>
       </c>
       <c r="C94" t="n">
-        <v>0.377908</v>
+        <v>0.391457</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5279199999999999</v>
+        <v>0.520364</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.587242</v>
+        <v>0.592412</v>
       </c>
       <c r="C95" t="n">
-        <v>0.556651</v>
+        <v>0.539296</v>
       </c>
       <c r="D95" t="n">
-        <v>0.528832</v>
+        <v>0.529047</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.584543</v>
+        <v>0.581391</v>
       </c>
       <c r="C96" t="n">
-        <v>0.558311</v>
+        <v>0.54213</v>
       </c>
       <c r="D96" t="n">
-        <v>0.522491</v>
+        <v>0.524722</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.586261</v>
+        <v>0.581375</v>
       </c>
       <c r="C97" t="n">
-        <v>0.568061</v>
+        <v>0.540368</v>
       </c>
       <c r="D97" t="n">
-        <v>0.532938</v>
+        <v>0.526641</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.589601</v>
+        <v>0.5869</v>
       </c>
       <c r="C98" t="n">
-        <v>0.55741</v>
+        <v>0.566629</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5288659999999999</v>
+        <v>0.533975</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.593085</v>
+        <v>0.588379</v>
       </c>
       <c r="C99" t="n">
-        <v>0.561934</v>
+        <v>0.5681659999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5313</v>
+        <v>0.524523</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.580301</v>
+        <v>0.586665</v>
       </c>
       <c r="C100" t="n">
-        <v>0.558386</v>
+        <v>0.562146</v>
       </c>
       <c r="D100" t="n">
-        <v>0.526096</v>
+        <v>0.530749</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.586112</v>
+        <v>0.581896</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5562009999999999</v>
+        <v>0.567959</v>
       </c>
       <c r="D101" t="n">
-        <v>0.527264</v>
+        <v>0.5290589999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.58841</v>
+        <v>0.591334</v>
       </c>
       <c r="C102" t="n">
-        <v>0.558453</v>
+        <v>0.538409</v>
       </c>
       <c r="D102" t="n">
-        <v>0.531288</v>
+        <v>0.526346</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.587851</v>
+        <v>0.597669</v>
       </c>
       <c r="C103" t="n">
-        <v>0.563683</v>
+        <v>0.546547</v>
       </c>
       <c r="D103" t="n">
-        <v>0.531401</v>
+        <v>0.528891</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.591454</v>
+        <v>0.593882</v>
       </c>
       <c r="C104" t="n">
-        <v>0.556867</v>
+        <v>0.561994</v>
       </c>
       <c r="D104" t="n">
-        <v>0.529438</v>
+        <v>0.535887</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.59773</v>
+        <v>0.593432</v>
       </c>
       <c r="C105" t="n">
-        <v>0.555177</v>
+        <v>0.544709</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5315299999999999</v>
+        <v>0.528446</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.593893</v>
+        <v>0.593502</v>
       </c>
       <c r="C106" t="n">
-        <v>0.557635</v>
+        <v>0.544589</v>
       </c>
       <c r="D106" t="n">
-        <v>0.534286</v>
+        <v>0.527882</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.598704</v>
+        <v>0.6057360000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.561793</v>
+        <v>0.542469</v>
       </c>
       <c r="D107" t="n">
-        <v>0.538998</v>
+        <v>0.5351900000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.606399</v>
+        <v>0.6034</v>
       </c>
       <c r="C108" t="n">
-        <v>0.567981</v>
+        <v>0.5530040000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.999997</v>
+        <v>0.990214</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.621895</v>
+        <v>0.633802</v>
       </c>
       <c r="C109" t="n">
-        <v>0.581255</v>
+        <v>0.5630039999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>1.00256</v>
+        <v>0.990722</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05606</v>
+        <v>1.05356</v>
       </c>
       <c r="C110" t="n">
-        <v>1.01999</v>
+        <v>1.01636</v>
       </c>
       <c r="D110" t="n">
-        <v>0.998591</v>
+        <v>0.988294</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.0562</v>
+        <v>1.05198</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01758</v>
+        <v>1.01722</v>
       </c>
       <c r="D111" t="n">
-        <v>0.997104</v>
+        <v>0.989832</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05611</v>
+        <v>1.04917</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01614</v>
+        <v>0.914204</v>
       </c>
       <c r="D112" t="n">
-        <v>0.997019</v>
+        <v>0.988413</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05548</v>
+        <v>1.04967</v>
       </c>
       <c r="C113" t="n">
-        <v>1.01526</v>
+        <v>0.87585</v>
       </c>
       <c r="D113" t="n">
-        <v>0.997537</v>
+        <v>0.988134</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.0556</v>
+        <v>1.05079</v>
       </c>
       <c r="C114" t="n">
-        <v>1.01688</v>
+        <v>0.998625</v>
       </c>
       <c r="D114" t="n">
-        <v>0.994613</v>
+        <v>0.987966</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05651</v>
+        <v>1.05195</v>
       </c>
       <c r="C115" t="n">
-        <v>1.01737</v>
+        <v>0.9774969999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9951759999999999</v>
+        <v>0.9888130000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05814</v>
+        <v>1.05213</v>
       </c>
       <c r="C116" t="n">
-        <v>1.016</v>
+        <v>0.890489</v>
       </c>
       <c r="D116" t="n">
-        <v>0.995075</v>
+        <v>0.988317</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05791</v>
+        <v>1.05109</v>
       </c>
       <c r="C117" t="n">
-        <v>1.01561</v>
+        <v>0.884205</v>
       </c>
       <c r="D117" t="n">
-        <v>0.994125</v>
+        <v>0.988779</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05652</v>
+        <v>1.05288</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01831</v>
+        <v>0.881903</v>
       </c>
       <c r="D118" t="n">
-        <v>0.99601</v>
+        <v>0.9865080000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05911</v>
+        <v>1.05456</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01731</v>
+        <v>1.01752</v>
       </c>
       <c r="D119" t="n">
-        <v>0.993757</v>
+        <v>0.9876239999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06103</v>
+        <v>1.05519</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01853</v>
+        <v>1.01712</v>
       </c>
       <c r="D120" t="n">
-        <v>0.995915</v>
+        <v>0.9871259999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06304</v>
+        <v>1.05926</v>
       </c>
       <c r="C121" t="n">
-        <v>1.02114</v>
+        <v>1.02247</v>
       </c>
       <c r="D121" t="n">
-        <v>1.00121</v>
+        <v>0.989529</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06858</v>
+        <v>1.06237</v>
       </c>
       <c r="C122" t="n">
-        <v>1.02455</v>
+        <v>0.946005</v>
       </c>
       <c r="D122" t="n">
-        <v>1.0038</v>
+        <v>0.993735</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07309</v>
+        <v>1.06893</v>
       </c>
       <c r="C123" t="n">
-        <v>1.02829</v>
+        <v>0.905456</v>
       </c>
       <c r="D123" t="n">
-        <v>1.31167</v>
+        <v>1.30782</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.33134</v>
+        <v>1.32855</v>
       </c>
       <c r="C124" t="n">
-        <v>1.31355</v>
+        <v>1.14318</v>
       </c>
       <c r="D124" t="n">
-        <v>1.31573</v>
+        <v>1.30581</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.331</v>
+        <v>1.3325</v>
       </c>
       <c r="C125" t="n">
-        <v>1.31633</v>
+        <v>1.14729</v>
       </c>
       <c r="D125" t="n">
-        <v>1.30435</v>
+        <v>1.30436</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.31188</v>
+        <v>1.3336</v>
       </c>
       <c r="C126" t="n">
-        <v>1.30969</v>
+        <v>1.2618</v>
       </c>
       <c r="D126" t="n">
-        <v>1.31143</v>
+        <v>1.30648</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32143</v>
+        <v>1.31945</v>
       </c>
       <c r="C127" t="n">
-        <v>1.31682</v>
+        <v>1.14592</v>
       </c>
       <c r="D127" t="n">
-        <v>1.31261</v>
+        <v>1.30654</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31737</v>
+        <v>1.32295</v>
       </c>
       <c r="C128" t="n">
-        <v>1.31212</v>
+        <v>1.26814</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31238</v>
+        <v>1.30473</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.32461</v>
+        <v>1.33084</v>
       </c>
       <c r="C129" t="n">
-        <v>1.31542</v>
+        <v>1.15118</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30864</v>
+        <v>1.304</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.31508</v>
+        <v>1.33574</v>
       </c>
       <c r="C130" t="n">
-        <v>1.31471</v>
+        <v>1.22378</v>
       </c>
       <c r="D130" t="n">
-        <v>1.31047</v>
+        <v>1.30622</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.32405</v>
+        <v>1.3296</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32019</v>
+        <v>1.15226</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31504</v>
+        <v>1.30569</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.32209</v>
+        <v>1.31628</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31833</v>
+        <v>1.15525</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31705</v>
+        <v>1.30787</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.3254</v>
+        <v>1.33209</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31914</v>
+        <v>1.15666</v>
       </c>
       <c r="D133" t="n">
-        <v>1.31481</v>
+        <v>1.30668</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31486</v>
+        <v>1.33031</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31782</v>
+        <v>1.31833</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31843</v>
+        <v>1.31214</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.31362</v>
+        <v>1.33709</v>
       </c>
       <c r="C135" t="n">
-        <v>1.32562</v>
+        <v>1.24702</v>
       </c>
       <c r="D135" t="n">
-        <v>1.32393</v>
+        <v>1.31579</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.34219</v>
+        <v>1.33213</v>
       </c>
       <c r="C136" t="n">
-        <v>1.32992</v>
+        <v>1.17517</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32545</v>
+        <v>1.32315</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35202</v>
+        <v>1.36092</v>
       </c>
       <c r="C137" t="n">
-        <v>1.33558</v>
+        <v>1.33457</v>
       </c>
       <c r="D137" t="n">
-        <v>1.45224</v>
+        <v>1.41807</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.44349</v>
+        <v>1.43062</v>
       </c>
       <c r="C138" t="n">
-        <v>1.43215</v>
+        <v>1.38318</v>
       </c>
       <c r="D138" t="n">
-        <v>1.43106</v>
+        <v>1.4353</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.44473</v>
+        <v>1.43161</v>
       </c>
       <c r="C139" t="n">
-        <v>1.42817</v>
+        <v>1.38549</v>
       </c>
       <c r="D139" t="n">
-        <v>1.43193</v>
+        <v>1.42566</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.44589</v>
+        <v>1.43373</v>
       </c>
       <c r="C140" t="n">
-        <v>1.42737</v>
+        <v>1.38814</v>
       </c>
       <c r="D140" t="n">
-        <v>1.44065</v>
+        <v>1.43021</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.44914</v>
+        <v>1.44152</v>
       </c>
       <c r="C141" t="n">
-        <v>1.43781</v>
+        <v>1.38419</v>
       </c>
       <c r="D141" t="n">
-        <v>1.43505</v>
+        <v>1.41576</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.4473</v>
+        <v>1.43247</v>
       </c>
       <c r="C142" t="n">
-        <v>1.42749</v>
+        <v>1.39355</v>
       </c>
       <c r="D142" t="n">
-        <v>1.43256</v>
+        <v>1.42906</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.44652</v>
+        <v>1.43664</v>
       </c>
       <c r="C143" t="n">
-        <v>1.42753</v>
+        <v>1.3807</v>
       </c>
       <c r="D143" t="n">
-        <v>1.43172</v>
+        <v>1.42561</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.255909</v>
+        <v>0.255806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238848</v>
+        <v>0.238857</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248081</v>
+        <v>0.247938</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256505</v>
+        <v>0.256144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23903</v>
+        <v>0.238873</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248384</v>
+        <v>0.248358</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258273</v>
+        <v>0.257949</v>
       </c>
       <c r="C4" t="n">
-        <v>0.239813</v>
+        <v>0.240703</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249618</v>
+        <v>0.249586</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260313</v>
+        <v>0.260131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240587</v>
+        <v>0.240613</v>
       </c>
       <c r="D5" t="n">
-        <v>0.250887</v>
+        <v>0.250799</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262446</v>
+        <v>0.262306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.241136</v>
+        <v>0.241124</v>
       </c>
       <c r="D6" t="n">
-        <v>0.251433</v>
+        <v>0.251462</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.265996</v>
+        <v>0.266151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.242173</v>
+        <v>0.242216</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25413</v>
+        <v>0.254128</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.272231</v>
+        <v>0.271837</v>
       </c>
       <c r="C8" t="n">
-        <v>0.244264</v>
+        <v>0.244324</v>
       </c>
       <c r="D8" t="n">
-        <v>0.258222</v>
+        <v>0.258101</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.281215</v>
+        <v>0.281159</v>
       </c>
       <c r="C9" t="n">
-        <v>0.248663</v>
+        <v>0.24891</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251058</v>
+        <v>0.25261</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.255604</v>
+        <v>0.254299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242242</v>
+        <v>0.253227</v>
       </c>
       <c r="D10" t="n">
-        <v>0.250103</v>
+        <v>0.250206</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255464</v>
+        <v>0.256483</v>
       </c>
       <c r="C11" t="n">
-        <v>0.241859</v>
+        <v>0.242187</v>
       </c>
       <c r="D11" t="n">
-        <v>0.249882</v>
+        <v>0.249741</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.257316</v>
+        <v>0.258515</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242402</v>
+        <v>0.244404</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250277</v>
+        <v>0.250934</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.258254</v>
+        <v>0.261963</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24326</v>
+        <v>0.246241</v>
       </c>
       <c r="D13" t="n">
-        <v>0.250989</v>
+        <v>0.251509</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.258825</v>
+        <v>0.258631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243889</v>
+        <v>0.242801</v>
       </c>
       <c r="D14" t="n">
-        <v>0.251448</v>
+        <v>0.250554</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.25948</v>
+        <v>0.263025</v>
       </c>
       <c r="C15" t="n">
-        <v>0.244278</v>
+        <v>0.246449</v>
       </c>
       <c r="D15" t="n">
-        <v>0.251726</v>
+        <v>0.25361</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260142</v>
+        <v>0.264464</v>
       </c>
       <c r="C16" t="n">
-        <v>0.244395</v>
+        <v>0.246782</v>
       </c>
       <c r="D16" t="n">
-        <v>0.251774</v>
+        <v>0.253221</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.264515</v>
+        <v>0.264461</v>
       </c>
       <c r="C17" t="n">
-        <v>0.245534</v>
+        <v>0.246119</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252575</v>
+        <v>0.253043</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.264159</v>
+        <v>0.264089</v>
       </c>
       <c r="C18" t="n">
-        <v>0.246984</v>
+        <v>0.245186</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254118</v>
+        <v>0.253222</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.266078</v>
+        <v>0.267863</v>
       </c>
       <c r="C19" t="n">
-        <v>0.246528</v>
+        <v>0.248501</v>
       </c>
       <c r="D19" t="n">
-        <v>0.254812</v>
+        <v>0.256326</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.270081</v>
+        <v>0.274664</v>
       </c>
       <c r="C20" t="n">
-        <v>0.248378</v>
+        <v>0.251279</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25691</v>
+        <v>0.259226</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.27649</v>
+        <v>0.278449</v>
       </c>
       <c r="C21" t="n">
-        <v>0.251202</v>
+        <v>0.252498</v>
       </c>
       <c r="D21" t="n">
-        <v>0.260287</v>
+        <v>0.262223</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.280955</v>
+        <v>0.283274</v>
       </c>
       <c r="C22" t="n">
-        <v>0.251718</v>
+        <v>0.254533</v>
       </c>
       <c r="D22" t="n">
-        <v>0.264109</v>
+        <v>0.266578</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.290206</v>
+        <v>0.291977</v>
       </c>
       <c r="C23" t="n">
-        <v>0.256594</v>
+        <v>0.258367</v>
       </c>
       <c r="D23" t="n">
-        <v>0.265913</v>
+        <v>0.267171</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.273406</v>
+        <v>0.275568</v>
       </c>
       <c r="C24" t="n">
-        <v>0.274813</v>
+        <v>0.266083</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267536</v>
+        <v>0.265753</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.274123</v>
+        <v>0.275356</v>
       </c>
       <c r="C25" t="n">
-        <v>0.265246</v>
+        <v>0.276079</v>
       </c>
       <c r="D25" t="n">
-        <v>0.266717</v>
+        <v>0.26673</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274607</v>
+        <v>0.276607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.264904</v>
+        <v>0.276336</v>
       </c>
       <c r="D26" t="n">
-        <v>0.267139</v>
+        <v>0.269213</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276796</v>
+        <v>0.276614</v>
       </c>
       <c r="C27" t="n">
-        <v>0.26605</v>
+        <v>0.276946</v>
       </c>
       <c r="D27" t="n">
-        <v>0.267663</v>
+        <v>0.270179</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277363</v>
+        <v>0.278444</v>
       </c>
       <c r="C28" t="n">
-        <v>0.265038</v>
+        <v>0.277046</v>
       </c>
       <c r="D28" t="n">
-        <v>0.265892</v>
+        <v>0.270347</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.27712</v>
+        <v>0.279858</v>
       </c>
       <c r="C29" t="n">
-        <v>0.275082</v>
+        <v>0.279978</v>
       </c>
       <c r="D29" t="n">
-        <v>0.266724</v>
+        <v>0.270217</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.279992</v>
+        <v>0.280017</v>
       </c>
       <c r="C30" t="n">
-        <v>0.266359</v>
+        <v>0.275357</v>
       </c>
       <c r="D30" t="n">
-        <v>0.267428</v>
+        <v>0.26848</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.281217</v>
+        <v>0.281656</v>
       </c>
       <c r="C31" t="n">
-        <v>0.277746</v>
+        <v>0.2806</v>
       </c>
       <c r="D31" t="n">
-        <v>0.269831</v>
+        <v>0.26987</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.283041</v>
+        <v>0.283164</v>
       </c>
       <c r="C32" t="n">
-        <v>0.268309</v>
+        <v>0.280229</v>
       </c>
       <c r="D32" t="n">
-        <v>0.271546</v>
+        <v>0.275074</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.284676</v>
+        <v>0.286027</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2784</v>
+        <v>0.272301</v>
       </c>
       <c r="D33" t="n">
-        <v>0.27118</v>
+        <v>0.276223</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.287706</v>
+        <v>0.289465</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278072</v>
+        <v>0.281909</v>
       </c>
       <c r="D34" t="n">
-        <v>0.273855</v>
+        <v>0.274582</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.293856</v>
+        <v>0.294528</v>
       </c>
       <c r="C35" t="n">
-        <v>0.282135</v>
+        <v>0.284997</v>
       </c>
       <c r="D35" t="n">
-        <v>0.277286</v>
+        <v>0.278539</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.298977</v>
+        <v>0.299936</v>
       </c>
       <c r="C36" t="n">
-        <v>0.273289</v>
+        <v>0.288067</v>
       </c>
       <c r="D36" t="n">
-        <v>0.285796</v>
+        <v>0.28823</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.307329</v>
+        <v>0.310115</v>
       </c>
       <c r="C37" t="n">
-        <v>0.290889</v>
+        <v>0.293876</v>
       </c>
       <c r="D37" t="n">
-        <v>0.29625</v>
+        <v>0.296632</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.303744</v>
+        <v>0.302817</v>
       </c>
       <c r="C38" t="n">
-        <v>0.294794</v>
+        <v>0.305508</v>
       </c>
       <c r="D38" t="n">
-        <v>0.295537</v>
+        <v>0.294543</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.303071</v>
+        <v>0.303821</v>
       </c>
       <c r="C39" t="n">
-        <v>0.294155</v>
+        <v>0.295762</v>
       </c>
       <c r="D39" t="n">
-        <v>0.295956</v>
+        <v>0.29578</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.305082</v>
+        <v>0.306122</v>
       </c>
       <c r="C40" t="n">
-        <v>0.294121</v>
+        <v>0.304707</v>
       </c>
       <c r="D40" t="n">
-        <v>0.293686</v>
+        <v>0.295836</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304623</v>
+        <v>0.304947</v>
       </c>
       <c r="C41" t="n">
-        <v>0.307612</v>
+        <v>0.304927</v>
       </c>
       <c r="D41" t="n">
-        <v>0.296365</v>
+        <v>0.295449</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.304636</v>
+        <v>0.306851</v>
       </c>
       <c r="C42" t="n">
-        <v>0.295339</v>
+        <v>0.304576</v>
       </c>
       <c r="D42" t="n">
-        <v>0.296512</v>
+        <v>0.294485</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.309916</v>
+        <v>0.306864</v>
       </c>
       <c r="C43" t="n">
-        <v>0.296999</v>
+        <v>0.295556</v>
       </c>
       <c r="D43" t="n">
-        <v>0.297658</v>
+        <v>0.297428</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.308094</v>
+        <v>0.308137</v>
       </c>
       <c r="C44" t="n">
-        <v>0.296977</v>
+        <v>0.3038</v>
       </c>
       <c r="D44" t="n">
-        <v>0.296717</v>
+        <v>0.295157</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.309228</v>
+        <v>0.313121</v>
       </c>
       <c r="C45" t="n">
-        <v>0.308551</v>
+        <v>0.30549</v>
       </c>
       <c r="D45" t="n">
-        <v>0.299811</v>
+        <v>0.2973</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.311466</v>
+        <v>0.311276</v>
       </c>
       <c r="C46" t="n">
-        <v>0.309271</v>
+        <v>0.3057</v>
       </c>
       <c r="D46" t="n">
-        <v>0.298167</v>
+        <v>0.29779</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.313538</v>
+        <v>0.312709</v>
       </c>
       <c r="C47" t="n">
-        <v>0.30986</v>
+        <v>0.309294</v>
       </c>
       <c r="D47" t="n">
-        <v>0.300839</v>
+        <v>0.300559</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.315798</v>
+        <v>0.319156</v>
       </c>
       <c r="C48" t="n">
-        <v>0.309821</v>
+        <v>0.300804</v>
       </c>
       <c r="D48" t="n">
-        <v>0.302741</v>
+        <v>0.302451</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.320986</v>
+        <v>0.321309</v>
       </c>
       <c r="C49" t="n">
-        <v>0.301937</v>
+        <v>0.312002</v>
       </c>
       <c r="D49" t="n">
-        <v>0.306014</v>
+        <v>0.30444</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.325771</v>
+        <v>0.325674</v>
       </c>
       <c r="C50" t="n">
-        <v>0.316059</v>
+        <v>0.304756</v>
       </c>
       <c r="D50" t="n">
-        <v>0.310296</v>
+        <v>0.309613</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.332209</v>
+        <v>0.330325</v>
       </c>
       <c r="C51" t="n">
-        <v>0.319509</v>
+        <v>0.314924</v>
       </c>
       <c r="D51" t="n">
-        <v>0.319085</v>
+        <v>0.316863</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.341234</v>
+        <v>0.344385</v>
       </c>
       <c r="C52" t="n">
-        <v>0.313744</v>
+        <v>0.313799</v>
       </c>
       <c r="D52" t="n">
-        <v>0.324536</v>
+        <v>0.323114</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329056</v>
+        <v>0.329362</v>
       </c>
       <c r="C53" t="n">
-        <v>0.321509</v>
+        <v>0.320977</v>
       </c>
       <c r="D53" t="n">
-        <v>0.323599</v>
+        <v>0.323875</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.330549</v>
+        <v>0.330031</v>
       </c>
       <c r="C54" t="n">
-        <v>0.326106</v>
+        <v>0.32109</v>
       </c>
       <c r="D54" t="n">
-        <v>0.324594</v>
+        <v>0.323655</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33151</v>
+        <v>0.330606</v>
       </c>
       <c r="C55" t="n">
-        <v>0.333553</v>
+        <v>0.321006</v>
       </c>
       <c r="D55" t="n">
-        <v>0.325232</v>
+        <v>0.323744</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.332072</v>
+        <v>0.330996</v>
       </c>
       <c r="C56" t="n">
-        <v>0.333241</v>
+        <v>0.332587</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325005</v>
+        <v>0.32506</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.33267</v>
+        <v>0.332529</v>
       </c>
       <c r="C57" t="n">
-        <v>0.324683</v>
+        <v>0.333652</v>
       </c>
       <c r="D57" t="n">
-        <v>0.325734</v>
+        <v>0.325474</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.334452</v>
+        <v>0.333964</v>
       </c>
       <c r="C58" t="n">
-        <v>0.321874</v>
+        <v>0.322077</v>
       </c>
       <c r="D58" t="n">
-        <v>0.324499</v>
+        <v>0.325006</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.335456</v>
+        <v>0.33677</v>
       </c>
       <c r="C59" t="n">
-        <v>0.333652</v>
+        <v>0.333582</v>
       </c>
       <c r="D59" t="n">
-        <v>0.32593</v>
+        <v>0.325501</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.337847</v>
+        <v>0.337454</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3237</v>
+        <v>0.323069</v>
       </c>
       <c r="D60" t="n">
-        <v>0.326944</v>
+        <v>0.326728</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.339145</v>
+        <v>0.338799</v>
       </c>
       <c r="C61" t="n">
-        <v>0.323758</v>
+        <v>0.336509</v>
       </c>
       <c r="D61" t="n">
-        <v>0.328901</v>
+        <v>0.329145</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.341243</v>
+        <v>0.342818</v>
       </c>
       <c r="C62" t="n">
-        <v>0.326088</v>
+        <v>0.324808</v>
       </c>
       <c r="D62" t="n">
-        <v>0.330002</v>
+        <v>0.329794</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.346047</v>
+        <v>0.348033</v>
       </c>
       <c r="C63" t="n">
-        <v>0.338465</v>
+        <v>0.339062</v>
       </c>
       <c r="D63" t="n">
-        <v>0.332568</v>
+        <v>0.332756</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.351005</v>
+        <v>0.350029</v>
       </c>
       <c r="C64" t="n">
-        <v>0.329293</v>
+        <v>0.342198</v>
       </c>
       <c r="D64" t="n">
-        <v>0.336479</v>
+        <v>0.337457</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.35754</v>
+        <v>0.354844</v>
       </c>
       <c r="C65" t="n">
-        <v>0.344442</v>
+        <v>0.345974</v>
       </c>
       <c r="D65" t="n">
-        <v>0.342692</v>
+        <v>0.343978</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.365371</v>
+        <v>0.36569</v>
       </c>
       <c r="C66" t="n">
-        <v>0.338761</v>
+        <v>0.349252</v>
       </c>
       <c r="D66" t="n">
-        <v>0.342284</v>
+        <v>0.341347</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347107</v>
+        <v>0.347165</v>
       </c>
       <c r="C67" t="n">
-        <v>0.33851</v>
+        <v>0.339451</v>
       </c>
       <c r="D67" t="n">
-        <v>0.34159</v>
+        <v>0.342669</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.348032</v>
+        <v>0.347313</v>
       </c>
       <c r="C68" t="n">
-        <v>0.350599</v>
+        <v>0.349329</v>
       </c>
       <c r="D68" t="n">
-        <v>0.34262</v>
+        <v>0.342702</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.348101</v>
+        <v>0.349024</v>
       </c>
       <c r="C69" t="n">
-        <v>0.350634</v>
+        <v>0.339341</v>
       </c>
       <c r="D69" t="n">
-        <v>0.342962</v>
+        <v>0.343057</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.349348</v>
+        <v>0.349394</v>
       </c>
       <c r="C70" t="n">
-        <v>0.340961</v>
+        <v>0.339728</v>
       </c>
       <c r="D70" t="n">
-        <v>0.342456</v>
+        <v>0.342881</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.349636</v>
+        <v>0.348827</v>
       </c>
       <c r="C71" t="n">
-        <v>0.35084</v>
+        <v>0.351337</v>
       </c>
       <c r="D71" t="n">
-        <v>0.343068</v>
+        <v>0.343647</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.351372</v>
+        <v>0.351815</v>
       </c>
       <c r="C72" t="n">
-        <v>0.340082</v>
+        <v>0.352036</v>
       </c>
       <c r="D72" t="n">
-        <v>0.342986</v>
+        <v>0.344225</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.352624</v>
+        <v>0.353167</v>
       </c>
       <c r="C73" t="n">
-        <v>0.352201</v>
+        <v>0.353427</v>
       </c>
       <c r="D73" t="n">
-        <v>0.34447</v>
+        <v>0.345365</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.355026</v>
+        <v>0.353616</v>
       </c>
       <c r="C74" t="n">
-        <v>0.353186</v>
+        <v>0.353283</v>
       </c>
       <c r="D74" t="n">
-        <v>0.345539</v>
+        <v>0.345498</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.357286</v>
+        <v>0.357641</v>
       </c>
       <c r="C75" t="n">
-        <v>0.353711</v>
+        <v>0.354766</v>
       </c>
       <c r="D75" t="n">
-        <v>0.345864</v>
+        <v>0.347059</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.360565</v>
+        <v>0.360851</v>
       </c>
       <c r="C76" t="n">
-        <v>0.355543</v>
+        <v>0.355595</v>
       </c>
       <c r="D76" t="n">
-        <v>0.348791</v>
+        <v>0.349247</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.363569</v>
+        <v>0.363694</v>
       </c>
       <c r="C77" t="n">
-        <v>0.344726</v>
+        <v>0.357771</v>
       </c>
       <c r="D77" t="n">
-        <v>0.350443</v>
+        <v>0.350699</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.367944</v>
+        <v>0.368571</v>
       </c>
       <c r="C78" t="n">
-        <v>0.35936</v>
+        <v>0.35968</v>
       </c>
       <c r="D78" t="n">
-        <v>0.354579</v>
+        <v>0.354683</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.374676</v>
+        <v>0.375499</v>
       </c>
       <c r="C79" t="n">
-        <v>0.363999</v>
+        <v>0.363769</v>
       </c>
       <c r="D79" t="n">
-        <v>0.360977</v>
+        <v>0.361375</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.383198</v>
+        <v>0.382418</v>
       </c>
       <c r="C80" t="n">
-        <v>0.369567</v>
+        <v>0.357121</v>
       </c>
       <c r="D80" t="n">
-        <v>0.361165</v>
+        <v>0.359811</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.372762</v>
+        <v>0.370786</v>
       </c>
       <c r="C81" t="n">
-        <v>0.364788</v>
+        <v>0.362106</v>
       </c>
       <c r="D81" t="n">
-        <v>0.361223</v>
+        <v>0.361009</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.372493</v>
+        <v>0.371705</v>
       </c>
       <c r="C82" t="n">
-        <v>0.374551</v>
+        <v>0.362109</v>
       </c>
       <c r="D82" t="n">
-        <v>0.360904</v>
+        <v>0.360992</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.380383</v>
+        <v>0.375681</v>
       </c>
       <c r="C83" t="n">
-        <v>0.364194</v>
+        <v>0.361394</v>
       </c>
       <c r="D83" t="n">
-        <v>0.365217</v>
+        <v>0.36143</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.377201</v>
+        <v>0.375275</v>
       </c>
       <c r="C84" t="n">
-        <v>0.365446</v>
+        <v>0.372996</v>
       </c>
       <c r="D84" t="n">
-        <v>0.364915</v>
+        <v>0.360956</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.37339</v>
+        <v>0.37494</v>
       </c>
       <c r="C85" t="n">
-        <v>0.378144</v>
+        <v>0.368593</v>
       </c>
       <c r="D85" t="n">
-        <v>0.361322</v>
+        <v>0.364533</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.37669</v>
+        <v>0.375063</v>
       </c>
       <c r="C86" t="n">
-        <v>0.36327</v>
+        <v>0.375552</v>
       </c>
       <c r="D86" t="n">
-        <v>0.363195</v>
+        <v>0.362615</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.37592</v>
+        <v>0.37478</v>
       </c>
       <c r="C87" t="n">
-        <v>0.365443</v>
+        <v>0.364069</v>
       </c>
       <c r="D87" t="n">
-        <v>0.362833</v>
+        <v>0.362794</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.380036</v>
+        <v>0.377028</v>
       </c>
       <c r="C88" t="n">
-        <v>0.36392</v>
+        <v>0.378027</v>
       </c>
       <c r="D88" t="n">
-        <v>0.36358</v>
+        <v>0.36422</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.379698</v>
+        <v>0.379891</v>
       </c>
       <c r="C89" t="n">
-        <v>0.377597</v>
+        <v>0.364187</v>
       </c>
       <c r="D89" t="n">
-        <v>0.364485</v>
+        <v>0.365096</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.384421</v>
+        <v>0.386178</v>
       </c>
       <c r="C90" t="n">
-        <v>0.379491</v>
+        <v>0.368282</v>
       </c>
       <c r="D90" t="n">
-        <v>0.367013</v>
+        <v>0.366429</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.386982</v>
+        <v>0.394175</v>
       </c>
       <c r="C91" t="n">
-        <v>0.368366</v>
+        <v>0.370299</v>
       </c>
       <c r="D91" t="n">
-        <v>0.370285</v>
+        <v>0.372234</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.393464</v>
+        <v>0.388981</v>
       </c>
       <c r="C92" t="n">
-        <v>0.387881</v>
+        <v>0.384326</v>
       </c>
       <c r="D92" t="n">
-        <v>0.375795</v>
+        <v>0.375963</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.396864</v>
+        <v>0.398594</v>
       </c>
       <c r="C93" t="n">
-        <v>0.383603</v>
+        <v>0.372625</v>
       </c>
       <c r="D93" t="n">
-        <v>0.378319</v>
+        <v>0.378724</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.413246</v>
+        <v>0.405816</v>
       </c>
       <c r="C94" t="n">
-        <v>0.391457</v>
+        <v>0.391908</v>
       </c>
       <c r="D94" t="n">
-        <v>0.520364</v>
+        <v>0.531092</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.592412</v>
+        <v>0.587687</v>
       </c>
       <c r="C95" t="n">
-        <v>0.539296</v>
+        <v>0.571153</v>
       </c>
       <c r="D95" t="n">
-        <v>0.529047</v>
+        <v>0.535986</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.581391</v>
+        <v>0.584587</v>
       </c>
       <c r="C96" t="n">
-        <v>0.54213</v>
+        <v>0.547883</v>
       </c>
       <c r="D96" t="n">
-        <v>0.524722</v>
+        <v>0.536043</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.581375</v>
+        <v>0.582912</v>
       </c>
       <c r="C97" t="n">
-        <v>0.540368</v>
+        <v>0.5785130000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.526641</v>
+        <v>0.535344</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5869</v>
+        <v>0.597272</v>
       </c>
       <c r="C98" t="n">
-        <v>0.566629</v>
+        <v>0.546814</v>
       </c>
       <c r="D98" t="n">
-        <v>0.533975</v>
+        <v>0.528699</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.588379</v>
+        <v>0.591813</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5681659999999999</v>
+        <v>0.541942</v>
       </c>
       <c r="D99" t="n">
-        <v>0.524523</v>
+        <v>0.536685</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.586665</v>
+        <v>0.591022</v>
       </c>
       <c r="C100" t="n">
-        <v>0.562146</v>
+        <v>0.5787870000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.530749</v>
+        <v>0.537007</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.581896</v>
+        <v>0.587957</v>
       </c>
       <c r="C101" t="n">
-        <v>0.567959</v>
+        <v>0.570648</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5290589999999999</v>
+        <v>0.530003</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.591334</v>
+        <v>0.596575</v>
       </c>
       <c r="C102" t="n">
-        <v>0.538409</v>
+        <v>0.570242</v>
       </c>
       <c r="D102" t="n">
-        <v>0.526346</v>
+        <v>0.525147</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.597669</v>
+        <v>0.597235</v>
       </c>
       <c r="C103" t="n">
-        <v>0.546547</v>
+        <v>0.548767</v>
       </c>
       <c r="D103" t="n">
-        <v>0.528891</v>
+        <v>0.527328</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.593882</v>
+        <v>0.597707</v>
       </c>
       <c r="C104" t="n">
-        <v>0.561994</v>
+        <v>0.5744899999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.535887</v>
+        <v>0.534977</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.593432</v>
+        <v>0.595272</v>
       </c>
       <c r="C105" t="n">
-        <v>0.544709</v>
+        <v>0.54711</v>
       </c>
       <c r="D105" t="n">
-        <v>0.528446</v>
+        <v>0.533684</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.593502</v>
+        <v>0.601446</v>
       </c>
       <c r="C106" t="n">
-        <v>0.544589</v>
+        <v>0.566893</v>
       </c>
       <c r="D106" t="n">
-        <v>0.527882</v>
+        <v>0.541677</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6057360000000001</v>
+        <v>0.606486</v>
       </c>
       <c r="C107" t="n">
-        <v>0.542469</v>
+        <v>0.580572</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5351900000000001</v>
+        <v>0.537923</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6034</v>
+        <v>0.613487</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5530040000000001</v>
+        <v>0.584</v>
       </c>
       <c r="D108" t="n">
-        <v>0.990214</v>
+        <v>0.995293</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.633802</v>
+        <v>0.6209750000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5630039999999999</v>
+        <v>0.562304</v>
       </c>
       <c r="D109" t="n">
-        <v>0.990722</v>
+        <v>0.995032</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05356</v>
+        <v>1.05423</v>
       </c>
       <c r="C110" t="n">
-        <v>1.01636</v>
+        <v>0.909278</v>
       </c>
       <c r="D110" t="n">
-        <v>0.988294</v>
+        <v>0.992893</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05198</v>
+        <v>1.05492</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01722</v>
+        <v>0.880865</v>
       </c>
       <c r="D111" t="n">
-        <v>0.989832</v>
+        <v>0.9929</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.04917</v>
+        <v>1.05612</v>
       </c>
       <c r="C112" t="n">
-        <v>0.914204</v>
+        <v>1.01893</v>
       </c>
       <c r="D112" t="n">
-        <v>0.988413</v>
+        <v>0.9936970000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.04967</v>
+        <v>1.05611</v>
       </c>
       <c r="C113" t="n">
-        <v>0.87585</v>
+        <v>1.00877</v>
       </c>
       <c r="D113" t="n">
-        <v>0.988134</v>
+        <v>0.991326</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05079</v>
+        <v>1.05579</v>
       </c>
       <c r="C114" t="n">
-        <v>0.998625</v>
+        <v>0.884148</v>
       </c>
       <c r="D114" t="n">
-        <v>0.987966</v>
+        <v>0.991734</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05195</v>
+        <v>1.05534</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9774969999999999</v>
+        <v>1.02095</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9888130000000001</v>
+        <v>0.9913650000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05213</v>
+        <v>1.05744</v>
       </c>
       <c r="C116" t="n">
-        <v>0.890489</v>
+        <v>0.884511</v>
       </c>
       <c r="D116" t="n">
-        <v>0.988317</v>
+        <v>0.992785</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05109</v>
+        <v>1.05974</v>
       </c>
       <c r="C117" t="n">
-        <v>0.884205</v>
+        <v>0.886306</v>
       </c>
       <c r="D117" t="n">
-        <v>0.988779</v>
+        <v>0.99072</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05288</v>
+        <v>1.05921</v>
       </c>
       <c r="C118" t="n">
-        <v>0.881903</v>
+        <v>0.886498</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9865080000000001</v>
+        <v>0.992386</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05456</v>
+        <v>1.05826</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01752</v>
+        <v>0.884243</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9876239999999999</v>
+        <v>0.9907280000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05519</v>
+        <v>1.06173</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01712</v>
+        <v>0.984818</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9871259999999999</v>
+        <v>0.991144</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.05926</v>
+        <v>1.06524</v>
       </c>
       <c r="C121" t="n">
-        <v>1.02247</v>
+        <v>0.893208</v>
       </c>
       <c r="D121" t="n">
-        <v>0.989529</v>
+        <v>0.993249</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06237</v>
+        <v>1.06775</v>
       </c>
       <c r="C122" t="n">
-        <v>0.946005</v>
+        <v>0.896916</v>
       </c>
       <c r="D122" t="n">
-        <v>0.993735</v>
+        <v>0.996343</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.06893</v>
+        <v>1.07354</v>
       </c>
       <c r="C123" t="n">
-        <v>0.905456</v>
+        <v>0.905686</v>
       </c>
       <c r="D123" t="n">
-        <v>1.30782</v>
+        <v>1.31158</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.32855</v>
+        <v>1.30994</v>
       </c>
       <c r="C124" t="n">
-        <v>1.14318</v>
+        <v>1.15389</v>
       </c>
       <c r="D124" t="n">
-        <v>1.30581</v>
+        <v>1.31078</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.3325</v>
+        <v>1.31745</v>
       </c>
       <c r="C125" t="n">
-        <v>1.14729</v>
+        <v>1.31479</v>
       </c>
       <c r="D125" t="n">
-        <v>1.30436</v>
+        <v>1.3132</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.3336</v>
+        <v>1.31673</v>
       </c>
       <c r="C126" t="n">
-        <v>1.2618</v>
+        <v>1.15588</v>
       </c>
       <c r="D126" t="n">
-        <v>1.30648</v>
+        <v>1.30813</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31945</v>
+        <v>1.32347</v>
       </c>
       <c r="C127" t="n">
-        <v>1.14592</v>
+        <v>1.17741</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30654</v>
+        <v>1.30782</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32295</v>
+        <v>1.31993</v>
       </c>
       <c r="C128" t="n">
-        <v>1.26814</v>
+        <v>1.15412</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30473</v>
+        <v>1.31056</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33084</v>
+        <v>1.32045</v>
       </c>
       <c r="C129" t="n">
-        <v>1.15118</v>
+        <v>1.15573</v>
       </c>
       <c r="D129" t="n">
-        <v>1.304</v>
+        <v>1.31011</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.33574</v>
+        <v>1.33417</v>
       </c>
       <c r="C130" t="n">
-        <v>1.22378</v>
+        <v>1.15637</v>
       </c>
       <c r="D130" t="n">
-        <v>1.30622</v>
+        <v>1.3097</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3296</v>
+        <v>1.3164</v>
       </c>
       <c r="C131" t="n">
-        <v>1.15226</v>
+        <v>1.158</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30569</v>
+        <v>1.31129</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.31628</v>
+        <v>1.3309</v>
       </c>
       <c r="C132" t="n">
-        <v>1.15525</v>
+        <v>1.24958</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30787</v>
+        <v>1.31151</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.33209</v>
+        <v>1.31794</v>
       </c>
       <c r="C133" t="n">
-        <v>1.15666</v>
+        <v>1.32284</v>
       </c>
       <c r="D133" t="n">
-        <v>1.30668</v>
+        <v>1.31436</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.33031</v>
+        <v>1.32723</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31833</v>
+        <v>1.27646</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31214</v>
+        <v>1.31749</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.33709</v>
+        <v>1.3519</v>
       </c>
       <c r="C135" t="n">
-        <v>1.24702</v>
+        <v>1.28513</v>
       </c>
       <c r="D135" t="n">
-        <v>1.31579</v>
+        <v>1.31924</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.33213</v>
+        <v>1.33908</v>
       </c>
       <c r="C136" t="n">
-        <v>1.17517</v>
+        <v>1.3355</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32315</v>
+        <v>1.32472</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.36092</v>
+        <v>1.35238</v>
       </c>
       <c r="C137" t="n">
-        <v>1.33457</v>
+        <v>1.34361</v>
       </c>
       <c r="D137" t="n">
-        <v>1.41807</v>
+        <v>1.44151</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.43062</v>
+        <v>1.44453</v>
       </c>
       <c r="C138" t="n">
-        <v>1.38318</v>
+        <v>1.42241</v>
       </c>
       <c r="D138" t="n">
-        <v>1.4353</v>
+        <v>1.42967</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.43161</v>
+        <v>1.44724</v>
       </c>
       <c r="C139" t="n">
-        <v>1.38549</v>
+        <v>1.38941</v>
       </c>
       <c r="D139" t="n">
-        <v>1.42566</v>
+        <v>1.4383</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.43373</v>
+        <v>1.44438</v>
       </c>
       <c r="C140" t="n">
-        <v>1.38814</v>
+        <v>1.43838</v>
       </c>
       <c r="D140" t="n">
-        <v>1.43021</v>
+        <v>1.43729</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.44152</v>
+        <v>1.44745</v>
       </c>
       <c r="C141" t="n">
-        <v>1.38419</v>
+        <v>1.38757</v>
       </c>
       <c r="D141" t="n">
-        <v>1.41576</v>
+        <v>1.43591</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.43247</v>
+        <v>1.44683</v>
       </c>
       <c r="C142" t="n">
-        <v>1.39355</v>
+        <v>1.4406</v>
       </c>
       <c r="D142" t="n">
-        <v>1.42906</v>
+        <v>1.44791</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.43664</v>
+        <v>1.44785</v>
       </c>
       <c r="C143" t="n">
-        <v>1.3807</v>
+        <v>1.45599</v>
       </c>
       <c r="D143" t="n">
-        <v>1.42561</v>
+        <v>1.43263</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.255806</v>
+        <v>0.255805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238857</v>
+        <v>0.239049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247938</v>
+        <v>0.247994</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256144</v>
+        <v>0.256529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238873</v>
+        <v>0.239063</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248358</v>
+        <v>0.248363</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.257949</v>
+        <v>0.258579</v>
       </c>
       <c r="C4" t="n">
-        <v>0.240703</v>
+        <v>0.240015</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249586</v>
+        <v>0.249559</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260131</v>
+        <v>0.260767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240613</v>
+        <v>0.240946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.250799</v>
+        <v>0.250756</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262306</v>
+        <v>0.262884</v>
       </c>
       <c r="C6" t="n">
-        <v>0.241124</v>
+        <v>0.2415</v>
       </c>
       <c r="D6" t="n">
-        <v>0.251462</v>
+        <v>0.251588</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.266151</v>
+        <v>0.266496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.242216</v>
+        <v>0.242533</v>
       </c>
       <c r="D7" t="n">
-        <v>0.254128</v>
+        <v>0.253898</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.271837</v>
+        <v>0.271737</v>
       </c>
       <c r="C8" t="n">
-        <v>0.244324</v>
+        <v>0.244961</v>
       </c>
       <c r="D8" t="n">
-        <v>0.258101</v>
+        <v>0.258051</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.281159</v>
+        <v>0.280471</v>
       </c>
       <c r="C9" t="n">
-        <v>0.24891</v>
+        <v>0.249086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25261</v>
+        <v>0.251238</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.254299</v>
+        <v>0.256459</v>
       </c>
       <c r="C10" t="n">
-        <v>0.253227</v>
+        <v>0.24202</v>
       </c>
       <c r="D10" t="n">
-        <v>0.250206</v>
+        <v>0.250469</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.256483</v>
+        <v>0.255734</v>
       </c>
       <c r="C11" t="n">
-        <v>0.242187</v>
+        <v>0.241931</v>
       </c>
       <c r="D11" t="n">
-        <v>0.249741</v>
+        <v>0.2501</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.258515</v>
+        <v>0.256273</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244404</v>
+        <v>0.242629</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250934</v>
+        <v>0.250695</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.261963</v>
+        <v>0.257592</v>
       </c>
       <c r="C13" t="n">
-        <v>0.246241</v>
+        <v>0.242867</v>
       </c>
       <c r="D13" t="n">
-        <v>0.251509</v>
+        <v>0.250677</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.258631</v>
+        <v>0.258095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242801</v>
+        <v>0.243057</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250554</v>
+        <v>0.251007</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263025</v>
+        <v>0.259358</v>
       </c>
       <c r="C15" t="n">
-        <v>0.246449</v>
+        <v>0.2436</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25361</v>
+        <v>0.251504</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.264464</v>
+        <v>0.260515</v>
       </c>
       <c r="C16" t="n">
-        <v>0.246782</v>
+        <v>0.244088</v>
       </c>
       <c r="D16" t="n">
-        <v>0.253221</v>
+        <v>0.252068</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.264461</v>
+        <v>0.26204</v>
       </c>
       <c r="C17" t="n">
-        <v>0.246119</v>
+        <v>0.244792</v>
       </c>
       <c r="D17" t="n">
-        <v>0.253043</v>
+        <v>0.252701</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.264089</v>
+        <v>0.265573</v>
       </c>
       <c r="C18" t="n">
-        <v>0.245186</v>
+        <v>0.245419</v>
       </c>
       <c r="D18" t="n">
-        <v>0.253222</v>
+        <v>0.253561</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.267863</v>
+        <v>0.2662</v>
       </c>
       <c r="C19" t="n">
-        <v>0.248501</v>
+        <v>0.247506</v>
       </c>
       <c r="D19" t="n">
-        <v>0.256326</v>
+        <v>0.255631</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.274664</v>
+        <v>0.269258</v>
       </c>
       <c r="C20" t="n">
-        <v>0.251279</v>
+        <v>0.247585</v>
       </c>
       <c r="D20" t="n">
-        <v>0.259226</v>
+        <v>0.25645</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.278449</v>
+        <v>0.274383</v>
       </c>
       <c r="C21" t="n">
-        <v>0.252498</v>
+        <v>0.24915</v>
       </c>
       <c r="D21" t="n">
-        <v>0.262223</v>
+        <v>0.258945</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.283274</v>
+        <v>0.280771</v>
       </c>
       <c r="C22" t="n">
-        <v>0.254533</v>
+        <v>0.252131</v>
       </c>
       <c r="D22" t="n">
-        <v>0.266578</v>
+        <v>0.263686</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.291977</v>
+        <v>0.289946</v>
       </c>
       <c r="C23" t="n">
-        <v>0.258367</v>
+        <v>0.256704</v>
       </c>
       <c r="D23" t="n">
-        <v>0.267171</v>
+        <v>0.266201</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.275568</v>
+        <v>0.274325</v>
       </c>
       <c r="C24" t="n">
-        <v>0.266083</v>
+        <v>0.27197</v>
       </c>
       <c r="D24" t="n">
-        <v>0.265753</v>
+        <v>0.264491</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.275356</v>
+        <v>0.274489</v>
       </c>
       <c r="C25" t="n">
-        <v>0.276079</v>
+        <v>0.262505</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26673</v>
+        <v>0.263942</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.276607</v>
+        <v>0.276857</v>
       </c>
       <c r="C26" t="n">
-        <v>0.276336</v>
+        <v>0.271436</v>
       </c>
       <c r="D26" t="n">
-        <v>0.269213</v>
+        <v>0.265395</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276614</v>
+        <v>0.276944</v>
       </c>
       <c r="C27" t="n">
-        <v>0.276946</v>
+        <v>0.263402</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270179</v>
+        <v>0.26571</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278444</v>
+        <v>0.278605</v>
       </c>
       <c r="C28" t="n">
-        <v>0.277046</v>
+        <v>0.264824</v>
       </c>
       <c r="D28" t="n">
-        <v>0.270347</v>
+        <v>0.266277</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.279858</v>
+        <v>0.278911</v>
       </c>
       <c r="C29" t="n">
-        <v>0.279978</v>
+        <v>0.27488</v>
       </c>
       <c r="D29" t="n">
-        <v>0.270217</v>
+        <v>0.264983</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.280017</v>
+        <v>0.278905</v>
       </c>
       <c r="C30" t="n">
-        <v>0.275357</v>
+        <v>0.275114</v>
       </c>
       <c r="D30" t="n">
-        <v>0.26848</v>
+        <v>0.267914</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.281656</v>
+        <v>0.281072</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2806</v>
+        <v>0.276353</v>
       </c>
       <c r="D31" t="n">
-        <v>0.26987</v>
+        <v>0.269036</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.283164</v>
+        <v>0.282675</v>
       </c>
       <c r="C32" t="n">
-        <v>0.280229</v>
+        <v>0.266589</v>
       </c>
       <c r="D32" t="n">
-        <v>0.275074</v>
+        <v>0.270979</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.286027</v>
+        <v>0.28537</v>
       </c>
       <c r="C33" t="n">
-        <v>0.272301</v>
+        <v>0.269086</v>
       </c>
       <c r="D33" t="n">
-        <v>0.276223</v>
+        <v>0.272503</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.289465</v>
+        <v>0.287557</v>
       </c>
       <c r="C34" t="n">
-        <v>0.281909</v>
+        <v>0.267475</v>
       </c>
       <c r="D34" t="n">
-        <v>0.274582</v>
+        <v>0.272159</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.294528</v>
+        <v>0.291795</v>
       </c>
       <c r="C35" t="n">
-        <v>0.284997</v>
+        <v>0.269655</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278539</v>
+        <v>0.276416</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.299936</v>
+        <v>0.297453</v>
       </c>
       <c r="C36" t="n">
-        <v>0.288067</v>
+        <v>0.278283</v>
       </c>
       <c r="D36" t="n">
-        <v>0.28823</v>
+        <v>0.281569</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.310115</v>
+        <v>0.30541</v>
       </c>
       <c r="C37" t="n">
-        <v>0.293876</v>
+        <v>0.278451</v>
       </c>
       <c r="D37" t="n">
-        <v>0.296632</v>
+        <v>0.296112</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.302817</v>
+        <v>0.302507</v>
       </c>
       <c r="C38" t="n">
-        <v>0.305508</v>
+        <v>0.293763</v>
       </c>
       <c r="D38" t="n">
-        <v>0.294543</v>
+        <v>0.294086</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.303821</v>
+        <v>0.303469</v>
       </c>
       <c r="C39" t="n">
-        <v>0.295762</v>
+        <v>0.30539</v>
       </c>
       <c r="D39" t="n">
-        <v>0.29578</v>
+        <v>0.29473</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.306122</v>
+        <v>0.305847</v>
       </c>
       <c r="C40" t="n">
-        <v>0.304707</v>
+        <v>0.293794</v>
       </c>
       <c r="D40" t="n">
-        <v>0.295836</v>
+        <v>0.294464</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304947</v>
+        <v>0.304736</v>
       </c>
       <c r="C41" t="n">
-        <v>0.304927</v>
+        <v>0.306144</v>
       </c>
       <c r="D41" t="n">
-        <v>0.295449</v>
+        <v>0.296219</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.306851</v>
+        <v>0.307945</v>
       </c>
       <c r="C42" t="n">
-        <v>0.304576</v>
+        <v>0.294653</v>
       </c>
       <c r="D42" t="n">
-        <v>0.294485</v>
+        <v>0.295562</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.306864</v>
+        <v>0.30648</v>
       </c>
       <c r="C43" t="n">
-        <v>0.295556</v>
+        <v>0.30517</v>
       </c>
       <c r="D43" t="n">
-        <v>0.297428</v>
+        <v>0.29485</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.308137</v>
+        <v>0.308897</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3038</v>
+        <v>0.294209</v>
       </c>
       <c r="D44" t="n">
-        <v>0.295157</v>
+        <v>0.295342</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.313121</v>
+        <v>0.310464</v>
       </c>
       <c r="C45" t="n">
-        <v>0.30549</v>
+        <v>0.305375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2973</v>
+        <v>0.296194</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.311276</v>
+        <v>0.311905</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3057</v>
+        <v>0.306435</v>
       </c>
       <c r="D46" t="n">
-        <v>0.29779</v>
+        <v>0.297955</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.312709</v>
+        <v>0.313464</v>
       </c>
       <c r="C47" t="n">
-        <v>0.309294</v>
+        <v>0.296507</v>
       </c>
       <c r="D47" t="n">
-        <v>0.300559</v>
+        <v>0.298716</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.319156</v>
+        <v>0.316262</v>
       </c>
       <c r="C48" t="n">
-        <v>0.300804</v>
+        <v>0.299033</v>
       </c>
       <c r="D48" t="n">
-        <v>0.302451</v>
+        <v>0.300263</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.321309</v>
+        <v>0.320079</v>
       </c>
       <c r="C49" t="n">
-        <v>0.312002</v>
+        <v>0.313376</v>
       </c>
       <c r="D49" t="n">
-        <v>0.30444</v>
+        <v>0.305021</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.325674</v>
+        <v>0.326765</v>
       </c>
       <c r="C50" t="n">
-        <v>0.304756</v>
+        <v>0.315812</v>
       </c>
       <c r="D50" t="n">
-        <v>0.309613</v>
+        <v>0.311012</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.330325</v>
+        <v>0.332044</v>
       </c>
       <c r="C51" t="n">
-        <v>0.314924</v>
+        <v>0.319989</v>
       </c>
       <c r="D51" t="n">
-        <v>0.316863</v>
+        <v>0.32128</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.344385</v>
+        <v>0.342994</v>
       </c>
       <c r="C52" t="n">
-        <v>0.313799</v>
+        <v>0.327331</v>
       </c>
       <c r="D52" t="n">
-        <v>0.323114</v>
+        <v>0.323777</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329362</v>
+        <v>0.329793</v>
       </c>
       <c r="C53" t="n">
-        <v>0.320977</v>
+        <v>0.320522</v>
       </c>
       <c r="D53" t="n">
-        <v>0.323875</v>
+        <v>0.323947</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.330031</v>
+        <v>0.326024</v>
       </c>
       <c r="C54" t="n">
-        <v>0.32109</v>
+        <v>0.332213</v>
       </c>
       <c r="D54" t="n">
-        <v>0.323655</v>
+        <v>0.324276</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330606</v>
+        <v>0.331336</v>
       </c>
       <c r="C55" t="n">
-        <v>0.321006</v>
+        <v>0.331969</v>
       </c>
       <c r="D55" t="n">
-        <v>0.323744</v>
+        <v>0.323346</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330996</v>
+        <v>0.331718</v>
       </c>
       <c r="C56" t="n">
-        <v>0.332587</v>
+        <v>0.32111</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32506</v>
+        <v>0.323824</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.332529</v>
+        <v>0.333443</v>
       </c>
       <c r="C57" t="n">
-        <v>0.333652</v>
+        <v>0.332768</v>
       </c>
       <c r="D57" t="n">
-        <v>0.325474</v>
+        <v>0.324901</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.333964</v>
+        <v>0.333934</v>
       </c>
       <c r="C58" t="n">
-        <v>0.322077</v>
+        <v>0.321264</v>
       </c>
       <c r="D58" t="n">
-        <v>0.325006</v>
+        <v>0.325646</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.33677</v>
+        <v>0.334891</v>
       </c>
       <c r="C59" t="n">
-        <v>0.333582</v>
+        <v>0.322648</v>
       </c>
       <c r="D59" t="n">
-        <v>0.325501</v>
+        <v>0.326417</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.337454</v>
+        <v>0.336488</v>
       </c>
       <c r="C60" t="n">
-        <v>0.323069</v>
+        <v>0.323556</v>
       </c>
       <c r="D60" t="n">
-        <v>0.326728</v>
+        <v>0.327899</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.338799</v>
+        <v>0.339179</v>
       </c>
       <c r="C61" t="n">
-        <v>0.336509</v>
+        <v>0.324991</v>
       </c>
       <c r="D61" t="n">
-        <v>0.329145</v>
+        <v>0.329151</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.342818</v>
+        <v>0.341973</v>
       </c>
       <c r="C62" t="n">
-        <v>0.324808</v>
+        <v>0.337301</v>
       </c>
       <c r="D62" t="n">
-        <v>0.329794</v>
+        <v>0.330412</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.348033</v>
+        <v>0.345765</v>
       </c>
       <c r="C63" t="n">
-        <v>0.339062</v>
+        <v>0.339442</v>
       </c>
       <c r="D63" t="n">
-        <v>0.332756</v>
+        <v>0.333081</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.350029</v>
+        <v>0.35202</v>
       </c>
       <c r="C64" t="n">
-        <v>0.342198</v>
+        <v>0.332765</v>
       </c>
       <c r="D64" t="n">
-        <v>0.337457</v>
+        <v>0.33827</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.354844</v>
+        <v>0.357118</v>
       </c>
       <c r="C65" t="n">
-        <v>0.345974</v>
+        <v>0.334805</v>
       </c>
       <c r="D65" t="n">
-        <v>0.343978</v>
+        <v>0.343481</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.36569</v>
+        <v>0.365184</v>
       </c>
       <c r="C66" t="n">
-        <v>0.349252</v>
+        <v>0.340039</v>
       </c>
       <c r="D66" t="n">
-        <v>0.341347</v>
+        <v>0.341734</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347165</v>
+        <v>0.347693</v>
       </c>
       <c r="C67" t="n">
-        <v>0.339451</v>
+        <v>0.339161</v>
       </c>
       <c r="D67" t="n">
-        <v>0.342669</v>
+        <v>0.342874</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347313</v>
+        <v>0.348519</v>
       </c>
       <c r="C68" t="n">
-        <v>0.349329</v>
+        <v>0.338913</v>
       </c>
       <c r="D68" t="n">
-        <v>0.342702</v>
+        <v>0.342417</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.349024</v>
+        <v>0.348796</v>
       </c>
       <c r="C69" t="n">
-        <v>0.339341</v>
+        <v>0.339538</v>
       </c>
       <c r="D69" t="n">
-        <v>0.343057</v>
+        <v>0.343236</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.349394</v>
+        <v>0.349798</v>
       </c>
       <c r="C70" t="n">
-        <v>0.339728</v>
+        <v>0.339584</v>
       </c>
       <c r="D70" t="n">
-        <v>0.342881</v>
+        <v>0.343175</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.348827</v>
+        <v>0.351466</v>
       </c>
       <c r="C71" t="n">
-        <v>0.351337</v>
+        <v>0.351387</v>
       </c>
       <c r="D71" t="n">
-        <v>0.343647</v>
+        <v>0.343532</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.351815</v>
+        <v>0.352041</v>
       </c>
       <c r="C72" t="n">
-        <v>0.352036</v>
+        <v>0.34028</v>
       </c>
       <c r="D72" t="n">
-        <v>0.344225</v>
+        <v>0.344099</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.353167</v>
+        <v>0.353676</v>
       </c>
       <c r="C73" t="n">
-        <v>0.353427</v>
+        <v>0.352703</v>
       </c>
       <c r="D73" t="n">
-        <v>0.345365</v>
+        <v>0.34479</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.353616</v>
+        <v>0.355138</v>
       </c>
       <c r="C74" t="n">
-        <v>0.353283</v>
+        <v>0.341757</v>
       </c>
       <c r="D74" t="n">
-        <v>0.345498</v>
+        <v>0.345497</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.357641</v>
+        <v>0.357337</v>
       </c>
       <c r="C75" t="n">
-        <v>0.354766</v>
+        <v>0.354729</v>
       </c>
       <c r="D75" t="n">
-        <v>0.347059</v>
+        <v>0.347038</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.360851</v>
+        <v>0.359842</v>
       </c>
       <c r="C76" t="n">
-        <v>0.355595</v>
+        <v>0.355571</v>
       </c>
       <c r="D76" t="n">
-        <v>0.349247</v>
+        <v>0.348876</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.363694</v>
+        <v>0.3646</v>
       </c>
       <c r="C77" t="n">
-        <v>0.357771</v>
+        <v>0.35738</v>
       </c>
       <c r="D77" t="n">
-        <v>0.350699</v>
+        <v>0.351278</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.368571</v>
+        <v>0.368892</v>
       </c>
       <c r="C78" t="n">
-        <v>0.35968</v>
+        <v>0.359888</v>
       </c>
       <c r="D78" t="n">
-        <v>0.354683</v>
+        <v>0.354855</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.375499</v>
+        <v>0.374867</v>
       </c>
       <c r="C79" t="n">
-        <v>0.363769</v>
+        <v>0.363945</v>
       </c>
       <c r="D79" t="n">
-        <v>0.361375</v>
+        <v>0.360758</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.382418</v>
+        <v>0.382886</v>
       </c>
       <c r="C80" t="n">
-        <v>0.357121</v>
+        <v>0.357333</v>
       </c>
       <c r="D80" t="n">
-        <v>0.359811</v>
+        <v>0.360117</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.370786</v>
+        <v>0.37436</v>
       </c>
       <c r="C81" t="n">
-        <v>0.362106</v>
+        <v>0.372405</v>
       </c>
       <c r="D81" t="n">
-        <v>0.361009</v>
+        <v>0.360969</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.371705</v>
+        <v>0.371116</v>
       </c>
       <c r="C82" t="n">
-        <v>0.362109</v>
+        <v>0.359857</v>
       </c>
       <c r="D82" t="n">
-        <v>0.360992</v>
+        <v>0.361579</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.375681</v>
+        <v>0.371022</v>
       </c>
       <c r="C83" t="n">
-        <v>0.361394</v>
+        <v>0.374156</v>
       </c>
       <c r="D83" t="n">
-        <v>0.36143</v>
+        <v>0.360681</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.375275</v>
+        <v>0.370843</v>
       </c>
       <c r="C84" t="n">
-        <v>0.372996</v>
+        <v>0.373476</v>
       </c>
       <c r="D84" t="n">
-        <v>0.360956</v>
+        <v>0.361681</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.37494</v>
+        <v>0.373268</v>
       </c>
       <c r="C85" t="n">
-        <v>0.368593</v>
+        <v>0.373577</v>
       </c>
       <c r="D85" t="n">
-        <v>0.364533</v>
+        <v>0.365274</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.375063</v>
+        <v>0.373157</v>
       </c>
       <c r="C86" t="n">
-        <v>0.375552</v>
+        <v>0.365702</v>
       </c>
       <c r="D86" t="n">
-        <v>0.362615</v>
+        <v>0.362004</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.37478</v>
+        <v>0.374796</v>
       </c>
       <c r="C87" t="n">
-        <v>0.364069</v>
+        <v>0.373857</v>
       </c>
       <c r="D87" t="n">
-        <v>0.362794</v>
+        <v>0.36276</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.377028</v>
+        <v>0.37723</v>
       </c>
       <c r="C88" t="n">
-        <v>0.378027</v>
+        <v>0.36527</v>
       </c>
       <c r="D88" t="n">
-        <v>0.36422</v>
+        <v>0.365531</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.379891</v>
+        <v>0.382662</v>
       </c>
       <c r="C89" t="n">
-        <v>0.364187</v>
+        <v>0.376078</v>
       </c>
       <c r="D89" t="n">
-        <v>0.365096</v>
+        <v>0.367561</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.386178</v>
+        <v>0.383955</v>
       </c>
       <c r="C90" t="n">
-        <v>0.368282</v>
+        <v>0.378153</v>
       </c>
       <c r="D90" t="n">
-        <v>0.366429</v>
+        <v>0.366841</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.394175</v>
+        <v>0.387368</v>
       </c>
       <c r="C91" t="n">
-        <v>0.370299</v>
+        <v>0.378946</v>
       </c>
       <c r="D91" t="n">
-        <v>0.372234</v>
+        <v>0.369836</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.388981</v>
+        <v>0.389905</v>
       </c>
       <c r="C92" t="n">
-        <v>0.384326</v>
+        <v>0.375804</v>
       </c>
       <c r="D92" t="n">
-        <v>0.375963</v>
+        <v>0.372752</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.398594</v>
+        <v>0.397388</v>
       </c>
       <c r="C93" t="n">
-        <v>0.372625</v>
+        <v>0.386152</v>
       </c>
       <c r="D93" t="n">
-        <v>0.378724</v>
+        <v>0.378613</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.405816</v>
+        <v>0.40663</v>
       </c>
       <c r="C94" t="n">
-        <v>0.391908</v>
+        <v>0.37952</v>
       </c>
       <c r="D94" t="n">
-        <v>0.531092</v>
+        <v>0.537289</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.587687</v>
+        <v>0.589699</v>
       </c>
       <c r="C95" t="n">
-        <v>0.571153</v>
+        <v>0.575178</v>
       </c>
       <c r="D95" t="n">
-        <v>0.535986</v>
+        <v>0.53586</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.584587</v>
+        <v>0.58329</v>
       </c>
       <c r="C96" t="n">
-        <v>0.547883</v>
+        <v>0.573662</v>
       </c>
       <c r="D96" t="n">
-        <v>0.536043</v>
+        <v>0.530474</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.582912</v>
+        <v>0.593492</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5785130000000001</v>
+        <v>0.545879</v>
       </c>
       <c r="D97" t="n">
-        <v>0.535344</v>
+        <v>0.5272520000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.597272</v>
+        <v>0.587365</v>
       </c>
       <c r="C98" t="n">
-        <v>0.546814</v>
+        <v>0.573329</v>
       </c>
       <c r="D98" t="n">
-        <v>0.528699</v>
+        <v>0.522483</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.591813</v>
+        <v>0.590548</v>
       </c>
       <c r="C99" t="n">
-        <v>0.541942</v>
+        <v>0.570169</v>
       </c>
       <c r="D99" t="n">
-        <v>0.536685</v>
+        <v>0.537505</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.591022</v>
+        <v>0.593025</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5787870000000001</v>
+        <v>0.577963</v>
       </c>
       <c r="D100" t="n">
-        <v>0.537007</v>
+        <v>0.5289239999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.587957</v>
+        <v>0.59654</v>
       </c>
       <c r="C101" t="n">
-        <v>0.570648</v>
+        <v>0.569713</v>
       </c>
       <c r="D101" t="n">
-        <v>0.530003</v>
+        <v>0.539293</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.596575</v>
+        <v>0.585528</v>
       </c>
       <c r="C102" t="n">
-        <v>0.570242</v>
+        <v>0.549106</v>
       </c>
       <c r="D102" t="n">
-        <v>0.525147</v>
+        <v>0.526437</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.597235</v>
+        <v>0.588801</v>
       </c>
       <c r="C103" t="n">
-        <v>0.548767</v>
+        <v>0.571394</v>
       </c>
       <c r="D103" t="n">
-        <v>0.527328</v>
+        <v>0.52774</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.597707</v>
+        <v>0.594371</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5744899999999999</v>
+        <v>0.545396</v>
       </c>
       <c r="D104" t="n">
-        <v>0.534977</v>
+        <v>0.531798</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.595272</v>
+        <v>0.599654</v>
       </c>
       <c r="C105" t="n">
-        <v>0.54711</v>
+        <v>0.564889</v>
       </c>
       <c r="D105" t="n">
-        <v>0.533684</v>
+        <v>0.539068</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.601446</v>
+        <v>0.594094</v>
       </c>
       <c r="C106" t="n">
-        <v>0.566893</v>
+        <v>0.549755</v>
       </c>
       <c r="D106" t="n">
-        <v>0.541677</v>
+        <v>0.526713</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.606486</v>
+        <v>0.599656</v>
       </c>
       <c r="C107" t="n">
-        <v>0.580572</v>
+        <v>0.573546</v>
       </c>
       <c r="D107" t="n">
-        <v>0.537923</v>
+        <v>0.535621</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.613487</v>
+        <v>0.614213</v>
       </c>
       <c r="C108" t="n">
-        <v>0.584</v>
+        <v>0.571389</v>
       </c>
       <c r="D108" t="n">
-        <v>0.995293</v>
+        <v>0.988444</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6209750000000001</v>
+        <v>0.626373</v>
       </c>
       <c r="C109" t="n">
-        <v>0.562304</v>
+        <v>0.558041</v>
       </c>
       <c r="D109" t="n">
-        <v>0.995032</v>
+        <v>0.987617</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05423</v>
+        <v>1.04698</v>
       </c>
       <c r="C110" t="n">
-        <v>0.909278</v>
+        <v>0.879383</v>
       </c>
       <c r="D110" t="n">
-        <v>0.992893</v>
+        <v>0.985314</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05492</v>
+        <v>1.04805</v>
       </c>
       <c r="C111" t="n">
-        <v>0.880865</v>
+        <v>0.878506</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9929</v>
+        <v>0.985295</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05612</v>
+        <v>1.04914</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01893</v>
+        <v>0.878196</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9936970000000001</v>
+        <v>0.987201</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05611</v>
+        <v>1.04602</v>
       </c>
       <c r="C113" t="n">
-        <v>1.00877</v>
+        <v>0.875878</v>
       </c>
       <c r="D113" t="n">
-        <v>0.991326</v>
+        <v>0.984938</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05579</v>
+        <v>1.04913</v>
       </c>
       <c r="C114" t="n">
-        <v>0.884148</v>
+        <v>0.877958</v>
       </c>
       <c r="D114" t="n">
-        <v>0.991734</v>
+        <v>0.985409</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05534</v>
+        <v>1.04897</v>
       </c>
       <c r="C115" t="n">
-        <v>1.02095</v>
+        <v>1.01135</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9913650000000001</v>
+        <v>0.9844079999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05744</v>
+        <v>1.04789</v>
       </c>
       <c r="C116" t="n">
-        <v>0.884511</v>
+        <v>0.875284</v>
       </c>
       <c r="D116" t="n">
-        <v>0.992785</v>
+        <v>0.984219</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05974</v>
+        <v>1.05118</v>
       </c>
       <c r="C117" t="n">
-        <v>0.886306</v>
+        <v>1.01336</v>
       </c>
       <c r="D117" t="n">
-        <v>0.99072</v>
+        <v>0.985111</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05921</v>
+        <v>1.0515</v>
       </c>
       <c r="C118" t="n">
-        <v>0.886498</v>
+        <v>0.880501</v>
       </c>
       <c r="D118" t="n">
-        <v>0.992386</v>
+        <v>0.984633</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05826</v>
+        <v>1.0527</v>
       </c>
       <c r="C119" t="n">
-        <v>0.884243</v>
+        <v>0.881976</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9907280000000001</v>
+        <v>0.985574</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06173</v>
+        <v>1.0601</v>
       </c>
       <c r="C120" t="n">
-        <v>0.984818</v>
+        <v>0.979385</v>
       </c>
       <c r="D120" t="n">
-        <v>0.991144</v>
+        <v>0.987031</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06524</v>
+        <v>1.05601</v>
       </c>
       <c r="C121" t="n">
-        <v>0.893208</v>
+        <v>0.992692</v>
       </c>
       <c r="D121" t="n">
-        <v>0.993249</v>
+        <v>0.98942</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06775</v>
+        <v>1.06261</v>
       </c>
       <c r="C122" t="n">
-        <v>0.896916</v>
+        <v>0.893946</v>
       </c>
       <c r="D122" t="n">
-        <v>0.996343</v>
+        <v>0.992918</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07354</v>
+        <v>1.06643</v>
       </c>
       <c r="C123" t="n">
-        <v>0.905686</v>
+        <v>1.01613</v>
       </c>
       <c r="D123" t="n">
-        <v>1.31158</v>
+        <v>1.2992</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.30994</v>
+        <v>1.31136</v>
       </c>
       <c r="C124" t="n">
-        <v>1.15389</v>
+        <v>1.14034</v>
       </c>
       <c r="D124" t="n">
-        <v>1.31078</v>
+        <v>1.29762</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31745</v>
+        <v>1.32776</v>
       </c>
       <c r="C125" t="n">
-        <v>1.31479</v>
+        <v>1.14582</v>
       </c>
       <c r="D125" t="n">
-        <v>1.3132</v>
+        <v>1.30141</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.31673</v>
+        <v>1.30535</v>
       </c>
       <c r="C126" t="n">
-        <v>1.15588</v>
+        <v>1.2031</v>
       </c>
       <c r="D126" t="n">
-        <v>1.30813</v>
+        <v>1.30157</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32347</v>
+        <v>1.31608</v>
       </c>
       <c r="C127" t="n">
-        <v>1.17741</v>
+        <v>1.14608</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30782</v>
+        <v>1.30035</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31993</v>
+        <v>1.31651</v>
       </c>
       <c r="C128" t="n">
-        <v>1.15412</v>
+        <v>1.14896</v>
       </c>
       <c r="D128" t="n">
-        <v>1.31056</v>
+        <v>1.30016</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.32045</v>
+        <v>1.32076</v>
       </c>
       <c r="C129" t="n">
-        <v>1.15573</v>
+        <v>1.18471</v>
       </c>
       <c r="D129" t="n">
-        <v>1.31011</v>
+        <v>1.3016</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.33417</v>
+        <v>1.32039</v>
       </c>
       <c r="C130" t="n">
-        <v>1.15637</v>
+        <v>1.14808</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3097</v>
+        <v>1.29742</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3164</v>
+        <v>1.32132</v>
       </c>
       <c r="C131" t="n">
-        <v>1.158</v>
+        <v>1.15031</v>
       </c>
       <c r="D131" t="n">
-        <v>1.31129</v>
+        <v>1.30028</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.3309</v>
+        <v>1.32565</v>
       </c>
       <c r="C132" t="n">
-        <v>1.24958</v>
+        <v>1.15235</v>
       </c>
       <c r="D132" t="n">
-        <v>1.31151</v>
+        <v>1.30515</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.31794</v>
+        <v>1.33111</v>
       </c>
       <c r="C133" t="n">
-        <v>1.32284</v>
+        <v>1.31459</v>
       </c>
       <c r="D133" t="n">
-        <v>1.31436</v>
+        <v>1.3053</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.32723</v>
+        <v>1.32032</v>
       </c>
       <c r="C134" t="n">
-        <v>1.27646</v>
+        <v>1.15865</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31749</v>
+        <v>1.30552</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.3519</v>
+        <v>1.317</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28513</v>
+        <v>1.3186</v>
       </c>
       <c r="D135" t="n">
-        <v>1.31924</v>
+        <v>1.31037</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.33908</v>
+        <v>1.31632</v>
       </c>
       <c r="C136" t="n">
-        <v>1.3355</v>
+        <v>1.17286</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32472</v>
+        <v>1.31326</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35238</v>
+        <v>1.33526</v>
       </c>
       <c r="C137" t="n">
-        <v>1.34361</v>
+        <v>1.26367</v>
       </c>
       <c r="D137" t="n">
-        <v>1.44151</v>
+        <v>1.41189</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.44453</v>
+        <v>1.42392</v>
       </c>
       <c r="C138" t="n">
-        <v>1.42241</v>
+        <v>1.37428</v>
       </c>
       <c r="D138" t="n">
-        <v>1.42967</v>
+        <v>1.41502</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.44724</v>
+        <v>1.42407</v>
       </c>
       <c r="C139" t="n">
-        <v>1.38941</v>
+        <v>1.37276</v>
       </c>
       <c r="D139" t="n">
-        <v>1.4383</v>
+        <v>1.4136</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.44438</v>
+        <v>1.4255</v>
       </c>
       <c r="C140" t="n">
-        <v>1.43838</v>
+        <v>1.3751</v>
       </c>
       <c r="D140" t="n">
-        <v>1.43729</v>
+        <v>1.42605</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.44745</v>
+        <v>1.43116</v>
       </c>
       <c r="C141" t="n">
-        <v>1.38757</v>
+        <v>1.40561</v>
       </c>
       <c r="D141" t="n">
-        <v>1.43591</v>
+        <v>1.4168</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.44683</v>
+        <v>1.43058</v>
       </c>
       <c r="C142" t="n">
-        <v>1.4406</v>
+        <v>1.40588</v>
       </c>
       <c r="D142" t="n">
-        <v>1.44791</v>
+        <v>1.41217</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.44785</v>
+        <v>1.43444</v>
       </c>
       <c r="C143" t="n">
-        <v>1.45599</v>
+        <v>1.37935</v>
       </c>
       <c r="D143" t="n">
-        <v>1.43263</v>
+        <v>1.41239</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.255805</v>
+        <v>0.256075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239049</v>
+        <v>0.238454</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247994</v>
+        <v>0.248221</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256529</v>
+        <v>0.256267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239063</v>
+        <v>0.238617</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248363</v>
+        <v>0.248655</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258579</v>
+        <v>0.258002</v>
       </c>
       <c r="C4" t="n">
-        <v>0.240015</v>
+        <v>0.239518</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249559</v>
+        <v>0.249866</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260767</v>
+        <v>0.260339</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240946</v>
+        <v>0.240366</v>
       </c>
       <c r="D5" t="n">
-        <v>0.250756</v>
+        <v>0.251004</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262884</v>
+        <v>0.26241</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2415</v>
+        <v>0.24083</v>
       </c>
       <c r="D6" t="n">
-        <v>0.251588</v>
+        <v>0.25173</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.266496</v>
+        <v>0.266258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.242533</v>
+        <v>0.241775</v>
       </c>
       <c r="D7" t="n">
-        <v>0.253898</v>
+        <v>0.253961</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.271737</v>
+        <v>0.272133</v>
       </c>
       <c r="C8" t="n">
-        <v>0.244961</v>
+        <v>0.243987</v>
       </c>
       <c r="D8" t="n">
-        <v>0.258051</v>
+        <v>0.25803</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.280471</v>
+        <v>0.280885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.249086</v>
+        <v>0.248559</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251238</v>
+        <v>0.252946</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.256459</v>
+        <v>0.254484</v>
       </c>
       <c r="C10" t="n">
-        <v>0.24202</v>
+        <v>0.241665</v>
       </c>
       <c r="D10" t="n">
-        <v>0.250469</v>
+        <v>0.250522</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255734</v>
+        <v>0.256497</v>
       </c>
       <c r="C11" t="n">
-        <v>0.241931</v>
+        <v>0.242226</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2501</v>
+        <v>0.25058</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.256273</v>
+        <v>0.257221</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242629</v>
+        <v>0.244177</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250695</v>
+        <v>0.251517</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.257592</v>
+        <v>0.256615</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242867</v>
+        <v>0.24258</v>
       </c>
       <c r="D13" t="n">
-        <v>0.250677</v>
+        <v>0.250691</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.258095</v>
+        <v>0.258673</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243057</v>
+        <v>0.242553</v>
       </c>
       <c r="D14" t="n">
-        <v>0.251007</v>
+        <v>0.250992</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.259358</v>
+        <v>0.25889</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2436</v>
+        <v>0.243927</v>
       </c>
       <c r="D15" t="n">
-        <v>0.251504</v>
+        <v>0.25215</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260515</v>
+        <v>0.263819</v>
       </c>
       <c r="C16" t="n">
-        <v>0.244088</v>
+        <v>0.244447</v>
       </c>
       <c r="D16" t="n">
-        <v>0.252068</v>
+        <v>0.25293</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.26204</v>
+        <v>0.261565</v>
       </c>
       <c r="C17" t="n">
-        <v>0.244792</v>
+        <v>0.244306</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252701</v>
+        <v>0.252955</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.265573</v>
+        <v>0.263582</v>
       </c>
       <c r="C18" t="n">
-        <v>0.245419</v>
+        <v>0.244987</v>
       </c>
       <c r="D18" t="n">
-        <v>0.253561</v>
+        <v>0.253699</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2662</v>
+        <v>0.266829</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247506</v>
+        <v>0.246882</v>
       </c>
       <c r="D19" t="n">
-        <v>0.255631</v>
+        <v>0.255173</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269258</v>
+        <v>0.269376</v>
       </c>
       <c r="C20" t="n">
-        <v>0.247585</v>
+        <v>0.247644</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25645</v>
+        <v>0.257266</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.274383</v>
+        <v>0.27421</v>
       </c>
       <c r="C21" t="n">
-        <v>0.24915</v>
+        <v>0.250149</v>
       </c>
       <c r="D21" t="n">
-        <v>0.258945</v>
+        <v>0.259659</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.280771</v>
+        <v>0.280482</v>
       </c>
       <c r="C22" t="n">
-        <v>0.252131</v>
+        <v>0.251702</v>
       </c>
       <c r="D22" t="n">
-        <v>0.263686</v>
+        <v>0.263915</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289946</v>
+        <v>0.291637</v>
       </c>
       <c r="C23" t="n">
-        <v>0.256704</v>
+        <v>0.256754</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266201</v>
+        <v>0.267497</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.274325</v>
+        <v>0.273544</v>
       </c>
       <c r="C24" t="n">
-        <v>0.27197</v>
+        <v>0.262418</v>
       </c>
       <c r="D24" t="n">
-        <v>0.264491</v>
+        <v>0.268972</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.274489</v>
+        <v>0.272446</v>
       </c>
       <c r="C25" t="n">
-        <v>0.262505</v>
+        <v>0.261922</v>
       </c>
       <c r="D25" t="n">
-        <v>0.263942</v>
+        <v>0.26923</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.276857</v>
+        <v>0.273287</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271436</v>
+        <v>0.261528</v>
       </c>
       <c r="D26" t="n">
-        <v>0.265395</v>
+        <v>0.265938</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276944</v>
+        <v>0.273645</v>
       </c>
       <c r="C27" t="n">
-        <v>0.263402</v>
+        <v>0.262839</v>
       </c>
       <c r="D27" t="n">
-        <v>0.26571</v>
+        <v>0.266517</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.278605</v>
+        <v>0.274646</v>
       </c>
       <c r="C28" t="n">
-        <v>0.264824</v>
+        <v>0.262882</v>
       </c>
       <c r="D28" t="n">
-        <v>0.266277</v>
+        <v>0.264783</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.278911</v>
+        <v>0.275324</v>
       </c>
       <c r="C29" t="n">
-        <v>0.27488</v>
+        <v>0.261758</v>
       </c>
       <c r="D29" t="n">
-        <v>0.264983</v>
+        <v>0.264306</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.278905</v>
+        <v>0.276608</v>
       </c>
       <c r="C30" t="n">
-        <v>0.275114</v>
+        <v>0.261854</v>
       </c>
       <c r="D30" t="n">
-        <v>0.267914</v>
+        <v>0.265201</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.281072</v>
+        <v>0.278288</v>
       </c>
       <c r="C31" t="n">
-        <v>0.276353</v>
+        <v>0.263855</v>
       </c>
       <c r="D31" t="n">
-        <v>0.269036</v>
+        <v>0.266261</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.282675</v>
+        <v>0.280689</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266589</v>
+        <v>0.264774</v>
       </c>
       <c r="D32" t="n">
-        <v>0.270979</v>
+        <v>0.268794</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.28537</v>
+        <v>0.282788</v>
       </c>
       <c r="C33" t="n">
-        <v>0.269086</v>
+        <v>0.267465</v>
       </c>
       <c r="D33" t="n">
-        <v>0.272503</v>
+        <v>0.271626</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.287557</v>
+        <v>0.2863</v>
       </c>
       <c r="C34" t="n">
-        <v>0.267475</v>
+        <v>0.26924</v>
       </c>
       <c r="D34" t="n">
-        <v>0.272159</v>
+        <v>0.274082</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.291795</v>
+        <v>0.292049</v>
       </c>
       <c r="C35" t="n">
-        <v>0.269655</v>
+        <v>0.270608</v>
       </c>
       <c r="D35" t="n">
-        <v>0.276416</v>
+        <v>0.277854</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297453</v>
+        <v>0.297913</v>
       </c>
       <c r="C36" t="n">
-        <v>0.278283</v>
+        <v>0.273757</v>
       </c>
       <c r="D36" t="n">
-        <v>0.281569</v>
+        <v>0.284001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.30541</v>
+        <v>0.306891</v>
       </c>
       <c r="C37" t="n">
-        <v>0.278451</v>
+        <v>0.280104</v>
       </c>
       <c r="D37" t="n">
-        <v>0.296112</v>
+        <v>0.295209</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.302507</v>
+        <v>0.301453</v>
       </c>
       <c r="C38" t="n">
-        <v>0.293763</v>
+        <v>0.292171</v>
       </c>
       <c r="D38" t="n">
-        <v>0.294086</v>
+        <v>0.292949</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.303469</v>
+        <v>0.30282</v>
       </c>
       <c r="C39" t="n">
-        <v>0.30539</v>
+        <v>0.294252</v>
       </c>
       <c r="D39" t="n">
-        <v>0.29473</v>
+        <v>0.296529</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.305847</v>
+        <v>0.303003</v>
       </c>
       <c r="C40" t="n">
-        <v>0.293794</v>
+        <v>0.294369</v>
       </c>
       <c r="D40" t="n">
-        <v>0.294464</v>
+        <v>0.294893</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304736</v>
+        <v>0.302582</v>
       </c>
       <c r="C41" t="n">
-        <v>0.306144</v>
+        <v>0.293981</v>
       </c>
       <c r="D41" t="n">
-        <v>0.296219</v>
+        <v>0.29459</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.307945</v>
+        <v>0.305669</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294653</v>
+        <v>0.294001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.295562</v>
+        <v>0.295859</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.30648</v>
+        <v>0.30682</v>
       </c>
       <c r="C43" t="n">
-        <v>0.30517</v>
+        <v>0.293513</v>
       </c>
       <c r="D43" t="n">
-        <v>0.29485</v>
+        <v>0.296887</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.308897</v>
+        <v>0.306186</v>
       </c>
       <c r="C44" t="n">
-        <v>0.294209</v>
+        <v>0.295278</v>
       </c>
       <c r="D44" t="n">
-        <v>0.295342</v>
+        <v>0.295683</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.310464</v>
+        <v>0.307452</v>
       </c>
       <c r="C45" t="n">
-        <v>0.305375</v>
+        <v>0.296217</v>
       </c>
       <c r="D45" t="n">
-        <v>0.296194</v>
+        <v>0.297125</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.311905</v>
+        <v>0.309844</v>
       </c>
       <c r="C46" t="n">
-        <v>0.306435</v>
+        <v>0.294646</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297955</v>
+        <v>0.297295</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.313464</v>
+        <v>0.312332</v>
       </c>
       <c r="C47" t="n">
-        <v>0.296507</v>
+        <v>0.295399</v>
       </c>
       <c r="D47" t="n">
-        <v>0.298716</v>
+        <v>0.299675</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.316262</v>
+        <v>0.316438</v>
       </c>
       <c r="C48" t="n">
-        <v>0.299033</v>
+        <v>0.2999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.300263</v>
+        <v>0.300752</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.320079</v>
+        <v>0.319902</v>
       </c>
       <c r="C49" t="n">
-        <v>0.313376</v>
+        <v>0.300471</v>
       </c>
       <c r="D49" t="n">
-        <v>0.305021</v>
+        <v>0.306584</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.326765</v>
+        <v>0.325332</v>
       </c>
       <c r="C50" t="n">
-        <v>0.315812</v>
+        <v>0.302902</v>
       </c>
       <c r="D50" t="n">
-        <v>0.311012</v>
+        <v>0.309205</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.332044</v>
+        <v>0.331784</v>
       </c>
       <c r="C51" t="n">
-        <v>0.319989</v>
+        <v>0.307676</v>
       </c>
       <c r="D51" t="n">
-        <v>0.32128</v>
+        <v>0.317866</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.342994</v>
+        <v>0.338258</v>
       </c>
       <c r="C52" t="n">
-        <v>0.327331</v>
+        <v>0.314168</v>
       </c>
       <c r="D52" t="n">
-        <v>0.323777</v>
+        <v>0.324378</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329793</v>
+        <v>0.329681</v>
       </c>
       <c r="C53" t="n">
-        <v>0.320522</v>
+        <v>0.320194</v>
       </c>
       <c r="D53" t="n">
-        <v>0.323947</v>
+        <v>0.324017</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.326024</v>
+        <v>0.329907</v>
       </c>
       <c r="C54" t="n">
-        <v>0.332213</v>
+        <v>0.320564</v>
       </c>
       <c r="D54" t="n">
-        <v>0.324276</v>
+        <v>0.324227</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.331336</v>
+        <v>0.330357</v>
       </c>
       <c r="C55" t="n">
-        <v>0.331969</v>
+        <v>0.320912</v>
       </c>
       <c r="D55" t="n">
-        <v>0.323346</v>
+        <v>0.324232</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331718</v>
+        <v>0.330439</v>
       </c>
       <c r="C56" t="n">
-        <v>0.32111</v>
+        <v>0.321429</v>
       </c>
       <c r="D56" t="n">
-        <v>0.323824</v>
+        <v>0.324886</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.333443</v>
+        <v>0.331958</v>
       </c>
       <c r="C57" t="n">
-        <v>0.332768</v>
+        <v>0.320456</v>
       </c>
       <c r="D57" t="n">
-        <v>0.324901</v>
+        <v>0.325326</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.333934</v>
+        <v>0.33237</v>
       </c>
       <c r="C58" t="n">
-        <v>0.321264</v>
+        <v>0.320313</v>
       </c>
       <c r="D58" t="n">
-        <v>0.325646</v>
+        <v>0.326052</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.334891</v>
+        <v>0.333385</v>
       </c>
       <c r="C59" t="n">
-        <v>0.322648</v>
+        <v>0.321741</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326417</v>
+        <v>0.325791</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.336488</v>
+        <v>0.335917</v>
       </c>
       <c r="C60" t="n">
-        <v>0.323556</v>
+        <v>0.322004</v>
       </c>
       <c r="D60" t="n">
-        <v>0.327899</v>
+        <v>0.327027</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.339179</v>
+        <v>0.338506</v>
       </c>
       <c r="C61" t="n">
-        <v>0.324991</v>
+        <v>0.323563</v>
       </c>
       <c r="D61" t="n">
-        <v>0.329151</v>
+        <v>0.328649</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.341973</v>
+        <v>0.341308</v>
       </c>
       <c r="C62" t="n">
-        <v>0.337301</v>
+        <v>0.325676</v>
       </c>
       <c r="D62" t="n">
-        <v>0.330412</v>
+        <v>0.330188</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.345765</v>
+        <v>0.345741</v>
       </c>
       <c r="C63" t="n">
-        <v>0.339442</v>
+        <v>0.326593</v>
       </c>
       <c r="D63" t="n">
-        <v>0.333081</v>
+        <v>0.333058</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.35202</v>
+        <v>0.349418</v>
       </c>
       <c r="C64" t="n">
-        <v>0.332765</v>
+        <v>0.329324</v>
       </c>
       <c r="D64" t="n">
-        <v>0.33827</v>
+        <v>0.336215</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.357118</v>
+        <v>0.356448</v>
       </c>
       <c r="C65" t="n">
-        <v>0.334805</v>
+        <v>0.333016</v>
       </c>
       <c r="D65" t="n">
-        <v>0.343481</v>
+        <v>0.34301</v>
       </c>
     </row>
     <row r="66">
@@ -4144,10 +4144,10 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.365184</v>
+        <v>0.365357</v>
       </c>
       <c r="C66" t="n">
-        <v>0.340039</v>
+        <v>0.339062</v>
       </c>
       <c r="D66" t="n">
         <v>0.341734</v>
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347693</v>
+        <v>0.346426</v>
       </c>
       <c r="C67" t="n">
-        <v>0.339161</v>
+        <v>0.337995</v>
       </c>
       <c r="D67" t="n">
-        <v>0.342874</v>
+        <v>0.341714</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.348519</v>
+        <v>0.347136</v>
       </c>
       <c r="C68" t="n">
-        <v>0.338913</v>
+        <v>0.338616</v>
       </c>
       <c r="D68" t="n">
-        <v>0.342417</v>
+        <v>0.340464</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.348796</v>
+        <v>0.347916</v>
       </c>
       <c r="C69" t="n">
-        <v>0.339538</v>
+        <v>0.338497</v>
       </c>
       <c r="D69" t="n">
-        <v>0.343236</v>
+        <v>0.342491</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.349798</v>
+        <v>0.349705</v>
       </c>
       <c r="C70" t="n">
-        <v>0.339584</v>
+        <v>0.339602</v>
       </c>
       <c r="D70" t="n">
-        <v>0.343175</v>
+        <v>0.343611</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.351466</v>
+        <v>0.350373</v>
       </c>
       <c r="C71" t="n">
-        <v>0.351387</v>
+        <v>0.339669</v>
       </c>
       <c r="D71" t="n">
-        <v>0.343532</v>
+        <v>0.343827</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.352041</v>
+        <v>0.3518</v>
       </c>
       <c r="C72" t="n">
-        <v>0.34028</v>
+        <v>0.33961</v>
       </c>
       <c r="D72" t="n">
-        <v>0.344099</v>
+        <v>0.344366</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.353676</v>
+        <v>0.35284</v>
       </c>
       <c r="C73" t="n">
-        <v>0.352703</v>
+        <v>0.340759</v>
       </c>
       <c r="D73" t="n">
-        <v>0.34479</v>
+        <v>0.344679</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.355138</v>
+        <v>0.354892</v>
       </c>
       <c r="C74" t="n">
-        <v>0.341757</v>
+        <v>0.341544</v>
       </c>
       <c r="D74" t="n">
-        <v>0.345497</v>
+        <v>0.34573</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.357337</v>
+        <v>0.355279</v>
       </c>
       <c r="C75" t="n">
-        <v>0.354729</v>
+        <v>0.341872</v>
       </c>
       <c r="D75" t="n">
-        <v>0.347038</v>
+        <v>0.346507</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.359842</v>
+        <v>0.359951</v>
       </c>
       <c r="C76" t="n">
-        <v>0.355571</v>
+        <v>0.343643</v>
       </c>
       <c r="D76" t="n">
-        <v>0.348876</v>
+        <v>0.348892</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3646</v>
+        <v>0.362755</v>
       </c>
       <c r="C77" t="n">
-        <v>0.35738</v>
+        <v>0.345062</v>
       </c>
       <c r="D77" t="n">
-        <v>0.351278</v>
+        <v>0.351519</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.368892</v>
+        <v>0.368046</v>
       </c>
       <c r="C78" t="n">
-        <v>0.359888</v>
+        <v>0.347661</v>
       </c>
       <c r="D78" t="n">
-        <v>0.354855</v>
+        <v>0.355644</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.374867</v>
+        <v>0.374661</v>
       </c>
       <c r="C79" t="n">
-        <v>0.363945</v>
+        <v>0.351554</v>
       </c>
       <c r="D79" t="n">
-        <v>0.360758</v>
+        <v>0.360738</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.382886</v>
+        <v>0.382497</v>
       </c>
       <c r="C80" t="n">
-        <v>0.357333</v>
+        <v>0.355418</v>
       </c>
       <c r="D80" t="n">
-        <v>0.360117</v>
+        <v>0.360524</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.37436</v>
+        <v>0.372089</v>
       </c>
       <c r="C81" t="n">
-        <v>0.372405</v>
+        <v>0.362863</v>
       </c>
       <c r="D81" t="n">
-        <v>0.360969</v>
+        <v>0.360163</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.371116</v>
+        <v>0.372577</v>
       </c>
       <c r="C82" t="n">
-        <v>0.359857</v>
+        <v>0.363711</v>
       </c>
       <c r="D82" t="n">
-        <v>0.361579</v>
+        <v>0.361675</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.371022</v>
+        <v>0.371708</v>
       </c>
       <c r="C83" t="n">
-        <v>0.374156</v>
+        <v>0.362703</v>
       </c>
       <c r="D83" t="n">
-        <v>0.360681</v>
+        <v>0.360401</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.370843</v>
+        <v>0.372583</v>
       </c>
       <c r="C84" t="n">
-        <v>0.373476</v>
+        <v>0.360704</v>
       </c>
       <c r="D84" t="n">
-        <v>0.361681</v>
+        <v>0.361439</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.373268</v>
+        <v>0.372653</v>
       </c>
       <c r="C85" t="n">
-        <v>0.373577</v>
+        <v>0.362638</v>
       </c>
       <c r="D85" t="n">
-        <v>0.365274</v>
+        <v>0.365472</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.373157</v>
+        <v>0.378602</v>
       </c>
       <c r="C86" t="n">
-        <v>0.365702</v>
+        <v>0.363718</v>
       </c>
       <c r="D86" t="n">
-        <v>0.362004</v>
+        <v>0.365713</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.374796</v>
+        <v>0.379301</v>
       </c>
       <c r="C87" t="n">
-        <v>0.373857</v>
+        <v>0.366685</v>
       </c>
       <c r="D87" t="n">
-        <v>0.36276</v>
+        <v>0.367511</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.37723</v>
+        <v>0.380677</v>
       </c>
       <c r="C88" t="n">
-        <v>0.36527</v>
+        <v>0.361978</v>
       </c>
       <c r="D88" t="n">
-        <v>0.365531</v>
+        <v>0.363965</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.382662</v>
+        <v>0.377797</v>
       </c>
       <c r="C89" t="n">
-        <v>0.376078</v>
+        <v>0.362791</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367561</v>
+        <v>0.365115</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.383955</v>
+        <v>0.382492</v>
       </c>
       <c r="C90" t="n">
-        <v>0.378153</v>
+        <v>0.363915</v>
       </c>
       <c r="D90" t="n">
-        <v>0.366841</v>
+        <v>0.367483</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.387368</v>
+        <v>0.388146</v>
       </c>
       <c r="C91" t="n">
-        <v>0.378946</v>
+        <v>0.366119</v>
       </c>
       <c r="D91" t="n">
-        <v>0.369836</v>
+        <v>0.370691</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.389905</v>
+        <v>0.389735</v>
       </c>
       <c r="C92" t="n">
-        <v>0.375804</v>
+        <v>0.370293</v>
       </c>
       <c r="D92" t="n">
-        <v>0.372752</v>
+        <v>0.37317</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.397388</v>
+        <v>0.397166</v>
       </c>
       <c r="C93" t="n">
-        <v>0.386152</v>
+        <v>0.373217</v>
       </c>
       <c r="D93" t="n">
-        <v>0.378613</v>
+        <v>0.378141</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.40663</v>
+        <v>0.404182</v>
       </c>
       <c r="C94" t="n">
-        <v>0.37952</v>
+        <v>0.376115</v>
       </c>
       <c r="D94" t="n">
-        <v>0.537289</v>
+        <v>0.532821</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.589699</v>
+        <v>0.5874819999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.575178</v>
+        <v>0.5413019999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.53586</v>
+        <v>0.540977</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.58329</v>
+        <v>0.5862579999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.573662</v>
+        <v>0.5493130000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.530474</v>
+        <v>0.5310510000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.593492</v>
+        <v>0.59315</v>
       </c>
       <c r="C97" t="n">
-        <v>0.545879</v>
+        <v>0.54843</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5272520000000001</v>
+        <v>0.534893</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.587365</v>
+        <v>0.58893</v>
       </c>
       <c r="C98" t="n">
-        <v>0.573329</v>
+        <v>0.545632</v>
       </c>
       <c r="D98" t="n">
-        <v>0.522483</v>
+        <v>0.529216</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.590548</v>
+        <v>0.589074</v>
       </c>
       <c r="C99" t="n">
-        <v>0.570169</v>
+        <v>0.547756</v>
       </c>
       <c r="D99" t="n">
-        <v>0.537505</v>
+        <v>0.528263</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.593025</v>
+        <v>0.592535</v>
       </c>
       <c r="C100" t="n">
-        <v>0.577963</v>
+        <v>0.543467</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5289239999999999</v>
+        <v>0.534405</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.59654</v>
+        <v>0.590764</v>
       </c>
       <c r="C101" t="n">
-        <v>0.569713</v>
+        <v>0.552589</v>
       </c>
       <c r="D101" t="n">
-        <v>0.539293</v>
+        <v>0.530706</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.585528</v>
+        <v>0.607834</v>
       </c>
       <c r="C102" t="n">
-        <v>0.549106</v>
+        <v>0.547484</v>
       </c>
       <c r="D102" t="n">
-        <v>0.526437</v>
+        <v>0.5427110000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.588801</v>
+        <v>0.591188</v>
       </c>
       <c r="C103" t="n">
-        <v>0.571394</v>
+        <v>0.552046</v>
       </c>
       <c r="D103" t="n">
-        <v>0.52774</v>
+        <v>0.531729</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.594371</v>
+        <v>0.6095660000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.545396</v>
+        <v>0.544988</v>
       </c>
       <c r="D104" t="n">
-        <v>0.531798</v>
+        <v>0.542058</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.599654</v>
+        <v>0.597805</v>
       </c>
       <c r="C105" t="n">
-        <v>0.564889</v>
+        <v>0.555241</v>
       </c>
       <c r="D105" t="n">
-        <v>0.539068</v>
+        <v>0.531404</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.594094</v>
+        <v>0.6023579999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.549755</v>
+        <v>0.550893</v>
       </c>
       <c r="D106" t="n">
-        <v>0.526713</v>
+        <v>0.544089</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.599656</v>
+        <v>0.609818</v>
       </c>
       <c r="C107" t="n">
-        <v>0.573546</v>
+        <v>0.552486</v>
       </c>
       <c r="D107" t="n">
-        <v>0.535621</v>
+        <v>0.55103</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.614213</v>
+        <v>0.606189</v>
       </c>
       <c r="C108" t="n">
-        <v>0.571389</v>
+        <v>0.552519</v>
       </c>
       <c r="D108" t="n">
-        <v>0.988444</v>
+        <v>0.9912069999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.626373</v>
+        <v>0.6192800000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.558041</v>
+        <v>0.561956</v>
       </c>
       <c r="D109" t="n">
-        <v>0.987617</v>
+        <v>0.989505</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.04698</v>
+        <v>1.05029</v>
       </c>
       <c r="C110" t="n">
-        <v>0.879383</v>
+        <v>0.877865</v>
       </c>
       <c r="D110" t="n">
-        <v>0.985314</v>
+        <v>0.991156</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.04805</v>
+        <v>1.05103</v>
       </c>
       <c r="C111" t="n">
-        <v>0.878506</v>
+        <v>0.877896</v>
       </c>
       <c r="D111" t="n">
-        <v>0.985295</v>
+        <v>0.9903920000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.04914</v>
+        <v>1.0511</v>
       </c>
       <c r="C112" t="n">
-        <v>0.878196</v>
+        <v>0.876328</v>
       </c>
       <c r="D112" t="n">
-        <v>0.987201</v>
+        <v>0.988764</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.04602</v>
+        <v>1.05074</v>
       </c>
       <c r="C113" t="n">
-        <v>0.875878</v>
+        <v>0.877166</v>
       </c>
       <c r="D113" t="n">
-        <v>0.984938</v>
+        <v>0.987557</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.04913</v>
+        <v>1.05231</v>
       </c>
       <c r="C114" t="n">
-        <v>0.877958</v>
+        <v>0.87785</v>
       </c>
       <c r="D114" t="n">
-        <v>0.985409</v>
+        <v>0.990136</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.04897</v>
+        <v>1.05184</v>
       </c>
       <c r="C115" t="n">
-        <v>1.01135</v>
+        <v>0.87762</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9844079999999999</v>
+        <v>0.987985</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.04789</v>
+        <v>1.05146</v>
       </c>
       <c r="C116" t="n">
-        <v>0.875284</v>
+        <v>0.88006</v>
       </c>
       <c r="D116" t="n">
-        <v>0.984219</v>
+        <v>0.988547</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05118</v>
+        <v>1.05145</v>
       </c>
       <c r="C117" t="n">
-        <v>1.01336</v>
+        <v>0.880898</v>
       </c>
       <c r="D117" t="n">
-        <v>0.985111</v>
+        <v>0.986947</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.0515</v>
+        <v>1.05631</v>
       </c>
       <c r="C118" t="n">
-        <v>0.880501</v>
+        <v>0.884807</v>
       </c>
       <c r="D118" t="n">
-        <v>0.984633</v>
+        <v>0.987741</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.0527</v>
+        <v>1.05496</v>
       </c>
       <c r="C119" t="n">
-        <v>0.881976</v>
+        <v>0.886406</v>
       </c>
       <c r="D119" t="n">
-        <v>0.985574</v>
+        <v>0.9881529999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.0601</v>
+        <v>1.05633</v>
       </c>
       <c r="C120" t="n">
-        <v>0.979385</v>
+        <v>0.889123</v>
       </c>
       <c r="D120" t="n">
-        <v>0.987031</v>
+        <v>0.989591</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.05601</v>
+        <v>1.0602</v>
       </c>
       <c r="C121" t="n">
-        <v>0.992692</v>
+        <v>0.891937</v>
       </c>
       <c r="D121" t="n">
-        <v>0.98942</v>
+        <v>0.9918090000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06261</v>
+        <v>1.06378</v>
       </c>
       <c r="C122" t="n">
-        <v>0.893946</v>
+        <v>0.895412</v>
       </c>
       <c r="D122" t="n">
-        <v>0.992918</v>
+        <v>0.996377</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.06643</v>
+        <v>1.06872</v>
       </c>
       <c r="C123" t="n">
-        <v>1.01613</v>
+        <v>0.9027539999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>1.2992</v>
+        <v>1.3004</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.31136</v>
+        <v>1.33564</v>
       </c>
       <c r="C124" t="n">
-        <v>1.14034</v>
+        <v>1.14767</v>
       </c>
       <c r="D124" t="n">
-        <v>1.29762</v>
+        <v>1.3066</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.32776</v>
+        <v>1.33758</v>
       </c>
       <c r="C125" t="n">
-        <v>1.14582</v>
+        <v>1.14806</v>
       </c>
       <c r="D125" t="n">
-        <v>1.30141</v>
+        <v>1.30546</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.30535</v>
+        <v>1.32675</v>
       </c>
       <c r="C126" t="n">
-        <v>1.2031</v>
+        <v>1.14789</v>
       </c>
       <c r="D126" t="n">
-        <v>1.30157</v>
+        <v>1.30413</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31608</v>
+        <v>1.33031</v>
       </c>
       <c r="C127" t="n">
-        <v>1.14608</v>
+        <v>1.14855</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30035</v>
+        <v>1.30416</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31651</v>
+        <v>1.33198</v>
       </c>
       <c r="C128" t="n">
-        <v>1.14896</v>
+        <v>1.15072</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30016</v>
+        <v>1.30496</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.32076</v>
+        <v>1.33108</v>
       </c>
       <c r="C129" t="n">
-        <v>1.18471</v>
+        <v>1.15153</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3016</v>
+        <v>1.30118</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.32039</v>
+        <v>1.3367</v>
       </c>
       <c r="C130" t="n">
-        <v>1.14808</v>
+        <v>1.14991</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29742</v>
+        <v>1.3043</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.32132</v>
+        <v>1.32109</v>
       </c>
       <c r="C131" t="n">
-        <v>1.15031</v>
+        <v>1.15321</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30028</v>
+        <v>1.30624</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.32565</v>
+        <v>1.3215</v>
       </c>
       <c r="C132" t="n">
-        <v>1.15235</v>
+        <v>1.15758</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30515</v>
+        <v>1.30832</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.33111</v>
+        <v>1.33766</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31459</v>
+        <v>1.15832</v>
       </c>
       <c r="D133" t="n">
-        <v>1.3053</v>
+        <v>1.3102</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.32032</v>
+        <v>1.33688</v>
       </c>
       <c r="C134" t="n">
-        <v>1.15865</v>
+        <v>1.16092</v>
       </c>
       <c r="D134" t="n">
-        <v>1.30552</v>
+        <v>1.31129</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.317</v>
+        <v>1.33186</v>
       </c>
       <c r="C135" t="n">
-        <v>1.3186</v>
+        <v>1.16574</v>
       </c>
       <c r="D135" t="n">
-        <v>1.31037</v>
+        <v>1.31574</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.31632</v>
+        <v>1.34775</v>
       </c>
       <c r="C136" t="n">
-        <v>1.17286</v>
+        <v>1.17571</v>
       </c>
       <c r="D136" t="n">
-        <v>1.31326</v>
+        <v>1.31935</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.33526</v>
+        <v>1.35751</v>
       </c>
       <c r="C137" t="n">
-        <v>1.26367</v>
+        <v>1.18436</v>
       </c>
       <c r="D137" t="n">
-        <v>1.41189</v>
+        <v>1.4255</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.42392</v>
+        <v>1.43592</v>
       </c>
       <c r="C138" t="n">
-        <v>1.37428</v>
+        <v>1.38037</v>
       </c>
       <c r="D138" t="n">
-        <v>1.41502</v>
+        <v>1.44952</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.42407</v>
+        <v>1.43839</v>
       </c>
       <c r="C139" t="n">
-        <v>1.37276</v>
+        <v>1.38021</v>
       </c>
       <c r="D139" t="n">
-        <v>1.4136</v>
+        <v>1.42445</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.4255</v>
+        <v>1.44708</v>
       </c>
       <c r="C140" t="n">
-        <v>1.3751</v>
+        <v>1.38282</v>
       </c>
       <c r="D140" t="n">
-        <v>1.42605</v>
+        <v>1.44643</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.43116</v>
+        <v>1.4556</v>
       </c>
       <c r="C141" t="n">
-        <v>1.40561</v>
+        <v>1.38245</v>
       </c>
       <c r="D141" t="n">
-        <v>1.4168</v>
+        <v>1.44711</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.43058</v>
+        <v>1.44295</v>
       </c>
       <c r="C142" t="n">
-        <v>1.40588</v>
+        <v>1.38094</v>
       </c>
       <c r="D142" t="n">
-        <v>1.41217</v>
+        <v>1.43131</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.43444</v>
+        <v>1.44401</v>
       </c>
       <c r="C143" t="n">
-        <v>1.37935</v>
+        <v>1.38227</v>
       </c>
       <c r="D143" t="n">
-        <v>1.41239</v>
+        <v>1.43295</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.256075</v>
+        <v>0.251686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238454</v>
+        <v>0.217567</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248221</v>
+        <v>0.228238</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256267</v>
+        <v>0.254568</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238617</v>
+        <v>0.21798</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248655</v>
+        <v>0.228843</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258002</v>
+        <v>0.259362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.239518</v>
+        <v>0.221933</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249866</v>
+        <v>0.232571</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260339</v>
+        <v>0.264366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240366</v>
+        <v>0.224991</v>
       </c>
       <c r="D5" t="n">
-        <v>0.251004</v>
+        <v>0.237711</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.26241</v>
+        <v>0.268744</v>
       </c>
       <c r="C6" t="n">
-        <v>0.24083</v>
+        <v>0.227644</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25173</v>
+        <v>0.241229</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.266258</v>
+        <v>0.276307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.241775</v>
+        <v>0.231715</v>
       </c>
       <c r="D7" t="n">
-        <v>0.253961</v>
+        <v>0.248261</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.272133</v>
+        <v>0.285597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.243987</v>
+        <v>0.238323</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25803</v>
+        <v>0.257666</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.280885</v>
+        <v>0.299124</v>
       </c>
       <c r="C9" t="n">
-        <v>0.248559</v>
+        <v>0.247968</v>
       </c>
       <c r="D9" t="n">
-        <v>0.252946</v>
+        <v>0.235957</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.254484</v>
+        <v>0.256249</v>
       </c>
       <c r="C10" t="n">
-        <v>0.241665</v>
+        <v>0.225748</v>
       </c>
       <c r="D10" t="n">
-        <v>0.250522</v>
+        <v>0.237059</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.256497</v>
+        <v>0.257569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.242226</v>
+        <v>0.226489</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25058</v>
+        <v>0.237303</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.257221</v>
+        <v>0.260819</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244177</v>
+        <v>0.229298</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251517</v>
+        <v>0.239872</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.256615</v>
+        <v>0.261379</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24258</v>
+        <v>0.231891</v>
       </c>
       <c r="D13" t="n">
-        <v>0.250691</v>
+        <v>0.240481</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.258673</v>
+        <v>0.263939</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242553</v>
+        <v>0.231233</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250992</v>
+        <v>0.241896</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.25889</v>
+        <v>0.266356</v>
       </c>
       <c r="C15" t="n">
-        <v>0.243927</v>
+        <v>0.232578</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25215</v>
+        <v>0.243376</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.263819</v>
+        <v>0.268198</v>
       </c>
       <c r="C16" t="n">
-        <v>0.244447</v>
+        <v>0.233878</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25293</v>
+        <v>0.244567</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.261565</v>
+        <v>0.271024</v>
       </c>
       <c r="C17" t="n">
-        <v>0.244306</v>
+        <v>0.235085</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252955</v>
+        <v>0.245841</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.263582</v>
+        <v>0.27365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.244987</v>
+        <v>0.239312</v>
       </c>
       <c r="D18" t="n">
-        <v>0.253699</v>
+        <v>0.248549</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.266829</v>
+        <v>0.279171</v>
       </c>
       <c r="C19" t="n">
-        <v>0.246882</v>
+        <v>0.240215</v>
       </c>
       <c r="D19" t="n">
-        <v>0.255173</v>
+        <v>0.250789</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269376</v>
+        <v>0.282786</v>
       </c>
       <c r="C20" t="n">
-        <v>0.247644</v>
+        <v>0.242013</v>
       </c>
       <c r="D20" t="n">
-        <v>0.257266</v>
+        <v>0.253397</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.27421</v>
+        <v>0.287262</v>
       </c>
       <c r="C21" t="n">
-        <v>0.250149</v>
+        <v>0.244234</v>
       </c>
       <c r="D21" t="n">
-        <v>0.259659</v>
+        <v>0.257646</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.280482</v>
+        <v>0.294395</v>
       </c>
       <c r="C22" t="n">
-        <v>0.251702</v>
+        <v>0.248866</v>
       </c>
       <c r="D22" t="n">
-        <v>0.263915</v>
+        <v>0.265276</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.291637</v>
+        <v>0.303638</v>
       </c>
       <c r="C23" t="n">
-        <v>0.256754</v>
+        <v>0.254356</v>
       </c>
       <c r="D23" t="n">
-        <v>0.267497</v>
+        <v>0.252032</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.273544</v>
+        <v>0.28254</v>
       </c>
       <c r="C24" t="n">
-        <v>0.262418</v>
+        <v>0.252442</v>
       </c>
       <c r="D24" t="n">
-        <v>0.268972</v>
+        <v>0.254021</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272446</v>
+        <v>0.281416</v>
       </c>
       <c r="C25" t="n">
-        <v>0.261922</v>
+        <v>0.251845</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26923</v>
+        <v>0.254017</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.273287</v>
+        <v>0.281948</v>
       </c>
       <c r="C26" t="n">
-        <v>0.261528</v>
+        <v>0.250581</v>
       </c>
       <c r="D26" t="n">
-        <v>0.265938</v>
+        <v>0.253925</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.273645</v>
+        <v>0.282594</v>
       </c>
       <c r="C27" t="n">
-        <v>0.262839</v>
+        <v>0.252409</v>
       </c>
       <c r="D27" t="n">
-        <v>0.266517</v>
+        <v>0.255901</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.274646</v>
+        <v>0.284631</v>
       </c>
       <c r="C28" t="n">
-        <v>0.262882</v>
+        <v>0.253988</v>
       </c>
       <c r="D28" t="n">
-        <v>0.264783</v>
+        <v>0.255786</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.275324</v>
+        <v>0.285725</v>
       </c>
       <c r="C29" t="n">
-        <v>0.261758</v>
+        <v>0.252719</v>
       </c>
       <c r="D29" t="n">
-        <v>0.264306</v>
+        <v>0.256702</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.276608</v>
+        <v>0.288158</v>
       </c>
       <c r="C30" t="n">
-        <v>0.261854</v>
+        <v>0.256148</v>
       </c>
       <c r="D30" t="n">
-        <v>0.265201</v>
+        <v>0.257595</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.278288</v>
+        <v>0.290456</v>
       </c>
       <c r="C31" t="n">
-        <v>0.263855</v>
+        <v>0.255397</v>
       </c>
       <c r="D31" t="n">
-        <v>0.266261</v>
+        <v>0.258303</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280689</v>
+        <v>0.293011</v>
       </c>
       <c r="C32" t="n">
-        <v>0.264774</v>
+        <v>0.257163</v>
       </c>
       <c r="D32" t="n">
-        <v>0.268794</v>
+        <v>0.260121</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.282788</v>
+        <v>0.29628</v>
       </c>
       <c r="C33" t="n">
-        <v>0.267465</v>
+        <v>0.257536</v>
       </c>
       <c r="D33" t="n">
-        <v>0.271626</v>
+        <v>0.262465</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2863</v>
+        <v>0.299254</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26924</v>
+        <v>0.258483</v>
       </c>
       <c r="D34" t="n">
-        <v>0.274082</v>
+        <v>0.264335</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.292049</v>
+        <v>0.304982</v>
       </c>
       <c r="C35" t="n">
-        <v>0.270608</v>
+        <v>0.260972</v>
       </c>
       <c r="D35" t="n">
-        <v>0.277854</v>
+        <v>0.267931</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.297913</v>
+        <v>0.310181</v>
       </c>
       <c r="C36" t="n">
-        <v>0.273757</v>
+        <v>0.267063</v>
       </c>
       <c r="D36" t="n">
-        <v>0.284001</v>
+        <v>0.275042</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.306891</v>
+        <v>0.31884</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280104</v>
+        <v>0.270016</v>
       </c>
       <c r="D37" t="n">
-        <v>0.295209</v>
+        <v>0.273665</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301453</v>
+        <v>0.301388</v>
       </c>
       <c r="C38" t="n">
-        <v>0.292171</v>
+        <v>0.273564</v>
       </c>
       <c r="D38" t="n">
-        <v>0.292949</v>
+        <v>0.275796</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.30282</v>
+        <v>0.301883</v>
       </c>
       <c r="C39" t="n">
-        <v>0.294252</v>
+        <v>0.271522</v>
       </c>
       <c r="D39" t="n">
-        <v>0.296529</v>
+        <v>0.272911</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.303003</v>
+        <v>0.302431</v>
       </c>
       <c r="C40" t="n">
-        <v>0.294369</v>
+        <v>0.274157</v>
       </c>
       <c r="D40" t="n">
-        <v>0.294893</v>
+        <v>0.273849</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302582</v>
+        <v>0.303536</v>
       </c>
       <c r="C41" t="n">
-        <v>0.293981</v>
+        <v>0.275312</v>
       </c>
       <c r="D41" t="n">
-        <v>0.29459</v>
+        <v>0.274154</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.305669</v>
+        <v>0.303736</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294001</v>
+        <v>0.273826</v>
       </c>
       <c r="D42" t="n">
-        <v>0.295859</v>
+        <v>0.274743</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.30682</v>
+        <v>0.305891</v>
       </c>
       <c r="C43" t="n">
-        <v>0.293513</v>
+        <v>0.275085</v>
       </c>
       <c r="D43" t="n">
-        <v>0.296887</v>
+        <v>0.274582</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.306186</v>
+        <v>0.305751</v>
       </c>
       <c r="C44" t="n">
-        <v>0.295278</v>
+        <v>0.275216</v>
       </c>
       <c r="D44" t="n">
-        <v>0.295683</v>
+        <v>0.275441</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.307452</v>
+        <v>0.30866</v>
       </c>
       <c r="C45" t="n">
-        <v>0.296217</v>
+        <v>0.274538</v>
       </c>
       <c r="D45" t="n">
-        <v>0.297125</v>
+        <v>0.275489</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.309844</v>
+        <v>0.310906</v>
       </c>
       <c r="C46" t="n">
-        <v>0.294646</v>
+        <v>0.276573</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297295</v>
+        <v>0.277468</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.312332</v>
+        <v>0.315229</v>
       </c>
       <c r="C47" t="n">
-        <v>0.295399</v>
+        <v>0.277166</v>
       </c>
       <c r="D47" t="n">
-        <v>0.299675</v>
+        <v>0.278908</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.316438</v>
+        <v>0.318129</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2999</v>
+        <v>0.279751</v>
       </c>
       <c r="D48" t="n">
-        <v>0.300752</v>
+        <v>0.282015</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.319902</v>
+        <v>0.323302</v>
       </c>
       <c r="C49" t="n">
-        <v>0.300471</v>
+        <v>0.2814</v>
       </c>
       <c r="D49" t="n">
-        <v>0.306584</v>
+        <v>0.285963</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.325332</v>
+        <v>0.327035</v>
       </c>
       <c r="C50" t="n">
-        <v>0.302902</v>
+        <v>0.283432</v>
       </c>
       <c r="D50" t="n">
-        <v>0.309205</v>
+        <v>0.290635</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.331784</v>
+        <v>0.334597</v>
       </c>
       <c r="C51" t="n">
-        <v>0.307676</v>
+        <v>0.288617</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317866</v>
+        <v>0.291272</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.338258</v>
+        <v>0.34609</v>
       </c>
       <c r="C52" t="n">
-        <v>0.314168</v>
+        <v>0.295185</v>
       </c>
       <c r="D52" t="n">
-        <v>0.324378</v>
+        <v>0.294755</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329681</v>
+        <v>0.325581</v>
       </c>
       <c r="C53" t="n">
-        <v>0.320194</v>
+        <v>0.295612</v>
       </c>
       <c r="D53" t="n">
-        <v>0.324017</v>
+        <v>0.296144</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.329907</v>
+        <v>0.324651</v>
       </c>
       <c r="C54" t="n">
-        <v>0.320564</v>
+        <v>0.296428</v>
       </c>
       <c r="D54" t="n">
-        <v>0.324227</v>
+        <v>0.297542</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330357</v>
+        <v>0.32572</v>
       </c>
       <c r="C55" t="n">
-        <v>0.320912</v>
+        <v>0.297311</v>
       </c>
       <c r="D55" t="n">
-        <v>0.324232</v>
+        <v>0.296522</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330439</v>
+        <v>0.326097</v>
       </c>
       <c r="C56" t="n">
-        <v>0.321429</v>
+        <v>0.2964</v>
       </c>
       <c r="D56" t="n">
-        <v>0.324886</v>
+        <v>0.298226</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.331958</v>
+        <v>0.328224</v>
       </c>
       <c r="C57" t="n">
-        <v>0.320456</v>
+        <v>0.297547</v>
       </c>
       <c r="D57" t="n">
-        <v>0.325326</v>
+        <v>0.297605</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.33237</v>
+        <v>0.329172</v>
       </c>
       <c r="C58" t="n">
-        <v>0.320313</v>
+        <v>0.297511</v>
       </c>
       <c r="D58" t="n">
-        <v>0.326052</v>
+        <v>0.298703</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.333385</v>
+        <v>0.331431</v>
       </c>
       <c r="C59" t="n">
-        <v>0.321741</v>
+        <v>0.298291</v>
       </c>
       <c r="D59" t="n">
-        <v>0.325791</v>
+        <v>0.299583</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.335917</v>
+        <v>0.334734</v>
       </c>
       <c r="C60" t="n">
-        <v>0.322004</v>
+        <v>0.299101</v>
       </c>
       <c r="D60" t="n">
-        <v>0.327027</v>
+        <v>0.300926</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.338506</v>
+        <v>0.337138</v>
       </c>
       <c r="C61" t="n">
-        <v>0.323563</v>
+        <v>0.301123</v>
       </c>
       <c r="D61" t="n">
-        <v>0.328649</v>
+        <v>0.302691</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.341308</v>
+        <v>0.339849</v>
       </c>
       <c r="C62" t="n">
-        <v>0.325676</v>
+        <v>0.30168</v>
       </c>
       <c r="D62" t="n">
-        <v>0.330188</v>
+        <v>0.305403</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.345741</v>
+        <v>0.344973</v>
       </c>
       <c r="C63" t="n">
-        <v>0.326593</v>
+        <v>0.303959</v>
       </c>
       <c r="D63" t="n">
-        <v>0.333058</v>
+        <v>0.307611</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.349418</v>
+        <v>0.349688</v>
       </c>
       <c r="C64" t="n">
-        <v>0.329324</v>
+        <v>0.306467</v>
       </c>
       <c r="D64" t="n">
-        <v>0.336215</v>
+        <v>0.312696</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.356448</v>
+        <v>0.35773</v>
       </c>
       <c r="C65" t="n">
-        <v>0.333016</v>
+        <v>0.310578</v>
       </c>
       <c r="D65" t="n">
-        <v>0.34301</v>
+        <v>0.320499</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.365357</v>
+        <v>0.366341</v>
       </c>
       <c r="C66" t="n">
-        <v>0.339062</v>
+        <v>0.318171</v>
       </c>
       <c r="D66" t="n">
-        <v>0.341734</v>
+        <v>0.312719</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346426</v>
+        <v>0.341511</v>
       </c>
       <c r="C67" t="n">
-        <v>0.337995</v>
+        <v>0.312761</v>
       </c>
       <c r="D67" t="n">
-        <v>0.341714</v>
+        <v>0.313333</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347136</v>
+        <v>0.341388</v>
       </c>
       <c r="C68" t="n">
-        <v>0.338616</v>
+        <v>0.312574</v>
       </c>
       <c r="D68" t="n">
-        <v>0.340464</v>
+        <v>0.313011</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.347916</v>
+        <v>0.343031</v>
       </c>
       <c r="C69" t="n">
-        <v>0.338497</v>
+        <v>0.312964</v>
       </c>
       <c r="D69" t="n">
-        <v>0.342491</v>
+        <v>0.313711</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.349705</v>
+        <v>0.3434</v>
       </c>
       <c r="C70" t="n">
-        <v>0.339602</v>
+        <v>0.31369</v>
       </c>
       <c r="D70" t="n">
-        <v>0.343611</v>
+        <v>0.314482</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.350373</v>
+        <v>0.345734</v>
       </c>
       <c r="C71" t="n">
-        <v>0.339669</v>
+        <v>0.31391</v>
       </c>
       <c r="D71" t="n">
-        <v>0.343827</v>
+        <v>0.314464</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3518</v>
+        <v>0.345811</v>
       </c>
       <c r="C72" t="n">
-        <v>0.33961</v>
+        <v>0.315079</v>
       </c>
       <c r="D72" t="n">
-        <v>0.344366</v>
+        <v>0.315646</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.35284</v>
+        <v>0.347947</v>
       </c>
       <c r="C73" t="n">
-        <v>0.340759</v>
+        <v>0.314384</v>
       </c>
       <c r="D73" t="n">
-        <v>0.344679</v>
+        <v>0.315643</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.354892</v>
+        <v>0.349842</v>
       </c>
       <c r="C74" t="n">
-        <v>0.341544</v>
+        <v>0.315492</v>
       </c>
       <c r="D74" t="n">
-        <v>0.34573</v>
+        <v>0.316385</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.355279</v>
+        <v>0.352733</v>
       </c>
       <c r="C75" t="n">
-        <v>0.341872</v>
+        <v>0.315899</v>
       </c>
       <c r="D75" t="n">
-        <v>0.346507</v>
+        <v>0.317661</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.359951</v>
+        <v>0.356185</v>
       </c>
       <c r="C76" t="n">
-        <v>0.343643</v>
+        <v>0.318117</v>
       </c>
       <c r="D76" t="n">
-        <v>0.348892</v>
+        <v>0.320434</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.362755</v>
+        <v>0.360258</v>
       </c>
       <c r="C77" t="n">
-        <v>0.345062</v>
+        <v>0.320275</v>
       </c>
       <c r="D77" t="n">
-        <v>0.351519</v>
+        <v>0.323929</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.368046</v>
+        <v>0.365458</v>
       </c>
       <c r="C78" t="n">
-        <v>0.347661</v>
+        <v>0.323012</v>
       </c>
       <c r="D78" t="n">
-        <v>0.355644</v>
+        <v>0.328266</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.374661</v>
+        <v>0.373437</v>
       </c>
       <c r="C79" t="n">
-        <v>0.351554</v>
+        <v>0.326459</v>
       </c>
       <c r="D79" t="n">
-        <v>0.360738</v>
+        <v>0.334818</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.382497</v>
+        <v>0.381831</v>
       </c>
       <c r="C80" t="n">
-        <v>0.355418</v>
+        <v>0.332082</v>
       </c>
       <c r="D80" t="n">
-        <v>0.360524</v>
+        <v>0.332158</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.372089</v>
+        <v>0.3665</v>
       </c>
       <c r="C81" t="n">
-        <v>0.362863</v>
+        <v>0.337348</v>
       </c>
       <c r="D81" t="n">
-        <v>0.360163</v>
+        <v>0.332955</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.372577</v>
+        <v>0.365072</v>
       </c>
       <c r="C82" t="n">
-        <v>0.363711</v>
+        <v>0.336113</v>
       </c>
       <c r="D82" t="n">
-        <v>0.361675</v>
+        <v>0.329586</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.371708</v>
+        <v>0.366619</v>
       </c>
       <c r="C83" t="n">
-        <v>0.362703</v>
+        <v>0.333748</v>
       </c>
       <c r="D83" t="n">
-        <v>0.360401</v>
+        <v>0.330891</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.372583</v>
+        <v>0.366325</v>
       </c>
       <c r="C84" t="n">
-        <v>0.360704</v>
+        <v>0.335745</v>
       </c>
       <c r="D84" t="n">
-        <v>0.361439</v>
+        <v>0.331303</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.372653</v>
+        <v>0.366689</v>
       </c>
       <c r="C85" t="n">
-        <v>0.362638</v>
+        <v>0.335907</v>
       </c>
       <c r="D85" t="n">
-        <v>0.365472</v>
+        <v>0.331181</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.378602</v>
+        <v>0.366372</v>
       </c>
       <c r="C86" t="n">
-        <v>0.363718</v>
+        <v>0.337154</v>
       </c>
       <c r="D86" t="n">
-        <v>0.365713</v>
+        <v>0.331559</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.379301</v>
+        <v>0.371723</v>
       </c>
       <c r="C87" t="n">
-        <v>0.366685</v>
+        <v>0.335561</v>
       </c>
       <c r="D87" t="n">
-        <v>0.367511</v>
+        <v>0.335296</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.380677</v>
+        <v>0.371456</v>
       </c>
       <c r="C88" t="n">
-        <v>0.361978</v>
+        <v>0.336185</v>
       </c>
       <c r="D88" t="n">
-        <v>0.363965</v>
+        <v>0.334579</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.377797</v>
+        <v>0.376896</v>
       </c>
       <c r="C89" t="n">
-        <v>0.362791</v>
+        <v>0.340671</v>
       </c>
       <c r="D89" t="n">
-        <v>0.365115</v>
+        <v>0.336469</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.382492</v>
+        <v>0.378644</v>
       </c>
       <c r="C90" t="n">
-        <v>0.363915</v>
+        <v>0.34064</v>
       </c>
       <c r="D90" t="n">
-        <v>0.367483</v>
+        <v>0.33733</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.388146</v>
+        <v>0.38385</v>
       </c>
       <c r="C91" t="n">
-        <v>0.366119</v>
+        <v>0.341646</v>
       </c>
       <c r="D91" t="n">
-        <v>0.370691</v>
+        <v>0.34001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.389735</v>
+        <v>0.386451</v>
       </c>
       <c r="C92" t="n">
-        <v>0.370293</v>
+        <v>0.343883</v>
       </c>
       <c r="D92" t="n">
-        <v>0.37317</v>
+        <v>0.343335</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.397166</v>
+        <v>0.393125</v>
       </c>
       <c r="C93" t="n">
-        <v>0.373217</v>
+        <v>0.346972</v>
       </c>
       <c r="D93" t="n">
-        <v>0.378141</v>
+        <v>0.349664</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.404182</v>
+        <v>0.401745</v>
       </c>
       <c r="C94" t="n">
-        <v>0.376115</v>
+        <v>0.352304</v>
       </c>
       <c r="D94" t="n">
-        <v>0.532821</v>
+        <v>0.485724</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5874819999999999</v>
+        <v>0.549544</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5413019999999999</v>
+        <v>0.505372</v>
       </c>
       <c r="D95" t="n">
-        <v>0.540977</v>
+        <v>0.490424</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5862579999999999</v>
+        <v>0.5468150000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5493130000000001</v>
+        <v>0.5085769999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5310510000000001</v>
+        <v>0.477474</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.59315</v>
+        <v>0.54893</v>
       </c>
       <c r="C97" t="n">
-        <v>0.54843</v>
+        <v>0.506825</v>
       </c>
       <c r="D97" t="n">
-        <v>0.534893</v>
+        <v>0.484383</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.58893</v>
+        <v>0.546696</v>
       </c>
       <c r="C98" t="n">
-        <v>0.545632</v>
+        <v>0.507954</v>
       </c>
       <c r="D98" t="n">
-        <v>0.529216</v>
+        <v>0.48067</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.589074</v>
+        <v>0.549972</v>
       </c>
       <c r="C99" t="n">
-        <v>0.547756</v>
+        <v>0.508432</v>
       </c>
       <c r="D99" t="n">
-        <v>0.528263</v>
+        <v>0.480799</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.592535</v>
+        <v>0.549211</v>
       </c>
       <c r="C100" t="n">
-        <v>0.543467</v>
+        <v>0.507521</v>
       </c>
       <c r="D100" t="n">
-        <v>0.534405</v>
+        <v>0.487817</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.590764</v>
+        <v>0.5492359999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.552589</v>
+        <v>0.5044149999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.530706</v>
+        <v>0.479003</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.607834</v>
+        <v>0.553503</v>
       </c>
       <c r="C102" t="n">
-        <v>0.547484</v>
+        <v>0.506397</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5427110000000001</v>
+        <v>0.486376</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.591188</v>
+        <v>0.553407</v>
       </c>
       <c r="C103" t="n">
-        <v>0.552046</v>
+        <v>0.5102179999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.531729</v>
+        <v>0.476282</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6095660000000001</v>
+        <v>0.559299</v>
       </c>
       <c r="C104" t="n">
-        <v>0.544988</v>
+        <v>0.505627</v>
       </c>
       <c r="D104" t="n">
-        <v>0.542058</v>
+        <v>0.489903</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.597805</v>
+        <v>0.553688</v>
       </c>
       <c r="C105" t="n">
-        <v>0.555241</v>
+        <v>0.513884</v>
       </c>
       <c r="D105" t="n">
-        <v>0.531404</v>
+        <v>0.486226</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6023579999999999</v>
+        <v>0.564615</v>
       </c>
       <c r="C106" t="n">
-        <v>0.550893</v>
+        <v>0.504606</v>
       </c>
       <c r="D106" t="n">
-        <v>0.544089</v>
+        <v>0.48816</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.609818</v>
+        <v>0.562355</v>
       </c>
       <c r="C107" t="n">
-        <v>0.552486</v>
+        <v>0.511067</v>
       </c>
       <c r="D107" t="n">
-        <v>0.55103</v>
+        <v>0.481774</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.606189</v>
+        <v>0.571605</v>
       </c>
       <c r="C108" t="n">
-        <v>0.552519</v>
+        <v>0.508873</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9912069999999999</v>
+        <v>0.784365</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6192800000000001</v>
+        <v>0.582524</v>
       </c>
       <c r="C109" t="n">
-        <v>0.561956</v>
+        <v>0.519651</v>
       </c>
       <c r="D109" t="n">
-        <v>0.989505</v>
+        <v>0.780186</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05029</v>
+        <v>0.830394</v>
       </c>
       <c r="C110" t="n">
-        <v>0.877865</v>
+        <v>0.79331</v>
       </c>
       <c r="D110" t="n">
-        <v>0.991156</v>
+        <v>0.778013</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05103</v>
+        <v>0.832111</v>
       </c>
       <c r="C111" t="n">
-        <v>0.877896</v>
+        <v>0.795004</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9903920000000001</v>
+        <v>0.778282</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0511</v>
+        <v>0.836472</v>
       </c>
       <c r="C112" t="n">
-        <v>0.876328</v>
+        <v>0.792338</v>
       </c>
       <c r="D112" t="n">
-        <v>0.988764</v>
+        <v>0.778735</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05074</v>
+        <v>0.835306</v>
       </c>
       <c r="C113" t="n">
-        <v>0.877166</v>
+        <v>0.791564</v>
       </c>
       <c r="D113" t="n">
-        <v>0.987557</v>
+        <v>0.77882</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05231</v>
+        <v>0.835799</v>
       </c>
       <c r="C114" t="n">
-        <v>0.87785</v>
+        <v>0.793428</v>
       </c>
       <c r="D114" t="n">
-        <v>0.990136</v>
+        <v>0.777786</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05184</v>
+        <v>0.836961</v>
       </c>
       <c r="C115" t="n">
-        <v>0.87762</v>
+        <v>0.793374</v>
       </c>
       <c r="D115" t="n">
-        <v>0.987985</v>
+        <v>0.779325</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05146</v>
+        <v>0.838765</v>
       </c>
       <c r="C116" t="n">
-        <v>0.88006</v>
+        <v>0.794296</v>
       </c>
       <c r="D116" t="n">
-        <v>0.988547</v>
+        <v>0.778846</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05145</v>
+        <v>0.8396940000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.880898</v>
+        <v>0.793878</v>
       </c>
       <c r="D117" t="n">
-        <v>0.986947</v>
+        <v>0.780964</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05631</v>
+        <v>0.843154</v>
       </c>
       <c r="C118" t="n">
-        <v>0.884807</v>
+        <v>0.795472</v>
       </c>
       <c r="D118" t="n">
-        <v>0.987741</v>
+        <v>0.781215</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05496</v>
+        <v>0.844309</v>
       </c>
       <c r="C119" t="n">
-        <v>0.886406</v>
+        <v>0.797937</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9881529999999999</v>
+        <v>0.783334</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05633</v>
+        <v>0.848332</v>
       </c>
       <c r="C120" t="n">
-        <v>0.889123</v>
+        <v>0.800249</v>
       </c>
       <c r="D120" t="n">
-        <v>0.989591</v>
+        <v>0.784023</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.0602</v>
+        <v>0.854766</v>
       </c>
       <c r="C121" t="n">
-        <v>0.891937</v>
+        <v>0.800542</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9918090000000001</v>
+        <v>0.788988</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06378</v>
+        <v>0.859706</v>
       </c>
       <c r="C122" t="n">
-        <v>0.895412</v>
+        <v>0.806775</v>
       </c>
       <c r="D122" t="n">
-        <v>0.996377</v>
+        <v>0.792566</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.06872</v>
+        <v>0.869304</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9027539999999999</v>
+        <v>0.811809</v>
       </c>
       <c r="D123" t="n">
-        <v>1.3004</v>
+        <v>1.03588</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.33564</v>
+        <v>1.07849</v>
       </c>
       <c r="C124" t="n">
-        <v>1.14767</v>
+        <v>1.04093</v>
       </c>
       <c r="D124" t="n">
-        <v>1.3066</v>
+        <v>1.03432</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33758</v>
+        <v>1.07609</v>
       </c>
       <c r="C125" t="n">
-        <v>1.14806</v>
+        <v>1.04284</v>
       </c>
       <c r="D125" t="n">
-        <v>1.30546</v>
+        <v>1.03833</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32675</v>
+        <v>1.07543</v>
       </c>
       <c r="C126" t="n">
-        <v>1.14789</v>
+        <v>1.04059</v>
       </c>
       <c r="D126" t="n">
-        <v>1.30413</v>
+        <v>1.03592</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.33031</v>
+        <v>1.07704</v>
       </c>
       <c r="C127" t="n">
-        <v>1.14855</v>
+        <v>1.03998</v>
       </c>
       <c r="D127" t="n">
-        <v>1.30416</v>
+        <v>1.0355</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.33198</v>
+        <v>1.08089</v>
       </c>
       <c r="C128" t="n">
-        <v>1.15072</v>
+        <v>1.04258</v>
       </c>
       <c r="D128" t="n">
-        <v>1.30496</v>
+        <v>1.03912</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33108</v>
+        <v>1.08025</v>
       </c>
       <c r="C129" t="n">
-        <v>1.15153</v>
+        <v>1.04058</v>
       </c>
       <c r="D129" t="n">
-        <v>1.30118</v>
+        <v>1.03583</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3367</v>
+        <v>1.08229</v>
       </c>
       <c r="C130" t="n">
-        <v>1.14991</v>
+        <v>1.04494</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3043</v>
+        <v>1.03939</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.32109</v>
+        <v>1.08374</v>
       </c>
       <c r="C131" t="n">
-        <v>1.15321</v>
+        <v>1.046</v>
       </c>
       <c r="D131" t="n">
-        <v>1.30624</v>
+        <v>1.03935</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.3215</v>
+        <v>1.08595</v>
       </c>
       <c r="C132" t="n">
-        <v>1.15758</v>
+        <v>1.04863</v>
       </c>
       <c r="D132" t="n">
-        <v>1.30832</v>
+        <v>1.03884</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.33766</v>
+        <v>1.09255</v>
       </c>
       <c r="C133" t="n">
-        <v>1.15832</v>
+        <v>1.05067</v>
       </c>
       <c r="D133" t="n">
-        <v>1.3102</v>
+        <v>1.04226</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.33688</v>
+        <v>1.09684</v>
       </c>
       <c r="C134" t="n">
-        <v>1.16092</v>
+        <v>1.0504</v>
       </c>
       <c r="D134" t="n">
-        <v>1.31129</v>
+        <v>1.04627</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.33186</v>
+        <v>1.10292</v>
       </c>
       <c r="C135" t="n">
-        <v>1.16574</v>
+        <v>1.0578</v>
       </c>
       <c r="D135" t="n">
-        <v>1.31574</v>
+        <v>1.05376</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.34775</v>
+        <v>1.10939</v>
       </c>
       <c r="C136" t="n">
-        <v>1.17571</v>
+        <v>1.06041</v>
       </c>
       <c r="D136" t="n">
-        <v>1.31935</v>
+        <v>1.05544</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35751</v>
+        <v>1.11794</v>
       </c>
       <c r="C137" t="n">
-        <v>1.18436</v>
+        <v>1.06911</v>
       </c>
       <c r="D137" t="n">
-        <v>1.4255</v>
+        <v>1.25916</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.43592</v>
+        <v>1.29556</v>
       </c>
       <c r="C138" t="n">
-        <v>1.38037</v>
+        <v>1.26147</v>
       </c>
       <c r="D138" t="n">
-        <v>1.44952</v>
+        <v>1.25863</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.43839</v>
+        <v>1.29745</v>
       </c>
       <c r="C139" t="n">
-        <v>1.38021</v>
+        <v>1.26128</v>
       </c>
       <c r="D139" t="n">
-        <v>1.42445</v>
+        <v>1.25712</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.44708</v>
+        <v>1.29525</v>
       </c>
       <c r="C140" t="n">
-        <v>1.38282</v>
+        <v>1.26057</v>
       </c>
       <c r="D140" t="n">
-        <v>1.44643</v>
+        <v>1.25987</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.4556</v>
+        <v>1.29586</v>
       </c>
       <c r="C141" t="n">
-        <v>1.38245</v>
+        <v>1.2632</v>
       </c>
       <c r="D141" t="n">
-        <v>1.44711</v>
+        <v>1.25822</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.44295</v>
+        <v>1.29733</v>
       </c>
       <c r="C142" t="n">
-        <v>1.38094</v>
+        <v>1.26277</v>
       </c>
       <c r="D142" t="n">
-        <v>1.43131</v>
+        <v>1.25966</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.44401</v>
+        <v>1.30029</v>
       </c>
       <c r="C143" t="n">
-        <v>1.38227</v>
+        <v>1.26381</v>
       </c>
       <c r="D143" t="n">
-        <v>1.43295</v>
+        <v>1.25952</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.251686</v>
+        <v>0.253677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.217567</v>
+        <v>0.220421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.228238</v>
+        <v>0.233534</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.254568</v>
+        <v>0.25514</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21798</v>
+        <v>0.221111</v>
       </c>
       <c r="D3" t="n">
-        <v>0.228843</v>
+        <v>0.234173</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259362</v>
+        <v>0.26048</v>
       </c>
       <c r="C4" t="n">
-        <v>0.221933</v>
+        <v>0.224531</v>
       </c>
       <c r="D4" t="n">
-        <v>0.232571</v>
+        <v>0.23773</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.264366</v>
+        <v>0.266116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224991</v>
+        <v>0.228056</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237711</v>
+        <v>0.242149</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.268744</v>
+        <v>0.270116</v>
       </c>
       <c r="C6" t="n">
-        <v>0.227644</v>
+        <v>0.230574</v>
       </c>
       <c r="D6" t="n">
-        <v>0.241229</v>
+        <v>0.24609</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.276307</v>
+        <v>0.278278</v>
       </c>
       <c r="C7" t="n">
-        <v>0.231715</v>
+        <v>0.235491</v>
       </c>
       <c r="D7" t="n">
-        <v>0.248261</v>
+        <v>0.25302</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.285597</v>
+        <v>0.287754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.238323</v>
+        <v>0.24174</v>
       </c>
       <c r="D8" t="n">
-        <v>0.257666</v>
+        <v>0.262019</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.299124</v>
+        <v>0.301082</v>
       </c>
       <c r="C9" t="n">
-        <v>0.247968</v>
+        <v>0.251332</v>
       </c>
       <c r="D9" t="n">
-        <v>0.235957</v>
+        <v>0.242107</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.256249</v>
+        <v>0.259081</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225748</v>
+        <v>0.23022</v>
       </c>
       <c r="D10" t="n">
-        <v>0.237059</v>
+        <v>0.242797</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.257569</v>
+        <v>0.258713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226489</v>
+        <v>0.229938</v>
       </c>
       <c r="D11" t="n">
-        <v>0.237303</v>
+        <v>0.242756</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.260819</v>
+        <v>0.262975</v>
       </c>
       <c r="C12" t="n">
-        <v>0.229298</v>
+        <v>0.233493</v>
       </c>
       <c r="D12" t="n">
-        <v>0.239872</v>
+        <v>0.245709</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.261379</v>
+        <v>0.264184</v>
       </c>
       <c r="C13" t="n">
-        <v>0.231891</v>
+        <v>0.234219</v>
       </c>
       <c r="D13" t="n">
-        <v>0.240481</v>
+        <v>0.245773</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.263939</v>
+        <v>0.265642</v>
       </c>
       <c r="C14" t="n">
-        <v>0.231233</v>
+        <v>0.234518</v>
       </c>
       <c r="D14" t="n">
-        <v>0.241896</v>
+        <v>0.247171</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.266356</v>
+        <v>0.267</v>
       </c>
       <c r="C15" t="n">
-        <v>0.232578</v>
+        <v>0.236655</v>
       </c>
       <c r="D15" t="n">
-        <v>0.243376</v>
+        <v>0.248708</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.268198</v>
+        <v>0.270164</v>
       </c>
       <c r="C16" t="n">
-        <v>0.233878</v>
+        <v>0.238403</v>
       </c>
       <c r="D16" t="n">
-        <v>0.244567</v>
+        <v>0.249998</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.271024</v>
+        <v>0.272591</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235085</v>
+        <v>0.239294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245841</v>
+        <v>0.25132</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.27365</v>
+        <v>0.275685</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239312</v>
+        <v>0.240486</v>
       </c>
       <c r="D18" t="n">
-        <v>0.248549</v>
+        <v>0.253032</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.279171</v>
+        <v>0.282718</v>
       </c>
       <c r="C19" t="n">
-        <v>0.240215</v>
+        <v>0.245196</v>
       </c>
       <c r="D19" t="n">
-        <v>0.250789</v>
+        <v>0.256648</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.282786</v>
+        <v>0.283983</v>
       </c>
       <c r="C20" t="n">
-        <v>0.242013</v>
+        <v>0.244238</v>
       </c>
       <c r="D20" t="n">
-        <v>0.253397</v>
+        <v>0.257915</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.287262</v>
+        <v>0.289077</v>
       </c>
       <c r="C21" t="n">
-        <v>0.244234</v>
+        <v>0.247453</v>
       </c>
       <c r="D21" t="n">
-        <v>0.257646</v>
+        <v>0.262776</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.294395</v>
+        <v>0.297516</v>
       </c>
       <c r="C22" t="n">
-        <v>0.248866</v>
+        <v>0.252798</v>
       </c>
       <c r="D22" t="n">
-        <v>0.265276</v>
+        <v>0.269817</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.303638</v>
+        <v>0.306738</v>
       </c>
       <c r="C23" t="n">
-        <v>0.254356</v>
+        <v>0.258495</v>
       </c>
       <c r="D23" t="n">
-        <v>0.252032</v>
+        <v>0.258815</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.28254</v>
+        <v>0.279</v>
       </c>
       <c r="C24" t="n">
-        <v>0.252442</v>
+        <v>0.253254</v>
       </c>
       <c r="D24" t="n">
-        <v>0.254021</v>
+        <v>0.257962</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.281416</v>
+        <v>0.280098</v>
       </c>
       <c r="C25" t="n">
-        <v>0.251845</v>
+        <v>0.254179</v>
       </c>
       <c r="D25" t="n">
-        <v>0.254017</v>
+        <v>0.259034</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.281948</v>
+        <v>0.281838</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250581</v>
+        <v>0.25492</v>
       </c>
       <c r="D26" t="n">
-        <v>0.253925</v>
+        <v>0.260453</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.282594</v>
+        <v>0.282723</v>
       </c>
       <c r="C27" t="n">
-        <v>0.252409</v>
+        <v>0.255195</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255901</v>
+        <v>0.260294</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.284631</v>
+        <v>0.284245</v>
       </c>
       <c r="C28" t="n">
-        <v>0.253988</v>
+        <v>0.256362</v>
       </c>
       <c r="D28" t="n">
-        <v>0.255786</v>
+        <v>0.261031</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.285725</v>
+        <v>0.28425</v>
       </c>
       <c r="C29" t="n">
-        <v>0.252719</v>
+        <v>0.254917</v>
       </c>
       <c r="D29" t="n">
-        <v>0.256702</v>
+        <v>0.261391</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.288158</v>
+        <v>0.286113</v>
       </c>
       <c r="C30" t="n">
-        <v>0.256148</v>
+        <v>0.257586</v>
       </c>
       <c r="D30" t="n">
-        <v>0.257595</v>
+        <v>0.262953</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.290456</v>
+        <v>0.288581</v>
       </c>
       <c r="C31" t="n">
-        <v>0.255397</v>
+        <v>0.258531</v>
       </c>
       <c r="D31" t="n">
-        <v>0.258303</v>
+        <v>0.262945</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.293011</v>
+        <v>0.291341</v>
       </c>
       <c r="C32" t="n">
-        <v>0.257163</v>
+        <v>0.258621</v>
       </c>
       <c r="D32" t="n">
-        <v>0.260121</v>
+        <v>0.264743</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.29628</v>
+        <v>0.296232</v>
       </c>
       <c r="C33" t="n">
-        <v>0.257536</v>
+        <v>0.26048</v>
       </c>
       <c r="D33" t="n">
-        <v>0.262465</v>
+        <v>0.266608</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.299254</v>
+        <v>0.300579</v>
       </c>
       <c r="C34" t="n">
-        <v>0.258483</v>
+        <v>0.26346</v>
       </c>
       <c r="D34" t="n">
-        <v>0.264335</v>
+        <v>0.269869</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.304982</v>
+        <v>0.304648</v>
       </c>
       <c r="C35" t="n">
-        <v>0.260972</v>
+        <v>0.265948</v>
       </c>
       <c r="D35" t="n">
-        <v>0.267931</v>
+        <v>0.27894</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.310181</v>
+        <v>0.311625</v>
       </c>
       <c r="C36" t="n">
-        <v>0.267063</v>
+        <v>0.26839</v>
       </c>
       <c r="D36" t="n">
-        <v>0.275042</v>
+        <v>0.279654</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.31884</v>
+        <v>0.321457</v>
       </c>
       <c r="C37" t="n">
-        <v>0.270016</v>
+        <v>0.274349</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273665</v>
+        <v>0.279938</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301388</v>
+        <v>0.300506</v>
       </c>
       <c r="C38" t="n">
-        <v>0.273564</v>
+        <v>0.27909</v>
       </c>
       <c r="D38" t="n">
-        <v>0.275796</v>
+        <v>0.279217</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.301883</v>
+        <v>0.302472</v>
       </c>
       <c r="C39" t="n">
-        <v>0.271522</v>
+        <v>0.276875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.272911</v>
+        <v>0.278382</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302431</v>
+        <v>0.302663</v>
       </c>
       <c r="C40" t="n">
-        <v>0.274157</v>
+        <v>0.278325</v>
       </c>
       <c r="D40" t="n">
-        <v>0.273849</v>
+        <v>0.279556</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.303536</v>
+        <v>0.303617</v>
       </c>
       <c r="C41" t="n">
-        <v>0.275312</v>
+        <v>0.280972</v>
       </c>
       <c r="D41" t="n">
-        <v>0.274154</v>
+        <v>0.279433</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.303736</v>
+        <v>0.305145</v>
       </c>
       <c r="C42" t="n">
-        <v>0.273826</v>
+        <v>0.279118</v>
       </c>
       <c r="D42" t="n">
-        <v>0.274743</v>
+        <v>0.280864</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.305891</v>
+        <v>0.304871</v>
       </c>
       <c r="C43" t="n">
-        <v>0.275085</v>
+        <v>0.283752</v>
       </c>
       <c r="D43" t="n">
-        <v>0.274582</v>
+        <v>0.287438</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.305751</v>
+        <v>0.307793</v>
       </c>
       <c r="C44" t="n">
-        <v>0.275216</v>
+        <v>0.279192</v>
       </c>
       <c r="D44" t="n">
-        <v>0.275441</v>
+        <v>0.281686</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30866</v>
+        <v>0.31063</v>
       </c>
       <c r="C45" t="n">
-        <v>0.274538</v>
+        <v>0.280218</v>
       </c>
       <c r="D45" t="n">
-        <v>0.275489</v>
+        <v>0.281784</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.310906</v>
+        <v>0.311369</v>
       </c>
       <c r="C46" t="n">
-        <v>0.276573</v>
+        <v>0.281362</v>
       </c>
       <c r="D46" t="n">
-        <v>0.277468</v>
+        <v>0.283008</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.315229</v>
+        <v>0.315664</v>
       </c>
       <c r="C47" t="n">
-        <v>0.277166</v>
+        <v>0.280962</v>
       </c>
       <c r="D47" t="n">
-        <v>0.278908</v>
+        <v>0.283845</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.318129</v>
+        <v>0.317984</v>
       </c>
       <c r="C48" t="n">
-        <v>0.279751</v>
+        <v>0.286269</v>
       </c>
       <c r="D48" t="n">
-        <v>0.282015</v>
+        <v>0.287047</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.323302</v>
+        <v>0.32475</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2814</v>
+        <v>0.285086</v>
       </c>
       <c r="D49" t="n">
-        <v>0.285963</v>
+        <v>0.289613</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.327035</v>
+        <v>0.329761</v>
       </c>
       <c r="C50" t="n">
-        <v>0.283432</v>
+        <v>0.289169</v>
       </c>
       <c r="D50" t="n">
-        <v>0.290635</v>
+        <v>0.295169</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.334597</v>
+        <v>0.335685</v>
       </c>
       <c r="C51" t="n">
-        <v>0.288617</v>
+        <v>0.29416</v>
       </c>
       <c r="D51" t="n">
-        <v>0.291272</v>
+        <v>0.301257</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.34609</v>
+        <v>0.347398</v>
       </c>
       <c r="C52" t="n">
-        <v>0.295185</v>
+        <v>0.301156</v>
       </c>
       <c r="D52" t="n">
-        <v>0.294755</v>
+        <v>0.302741</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.325581</v>
+        <v>0.324941</v>
       </c>
       <c r="C53" t="n">
-        <v>0.295612</v>
+        <v>0.301759</v>
       </c>
       <c r="D53" t="n">
-        <v>0.296144</v>
+        <v>0.301788</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.324651</v>
+        <v>0.325039</v>
       </c>
       <c r="C54" t="n">
-        <v>0.296428</v>
+        <v>0.301468</v>
       </c>
       <c r="D54" t="n">
-        <v>0.297542</v>
+        <v>0.303375</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.32572</v>
+        <v>0.325952</v>
       </c>
       <c r="C55" t="n">
-        <v>0.297311</v>
+        <v>0.302071</v>
       </c>
       <c r="D55" t="n">
-        <v>0.296522</v>
+        <v>0.304058</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.326097</v>
+        <v>0.327583</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2964</v>
+        <v>0.302338</v>
       </c>
       <c r="D56" t="n">
-        <v>0.298226</v>
+        <v>0.304504</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328224</v>
+        <v>0.327661</v>
       </c>
       <c r="C57" t="n">
-        <v>0.297547</v>
+        <v>0.303117</v>
       </c>
       <c r="D57" t="n">
-        <v>0.297605</v>
+        <v>0.304486</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.329172</v>
+        <v>0.329881</v>
       </c>
       <c r="C58" t="n">
-        <v>0.297511</v>
+        <v>0.303237</v>
       </c>
       <c r="D58" t="n">
-        <v>0.298703</v>
+        <v>0.305522</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.331431</v>
+        <v>0.331248</v>
       </c>
       <c r="C59" t="n">
-        <v>0.298291</v>
+        <v>0.303523</v>
       </c>
       <c r="D59" t="n">
-        <v>0.299583</v>
+        <v>0.305765</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.334734</v>
+        <v>0.334544</v>
       </c>
       <c r="C60" t="n">
-        <v>0.299101</v>
+        <v>0.305498</v>
       </c>
       <c r="D60" t="n">
-        <v>0.300926</v>
+        <v>0.307029</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.337138</v>
+        <v>0.337707</v>
       </c>
       <c r="C61" t="n">
-        <v>0.301123</v>
+        <v>0.306229</v>
       </c>
       <c r="D61" t="n">
-        <v>0.302691</v>
+        <v>0.309079</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.339849</v>
+        <v>0.341024</v>
       </c>
       <c r="C62" t="n">
-        <v>0.30168</v>
+        <v>0.307631</v>
       </c>
       <c r="D62" t="n">
-        <v>0.305403</v>
+        <v>0.310724</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.344973</v>
+        <v>0.344752</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303959</v>
+        <v>0.309037</v>
       </c>
       <c r="D63" t="n">
-        <v>0.307611</v>
+        <v>0.312986</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.349688</v>
+        <v>0.352501</v>
       </c>
       <c r="C64" t="n">
-        <v>0.306467</v>
+        <v>0.31141</v>
       </c>
       <c r="D64" t="n">
-        <v>0.312696</v>
+        <v>0.318093</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.35773</v>
+        <v>0.358304</v>
       </c>
       <c r="C65" t="n">
-        <v>0.310578</v>
+        <v>0.316409</v>
       </c>
       <c r="D65" t="n">
-        <v>0.320499</v>
+        <v>0.325276</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.366341</v>
+        <v>0.367213</v>
       </c>
       <c r="C66" t="n">
-        <v>0.318171</v>
+        <v>0.321795</v>
       </c>
       <c r="D66" t="n">
-        <v>0.312719</v>
+        <v>0.317337</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.341511</v>
+        <v>0.341089</v>
       </c>
       <c r="C67" t="n">
-        <v>0.312761</v>
+        <v>0.31824</v>
       </c>
       <c r="D67" t="n">
-        <v>0.313333</v>
+        <v>0.318997</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341388</v>
+        <v>0.341837</v>
       </c>
       <c r="C68" t="n">
-        <v>0.312574</v>
+        <v>0.317601</v>
       </c>
       <c r="D68" t="n">
-        <v>0.313011</v>
+        <v>0.318399</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343031</v>
+        <v>0.342693</v>
       </c>
       <c r="C69" t="n">
-        <v>0.312964</v>
+        <v>0.318012</v>
       </c>
       <c r="D69" t="n">
-        <v>0.313711</v>
+        <v>0.319327</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3434</v>
+        <v>0.343016</v>
       </c>
       <c r="C70" t="n">
-        <v>0.31369</v>
+        <v>0.319037</v>
       </c>
       <c r="D70" t="n">
-        <v>0.314482</v>
+        <v>0.319583</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.345734</v>
+        <v>0.344518</v>
       </c>
       <c r="C71" t="n">
-        <v>0.31391</v>
+        <v>0.318943</v>
       </c>
       <c r="D71" t="n">
-        <v>0.314464</v>
+        <v>0.319773</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.345811</v>
+        <v>0.346557</v>
       </c>
       <c r="C72" t="n">
-        <v>0.315079</v>
+        <v>0.319247</v>
       </c>
       <c r="D72" t="n">
-        <v>0.315646</v>
+        <v>0.320504</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347947</v>
+        <v>0.347948</v>
       </c>
       <c r="C73" t="n">
-        <v>0.314384</v>
+        <v>0.320201</v>
       </c>
       <c r="D73" t="n">
-        <v>0.315643</v>
+        <v>0.32177</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.349842</v>
+        <v>0.3505</v>
       </c>
       <c r="C74" t="n">
-        <v>0.315492</v>
+        <v>0.32082</v>
       </c>
       <c r="D74" t="n">
-        <v>0.316385</v>
+        <v>0.322274</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.352733</v>
+        <v>0.353291</v>
       </c>
       <c r="C75" t="n">
-        <v>0.315899</v>
+        <v>0.322345</v>
       </c>
       <c r="D75" t="n">
-        <v>0.317661</v>
+        <v>0.32378</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.356185</v>
+        <v>0.356823</v>
       </c>
       <c r="C76" t="n">
-        <v>0.318117</v>
+        <v>0.322925</v>
       </c>
       <c r="D76" t="n">
-        <v>0.320434</v>
+        <v>0.325706</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.360258</v>
+        <v>0.360516</v>
       </c>
       <c r="C77" t="n">
-        <v>0.320275</v>
+        <v>0.325456</v>
       </c>
       <c r="D77" t="n">
-        <v>0.323929</v>
+        <v>0.32872</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.365458</v>
+        <v>0.366053</v>
       </c>
       <c r="C78" t="n">
-        <v>0.323012</v>
+        <v>0.32781</v>
       </c>
       <c r="D78" t="n">
-        <v>0.328266</v>
+        <v>0.332923</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.373437</v>
+        <v>0.373304</v>
       </c>
       <c r="C79" t="n">
-        <v>0.326459</v>
+        <v>0.332086</v>
       </c>
       <c r="D79" t="n">
-        <v>0.334818</v>
+        <v>0.340043</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.381831</v>
+        <v>0.382201</v>
       </c>
       <c r="C80" t="n">
-        <v>0.332082</v>
+        <v>0.33727</v>
       </c>
       <c r="D80" t="n">
-        <v>0.332158</v>
+        <v>0.334373</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3665</v>
+        <v>0.362738</v>
       </c>
       <c r="C81" t="n">
-        <v>0.337348</v>
+        <v>0.337238</v>
       </c>
       <c r="D81" t="n">
-        <v>0.332955</v>
+        <v>0.335968</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.365072</v>
+        <v>0.363042</v>
       </c>
       <c r="C82" t="n">
-        <v>0.336113</v>
+        <v>0.337269</v>
       </c>
       <c r="D82" t="n">
-        <v>0.329586</v>
+        <v>0.334819</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.366619</v>
+        <v>0.364403</v>
       </c>
       <c r="C83" t="n">
-        <v>0.333748</v>
+        <v>0.338687</v>
       </c>
       <c r="D83" t="n">
-        <v>0.330891</v>
+        <v>0.335689</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.366325</v>
+        <v>0.366007</v>
       </c>
       <c r="C84" t="n">
-        <v>0.335745</v>
+        <v>0.339352</v>
       </c>
       <c r="D84" t="n">
-        <v>0.331303</v>
+        <v>0.335782</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.366689</v>
+        <v>0.364843</v>
       </c>
       <c r="C85" t="n">
-        <v>0.335907</v>
+        <v>0.340702</v>
       </c>
       <c r="D85" t="n">
-        <v>0.331181</v>
+        <v>0.337107</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.366372</v>
+        <v>0.366349</v>
       </c>
       <c r="C86" t="n">
-        <v>0.337154</v>
+        <v>0.338968</v>
       </c>
       <c r="D86" t="n">
-        <v>0.331559</v>
+        <v>0.338803</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.371723</v>
+        <v>0.367766</v>
       </c>
       <c r="C87" t="n">
-        <v>0.335561</v>
+        <v>0.341006</v>
       </c>
       <c r="D87" t="n">
-        <v>0.335296</v>
+        <v>0.338101</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.371456</v>
+        <v>0.371212</v>
       </c>
       <c r="C88" t="n">
-        <v>0.336185</v>
+        <v>0.342641</v>
       </c>
       <c r="D88" t="n">
-        <v>0.334579</v>
+        <v>0.338553</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.376896</v>
+        <v>0.372667</v>
       </c>
       <c r="C89" t="n">
-        <v>0.340671</v>
+        <v>0.341381</v>
       </c>
       <c r="D89" t="n">
-        <v>0.336469</v>
+        <v>0.340022</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.378644</v>
+        <v>0.378186</v>
       </c>
       <c r="C90" t="n">
-        <v>0.34064</v>
+        <v>0.344206</v>
       </c>
       <c r="D90" t="n">
-        <v>0.33733</v>
+        <v>0.341571</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.38385</v>
+        <v>0.381316</v>
       </c>
       <c r="C91" t="n">
-        <v>0.341646</v>
+        <v>0.344452</v>
       </c>
       <c r="D91" t="n">
-        <v>0.34001</v>
+        <v>0.345989</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.386451</v>
+        <v>0.384611</v>
       </c>
       <c r="C92" t="n">
-        <v>0.343883</v>
+        <v>0.350124</v>
       </c>
       <c r="D92" t="n">
-        <v>0.343335</v>
+        <v>0.34896</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.393125</v>
+        <v>0.391583</v>
       </c>
       <c r="C93" t="n">
-        <v>0.346972</v>
+        <v>0.350882</v>
       </c>
       <c r="D93" t="n">
-        <v>0.349664</v>
+        <v>0.354582</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.401745</v>
+        <v>0.405515</v>
       </c>
       <c r="C94" t="n">
-        <v>0.352304</v>
+        <v>0.357861</v>
       </c>
       <c r="D94" t="n">
-        <v>0.485724</v>
+        <v>0.485534</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.549544</v>
+        <v>0.552391</v>
       </c>
       <c r="C95" t="n">
-        <v>0.505372</v>
+        <v>0.508988</v>
       </c>
       <c r="D95" t="n">
-        <v>0.490424</v>
+        <v>0.483638</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5468150000000001</v>
+        <v>0.547852</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5085769999999999</v>
+        <v>0.511522</v>
       </c>
       <c r="D96" t="n">
-        <v>0.477474</v>
+        <v>0.484517</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.54893</v>
+        <v>0.548329</v>
       </c>
       <c r="C97" t="n">
-        <v>0.506825</v>
+        <v>0.5074920000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.484383</v>
+        <v>0.484227</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.546696</v>
+        <v>0.549853</v>
       </c>
       <c r="C98" t="n">
-        <v>0.507954</v>
+        <v>0.512451</v>
       </c>
       <c r="D98" t="n">
-        <v>0.48067</v>
+        <v>0.483143</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.549972</v>
+        <v>0.540709</v>
       </c>
       <c r="C99" t="n">
-        <v>0.508432</v>
+        <v>0.5114649999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.480799</v>
+        <v>0.478294</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.549211</v>
+        <v>0.559765</v>
       </c>
       <c r="C100" t="n">
-        <v>0.507521</v>
+        <v>0.499964</v>
       </c>
       <c r="D100" t="n">
-        <v>0.487817</v>
+        <v>0.490463</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5492359999999999</v>
+        <v>0.54957</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5044149999999999</v>
+        <v>0.514767</v>
       </c>
       <c r="D101" t="n">
-        <v>0.479003</v>
+        <v>0.489308</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.553503</v>
+        <v>0.551025</v>
       </c>
       <c r="C102" t="n">
-        <v>0.506397</v>
+        <v>0.504625</v>
       </c>
       <c r="D102" t="n">
-        <v>0.486376</v>
+        <v>0.483263</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.553407</v>
+        <v>0.559783</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5102179999999999</v>
+        <v>0.512607</v>
       </c>
       <c r="D103" t="n">
-        <v>0.476282</v>
+        <v>0.490342</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.559299</v>
+        <v>0.558272</v>
       </c>
       <c r="C104" t="n">
-        <v>0.505627</v>
+        <v>0.506655</v>
       </c>
       <c r="D104" t="n">
-        <v>0.489903</v>
+        <v>0.483557</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.553688</v>
+        <v>0.565771</v>
       </c>
       <c r="C105" t="n">
-        <v>0.513884</v>
+        <v>0.511625</v>
       </c>
       <c r="D105" t="n">
-        <v>0.486226</v>
+        <v>0.496192</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.564615</v>
+        <v>0.561185</v>
       </c>
       <c r="C106" t="n">
-        <v>0.504606</v>
+        <v>0.514339</v>
       </c>
       <c r="D106" t="n">
-        <v>0.48816</v>
+        <v>0.489564</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.562355</v>
+        <v>0.57053</v>
       </c>
       <c r="C107" t="n">
-        <v>0.511067</v>
+        <v>0.516576</v>
       </c>
       <c r="D107" t="n">
-        <v>0.481774</v>
+        <v>0.49415</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.571605</v>
+        <v>0.576976</v>
       </c>
       <c r="C108" t="n">
-        <v>0.508873</v>
+        <v>0.51619</v>
       </c>
       <c r="D108" t="n">
-        <v>0.784365</v>
+        <v>0.784951</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.582524</v>
+        <v>0.579103</v>
       </c>
       <c r="C109" t="n">
-        <v>0.519651</v>
+        <v>0.516242</v>
       </c>
       <c r="D109" t="n">
-        <v>0.780186</v>
+        <v>0.7854680000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.830394</v>
+        <v>0.831433</v>
       </c>
       <c r="C110" t="n">
-        <v>0.79331</v>
+        <v>0.799036</v>
       </c>
       <c r="D110" t="n">
-        <v>0.778013</v>
+        <v>0.785934</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.832111</v>
+        <v>0.832796</v>
       </c>
       <c r="C111" t="n">
-        <v>0.795004</v>
+        <v>0.794632</v>
       </c>
       <c r="D111" t="n">
-        <v>0.778282</v>
+        <v>0.784921</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.836472</v>
+        <v>0.833905</v>
       </c>
       <c r="C112" t="n">
-        <v>0.792338</v>
+        <v>0.794566</v>
       </c>
       <c r="D112" t="n">
-        <v>0.778735</v>
+        <v>0.783427</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.835306</v>
+        <v>0.8323430000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.791564</v>
+        <v>0.796878</v>
       </c>
       <c r="D113" t="n">
-        <v>0.77882</v>
+        <v>0.785617</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.835799</v>
+        <v>0.8361960000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.793428</v>
+        <v>0.7966220000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.777786</v>
+        <v>0.7865490000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.836961</v>
+        <v>0.837529</v>
       </c>
       <c r="C115" t="n">
-        <v>0.793374</v>
+        <v>0.796784</v>
       </c>
       <c r="D115" t="n">
-        <v>0.779325</v>
+        <v>0.785421</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.838765</v>
+        <v>0.83761</v>
       </c>
       <c r="C116" t="n">
-        <v>0.794296</v>
+        <v>0.796701</v>
       </c>
       <c r="D116" t="n">
-        <v>0.778846</v>
+        <v>0.784411</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8396940000000001</v>
+        <v>0.839531</v>
       </c>
       <c r="C117" t="n">
-        <v>0.793878</v>
+        <v>0.79673</v>
       </c>
       <c r="D117" t="n">
-        <v>0.780964</v>
+        <v>0.789019</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.843154</v>
+        <v>0.844391</v>
       </c>
       <c r="C118" t="n">
-        <v>0.795472</v>
+        <v>0.7977109999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.781215</v>
+        <v>0.786192</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.844309</v>
+        <v>0.8442</v>
       </c>
       <c r="C119" t="n">
-        <v>0.797937</v>
+        <v>0.800754</v>
       </c>
       <c r="D119" t="n">
-        <v>0.783334</v>
+        <v>0.787584</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.848332</v>
+        <v>0.849317</v>
       </c>
       <c r="C120" t="n">
-        <v>0.800249</v>
+        <v>0.80278</v>
       </c>
       <c r="D120" t="n">
-        <v>0.784023</v>
+        <v>0.788974</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.854766</v>
+        <v>0.8540990000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.800542</v>
+        <v>0.807014</v>
       </c>
       <c r="D121" t="n">
-        <v>0.788988</v>
+        <v>0.7923519999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.859706</v>
+        <v>0.860159</v>
       </c>
       <c r="C122" t="n">
-        <v>0.806775</v>
+        <v>0.806463</v>
       </c>
       <c r="D122" t="n">
-        <v>0.792566</v>
+        <v>0.800041</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.869304</v>
+        <v>0.87214</v>
       </c>
       <c r="C123" t="n">
-        <v>0.811809</v>
+        <v>0.8139420000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>1.03588</v>
+        <v>1.03987</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.07849</v>
+        <v>1.08008</v>
       </c>
       <c r="C124" t="n">
-        <v>1.04093</v>
+        <v>1.04478</v>
       </c>
       <c r="D124" t="n">
-        <v>1.03432</v>
+        <v>1.041</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.07609</v>
+        <v>1.07447</v>
       </c>
       <c r="C125" t="n">
-        <v>1.04284</v>
+        <v>1.04496</v>
       </c>
       <c r="D125" t="n">
-        <v>1.03833</v>
+        <v>1.04243</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.07543</v>
+        <v>1.07697</v>
       </c>
       <c r="C126" t="n">
-        <v>1.04059</v>
+        <v>1.04716</v>
       </c>
       <c r="D126" t="n">
-        <v>1.03592</v>
+        <v>1.04115</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.07704</v>
+        <v>1.07808</v>
       </c>
       <c r="C127" t="n">
-        <v>1.03998</v>
+        <v>1.04565</v>
       </c>
       <c r="D127" t="n">
-        <v>1.0355</v>
+        <v>1.04245</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.08089</v>
+        <v>1.0777</v>
       </c>
       <c r="C128" t="n">
-        <v>1.04258</v>
+        <v>1.04342</v>
       </c>
       <c r="D128" t="n">
-        <v>1.03912</v>
+        <v>1.04325</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08025</v>
+        <v>1.08084</v>
       </c>
       <c r="C129" t="n">
-        <v>1.04058</v>
+        <v>1.0473</v>
       </c>
       <c r="D129" t="n">
-        <v>1.03583</v>
+        <v>1.04122</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.08229</v>
+        <v>1.08049</v>
       </c>
       <c r="C130" t="n">
-        <v>1.04494</v>
+        <v>1.04691</v>
       </c>
       <c r="D130" t="n">
-        <v>1.03939</v>
+        <v>1.04479</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.08374</v>
+        <v>1.08381</v>
       </c>
       <c r="C131" t="n">
-        <v>1.046</v>
+        <v>1.05136</v>
       </c>
       <c r="D131" t="n">
-        <v>1.03935</v>
+        <v>1.04559</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08595</v>
+        <v>1.08625</v>
       </c>
       <c r="C132" t="n">
-        <v>1.04863</v>
+        <v>1.05141</v>
       </c>
       <c r="D132" t="n">
-        <v>1.03884</v>
+        <v>1.04445</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.09255</v>
+        <v>1.09472</v>
       </c>
       <c r="C133" t="n">
-        <v>1.05067</v>
+        <v>1.05144</v>
       </c>
       <c r="D133" t="n">
-        <v>1.04226</v>
+        <v>1.04926</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.09684</v>
+        <v>1.0935</v>
       </c>
       <c r="C134" t="n">
-        <v>1.0504</v>
+        <v>1.05344</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04627</v>
+        <v>1.05039</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.10292</v>
+        <v>1.09941</v>
       </c>
       <c r="C135" t="n">
-        <v>1.0578</v>
+        <v>1.05555</v>
       </c>
       <c r="D135" t="n">
-        <v>1.05376</v>
+        <v>1.05391</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.10939</v>
+        <v>1.10732</v>
       </c>
       <c r="C136" t="n">
-        <v>1.06041</v>
+        <v>1.06243</v>
       </c>
       <c r="D136" t="n">
-        <v>1.05544</v>
+        <v>1.06109</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.11794</v>
+        <v>1.12116</v>
       </c>
       <c r="C137" t="n">
-        <v>1.06911</v>
+        <v>1.06952</v>
       </c>
       <c r="D137" t="n">
-        <v>1.25916</v>
+        <v>1.26471</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.29556</v>
+        <v>1.29558</v>
       </c>
       <c r="C138" t="n">
-        <v>1.26147</v>
+        <v>1.26368</v>
       </c>
       <c r="D138" t="n">
-        <v>1.25863</v>
+        <v>1.2643</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29745</v>
+        <v>1.29688</v>
       </c>
       <c r="C139" t="n">
-        <v>1.26128</v>
+        <v>1.26505</v>
       </c>
       <c r="D139" t="n">
-        <v>1.25712</v>
+        <v>1.26421</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29525</v>
+        <v>1.29671</v>
       </c>
       <c r="C140" t="n">
-        <v>1.26057</v>
+        <v>1.26602</v>
       </c>
       <c r="D140" t="n">
-        <v>1.25987</v>
+        <v>1.26504</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.29586</v>
+        <v>1.29821</v>
       </c>
       <c r="C141" t="n">
-        <v>1.2632</v>
+        <v>1.26562</v>
       </c>
       <c r="D141" t="n">
-        <v>1.25822</v>
+        <v>1.26645</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.29733</v>
+        <v>1.29912</v>
       </c>
       <c r="C142" t="n">
-        <v>1.26277</v>
+        <v>1.26678</v>
       </c>
       <c r="D142" t="n">
-        <v>1.25966</v>
+        <v>1.26782</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.30029</v>
+        <v>1.29923</v>
       </c>
       <c r="C143" t="n">
-        <v>1.26381</v>
+        <v>1.26652</v>
       </c>
       <c r="D143" t="n">
-        <v>1.25952</v>
+        <v>1.26807</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.253677</v>
+        <v>0.10338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.220421</v>
+        <v>0.0805834</v>
       </c>
       <c r="D2" t="n">
-        <v>0.233534</v>
+        <v>0.0896532</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.25514</v>
+        <v>0.103998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.221111</v>
+        <v>0.08058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.234173</v>
+        <v>0.08955299999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.26048</v>
+        <v>0.105011</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224531</v>
+        <v>0.0810916</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23773</v>
+        <v>0.0896145</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.266116</v>
+        <v>0.106364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228056</v>
+        <v>0.0813836</v>
       </c>
       <c r="D5" t="n">
-        <v>0.242149</v>
+        <v>0.090376</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.270116</v>
+        <v>0.108449</v>
       </c>
       <c r="C6" t="n">
-        <v>0.230574</v>
+        <v>0.0816733</v>
       </c>
       <c r="D6" t="n">
-        <v>0.24609</v>
+        <v>0.0910205</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.278278</v>
+        <v>0.11155</v>
       </c>
       <c r="C7" t="n">
-        <v>0.235491</v>
+        <v>0.0819102</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25302</v>
+        <v>0.091983</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.287754</v>
+        <v>0.118204</v>
       </c>
       <c r="C8" t="n">
-        <v>0.24174</v>
+        <v>0.0824607</v>
       </c>
       <c r="D8" t="n">
-        <v>0.262019</v>
+        <v>0.0937344</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.301082</v>
+        <v>0.130199</v>
       </c>
       <c r="C9" t="n">
-        <v>0.251332</v>
+        <v>0.083663</v>
       </c>
       <c r="D9" t="n">
-        <v>0.242107</v>
+        <v>0.0934546</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.259081</v>
+        <v>0.107367</v>
       </c>
       <c r="C10" t="n">
-        <v>0.23022</v>
+        <v>0.0846792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.242797</v>
+        <v>0.092499</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.258713</v>
+        <v>0.106396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.229938</v>
+        <v>0.0840664</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242756</v>
+        <v>0.0927785</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.262975</v>
+        <v>0.111036</v>
       </c>
       <c r="C12" t="n">
-        <v>0.233493</v>
+        <v>0.0866219</v>
       </c>
       <c r="D12" t="n">
-        <v>0.245709</v>
+        <v>0.0943683</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.264184</v>
+        <v>0.109392</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234219</v>
+        <v>0.0871494</v>
       </c>
       <c r="D13" t="n">
-        <v>0.245773</v>
+        <v>0.0942967</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.265642</v>
+        <v>0.108572</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234518</v>
+        <v>0.0853762</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247171</v>
+        <v>0.09386070000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.267</v>
+        <v>0.109616</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236655</v>
+        <v>0.0863384</v>
       </c>
       <c r="D15" t="n">
-        <v>0.248708</v>
+        <v>0.0941492</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.270164</v>
+        <v>0.111033</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238403</v>
+        <v>0.08567</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249998</v>
+        <v>0.093749</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.272591</v>
+        <v>0.112309</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239294</v>
+        <v>0.0867568</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25132</v>
+        <v>0.0943421</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.275685</v>
+        <v>0.114488</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240486</v>
+        <v>0.08649560000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.253032</v>
+        <v>0.09481050000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.282718</v>
+        <v>0.115638</v>
       </c>
       <c r="C19" t="n">
-        <v>0.245196</v>
+        <v>0.08606560000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.256648</v>
+        <v>0.0949718</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.283983</v>
+        <v>0.118936</v>
       </c>
       <c r="C20" t="n">
-        <v>0.244238</v>
+        <v>0.08650330000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.257915</v>
+        <v>0.0952547</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.289077</v>
+        <v>0.125676</v>
       </c>
       <c r="C21" t="n">
-        <v>0.247453</v>
+        <v>0.0879098</v>
       </c>
       <c r="D21" t="n">
-        <v>0.262776</v>
+        <v>0.0970729</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.297516</v>
+        <v>0.133895</v>
       </c>
       <c r="C22" t="n">
-        <v>0.252798</v>
+        <v>0.0904373</v>
       </c>
       <c r="D22" t="n">
-        <v>0.269817</v>
+        <v>0.102258</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.306738</v>
+        <v>0.142662</v>
       </c>
       <c r="C23" t="n">
-        <v>0.258495</v>
+        <v>0.0951828</v>
       </c>
       <c r="D23" t="n">
-        <v>0.258815</v>
+        <v>0.102391</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.279</v>
+        <v>0.117906</v>
       </c>
       <c r="C24" t="n">
-        <v>0.253254</v>
+        <v>0.0944159</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257962</v>
+        <v>0.101001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.280098</v>
+        <v>0.117773</v>
       </c>
       <c r="C25" t="n">
-        <v>0.254179</v>
+        <v>0.0946538</v>
       </c>
       <c r="D25" t="n">
-        <v>0.259034</v>
+        <v>0.100994</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.281838</v>
+        <v>0.118728</v>
       </c>
       <c r="C26" t="n">
-        <v>0.25492</v>
+        <v>0.0947665</v>
       </c>
       <c r="D26" t="n">
-        <v>0.260453</v>
+        <v>0.101799</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.282723</v>
+        <v>0.118618</v>
       </c>
       <c r="C27" t="n">
-        <v>0.255195</v>
+        <v>0.0955941</v>
       </c>
       <c r="D27" t="n">
-        <v>0.260294</v>
+        <v>0.101736</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.284245</v>
+        <v>0.119979</v>
       </c>
       <c r="C28" t="n">
-        <v>0.256362</v>
+        <v>0.09514</v>
       </c>
       <c r="D28" t="n">
-        <v>0.261031</v>
+        <v>0.101839</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28425</v>
+        <v>0.120438</v>
       </c>
       <c r="C29" t="n">
-        <v>0.254917</v>
+        <v>0.09543</v>
       </c>
       <c r="D29" t="n">
-        <v>0.261391</v>
+        <v>0.102074</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.286113</v>
+        <v>0.121024</v>
       </c>
       <c r="C30" t="n">
-        <v>0.257586</v>
+        <v>0.09523189999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.262953</v>
+        <v>0.102045</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.288581</v>
+        <v>0.123102</v>
       </c>
       <c r="C31" t="n">
-        <v>0.258531</v>
+        <v>0.0953044</v>
       </c>
       <c r="D31" t="n">
-        <v>0.262945</v>
+        <v>0.101972</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.291341</v>
+        <v>0.125291</v>
       </c>
       <c r="C32" t="n">
-        <v>0.258621</v>
+        <v>0.0992121</v>
       </c>
       <c r="D32" t="n">
-        <v>0.264743</v>
+        <v>0.102587</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.296232</v>
+        <v>0.12766</v>
       </c>
       <c r="C33" t="n">
-        <v>0.26048</v>
+        <v>0.0972007</v>
       </c>
       <c r="D33" t="n">
-        <v>0.266608</v>
+        <v>0.103776</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.300579</v>
+        <v>0.132737</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26346</v>
+        <v>0.09784229999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.269869</v>
+        <v>0.104962</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.304648</v>
+        <v>0.138121</v>
       </c>
       <c r="C35" t="n">
-        <v>0.265948</v>
+        <v>0.0999651</v>
       </c>
       <c r="D35" t="n">
-        <v>0.27894</v>
+        <v>0.109024</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.311625</v>
+        <v>0.144293</v>
       </c>
       <c r="C36" t="n">
-        <v>0.26839</v>
+        <v>0.105305</v>
       </c>
       <c r="D36" t="n">
-        <v>0.279654</v>
+        <v>0.116281</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.321457</v>
+        <v>0.153355</v>
       </c>
       <c r="C37" t="n">
-        <v>0.274349</v>
+        <v>0.111351</v>
       </c>
       <c r="D37" t="n">
-        <v>0.279938</v>
+        <v>0.117729</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.300506</v>
+        <v>0.134343</v>
       </c>
       <c r="C38" t="n">
-        <v>0.27909</v>
+        <v>0.111506</v>
       </c>
       <c r="D38" t="n">
-        <v>0.279217</v>
+        <v>0.117152</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302472</v>
+        <v>0.134999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.276875</v>
+        <v>0.109701</v>
       </c>
       <c r="D39" t="n">
-        <v>0.278382</v>
+        <v>0.116163</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302663</v>
+        <v>0.133743</v>
       </c>
       <c r="C40" t="n">
-        <v>0.278325</v>
+        <v>0.110573</v>
       </c>
       <c r="D40" t="n">
-        <v>0.279556</v>
+        <v>0.117482</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.303617</v>
+        <v>0.13402</v>
       </c>
       <c r="C41" t="n">
-        <v>0.280972</v>
+        <v>0.111415</v>
       </c>
       <c r="D41" t="n">
-        <v>0.279433</v>
+        <v>0.118085</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.305145</v>
+        <v>0.136225</v>
       </c>
       <c r="C42" t="n">
-        <v>0.279118</v>
+        <v>0.110714</v>
       </c>
       <c r="D42" t="n">
-        <v>0.280864</v>
+        <v>0.116724</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.304871</v>
+        <v>0.136137</v>
       </c>
       <c r="C43" t="n">
-        <v>0.283752</v>
+        <v>0.110238</v>
       </c>
       <c r="D43" t="n">
-        <v>0.287438</v>
+        <v>0.117099</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.307793</v>
+        <v>0.143768</v>
       </c>
       <c r="C44" t="n">
-        <v>0.279192</v>
+        <v>0.11016</v>
       </c>
       <c r="D44" t="n">
-        <v>0.281686</v>
+        <v>0.116224</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.31063</v>
+        <v>0.138371</v>
       </c>
       <c r="C45" t="n">
-        <v>0.280218</v>
+        <v>0.110736</v>
       </c>
       <c r="D45" t="n">
-        <v>0.281784</v>
+        <v>0.117439</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.311369</v>
+        <v>0.14642</v>
       </c>
       <c r="C46" t="n">
-        <v>0.281362</v>
+        <v>0.110303</v>
       </c>
       <c r="D46" t="n">
-        <v>0.283008</v>
+        <v>0.117917</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.315664</v>
+        <v>0.144454</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280962</v>
+        <v>0.112328</v>
       </c>
       <c r="D47" t="n">
-        <v>0.283845</v>
+        <v>0.119264</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.317984</v>
+        <v>0.146623</v>
       </c>
       <c r="C48" t="n">
-        <v>0.286269</v>
+        <v>0.114512</v>
       </c>
       <c r="D48" t="n">
-        <v>0.287047</v>
+        <v>0.122314</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.32475</v>
+        <v>0.151369</v>
       </c>
       <c r="C49" t="n">
-        <v>0.285086</v>
+        <v>0.117303</v>
       </c>
       <c r="D49" t="n">
-        <v>0.289613</v>
+        <v>0.125992</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.329761</v>
+        <v>0.156822</v>
       </c>
       <c r="C50" t="n">
-        <v>0.289169</v>
+        <v>0.121508</v>
       </c>
       <c r="D50" t="n">
-        <v>0.295169</v>
+        <v>0.131062</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.335685</v>
+        <v>0.165831</v>
       </c>
       <c r="C51" t="n">
-        <v>0.29416</v>
+        <v>0.126962</v>
       </c>
       <c r="D51" t="n">
-        <v>0.301257</v>
+        <v>0.133627</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347398</v>
+        <v>0.174885</v>
       </c>
       <c r="C52" t="n">
-        <v>0.301156</v>
+        <v>0.13339</v>
       </c>
       <c r="D52" t="n">
-        <v>0.302741</v>
+        <v>0.133258</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.324941</v>
+        <v>0.149167</v>
       </c>
       <c r="C53" t="n">
-        <v>0.301759</v>
+        <v>0.125731</v>
       </c>
       <c r="D53" t="n">
-        <v>0.301788</v>
+        <v>0.134814</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.325039</v>
+        <v>0.15055</v>
       </c>
       <c r="C54" t="n">
-        <v>0.301468</v>
+        <v>0.12507</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303375</v>
+        <v>0.134113</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.325952</v>
+        <v>0.150648</v>
       </c>
       <c r="C55" t="n">
-        <v>0.302071</v>
+        <v>0.125221</v>
       </c>
       <c r="D55" t="n">
-        <v>0.304058</v>
+        <v>0.134725</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327583</v>
+        <v>0.151487</v>
       </c>
       <c r="C56" t="n">
-        <v>0.302338</v>
+        <v>0.125576</v>
       </c>
       <c r="D56" t="n">
-        <v>0.304504</v>
+        <v>0.134525</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.327661</v>
+        <v>0.152055</v>
       </c>
       <c r="C57" t="n">
-        <v>0.303117</v>
+        <v>0.126041</v>
       </c>
       <c r="D57" t="n">
-        <v>0.304486</v>
+        <v>0.135048</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.329881</v>
+        <v>0.153368</v>
       </c>
       <c r="C58" t="n">
-        <v>0.303237</v>
+        <v>0.126158</v>
       </c>
       <c r="D58" t="n">
-        <v>0.305522</v>
+        <v>0.13475</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.331248</v>
+        <v>0.155254</v>
       </c>
       <c r="C59" t="n">
-        <v>0.303523</v>
+        <v>0.126665</v>
       </c>
       <c r="D59" t="n">
-        <v>0.305765</v>
+        <v>0.134648</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.334544</v>
+        <v>0.157199</v>
       </c>
       <c r="C60" t="n">
-        <v>0.305498</v>
+        <v>0.128211</v>
       </c>
       <c r="D60" t="n">
-        <v>0.307029</v>
+        <v>0.136247</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.337707</v>
+        <v>0.160065</v>
       </c>
       <c r="C61" t="n">
-        <v>0.306229</v>
+        <v>0.129249</v>
       </c>
       <c r="D61" t="n">
-        <v>0.309079</v>
+        <v>0.138105</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.341024</v>
+        <v>0.163043</v>
       </c>
       <c r="C62" t="n">
-        <v>0.307631</v>
+        <v>0.130514</v>
       </c>
       <c r="D62" t="n">
-        <v>0.310724</v>
+        <v>0.140227</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.344752</v>
+        <v>0.166012</v>
       </c>
       <c r="C63" t="n">
-        <v>0.309037</v>
+        <v>0.132538</v>
       </c>
       <c r="D63" t="n">
-        <v>0.312986</v>
+        <v>0.143179</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.352501</v>
+        <v>0.171083</v>
       </c>
       <c r="C64" t="n">
-        <v>0.31141</v>
+        <v>0.135654</v>
       </c>
       <c r="D64" t="n">
-        <v>0.318093</v>
+        <v>0.148066</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.358304</v>
+        <v>0.177458</v>
       </c>
       <c r="C65" t="n">
-        <v>0.316409</v>
+        <v>0.139317</v>
       </c>
       <c r="D65" t="n">
-        <v>0.325276</v>
+        <v>0.154575</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.367213</v>
+        <v>0.186549</v>
       </c>
       <c r="C66" t="n">
-        <v>0.321795</v>
+        <v>0.144974</v>
       </c>
       <c r="D66" t="n">
-        <v>0.317337</v>
+        <v>0.143696</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.341089</v>
+        <v>0.158035</v>
       </c>
       <c r="C67" t="n">
-        <v>0.31824</v>
+        <v>0.133276</v>
       </c>
       <c r="D67" t="n">
-        <v>0.318997</v>
+        <v>0.144389</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341837</v>
+        <v>0.158753</v>
       </c>
       <c r="C68" t="n">
-        <v>0.317601</v>
+        <v>0.133143</v>
       </c>
       <c r="D68" t="n">
-        <v>0.318399</v>
+        <v>0.144181</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.342693</v>
+        <v>0.158919</v>
       </c>
       <c r="C69" t="n">
-        <v>0.318012</v>
+        <v>0.133152</v>
       </c>
       <c r="D69" t="n">
-        <v>0.319327</v>
+        <v>0.143977</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.343016</v>
+        <v>0.15975</v>
       </c>
       <c r="C70" t="n">
-        <v>0.319037</v>
+        <v>0.131733</v>
       </c>
       <c r="D70" t="n">
-        <v>0.319583</v>
+        <v>0.14458</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.344518</v>
+        <v>0.161014</v>
       </c>
       <c r="C71" t="n">
-        <v>0.318943</v>
+        <v>0.134443</v>
       </c>
       <c r="D71" t="n">
-        <v>0.319773</v>
+        <v>0.145154</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.346557</v>
+        <v>0.162691</v>
       </c>
       <c r="C72" t="n">
-        <v>0.319247</v>
+        <v>0.134681</v>
       </c>
       <c r="D72" t="n">
-        <v>0.320504</v>
+        <v>0.145688</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347948</v>
+        <v>0.162763</v>
       </c>
       <c r="C73" t="n">
-        <v>0.320201</v>
+        <v>0.135524</v>
       </c>
       <c r="D73" t="n">
-        <v>0.32177</v>
+        <v>0.145398</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3505</v>
+        <v>0.165923</v>
       </c>
       <c r="C74" t="n">
-        <v>0.32082</v>
+        <v>0.135733</v>
       </c>
       <c r="D74" t="n">
-        <v>0.322274</v>
+        <v>0.147109</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.353291</v>
+        <v>0.16711</v>
       </c>
       <c r="C75" t="n">
-        <v>0.322345</v>
+        <v>0.135183</v>
       </c>
       <c r="D75" t="n">
-        <v>0.32378</v>
+        <v>0.147463</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.356823</v>
+        <v>0.170674</v>
       </c>
       <c r="C76" t="n">
-        <v>0.322925</v>
+        <v>0.137972</v>
       </c>
       <c r="D76" t="n">
-        <v>0.325706</v>
+        <v>0.150334</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.360516</v>
+        <v>0.173609</v>
       </c>
       <c r="C77" t="n">
-        <v>0.325456</v>
+        <v>0.139807</v>
       </c>
       <c r="D77" t="n">
-        <v>0.32872</v>
+        <v>0.152665</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.366053</v>
+        <v>0.178865</v>
       </c>
       <c r="C78" t="n">
-        <v>0.32781</v>
+        <v>0.141853</v>
       </c>
       <c r="D78" t="n">
-        <v>0.332923</v>
+        <v>0.156175</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.373304</v>
+        <v>0.184641</v>
       </c>
       <c r="C79" t="n">
-        <v>0.332086</v>
+        <v>0.145127</v>
       </c>
       <c r="D79" t="n">
-        <v>0.340043</v>
+        <v>0.162177</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.382201</v>
+        <v>0.192799</v>
       </c>
       <c r="C80" t="n">
-        <v>0.33727</v>
+        <v>0.150363</v>
       </c>
       <c r="D80" t="n">
-        <v>0.334373</v>
+        <v>0.160562</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.362738</v>
+        <v>0.183522</v>
       </c>
       <c r="C81" t="n">
-        <v>0.337238</v>
+        <v>0.152221</v>
       </c>
       <c r="D81" t="n">
-        <v>0.335968</v>
+        <v>0.162636</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.363042</v>
+        <v>0.184594</v>
       </c>
       <c r="C82" t="n">
-        <v>0.337269</v>
+        <v>0.151266</v>
       </c>
       <c r="D82" t="n">
-        <v>0.334819</v>
+        <v>0.159913</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.364403</v>
+        <v>0.184106</v>
       </c>
       <c r="C83" t="n">
-        <v>0.338687</v>
+        <v>0.151057</v>
       </c>
       <c r="D83" t="n">
-        <v>0.335689</v>
+        <v>0.163313</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.366007</v>
+        <v>0.182256</v>
       </c>
       <c r="C84" t="n">
-        <v>0.339352</v>
+        <v>0.155905</v>
       </c>
       <c r="D84" t="n">
-        <v>0.335782</v>
+        <v>0.163657</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.364843</v>
+        <v>0.187303</v>
       </c>
       <c r="C85" t="n">
-        <v>0.340702</v>
+        <v>0.153394</v>
       </c>
       <c r="D85" t="n">
-        <v>0.337107</v>
+        <v>0.161874</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.366349</v>
+        <v>0.18783</v>
       </c>
       <c r="C86" t="n">
-        <v>0.338968</v>
+        <v>0.15501</v>
       </c>
       <c r="D86" t="n">
-        <v>0.338803</v>
+        <v>0.160285</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.367766</v>
+        <v>0.185878</v>
       </c>
       <c r="C87" t="n">
-        <v>0.341006</v>
+        <v>0.155984</v>
       </c>
       <c r="D87" t="n">
-        <v>0.338101</v>
+        <v>0.164415</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.371212</v>
+        <v>0.188097</v>
       </c>
       <c r="C88" t="n">
-        <v>0.342641</v>
+        <v>0.15562</v>
       </c>
       <c r="D88" t="n">
-        <v>0.338553</v>
+        <v>0.163201</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.372667</v>
+        <v>0.191393</v>
       </c>
       <c r="C89" t="n">
-        <v>0.341381</v>
+        <v>0.154562</v>
       </c>
       <c r="D89" t="n">
-        <v>0.340022</v>
+        <v>0.164133</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.378186</v>
+        <v>0.19226</v>
       </c>
       <c r="C90" t="n">
-        <v>0.344206</v>
+        <v>0.15631</v>
       </c>
       <c r="D90" t="n">
-        <v>0.341571</v>
+        <v>0.164863</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.381316</v>
+        <v>0.193831</v>
       </c>
       <c r="C91" t="n">
-        <v>0.344452</v>
+        <v>0.156629</v>
       </c>
       <c r="D91" t="n">
-        <v>0.345989</v>
+        <v>0.166365</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.384611</v>
+        <v>0.198174</v>
       </c>
       <c r="C92" t="n">
-        <v>0.350124</v>
+        <v>0.159016</v>
       </c>
       <c r="D92" t="n">
-        <v>0.34896</v>
+        <v>0.171609</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.391583</v>
+        <v>0.207279</v>
       </c>
       <c r="C93" t="n">
-        <v>0.350882</v>
+        <v>0.161666</v>
       </c>
       <c r="D93" t="n">
-        <v>0.354582</v>
+        <v>0.178475</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.405515</v>
+        <v>0.213887</v>
       </c>
       <c r="C94" t="n">
-        <v>0.357861</v>
+        <v>0.166937</v>
       </c>
       <c r="D94" t="n">
-        <v>0.485534</v>
+        <v>0.308094</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.552391</v>
+        <v>0.385656</v>
       </c>
       <c r="C95" t="n">
-        <v>0.508988</v>
+        <v>0.312981</v>
       </c>
       <c r="D95" t="n">
-        <v>0.483638</v>
+        <v>0.306477</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.547852</v>
+        <v>0.386288</v>
       </c>
       <c r="C96" t="n">
-        <v>0.511522</v>
+        <v>0.312839</v>
       </c>
       <c r="D96" t="n">
-        <v>0.484517</v>
+        <v>0.305321</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.548329</v>
+        <v>0.386094</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5074920000000001</v>
+        <v>0.310711</v>
       </c>
       <c r="D97" t="n">
-        <v>0.484227</v>
+        <v>0.305825</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.549853</v>
+        <v>0.388142</v>
       </c>
       <c r="C98" t="n">
-        <v>0.512451</v>
+        <v>0.309202</v>
       </c>
       <c r="D98" t="n">
-        <v>0.483143</v>
+        <v>0.307553</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.540709</v>
+        <v>0.383436</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5114649999999999</v>
+        <v>0.307064</v>
       </c>
       <c r="D99" t="n">
-        <v>0.478294</v>
+        <v>0.304182</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.559765</v>
+        <v>0.388172</v>
       </c>
       <c r="C100" t="n">
-        <v>0.499964</v>
+        <v>0.308256</v>
       </c>
       <c r="D100" t="n">
-        <v>0.490463</v>
+        <v>0.304912</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.54957</v>
+        <v>0.391152</v>
       </c>
       <c r="C101" t="n">
-        <v>0.514767</v>
+        <v>0.308989</v>
       </c>
       <c r="D101" t="n">
-        <v>0.489308</v>
+        <v>0.306577</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.551025</v>
+        <v>0.388411</v>
       </c>
       <c r="C102" t="n">
-        <v>0.504625</v>
+        <v>0.308208</v>
       </c>
       <c r="D102" t="n">
-        <v>0.483263</v>
+        <v>0.307315</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.559783</v>
+        <v>0.389397</v>
       </c>
       <c r="C103" t="n">
-        <v>0.512607</v>
+        <v>0.310838</v>
       </c>
       <c r="D103" t="n">
-        <v>0.490342</v>
+        <v>0.30773</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.558272</v>
+        <v>0.39312</v>
       </c>
       <c r="C104" t="n">
-        <v>0.506655</v>
+        <v>0.310902</v>
       </c>
       <c r="D104" t="n">
-        <v>0.483557</v>
+        <v>0.31033</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.565771</v>
+        <v>0.393544</v>
       </c>
       <c r="C105" t="n">
-        <v>0.511625</v>
+        <v>0.312709</v>
       </c>
       <c r="D105" t="n">
-        <v>0.496192</v>
+        <v>0.306499</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.561185</v>
+        <v>0.398579</v>
       </c>
       <c r="C106" t="n">
-        <v>0.514339</v>
+        <v>0.312628</v>
       </c>
       <c r="D106" t="n">
-        <v>0.489564</v>
+        <v>0.312847</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.57053</v>
+        <v>0.398247</v>
       </c>
       <c r="C107" t="n">
-        <v>0.516576</v>
+        <v>0.317333</v>
       </c>
       <c r="D107" t="n">
-        <v>0.49415</v>
+        <v>0.312457</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.576976</v>
+        <v>0.408713</v>
       </c>
       <c r="C108" t="n">
-        <v>0.51619</v>
+        <v>0.318712</v>
       </c>
       <c r="D108" t="n">
-        <v>0.784951</v>
+        <v>0.490247</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.579103</v>
+        <v>0.416909</v>
       </c>
       <c r="C109" t="n">
-        <v>0.516242</v>
+        <v>0.323693</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7854680000000001</v>
+        <v>0.489603</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.831433</v>
+        <v>0.606865</v>
       </c>
       <c r="C110" t="n">
-        <v>0.799036</v>
+        <v>0.473416</v>
       </c>
       <c r="D110" t="n">
-        <v>0.785934</v>
+        <v>0.489577</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.832796</v>
+        <v>0.607604</v>
       </c>
       <c r="C111" t="n">
-        <v>0.794632</v>
+        <v>0.472776</v>
       </c>
       <c r="D111" t="n">
-        <v>0.784921</v>
+        <v>0.488367</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.833905</v>
+        <v>0.60964</v>
       </c>
       <c r="C112" t="n">
-        <v>0.794566</v>
+        <v>0.472948</v>
       </c>
       <c r="D112" t="n">
-        <v>0.783427</v>
+        <v>0.487872</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8323430000000001</v>
+        <v>0.608742</v>
       </c>
       <c r="C113" t="n">
-        <v>0.796878</v>
+        <v>0.472722</v>
       </c>
       <c r="D113" t="n">
-        <v>0.785617</v>
+        <v>0.488474</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8361960000000001</v>
+        <v>0.608013</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7966220000000001</v>
+        <v>0.474323</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7865490000000001</v>
+        <v>0.489292</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.837529</v>
+        <v>0.609232</v>
       </c>
       <c r="C115" t="n">
-        <v>0.796784</v>
+        <v>0.473645</v>
       </c>
       <c r="D115" t="n">
-        <v>0.785421</v>
+        <v>0.490618</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.83761</v>
+        <v>0.610511</v>
       </c>
       <c r="C116" t="n">
-        <v>0.796701</v>
+        <v>0.475693</v>
       </c>
       <c r="D116" t="n">
-        <v>0.784411</v>
+        <v>0.492407</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.839531</v>
+        <v>0.612388</v>
       </c>
       <c r="C117" t="n">
-        <v>0.79673</v>
+        <v>0.476807</v>
       </c>
       <c r="D117" t="n">
-        <v>0.789019</v>
+        <v>0.491914</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.844391</v>
+        <v>0.613179</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7977109999999999</v>
+        <v>0.478473</v>
       </c>
       <c r="D118" t="n">
-        <v>0.786192</v>
+        <v>0.493988</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8442</v>
+        <v>0.614493</v>
       </c>
       <c r="C119" t="n">
-        <v>0.800754</v>
+        <v>0.480577</v>
       </c>
       <c r="D119" t="n">
-        <v>0.787584</v>
+        <v>0.496635</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.849317</v>
+        <v>0.617213</v>
       </c>
       <c r="C120" t="n">
-        <v>0.80278</v>
+        <v>0.481698</v>
       </c>
       <c r="D120" t="n">
-        <v>0.788974</v>
+        <v>0.499703</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8540990000000001</v>
+        <v>0.620422</v>
       </c>
       <c r="C121" t="n">
-        <v>0.807014</v>
+        <v>0.485981</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7923519999999999</v>
+        <v>0.501563</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.860159</v>
+        <v>0.626017</v>
       </c>
       <c r="C122" t="n">
-        <v>0.806463</v>
+        <v>0.493469</v>
       </c>
       <c r="D122" t="n">
-        <v>0.800041</v>
+        <v>0.508783</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.87214</v>
+        <v>0.634575</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8139420000000001</v>
+        <v>0.50068</v>
       </c>
       <c r="D123" t="n">
-        <v>1.03987</v>
+        <v>0.659724</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.08008</v>
+        <v>0.767887</v>
       </c>
       <c r="C124" t="n">
-        <v>1.04478</v>
+        <v>0.599702</v>
       </c>
       <c r="D124" t="n">
-        <v>1.041</v>
+        <v>0.659004</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.07447</v>
+        <v>0.766243</v>
       </c>
       <c r="C125" t="n">
-        <v>1.04496</v>
+        <v>0.5990839999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>1.04243</v>
+        <v>0.657724</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.07697</v>
+        <v>0.768052</v>
       </c>
       <c r="C126" t="n">
-        <v>1.04716</v>
+        <v>0.6005</v>
       </c>
       <c r="D126" t="n">
-        <v>1.04115</v>
+        <v>0.658435</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.07808</v>
+        <v>0.767265</v>
       </c>
       <c r="C127" t="n">
-        <v>1.04565</v>
+        <v>0.6010799999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>1.04245</v>
+        <v>0.657963</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.0777</v>
+        <v>0.76953</v>
       </c>
       <c r="C128" t="n">
-        <v>1.04342</v>
+        <v>0.601566</v>
       </c>
       <c r="D128" t="n">
-        <v>1.04325</v>
+        <v>0.6610780000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08084</v>
+        <v>0.77098</v>
       </c>
       <c r="C129" t="n">
-        <v>1.0473</v>
+        <v>0.6012380000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>1.04122</v>
+        <v>0.661614</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.08049</v>
+        <v>0.770049</v>
       </c>
       <c r="C130" t="n">
-        <v>1.04691</v>
+        <v>0.603818</v>
       </c>
       <c r="D130" t="n">
-        <v>1.04479</v>
+        <v>0.662793</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.08381</v>
+        <v>0.770718</v>
       </c>
       <c r="C131" t="n">
-        <v>1.05136</v>
+        <v>0.605189</v>
       </c>
       <c r="D131" t="n">
-        <v>1.04559</v>
+        <v>0.66439</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08625</v>
+        <v>0.773298</v>
       </c>
       <c r="C132" t="n">
-        <v>1.05141</v>
+        <v>0.606484</v>
       </c>
       <c r="D132" t="n">
-        <v>1.04445</v>
+        <v>0.66597</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.09472</v>
+        <v>0.776891</v>
       </c>
       <c r="C133" t="n">
-        <v>1.05144</v>
+        <v>0.60906</v>
       </c>
       <c r="D133" t="n">
-        <v>1.04926</v>
+        <v>0.666994</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.0935</v>
+        <v>0.77746</v>
       </c>
       <c r="C134" t="n">
-        <v>1.05344</v>
+        <v>0.611746</v>
       </c>
       <c r="D134" t="n">
-        <v>1.05039</v>
+        <v>0.673176</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.09941</v>
+        <v>0.781722</v>
       </c>
       <c r="C135" t="n">
-        <v>1.05555</v>
+        <v>0.616838</v>
       </c>
       <c r="D135" t="n">
-        <v>1.05391</v>
+        <v>0.676086</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.10732</v>
+        <v>0.787524</v>
       </c>
       <c r="C136" t="n">
-        <v>1.06243</v>
+        <v>0.622598</v>
       </c>
       <c r="D136" t="n">
-        <v>1.06109</v>
+        <v>0.682674</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.12116</v>
+        <v>0.796345</v>
       </c>
       <c r="C137" t="n">
-        <v>1.06952</v>
+        <v>0.633147</v>
       </c>
       <c r="D137" t="n">
-        <v>1.26471</v>
+        <v>0.790828</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.29558</v>
+        <v>0.8752490000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>1.26368</v>
+        <v>0.674437</v>
       </c>
       <c r="D138" t="n">
-        <v>1.2643</v>
+        <v>0.79112</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29688</v>
+        <v>0.875438</v>
       </c>
       <c r="C139" t="n">
-        <v>1.26505</v>
+        <v>0.6749579999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>1.26421</v>
+        <v>0.791619</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29671</v>
+        <v>0.8749130000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>1.26602</v>
+        <v>0.675741</v>
       </c>
       <c r="D140" t="n">
-        <v>1.26504</v>
+        <v>0.7965989999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.29821</v>
+        <v>0.876957</v>
       </c>
       <c r="C141" t="n">
-        <v>1.26562</v>
+        <v>0.676095</v>
       </c>
       <c r="D141" t="n">
-        <v>1.26645</v>
+        <v>0.792843</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.29912</v>
+        <v>0.877664</v>
       </c>
       <c r="C142" t="n">
-        <v>1.26678</v>
+        <v>0.676971</v>
       </c>
       <c r="D142" t="n">
-        <v>1.26782</v>
+        <v>0.792488</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.29923</v>
+        <v>0.876827</v>
       </c>
       <c r="C143" t="n">
-        <v>1.26652</v>
+        <v>0.676823</v>
       </c>
       <c r="D143" t="n">
-        <v>1.26807</v>
+        <v>0.794075</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.10338</v>
+        <v>0.126229</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0805834</v>
+        <v>0.0956272</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0896532</v>
+        <v>0.102855</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.103998</v>
+        <v>0.126185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08058</v>
+        <v>0.0923973</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08955299999999999</v>
+        <v>0.102013</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.105011</v>
+        <v>0.134827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0810916</v>
+        <v>0.0962094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0896145</v>
+        <v>0.103094</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.106364</v>
+        <v>0.133323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0813836</v>
+        <v>0.0944313</v>
       </c>
       <c r="D5" t="n">
-        <v>0.090376</v>
+        <v>0.103421</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.108449</v>
+        <v>0.136349</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0816733</v>
+        <v>0.0943211</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0910205</v>
+        <v>0.102923</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11155</v>
+        <v>0.139763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0819102</v>
+        <v>0.094274</v>
       </c>
       <c r="D7" t="n">
-        <v>0.091983</v>
+        <v>0.107291</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118204</v>
+        <v>0.147408</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0824607</v>
+        <v>0.09470679999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0937344</v>
+        <v>0.105174</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.130199</v>
+        <v>0.158441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.083663</v>
+        <v>0.102449</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0934546</v>
+        <v>0.108525</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.107367</v>
+        <v>0.12744</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0846792</v>
+        <v>0.100076</v>
       </c>
       <c r="D10" t="n">
-        <v>0.092499</v>
+        <v>0.10806</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.106396</v>
+        <v>0.131618</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0840664</v>
+        <v>0.101593</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0927785</v>
+        <v>0.110834</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.111036</v>
+        <v>0.129751</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0866219</v>
+        <v>0.101105</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0943683</v>
+        <v>0.109257</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.109392</v>
+        <v>0.128143</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0871494</v>
+        <v>0.101758</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0942967</v>
+        <v>0.109378</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.108572</v>
+        <v>0.135182</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0853762</v>
+        <v>0.102051</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09386070000000001</v>
+        <v>0.112544</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.109616</v>
+        <v>0.130014</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0863384</v>
+        <v>0.102582</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0941492</v>
+        <v>0.11033</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.111033</v>
+        <v>0.131384</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08567</v>
+        <v>0.104066</v>
       </c>
       <c r="D16" t="n">
-        <v>0.093749</v>
+        <v>0.113325</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.112309</v>
+        <v>0.14041</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0867568</v>
+        <v>0.104159</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0943421</v>
+        <v>0.111568</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.114488</v>
+        <v>0.136067</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08649560000000001</v>
+        <v>0.103841</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09481050000000001</v>
+        <v>0.11206</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.115638</v>
+        <v>0.13664</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08606560000000001</v>
+        <v>0.104056</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0949718</v>
+        <v>0.116007</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.118936</v>
+        <v>0.147712</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08650330000000001</v>
+        <v>0.108109</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0952547</v>
+        <v>0.11792</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.125676</v>
+        <v>0.151222</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0879098</v>
+        <v>0.105212</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0970729</v>
+        <v>0.115055</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133895</v>
+        <v>0.157889</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0904373</v>
+        <v>0.108882</v>
       </c>
       <c r="D22" t="n">
-        <v>0.102258</v>
+        <v>0.119023</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.142662</v>
+        <v>0.161715</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0951828</v>
+        <v>0.116959</v>
       </c>
       <c r="D23" t="n">
-        <v>0.102391</v>
+        <v>0.116556</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.117906</v>
+        <v>0.137838</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0944159</v>
+        <v>0.108207</v>
       </c>
       <c r="D24" t="n">
-        <v>0.101001</v>
+        <v>0.11643</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.117773</v>
+        <v>0.140584</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0946538</v>
+        <v>0.109093</v>
       </c>
       <c r="D25" t="n">
-        <v>0.100994</v>
+        <v>0.116917</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.118728</v>
+        <v>0.136564</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0947665</v>
+        <v>0.109179</v>
       </c>
       <c r="D26" t="n">
-        <v>0.101799</v>
+        <v>0.117608</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.118618</v>
+        <v>0.136176</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0955941</v>
+        <v>0.108827</v>
       </c>
       <c r="D27" t="n">
-        <v>0.101736</v>
+        <v>0.117857</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.119979</v>
+        <v>0.139607</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09514</v>
+        <v>0.109455</v>
       </c>
       <c r="D28" t="n">
-        <v>0.101839</v>
+        <v>0.117869</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120438</v>
+        <v>0.140682</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09543</v>
+        <v>0.110157</v>
       </c>
       <c r="D29" t="n">
-        <v>0.102074</v>
+        <v>0.118308</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.121024</v>
+        <v>0.141074</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09523189999999999</v>
+        <v>0.110615</v>
       </c>
       <c r="D30" t="n">
-        <v>0.102045</v>
+        <v>0.122275</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.123102</v>
+        <v>0.143645</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0953044</v>
+        <v>0.110873</v>
       </c>
       <c r="D31" t="n">
-        <v>0.101972</v>
+        <v>0.121236</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.125291</v>
+        <v>0.143215</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0992121</v>
+        <v>0.112081</v>
       </c>
       <c r="D32" t="n">
-        <v>0.102587</v>
+        <v>0.123207</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.12766</v>
+        <v>0.150111</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0972007</v>
+        <v>0.114441</v>
       </c>
       <c r="D33" t="n">
-        <v>0.103776</v>
+        <v>0.124236</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.132737</v>
+        <v>0.150916</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09784229999999999</v>
+        <v>0.115736</v>
       </c>
       <c r="D34" t="n">
-        <v>0.104962</v>
+        <v>0.125202</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.138121</v>
+        <v>0.154715</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0999651</v>
+        <v>0.119859</v>
       </c>
       <c r="D35" t="n">
-        <v>0.109024</v>
+        <v>0.124929</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.144293</v>
+        <v>0.161063</v>
       </c>
       <c r="C36" t="n">
-        <v>0.105305</v>
+        <v>0.124605</v>
       </c>
       <c r="D36" t="n">
-        <v>0.116281</v>
+        <v>0.132337</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.153355</v>
+        <v>0.172862</v>
       </c>
       <c r="C37" t="n">
-        <v>0.111351</v>
+        <v>0.12895</v>
       </c>
       <c r="D37" t="n">
-        <v>0.117729</v>
+        <v>0.131691</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.134343</v>
+        <v>0.148888</v>
       </c>
       <c r="C38" t="n">
-        <v>0.111506</v>
+        <v>0.120172</v>
       </c>
       <c r="D38" t="n">
-        <v>0.117152</v>
+        <v>0.130713</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.134999</v>
+        <v>0.151102</v>
       </c>
       <c r="C39" t="n">
-        <v>0.109701</v>
+        <v>0.119616</v>
       </c>
       <c r="D39" t="n">
-        <v>0.116163</v>
+        <v>0.130081</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.133743</v>
+        <v>0.150632</v>
       </c>
       <c r="C40" t="n">
-        <v>0.110573</v>
+        <v>0.121086</v>
       </c>
       <c r="D40" t="n">
-        <v>0.117482</v>
+        <v>0.131452</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.13402</v>
+        <v>0.152078</v>
       </c>
       <c r="C41" t="n">
-        <v>0.111415</v>
+        <v>0.12143</v>
       </c>
       <c r="D41" t="n">
-        <v>0.118085</v>
+        <v>0.131861</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.136225</v>
+        <v>0.151653</v>
       </c>
       <c r="C42" t="n">
-        <v>0.110714</v>
+        <v>0.122134</v>
       </c>
       <c r="D42" t="n">
-        <v>0.116724</v>
+        <v>0.131946</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.136137</v>
+        <v>0.154411</v>
       </c>
       <c r="C43" t="n">
-        <v>0.110238</v>
+        <v>0.124738</v>
       </c>
       <c r="D43" t="n">
-        <v>0.117099</v>
+        <v>0.134006</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.143768</v>
+        <v>0.153854</v>
       </c>
       <c r="C44" t="n">
-        <v>0.11016</v>
+        <v>0.125054</v>
       </c>
       <c r="D44" t="n">
-        <v>0.116224</v>
+        <v>0.133353</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.138371</v>
+        <v>0.155695</v>
       </c>
       <c r="C45" t="n">
-        <v>0.110736</v>
+        <v>0.126402</v>
       </c>
       <c r="D45" t="n">
-        <v>0.117439</v>
+        <v>0.133424</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.14642</v>
+        <v>0.15872</v>
       </c>
       <c r="C46" t="n">
-        <v>0.110303</v>
+        <v>0.128807</v>
       </c>
       <c r="D46" t="n">
-        <v>0.117917</v>
+        <v>0.134766</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.144454</v>
+        <v>0.160491</v>
       </c>
       <c r="C47" t="n">
-        <v>0.112328</v>
+        <v>0.1303</v>
       </c>
       <c r="D47" t="n">
-        <v>0.119264</v>
+        <v>0.136095</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.146623</v>
+        <v>0.165639</v>
       </c>
       <c r="C48" t="n">
-        <v>0.114512</v>
+        <v>0.132448</v>
       </c>
       <c r="D48" t="n">
-        <v>0.122314</v>
+        <v>0.138505</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.151369</v>
+        <v>0.167843</v>
       </c>
       <c r="C49" t="n">
-        <v>0.117303</v>
+        <v>0.134815</v>
       </c>
       <c r="D49" t="n">
-        <v>0.125992</v>
+        <v>0.141209</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.156822</v>
+        <v>0.177804</v>
       </c>
       <c r="C50" t="n">
-        <v>0.121508</v>
+        <v>0.137705</v>
       </c>
       <c r="D50" t="n">
-        <v>0.131062</v>
+        <v>0.146523</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.165831</v>
+        <v>0.184125</v>
       </c>
       <c r="C51" t="n">
-        <v>0.126962</v>
+        <v>0.1411</v>
       </c>
       <c r="D51" t="n">
-        <v>0.133627</v>
+        <v>0.144714</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174885</v>
+        <v>0.192623</v>
       </c>
       <c r="C52" t="n">
-        <v>0.13339</v>
+        <v>0.154569</v>
       </c>
       <c r="D52" t="n">
-        <v>0.133258</v>
+        <v>0.144771</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.149167</v>
+        <v>0.160662</v>
       </c>
       <c r="C53" t="n">
-        <v>0.125731</v>
+        <v>0.130822</v>
       </c>
       <c r="D53" t="n">
-        <v>0.134814</v>
+        <v>0.144768</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.15055</v>
+        <v>0.161814</v>
       </c>
       <c r="C54" t="n">
-        <v>0.12507</v>
+        <v>0.13158</v>
       </c>
       <c r="D54" t="n">
-        <v>0.134113</v>
+        <v>0.144843</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.150648</v>
+        <v>0.160109</v>
       </c>
       <c r="C55" t="n">
-        <v>0.125221</v>
+        <v>0.13345</v>
       </c>
       <c r="D55" t="n">
-        <v>0.134725</v>
+        <v>0.145075</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.151487</v>
+        <v>0.16117</v>
       </c>
       <c r="C56" t="n">
-        <v>0.125576</v>
+        <v>0.134751</v>
       </c>
       <c r="D56" t="n">
-        <v>0.134525</v>
+        <v>0.145713</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.152055</v>
+        <v>0.163463</v>
       </c>
       <c r="C57" t="n">
-        <v>0.126041</v>
+        <v>0.13547</v>
       </c>
       <c r="D57" t="n">
-        <v>0.135048</v>
+        <v>0.14602</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.153368</v>
+        <v>0.164305</v>
       </c>
       <c r="C58" t="n">
-        <v>0.126158</v>
+        <v>0.133336</v>
       </c>
       <c r="D58" t="n">
-        <v>0.13475</v>
+        <v>0.14531</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.155254</v>
+        <v>0.167582</v>
       </c>
       <c r="C59" t="n">
-        <v>0.126665</v>
+        <v>0.140941</v>
       </c>
       <c r="D59" t="n">
-        <v>0.134648</v>
+        <v>0.146174</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.157199</v>
+        <v>0.16727</v>
       </c>
       <c r="C60" t="n">
-        <v>0.128211</v>
+        <v>0.138681</v>
       </c>
       <c r="D60" t="n">
-        <v>0.136247</v>
+        <v>0.147096</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.160065</v>
+        <v>0.171462</v>
       </c>
       <c r="C61" t="n">
-        <v>0.129249</v>
+        <v>0.139939</v>
       </c>
       <c r="D61" t="n">
-        <v>0.138105</v>
+        <v>0.148562</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.163043</v>
+        <v>0.172837</v>
       </c>
       <c r="C62" t="n">
-        <v>0.130514</v>
+        <v>0.141386</v>
       </c>
       <c r="D62" t="n">
-        <v>0.140227</v>
+        <v>0.150627</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.166012</v>
+        <v>0.176896</v>
       </c>
       <c r="C63" t="n">
-        <v>0.132538</v>
+        <v>0.143153</v>
       </c>
       <c r="D63" t="n">
-        <v>0.143179</v>
+        <v>0.152992</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.171083</v>
+        <v>0.18296</v>
       </c>
       <c r="C64" t="n">
-        <v>0.135654</v>
+        <v>0.146548</v>
       </c>
       <c r="D64" t="n">
-        <v>0.148066</v>
+        <v>0.157124</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177458</v>
+        <v>0.18871</v>
       </c>
       <c r="C65" t="n">
-        <v>0.139317</v>
+        <v>0.150271</v>
       </c>
       <c r="D65" t="n">
-        <v>0.154575</v>
+        <v>0.163734</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186549</v>
+        <v>0.199446</v>
       </c>
       <c r="C66" t="n">
-        <v>0.144974</v>
+        <v>0.156579</v>
       </c>
       <c r="D66" t="n">
-        <v>0.143696</v>
+        <v>0.158126</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.158035</v>
+        <v>0.181151</v>
       </c>
       <c r="C67" t="n">
-        <v>0.133276</v>
+        <v>0.147259</v>
       </c>
       <c r="D67" t="n">
-        <v>0.144389</v>
+        <v>0.156743</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.158753</v>
+        <v>0.182751</v>
       </c>
       <c r="C68" t="n">
-        <v>0.133143</v>
+        <v>0.149961</v>
       </c>
       <c r="D68" t="n">
-        <v>0.144181</v>
+        <v>0.157579</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.158919</v>
+        <v>0.179739</v>
       </c>
       <c r="C69" t="n">
-        <v>0.133152</v>
+        <v>0.148489</v>
       </c>
       <c r="D69" t="n">
-        <v>0.143977</v>
+        <v>0.157938</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.15975</v>
+        <v>0.182847</v>
       </c>
       <c r="C70" t="n">
-        <v>0.131733</v>
+        <v>0.148437</v>
       </c>
       <c r="D70" t="n">
-        <v>0.14458</v>
+        <v>0.158581</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.161014</v>
+        <v>0.182491</v>
       </c>
       <c r="C71" t="n">
-        <v>0.134443</v>
+        <v>0.149262</v>
       </c>
       <c r="D71" t="n">
-        <v>0.145154</v>
+        <v>0.162438</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.162691</v>
+        <v>0.183964</v>
       </c>
       <c r="C72" t="n">
-        <v>0.134681</v>
+        <v>0.154439</v>
       </c>
       <c r="D72" t="n">
-        <v>0.145688</v>
+        <v>0.159924</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.162763</v>
+        <v>0.193703</v>
       </c>
       <c r="C73" t="n">
-        <v>0.135524</v>
+        <v>0.153599</v>
       </c>
       <c r="D73" t="n">
-        <v>0.145398</v>
+        <v>0.160134</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.165923</v>
+        <v>0.186154</v>
       </c>
       <c r="C74" t="n">
-        <v>0.135733</v>
+        <v>0.154126</v>
       </c>
       <c r="D74" t="n">
-        <v>0.147109</v>
+        <v>0.160717</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.16711</v>
+        <v>0.189551</v>
       </c>
       <c r="C75" t="n">
-        <v>0.135183</v>
+        <v>0.154643</v>
       </c>
       <c r="D75" t="n">
-        <v>0.147463</v>
+        <v>0.162219</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.170674</v>
+        <v>0.189986</v>
       </c>
       <c r="C76" t="n">
-        <v>0.137972</v>
+        <v>0.158044</v>
       </c>
       <c r="D76" t="n">
-        <v>0.150334</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.173609</v>
+        <v>0.197207</v>
       </c>
       <c r="C77" t="n">
-        <v>0.139807</v>
+        <v>0.16468</v>
       </c>
       <c r="D77" t="n">
-        <v>0.152665</v>
+        <v>0.166108</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.178865</v>
+        <v>0.202915</v>
       </c>
       <c r="C78" t="n">
-        <v>0.141853</v>
+        <v>0.16772</v>
       </c>
       <c r="D78" t="n">
-        <v>0.156175</v>
+        <v>0.169669</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.184641</v>
+        <v>0.210683</v>
       </c>
       <c r="C79" t="n">
-        <v>0.145127</v>
+        <v>0.166795</v>
       </c>
       <c r="D79" t="n">
-        <v>0.162177</v>
+        <v>0.175447</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.192799</v>
+        <v>0.228938</v>
       </c>
       <c r="C80" t="n">
-        <v>0.150363</v>
+        <v>0.179787</v>
       </c>
       <c r="D80" t="n">
-        <v>0.160562</v>
+        <v>0.232361</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.183522</v>
+        <v>0.358822</v>
       </c>
       <c r="C81" t="n">
-        <v>0.152221</v>
+        <v>0.286044</v>
       </c>
       <c r="D81" t="n">
-        <v>0.162636</v>
+        <v>0.233309</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.184594</v>
+        <v>0.361746</v>
       </c>
       <c r="C82" t="n">
-        <v>0.151266</v>
+        <v>0.284232</v>
       </c>
       <c r="D82" t="n">
-        <v>0.159913</v>
+        <v>0.235008</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.184106</v>
+        <v>0.358923</v>
       </c>
       <c r="C83" t="n">
-        <v>0.151057</v>
+        <v>0.284726</v>
       </c>
       <c r="D83" t="n">
-        <v>0.163313</v>
+        <v>0.232067</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.182256</v>
+        <v>0.365807</v>
       </c>
       <c r="C84" t="n">
-        <v>0.155905</v>
+        <v>0.280877</v>
       </c>
       <c r="D84" t="n">
-        <v>0.163657</v>
+        <v>0.233053</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.187303</v>
+        <v>0.363008</v>
       </c>
       <c r="C85" t="n">
-        <v>0.153394</v>
+        <v>0.283811</v>
       </c>
       <c r="D85" t="n">
-        <v>0.161874</v>
+        <v>0.232955</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.18783</v>
+        <v>0.36573</v>
       </c>
       <c r="C86" t="n">
-        <v>0.15501</v>
+        <v>0.27868</v>
       </c>
       <c r="D86" t="n">
-        <v>0.160285</v>
+        <v>0.229704</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.185878</v>
+        <v>0.365624</v>
       </c>
       <c r="C87" t="n">
-        <v>0.155984</v>
+        <v>0.278203</v>
       </c>
       <c r="D87" t="n">
-        <v>0.164415</v>
+        <v>0.230949</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.188097</v>
+        <v>0.365471</v>
       </c>
       <c r="C88" t="n">
-        <v>0.15562</v>
+        <v>0.278665</v>
       </c>
       <c r="D88" t="n">
-        <v>0.163201</v>
+        <v>0.228831</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.191393</v>
+        <v>0.370087</v>
       </c>
       <c r="C89" t="n">
-        <v>0.154562</v>
+        <v>0.275191</v>
       </c>
       <c r="D89" t="n">
-        <v>0.164133</v>
+        <v>0.229484</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19226</v>
+        <v>0.36818</v>
       </c>
       <c r="C90" t="n">
-        <v>0.15631</v>
+        <v>0.278502</v>
       </c>
       <c r="D90" t="n">
-        <v>0.164863</v>
+        <v>0.229771</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193831</v>
+        <v>0.374166</v>
       </c>
       <c r="C91" t="n">
-        <v>0.156629</v>
+        <v>0.278374</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166365</v>
+        <v>0.228578</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.198174</v>
+        <v>0.376566</v>
       </c>
       <c r="C92" t="n">
-        <v>0.159016</v>
+        <v>0.278268</v>
       </c>
       <c r="D92" t="n">
-        <v>0.171609</v>
+        <v>0.232246</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.207279</v>
+        <v>0.391782</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161666</v>
+        <v>0.282814</v>
       </c>
       <c r="D93" t="n">
-        <v>0.178475</v>
+        <v>0.235495</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.213887</v>
+        <v>0.384605</v>
       </c>
       <c r="C94" t="n">
-        <v>0.166937</v>
+        <v>0.282762</v>
       </c>
       <c r="D94" t="n">
-        <v>0.308094</v>
+        <v>0.392778</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.385656</v>
+        <v>0.527408</v>
       </c>
       <c r="C95" t="n">
-        <v>0.312981</v>
+        <v>0.447528</v>
       </c>
       <c r="D95" t="n">
-        <v>0.306477</v>
+        <v>0.391859</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.386288</v>
+        <v>0.527471</v>
       </c>
       <c r="C96" t="n">
-        <v>0.312839</v>
+        <v>0.447037</v>
       </c>
       <c r="D96" t="n">
-        <v>0.305321</v>
+        <v>0.388871</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.386094</v>
+        <v>0.527478</v>
       </c>
       <c r="C97" t="n">
-        <v>0.310711</v>
+        <v>0.446383</v>
       </c>
       <c r="D97" t="n">
-        <v>0.305825</v>
+        <v>0.389909</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.388142</v>
+        <v>0.528052</v>
       </c>
       <c r="C98" t="n">
-        <v>0.309202</v>
+        <v>0.445873</v>
       </c>
       <c r="D98" t="n">
-        <v>0.307553</v>
+        <v>0.387408</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.383436</v>
+        <v>0.528388</v>
       </c>
       <c r="C99" t="n">
-        <v>0.307064</v>
+        <v>0.444846</v>
       </c>
       <c r="D99" t="n">
-        <v>0.304182</v>
+        <v>0.388036</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.388172</v>
+        <v>0.529309</v>
       </c>
       <c r="C100" t="n">
-        <v>0.308256</v>
+        <v>0.444556</v>
       </c>
       <c r="D100" t="n">
-        <v>0.304912</v>
+        <v>0.388239</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.391152</v>
+        <v>0.530967</v>
       </c>
       <c r="C101" t="n">
-        <v>0.308989</v>
+        <v>0.444466</v>
       </c>
       <c r="D101" t="n">
-        <v>0.306577</v>
+        <v>0.389277</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.388411</v>
+        <v>0.531498</v>
       </c>
       <c r="C102" t="n">
-        <v>0.308208</v>
+        <v>0.445882</v>
       </c>
       <c r="D102" t="n">
-        <v>0.307315</v>
+        <v>0.389472</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.389397</v>
+        <v>0.533868</v>
       </c>
       <c r="C103" t="n">
-        <v>0.310838</v>
+        <v>0.445667</v>
       </c>
       <c r="D103" t="n">
-        <v>0.30773</v>
+        <v>0.389345</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.39312</v>
+        <v>0.536898</v>
       </c>
       <c r="C104" t="n">
-        <v>0.310902</v>
+        <v>0.447633</v>
       </c>
       <c r="D104" t="n">
-        <v>0.31033</v>
+        <v>0.390853</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.393544</v>
+        <v>0.5396260000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.312709</v>
+        <v>0.448666</v>
       </c>
       <c r="D105" t="n">
-        <v>0.306499</v>
+        <v>0.393228</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.398579</v>
+        <v>0.542623</v>
       </c>
       <c r="C106" t="n">
-        <v>0.312628</v>
+        <v>0.450777</v>
       </c>
       <c r="D106" t="n">
-        <v>0.312847</v>
+        <v>0.396295</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.398247</v>
+        <v>0.547546</v>
       </c>
       <c r="C107" t="n">
-        <v>0.317333</v>
+        <v>0.454378</v>
       </c>
       <c r="D107" t="n">
-        <v>0.312457</v>
+        <v>0.401797</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.408713</v>
+        <v>0.556033</v>
       </c>
       <c r="C108" t="n">
-        <v>0.318712</v>
+        <v>0.458561</v>
       </c>
       <c r="D108" t="n">
-        <v>0.490247</v>
+        <v>0.525128</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.416909</v>
+        <v>0.566737</v>
       </c>
       <c r="C109" t="n">
-        <v>0.323693</v>
+        <v>0.46584</v>
       </c>
       <c r="D109" t="n">
-        <v>0.489603</v>
+        <v>0.524218</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.606865</v>
+        <v>0.606067</v>
       </c>
       <c r="C110" t="n">
-        <v>0.473416</v>
+        <v>0.550226</v>
       </c>
       <c r="D110" t="n">
-        <v>0.489577</v>
+        <v>0.523994</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.607604</v>
+        <v>0.604612</v>
       </c>
       <c r="C111" t="n">
-        <v>0.472776</v>
+        <v>0.551737</v>
       </c>
       <c r="D111" t="n">
-        <v>0.488367</v>
+        <v>0.525022</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.60964</v>
+        <v>0.604942</v>
       </c>
       <c r="C112" t="n">
-        <v>0.472948</v>
+        <v>0.551579</v>
       </c>
       <c r="D112" t="n">
-        <v>0.487872</v>
+        <v>0.525069</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.608742</v>
+        <v>0.605813</v>
       </c>
       <c r="C113" t="n">
-        <v>0.472722</v>
+        <v>0.5510969999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.488474</v>
+        <v>0.527159</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.608013</v>
+        <v>0.60629</v>
       </c>
       <c r="C114" t="n">
-        <v>0.474323</v>
+        <v>0.5528690000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.489292</v>
+        <v>0.525882</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.609232</v>
+        <v>0.608676</v>
       </c>
       <c r="C115" t="n">
-        <v>0.473645</v>
+        <v>0.554608</v>
       </c>
       <c r="D115" t="n">
-        <v>0.490618</v>
+        <v>0.527885</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.610511</v>
+        <v>0.610851</v>
       </c>
       <c r="C116" t="n">
-        <v>0.475693</v>
+        <v>0.55504</v>
       </c>
       <c r="D116" t="n">
-        <v>0.492407</v>
+        <v>0.529308</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.612388</v>
+        <v>0.612162</v>
       </c>
       <c r="C117" t="n">
-        <v>0.476807</v>
+        <v>0.555883</v>
       </c>
       <c r="D117" t="n">
-        <v>0.491914</v>
+        <v>0.530649</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.613179</v>
+        <v>0.614076</v>
       </c>
       <c r="C118" t="n">
-        <v>0.478473</v>
+        <v>0.558742</v>
       </c>
       <c r="D118" t="n">
-        <v>0.493988</v>
+        <v>0.533168</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.614493</v>
+        <v>0.617982</v>
       </c>
       <c r="C119" t="n">
-        <v>0.480577</v>
+        <v>0.560809</v>
       </c>
       <c r="D119" t="n">
-        <v>0.496635</v>
+        <v>0.537282</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.617213</v>
+        <v>0.623662</v>
       </c>
       <c r="C120" t="n">
-        <v>0.481698</v>
+        <v>0.56415</v>
       </c>
       <c r="D120" t="n">
-        <v>0.499703</v>
+        <v>0.539927</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.620422</v>
+        <v>0.628593</v>
       </c>
       <c r="C121" t="n">
-        <v>0.485981</v>
+        <v>0.56506</v>
       </c>
       <c r="D121" t="n">
-        <v>0.501563</v>
+        <v>0.545851</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.626017</v>
+        <v>0.641968</v>
       </c>
       <c r="C122" t="n">
-        <v>0.493469</v>
+        <v>0.572978</v>
       </c>
       <c r="D122" t="n">
-        <v>0.508783</v>
+        <v>0.555177</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.634575</v>
+        <v>0.653264</v>
       </c>
       <c r="C123" t="n">
-        <v>0.50068</v>
+        <v>0.585489</v>
       </c>
       <c r="D123" t="n">
-        <v>0.659724</v>
+        <v>0.6812319999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.767887</v>
+        <v>0.740549</v>
       </c>
       <c r="C124" t="n">
-        <v>0.599702</v>
+        <v>0.675215</v>
       </c>
       <c r="D124" t="n">
-        <v>0.659004</v>
+        <v>0.679619</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.766243</v>
+        <v>0.74297</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5990839999999999</v>
+        <v>0.676801</v>
       </c>
       <c r="D125" t="n">
-        <v>0.657724</v>
+        <v>0.683368</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.768052</v>
+        <v>0.7426469999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6005</v>
+        <v>0.6779539999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.658435</v>
+        <v>0.6830850000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.767265</v>
+        <v>0.740129</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6010799999999999</v>
+        <v>0.679743</v>
       </c>
       <c r="D127" t="n">
-        <v>0.657963</v>
+        <v>0.686416</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.76953</v>
+        <v>0.7429750000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.601566</v>
+        <v>0.6800389999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6610780000000001</v>
+        <v>0.685651</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.77098</v>
+        <v>0.746973</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6012380000000001</v>
+        <v>0.682246</v>
       </c>
       <c r="D129" t="n">
-        <v>0.661614</v>
+        <v>0.686453</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.770049</v>
+        <v>0.747434</v>
       </c>
       <c r="C130" t="n">
-        <v>0.603818</v>
+        <v>0.685022</v>
       </c>
       <c r="D130" t="n">
-        <v>0.662793</v>
+        <v>0.6883</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.770718</v>
+        <v>0.750396</v>
       </c>
       <c r="C131" t="n">
-        <v>0.605189</v>
+        <v>0.687176</v>
       </c>
       <c r="D131" t="n">
-        <v>0.66439</v>
+        <v>0.690696</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.773298</v>
+        <v>0.751947</v>
       </c>
       <c r="C132" t="n">
-        <v>0.606484</v>
+        <v>0.690033</v>
       </c>
       <c r="D132" t="n">
-        <v>0.66597</v>
+        <v>0.691448</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.776891</v>
+        <v>0.7553569999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.60906</v>
+        <v>0.691916</v>
       </c>
       <c r="D133" t="n">
-        <v>0.666994</v>
+        <v>0.694957</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.77746</v>
+        <v>0.761507</v>
       </c>
       <c r="C134" t="n">
-        <v>0.611746</v>
+        <v>0.695984</v>
       </c>
       <c r="D134" t="n">
-        <v>0.673176</v>
+        <v>0.700014</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.781722</v>
+        <v>0.7677310000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.616838</v>
+        <v>0.700354</v>
       </c>
       <c r="D135" t="n">
-        <v>0.676086</v>
+        <v>0.705348</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.787524</v>
+        <v>0.777749</v>
       </c>
       <c r="C136" t="n">
-        <v>0.622598</v>
+        <v>0.711112</v>
       </c>
       <c r="D136" t="n">
-        <v>0.682674</v>
+        <v>0.712426</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.796345</v>
+        <v>0.789774</v>
       </c>
       <c r="C137" t="n">
-        <v>0.633147</v>
+        <v>0.71643</v>
       </c>
       <c r="D137" t="n">
-        <v>0.790828</v>
+        <v>0.815555</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8752490000000001</v>
+        <v>0.862782</v>
       </c>
       <c r="C138" t="n">
-        <v>0.674437</v>
+        <v>0.79332</v>
       </c>
       <c r="D138" t="n">
-        <v>0.79112</v>
+        <v>0.816304</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.875438</v>
+        <v>0.863296</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6749579999999999</v>
+        <v>0.795677</v>
       </c>
       <c r="D139" t="n">
-        <v>0.791619</v>
+        <v>0.816433</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8749130000000001</v>
+        <v>0.863612</v>
       </c>
       <c r="C140" t="n">
-        <v>0.675741</v>
+        <v>0.795876</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7965989999999999</v>
+        <v>0.816428</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.876957</v>
+        <v>0.8637049999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>0.676095</v>
+        <v>0.797548</v>
       </c>
       <c r="D141" t="n">
-        <v>0.792843</v>
+        <v>0.817141</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.877664</v>
+        <v>0.864795</v>
       </c>
       <c r="C142" t="n">
-        <v>0.676971</v>
+        <v>0.799448</v>
       </c>
       <c r="D142" t="n">
-        <v>0.792488</v>
+        <v>0.819674</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.876827</v>
+        <v>0.866738</v>
       </c>
       <c r="C143" t="n">
-        <v>0.676823</v>
+        <v>0.799785</v>
       </c>
       <c r="D143" t="n">
-        <v>0.794075</v>
+        <v>0.818044</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0198274</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0198243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0198059</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0199393</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0198465</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0200695</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0203167</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.0207984</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.019398</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0196474</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0198002</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0198351</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.020005</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.0201547</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0202387</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0202416</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0205515</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.020734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0208632</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0212432</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.0218651</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.0253637</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0203899</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.0204771</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0206748</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.0207843</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.0210829</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0211716</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0214289</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0215001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0218002</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0221683</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0231472</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.0257742</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.0289348</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.0322824</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0214691</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0217903</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0219112</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0219809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0221479</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0224448</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.02262</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0231701</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0235929</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.024466</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0257139</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0282271</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0303257</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.0351291</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.0408898</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0231879</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0233257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.0235135</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0237414</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0239179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0244805</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0248999</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0254771</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.0265139</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0280363</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0300505</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0328613</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.036562</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.0420912</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0291857</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0293683</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0294951</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.029813</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0300128</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302796</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.030801</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.031446</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0324341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0335695</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0353551</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0378182</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.0410501</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.0456478</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0552817</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0555326</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0556777</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0557553</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0559421</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0562511</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.056543</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.056954</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0573628</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0581532</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.0593444</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.0607396</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.06325</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.0670234</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.086252</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0863121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.08631</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.08640920000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0864456</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.08653959999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.0867363</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0870079</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0874346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0880908</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.08892</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.0899819</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.0920994</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.0950337</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.100164</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.113889</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.114021</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.114114</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.114157</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.114198</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.114387</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.114667</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.115047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.115835</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.116215</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.117455</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.122216</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.130657</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.140904</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.140713</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.140603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.140544</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.140461</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.140955</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.142695</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.141111</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.141474</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.141584</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.144383</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.144338</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.146809</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.150574</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.157534</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.15768</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.157841</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.170985</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.158043</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.158496</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.01963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0195504</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0196026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0196237</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0194434</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.0196089</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0196438</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.019683</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0206908</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0208145</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0208233</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0208079</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0210678</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.0211339</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.021293</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0213755</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0214194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0216061</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0216834</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0216891</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.021814</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.02224</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0218223</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.021951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0222832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.0225478</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0226653</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0228678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0232795</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0234118</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0236239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0237577</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0245297</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0248515</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0259781</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.028096</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0231379</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0235392</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0237383</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0240298</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0242845</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0248099</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0251381</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0255035</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.026017</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0265204</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0273233</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.0288886</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0309086</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.035125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.0395813</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0250602</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0252618</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.0256001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0259637</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0263006</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0266533</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.027142</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0277574</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0284471</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0293755</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.0310293</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0333401</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.0369138</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.0422301</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.027755</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.028318</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0282048</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0288949</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0291466</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0296631</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.0302154</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.0308858</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0317299</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.0327248</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0344036</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.0365419</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.0395077</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.0440142</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0384812</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0393181</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0400471</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0410283</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0422285</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0436636</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0450427</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0465122</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.048317</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0499665</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0516792</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.0540677</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.0567184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.0613213</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.07599069999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0765213</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0769676</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.07758429999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0782827</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0789179</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.07968980000000001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0805656</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0816693</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0863792</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.08411639999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.0859486</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.08840779999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.0922501</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.0984163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0907982</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0916492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.092555</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0937095</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.09565650000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.103513</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0973205</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0988463</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.100303</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.102148</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.104312</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.107029</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.111037</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.116985</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.102804</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.108721</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.105795</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.109135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.111421</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.113514</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.114964</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.116895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.119313</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.121782</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.124925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.12911</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.135094</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.116615</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.118091</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.119623</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.121247</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.122801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.12453</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0210661</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0210821</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0210432</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0210228</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0211017</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.021451</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0215967</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.021032</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.021237</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0214398</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0216389</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0217625</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0220811</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0221537</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0222621</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.022351</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0223659</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.0223994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0224787</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0225969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0229866</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0224424</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0227148</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0228976</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0231426</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0233641</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0236678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0238622</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0240883</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0241209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0243341</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249996</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0258005</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0317443</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0235387</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0237574</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0240607</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0243991</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0246515</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0249339</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0252916</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0255331</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0260222</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0266838</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0278203</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0305126</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0344632</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.0242031</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0243873</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0246308</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0248962</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0251551</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0255061</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.025758</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0261621</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0266822</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.027176</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0279736</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.0294383</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0324535</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0364486</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.042747</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.0261578</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0266345</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0270048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0274462</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0276478</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0280925</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0295698</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.0301268</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0308125</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0310039</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0325978</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0358014</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.0390005</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0449875</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0407134</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0414223</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0420164</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0428758</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0435859</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.0441158</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0451214</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.045933</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0468684</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0477272</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0490508</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0513003</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0542639</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0587909</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.08060109999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.08116420000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0815678</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.08204690000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.08264589999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0832561</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0837205</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0845051</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.08527559999999999</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0864844</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0876881</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.08924799999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.096528</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0955449</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0975452</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0983436</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0990383</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.09986689999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.100985</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.101987</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.102746</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.10438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.105384</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.106778</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.108591</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.110691</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.113494</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.117535</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.123795</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.115482</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.116645</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.1179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.12028</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.121788</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.123885</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.125833</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.1268</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.129052</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.132444</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.134565</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.138824</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.145371</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.129339</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.130682</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.131871</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.133153</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.134562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.135784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.137311</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.126229</v>
+        <v>0.127442</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0956272</v>
+        <v>0.0916149</v>
       </c>
       <c r="D2" t="n">
-        <v>0.102855</v>
+        <v>0.100956</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.126185</v>
+        <v>0.121356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0923973</v>
+        <v>0.09161229999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.102013</v>
+        <v>0.101054</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.134827</v>
+        <v>0.137714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0962094</v>
+        <v>0.0916592</v>
       </c>
       <c r="D4" t="n">
-        <v>0.103094</v>
+        <v>0.101187</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.133323</v>
+        <v>0.13441</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0944313</v>
+        <v>0.09319040000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.103421</v>
+        <v>0.102674</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.136349</v>
+        <v>0.133948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0943211</v>
+        <v>0.0940843</v>
       </c>
       <c r="D6" t="n">
-        <v>0.102923</v>
+        <v>0.102211</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.139763</v>
+        <v>0.130816</v>
       </c>
       <c r="C7" t="n">
-        <v>0.094274</v>
+        <v>0.09572310000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.107291</v>
+        <v>0.103022</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.147408</v>
+        <v>0.146177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09470679999999999</v>
+        <v>0.0930996</v>
       </c>
       <c r="D8" t="n">
-        <v>0.105174</v>
+        <v>0.108462</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158441</v>
+        <v>0.155014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.102449</v>
+        <v>0.0973806</v>
       </c>
       <c r="D9" t="n">
-        <v>0.108525</v>
+        <v>0.10667</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12744</v>
+        <v>0.125656</v>
       </c>
       <c r="C10" t="n">
-        <v>0.100076</v>
+        <v>0.0987379</v>
       </c>
       <c r="D10" t="n">
-        <v>0.10806</v>
+        <v>0.106326</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.131618</v>
+        <v>0.125165</v>
       </c>
       <c r="C11" t="n">
-        <v>0.101593</v>
+        <v>0.0988496</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110834</v>
+        <v>0.106972</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.129751</v>
+        <v>0.1251</v>
       </c>
       <c r="C12" t="n">
-        <v>0.101105</v>
+        <v>0.09875920000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.109257</v>
+        <v>0.107594</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128143</v>
+        <v>0.125818</v>
       </c>
       <c r="C13" t="n">
-        <v>0.101758</v>
+        <v>0.09873319999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.109378</v>
+        <v>0.107146</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.135182</v>
+        <v>0.129161</v>
       </c>
       <c r="C14" t="n">
-        <v>0.102051</v>
+        <v>0.0983028</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112544</v>
+        <v>0.10685</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.130014</v>
+        <v>0.12795</v>
       </c>
       <c r="C15" t="n">
-        <v>0.102582</v>
+        <v>0.09923120000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.11033</v>
+        <v>0.106985</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.131384</v>
+        <v>0.128187</v>
       </c>
       <c r="C16" t="n">
-        <v>0.104066</v>
+        <v>0.09918970000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113325</v>
+        <v>0.107694</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.14041</v>
+        <v>0.128352</v>
       </c>
       <c r="C17" t="n">
-        <v>0.104159</v>
+        <v>0.09983400000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111568</v>
+        <v>0.107869</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.136067</v>
+        <v>0.130781</v>
       </c>
       <c r="C18" t="n">
-        <v>0.103841</v>
+        <v>0.100177</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11206</v>
+        <v>0.108533</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13664</v>
+        <v>0.141213</v>
       </c>
       <c r="C19" t="n">
-        <v>0.104056</v>
+        <v>0.100055</v>
       </c>
       <c r="D19" t="n">
-        <v>0.116007</v>
+        <v>0.108885</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.147712</v>
+        <v>0.137372</v>
       </c>
       <c r="C20" t="n">
-        <v>0.108109</v>
+        <v>0.101394</v>
       </c>
       <c r="D20" t="n">
-        <v>0.11792</v>
+        <v>0.109584</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.151222</v>
+        <v>0.143292</v>
       </c>
       <c r="C21" t="n">
-        <v>0.105212</v>
+        <v>0.102852</v>
       </c>
       <c r="D21" t="n">
-        <v>0.115055</v>
+        <v>0.111065</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.157889</v>
+        <v>0.150421</v>
       </c>
       <c r="C22" t="n">
-        <v>0.108882</v>
+        <v>0.106405</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119023</v>
+        <v>0.115579</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161715</v>
+        <v>0.160092</v>
       </c>
       <c r="C23" t="n">
-        <v>0.116959</v>
+        <v>0.113651</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116556</v>
+        <v>0.116595</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.137838</v>
+        <v>0.14076</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108207</v>
+        <v>0.108551</v>
       </c>
       <c r="D24" t="n">
-        <v>0.11643</v>
+        <v>0.116202</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.140584</v>
+        <v>0.134544</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109093</v>
+        <v>0.10891</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116917</v>
+        <v>0.116745</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136564</v>
+        <v>0.135536</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109179</v>
+        <v>0.108826</v>
       </c>
       <c r="D26" t="n">
-        <v>0.117608</v>
+        <v>0.116963</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136176</v>
+        <v>0.135319</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108827</v>
+        <v>0.109395</v>
       </c>
       <c r="D27" t="n">
-        <v>0.117857</v>
+        <v>0.117223</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.139607</v>
+        <v>0.13567</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109455</v>
+        <v>0.109402</v>
       </c>
       <c r="D28" t="n">
-        <v>0.117869</v>
+        <v>0.117321</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.140682</v>
+        <v>0.136764</v>
       </c>
       <c r="C29" t="n">
-        <v>0.110157</v>
+        <v>0.109278</v>
       </c>
       <c r="D29" t="n">
-        <v>0.118308</v>
+        <v>0.116699</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.141074</v>
+        <v>0.138669</v>
       </c>
       <c r="C30" t="n">
-        <v>0.110615</v>
+        <v>0.109392</v>
       </c>
       <c r="D30" t="n">
-        <v>0.122275</v>
+        <v>0.117111</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.143645</v>
+        <v>0.138814</v>
       </c>
       <c r="C31" t="n">
-        <v>0.110873</v>
+        <v>0.109771</v>
       </c>
       <c r="D31" t="n">
-        <v>0.121236</v>
+        <v>0.117346</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.143215</v>
+        <v>0.144678</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112081</v>
+        <v>0.110626</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123207</v>
+        <v>0.117496</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150111</v>
+        <v>0.145465</v>
       </c>
       <c r="C33" t="n">
-        <v>0.114441</v>
+        <v>0.113568</v>
       </c>
       <c r="D33" t="n">
-        <v>0.124236</v>
+        <v>0.122708</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.150916</v>
+        <v>0.149117</v>
       </c>
       <c r="C34" t="n">
-        <v>0.115736</v>
+        <v>0.115146</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125202</v>
+        <v>0.119629</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.154715</v>
+        <v>0.152715</v>
       </c>
       <c r="C35" t="n">
-        <v>0.119859</v>
+        <v>0.118978</v>
       </c>
       <c r="D35" t="n">
-        <v>0.124929</v>
+        <v>0.125361</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.161063</v>
+        <v>0.170882</v>
       </c>
       <c r="C36" t="n">
-        <v>0.124605</v>
+        <v>0.123897</v>
       </c>
       <c r="D36" t="n">
-        <v>0.132337</v>
+        <v>0.131278</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172862</v>
+        <v>0.167538</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12895</v>
+        <v>0.128916</v>
       </c>
       <c r="D37" t="n">
-        <v>0.131691</v>
+        <v>0.128075</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148888</v>
+        <v>0.148439</v>
       </c>
       <c r="C38" t="n">
-        <v>0.120172</v>
+        <v>0.118819</v>
       </c>
       <c r="D38" t="n">
-        <v>0.130713</v>
+        <v>0.128118</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.151102</v>
+        <v>0.149566</v>
       </c>
       <c r="C39" t="n">
-        <v>0.119616</v>
+        <v>0.118809</v>
       </c>
       <c r="D39" t="n">
-        <v>0.130081</v>
+        <v>0.128695</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150632</v>
+        <v>0.150194</v>
       </c>
       <c r="C40" t="n">
-        <v>0.121086</v>
+        <v>0.119497</v>
       </c>
       <c r="D40" t="n">
-        <v>0.131452</v>
+        <v>0.128812</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.152078</v>
+        <v>0.151959</v>
       </c>
       <c r="C41" t="n">
-        <v>0.12143</v>
+        <v>0.120149</v>
       </c>
       <c r="D41" t="n">
-        <v>0.131861</v>
+        <v>0.129095</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.151653</v>
+        <v>0.152412</v>
       </c>
       <c r="C42" t="n">
-        <v>0.122134</v>
+        <v>0.121677</v>
       </c>
       <c r="D42" t="n">
-        <v>0.131946</v>
+        <v>0.129703</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.154411</v>
+        <v>0.151582</v>
       </c>
       <c r="C43" t="n">
-        <v>0.124738</v>
+        <v>0.122645</v>
       </c>
       <c r="D43" t="n">
-        <v>0.134006</v>
+        <v>0.130548</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.153854</v>
+        <v>0.153484</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125054</v>
+        <v>0.123146</v>
       </c>
       <c r="D44" t="n">
-        <v>0.133353</v>
+        <v>0.130685</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.155695</v>
+        <v>0.154186</v>
       </c>
       <c r="C45" t="n">
-        <v>0.126402</v>
+        <v>0.12451</v>
       </c>
       <c r="D45" t="n">
-        <v>0.133424</v>
+        <v>0.131034</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.15872</v>
+        <v>0.156466</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128807</v>
+        <v>0.126802</v>
       </c>
       <c r="D46" t="n">
-        <v>0.134766</v>
+        <v>0.131426</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.160491</v>
+        <v>0.157621</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1303</v>
+        <v>0.127702</v>
       </c>
       <c r="D47" t="n">
-        <v>0.136095</v>
+        <v>0.132359</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.165639</v>
+        <v>0.161535</v>
       </c>
       <c r="C48" t="n">
-        <v>0.132448</v>
+        <v>0.129545</v>
       </c>
       <c r="D48" t="n">
-        <v>0.138505</v>
+        <v>0.134656</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.167843</v>
+        <v>0.165738</v>
       </c>
       <c r="C49" t="n">
-        <v>0.134815</v>
+        <v>0.132246</v>
       </c>
       <c r="D49" t="n">
-        <v>0.141209</v>
+        <v>0.137791</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.177804</v>
+        <v>0.171168</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137705</v>
+        <v>0.137327</v>
       </c>
       <c r="D50" t="n">
-        <v>0.146523</v>
+        <v>0.14373</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.184125</v>
+        <v>0.177404</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1411</v>
+        <v>0.145787</v>
       </c>
       <c r="D51" t="n">
-        <v>0.144714</v>
+        <v>0.143216</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.192623</v>
+        <v>0.202588</v>
       </c>
       <c r="C52" t="n">
-        <v>0.154569</v>
+        <v>0.145992</v>
       </c>
       <c r="D52" t="n">
-        <v>0.144771</v>
+        <v>0.144334</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160662</v>
+        <v>0.160111</v>
       </c>
       <c r="C53" t="n">
-        <v>0.130822</v>
+        <v>0.130108</v>
       </c>
       <c r="D53" t="n">
-        <v>0.144768</v>
+        <v>0.143692</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161814</v>
+        <v>0.161059</v>
       </c>
       <c r="C54" t="n">
-        <v>0.13158</v>
+        <v>0.13082</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144843</v>
+        <v>0.143533</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160109</v>
+        <v>0.165063</v>
       </c>
       <c r="C55" t="n">
-        <v>0.13345</v>
+        <v>0.131367</v>
       </c>
       <c r="D55" t="n">
-        <v>0.145075</v>
+        <v>0.143592</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.16117</v>
+        <v>0.16327</v>
       </c>
       <c r="C56" t="n">
-        <v>0.134751</v>
+        <v>0.132072</v>
       </c>
       <c r="D56" t="n">
-        <v>0.145713</v>
+        <v>0.144276</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163463</v>
+        <v>0.163126</v>
       </c>
       <c r="C57" t="n">
-        <v>0.13547</v>
+        <v>0.133963</v>
       </c>
       <c r="D57" t="n">
-        <v>0.14602</v>
+        <v>0.144287</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164305</v>
+        <v>0.166792</v>
       </c>
       <c r="C58" t="n">
-        <v>0.133336</v>
+        <v>0.13444</v>
       </c>
       <c r="D58" t="n">
-        <v>0.14531</v>
+        <v>0.14409</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.167582</v>
+        <v>0.16559</v>
       </c>
       <c r="C59" t="n">
-        <v>0.140941</v>
+        <v>0.13588</v>
       </c>
       <c r="D59" t="n">
-        <v>0.146174</v>
+        <v>0.144597</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16727</v>
+        <v>0.167079</v>
       </c>
       <c r="C60" t="n">
-        <v>0.138681</v>
+        <v>0.136797</v>
       </c>
       <c r="D60" t="n">
-        <v>0.147096</v>
+        <v>0.145844</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.171462</v>
+        <v>0.170354</v>
       </c>
       <c r="C61" t="n">
-        <v>0.139939</v>
+        <v>0.138489</v>
       </c>
       <c r="D61" t="n">
-        <v>0.148562</v>
+        <v>0.14719</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172837</v>
+        <v>0.1721</v>
       </c>
       <c r="C62" t="n">
-        <v>0.141386</v>
+        <v>0.140522</v>
       </c>
       <c r="D62" t="n">
-        <v>0.150627</v>
+        <v>0.149649</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176896</v>
+        <v>0.175842</v>
       </c>
       <c r="C63" t="n">
-        <v>0.143153</v>
+        <v>0.142768</v>
       </c>
       <c r="D63" t="n">
-        <v>0.152992</v>
+        <v>0.152871</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18296</v>
+        <v>0.181146</v>
       </c>
       <c r="C64" t="n">
-        <v>0.146548</v>
+        <v>0.146892</v>
       </c>
       <c r="D64" t="n">
-        <v>0.157124</v>
+        <v>0.156987</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.18871</v>
+        <v>0.189244</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150271</v>
+        <v>0.149866</v>
       </c>
       <c r="D65" t="n">
-        <v>0.163734</v>
+        <v>0.163478</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.199446</v>
+        <v>0.197133</v>
       </c>
       <c r="C66" t="n">
-        <v>0.156579</v>
+        <v>0.163187</v>
       </c>
       <c r="D66" t="n">
-        <v>0.158126</v>
+        <v>0.157054</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.181151</v>
+        <v>0.180122</v>
       </c>
       <c r="C67" t="n">
-        <v>0.147259</v>
+        <v>0.151502</v>
       </c>
       <c r="D67" t="n">
-        <v>0.156743</v>
+        <v>0.156941</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.182751</v>
+        <v>0.188695</v>
       </c>
       <c r="C68" t="n">
-        <v>0.149961</v>
+        <v>0.149023</v>
       </c>
       <c r="D68" t="n">
-        <v>0.157579</v>
+        <v>0.158717</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.179739</v>
+        <v>0.181943</v>
       </c>
       <c r="C69" t="n">
-        <v>0.148489</v>
+        <v>0.152015</v>
       </c>
       <c r="D69" t="n">
-        <v>0.157938</v>
+        <v>0.159063</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182847</v>
+        <v>0.183557</v>
       </c>
       <c r="C70" t="n">
-        <v>0.148437</v>
+        <v>0.14729</v>
       </c>
       <c r="D70" t="n">
-        <v>0.158581</v>
+        <v>0.157563</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.182491</v>
+        <v>0.182421</v>
       </c>
       <c r="C71" t="n">
-        <v>0.149262</v>
+        <v>0.149499</v>
       </c>
       <c r="D71" t="n">
-        <v>0.162438</v>
+        <v>0.157952</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.183964</v>
+        <v>0.186494</v>
       </c>
       <c r="C72" t="n">
-        <v>0.154439</v>
+        <v>0.149817</v>
       </c>
       <c r="D72" t="n">
-        <v>0.159924</v>
+        <v>0.15982</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.193703</v>
+        <v>0.184938</v>
       </c>
       <c r="C73" t="n">
-        <v>0.153599</v>
+        <v>0.152938</v>
       </c>
       <c r="D73" t="n">
-        <v>0.160134</v>
+        <v>0.160767</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.186154</v>
+        <v>0.187452</v>
       </c>
       <c r="C74" t="n">
-        <v>0.154126</v>
+        <v>0.154087</v>
       </c>
       <c r="D74" t="n">
-        <v>0.160717</v>
+        <v>0.161109</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189551</v>
+        <v>0.190647</v>
       </c>
       <c r="C75" t="n">
-        <v>0.154643</v>
+        <v>0.155195</v>
       </c>
       <c r="D75" t="n">
-        <v>0.162219</v>
+        <v>0.161641</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.189986</v>
+        <v>0.198219</v>
       </c>
       <c r="C76" t="n">
-        <v>0.158044</v>
+        <v>0.161752</v>
       </c>
       <c r="D76" t="n">
-        <v>0.164</v>
+        <v>0.16345</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197207</v>
+        <v>0.195941</v>
       </c>
       <c r="C77" t="n">
-        <v>0.16468</v>
+        <v>0.158072</v>
       </c>
       <c r="D77" t="n">
-        <v>0.166108</v>
+        <v>0.165681</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.202915</v>
+        <v>0.201202</v>
       </c>
       <c r="C78" t="n">
-        <v>0.16772</v>
+        <v>0.161587</v>
       </c>
       <c r="D78" t="n">
-        <v>0.169669</v>
+        <v>0.169198</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.210683</v>
+        <v>0.213161</v>
       </c>
       <c r="C79" t="n">
-        <v>0.166795</v>
+        <v>0.170475</v>
       </c>
       <c r="D79" t="n">
-        <v>0.175447</v>
+        <v>0.175116</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228938</v>
+        <v>0.216637</v>
       </c>
       <c r="C80" t="n">
-        <v>0.179787</v>
+        <v>0.175772</v>
       </c>
       <c r="D80" t="n">
-        <v>0.232361</v>
+        <v>0.234739</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358822</v>
+        <v>0.363425</v>
       </c>
       <c r="C81" t="n">
-        <v>0.286044</v>
+        <v>0.286006</v>
       </c>
       <c r="D81" t="n">
-        <v>0.233309</v>
+        <v>0.234959</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.361746</v>
+        <v>0.362076</v>
       </c>
       <c r="C82" t="n">
-        <v>0.284232</v>
+        <v>0.287381</v>
       </c>
       <c r="D82" t="n">
-        <v>0.235008</v>
+        <v>0.233528</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.358923</v>
+        <v>0.364479</v>
       </c>
       <c r="C83" t="n">
-        <v>0.284726</v>
+        <v>0.284403</v>
       </c>
       <c r="D83" t="n">
-        <v>0.232067</v>
+        <v>0.237126</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.365807</v>
+        <v>0.365565</v>
       </c>
       <c r="C84" t="n">
-        <v>0.280877</v>
+        <v>0.284073</v>
       </c>
       <c r="D84" t="n">
-        <v>0.233053</v>
+        <v>0.235128</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.363008</v>
+        <v>0.368116</v>
       </c>
       <c r="C85" t="n">
-        <v>0.283811</v>
+        <v>0.283702</v>
       </c>
       <c r="D85" t="n">
-        <v>0.232955</v>
+        <v>0.233716</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.36573</v>
+        <v>0.369723</v>
       </c>
       <c r="C86" t="n">
-        <v>0.27868</v>
+        <v>0.283125</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229704</v>
+        <v>0.233529</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.365624</v>
+        <v>0.370188</v>
       </c>
       <c r="C87" t="n">
-        <v>0.278203</v>
+        <v>0.278126</v>
       </c>
       <c r="D87" t="n">
-        <v>0.230949</v>
+        <v>0.23344</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.365471</v>
+        <v>0.370094</v>
       </c>
       <c r="C88" t="n">
-        <v>0.278665</v>
+        <v>0.279302</v>
       </c>
       <c r="D88" t="n">
-        <v>0.228831</v>
+        <v>0.232568</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.370087</v>
+        <v>0.371019</v>
       </c>
       <c r="C89" t="n">
-        <v>0.275191</v>
+        <v>0.277654</v>
       </c>
       <c r="D89" t="n">
-        <v>0.229484</v>
+        <v>0.231909</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.36818</v>
+        <v>0.369401</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278502</v>
+        <v>0.280676</v>
       </c>
       <c r="D90" t="n">
-        <v>0.229771</v>
+        <v>0.230375</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374166</v>
+        <v>0.375298</v>
       </c>
       <c r="C91" t="n">
-        <v>0.278374</v>
+        <v>0.278324</v>
       </c>
       <c r="D91" t="n">
-        <v>0.228578</v>
+        <v>0.229652</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.376566</v>
+        <v>0.383909</v>
       </c>
       <c r="C92" t="n">
-        <v>0.278268</v>
+        <v>0.274283</v>
       </c>
       <c r="D92" t="n">
-        <v>0.232246</v>
+        <v>0.233149</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.391782</v>
+        <v>0.382341</v>
       </c>
       <c r="C93" t="n">
-        <v>0.282814</v>
+        <v>0.283515</v>
       </c>
       <c r="D93" t="n">
-        <v>0.235495</v>
+        <v>0.234447</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.384605</v>
+        <v>0.394926</v>
       </c>
       <c r="C94" t="n">
-        <v>0.282762</v>
+        <v>0.286481</v>
       </c>
       <c r="D94" t="n">
-        <v>0.392778</v>
+        <v>0.39142</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.527408</v>
+        <v>0.525966</v>
       </c>
       <c r="C95" t="n">
-        <v>0.447528</v>
+        <v>0.446576</v>
       </c>
       <c r="D95" t="n">
-        <v>0.391859</v>
+        <v>0.389944</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.527471</v>
+        <v>0.527416</v>
       </c>
       <c r="C96" t="n">
-        <v>0.447037</v>
+        <v>0.446141</v>
       </c>
       <c r="D96" t="n">
-        <v>0.388871</v>
+        <v>0.389674</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.527478</v>
+        <v>0.52697</v>
       </c>
       <c r="C97" t="n">
-        <v>0.446383</v>
+        <v>0.444923</v>
       </c>
       <c r="D97" t="n">
-        <v>0.389909</v>
+        <v>0.389447</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.528052</v>
+        <v>0.528114</v>
       </c>
       <c r="C98" t="n">
-        <v>0.445873</v>
+        <v>0.444523</v>
       </c>
       <c r="D98" t="n">
-        <v>0.387408</v>
+        <v>0.389357</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528388</v>
+        <v>0.528118</v>
       </c>
       <c r="C99" t="n">
-        <v>0.444846</v>
+        <v>0.444842</v>
       </c>
       <c r="D99" t="n">
-        <v>0.388036</v>
+        <v>0.389022</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.529309</v>
+        <v>0.529067</v>
       </c>
       <c r="C100" t="n">
-        <v>0.444556</v>
+        <v>0.444182</v>
       </c>
       <c r="D100" t="n">
-        <v>0.388239</v>
+        <v>0.388114</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.530967</v>
+        <v>0.5301360000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.444466</v>
+        <v>0.443697</v>
       </c>
       <c r="D101" t="n">
-        <v>0.389277</v>
+        <v>0.3884</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.531498</v>
+        <v>0.5315530000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.445882</v>
+        <v>0.44409</v>
       </c>
       <c r="D102" t="n">
-        <v>0.389472</v>
+        <v>0.389967</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.533868</v>
+        <v>0.533178</v>
       </c>
       <c r="C103" t="n">
-        <v>0.445667</v>
+        <v>0.444051</v>
       </c>
       <c r="D103" t="n">
-        <v>0.389345</v>
+        <v>0.390635</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.536898</v>
+        <v>0.534775</v>
       </c>
       <c r="C104" t="n">
-        <v>0.447633</v>
+        <v>0.447637</v>
       </c>
       <c r="D104" t="n">
-        <v>0.390853</v>
+        <v>0.390952</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5396260000000001</v>
+        <v>0.53869</v>
       </c>
       <c r="C105" t="n">
-        <v>0.448666</v>
+        <v>0.447964</v>
       </c>
       <c r="D105" t="n">
-        <v>0.393228</v>
+        <v>0.393507</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.542623</v>
+        <v>0.542233</v>
       </c>
       <c r="C106" t="n">
-        <v>0.450777</v>
+        <v>0.450328</v>
       </c>
       <c r="D106" t="n">
-        <v>0.396295</v>
+        <v>0.395068</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.547546</v>
+        <v>0.547312</v>
       </c>
       <c r="C107" t="n">
-        <v>0.454378</v>
+        <v>0.453473</v>
       </c>
       <c r="D107" t="n">
-        <v>0.401797</v>
+        <v>0.402793</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.556033</v>
+        <v>0.554472</v>
       </c>
       <c r="C108" t="n">
-        <v>0.458561</v>
+        <v>0.45779</v>
       </c>
       <c r="D108" t="n">
-        <v>0.525128</v>
+        <v>0.521753</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.566737</v>
+        <v>0.566203</v>
       </c>
       <c r="C109" t="n">
-        <v>0.46584</v>
+        <v>0.46876</v>
       </c>
       <c r="D109" t="n">
-        <v>0.524218</v>
+        <v>0.521755</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.606067</v>
+        <v>0.602259</v>
       </c>
       <c r="C110" t="n">
-        <v>0.550226</v>
+        <v>0.550915</v>
       </c>
       <c r="D110" t="n">
-        <v>0.523994</v>
+        <v>0.524751</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.604612</v>
+        <v>0.603484</v>
       </c>
       <c r="C111" t="n">
-        <v>0.551737</v>
+        <v>0.552446</v>
       </c>
       <c r="D111" t="n">
-        <v>0.525022</v>
+        <v>0.524151</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.604942</v>
+        <v>0.604115</v>
       </c>
       <c r="C112" t="n">
-        <v>0.551579</v>
+        <v>0.551512</v>
       </c>
       <c r="D112" t="n">
-        <v>0.525069</v>
+        <v>0.526551</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.605813</v>
+        <v>0.6058</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5510969999999999</v>
+        <v>0.551281</v>
       </c>
       <c r="D113" t="n">
-        <v>0.527159</v>
+        <v>0.526075</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.60629</v>
+        <v>0.607782</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5528690000000001</v>
+        <v>0.553021</v>
       </c>
       <c r="D114" t="n">
-        <v>0.525882</v>
+        <v>0.526605</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.608676</v>
+        <v>0.6076510000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.554608</v>
+        <v>0.552955</v>
       </c>
       <c r="D115" t="n">
-        <v>0.527885</v>
+        <v>0.528145</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.610851</v>
+        <v>0.610852</v>
       </c>
       <c r="C116" t="n">
-        <v>0.55504</v>
+        <v>0.552926</v>
       </c>
       <c r="D116" t="n">
-        <v>0.529308</v>
+        <v>0.528363</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.612162</v>
+        <v>0.61</v>
       </c>
       <c r="C117" t="n">
-        <v>0.555883</v>
+        <v>0.55515</v>
       </c>
       <c r="D117" t="n">
-        <v>0.530649</v>
+        <v>0.530699</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.614076</v>
+        <v>0.6147590000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.558742</v>
+        <v>0.557905</v>
       </c>
       <c r="D118" t="n">
-        <v>0.533168</v>
+        <v>0.531517</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.617982</v>
+        <v>0.619909</v>
       </c>
       <c r="C119" t="n">
-        <v>0.560809</v>
+        <v>0.55935</v>
       </c>
       <c r="D119" t="n">
-        <v>0.537282</v>
+        <v>0.535267</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.623662</v>
+        <v>0.623926</v>
       </c>
       <c r="C120" t="n">
-        <v>0.56415</v>
+        <v>0.563574</v>
       </c>
       <c r="D120" t="n">
-        <v>0.539927</v>
+        <v>0.540621</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.628593</v>
+        <v>0.630311</v>
       </c>
       <c r="C121" t="n">
-        <v>0.56506</v>
+        <v>0.5666909999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.545851</v>
+        <v>0.544784</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.641968</v>
+        <v>0.6391019999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.572978</v>
+        <v>0.572305</v>
       </c>
       <c r="D122" t="n">
-        <v>0.555177</v>
+        <v>0.55354</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.653264</v>
+        <v>0.65108</v>
       </c>
       <c r="C123" t="n">
-        <v>0.585489</v>
+        <v>0.580508</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6812319999999999</v>
+        <v>0.680763</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.740549</v>
+        <v>0.740376</v>
       </c>
       <c r="C124" t="n">
-        <v>0.675215</v>
+        <v>0.675397</v>
       </c>
       <c r="D124" t="n">
-        <v>0.679619</v>
+        <v>0.680824</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.74297</v>
+        <v>0.740434</v>
       </c>
       <c r="C125" t="n">
-        <v>0.676801</v>
+        <v>0.675137</v>
       </c>
       <c r="D125" t="n">
-        <v>0.683368</v>
+        <v>0.67953</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7426469999999999</v>
+        <v>0.741964</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6779539999999999</v>
+        <v>0.676439</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6830850000000001</v>
+        <v>0.682682</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.740129</v>
+        <v>0.741453</v>
       </c>
       <c r="C127" t="n">
-        <v>0.679743</v>
+        <v>0.679252</v>
       </c>
       <c r="D127" t="n">
-        <v>0.686416</v>
+        <v>0.68371</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7429750000000001</v>
+        <v>0.7433920000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6800389999999999</v>
+        <v>0.679599</v>
       </c>
       <c r="D128" t="n">
-        <v>0.685651</v>
+        <v>0.684949</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.746973</v>
+        <v>0.744544</v>
       </c>
       <c r="C129" t="n">
-        <v>0.682246</v>
+        <v>0.680831</v>
       </c>
       <c r="D129" t="n">
-        <v>0.686453</v>
+        <v>0.684511</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.747434</v>
+        <v>0.746079</v>
       </c>
       <c r="C130" t="n">
-        <v>0.685022</v>
+        <v>0.685232</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6883</v>
+        <v>0.687199</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.750396</v>
+        <v>0.747937</v>
       </c>
       <c r="C131" t="n">
-        <v>0.687176</v>
+        <v>0.685509</v>
       </c>
       <c r="D131" t="n">
-        <v>0.690696</v>
+        <v>0.691906</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.751947</v>
+        <v>0.7525230000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.690033</v>
+        <v>0.688559</v>
       </c>
       <c r="D132" t="n">
-        <v>0.691448</v>
+        <v>0.692509</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7553569999999999</v>
+        <v>0.756212</v>
       </c>
       <c r="C133" t="n">
-        <v>0.691916</v>
+        <v>0.69413</v>
       </c>
       <c r="D133" t="n">
-        <v>0.694957</v>
+        <v>0.695842</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.761507</v>
+        <v>0.7604959999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.695984</v>
+        <v>0.696617</v>
       </c>
       <c r="D134" t="n">
-        <v>0.700014</v>
+        <v>0.698842</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7677310000000001</v>
+        <v>0.766254</v>
       </c>
       <c r="C135" t="n">
-        <v>0.700354</v>
+        <v>0.701418</v>
       </c>
       <c r="D135" t="n">
-        <v>0.705348</v>
+        <v>0.702288</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.777749</v>
+        <v>0.775197</v>
       </c>
       <c r="C136" t="n">
-        <v>0.711112</v>
+        <v>0.707516</v>
       </c>
       <c r="D136" t="n">
-        <v>0.712426</v>
+        <v>0.711404</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.789774</v>
+        <v>0.788149</v>
       </c>
       <c r="C137" t="n">
-        <v>0.71643</v>
+        <v>0.714579</v>
       </c>
       <c r="D137" t="n">
-        <v>0.815555</v>
+        <v>0.815372</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.862782</v>
+        <v>0.861534</v>
       </c>
       <c r="C138" t="n">
-        <v>0.79332</v>
+        <v>0.794179</v>
       </c>
       <c r="D138" t="n">
-        <v>0.816304</v>
+        <v>0.814954</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.863296</v>
+        <v>0.861811</v>
       </c>
       <c r="C139" t="n">
-        <v>0.795677</v>
+        <v>0.793712</v>
       </c>
       <c r="D139" t="n">
-        <v>0.816433</v>
+        <v>0.815282</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.863612</v>
+        <v>0.863435</v>
       </c>
       <c r="C140" t="n">
-        <v>0.795876</v>
+        <v>0.795835</v>
       </c>
       <c r="D140" t="n">
-        <v>0.816428</v>
+        <v>0.816889</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8637049999999999</v>
+        <v>0.864771</v>
       </c>
       <c r="C141" t="n">
-        <v>0.797548</v>
+        <v>0.797438</v>
       </c>
       <c r="D141" t="n">
-        <v>0.817141</v>
+        <v>0.816706</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.864795</v>
+        <v>0.865794</v>
       </c>
       <c r="C142" t="n">
-        <v>0.799448</v>
+        <v>0.7988499999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.819674</v>
+        <v>0.816599</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.866738</v>
+        <v>0.865999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.799785</v>
+        <v>0.800673</v>
       </c>
       <c r="D143" t="n">
-        <v>0.818044</v>
+        <v>0.818076</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.127442</v>
+        <v>0.120818</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0916149</v>
+        <v>0.09174069999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.100956</v>
+        <v>0.100923</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.121356</v>
+        <v>0.120146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09161229999999999</v>
+        <v>0.0918566</v>
       </c>
       <c r="D3" t="n">
-        <v>0.101054</v>
+        <v>0.101529</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.137714</v>
+        <v>0.120193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0916592</v>
+        <v>0.0909295</v>
       </c>
       <c r="D4" t="n">
-        <v>0.101187</v>
+        <v>0.10086</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.13441</v>
+        <v>0.12198</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09319040000000001</v>
+        <v>0.09247320000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.102674</v>
+        <v>0.101701</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.133948</v>
+        <v>0.123941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0940843</v>
+        <v>0.09344909999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.102211</v>
+        <v>0.102499</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.130816</v>
+        <v>0.127025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09572310000000001</v>
+        <v>0.0928601</v>
       </c>
       <c r="D7" t="n">
-        <v>0.103022</v>
+        <v>0.102573</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.146177</v>
+        <v>0.133776</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0930996</v>
+        <v>0.0936338</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108462</v>
+        <v>0.104119</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.155014</v>
+        <v>0.144754</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0973806</v>
+        <v>0.0956399</v>
       </c>
       <c r="D9" t="n">
-        <v>0.10667</v>
+        <v>0.107256</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125656</v>
+        <v>0.124783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0987379</v>
+        <v>0.0987972</v>
       </c>
       <c r="D10" t="n">
-        <v>0.106326</v>
+        <v>0.106061</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125165</v>
+        <v>0.124491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0988496</v>
+        <v>0.09915309999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.106972</v>
+        <v>0.106148</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1251</v>
+        <v>0.136743</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09875920000000001</v>
+        <v>0.09881470000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.107594</v>
+        <v>0.106697</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125818</v>
+        <v>0.12571</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09873319999999999</v>
+        <v>0.09942380000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.107146</v>
+        <v>0.106745</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.129161</v>
+        <v>0.12686</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0983028</v>
+        <v>0.0997572</v>
       </c>
       <c r="D14" t="n">
-        <v>0.10685</v>
+        <v>0.110052</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12795</v>
+        <v>0.12662</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09923120000000001</v>
+        <v>0.10005</v>
       </c>
       <c r="D15" t="n">
-        <v>0.106985</v>
+        <v>0.107576</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128187</v>
+        <v>0.127674</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09918970000000001</v>
+        <v>0.100154</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107694</v>
+        <v>0.107971</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128352</v>
+        <v>0.129462</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09983400000000001</v>
+        <v>0.100527</v>
       </c>
       <c r="D17" t="n">
-        <v>0.107869</v>
+        <v>0.107999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130781</v>
+        <v>0.130851</v>
       </c>
       <c r="C18" t="n">
-        <v>0.100177</v>
+        <v>0.100903</v>
       </c>
       <c r="D18" t="n">
-        <v>0.108533</v>
+        <v>0.108271</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.141213</v>
+        <v>0.132888</v>
       </c>
       <c r="C19" t="n">
-        <v>0.100055</v>
+        <v>0.101171</v>
       </c>
       <c r="D19" t="n">
-        <v>0.108885</v>
+        <v>0.10902</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.137372</v>
+        <v>0.135508</v>
       </c>
       <c r="C20" t="n">
-        <v>0.101394</v>
+        <v>0.101051</v>
       </c>
       <c r="D20" t="n">
-        <v>0.109584</v>
+        <v>0.109685</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.143292</v>
+        <v>0.141701</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102852</v>
+        <v>0.10242</v>
       </c>
       <c r="D21" t="n">
-        <v>0.111065</v>
+        <v>0.110626</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.150421</v>
+        <v>0.148442</v>
       </c>
       <c r="C22" t="n">
-        <v>0.106405</v>
+        <v>0.105352</v>
       </c>
       <c r="D22" t="n">
-        <v>0.115579</v>
+        <v>0.115634</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.160092</v>
+        <v>0.158827</v>
       </c>
       <c r="C23" t="n">
-        <v>0.113651</v>
+        <v>0.113956</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116595</v>
+        <v>0.1173</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.14076</v>
+        <v>0.135969</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108551</v>
+        <v>0.110953</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116202</v>
+        <v>0.116461</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134544</v>
+        <v>0.134882</v>
       </c>
       <c r="C25" t="n">
-        <v>0.10891</v>
+        <v>0.110234</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116745</v>
+        <v>0.116531</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135536</v>
+        <v>0.135588</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108826</v>
+        <v>0.110245</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116963</v>
+        <v>0.116498</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135319</v>
+        <v>0.137825</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109395</v>
+        <v>0.11071</v>
       </c>
       <c r="D27" t="n">
-        <v>0.117223</v>
+        <v>0.117123</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.13567</v>
+        <v>0.136229</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109402</v>
+        <v>0.110508</v>
       </c>
       <c r="D28" t="n">
-        <v>0.117321</v>
+        <v>0.117147</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136764</v>
+        <v>0.137439</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109278</v>
+        <v>0.110542</v>
       </c>
       <c r="D29" t="n">
-        <v>0.116699</v>
+        <v>0.117222</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138669</v>
+        <v>0.139548</v>
       </c>
       <c r="C30" t="n">
-        <v>0.109392</v>
+        <v>0.11066</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117111</v>
+        <v>0.117163</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138814</v>
+        <v>0.140171</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109771</v>
+        <v>0.111019</v>
       </c>
       <c r="D31" t="n">
-        <v>0.117346</v>
+        <v>0.117703</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.144678</v>
+        <v>0.142968</v>
       </c>
       <c r="C32" t="n">
-        <v>0.110626</v>
+        <v>0.113281</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117496</v>
+        <v>0.120573</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.145465</v>
+        <v>0.152161</v>
       </c>
       <c r="C33" t="n">
-        <v>0.113568</v>
+        <v>0.114343</v>
       </c>
       <c r="D33" t="n">
-        <v>0.122708</v>
+        <v>0.118658</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.149117</v>
+        <v>0.157277</v>
       </c>
       <c r="C34" t="n">
-        <v>0.115146</v>
+        <v>0.116639</v>
       </c>
       <c r="D34" t="n">
-        <v>0.119629</v>
+        <v>0.119603</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152715</v>
+        <v>0.152431</v>
       </c>
       <c r="C35" t="n">
-        <v>0.118978</v>
+        <v>0.120347</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125361</v>
+        <v>0.12364</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.170882</v>
+        <v>0.161857</v>
       </c>
       <c r="C36" t="n">
-        <v>0.123897</v>
+        <v>0.124453</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131278</v>
+        <v>0.131451</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167538</v>
+        <v>0.17092</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128916</v>
+        <v>0.129396</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128075</v>
+        <v>0.127366</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148439</v>
+        <v>0.148708</v>
       </c>
       <c r="C38" t="n">
-        <v>0.118819</v>
+        <v>0.123302</v>
       </c>
       <c r="D38" t="n">
-        <v>0.128118</v>
+        <v>0.129651</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149566</v>
+        <v>0.147651</v>
       </c>
       <c r="C39" t="n">
-        <v>0.118809</v>
+        <v>0.122608</v>
       </c>
       <c r="D39" t="n">
-        <v>0.128695</v>
+        <v>0.129542</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150194</v>
+        <v>0.148721</v>
       </c>
       <c r="C40" t="n">
-        <v>0.119497</v>
+        <v>0.122716</v>
       </c>
       <c r="D40" t="n">
-        <v>0.128812</v>
+        <v>0.135233</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.151959</v>
+        <v>0.151016</v>
       </c>
       <c r="C41" t="n">
-        <v>0.120149</v>
+        <v>0.122049</v>
       </c>
       <c r="D41" t="n">
-        <v>0.129095</v>
+        <v>0.128963</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.152412</v>
+        <v>0.149147</v>
       </c>
       <c r="C42" t="n">
-        <v>0.121677</v>
+        <v>0.123053</v>
       </c>
       <c r="D42" t="n">
-        <v>0.129703</v>
+        <v>0.129129</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.151582</v>
+        <v>0.150477</v>
       </c>
       <c r="C43" t="n">
-        <v>0.122645</v>
+        <v>0.124851</v>
       </c>
       <c r="D43" t="n">
-        <v>0.130548</v>
+        <v>0.130242</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.153484</v>
+        <v>0.151133</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123146</v>
+        <v>0.125476</v>
       </c>
       <c r="D44" t="n">
-        <v>0.130685</v>
+        <v>0.130834</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.154186</v>
+        <v>0.152652</v>
       </c>
       <c r="C45" t="n">
-        <v>0.12451</v>
+        <v>0.12757</v>
       </c>
       <c r="D45" t="n">
-        <v>0.131034</v>
+        <v>0.135179</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.156466</v>
+        <v>0.155972</v>
       </c>
       <c r="C46" t="n">
-        <v>0.126802</v>
+        <v>0.128664</v>
       </c>
       <c r="D46" t="n">
-        <v>0.131426</v>
+        <v>0.130894</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.157621</v>
+        <v>0.157531</v>
       </c>
       <c r="C47" t="n">
-        <v>0.127702</v>
+        <v>0.130229</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132359</v>
+        <v>0.132708</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.161535</v>
+        <v>0.160373</v>
       </c>
       <c r="C48" t="n">
-        <v>0.129545</v>
+        <v>0.132911</v>
       </c>
       <c r="D48" t="n">
-        <v>0.134656</v>
+        <v>0.135941</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165738</v>
+        <v>0.164504</v>
       </c>
       <c r="C49" t="n">
-        <v>0.132246</v>
+        <v>0.134623</v>
       </c>
       <c r="D49" t="n">
-        <v>0.137791</v>
+        <v>0.140019</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171168</v>
+        <v>0.172855</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137327</v>
+        <v>0.138063</v>
       </c>
       <c r="D50" t="n">
-        <v>0.14373</v>
+        <v>0.145428</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177404</v>
+        <v>0.186029</v>
       </c>
       <c r="C51" t="n">
-        <v>0.145787</v>
+        <v>0.141436</v>
       </c>
       <c r="D51" t="n">
-        <v>0.143216</v>
+        <v>0.14252</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.202588</v>
+        <v>0.193477</v>
       </c>
       <c r="C52" t="n">
-        <v>0.145992</v>
+        <v>0.145905</v>
       </c>
       <c r="D52" t="n">
-        <v>0.144334</v>
+        <v>0.143051</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160111</v>
+        <v>0.161281</v>
       </c>
       <c r="C53" t="n">
-        <v>0.130108</v>
+        <v>0.133767</v>
       </c>
       <c r="D53" t="n">
-        <v>0.143692</v>
+        <v>0.143552</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161059</v>
+        <v>0.161985</v>
       </c>
       <c r="C54" t="n">
-        <v>0.13082</v>
+        <v>0.134773</v>
       </c>
       <c r="D54" t="n">
-        <v>0.143533</v>
+        <v>0.143784</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.165063</v>
+        <v>0.160768</v>
       </c>
       <c r="C55" t="n">
-        <v>0.131367</v>
+        <v>0.13503</v>
       </c>
       <c r="D55" t="n">
-        <v>0.143592</v>
+        <v>0.144338</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.16327</v>
+        <v>0.161496</v>
       </c>
       <c r="C56" t="n">
-        <v>0.132072</v>
+        <v>0.136797</v>
       </c>
       <c r="D56" t="n">
-        <v>0.144276</v>
+        <v>0.144049</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163126</v>
+        <v>0.163567</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133963</v>
+        <v>0.137158</v>
       </c>
       <c r="D57" t="n">
-        <v>0.144287</v>
+        <v>0.144512</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.166792</v>
+        <v>0.164948</v>
       </c>
       <c r="C58" t="n">
-        <v>0.13444</v>
+        <v>0.136927</v>
       </c>
       <c r="D58" t="n">
-        <v>0.14409</v>
+        <v>0.144363</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.16559</v>
+        <v>0.165569</v>
       </c>
       <c r="C59" t="n">
-        <v>0.13588</v>
+        <v>0.138412</v>
       </c>
       <c r="D59" t="n">
-        <v>0.144597</v>
+        <v>0.144989</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167079</v>
+        <v>0.167627</v>
       </c>
       <c r="C60" t="n">
-        <v>0.136797</v>
+        <v>0.13929</v>
       </c>
       <c r="D60" t="n">
-        <v>0.145844</v>
+        <v>0.14577</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.170354</v>
+        <v>0.171548</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138489</v>
+        <v>0.140275</v>
       </c>
       <c r="D61" t="n">
-        <v>0.14719</v>
+        <v>0.147389</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1721</v>
+        <v>0.173459</v>
       </c>
       <c r="C62" t="n">
-        <v>0.140522</v>
+        <v>0.141962</v>
       </c>
       <c r="D62" t="n">
-        <v>0.149649</v>
+        <v>0.149516</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175842</v>
+        <v>0.177864</v>
       </c>
       <c r="C63" t="n">
-        <v>0.142768</v>
+        <v>0.143507</v>
       </c>
       <c r="D63" t="n">
-        <v>0.152871</v>
+        <v>0.152084</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.181146</v>
+        <v>0.182778</v>
       </c>
       <c r="C64" t="n">
-        <v>0.146892</v>
+        <v>0.146348</v>
       </c>
       <c r="D64" t="n">
-        <v>0.156987</v>
+        <v>0.155892</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189244</v>
+        <v>0.187228</v>
       </c>
       <c r="C65" t="n">
-        <v>0.149866</v>
+        <v>0.150287</v>
       </c>
       <c r="D65" t="n">
-        <v>0.163478</v>
+        <v>0.162579</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197133</v>
+        <v>0.196857</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163187</v>
+        <v>0.163729</v>
       </c>
       <c r="D66" t="n">
-        <v>0.157054</v>
+        <v>0.156759</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.180122</v>
+        <v>0.184725</v>
       </c>
       <c r="C67" t="n">
-        <v>0.151502</v>
+        <v>0.151137</v>
       </c>
       <c r="D67" t="n">
-        <v>0.156941</v>
+        <v>0.157351</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.188695</v>
+        <v>0.183014</v>
       </c>
       <c r="C68" t="n">
-        <v>0.149023</v>
+        <v>0.151388</v>
       </c>
       <c r="D68" t="n">
-        <v>0.158717</v>
+        <v>0.157009</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.181943</v>
+        <v>0.185288</v>
       </c>
       <c r="C69" t="n">
-        <v>0.152015</v>
+        <v>0.152089</v>
       </c>
       <c r="D69" t="n">
-        <v>0.159063</v>
+        <v>0.157002</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.183557</v>
+        <v>0.18292</v>
       </c>
       <c r="C70" t="n">
-        <v>0.14729</v>
+        <v>0.153128</v>
       </c>
       <c r="D70" t="n">
-        <v>0.157563</v>
+        <v>0.158519</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.182421</v>
+        <v>0.187767</v>
       </c>
       <c r="C71" t="n">
-        <v>0.149499</v>
+        <v>0.155349</v>
       </c>
       <c r="D71" t="n">
-        <v>0.157952</v>
+        <v>0.159808</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.186494</v>
+        <v>0.187341</v>
       </c>
       <c r="C72" t="n">
-        <v>0.149817</v>
+        <v>0.154713</v>
       </c>
       <c r="D72" t="n">
-        <v>0.15982</v>
+        <v>0.158357</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.184938</v>
+        <v>0.194284</v>
       </c>
       <c r="C73" t="n">
-        <v>0.152938</v>
+        <v>0.155739</v>
       </c>
       <c r="D73" t="n">
-        <v>0.160767</v>
+        <v>0.160466</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.187452</v>
+        <v>0.188511</v>
       </c>
       <c r="C74" t="n">
-        <v>0.154087</v>
+        <v>0.155808</v>
       </c>
       <c r="D74" t="n">
-        <v>0.161109</v>
+        <v>0.161382</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.190647</v>
+        <v>0.192197</v>
       </c>
       <c r="C75" t="n">
-        <v>0.155195</v>
+        <v>0.15743</v>
       </c>
       <c r="D75" t="n">
-        <v>0.161641</v>
+        <v>0.162199</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.198219</v>
+        <v>0.200934</v>
       </c>
       <c r="C76" t="n">
-        <v>0.161752</v>
+        <v>0.158467</v>
       </c>
       <c r="D76" t="n">
-        <v>0.16345</v>
+        <v>0.163629</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195941</v>
+        <v>0.198037</v>
       </c>
       <c r="C77" t="n">
-        <v>0.158072</v>
+        <v>0.162038</v>
       </c>
       <c r="D77" t="n">
-        <v>0.165681</v>
+        <v>0.166043</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.201202</v>
+        <v>0.202395</v>
       </c>
       <c r="C78" t="n">
-        <v>0.161587</v>
+        <v>0.166309</v>
       </c>
       <c r="D78" t="n">
-        <v>0.169198</v>
+        <v>0.169464</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.213161</v>
+        <v>0.203956</v>
       </c>
       <c r="C79" t="n">
-        <v>0.170475</v>
+        <v>0.170866</v>
       </c>
       <c r="D79" t="n">
-        <v>0.175116</v>
+        <v>0.17448</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216637</v>
+        <v>0.214709</v>
       </c>
       <c r="C80" t="n">
-        <v>0.175772</v>
+        <v>0.176405</v>
       </c>
       <c r="D80" t="n">
-        <v>0.234739</v>
+        <v>0.230146</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.363425</v>
+        <v>0.358286</v>
       </c>
       <c r="C81" t="n">
-        <v>0.286006</v>
+        <v>0.287339</v>
       </c>
       <c r="D81" t="n">
-        <v>0.234959</v>
+        <v>0.232391</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.362076</v>
+        <v>0.363338</v>
       </c>
       <c r="C82" t="n">
-        <v>0.287381</v>
+        <v>0.281522</v>
       </c>
       <c r="D82" t="n">
-        <v>0.233528</v>
+        <v>0.233923</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.364479</v>
+        <v>0.361077</v>
       </c>
       <c r="C83" t="n">
-        <v>0.284403</v>
+        <v>0.284843</v>
       </c>
       <c r="D83" t="n">
-        <v>0.237126</v>
+        <v>0.23511</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.365565</v>
+        <v>0.363997</v>
       </c>
       <c r="C84" t="n">
-        <v>0.284073</v>
+        <v>0.279372</v>
       </c>
       <c r="D84" t="n">
-        <v>0.235128</v>
+        <v>0.232871</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.368116</v>
+        <v>0.365185</v>
       </c>
       <c r="C85" t="n">
-        <v>0.283702</v>
+        <v>0.280308</v>
       </c>
       <c r="D85" t="n">
-        <v>0.233716</v>
+        <v>0.233422</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.369723</v>
+        <v>0.365278</v>
       </c>
       <c r="C86" t="n">
-        <v>0.283125</v>
+        <v>0.280735</v>
       </c>
       <c r="D86" t="n">
-        <v>0.233529</v>
+        <v>0.23069</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.370188</v>
+        <v>0.36784</v>
       </c>
       <c r="C87" t="n">
-        <v>0.278126</v>
+        <v>0.278397</v>
       </c>
       <c r="D87" t="n">
-        <v>0.23344</v>
+        <v>0.231617</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.370094</v>
+        <v>0.365993</v>
       </c>
       <c r="C88" t="n">
-        <v>0.279302</v>
+        <v>0.278839</v>
       </c>
       <c r="D88" t="n">
-        <v>0.232568</v>
+        <v>0.228898</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.371019</v>
+        <v>0.369018</v>
       </c>
       <c r="C89" t="n">
-        <v>0.277654</v>
+        <v>0.276285</v>
       </c>
       <c r="D89" t="n">
-        <v>0.231909</v>
+        <v>0.229354</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.369401</v>
+        <v>0.370726</v>
       </c>
       <c r="C90" t="n">
-        <v>0.280676</v>
+        <v>0.279283</v>
       </c>
       <c r="D90" t="n">
-        <v>0.230375</v>
+        <v>0.228609</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375298</v>
+        <v>0.372938</v>
       </c>
       <c r="C91" t="n">
-        <v>0.278324</v>
+        <v>0.274008</v>
       </c>
       <c r="D91" t="n">
-        <v>0.229652</v>
+        <v>0.22887</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.383909</v>
+        <v>0.379087</v>
       </c>
       <c r="C92" t="n">
-        <v>0.274283</v>
+        <v>0.279253</v>
       </c>
       <c r="D92" t="n">
-        <v>0.233149</v>
+        <v>0.228951</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.382341</v>
+        <v>0.379215</v>
       </c>
       <c r="C93" t="n">
-        <v>0.283515</v>
+        <v>0.280648</v>
       </c>
       <c r="D93" t="n">
-        <v>0.234447</v>
+        <v>0.232672</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.394926</v>
+        <v>0.389221</v>
       </c>
       <c r="C94" t="n">
-        <v>0.286481</v>
+        <v>0.2811</v>
       </c>
       <c r="D94" t="n">
-        <v>0.39142</v>
+        <v>0.392565</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.525966</v>
+        <v>0.528099</v>
       </c>
       <c r="C95" t="n">
-        <v>0.446576</v>
+        <v>0.451593</v>
       </c>
       <c r="D95" t="n">
-        <v>0.389944</v>
+        <v>0.391482</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.527416</v>
+        <v>0.52872</v>
       </c>
       <c r="C96" t="n">
-        <v>0.446141</v>
+        <v>0.450186</v>
       </c>
       <c r="D96" t="n">
-        <v>0.389674</v>
+        <v>0.390533</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.52697</v>
+        <v>0.5285029999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.444923</v>
+        <v>0.449599</v>
       </c>
       <c r="D97" t="n">
-        <v>0.389447</v>
+        <v>0.391161</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.528114</v>
+        <v>0.528473</v>
       </c>
       <c r="C98" t="n">
-        <v>0.444523</v>
+        <v>0.449312</v>
       </c>
       <c r="D98" t="n">
-        <v>0.389357</v>
+        <v>0.391104</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528118</v>
+        <v>0.529689</v>
       </c>
       <c r="C99" t="n">
-        <v>0.444842</v>
+        <v>0.448423</v>
       </c>
       <c r="D99" t="n">
-        <v>0.389022</v>
+        <v>0.390717</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.529067</v>
+        <v>0.529512</v>
       </c>
       <c r="C100" t="n">
-        <v>0.444182</v>
+        <v>0.447916</v>
       </c>
       <c r="D100" t="n">
-        <v>0.388114</v>
+        <v>0.389159</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5301360000000001</v>
+        <v>0.531459</v>
       </c>
       <c r="C101" t="n">
-        <v>0.443697</v>
+        <v>0.447305</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3884</v>
+        <v>0.389645</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5315530000000001</v>
+        <v>0.533092</v>
       </c>
       <c r="C102" t="n">
-        <v>0.44409</v>
+        <v>0.447261</v>
       </c>
       <c r="D102" t="n">
-        <v>0.389967</v>
+        <v>0.389616</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.533178</v>
+        <v>0.534466</v>
       </c>
       <c r="C103" t="n">
-        <v>0.444051</v>
+        <v>0.449049</v>
       </c>
       <c r="D103" t="n">
-        <v>0.390635</v>
+        <v>0.390729</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.534775</v>
+        <v>0.53667</v>
       </c>
       <c r="C104" t="n">
-        <v>0.447637</v>
+        <v>0.449507</v>
       </c>
       <c r="D104" t="n">
-        <v>0.390952</v>
+        <v>0.392737</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.53869</v>
+        <v>0.539636</v>
       </c>
       <c r="C105" t="n">
-        <v>0.447964</v>
+        <v>0.450937</v>
       </c>
       <c r="D105" t="n">
-        <v>0.393507</v>
+        <v>0.394145</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.542233</v>
+        <v>0.5440390000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.450328</v>
+        <v>0.452517</v>
       </c>
       <c r="D106" t="n">
-        <v>0.395068</v>
+        <v>0.398713</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.547312</v>
+        <v>0.549431</v>
       </c>
       <c r="C107" t="n">
-        <v>0.453473</v>
+        <v>0.455079</v>
       </c>
       <c r="D107" t="n">
-        <v>0.402793</v>
+        <v>0.403929</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.554472</v>
+        <v>0.557262</v>
       </c>
       <c r="C108" t="n">
-        <v>0.45779</v>
+        <v>0.461729</v>
       </c>
       <c r="D108" t="n">
-        <v>0.521753</v>
+        <v>0.525875</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.566203</v>
+        <v>0.569342</v>
       </c>
       <c r="C109" t="n">
-        <v>0.46876</v>
+        <v>0.467164</v>
       </c>
       <c r="D109" t="n">
-        <v>0.521755</v>
+        <v>0.526027</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.602259</v>
+        <v>0.605185</v>
       </c>
       <c r="C110" t="n">
-        <v>0.550915</v>
+        <v>0.555598</v>
       </c>
       <c r="D110" t="n">
-        <v>0.524751</v>
+        <v>0.525654</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.603484</v>
+        <v>0.608546</v>
       </c>
       <c r="C111" t="n">
-        <v>0.552446</v>
+        <v>0.554765</v>
       </c>
       <c r="D111" t="n">
-        <v>0.524151</v>
+        <v>0.526773</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.604115</v>
+        <v>0.606654</v>
       </c>
       <c r="C112" t="n">
-        <v>0.551512</v>
+        <v>0.5551160000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.526551</v>
+        <v>0.525772</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6058</v>
+        <v>0.608118</v>
       </c>
       <c r="C113" t="n">
-        <v>0.551281</v>
+        <v>0.555325</v>
       </c>
       <c r="D113" t="n">
-        <v>0.526075</v>
+        <v>0.528319</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.607782</v>
+        <v>0.6097359999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.553021</v>
+        <v>0.556306</v>
       </c>
       <c r="D114" t="n">
-        <v>0.526605</v>
+        <v>0.5277579999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6076510000000001</v>
+        <v>0.6083</v>
       </c>
       <c r="C115" t="n">
-        <v>0.552955</v>
+        <v>0.555435</v>
       </c>
       <c r="D115" t="n">
-        <v>0.528145</v>
+        <v>0.528013</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.610852</v>
+        <v>0.611128</v>
       </c>
       <c r="C116" t="n">
-        <v>0.552926</v>
+        <v>0.5566410000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.528363</v>
+        <v>0.531265</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.61</v>
+        <v>0.613581</v>
       </c>
       <c r="C117" t="n">
-        <v>0.55515</v>
+        <v>0.558111</v>
       </c>
       <c r="D117" t="n">
-        <v>0.530699</v>
+        <v>0.5321630000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6147590000000001</v>
+        <v>0.616987</v>
       </c>
       <c r="C118" t="n">
-        <v>0.557905</v>
+        <v>0.560391</v>
       </c>
       <c r="D118" t="n">
-        <v>0.531517</v>
+        <v>0.534604</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.619909</v>
+        <v>0.62171</v>
       </c>
       <c r="C119" t="n">
-        <v>0.55935</v>
+        <v>0.563271</v>
       </c>
       <c r="D119" t="n">
-        <v>0.535267</v>
+        <v>0.537239</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.623926</v>
+        <v>0.624799</v>
       </c>
       <c r="C120" t="n">
-        <v>0.563574</v>
+        <v>0.56628</v>
       </c>
       <c r="D120" t="n">
-        <v>0.540621</v>
+        <v>0.542725</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.630311</v>
+        <v>0.631533</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5666909999999999</v>
+        <v>0.570323</v>
       </c>
       <c r="D121" t="n">
-        <v>0.544784</v>
+        <v>0.545425</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6391019999999999</v>
+        <v>0.640935</v>
       </c>
       <c r="C122" t="n">
-        <v>0.572305</v>
+        <v>0.577152</v>
       </c>
       <c r="D122" t="n">
-        <v>0.55354</v>
+        <v>0.556469</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.65108</v>
+        <v>0.653483</v>
       </c>
       <c r="C123" t="n">
-        <v>0.580508</v>
+        <v>0.58817</v>
       </c>
       <c r="D123" t="n">
-        <v>0.680763</v>
+        <v>0.684189</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.740376</v>
+        <v>0.743942</v>
       </c>
       <c r="C124" t="n">
-        <v>0.675397</v>
+        <v>0.6790580000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.680824</v>
+        <v>0.684958</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.740434</v>
+        <v>0.743103</v>
       </c>
       <c r="C125" t="n">
-        <v>0.675137</v>
+        <v>0.6800349999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.67953</v>
+        <v>0.683816</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.741964</v>
+        <v>0.744429</v>
       </c>
       <c r="C126" t="n">
-        <v>0.676439</v>
+        <v>0.682414</v>
       </c>
       <c r="D126" t="n">
-        <v>0.682682</v>
+        <v>0.687387</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.741453</v>
+        <v>0.7438</v>
       </c>
       <c r="C127" t="n">
-        <v>0.679252</v>
+        <v>0.685348</v>
       </c>
       <c r="D127" t="n">
-        <v>0.68371</v>
+        <v>0.686682</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7433920000000001</v>
+        <v>0.7463959999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>0.679599</v>
+        <v>0.683498</v>
       </c>
       <c r="D128" t="n">
-        <v>0.684949</v>
+        <v>0.68916</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.744544</v>
+        <v>0.747202</v>
       </c>
       <c r="C129" t="n">
-        <v>0.680831</v>
+        <v>0.6907180000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.684511</v>
+        <v>0.692723</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.746079</v>
+        <v>0.749439</v>
       </c>
       <c r="C130" t="n">
-        <v>0.685232</v>
+        <v>0.687128</v>
       </c>
       <c r="D130" t="n">
-        <v>0.687199</v>
+        <v>0.690742</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.747937</v>
+        <v>0.752861</v>
       </c>
       <c r="C131" t="n">
-        <v>0.685509</v>
+        <v>0.689218</v>
       </c>
       <c r="D131" t="n">
-        <v>0.691906</v>
+        <v>0.693238</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7525230000000001</v>
+        <v>0.754356</v>
       </c>
       <c r="C132" t="n">
-        <v>0.688559</v>
+        <v>0.6936020000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.692509</v>
+        <v>0.697279</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.756212</v>
+        <v>0.7581560000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.69413</v>
+        <v>0.695545</v>
       </c>
       <c r="D133" t="n">
-        <v>0.695842</v>
+        <v>0.697717</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7604959999999999</v>
+        <v>0.7614</v>
       </c>
       <c r="C134" t="n">
-        <v>0.696617</v>
+        <v>0.700086</v>
       </c>
       <c r="D134" t="n">
-        <v>0.698842</v>
+        <v>0.700959</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.766254</v>
+        <v>0.768309</v>
       </c>
       <c r="C135" t="n">
-        <v>0.701418</v>
+        <v>0.704267</v>
       </c>
       <c r="D135" t="n">
-        <v>0.702288</v>
+        <v>0.706084</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.775197</v>
+        <v>0.7778</v>
       </c>
       <c r="C136" t="n">
-        <v>0.707516</v>
+        <v>0.711394</v>
       </c>
       <c r="D136" t="n">
-        <v>0.711404</v>
+        <v>0.715357</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.788149</v>
+        <v>0.791092</v>
       </c>
       <c r="C137" t="n">
-        <v>0.714579</v>
+        <v>0.72268</v>
       </c>
       <c r="D137" t="n">
-        <v>0.815372</v>
+        <v>0.819455</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.861534</v>
+        <v>0.865683</v>
       </c>
       <c r="C138" t="n">
-        <v>0.794179</v>
+        <v>0.799673</v>
       </c>
       <c r="D138" t="n">
-        <v>0.814954</v>
+        <v>0.818932</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.861811</v>
+        <v>0.866357</v>
       </c>
       <c r="C139" t="n">
-        <v>0.793712</v>
+        <v>0.8007649999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.815282</v>
+        <v>0.819008</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.863435</v>
+        <v>0.866851</v>
       </c>
       <c r="C140" t="n">
-        <v>0.795835</v>
+        <v>0.801695</v>
       </c>
       <c r="D140" t="n">
-        <v>0.816889</v>
+        <v>0.82008</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.864771</v>
+        <v>0.868702</v>
       </c>
       <c r="C141" t="n">
-        <v>0.797438</v>
+        <v>0.8025369999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.816706</v>
+        <v>0.821419</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.865794</v>
+        <v>0.870578</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7988499999999999</v>
+        <v>0.8046140000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.816599</v>
+        <v>0.821235</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.865999</v>
+        <v>0.870035</v>
       </c>
       <c r="C143" t="n">
-        <v>0.800673</v>
+        <v>0.805907</v>
       </c>
       <c r="D143" t="n">
-        <v>0.818076</v>
+        <v>0.822827</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.120818</v>
+        <v>0.123418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09174069999999999</v>
+        <v>0.0924985</v>
       </c>
       <c r="D2" t="n">
-        <v>0.100923</v>
+        <v>0.100586</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.120146</v>
+        <v>0.120901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0918566</v>
+        <v>0.0922236</v>
       </c>
       <c r="D3" t="n">
-        <v>0.101529</v>
+        <v>0.100441</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120193</v>
+        <v>0.129237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0909295</v>
+        <v>0.0919388</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10086</v>
+        <v>0.101073</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12198</v>
+        <v>0.126791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09247320000000001</v>
+        <v>0.0948394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.101701</v>
+        <v>0.101912</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123941</v>
+        <v>0.138005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09344909999999999</v>
+        <v>0.0937712</v>
       </c>
       <c r="D6" t="n">
-        <v>0.102499</v>
+        <v>0.101759</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127025</v>
+        <v>0.137222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0928601</v>
+        <v>0.09285359999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102573</v>
+        <v>0.102808</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.133776</v>
+        <v>0.142047</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0936338</v>
+        <v>0.09418650000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.104119</v>
+        <v>0.104133</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.144754</v>
+        <v>0.144317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0956399</v>
+        <v>0.0949373</v>
       </c>
       <c r="D9" t="n">
-        <v>0.107256</v>
+        <v>0.106038</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124783</v>
+        <v>0.1258</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0987972</v>
+        <v>0.100885</v>
       </c>
       <c r="D10" t="n">
-        <v>0.106061</v>
+        <v>0.107375</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124491</v>
+        <v>0.125448</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09915309999999999</v>
+        <v>0.0989718</v>
       </c>
       <c r="D11" t="n">
-        <v>0.106148</v>
+        <v>0.106392</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.136743</v>
+        <v>0.126983</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09881470000000001</v>
+        <v>0.09845669999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.106697</v>
+        <v>0.106781</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.12571</v>
+        <v>0.125396</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09942380000000001</v>
+        <v>0.0984787</v>
       </c>
       <c r="D13" t="n">
-        <v>0.106745</v>
+        <v>0.106767</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12686</v>
+        <v>0.127467</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0997572</v>
+        <v>0.0984983</v>
       </c>
       <c r="D14" t="n">
-        <v>0.110052</v>
+        <v>0.10752</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12662</v>
+        <v>0.12784</v>
       </c>
       <c r="C15" t="n">
-        <v>0.10005</v>
+        <v>0.0984317</v>
       </c>
       <c r="D15" t="n">
-        <v>0.107576</v>
+        <v>0.107105</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127674</v>
+        <v>0.128179</v>
       </c>
       <c r="C16" t="n">
-        <v>0.100154</v>
+        <v>0.0988605</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107971</v>
+        <v>0.107032</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129462</v>
+        <v>0.134072</v>
       </c>
       <c r="C17" t="n">
-        <v>0.100527</v>
+        <v>0.0994298</v>
       </c>
       <c r="D17" t="n">
-        <v>0.107999</v>
+        <v>0.107838</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130851</v>
+        <v>0.134881</v>
       </c>
       <c r="C18" t="n">
-        <v>0.100903</v>
+        <v>0.0997407</v>
       </c>
       <c r="D18" t="n">
-        <v>0.108271</v>
+        <v>0.110169</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132888</v>
+        <v>0.138106</v>
       </c>
       <c r="C19" t="n">
-        <v>0.101171</v>
+        <v>0.09986150000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.10902</v>
+        <v>0.108559</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.135508</v>
+        <v>0.137433</v>
       </c>
       <c r="C20" t="n">
-        <v>0.101051</v>
+        <v>0.100457</v>
       </c>
       <c r="D20" t="n">
-        <v>0.109685</v>
+        <v>0.109105</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.141701</v>
+        <v>0.140761</v>
       </c>
       <c r="C21" t="n">
-        <v>0.10242</v>
+        <v>0.10163</v>
       </c>
       <c r="D21" t="n">
-        <v>0.110626</v>
+        <v>0.110544</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.148442</v>
+        <v>0.148295</v>
       </c>
       <c r="C22" t="n">
-        <v>0.105352</v>
+        <v>0.105105</v>
       </c>
       <c r="D22" t="n">
-        <v>0.115634</v>
+        <v>0.115279</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158827</v>
+        <v>0.158016</v>
       </c>
       <c r="C23" t="n">
-        <v>0.113956</v>
+        <v>0.113273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1173</v>
+        <v>0.116054</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135969</v>
+        <v>0.134043</v>
       </c>
       <c r="C24" t="n">
-        <v>0.110953</v>
+        <v>0.107951</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116461</v>
+        <v>0.116247</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134882</v>
+        <v>0.134972</v>
       </c>
       <c r="C25" t="n">
-        <v>0.110234</v>
+        <v>0.107972</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116531</v>
+        <v>0.116251</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135588</v>
+        <v>0.135716</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110245</v>
+        <v>0.108453</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116498</v>
+        <v>0.116533</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137825</v>
+        <v>0.135103</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11071</v>
+        <v>0.108965</v>
       </c>
       <c r="D27" t="n">
-        <v>0.117123</v>
+        <v>0.117017</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136229</v>
+        <v>0.136445</v>
       </c>
       <c r="C28" t="n">
-        <v>0.110508</v>
+        <v>0.109863</v>
       </c>
       <c r="D28" t="n">
-        <v>0.117147</v>
+        <v>0.117651</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137439</v>
+        <v>0.137069</v>
       </c>
       <c r="C29" t="n">
-        <v>0.110542</v>
+        <v>0.109731</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117222</v>
+        <v>0.117164</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.139548</v>
+        <v>0.137939</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11066</v>
+        <v>0.110377</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117163</v>
+        <v>0.117075</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.140171</v>
+        <v>0.14567</v>
       </c>
       <c r="C31" t="n">
-        <v>0.111019</v>
+        <v>0.110704</v>
       </c>
       <c r="D31" t="n">
-        <v>0.117703</v>
+        <v>0.117474</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142968</v>
+        <v>0.149997</v>
       </c>
       <c r="C32" t="n">
-        <v>0.113281</v>
+        <v>0.111369</v>
       </c>
       <c r="D32" t="n">
-        <v>0.120573</v>
+        <v>0.117717</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.152161</v>
+        <v>0.152668</v>
       </c>
       <c r="C33" t="n">
-        <v>0.114343</v>
+        <v>0.113393</v>
       </c>
       <c r="D33" t="n">
-        <v>0.118658</v>
+        <v>0.118602</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.157277</v>
+        <v>0.148004</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116639</v>
+        <v>0.114379</v>
       </c>
       <c r="D34" t="n">
-        <v>0.119603</v>
+        <v>0.119216</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152431</v>
+        <v>0.15327</v>
       </c>
       <c r="C35" t="n">
-        <v>0.120347</v>
+        <v>0.124173</v>
       </c>
       <c r="D35" t="n">
-        <v>0.12364</v>
+        <v>0.123396</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.161857</v>
+        <v>0.159805</v>
       </c>
       <c r="C36" t="n">
-        <v>0.124453</v>
+        <v>0.123111</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131451</v>
+        <v>0.130619</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17092</v>
+        <v>0.174614</v>
       </c>
       <c r="C37" t="n">
-        <v>0.129396</v>
+        <v>0.128548</v>
       </c>
       <c r="D37" t="n">
-        <v>0.127366</v>
+        <v>0.128571</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148708</v>
+        <v>0.146259</v>
       </c>
       <c r="C38" t="n">
-        <v>0.123302</v>
+        <v>0.1211</v>
       </c>
       <c r="D38" t="n">
-        <v>0.129651</v>
+        <v>0.131911</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147651</v>
+        <v>0.148044</v>
       </c>
       <c r="C39" t="n">
-        <v>0.122608</v>
+        <v>0.120068</v>
       </c>
       <c r="D39" t="n">
-        <v>0.129542</v>
+        <v>0.130326</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148721</v>
+        <v>0.147685</v>
       </c>
       <c r="C40" t="n">
-        <v>0.122716</v>
+        <v>0.12021</v>
       </c>
       <c r="D40" t="n">
-        <v>0.135233</v>
+        <v>0.129789</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.151016</v>
+        <v>0.148331</v>
       </c>
       <c r="C41" t="n">
-        <v>0.122049</v>
+        <v>0.120214</v>
       </c>
       <c r="D41" t="n">
-        <v>0.128963</v>
+        <v>0.129715</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149147</v>
+        <v>0.148741</v>
       </c>
       <c r="C42" t="n">
-        <v>0.123053</v>
+        <v>0.121312</v>
       </c>
       <c r="D42" t="n">
-        <v>0.129129</v>
+        <v>0.130981</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150477</v>
+        <v>0.148244</v>
       </c>
       <c r="C43" t="n">
-        <v>0.124851</v>
+        <v>0.122578</v>
       </c>
       <c r="D43" t="n">
-        <v>0.130242</v>
+        <v>0.131515</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151133</v>
+        <v>0.154097</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125476</v>
+        <v>0.123129</v>
       </c>
       <c r="D44" t="n">
-        <v>0.130834</v>
+        <v>0.13062</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152652</v>
+        <v>0.156254</v>
       </c>
       <c r="C45" t="n">
-        <v>0.12757</v>
+        <v>0.125119</v>
       </c>
       <c r="D45" t="n">
-        <v>0.135179</v>
+        <v>0.130904</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155972</v>
+        <v>0.156036</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128664</v>
+        <v>0.126337</v>
       </c>
       <c r="D46" t="n">
-        <v>0.130894</v>
+        <v>0.131101</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.157531</v>
+        <v>0.160172</v>
       </c>
       <c r="C47" t="n">
-        <v>0.130229</v>
+        <v>0.127511</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132708</v>
+        <v>0.131728</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160373</v>
+        <v>0.163479</v>
       </c>
       <c r="C48" t="n">
-        <v>0.132911</v>
+        <v>0.129674</v>
       </c>
       <c r="D48" t="n">
-        <v>0.135941</v>
+        <v>0.134119</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164504</v>
+        <v>0.1667</v>
       </c>
       <c r="C49" t="n">
-        <v>0.134623</v>
+        <v>0.133816</v>
       </c>
       <c r="D49" t="n">
-        <v>0.140019</v>
+        <v>0.139613</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172855</v>
+        <v>0.172195</v>
       </c>
       <c r="C50" t="n">
-        <v>0.138063</v>
+        <v>0.136288</v>
       </c>
       <c r="D50" t="n">
-        <v>0.145428</v>
+        <v>0.143796</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.186029</v>
+        <v>0.178287</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141436</v>
+        <v>0.139646</v>
       </c>
       <c r="D51" t="n">
-        <v>0.14252</v>
+        <v>0.143607</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.193477</v>
+        <v>0.18936</v>
       </c>
       <c r="C52" t="n">
-        <v>0.145905</v>
+        <v>0.146473</v>
       </c>
       <c r="D52" t="n">
-        <v>0.143051</v>
+        <v>0.143827</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161281</v>
+        <v>0.160873</v>
       </c>
       <c r="C53" t="n">
-        <v>0.133767</v>
+        <v>0.130546</v>
       </c>
       <c r="D53" t="n">
-        <v>0.143552</v>
+        <v>0.143285</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161985</v>
+        <v>0.160765</v>
       </c>
       <c r="C54" t="n">
-        <v>0.134773</v>
+        <v>0.131381</v>
       </c>
       <c r="D54" t="n">
-        <v>0.143784</v>
+        <v>0.144159</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160768</v>
+        <v>0.161507</v>
       </c>
       <c r="C55" t="n">
-        <v>0.13503</v>
+        <v>0.131331</v>
       </c>
       <c r="D55" t="n">
-        <v>0.144338</v>
+        <v>0.14396</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161496</v>
+        <v>0.160818</v>
       </c>
       <c r="C56" t="n">
-        <v>0.136797</v>
+        <v>0.133</v>
       </c>
       <c r="D56" t="n">
-        <v>0.144049</v>
+        <v>0.14389</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163567</v>
+        <v>0.162266</v>
       </c>
       <c r="C57" t="n">
-        <v>0.137158</v>
+        <v>0.13455</v>
       </c>
       <c r="D57" t="n">
-        <v>0.144512</v>
+        <v>0.145091</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164948</v>
+        <v>0.164001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.136927</v>
+        <v>0.135269</v>
       </c>
       <c r="D58" t="n">
-        <v>0.144363</v>
+        <v>0.144997</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165569</v>
+        <v>0.166815</v>
       </c>
       <c r="C59" t="n">
-        <v>0.138412</v>
+        <v>0.140754</v>
       </c>
       <c r="D59" t="n">
-        <v>0.144989</v>
+        <v>0.145029</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167627</v>
+        <v>0.168108</v>
       </c>
       <c r="C60" t="n">
-        <v>0.13929</v>
+        <v>0.137617</v>
       </c>
       <c r="D60" t="n">
-        <v>0.14577</v>
+        <v>0.146352</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.171548</v>
+        <v>0.169916</v>
       </c>
       <c r="C61" t="n">
-        <v>0.140275</v>
+        <v>0.139494</v>
       </c>
       <c r="D61" t="n">
-        <v>0.147389</v>
+        <v>0.148191</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173459</v>
+        <v>0.173718</v>
       </c>
       <c r="C62" t="n">
-        <v>0.141962</v>
+        <v>0.140503</v>
       </c>
       <c r="D62" t="n">
-        <v>0.149516</v>
+        <v>0.150976</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177864</v>
+        <v>0.176041</v>
       </c>
       <c r="C63" t="n">
-        <v>0.143507</v>
+        <v>0.148343</v>
       </c>
       <c r="D63" t="n">
-        <v>0.152084</v>
+        <v>0.153435</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182778</v>
+        <v>0.181625</v>
       </c>
       <c r="C64" t="n">
-        <v>0.146348</v>
+        <v>0.146596</v>
       </c>
       <c r="D64" t="n">
-        <v>0.155892</v>
+        <v>0.156669</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187228</v>
+        <v>0.187963</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150287</v>
+        <v>0.156445</v>
       </c>
       <c r="D65" t="n">
-        <v>0.162579</v>
+        <v>0.162586</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.196857</v>
+        <v>0.197639</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163729</v>
+        <v>0.15593</v>
       </c>
       <c r="D66" t="n">
-        <v>0.156759</v>
+        <v>0.157368</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.184725</v>
+        <v>0.180252</v>
       </c>
       <c r="C67" t="n">
-        <v>0.151137</v>
+        <v>0.150192</v>
       </c>
       <c r="D67" t="n">
-        <v>0.157351</v>
+        <v>0.156728</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.183014</v>
+        <v>0.18158</v>
       </c>
       <c r="C68" t="n">
-        <v>0.151388</v>
+        <v>0.147603</v>
       </c>
       <c r="D68" t="n">
-        <v>0.157009</v>
+        <v>0.157098</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.185288</v>
+        <v>0.183237</v>
       </c>
       <c r="C69" t="n">
-        <v>0.152089</v>
+        <v>0.148997</v>
       </c>
       <c r="D69" t="n">
-        <v>0.157002</v>
+        <v>0.157359</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.18292</v>
+        <v>0.183195</v>
       </c>
       <c r="C70" t="n">
-        <v>0.153128</v>
+        <v>0.147305</v>
       </c>
       <c r="D70" t="n">
-        <v>0.158519</v>
+        <v>0.158443</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.187767</v>
+        <v>0.185911</v>
       </c>
       <c r="C71" t="n">
-        <v>0.155349</v>
+        <v>0.151523</v>
       </c>
       <c r="D71" t="n">
-        <v>0.159808</v>
+        <v>0.157923</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.187341</v>
+        <v>0.18648</v>
       </c>
       <c r="C72" t="n">
-        <v>0.154713</v>
+        <v>0.152731</v>
       </c>
       <c r="D72" t="n">
-        <v>0.158357</v>
+        <v>0.159207</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.194284</v>
+        <v>0.191529</v>
       </c>
       <c r="C73" t="n">
-        <v>0.155739</v>
+        <v>0.153867</v>
       </c>
       <c r="D73" t="n">
-        <v>0.160466</v>
+        <v>0.159991</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.188511</v>
+        <v>0.193457</v>
       </c>
       <c r="C74" t="n">
-        <v>0.155808</v>
+        <v>0.155869</v>
       </c>
       <c r="D74" t="n">
-        <v>0.161382</v>
+        <v>0.160528</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.192197</v>
+        <v>0.192399</v>
       </c>
       <c r="C75" t="n">
-        <v>0.15743</v>
+        <v>0.156717</v>
       </c>
       <c r="D75" t="n">
-        <v>0.162199</v>
+        <v>0.162129</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.200934</v>
+        <v>0.19158</v>
       </c>
       <c r="C76" t="n">
-        <v>0.158467</v>
+        <v>0.157609</v>
       </c>
       <c r="D76" t="n">
-        <v>0.163629</v>
+        <v>0.163855</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198037</v>
+        <v>0.196352</v>
       </c>
       <c r="C77" t="n">
-        <v>0.162038</v>
+        <v>0.159355</v>
       </c>
       <c r="D77" t="n">
-        <v>0.166043</v>
+        <v>0.166908</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.202395</v>
+        <v>0.206426</v>
       </c>
       <c r="C78" t="n">
-        <v>0.166309</v>
+        <v>0.162124</v>
       </c>
       <c r="D78" t="n">
-        <v>0.169464</v>
+        <v>0.169765</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.203956</v>
+        <v>0.206443</v>
       </c>
       <c r="C79" t="n">
-        <v>0.170866</v>
+        <v>0.17114</v>
       </c>
       <c r="D79" t="n">
-        <v>0.17448</v>
+        <v>0.174476</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.214709</v>
+        <v>0.215262</v>
       </c>
       <c r="C80" t="n">
-        <v>0.176405</v>
+        <v>0.169391</v>
       </c>
       <c r="D80" t="n">
-        <v>0.230146</v>
+        <v>0.233198</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358286</v>
+        <v>0.360052</v>
       </c>
       <c r="C81" t="n">
-        <v>0.287339</v>
+        <v>0.286879</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232391</v>
+        <v>0.234927</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.363338</v>
+        <v>0.360818</v>
       </c>
       <c r="C82" t="n">
-        <v>0.281522</v>
+        <v>0.281417</v>
       </c>
       <c r="D82" t="n">
-        <v>0.233923</v>
+        <v>0.234062</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.361077</v>
+        <v>0.358988</v>
       </c>
       <c r="C83" t="n">
-        <v>0.284843</v>
+        <v>0.285848</v>
       </c>
       <c r="D83" t="n">
-        <v>0.23511</v>
+        <v>0.234246</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.363997</v>
+        <v>0.365998</v>
       </c>
       <c r="C84" t="n">
-        <v>0.279372</v>
+        <v>0.284839</v>
       </c>
       <c r="D84" t="n">
-        <v>0.232871</v>
+        <v>0.236946</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.365185</v>
+        <v>0.366728</v>
       </c>
       <c r="C85" t="n">
-        <v>0.280308</v>
+        <v>0.279817</v>
       </c>
       <c r="D85" t="n">
-        <v>0.233422</v>
+        <v>0.234639</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.365278</v>
+        <v>0.366938</v>
       </c>
       <c r="C86" t="n">
-        <v>0.280735</v>
+        <v>0.281863</v>
       </c>
       <c r="D86" t="n">
-        <v>0.23069</v>
+        <v>0.234721</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.36784</v>
+        <v>0.370112</v>
       </c>
       <c r="C87" t="n">
-        <v>0.278397</v>
+        <v>0.282531</v>
       </c>
       <c r="D87" t="n">
-        <v>0.231617</v>
+        <v>0.232044</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.365993</v>
+        <v>0.370791</v>
       </c>
       <c r="C88" t="n">
-        <v>0.278839</v>
+        <v>0.280817</v>
       </c>
       <c r="D88" t="n">
-        <v>0.228898</v>
+        <v>0.233633</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.369018</v>
+        <v>0.37011</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276285</v>
+        <v>0.27867</v>
       </c>
       <c r="D89" t="n">
-        <v>0.229354</v>
+        <v>0.228931</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.370726</v>
+        <v>0.37337</v>
       </c>
       <c r="C90" t="n">
-        <v>0.279283</v>
+        <v>0.279447</v>
       </c>
       <c r="D90" t="n">
-        <v>0.228609</v>
+        <v>0.234206</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.372938</v>
+        <v>0.373562</v>
       </c>
       <c r="C91" t="n">
-        <v>0.274008</v>
+        <v>0.275443</v>
       </c>
       <c r="D91" t="n">
-        <v>0.22887</v>
+        <v>0.228542</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.379087</v>
+        <v>0.378733</v>
       </c>
       <c r="C92" t="n">
-        <v>0.279253</v>
+        <v>0.276807</v>
       </c>
       <c r="D92" t="n">
-        <v>0.228951</v>
+        <v>0.232295</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.379215</v>
+        <v>0.385597</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280648</v>
+        <v>0.280864</v>
       </c>
       <c r="D93" t="n">
-        <v>0.232672</v>
+        <v>0.234512</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.389221</v>
+        <v>0.392746</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2811</v>
+        <v>0.28498</v>
       </c>
       <c r="D94" t="n">
-        <v>0.392565</v>
+        <v>0.390607</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.528099</v>
+        <v>0.526763</v>
       </c>
       <c r="C95" t="n">
-        <v>0.451593</v>
+        <v>0.447435</v>
       </c>
       <c r="D95" t="n">
-        <v>0.391482</v>
+        <v>0.390164</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.52872</v>
+        <v>0.52822</v>
       </c>
       <c r="C96" t="n">
-        <v>0.450186</v>
+        <v>0.446914</v>
       </c>
       <c r="D96" t="n">
-        <v>0.390533</v>
+        <v>0.389426</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5285029999999999</v>
+        <v>0.526627</v>
       </c>
       <c r="C97" t="n">
-        <v>0.449599</v>
+        <v>0.445514</v>
       </c>
       <c r="D97" t="n">
-        <v>0.391161</v>
+        <v>0.390238</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.528473</v>
+        <v>0.527608</v>
       </c>
       <c r="C98" t="n">
-        <v>0.449312</v>
+        <v>0.445301</v>
       </c>
       <c r="D98" t="n">
-        <v>0.391104</v>
+        <v>0.389315</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.529689</v>
+        <v>0.529421</v>
       </c>
       <c r="C99" t="n">
-        <v>0.448423</v>
+        <v>0.444049</v>
       </c>
       <c r="D99" t="n">
-        <v>0.390717</v>
+        <v>0.390118</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.529512</v>
+        <v>0.530054</v>
       </c>
       <c r="C100" t="n">
-        <v>0.447916</v>
+        <v>0.443843</v>
       </c>
       <c r="D100" t="n">
-        <v>0.389159</v>
+        <v>0.388481</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.531459</v>
+        <v>0.531222</v>
       </c>
       <c r="C101" t="n">
-        <v>0.447305</v>
+        <v>0.443073</v>
       </c>
       <c r="D101" t="n">
-        <v>0.389645</v>
+        <v>0.389189</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.533092</v>
+        <v>0.53221</v>
       </c>
       <c r="C102" t="n">
-        <v>0.447261</v>
+        <v>0.444446</v>
       </c>
       <c r="D102" t="n">
-        <v>0.389616</v>
+        <v>0.38877</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.534466</v>
+        <v>0.533226</v>
       </c>
       <c r="C103" t="n">
-        <v>0.449049</v>
+        <v>0.445708</v>
       </c>
       <c r="D103" t="n">
-        <v>0.390729</v>
+        <v>0.391343</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.53667</v>
+        <v>0.535188</v>
       </c>
       <c r="C104" t="n">
-        <v>0.449507</v>
+        <v>0.447146</v>
       </c>
       <c r="D104" t="n">
-        <v>0.392737</v>
+        <v>0.392851</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.539636</v>
+        <v>0.537994</v>
       </c>
       <c r="C105" t="n">
-        <v>0.450937</v>
+        <v>0.446477</v>
       </c>
       <c r="D105" t="n">
-        <v>0.394145</v>
+        <v>0.394461</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5440390000000001</v>
+        <v>0.541886</v>
       </c>
       <c r="C106" t="n">
-        <v>0.452517</v>
+        <v>0.450668</v>
       </c>
       <c r="D106" t="n">
-        <v>0.398713</v>
+        <v>0.396528</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.549431</v>
+        <v>0.547547</v>
       </c>
       <c r="C107" t="n">
-        <v>0.455079</v>
+        <v>0.453072</v>
       </c>
       <c r="D107" t="n">
-        <v>0.403929</v>
+        <v>0.402385</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.557262</v>
+        <v>0.555755</v>
       </c>
       <c r="C108" t="n">
-        <v>0.461729</v>
+        <v>0.458526</v>
       </c>
       <c r="D108" t="n">
-        <v>0.525875</v>
+        <v>0.52479</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.569342</v>
+        <v>0.5657219999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.467164</v>
+        <v>0.465446</v>
       </c>
       <c r="D109" t="n">
-        <v>0.526027</v>
+        <v>0.525132</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.605185</v>
+        <v>0.603816</v>
       </c>
       <c r="C110" t="n">
-        <v>0.555598</v>
+        <v>0.5512010000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.525654</v>
+        <v>0.524889</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.608546</v>
+        <v>0.603598</v>
       </c>
       <c r="C111" t="n">
-        <v>0.554765</v>
+        <v>0.550435</v>
       </c>
       <c r="D111" t="n">
-        <v>0.526773</v>
+        <v>0.524888</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.606654</v>
+        <v>0.6061</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5551160000000001</v>
+        <v>0.552011</v>
       </c>
       <c r="D112" t="n">
-        <v>0.525772</v>
+        <v>0.525285</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.608118</v>
+        <v>0.603289</v>
       </c>
       <c r="C113" t="n">
-        <v>0.555325</v>
+        <v>0.5508459999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.528319</v>
+        <v>0.526152</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6097359999999999</v>
+        <v>0.606203</v>
       </c>
       <c r="C114" t="n">
-        <v>0.556306</v>
+        <v>0.552369</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5277579999999999</v>
+        <v>0.526975</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6083</v>
+        <v>0.606687</v>
       </c>
       <c r="C115" t="n">
-        <v>0.555435</v>
+        <v>0.553137</v>
       </c>
       <c r="D115" t="n">
-        <v>0.528013</v>
+        <v>0.528238</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.611128</v>
+        <v>0.609034</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5566410000000001</v>
+        <v>0.554545</v>
       </c>
       <c r="D116" t="n">
-        <v>0.531265</v>
+        <v>0.529352</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.613581</v>
+        <v>0.613515</v>
       </c>
       <c r="C117" t="n">
-        <v>0.558111</v>
+        <v>0.556463</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5321630000000001</v>
+        <v>0.528824</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.616987</v>
+        <v>0.616113</v>
       </c>
       <c r="C118" t="n">
-        <v>0.560391</v>
+        <v>0.558484</v>
       </c>
       <c r="D118" t="n">
-        <v>0.534604</v>
+        <v>0.532174</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.62171</v>
+        <v>0.618523</v>
       </c>
       <c r="C119" t="n">
-        <v>0.563271</v>
+        <v>0.560944</v>
       </c>
       <c r="D119" t="n">
-        <v>0.537239</v>
+        <v>0.536812</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.624799</v>
+        <v>0.62479</v>
       </c>
       <c r="C120" t="n">
-        <v>0.56628</v>
+        <v>0.564218</v>
       </c>
       <c r="D120" t="n">
-        <v>0.542725</v>
+        <v>0.5404870000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.631533</v>
+        <v>0.630733</v>
       </c>
       <c r="C121" t="n">
-        <v>0.570323</v>
+        <v>0.56915</v>
       </c>
       <c r="D121" t="n">
-        <v>0.545425</v>
+        <v>0.545279</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.640935</v>
+        <v>0.6397</v>
       </c>
       <c r="C122" t="n">
-        <v>0.577152</v>
+        <v>0.572956</v>
       </c>
       <c r="D122" t="n">
-        <v>0.556469</v>
+        <v>0.5537609999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.653483</v>
+        <v>0.6522829999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.58817</v>
+        <v>0.584796</v>
       </c>
       <c r="D123" t="n">
-        <v>0.684189</v>
+        <v>0.682065</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.743942</v>
+        <v>0.739656</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6790580000000001</v>
+        <v>0.673057</v>
       </c>
       <c r="D124" t="n">
-        <v>0.684958</v>
+        <v>0.681048</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.743103</v>
+        <v>0.74074</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6800349999999999</v>
+        <v>0.675791</v>
       </c>
       <c r="D125" t="n">
-        <v>0.683816</v>
+        <v>0.682331</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.744429</v>
+        <v>0.741596</v>
       </c>
       <c r="C126" t="n">
-        <v>0.682414</v>
+        <v>0.676787</v>
       </c>
       <c r="D126" t="n">
-        <v>0.687387</v>
+        <v>0.683439</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7438</v>
+        <v>0.742269</v>
       </c>
       <c r="C127" t="n">
-        <v>0.685348</v>
+        <v>0.679444</v>
       </c>
       <c r="D127" t="n">
-        <v>0.686682</v>
+        <v>0.683369</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7463959999999999</v>
+        <v>0.744276</v>
       </c>
       <c r="C128" t="n">
-        <v>0.683498</v>
+        <v>0.67952</v>
       </c>
       <c r="D128" t="n">
-        <v>0.68916</v>
+        <v>0.6845059999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.747202</v>
+        <v>0.74507</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6907180000000001</v>
+        <v>0.681171</v>
       </c>
       <c r="D129" t="n">
-        <v>0.692723</v>
+        <v>0.684426</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.749439</v>
+        <v>0.745841</v>
       </c>
       <c r="C130" t="n">
-        <v>0.687128</v>
+        <v>0.682822</v>
       </c>
       <c r="D130" t="n">
-        <v>0.690742</v>
+        <v>0.688947</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.752861</v>
+        <v>0.748657</v>
       </c>
       <c r="C131" t="n">
-        <v>0.689218</v>
+        <v>0.6868030000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.693238</v>
+        <v>0.689587</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.754356</v>
+        <v>0.753672</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6936020000000001</v>
+        <v>0.688429</v>
       </c>
       <c r="D132" t="n">
-        <v>0.697279</v>
+        <v>0.6906639999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7581560000000001</v>
+        <v>0.755691</v>
       </c>
       <c r="C133" t="n">
-        <v>0.695545</v>
+        <v>0.690678</v>
       </c>
       <c r="D133" t="n">
-        <v>0.697717</v>
+        <v>0.693505</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7614</v>
+        <v>0.760634</v>
       </c>
       <c r="C134" t="n">
-        <v>0.700086</v>
+        <v>0.696624</v>
       </c>
       <c r="D134" t="n">
-        <v>0.700959</v>
+        <v>0.698668</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.768309</v>
+        <v>0.765577</v>
       </c>
       <c r="C135" t="n">
-        <v>0.704267</v>
+        <v>0.700148</v>
       </c>
       <c r="D135" t="n">
-        <v>0.706084</v>
+        <v>0.702506</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7778</v>
+        <v>0.77574</v>
       </c>
       <c r="C136" t="n">
-        <v>0.711394</v>
+        <v>0.706747</v>
       </c>
       <c r="D136" t="n">
-        <v>0.715357</v>
+        <v>0.710533</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.791092</v>
+        <v>0.78782</v>
       </c>
       <c r="C137" t="n">
-        <v>0.72268</v>
+        <v>0.715402</v>
       </c>
       <c r="D137" t="n">
-        <v>0.819455</v>
+        <v>0.815434</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.865683</v>
+        <v>0.861381</v>
       </c>
       <c r="C138" t="n">
-        <v>0.799673</v>
+        <v>0.79394</v>
       </c>
       <c r="D138" t="n">
-        <v>0.818932</v>
+        <v>0.816106</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.866357</v>
+        <v>0.862298</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8007649999999999</v>
+        <v>0.795639</v>
       </c>
       <c r="D139" t="n">
-        <v>0.819008</v>
+        <v>0.815706</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.866851</v>
+        <v>0.862669</v>
       </c>
       <c r="C140" t="n">
-        <v>0.801695</v>
+        <v>0.795888</v>
       </c>
       <c r="D140" t="n">
-        <v>0.82008</v>
+        <v>0.818079</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.868702</v>
+        <v>0.864221</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8025369999999999</v>
+        <v>0.798082</v>
       </c>
       <c r="D141" t="n">
-        <v>0.821419</v>
+        <v>0.816546</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.870578</v>
+        <v>0.864918</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8046140000000001</v>
+        <v>0.798754</v>
       </c>
       <c r="D142" t="n">
-        <v>0.821235</v>
+        <v>0.8173899999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.870035</v>
+        <v>0.867012</v>
       </c>
       <c r="C143" t="n">
-        <v>0.805907</v>
+        <v>0.79977</v>
       </c>
       <c r="D143" t="n">
-        <v>0.822827</v>
+        <v>0.81865</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.123418</v>
+        <v>0.125361</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0924985</v>
+        <v>0.0957539</v>
       </c>
       <c r="D2" t="n">
-        <v>0.100586</v>
+        <v>0.106015</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.120901</v>
+        <v>0.131175</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0922236</v>
+        <v>0.0974999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.100441</v>
+        <v>0.105512</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.129237</v>
+        <v>0.129079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0919388</v>
+        <v>0.101322</v>
       </c>
       <c r="D4" t="n">
-        <v>0.101073</v>
+        <v>0.10839</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.126791</v>
+        <v>0.123409</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0948394</v>
+        <v>0.0962015</v>
       </c>
       <c r="D5" t="n">
-        <v>0.101912</v>
+        <v>0.105409</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.138005</v>
+        <v>0.123883</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0937712</v>
+        <v>0.09525400000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.101759</v>
+        <v>0.104261</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.137222</v>
+        <v>0.139231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09285359999999999</v>
+        <v>0.09994939999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102808</v>
+        <v>0.110424</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.142047</v>
+        <v>0.147692</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09418650000000001</v>
+        <v>0.0972827</v>
       </c>
       <c r="D8" t="n">
-        <v>0.104133</v>
+        <v>0.110444</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.144317</v>
+        <v>0.155926</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0949373</v>
+        <v>0.100803</v>
       </c>
       <c r="D9" t="n">
-        <v>0.106038</v>
+        <v>0.111089</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1258</v>
+        <v>0.126221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.100885</v>
+        <v>0.100358</v>
       </c>
       <c r="D10" t="n">
-        <v>0.107375</v>
+        <v>0.109493</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125448</v>
+        <v>0.125195</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0989718</v>
+        <v>0.0999366</v>
       </c>
       <c r="D11" t="n">
-        <v>0.106392</v>
+        <v>0.109149</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.126983</v>
+        <v>0.125593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09845669999999999</v>
+        <v>0.101591</v>
       </c>
       <c r="D12" t="n">
-        <v>0.106781</v>
+        <v>0.110196</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125396</v>
+        <v>0.128491</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0984787</v>
+        <v>0.100931</v>
       </c>
       <c r="D13" t="n">
-        <v>0.106767</v>
+        <v>0.109459</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127467</v>
+        <v>0.132082</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0984983</v>
+        <v>0.101288</v>
       </c>
       <c r="D14" t="n">
-        <v>0.10752</v>
+        <v>0.11124</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12784</v>
+        <v>0.131427</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0984317</v>
+        <v>0.10209</v>
       </c>
       <c r="D15" t="n">
-        <v>0.107105</v>
+        <v>0.113827</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128179</v>
+        <v>0.136526</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0988605</v>
+        <v>0.102341</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107032</v>
+        <v>0.110176</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.134072</v>
+        <v>0.137026</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0994298</v>
+        <v>0.102931</v>
       </c>
       <c r="D17" t="n">
-        <v>0.107838</v>
+        <v>0.111113</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.134881</v>
+        <v>0.132817</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0997407</v>
+        <v>0.103623</v>
       </c>
       <c r="D18" t="n">
-        <v>0.110169</v>
+        <v>0.111418</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.138106</v>
+        <v>0.136256</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09986150000000001</v>
+        <v>0.104877</v>
       </c>
       <c r="D19" t="n">
-        <v>0.108559</v>
+        <v>0.112283</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.137433</v>
+        <v>0.138582</v>
       </c>
       <c r="C20" t="n">
-        <v>0.100457</v>
+        <v>0.104551</v>
       </c>
       <c r="D20" t="n">
-        <v>0.109105</v>
+        <v>0.113079</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140761</v>
+        <v>0.152099</v>
       </c>
       <c r="C21" t="n">
-        <v>0.10163</v>
+        <v>0.106726</v>
       </c>
       <c r="D21" t="n">
-        <v>0.110544</v>
+        <v>0.113385</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.148295</v>
+        <v>0.150361</v>
       </c>
       <c r="C22" t="n">
-        <v>0.105105</v>
+        <v>0.110177</v>
       </c>
       <c r="D22" t="n">
-        <v>0.115279</v>
+        <v>0.11909</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158016</v>
+        <v>0.169523</v>
       </c>
       <c r="C23" t="n">
-        <v>0.113273</v>
+        <v>0.118111</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116054</v>
+        <v>0.116628</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134043</v>
+        <v>0.137102</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107951</v>
+        <v>0.108343</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116247</v>
+        <v>0.116892</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134972</v>
+        <v>0.134623</v>
       </c>
       <c r="C25" t="n">
-        <v>0.107972</v>
+        <v>0.108955</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116251</v>
+        <v>0.116838</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135716</v>
+        <v>0.134587</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108453</v>
+        <v>0.108806</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116533</v>
+        <v>0.116447</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135103</v>
+        <v>0.13498</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108965</v>
+        <v>0.109181</v>
       </c>
       <c r="D27" t="n">
-        <v>0.117017</v>
+        <v>0.116912</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136445</v>
+        <v>0.136158</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109863</v>
+        <v>0.109444</v>
       </c>
       <c r="D28" t="n">
-        <v>0.117651</v>
+        <v>0.117014</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137069</v>
+        <v>0.136454</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109731</v>
+        <v>0.109449</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117164</v>
+        <v>0.117225</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137939</v>
+        <v>0.137606</v>
       </c>
       <c r="C30" t="n">
-        <v>0.110377</v>
+        <v>0.109606</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117075</v>
+        <v>0.117396</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.14567</v>
+        <v>0.142164</v>
       </c>
       <c r="C31" t="n">
-        <v>0.110704</v>
+        <v>0.10992</v>
       </c>
       <c r="D31" t="n">
-        <v>0.117474</v>
+        <v>0.117534</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.149997</v>
+        <v>0.140554</v>
       </c>
       <c r="C32" t="n">
-        <v>0.111369</v>
+        <v>0.111237</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117717</v>
+        <v>0.11783</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.152668</v>
+        <v>0.143995</v>
       </c>
       <c r="C33" t="n">
-        <v>0.113393</v>
+        <v>0.112817</v>
       </c>
       <c r="D33" t="n">
-        <v>0.118602</v>
+        <v>0.118435</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.148004</v>
+        <v>0.152103</v>
       </c>
       <c r="C34" t="n">
-        <v>0.114379</v>
+        <v>0.11569</v>
       </c>
       <c r="D34" t="n">
-        <v>0.119216</v>
+        <v>0.119356</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.15327</v>
+        <v>0.152421</v>
       </c>
       <c r="C35" t="n">
-        <v>0.124173</v>
+        <v>0.119245</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123396</v>
+        <v>0.126691</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159805</v>
+        <v>0.159026</v>
       </c>
       <c r="C36" t="n">
-        <v>0.123111</v>
+        <v>0.129434</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130619</v>
+        <v>0.131218</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.174614</v>
+        <v>0.166452</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128548</v>
+        <v>0.128935</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128571</v>
+        <v>0.128523</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.146259</v>
+        <v>0.150422</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1211</v>
+        <v>0.120335</v>
       </c>
       <c r="D38" t="n">
-        <v>0.131911</v>
+        <v>0.130326</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148044</v>
+        <v>0.1486</v>
       </c>
       <c r="C39" t="n">
-        <v>0.120068</v>
+        <v>0.121365</v>
       </c>
       <c r="D39" t="n">
-        <v>0.130326</v>
+        <v>0.130863</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147685</v>
+        <v>0.147802</v>
       </c>
       <c r="C40" t="n">
-        <v>0.12021</v>
+        <v>0.121454</v>
       </c>
       <c r="D40" t="n">
-        <v>0.129789</v>
+        <v>0.131089</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148331</v>
+        <v>0.149769</v>
       </c>
       <c r="C41" t="n">
-        <v>0.120214</v>
+        <v>0.121476</v>
       </c>
       <c r="D41" t="n">
-        <v>0.129715</v>
+        <v>0.13181</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148741</v>
+        <v>0.150021</v>
       </c>
       <c r="C42" t="n">
-        <v>0.121312</v>
+        <v>0.121981</v>
       </c>
       <c r="D42" t="n">
-        <v>0.130981</v>
+        <v>0.130931</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.148244</v>
+        <v>0.150405</v>
       </c>
       <c r="C43" t="n">
-        <v>0.122578</v>
+        <v>0.121642</v>
       </c>
       <c r="D43" t="n">
-        <v>0.131515</v>
+        <v>0.130819</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.154097</v>
+        <v>0.150407</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123129</v>
+        <v>0.123497</v>
       </c>
       <c r="D44" t="n">
-        <v>0.13062</v>
+        <v>0.131477</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.156254</v>
+        <v>0.154644</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125119</v>
+        <v>0.125522</v>
       </c>
       <c r="D45" t="n">
-        <v>0.130904</v>
+        <v>0.13132</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.156036</v>
+        <v>0.154808</v>
       </c>
       <c r="C46" t="n">
-        <v>0.126337</v>
+        <v>0.126421</v>
       </c>
       <c r="D46" t="n">
-        <v>0.131101</v>
+        <v>0.131026</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.160172</v>
+        <v>0.159335</v>
       </c>
       <c r="C47" t="n">
-        <v>0.127511</v>
+        <v>0.127686</v>
       </c>
       <c r="D47" t="n">
-        <v>0.131728</v>
+        <v>0.132105</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.163479</v>
+        <v>0.160812</v>
       </c>
       <c r="C48" t="n">
-        <v>0.129674</v>
+        <v>0.129566</v>
       </c>
       <c r="D48" t="n">
-        <v>0.134119</v>
+        <v>0.13452</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1667</v>
+        <v>0.175111</v>
       </c>
       <c r="C49" t="n">
-        <v>0.133816</v>
+        <v>0.13277</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139613</v>
+        <v>0.138251</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172195</v>
+        <v>0.170905</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136288</v>
+        <v>0.141857</v>
       </c>
       <c r="D50" t="n">
-        <v>0.143796</v>
+        <v>0.143858</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178287</v>
+        <v>0.176887</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139646</v>
+        <v>0.138793</v>
       </c>
       <c r="D51" t="n">
-        <v>0.143607</v>
+        <v>0.142297</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.18936</v>
+        <v>0.187594</v>
       </c>
       <c r="C52" t="n">
-        <v>0.146473</v>
+        <v>0.152646</v>
       </c>
       <c r="D52" t="n">
-        <v>0.143827</v>
+        <v>0.142509</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160873</v>
+        <v>0.159904</v>
       </c>
       <c r="C53" t="n">
-        <v>0.130546</v>
+        <v>0.1293</v>
       </c>
       <c r="D53" t="n">
-        <v>0.143285</v>
+        <v>0.142907</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160765</v>
+        <v>0.161036</v>
       </c>
       <c r="C54" t="n">
-        <v>0.131381</v>
+        <v>0.129894</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144159</v>
+        <v>0.143026</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161507</v>
+        <v>0.161084</v>
       </c>
       <c r="C55" t="n">
-        <v>0.131331</v>
+        <v>0.130497</v>
       </c>
       <c r="D55" t="n">
-        <v>0.14396</v>
+        <v>0.14335</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160818</v>
+        <v>0.161758</v>
       </c>
       <c r="C56" t="n">
-        <v>0.133</v>
+        <v>0.132241</v>
       </c>
       <c r="D56" t="n">
-        <v>0.14389</v>
+        <v>0.14371</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162266</v>
+        <v>0.16333</v>
       </c>
       <c r="C57" t="n">
-        <v>0.13455</v>
+        <v>0.133674</v>
       </c>
       <c r="D57" t="n">
-        <v>0.145091</v>
+        <v>0.143526</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164001</v>
+        <v>0.164225</v>
       </c>
       <c r="C58" t="n">
-        <v>0.135269</v>
+        <v>0.135043</v>
       </c>
       <c r="D58" t="n">
-        <v>0.144997</v>
+        <v>0.14477</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166815</v>
+        <v>0.170736</v>
       </c>
       <c r="C59" t="n">
-        <v>0.140754</v>
+        <v>0.13588</v>
       </c>
       <c r="D59" t="n">
-        <v>0.145029</v>
+        <v>0.144458</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.168108</v>
+        <v>0.166939</v>
       </c>
       <c r="C60" t="n">
-        <v>0.137617</v>
+        <v>0.136965</v>
       </c>
       <c r="D60" t="n">
-        <v>0.146352</v>
+        <v>0.145495</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169916</v>
+        <v>0.170149</v>
       </c>
       <c r="C61" t="n">
-        <v>0.139494</v>
+        <v>0.138395</v>
       </c>
       <c r="D61" t="n">
-        <v>0.148191</v>
+        <v>0.147203</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173718</v>
+        <v>0.174648</v>
       </c>
       <c r="C62" t="n">
-        <v>0.140503</v>
+        <v>0.140241</v>
       </c>
       <c r="D62" t="n">
-        <v>0.150976</v>
+        <v>0.149286</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176041</v>
+        <v>0.176068</v>
       </c>
       <c r="C63" t="n">
-        <v>0.148343</v>
+        <v>0.142272</v>
       </c>
       <c r="D63" t="n">
-        <v>0.153435</v>
+        <v>0.151837</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.181625</v>
+        <v>0.185663</v>
       </c>
       <c r="C64" t="n">
-        <v>0.146596</v>
+        <v>0.14523</v>
       </c>
       <c r="D64" t="n">
-        <v>0.156669</v>
+        <v>0.156505</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187963</v>
+        <v>0.187787</v>
       </c>
       <c r="C65" t="n">
-        <v>0.156445</v>
+        <v>0.156349</v>
       </c>
       <c r="D65" t="n">
-        <v>0.162586</v>
+        <v>0.162923</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197639</v>
+        <v>0.196208</v>
       </c>
       <c r="C66" t="n">
-        <v>0.15593</v>
+        <v>0.162757</v>
       </c>
       <c r="D66" t="n">
-        <v>0.157368</v>
+        <v>0.157419</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.180252</v>
+        <v>0.178565</v>
       </c>
       <c r="C67" t="n">
-        <v>0.150192</v>
+        <v>0.150042</v>
       </c>
       <c r="D67" t="n">
-        <v>0.156728</v>
+        <v>0.157306</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.18158</v>
+        <v>0.184879</v>
       </c>
       <c r="C68" t="n">
-        <v>0.147603</v>
+        <v>0.149268</v>
       </c>
       <c r="D68" t="n">
-        <v>0.157098</v>
+        <v>0.157773</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.183237</v>
+        <v>0.183247</v>
       </c>
       <c r="C69" t="n">
-        <v>0.148997</v>
+        <v>0.148802</v>
       </c>
       <c r="D69" t="n">
-        <v>0.157359</v>
+        <v>0.157078</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.183195</v>
+        <v>0.182876</v>
       </c>
       <c r="C70" t="n">
-        <v>0.147305</v>
+        <v>0.149801</v>
       </c>
       <c r="D70" t="n">
-        <v>0.158443</v>
+        <v>0.157946</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.185911</v>
+        <v>0.185964</v>
       </c>
       <c r="C71" t="n">
-        <v>0.151523</v>
+        <v>0.151873</v>
       </c>
       <c r="D71" t="n">
-        <v>0.157923</v>
+        <v>0.158229</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.18648</v>
+        <v>0.184805</v>
       </c>
       <c r="C72" t="n">
-        <v>0.152731</v>
+        <v>0.151123</v>
       </c>
       <c r="D72" t="n">
-        <v>0.159207</v>
+        <v>0.159587</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.191529</v>
+        <v>0.187333</v>
       </c>
       <c r="C73" t="n">
-        <v>0.153867</v>
+        <v>0.155321</v>
       </c>
       <c r="D73" t="n">
-        <v>0.159991</v>
+        <v>0.160356</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193457</v>
+        <v>0.189262</v>
       </c>
       <c r="C74" t="n">
-        <v>0.155869</v>
+        <v>0.153936</v>
       </c>
       <c r="D74" t="n">
-        <v>0.160528</v>
+        <v>0.160161</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.192399</v>
+        <v>0.193405</v>
       </c>
       <c r="C75" t="n">
-        <v>0.156717</v>
+        <v>0.155536</v>
       </c>
       <c r="D75" t="n">
-        <v>0.162129</v>
+        <v>0.162187</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19158</v>
+        <v>0.191947</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157609</v>
+        <v>0.157098</v>
       </c>
       <c r="D76" t="n">
-        <v>0.163855</v>
+        <v>0.163237</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196352</v>
+        <v>0.195242</v>
       </c>
       <c r="C77" t="n">
-        <v>0.159355</v>
+        <v>0.165406</v>
       </c>
       <c r="D77" t="n">
-        <v>0.166908</v>
+        <v>0.16545</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.206426</v>
+        <v>0.200506</v>
       </c>
       <c r="C78" t="n">
-        <v>0.162124</v>
+        <v>0.161383</v>
       </c>
       <c r="D78" t="n">
-        <v>0.169765</v>
+        <v>0.169339</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.206443</v>
+        <v>0.204607</v>
       </c>
       <c r="C79" t="n">
-        <v>0.17114</v>
+        <v>0.164599</v>
       </c>
       <c r="D79" t="n">
-        <v>0.174476</v>
+        <v>0.175325</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.215262</v>
+        <v>0.220891</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169391</v>
+        <v>0.169994</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233198</v>
+        <v>0.228424</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.360052</v>
+        <v>0.365342</v>
       </c>
       <c r="C81" t="n">
-        <v>0.286879</v>
+        <v>0.282342</v>
       </c>
       <c r="D81" t="n">
-        <v>0.234927</v>
+        <v>0.232596</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.360818</v>
+        <v>0.361303</v>
       </c>
       <c r="C82" t="n">
-        <v>0.281417</v>
+        <v>0.282621</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234062</v>
+        <v>0.232149</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.358988</v>
+        <v>0.359191</v>
       </c>
       <c r="C83" t="n">
-        <v>0.285848</v>
+        <v>0.279398</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234246</v>
+        <v>0.231814</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.365998</v>
+        <v>0.366148</v>
       </c>
       <c r="C84" t="n">
-        <v>0.284839</v>
+        <v>0.279417</v>
       </c>
       <c r="D84" t="n">
-        <v>0.236946</v>
+        <v>0.232267</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.366728</v>
+        <v>0.364104</v>
       </c>
       <c r="C85" t="n">
-        <v>0.279817</v>
+        <v>0.280187</v>
       </c>
       <c r="D85" t="n">
-        <v>0.234639</v>
+        <v>0.231711</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.366938</v>
+        <v>0.367199</v>
       </c>
       <c r="C86" t="n">
-        <v>0.281863</v>
+        <v>0.278401</v>
       </c>
       <c r="D86" t="n">
-        <v>0.234721</v>
+        <v>0.23307</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.370112</v>
+        <v>0.36543</v>
       </c>
       <c r="C87" t="n">
-        <v>0.282531</v>
+        <v>0.276949</v>
       </c>
       <c r="D87" t="n">
-        <v>0.232044</v>
+        <v>0.230705</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.370791</v>
+        <v>0.367522</v>
       </c>
       <c r="C88" t="n">
-        <v>0.280817</v>
+        <v>0.277048</v>
       </c>
       <c r="D88" t="n">
-        <v>0.233633</v>
+        <v>0.228907</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.37011</v>
+        <v>0.371457</v>
       </c>
       <c r="C89" t="n">
-        <v>0.27867</v>
+        <v>0.276117</v>
       </c>
       <c r="D89" t="n">
-        <v>0.228931</v>
+        <v>0.227446</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.37337</v>
+        <v>0.372657</v>
       </c>
       <c r="C90" t="n">
-        <v>0.279447</v>
+        <v>0.272882</v>
       </c>
       <c r="D90" t="n">
-        <v>0.234206</v>
+        <v>0.229377</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.373562</v>
+        <v>0.373946</v>
       </c>
       <c r="C91" t="n">
-        <v>0.275443</v>
+        <v>0.271227</v>
       </c>
       <c r="D91" t="n">
-        <v>0.228542</v>
+        <v>0.227281</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.378733</v>
+        <v>0.372721</v>
       </c>
       <c r="C92" t="n">
-        <v>0.276807</v>
+        <v>0.276509</v>
       </c>
       <c r="D92" t="n">
-        <v>0.232295</v>
+        <v>0.228109</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.385597</v>
+        <v>0.382867</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280864</v>
+        <v>0.27978</v>
       </c>
       <c r="D93" t="n">
-        <v>0.234512</v>
+        <v>0.232648</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.392746</v>
+        <v>0.387983</v>
       </c>
       <c r="C94" t="n">
-        <v>0.28498</v>
+        <v>0.284269</v>
       </c>
       <c r="D94" t="n">
-        <v>0.390607</v>
+        <v>0.395433</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.526763</v>
+        <v>0.533374</v>
       </c>
       <c r="C95" t="n">
-        <v>0.447435</v>
+        <v>0.452035</v>
       </c>
       <c r="D95" t="n">
-        <v>0.390164</v>
+        <v>0.38533</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.52822</v>
+        <v>0.534394</v>
       </c>
       <c r="C96" t="n">
-        <v>0.446914</v>
+        <v>0.452126</v>
       </c>
       <c r="D96" t="n">
-        <v>0.389426</v>
+        <v>0.384304</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.526627</v>
+        <v>0.5336689999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.445514</v>
+        <v>0.452662</v>
       </c>
       <c r="D97" t="n">
-        <v>0.390238</v>
+        <v>0.395168</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.527608</v>
+        <v>0.534125</v>
       </c>
       <c r="C98" t="n">
-        <v>0.445301</v>
+        <v>0.451084</v>
       </c>
       <c r="D98" t="n">
-        <v>0.389315</v>
+        <v>0.393592</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.529421</v>
+        <v>0.534345</v>
       </c>
       <c r="C99" t="n">
-        <v>0.444049</v>
+        <v>0.450363</v>
       </c>
       <c r="D99" t="n">
-        <v>0.390118</v>
+        <v>0.383276</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.530054</v>
+        <v>0.535268</v>
       </c>
       <c r="C100" t="n">
-        <v>0.443843</v>
+        <v>0.450665</v>
       </c>
       <c r="D100" t="n">
-        <v>0.388481</v>
+        <v>0.39399</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.531222</v>
+        <v>0.536751</v>
       </c>
       <c r="C101" t="n">
-        <v>0.443073</v>
+        <v>0.440363</v>
       </c>
       <c r="D101" t="n">
-        <v>0.389189</v>
+        <v>0.393014</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.53221</v>
+        <v>0.538457</v>
       </c>
       <c r="C102" t="n">
-        <v>0.444446</v>
+        <v>0.451219</v>
       </c>
       <c r="D102" t="n">
-        <v>0.38877</v>
+        <v>0.381368</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.533226</v>
+        <v>0.539819</v>
       </c>
       <c r="C103" t="n">
-        <v>0.445708</v>
+        <v>0.452252</v>
       </c>
       <c r="D103" t="n">
-        <v>0.391343</v>
+        <v>0.395916</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.535188</v>
+        <v>0.543021</v>
       </c>
       <c r="C104" t="n">
-        <v>0.447146</v>
+        <v>0.453451</v>
       </c>
       <c r="D104" t="n">
-        <v>0.392851</v>
+        <v>0.397408</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.537994</v>
+        <v>0.54582</v>
       </c>
       <c r="C105" t="n">
-        <v>0.446477</v>
+        <v>0.453007</v>
       </c>
       <c r="D105" t="n">
-        <v>0.394461</v>
+        <v>0.397583</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.541886</v>
+        <v>0.548914</v>
       </c>
       <c r="C106" t="n">
-        <v>0.450668</v>
+        <v>0.458229</v>
       </c>
       <c r="D106" t="n">
-        <v>0.396528</v>
+        <v>0.401945</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.547547</v>
+        <v>0.553694</v>
       </c>
       <c r="C107" t="n">
-        <v>0.453072</v>
+        <v>0.459273</v>
       </c>
       <c r="D107" t="n">
-        <v>0.402385</v>
+        <v>0.405678</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.555755</v>
+        <v>0.562092</v>
       </c>
       <c r="C108" t="n">
-        <v>0.458526</v>
+        <v>0.464004</v>
       </c>
       <c r="D108" t="n">
-        <v>0.52479</v>
+        <v>0.5258659999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5657219999999999</v>
+        <v>0.572428</v>
       </c>
       <c r="C109" t="n">
-        <v>0.465446</v>
+        <v>0.474755</v>
       </c>
       <c r="D109" t="n">
-        <v>0.525132</v>
+        <v>0.524717</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.603816</v>
+        <v>0.613379</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5512010000000001</v>
+        <v>0.559436</v>
       </c>
       <c r="D110" t="n">
-        <v>0.524889</v>
+        <v>0.531533</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.603598</v>
+        <v>0.613484</v>
       </c>
       <c r="C111" t="n">
-        <v>0.550435</v>
+        <v>0.558916</v>
       </c>
       <c r="D111" t="n">
-        <v>0.524888</v>
+        <v>0.53204</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6061</v>
+        <v>0.612884</v>
       </c>
       <c r="C112" t="n">
-        <v>0.552011</v>
+        <v>0.553463</v>
       </c>
       <c r="D112" t="n">
-        <v>0.525285</v>
+        <v>0.5336109999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.603289</v>
+        <v>0.61413</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5508459999999999</v>
+        <v>0.559581</v>
       </c>
       <c r="D113" t="n">
-        <v>0.526152</v>
+        <v>0.526873</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.606203</v>
+        <v>0.616191</v>
       </c>
       <c r="C114" t="n">
-        <v>0.552369</v>
+        <v>0.561799</v>
       </c>
       <c r="D114" t="n">
-        <v>0.526975</v>
+        <v>0.533315</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.606687</v>
+        <v>0.617386</v>
       </c>
       <c r="C115" t="n">
-        <v>0.553137</v>
+        <v>0.556385</v>
       </c>
       <c r="D115" t="n">
-        <v>0.528238</v>
+        <v>0.534274</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.609034</v>
+        <v>0.618388</v>
       </c>
       <c r="C116" t="n">
-        <v>0.554545</v>
+        <v>0.562598</v>
       </c>
       <c r="D116" t="n">
-        <v>0.529352</v>
+        <v>0.529685</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.613515</v>
+        <v>0.6216159999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.556463</v>
+        <v>0.560491</v>
       </c>
       <c r="D117" t="n">
-        <v>0.528824</v>
+        <v>0.53263</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.616113</v>
+        <v>0.624065</v>
       </c>
       <c r="C118" t="n">
-        <v>0.558484</v>
+        <v>0.565181</v>
       </c>
       <c r="D118" t="n">
-        <v>0.532174</v>
+        <v>0.53515</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.618523</v>
+        <v>0.62878</v>
       </c>
       <c r="C119" t="n">
-        <v>0.560944</v>
+        <v>0.562323</v>
       </c>
       <c r="D119" t="n">
-        <v>0.536812</v>
+        <v>0.543336</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.62479</v>
+        <v>0.633887</v>
       </c>
       <c r="C120" t="n">
-        <v>0.564218</v>
+        <v>0.567856</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5404870000000001</v>
+        <v>0.5487610000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.630733</v>
+        <v>0.639678</v>
       </c>
       <c r="C121" t="n">
-        <v>0.56915</v>
+        <v>0.576205</v>
       </c>
       <c r="D121" t="n">
-        <v>0.545279</v>
+        <v>0.551997</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6397</v>
+        <v>0.647723</v>
       </c>
       <c r="C122" t="n">
-        <v>0.572956</v>
+        <v>0.581479</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5537609999999999</v>
+        <v>0.560847</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6522829999999999</v>
+        <v>0.661813</v>
       </c>
       <c r="C123" t="n">
-        <v>0.584796</v>
+        <v>0.594896</v>
       </c>
       <c r="D123" t="n">
-        <v>0.682065</v>
+        <v>0.689026</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.739656</v>
+        <v>0.749745</v>
       </c>
       <c r="C124" t="n">
-        <v>0.673057</v>
+        <v>0.6872819999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.681048</v>
+        <v>0.693015</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.74074</v>
+        <v>0.752037</v>
       </c>
       <c r="C125" t="n">
-        <v>0.675791</v>
+        <v>0.6845059999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.682331</v>
+        <v>0.691967</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.741596</v>
+        <v>0.75219</v>
       </c>
       <c r="C126" t="n">
-        <v>0.676787</v>
+        <v>0.689882</v>
       </c>
       <c r="D126" t="n">
-        <v>0.683439</v>
+        <v>0.6934709999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.742269</v>
+        <v>0.753238</v>
       </c>
       <c r="C127" t="n">
-        <v>0.679444</v>
+        <v>0.685953</v>
       </c>
       <c r="D127" t="n">
-        <v>0.683369</v>
+        <v>0.690645</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.744276</v>
+        <v>0.754833</v>
       </c>
       <c r="C128" t="n">
-        <v>0.67952</v>
+        <v>0.688717</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6845059999999999</v>
+        <v>0.694566</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.74507</v>
+        <v>0.757298</v>
       </c>
       <c r="C129" t="n">
-        <v>0.681171</v>
+        <v>0.692958</v>
       </c>
       <c r="D129" t="n">
-        <v>0.684426</v>
+        <v>0.696183</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.745841</v>
+        <v>0.758484</v>
       </c>
       <c r="C130" t="n">
-        <v>0.682822</v>
+        <v>0.6959689999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.688947</v>
+        <v>0.696223</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.748657</v>
+        <v>0.760606</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6868030000000001</v>
+        <v>0.6932120000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.689587</v>
+        <v>0.700923</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.753672</v>
+        <v>0.763045</v>
       </c>
       <c r="C132" t="n">
-        <v>0.688429</v>
+        <v>0.699129</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6906639999999999</v>
+        <v>0.7004860000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.755691</v>
+        <v>0.769075</v>
       </c>
       <c r="C133" t="n">
-        <v>0.690678</v>
+        <v>0.70258</v>
       </c>
       <c r="D133" t="n">
-        <v>0.693505</v>
+        <v>0.705835</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.760634</v>
+        <v>0.775275</v>
       </c>
       <c r="C134" t="n">
-        <v>0.696624</v>
+        <v>0.707053</v>
       </c>
       <c r="D134" t="n">
-        <v>0.698668</v>
+        <v>0.7090340000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.765577</v>
+        <v>0.781002</v>
       </c>
       <c r="C135" t="n">
-        <v>0.700148</v>
+        <v>0.712712</v>
       </c>
       <c r="D135" t="n">
-        <v>0.702506</v>
+        <v>0.711367</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.77574</v>
+        <v>0.786676</v>
       </c>
       <c r="C136" t="n">
-        <v>0.706747</v>
+        <v>0.715286</v>
       </c>
       <c r="D136" t="n">
-        <v>0.710533</v>
+        <v>0.7224699999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.78782</v>
+        <v>0.800674</v>
       </c>
       <c r="C137" t="n">
-        <v>0.715402</v>
+        <v>0.730395</v>
       </c>
       <c r="D137" t="n">
-        <v>0.815434</v>
+        <v>0.827643</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.861381</v>
+        <v>0.875023</v>
       </c>
       <c r="C138" t="n">
-        <v>0.79394</v>
+        <v>0.805054</v>
       </c>
       <c r="D138" t="n">
-        <v>0.816106</v>
+        <v>0.828837</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.862298</v>
+        <v>0.876077</v>
       </c>
       <c r="C139" t="n">
-        <v>0.795639</v>
+        <v>0.808297</v>
       </c>
       <c r="D139" t="n">
-        <v>0.815706</v>
+        <v>0.828714</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.862669</v>
+        <v>0.876158</v>
       </c>
       <c r="C140" t="n">
-        <v>0.795888</v>
+        <v>0.809683</v>
       </c>
       <c r="D140" t="n">
-        <v>0.818079</v>
+        <v>0.829889</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.864221</v>
+        <v>0.877625</v>
       </c>
       <c r="C141" t="n">
-        <v>0.798082</v>
+        <v>0.8093320000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.816546</v>
+        <v>0.829642</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.864918</v>
+        <v>0.878835</v>
       </c>
       <c r="C142" t="n">
-        <v>0.798754</v>
+        <v>0.812557</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8173899999999999</v>
+        <v>0.829665</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.867012</v>
+        <v>0.879918</v>
       </c>
       <c r="C143" t="n">
-        <v>0.79977</v>
+        <v>0.813567</v>
       </c>
       <c r="D143" t="n">
-        <v>0.81865</v>
+        <v>0.830337</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.125361</v>
+        <v>0.12116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0957539</v>
+        <v>0.09316099999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.106015</v>
+        <v>0.101048</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.131175</v>
+        <v>0.120195</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0974999</v>
+        <v>0.0933799</v>
       </c>
       <c r="D3" t="n">
-        <v>0.105512</v>
+        <v>0.101626</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.129079</v>
+        <v>0.126499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.101322</v>
+        <v>0.0947626</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10839</v>
+        <v>0.102805</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123409</v>
+        <v>0.135981</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0962015</v>
+        <v>0.0943476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.105409</v>
+        <v>0.102129</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123883</v>
+        <v>0.131515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09525400000000001</v>
+        <v>0.09491670000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.104261</v>
+        <v>0.104836</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.139231</v>
+        <v>0.128008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09994939999999999</v>
+        <v>0.0942697</v>
       </c>
       <c r="D7" t="n">
-        <v>0.110424</v>
+        <v>0.103029</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.147692</v>
+        <v>0.141414</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0972827</v>
+        <v>0.09427489999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.110444</v>
+        <v>0.104713</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.155926</v>
+        <v>0.149491</v>
       </c>
       <c r="C9" t="n">
-        <v>0.100803</v>
+        <v>0.101645</v>
       </c>
       <c r="D9" t="n">
-        <v>0.111089</v>
+        <v>0.105945</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126221</v>
+        <v>0.126307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.100358</v>
+        <v>0.09870760000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.109493</v>
+        <v>0.107622</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125195</v>
+        <v>0.128468</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0999366</v>
+        <v>0.0980861</v>
       </c>
       <c r="D11" t="n">
-        <v>0.109149</v>
+        <v>0.105972</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125593</v>
+        <v>0.125823</v>
       </c>
       <c r="C12" t="n">
-        <v>0.101591</v>
+        <v>0.09823800000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110196</v>
+        <v>0.106463</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128491</v>
+        <v>0.125752</v>
       </c>
       <c r="C13" t="n">
-        <v>0.100931</v>
+        <v>0.0982678</v>
       </c>
       <c r="D13" t="n">
-        <v>0.109459</v>
+        <v>0.10668</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.132082</v>
+        <v>0.125214</v>
       </c>
       <c r="C14" t="n">
-        <v>0.101288</v>
+        <v>0.09868059999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.11124</v>
+        <v>0.107034</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.131427</v>
+        <v>0.126643</v>
       </c>
       <c r="C15" t="n">
-        <v>0.10209</v>
+        <v>0.09893100000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.113827</v>
+        <v>0.106905</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.136526</v>
+        <v>0.127659</v>
       </c>
       <c r="C16" t="n">
-        <v>0.102341</v>
+        <v>0.0989963</v>
       </c>
       <c r="D16" t="n">
-        <v>0.110176</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.137026</v>
+        <v>0.127773</v>
       </c>
       <c r="C17" t="n">
-        <v>0.102931</v>
+        <v>0.0995038</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111113</v>
+        <v>0.107377</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.132817</v>
+        <v>0.132617</v>
       </c>
       <c r="C18" t="n">
-        <v>0.103623</v>
+        <v>0.0995954</v>
       </c>
       <c r="D18" t="n">
-        <v>0.111418</v>
+        <v>0.109846</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.136256</v>
+        <v>0.130969</v>
       </c>
       <c r="C19" t="n">
-        <v>0.104877</v>
+        <v>0.10014</v>
       </c>
       <c r="D19" t="n">
-        <v>0.112283</v>
+        <v>0.111333</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.138582</v>
+        <v>0.14121</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104551</v>
+        <v>0.100214</v>
       </c>
       <c r="D20" t="n">
-        <v>0.113079</v>
+        <v>0.108637</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.152099</v>
+        <v>0.146478</v>
       </c>
       <c r="C21" t="n">
-        <v>0.106726</v>
+        <v>0.101371</v>
       </c>
       <c r="D21" t="n">
-        <v>0.113385</v>
+        <v>0.110317</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.150361</v>
+        <v>0.148846</v>
       </c>
       <c r="C22" t="n">
-        <v>0.110177</v>
+        <v>0.104407</v>
       </c>
       <c r="D22" t="n">
-        <v>0.11909</v>
+        <v>0.114961</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169523</v>
+        <v>0.160826</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118111</v>
+        <v>0.112328</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116628</v>
+        <v>0.118188</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.137102</v>
+        <v>0.139366</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108343</v>
+        <v>0.107727</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116892</v>
+        <v>0.116788</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134623</v>
+        <v>0.135612</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108955</v>
+        <v>0.108356</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116838</v>
+        <v>0.116478</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134587</v>
+        <v>0.135596</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108806</v>
+        <v>0.108846</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116447</v>
+        <v>0.116947</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.13498</v>
+        <v>0.137221</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109181</v>
+        <v>0.108879</v>
       </c>
       <c r="D27" t="n">
-        <v>0.116912</v>
+        <v>0.117377</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136158</v>
+        <v>0.136772</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109444</v>
+        <v>0.10945</v>
       </c>
       <c r="D28" t="n">
-        <v>0.117014</v>
+        <v>0.117039</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136454</v>
+        <v>0.138397</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109449</v>
+        <v>0.109004</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117225</v>
+        <v>0.11704</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137606</v>
+        <v>0.138401</v>
       </c>
       <c r="C30" t="n">
-        <v>0.109606</v>
+        <v>0.10944</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117396</v>
+        <v>0.117552</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.142164</v>
+        <v>0.139175</v>
       </c>
       <c r="C31" t="n">
-        <v>0.10992</v>
+        <v>0.1104</v>
       </c>
       <c r="D31" t="n">
-        <v>0.117534</v>
+        <v>0.117364</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140554</v>
+        <v>0.142844</v>
       </c>
       <c r="C32" t="n">
-        <v>0.111237</v>
+        <v>0.112133</v>
       </c>
       <c r="D32" t="n">
-        <v>0.11783</v>
+        <v>0.117871</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.143995</v>
+        <v>0.143913</v>
       </c>
       <c r="C33" t="n">
-        <v>0.112817</v>
+        <v>0.113924</v>
       </c>
       <c r="D33" t="n">
-        <v>0.118435</v>
+        <v>0.122013</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.152103</v>
+        <v>0.147974</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11569</v>
+        <v>0.115134</v>
       </c>
       <c r="D34" t="n">
-        <v>0.119356</v>
+        <v>0.119837</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152421</v>
+        <v>0.154143</v>
       </c>
       <c r="C35" t="n">
-        <v>0.119245</v>
+        <v>0.118259</v>
       </c>
       <c r="D35" t="n">
-        <v>0.126691</v>
+        <v>0.123679</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159026</v>
+        <v>0.159148</v>
       </c>
       <c r="C36" t="n">
-        <v>0.129434</v>
+        <v>0.124061</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131218</v>
+        <v>0.130914</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166452</v>
+        <v>0.173635</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128935</v>
+        <v>0.128692</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128523</v>
+        <v>0.129845</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.150422</v>
+        <v>0.147828</v>
       </c>
       <c r="C38" t="n">
-        <v>0.120335</v>
+        <v>0.120307</v>
       </c>
       <c r="D38" t="n">
-        <v>0.130326</v>
+        <v>0.130727</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1486</v>
+        <v>0.149307</v>
       </c>
       <c r="C39" t="n">
-        <v>0.121365</v>
+        <v>0.120237</v>
       </c>
       <c r="D39" t="n">
-        <v>0.130863</v>
+        <v>0.12965</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147802</v>
+        <v>0.148477</v>
       </c>
       <c r="C40" t="n">
-        <v>0.121454</v>
+        <v>0.119406</v>
       </c>
       <c r="D40" t="n">
-        <v>0.131089</v>
+        <v>0.129292</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149769</v>
+        <v>0.149604</v>
       </c>
       <c r="C41" t="n">
-        <v>0.121476</v>
+        <v>0.120385</v>
       </c>
       <c r="D41" t="n">
-        <v>0.13181</v>
+        <v>0.129509</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150021</v>
+        <v>0.147453</v>
       </c>
       <c r="C42" t="n">
-        <v>0.121981</v>
+        <v>0.121519</v>
       </c>
       <c r="D42" t="n">
-        <v>0.130931</v>
+        <v>0.129919</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150405</v>
+        <v>0.149228</v>
       </c>
       <c r="C43" t="n">
-        <v>0.121642</v>
+        <v>0.122362</v>
       </c>
       <c r="D43" t="n">
-        <v>0.130819</v>
+        <v>0.129671</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150407</v>
+        <v>0.150294</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123497</v>
+        <v>0.123205</v>
       </c>
       <c r="D44" t="n">
-        <v>0.131477</v>
+        <v>0.130699</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.154644</v>
+        <v>0.153332</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125522</v>
+        <v>0.123856</v>
       </c>
       <c r="D45" t="n">
-        <v>0.13132</v>
+        <v>0.130524</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.154808</v>
+        <v>0.153988</v>
       </c>
       <c r="C46" t="n">
-        <v>0.126421</v>
+        <v>0.126377</v>
       </c>
       <c r="D46" t="n">
-        <v>0.131026</v>
+        <v>0.131012</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.159335</v>
+        <v>0.159221</v>
       </c>
       <c r="C47" t="n">
-        <v>0.127686</v>
+        <v>0.127752</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132105</v>
+        <v>0.132145</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160812</v>
+        <v>0.16156</v>
       </c>
       <c r="C48" t="n">
-        <v>0.129566</v>
+        <v>0.12626</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13452</v>
+        <v>0.135082</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.175111</v>
+        <v>0.166059</v>
       </c>
       <c r="C49" t="n">
-        <v>0.13277</v>
+        <v>0.127982</v>
       </c>
       <c r="D49" t="n">
-        <v>0.138251</v>
+        <v>0.137939</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170905</v>
+        <v>0.172112</v>
       </c>
       <c r="C50" t="n">
-        <v>0.141857</v>
+        <v>0.132983</v>
       </c>
       <c r="D50" t="n">
-        <v>0.143858</v>
+        <v>0.141847</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176887</v>
+        <v>0.178883</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138793</v>
+        <v>0.138209</v>
       </c>
       <c r="D51" t="n">
-        <v>0.142297</v>
+        <v>0.143128</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187594</v>
+        <v>0.206354</v>
       </c>
       <c r="C52" t="n">
-        <v>0.152646</v>
+        <v>0.147276</v>
       </c>
       <c r="D52" t="n">
-        <v>0.142509</v>
+        <v>0.14298</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159904</v>
+        <v>0.161182</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1293</v>
+        <v>0.129592</v>
       </c>
       <c r="D53" t="n">
-        <v>0.142907</v>
+        <v>0.143527</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161036</v>
+        <v>0.160945</v>
       </c>
       <c r="C54" t="n">
-        <v>0.129894</v>
+        <v>0.129918</v>
       </c>
       <c r="D54" t="n">
-        <v>0.143026</v>
+        <v>0.14279</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161084</v>
+        <v>0.161361</v>
       </c>
       <c r="C55" t="n">
-        <v>0.130497</v>
+        <v>0.130956</v>
       </c>
       <c r="D55" t="n">
-        <v>0.14335</v>
+        <v>0.143765</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161758</v>
+        <v>0.162076</v>
       </c>
       <c r="C56" t="n">
-        <v>0.132241</v>
+        <v>0.131219</v>
       </c>
       <c r="D56" t="n">
-        <v>0.14371</v>
+        <v>0.143805</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.16333</v>
+        <v>0.163125</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133674</v>
+        <v>0.132516</v>
       </c>
       <c r="D57" t="n">
-        <v>0.143526</v>
+        <v>0.14501</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164225</v>
+        <v>0.16509</v>
       </c>
       <c r="C58" t="n">
-        <v>0.135043</v>
+        <v>0.133056</v>
       </c>
       <c r="D58" t="n">
-        <v>0.14477</v>
+        <v>0.14409</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.170736</v>
+        <v>0.165592</v>
       </c>
       <c r="C59" t="n">
-        <v>0.13588</v>
+        <v>0.135201</v>
       </c>
       <c r="D59" t="n">
-        <v>0.144458</v>
+        <v>0.143116</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.166939</v>
+        <v>0.169014</v>
       </c>
       <c r="C60" t="n">
-        <v>0.136965</v>
+        <v>0.136884</v>
       </c>
       <c r="D60" t="n">
-        <v>0.145495</v>
+        <v>0.146172</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.170149</v>
+        <v>0.169081</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138395</v>
+        <v>0.138114</v>
       </c>
       <c r="D61" t="n">
-        <v>0.147203</v>
+        <v>0.147557</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174648</v>
+        <v>0.172899</v>
       </c>
       <c r="C62" t="n">
-        <v>0.140241</v>
+        <v>0.140081</v>
       </c>
       <c r="D62" t="n">
-        <v>0.149286</v>
+        <v>0.149522</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176068</v>
+        <v>0.182766</v>
       </c>
       <c r="C63" t="n">
-        <v>0.142272</v>
+        <v>0.142284</v>
       </c>
       <c r="D63" t="n">
-        <v>0.151837</v>
+        <v>0.152751</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185663</v>
+        <v>0.18165</v>
       </c>
       <c r="C64" t="n">
-        <v>0.14523</v>
+        <v>0.145582</v>
       </c>
       <c r="D64" t="n">
-        <v>0.156505</v>
+        <v>0.157358</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187787</v>
+        <v>0.18902</v>
       </c>
       <c r="C65" t="n">
-        <v>0.156349</v>
+        <v>0.153906</v>
       </c>
       <c r="D65" t="n">
-        <v>0.162923</v>
+        <v>0.16445</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.196208</v>
+        <v>0.198347</v>
       </c>
       <c r="C66" t="n">
-        <v>0.162757</v>
+        <v>0.159585</v>
       </c>
       <c r="D66" t="n">
-        <v>0.157419</v>
+        <v>0.157343</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178565</v>
+        <v>0.178609</v>
       </c>
       <c r="C67" t="n">
-        <v>0.150042</v>
+        <v>0.147543</v>
       </c>
       <c r="D67" t="n">
-        <v>0.157306</v>
+        <v>0.156989</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184879</v>
+        <v>0.18371</v>
       </c>
       <c r="C68" t="n">
-        <v>0.149268</v>
+        <v>0.150699</v>
       </c>
       <c r="D68" t="n">
-        <v>0.157773</v>
+        <v>0.158444</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.183247</v>
+        <v>0.183038</v>
       </c>
       <c r="C69" t="n">
-        <v>0.148802</v>
+        <v>0.150377</v>
       </c>
       <c r="D69" t="n">
-        <v>0.157078</v>
+        <v>0.158605</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182876</v>
+        <v>0.181577</v>
       </c>
       <c r="C70" t="n">
-        <v>0.149801</v>
+        <v>0.15139</v>
       </c>
       <c r="D70" t="n">
-        <v>0.157946</v>
+        <v>0.158605</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.185964</v>
+        <v>0.186338</v>
       </c>
       <c r="C71" t="n">
-        <v>0.151873</v>
+        <v>0.152241</v>
       </c>
       <c r="D71" t="n">
-        <v>0.158229</v>
+        <v>0.159359</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.184805</v>
+        <v>0.188357</v>
       </c>
       <c r="C72" t="n">
-        <v>0.151123</v>
+        <v>0.151115</v>
       </c>
       <c r="D72" t="n">
-        <v>0.159587</v>
+        <v>0.158963</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.187333</v>
+        <v>0.190276</v>
       </c>
       <c r="C73" t="n">
-        <v>0.155321</v>
+        <v>0.153209</v>
       </c>
       <c r="D73" t="n">
-        <v>0.160356</v>
+        <v>0.160997</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.189262</v>
+        <v>0.186797</v>
       </c>
       <c r="C74" t="n">
-        <v>0.153936</v>
+        <v>0.153147</v>
       </c>
       <c r="D74" t="n">
-        <v>0.160161</v>
+        <v>0.161124</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.193405</v>
+        <v>0.192247</v>
       </c>
       <c r="C75" t="n">
-        <v>0.155536</v>
+        <v>0.153947</v>
       </c>
       <c r="D75" t="n">
-        <v>0.162187</v>
+        <v>0.162313</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.191947</v>
+        <v>0.193235</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157098</v>
+        <v>0.155511</v>
       </c>
       <c r="D76" t="n">
-        <v>0.163237</v>
+        <v>0.16309</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195242</v>
+        <v>0.194491</v>
       </c>
       <c r="C77" t="n">
-        <v>0.165406</v>
+        <v>0.163874</v>
       </c>
       <c r="D77" t="n">
-        <v>0.16545</v>
+        <v>0.166006</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200506</v>
+        <v>0.201219</v>
       </c>
       <c r="C78" t="n">
-        <v>0.161383</v>
+        <v>0.165126</v>
       </c>
       <c r="D78" t="n">
-        <v>0.169339</v>
+        <v>0.169666</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.204607</v>
+        <v>0.204826</v>
       </c>
       <c r="C79" t="n">
-        <v>0.164599</v>
+        <v>0.164746</v>
       </c>
       <c r="D79" t="n">
-        <v>0.175325</v>
+        <v>0.175033</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.220891</v>
+        <v>0.213848</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169994</v>
+        <v>0.168976</v>
       </c>
       <c r="D80" t="n">
-        <v>0.228424</v>
+        <v>0.229446</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.365342</v>
+        <v>0.358102</v>
       </c>
       <c r="C81" t="n">
-        <v>0.282342</v>
+        <v>0.284936</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232596</v>
+        <v>0.232145</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.361303</v>
+        <v>0.358707</v>
       </c>
       <c r="C82" t="n">
-        <v>0.282621</v>
+        <v>0.284741</v>
       </c>
       <c r="D82" t="n">
-        <v>0.232149</v>
+        <v>0.230498</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.359191</v>
+        <v>0.363118</v>
       </c>
       <c r="C83" t="n">
-        <v>0.279398</v>
+        <v>0.280315</v>
       </c>
       <c r="D83" t="n">
-        <v>0.231814</v>
+        <v>0.234725</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.366148</v>
+        <v>0.363587</v>
       </c>
       <c r="C84" t="n">
-        <v>0.279417</v>
+        <v>0.282113</v>
       </c>
       <c r="D84" t="n">
-        <v>0.232267</v>
+        <v>0.231377</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.364104</v>
+        <v>0.36661</v>
       </c>
       <c r="C85" t="n">
-        <v>0.280187</v>
+        <v>0.278701</v>
       </c>
       <c r="D85" t="n">
-        <v>0.231711</v>
+        <v>0.232082</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.367199</v>
+        <v>0.370056</v>
       </c>
       <c r="C86" t="n">
-        <v>0.278401</v>
+        <v>0.280086</v>
       </c>
       <c r="D86" t="n">
-        <v>0.23307</v>
+        <v>0.232605</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.36543</v>
+        <v>0.367139</v>
       </c>
       <c r="C87" t="n">
-        <v>0.276949</v>
+        <v>0.276744</v>
       </c>
       <c r="D87" t="n">
-        <v>0.230705</v>
+        <v>0.233447</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.367522</v>
+        <v>0.368961</v>
       </c>
       <c r="C88" t="n">
-        <v>0.277048</v>
+        <v>0.276756</v>
       </c>
       <c r="D88" t="n">
-        <v>0.228907</v>
+        <v>0.231674</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.371457</v>
+        <v>0.366332</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276117</v>
+        <v>0.279796</v>
       </c>
       <c r="D89" t="n">
-        <v>0.227446</v>
+        <v>0.231315</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372657</v>
+        <v>0.371904</v>
       </c>
       <c r="C90" t="n">
-        <v>0.272882</v>
+        <v>0.273536</v>
       </c>
       <c r="D90" t="n">
-        <v>0.229377</v>
+        <v>0.227351</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.373946</v>
+        <v>0.374171</v>
       </c>
       <c r="C91" t="n">
-        <v>0.271227</v>
+        <v>0.279511</v>
       </c>
       <c r="D91" t="n">
-        <v>0.227281</v>
+        <v>0.22882</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.372721</v>
+        <v>0.380455</v>
       </c>
       <c r="C92" t="n">
-        <v>0.276509</v>
+        <v>0.27676</v>
       </c>
       <c r="D92" t="n">
-        <v>0.228109</v>
+        <v>0.232142</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.382867</v>
+        <v>0.381929</v>
       </c>
       <c r="C93" t="n">
-        <v>0.27978</v>
+        <v>0.279066</v>
       </c>
       <c r="D93" t="n">
-        <v>0.232648</v>
+        <v>0.234952</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387983</v>
+        <v>0.389135</v>
       </c>
       <c r="C94" t="n">
-        <v>0.284269</v>
+        <v>0.284099</v>
       </c>
       <c r="D94" t="n">
-        <v>0.395433</v>
+        <v>0.394791</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.533374</v>
+        <v>0.532375</v>
       </c>
       <c r="C95" t="n">
-        <v>0.452035</v>
+        <v>0.452317</v>
       </c>
       <c r="D95" t="n">
-        <v>0.38533</v>
+        <v>0.39278</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.534394</v>
+        <v>0.5329199999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.452126</v>
+        <v>0.452047</v>
       </c>
       <c r="D96" t="n">
-        <v>0.384304</v>
+        <v>0.393466</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5336689999999999</v>
+        <v>0.533617</v>
       </c>
       <c r="C97" t="n">
-        <v>0.452662</v>
+        <v>0.449849</v>
       </c>
       <c r="D97" t="n">
-        <v>0.395168</v>
+        <v>0.393912</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.534125</v>
+        <v>0.534666</v>
       </c>
       <c r="C98" t="n">
-        <v>0.451084</v>
+        <v>0.438077</v>
       </c>
       <c r="D98" t="n">
-        <v>0.393592</v>
+        <v>0.391774</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.534345</v>
+        <v>0.534124</v>
       </c>
       <c r="C99" t="n">
-        <v>0.450363</v>
+        <v>0.449111</v>
       </c>
       <c r="D99" t="n">
-        <v>0.383276</v>
+        <v>0.379699</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.535268</v>
+        <v>0.5344950000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.450665</v>
+        <v>0.448657</v>
       </c>
       <c r="D100" t="n">
-        <v>0.39399</v>
+        <v>0.391935</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.536751</v>
+        <v>0.535891</v>
       </c>
       <c r="C101" t="n">
-        <v>0.440363</v>
+        <v>0.44951</v>
       </c>
       <c r="D101" t="n">
-        <v>0.393014</v>
+        <v>0.378354</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.538457</v>
+        <v>0.537012</v>
       </c>
       <c r="C102" t="n">
-        <v>0.451219</v>
+        <v>0.450053</v>
       </c>
       <c r="D102" t="n">
-        <v>0.381368</v>
+        <v>0.380098</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.539819</v>
+        <v>0.539032</v>
       </c>
       <c r="C103" t="n">
-        <v>0.452252</v>
+        <v>0.437375</v>
       </c>
       <c r="D103" t="n">
-        <v>0.395916</v>
+        <v>0.394596</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.543021</v>
+        <v>0.541357</v>
       </c>
       <c r="C104" t="n">
-        <v>0.453451</v>
+        <v>0.451022</v>
       </c>
       <c r="D104" t="n">
-        <v>0.397408</v>
+        <v>0.395604</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.54582</v>
+        <v>0.54378</v>
       </c>
       <c r="C105" t="n">
-        <v>0.453007</v>
+        <v>0.441518</v>
       </c>
       <c r="D105" t="n">
-        <v>0.397583</v>
+        <v>0.395946</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.548914</v>
+        <v>0.547591</v>
       </c>
       <c r="C106" t="n">
-        <v>0.458229</v>
+        <v>0.44485</v>
       </c>
       <c r="D106" t="n">
-        <v>0.401945</v>
+        <v>0.399463</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.553694</v>
+        <v>0.553511</v>
       </c>
       <c r="C107" t="n">
-        <v>0.459273</v>
+        <v>0.458137</v>
       </c>
       <c r="D107" t="n">
-        <v>0.405678</v>
+        <v>0.40355</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.562092</v>
+        <v>0.560137</v>
       </c>
       <c r="C108" t="n">
-        <v>0.464004</v>
+        <v>0.460853</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5258659999999999</v>
+        <v>0.528917</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.572428</v>
+        <v>0.574583</v>
       </c>
       <c r="C109" t="n">
-        <v>0.474755</v>
+        <v>0.472918</v>
       </c>
       <c r="D109" t="n">
-        <v>0.524717</v>
+        <v>0.532722</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.613379</v>
+        <v>0.610007</v>
       </c>
       <c r="C110" t="n">
-        <v>0.559436</v>
+        <v>0.557795</v>
       </c>
       <c r="D110" t="n">
-        <v>0.531533</v>
+        <v>0.529686</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.613484</v>
+        <v>0.61189</v>
       </c>
       <c r="C111" t="n">
-        <v>0.558916</v>
+        <v>0.557338</v>
       </c>
       <c r="D111" t="n">
-        <v>0.53204</v>
+        <v>0.524527</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.612884</v>
+        <v>0.611545</v>
       </c>
       <c r="C112" t="n">
-        <v>0.553463</v>
+        <v>0.55857</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5336109999999999</v>
+        <v>0.534729</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.61413</v>
+        <v>0.61361</v>
       </c>
       <c r="C113" t="n">
-        <v>0.559581</v>
+        <v>0.5599</v>
       </c>
       <c r="D113" t="n">
-        <v>0.526873</v>
+        <v>0.531488</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.616191</v>
+        <v>0.615445</v>
       </c>
       <c r="C114" t="n">
-        <v>0.561799</v>
+        <v>0.559733</v>
       </c>
       <c r="D114" t="n">
-        <v>0.533315</v>
+        <v>0.534237</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.617386</v>
+        <v>0.615158</v>
       </c>
       <c r="C115" t="n">
-        <v>0.556385</v>
+        <v>0.5613</v>
       </c>
       <c r="D115" t="n">
-        <v>0.534274</v>
+        <v>0.533151</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.618388</v>
+        <v>0.621939</v>
       </c>
       <c r="C116" t="n">
-        <v>0.562598</v>
+        <v>0.562596</v>
       </c>
       <c r="D116" t="n">
-        <v>0.529685</v>
+        <v>0.535403</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6216159999999999</v>
+        <v>0.620501</v>
       </c>
       <c r="C117" t="n">
-        <v>0.560491</v>
+        <v>0.558756</v>
       </c>
       <c r="D117" t="n">
-        <v>0.53263</v>
+        <v>0.537931</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.624065</v>
+        <v>0.625501</v>
       </c>
       <c r="C118" t="n">
-        <v>0.565181</v>
+        <v>0.566167</v>
       </c>
       <c r="D118" t="n">
-        <v>0.53515</v>
+        <v>0.538326</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.62878</v>
+        <v>0.62656</v>
       </c>
       <c r="C119" t="n">
-        <v>0.562323</v>
+        <v>0.566454</v>
       </c>
       <c r="D119" t="n">
-        <v>0.543336</v>
+        <v>0.543882</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.633887</v>
+        <v>0.634854</v>
       </c>
       <c r="C120" t="n">
-        <v>0.567856</v>
+        <v>0.571418</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5487610000000001</v>
+        <v>0.547165</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.639678</v>
+        <v>0.637602</v>
       </c>
       <c r="C121" t="n">
-        <v>0.576205</v>
+        <v>0.57458</v>
       </c>
       <c r="D121" t="n">
-        <v>0.551997</v>
+        <v>0.5512280000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.647723</v>
+        <v>0.647181</v>
       </c>
       <c r="C122" t="n">
-        <v>0.581479</v>
+        <v>0.578307</v>
       </c>
       <c r="D122" t="n">
-        <v>0.560847</v>
+        <v>0.5555330000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.661813</v>
+        <v>0.658687</v>
       </c>
       <c r="C123" t="n">
-        <v>0.594896</v>
+        <v>0.587874</v>
       </c>
       <c r="D123" t="n">
-        <v>0.689026</v>
+        <v>0.686385</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.749745</v>
+        <v>0.75184</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6872819999999999</v>
+        <v>0.684249</v>
       </c>
       <c r="D124" t="n">
-        <v>0.693015</v>
+        <v>0.689589</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.752037</v>
+        <v>0.7515540000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6845059999999999</v>
+        <v>0.683987</v>
       </c>
       <c r="D125" t="n">
-        <v>0.691967</v>
+        <v>0.691087</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.75219</v>
+        <v>0.75284</v>
       </c>
       <c r="C126" t="n">
-        <v>0.689882</v>
+        <v>0.6841739999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6934709999999999</v>
+        <v>0.69228</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.753238</v>
+        <v>0.751204</v>
       </c>
       <c r="C127" t="n">
-        <v>0.685953</v>
+        <v>0.685307</v>
       </c>
       <c r="D127" t="n">
-        <v>0.690645</v>
+        <v>0.695065</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.754833</v>
+        <v>0.752638</v>
       </c>
       <c r="C128" t="n">
-        <v>0.688717</v>
+        <v>0.688943</v>
       </c>
       <c r="D128" t="n">
-        <v>0.694566</v>
+        <v>0.693644</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.757298</v>
+        <v>0.75725</v>
       </c>
       <c r="C129" t="n">
-        <v>0.692958</v>
+        <v>0.690918</v>
       </c>
       <c r="D129" t="n">
-        <v>0.696183</v>
+        <v>0.6961349999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.758484</v>
+        <v>0.756423</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6959689999999999</v>
+        <v>0.693056</v>
       </c>
       <c r="D130" t="n">
-        <v>0.696223</v>
+        <v>0.696581</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.760606</v>
+        <v>0.7576850000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6932120000000001</v>
+        <v>0.693268</v>
       </c>
       <c r="D131" t="n">
-        <v>0.700923</v>
+        <v>0.695256</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.763045</v>
+        <v>0.762509</v>
       </c>
       <c r="C132" t="n">
-        <v>0.699129</v>
+        <v>0.693005</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7004860000000001</v>
+        <v>0.700624</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.769075</v>
+        <v>0.766643</v>
       </c>
       <c r="C133" t="n">
-        <v>0.70258</v>
+        <v>0.700485</v>
       </c>
       <c r="D133" t="n">
-        <v>0.705835</v>
+        <v>0.705431</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.775275</v>
+        <v>0.772466</v>
       </c>
       <c r="C134" t="n">
-        <v>0.707053</v>
+        <v>0.704168</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7090340000000001</v>
+        <v>0.708068</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.781002</v>
+        <v>0.778489</v>
       </c>
       <c r="C135" t="n">
-        <v>0.712712</v>
+        <v>0.711046</v>
       </c>
       <c r="D135" t="n">
-        <v>0.711367</v>
+        <v>0.711218</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.786676</v>
+        <v>0.786189</v>
       </c>
       <c r="C136" t="n">
-        <v>0.715286</v>
+        <v>0.714573</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7224699999999999</v>
+        <v>0.719469</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.800674</v>
+        <v>0.798372</v>
       </c>
       <c r="C137" t="n">
-        <v>0.730395</v>
+        <v>0.725295</v>
       </c>
       <c r="D137" t="n">
-        <v>0.827643</v>
+        <v>0.82567</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.875023</v>
+        <v>0.873173</v>
       </c>
       <c r="C138" t="n">
-        <v>0.805054</v>
+        <v>0.804376</v>
       </c>
       <c r="D138" t="n">
-        <v>0.828837</v>
+        <v>0.825359</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.876077</v>
+        <v>0.8729980000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.808297</v>
+        <v>0.805167</v>
       </c>
       <c r="D139" t="n">
-        <v>0.828714</v>
+        <v>0.826385</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.876158</v>
+        <v>0.873618</v>
       </c>
       <c r="C140" t="n">
-        <v>0.809683</v>
+        <v>0.8091930000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.829889</v>
+        <v>0.826716</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.877625</v>
+        <v>0.875328</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8093320000000001</v>
+        <v>0.809073</v>
       </c>
       <c r="D141" t="n">
-        <v>0.829642</v>
+        <v>0.826495</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.878835</v>
+        <v>0.875184</v>
       </c>
       <c r="C142" t="n">
-        <v>0.812557</v>
+        <v>0.809687</v>
       </c>
       <c r="D142" t="n">
-        <v>0.829665</v>
+        <v>0.82813</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.879918</v>
+        <v>0.876075</v>
       </c>
       <c r="C143" t="n">
-        <v>0.813567</v>
+        <v>0.812154</v>
       </c>
       <c r="D143" t="n">
-        <v>0.830337</v>
+        <v>0.827558</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.12116</v>
+        <v>0.132653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09316099999999999</v>
+        <v>0.0897497</v>
       </c>
       <c r="D2" t="n">
-        <v>0.101048</v>
+        <v>0.0997326</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.120195</v>
+        <v>0.123898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0933799</v>
+        <v>0.0891735</v>
       </c>
       <c r="D3" t="n">
-        <v>0.101626</v>
+        <v>0.09964580000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.126499</v>
+        <v>0.125486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0947626</v>
+        <v>0.0893775</v>
       </c>
       <c r="D4" t="n">
-        <v>0.102805</v>
+        <v>0.0998367</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.135981</v>
+        <v>0.117707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0943476</v>
+        <v>0.0902266</v>
       </c>
       <c r="D5" t="n">
-        <v>0.102129</v>
+        <v>0.100486</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.131515</v>
+        <v>0.11975</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09491670000000001</v>
+        <v>0.0898838</v>
       </c>
       <c r="D6" t="n">
-        <v>0.104836</v>
+        <v>0.100638</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.128008</v>
+        <v>0.131979</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0942697</v>
+        <v>0.0902602</v>
       </c>
       <c r="D7" t="n">
-        <v>0.103029</v>
+        <v>0.101447</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.141414</v>
+        <v>0.148034</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09427489999999999</v>
+        <v>0.09140769999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.104713</v>
+        <v>0.102991</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149491</v>
+        <v>0.141258</v>
       </c>
       <c r="C9" t="n">
-        <v>0.101645</v>
+        <v>0.0935037</v>
       </c>
       <c r="D9" t="n">
-        <v>0.105945</v>
+        <v>0.106042</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126307</v>
+        <v>0.124177</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09870760000000001</v>
+        <v>0.098223</v>
       </c>
       <c r="D10" t="n">
-        <v>0.107622</v>
+        <v>0.106359</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.128468</v>
+        <v>0.12983</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0980861</v>
+        <v>0.09740649999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.105972</v>
+        <v>0.105984</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125823</v>
+        <v>0.124246</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09823800000000001</v>
+        <v>0.098082</v>
       </c>
       <c r="D12" t="n">
-        <v>0.106463</v>
+        <v>0.106146</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125752</v>
+        <v>0.138985</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0982678</v>
+        <v>0.0982604</v>
       </c>
       <c r="D13" t="n">
-        <v>0.10668</v>
+        <v>0.106697</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125214</v>
+        <v>0.131708</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09868059999999999</v>
+        <v>0.09826219999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.107034</v>
+        <v>0.106966</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126643</v>
+        <v>0.133582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09893100000000001</v>
+        <v>0.0983072</v>
       </c>
       <c r="D15" t="n">
-        <v>0.106905</v>
+        <v>0.106701</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127659</v>
+        <v>0.126446</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0989963</v>
+        <v>0.0987532</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107</v>
+        <v>0.107096</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127773</v>
+        <v>0.127833</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0995038</v>
+        <v>0.09901790000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.107377</v>
+        <v>0.107905</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.132617</v>
+        <v>0.135094</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0995954</v>
+        <v>0.10001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.109846</v>
+        <v>0.10772</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130969</v>
+        <v>0.13807</v>
       </c>
       <c r="C19" t="n">
-        <v>0.10014</v>
+        <v>0.0997369</v>
       </c>
       <c r="D19" t="n">
-        <v>0.111333</v>
+        <v>0.108263</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.14121</v>
+        <v>0.141259</v>
       </c>
       <c r="C20" t="n">
-        <v>0.100214</v>
+        <v>0.101261</v>
       </c>
       <c r="D20" t="n">
-        <v>0.108637</v>
+        <v>0.108902</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.146478</v>
+        <v>0.147246</v>
       </c>
       <c r="C21" t="n">
-        <v>0.101371</v>
+        <v>0.100977</v>
       </c>
       <c r="D21" t="n">
-        <v>0.110317</v>
+        <v>0.110022</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.148846</v>
+        <v>0.148145</v>
       </c>
       <c r="C22" t="n">
-        <v>0.104407</v>
+        <v>0.104118</v>
       </c>
       <c r="D22" t="n">
-        <v>0.114961</v>
+        <v>0.114547</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.160826</v>
+        <v>0.165619</v>
       </c>
       <c r="C23" t="n">
-        <v>0.112328</v>
+        <v>0.112186</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118188</v>
+        <v>0.116452</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.139366</v>
+        <v>0.134895</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107727</v>
+        <v>0.108005</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116788</v>
+        <v>0.116043</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135612</v>
+        <v>0.140276</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108356</v>
+        <v>0.109094</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116478</v>
+        <v>0.116198</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135596</v>
+        <v>0.134889</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108846</v>
+        <v>0.108406</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116947</v>
+        <v>0.116318</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137221</v>
+        <v>0.135443</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108879</v>
+        <v>0.109393</v>
       </c>
       <c r="D27" t="n">
-        <v>0.117377</v>
+        <v>0.116581</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136772</v>
+        <v>0.136207</v>
       </c>
       <c r="C28" t="n">
-        <v>0.10945</v>
+        <v>0.108827</v>
       </c>
       <c r="D28" t="n">
-        <v>0.117039</v>
+        <v>0.116463</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.138397</v>
+        <v>0.145288</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109004</v>
+        <v>0.109218</v>
       </c>
       <c r="D29" t="n">
-        <v>0.11704</v>
+        <v>0.116588</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138401</v>
+        <v>0.144689</v>
       </c>
       <c r="C30" t="n">
-        <v>0.10944</v>
+        <v>0.109116</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117552</v>
+        <v>0.116983</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139175</v>
+        <v>0.140843</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1104</v>
+        <v>0.109572</v>
       </c>
       <c r="D31" t="n">
-        <v>0.117364</v>
+        <v>0.11726</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142844</v>
+        <v>0.14206</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112133</v>
+        <v>0.110054</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117871</v>
+        <v>0.117634</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.143913</v>
+        <v>0.151084</v>
       </c>
       <c r="C33" t="n">
-        <v>0.113924</v>
+        <v>0.112772</v>
       </c>
       <c r="D33" t="n">
-        <v>0.122013</v>
+        <v>0.118687</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147974</v>
+        <v>0.154665</v>
       </c>
       <c r="C34" t="n">
-        <v>0.115134</v>
+        <v>0.114714</v>
       </c>
       <c r="D34" t="n">
-        <v>0.119837</v>
+        <v>0.119315</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.154143</v>
+        <v>0.151955</v>
       </c>
       <c r="C35" t="n">
-        <v>0.118259</v>
+        <v>0.121639</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123679</v>
+        <v>0.125625</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159148</v>
+        <v>0.166082</v>
       </c>
       <c r="C36" t="n">
-        <v>0.124061</v>
+        <v>0.123732</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130914</v>
+        <v>0.133591</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173635</v>
+        <v>0.179123</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128692</v>
+        <v>0.127148</v>
       </c>
       <c r="D37" t="n">
-        <v>0.129845</v>
+        <v>0.128238</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147828</v>
+        <v>0.149291</v>
       </c>
       <c r="C38" t="n">
-        <v>0.120307</v>
+        <v>0.119934</v>
       </c>
       <c r="D38" t="n">
-        <v>0.130727</v>
+        <v>0.129803</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149307</v>
+        <v>0.152529</v>
       </c>
       <c r="C39" t="n">
-        <v>0.120237</v>
+        <v>0.120656</v>
       </c>
       <c r="D39" t="n">
-        <v>0.12965</v>
+        <v>0.130187</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148477</v>
+        <v>0.149651</v>
       </c>
       <c r="C40" t="n">
-        <v>0.119406</v>
+        <v>0.12027</v>
       </c>
       <c r="D40" t="n">
-        <v>0.129292</v>
+        <v>0.128602</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149604</v>
+        <v>0.152992</v>
       </c>
       <c r="C41" t="n">
-        <v>0.120385</v>
+        <v>0.120147</v>
       </c>
       <c r="D41" t="n">
-        <v>0.129509</v>
+        <v>0.130014</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.147453</v>
+        <v>0.156034</v>
       </c>
       <c r="C42" t="n">
-        <v>0.121519</v>
+        <v>0.121202</v>
       </c>
       <c r="D42" t="n">
-        <v>0.129919</v>
+        <v>0.130038</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149228</v>
+        <v>0.149632</v>
       </c>
       <c r="C43" t="n">
-        <v>0.122362</v>
+        <v>0.120886</v>
       </c>
       <c r="D43" t="n">
-        <v>0.129671</v>
+        <v>0.129575</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150294</v>
+        <v>0.157303</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123205</v>
+        <v>0.122251</v>
       </c>
       <c r="D44" t="n">
-        <v>0.130699</v>
+        <v>0.130008</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153332</v>
+        <v>0.158849</v>
       </c>
       <c r="C45" t="n">
-        <v>0.123856</v>
+        <v>0.124788</v>
       </c>
       <c r="D45" t="n">
-        <v>0.130524</v>
+        <v>0.130635</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.153988</v>
+        <v>0.155661</v>
       </c>
       <c r="C46" t="n">
-        <v>0.126377</v>
+        <v>0.12634</v>
       </c>
       <c r="D46" t="n">
-        <v>0.131012</v>
+        <v>0.130989</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.159221</v>
+        <v>0.163526</v>
       </c>
       <c r="C47" t="n">
-        <v>0.127752</v>
+        <v>0.127422</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132145</v>
+        <v>0.13131</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.16156</v>
+        <v>0.160857</v>
       </c>
       <c r="C48" t="n">
-        <v>0.12626</v>
+        <v>0.13018</v>
       </c>
       <c r="D48" t="n">
-        <v>0.135082</v>
+        <v>0.13466</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.166059</v>
+        <v>0.172805</v>
       </c>
       <c r="C49" t="n">
-        <v>0.127982</v>
+        <v>0.137359</v>
       </c>
       <c r="D49" t="n">
-        <v>0.137939</v>
+        <v>0.138341</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172112</v>
+        <v>0.177096</v>
       </c>
       <c r="C50" t="n">
-        <v>0.132983</v>
+        <v>0.136886</v>
       </c>
       <c r="D50" t="n">
-        <v>0.141847</v>
+        <v>0.142781</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178883</v>
+        <v>0.184689</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138209</v>
+        <v>0.138086</v>
       </c>
       <c r="D51" t="n">
-        <v>0.143128</v>
+        <v>0.143667</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.206354</v>
+        <v>0.195242</v>
       </c>
       <c r="C52" t="n">
-        <v>0.147276</v>
+        <v>0.152205</v>
       </c>
       <c r="D52" t="n">
-        <v>0.14298</v>
+        <v>0.143363</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161182</v>
+        <v>0.160932</v>
       </c>
       <c r="C53" t="n">
-        <v>0.129592</v>
+        <v>0.129919</v>
       </c>
       <c r="D53" t="n">
-        <v>0.143527</v>
+        <v>0.143297</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160945</v>
+        <v>0.161777</v>
       </c>
       <c r="C54" t="n">
-        <v>0.129918</v>
+        <v>0.131099</v>
       </c>
       <c r="D54" t="n">
-        <v>0.14279</v>
+        <v>0.143129</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161361</v>
+        <v>0.162845</v>
       </c>
       <c r="C55" t="n">
-        <v>0.130956</v>
+        <v>0.13187</v>
       </c>
       <c r="D55" t="n">
-        <v>0.143765</v>
+        <v>0.14329</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162076</v>
+        <v>0.166835</v>
       </c>
       <c r="C56" t="n">
-        <v>0.131219</v>
+        <v>0.131322</v>
       </c>
       <c r="D56" t="n">
-        <v>0.143805</v>
+        <v>0.143415</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163125</v>
+        <v>0.169736</v>
       </c>
       <c r="C57" t="n">
-        <v>0.132516</v>
+        <v>0.133911</v>
       </c>
       <c r="D57" t="n">
-        <v>0.14501</v>
+        <v>0.143757</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.16509</v>
+        <v>0.16368</v>
       </c>
       <c r="C58" t="n">
-        <v>0.133056</v>
+        <v>0.133957</v>
       </c>
       <c r="D58" t="n">
-        <v>0.14409</v>
+        <v>0.144323</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165592</v>
+        <v>0.165711</v>
       </c>
       <c r="C59" t="n">
-        <v>0.135201</v>
+        <v>0.136193</v>
       </c>
       <c r="D59" t="n">
-        <v>0.143116</v>
+        <v>0.145003</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.169014</v>
+        <v>0.170038</v>
       </c>
       <c r="C60" t="n">
-        <v>0.136884</v>
+        <v>0.137147</v>
       </c>
       <c r="D60" t="n">
-        <v>0.146172</v>
+        <v>0.145519</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169081</v>
+        <v>0.175496</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138114</v>
+        <v>0.138477</v>
       </c>
       <c r="D61" t="n">
-        <v>0.147557</v>
+        <v>0.147232</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172899</v>
+        <v>0.174744</v>
       </c>
       <c r="C62" t="n">
-        <v>0.140081</v>
+        <v>0.139558</v>
       </c>
       <c r="D62" t="n">
-        <v>0.149522</v>
+        <v>0.149704</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.182766</v>
+        <v>0.183826</v>
       </c>
       <c r="C63" t="n">
-        <v>0.142284</v>
+        <v>0.142693</v>
       </c>
       <c r="D63" t="n">
-        <v>0.152751</v>
+        <v>0.152113</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18165</v>
+        <v>0.187708</v>
       </c>
       <c r="C64" t="n">
-        <v>0.145582</v>
+        <v>0.151324</v>
       </c>
       <c r="D64" t="n">
-        <v>0.157358</v>
+        <v>0.156945</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.18902</v>
+        <v>0.189995</v>
       </c>
       <c r="C65" t="n">
-        <v>0.153906</v>
+        <v>0.156749</v>
       </c>
       <c r="D65" t="n">
-        <v>0.16445</v>
+        <v>0.162936</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198347</v>
+        <v>0.205933</v>
       </c>
       <c r="C66" t="n">
-        <v>0.159585</v>
+        <v>0.163607</v>
       </c>
       <c r="D66" t="n">
-        <v>0.157343</v>
+        <v>0.156252</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178609</v>
+        <v>0.187968</v>
       </c>
       <c r="C67" t="n">
-        <v>0.147543</v>
+        <v>0.149106</v>
       </c>
       <c r="D67" t="n">
-        <v>0.156989</v>
+        <v>0.157312</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.18371</v>
+        <v>0.191687</v>
       </c>
       <c r="C68" t="n">
-        <v>0.150699</v>
+        <v>0.151077</v>
       </c>
       <c r="D68" t="n">
-        <v>0.158444</v>
+        <v>0.158877</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.183038</v>
+        <v>0.188696</v>
       </c>
       <c r="C69" t="n">
-        <v>0.150377</v>
+        <v>0.148132</v>
       </c>
       <c r="D69" t="n">
-        <v>0.158605</v>
+        <v>0.157368</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.181577</v>
+        <v>0.186298</v>
       </c>
       <c r="C70" t="n">
-        <v>0.15139</v>
+        <v>0.151663</v>
       </c>
       <c r="D70" t="n">
-        <v>0.158605</v>
+        <v>0.159225</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.186338</v>
+        <v>0.188228</v>
       </c>
       <c r="C71" t="n">
-        <v>0.152241</v>
+        <v>0.151846</v>
       </c>
       <c r="D71" t="n">
-        <v>0.159359</v>
+        <v>0.159027</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.188357</v>
+        <v>0.198224</v>
       </c>
       <c r="C72" t="n">
-        <v>0.151115</v>
+        <v>0.154621</v>
       </c>
       <c r="D72" t="n">
-        <v>0.158963</v>
+        <v>0.159633</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.190276</v>
+        <v>0.201643</v>
       </c>
       <c r="C73" t="n">
-        <v>0.153209</v>
+        <v>0.159057</v>
       </c>
       <c r="D73" t="n">
-        <v>0.160997</v>
+        <v>0.160696</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.186797</v>
+        <v>0.195231</v>
       </c>
       <c r="C74" t="n">
-        <v>0.153147</v>
+        <v>0.155016</v>
       </c>
       <c r="D74" t="n">
-        <v>0.161124</v>
+        <v>0.160932</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.192247</v>
+        <v>0.199041</v>
       </c>
       <c r="C75" t="n">
-        <v>0.153947</v>
+        <v>0.16041</v>
       </c>
       <c r="D75" t="n">
-        <v>0.162313</v>
+        <v>0.162016</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193235</v>
+        <v>0.197485</v>
       </c>
       <c r="C76" t="n">
-        <v>0.155511</v>
+        <v>0.15952</v>
       </c>
       <c r="D76" t="n">
-        <v>0.16309</v>
+        <v>0.164127</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194491</v>
+        <v>0.209662</v>
       </c>
       <c r="C77" t="n">
-        <v>0.163874</v>
+        <v>0.161201</v>
       </c>
       <c r="D77" t="n">
-        <v>0.166006</v>
+        <v>0.167544</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.201219</v>
+        <v>0.211632</v>
       </c>
       <c r="C78" t="n">
-        <v>0.165126</v>
+        <v>0.170294</v>
       </c>
       <c r="D78" t="n">
-        <v>0.169666</v>
+        <v>0.170026</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.204826</v>
+        <v>0.208937</v>
       </c>
       <c r="C79" t="n">
-        <v>0.164746</v>
+        <v>0.174891</v>
       </c>
       <c r="D79" t="n">
-        <v>0.175033</v>
+        <v>0.175981</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213848</v>
+        <v>0.216906</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168976</v>
+        <v>0.177673</v>
       </c>
       <c r="D80" t="n">
-        <v>0.229446</v>
+        <v>0.231424</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358102</v>
+        <v>0.367345</v>
       </c>
       <c r="C81" t="n">
-        <v>0.284936</v>
+        <v>0.284474</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232145</v>
+        <v>0.23372</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.358707</v>
+        <v>0.363718</v>
       </c>
       <c r="C82" t="n">
-        <v>0.284741</v>
+        <v>0.287345</v>
       </c>
       <c r="D82" t="n">
-        <v>0.230498</v>
+        <v>0.23357</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.363118</v>
+        <v>0.366476</v>
       </c>
       <c r="C83" t="n">
-        <v>0.280315</v>
+        <v>0.28222</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234725</v>
+        <v>0.23226</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.363587</v>
+        <v>0.36779</v>
       </c>
       <c r="C84" t="n">
-        <v>0.282113</v>
+        <v>0.279405</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231377</v>
+        <v>0.231737</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.36661</v>
+        <v>0.368239</v>
       </c>
       <c r="C85" t="n">
-        <v>0.278701</v>
+        <v>0.279594</v>
       </c>
       <c r="D85" t="n">
-        <v>0.232082</v>
+        <v>0.234324</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.370056</v>
+        <v>0.370108</v>
       </c>
       <c r="C86" t="n">
-        <v>0.280086</v>
+        <v>0.278814</v>
       </c>
       <c r="D86" t="n">
-        <v>0.232605</v>
+        <v>0.232132</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.367139</v>
+        <v>0.368156</v>
       </c>
       <c r="C87" t="n">
-        <v>0.276744</v>
+        <v>0.27823</v>
       </c>
       <c r="D87" t="n">
-        <v>0.233447</v>
+        <v>0.232391</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.368961</v>
+        <v>0.373673</v>
       </c>
       <c r="C88" t="n">
-        <v>0.276756</v>
+        <v>0.277093</v>
       </c>
       <c r="D88" t="n">
-        <v>0.231674</v>
+        <v>0.229593</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.366332</v>
+        <v>0.367134</v>
       </c>
       <c r="C89" t="n">
-        <v>0.279796</v>
+        <v>0.276696</v>
       </c>
       <c r="D89" t="n">
-        <v>0.231315</v>
+        <v>0.228631</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.371904</v>
+        <v>0.372446</v>
       </c>
       <c r="C90" t="n">
-        <v>0.273536</v>
+        <v>0.27574</v>
       </c>
       <c r="D90" t="n">
-        <v>0.227351</v>
+        <v>0.231566</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374171</v>
+        <v>0.372864</v>
       </c>
       <c r="C91" t="n">
-        <v>0.279511</v>
+        <v>0.274069</v>
       </c>
       <c r="D91" t="n">
-        <v>0.22882</v>
+        <v>0.229467</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.380455</v>
+        <v>0.377196</v>
       </c>
       <c r="C92" t="n">
-        <v>0.27676</v>
+        <v>0.276638</v>
       </c>
       <c r="D92" t="n">
-        <v>0.232142</v>
+        <v>0.230854</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381929</v>
+        <v>0.386883</v>
       </c>
       <c r="C93" t="n">
-        <v>0.279066</v>
+        <v>0.281813</v>
       </c>
       <c r="D93" t="n">
-        <v>0.234952</v>
+        <v>0.234123</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.389135</v>
+        <v>0.391485</v>
       </c>
       <c r="C94" t="n">
-        <v>0.284099</v>
+        <v>0.281182</v>
       </c>
       <c r="D94" t="n">
-        <v>0.394791</v>
+        <v>0.395484</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.532375</v>
+        <v>0.534567</v>
       </c>
       <c r="C95" t="n">
-        <v>0.452317</v>
+        <v>0.451615</v>
       </c>
       <c r="D95" t="n">
-        <v>0.39278</v>
+        <v>0.395169</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5329199999999999</v>
+        <v>0.535056</v>
       </c>
       <c r="C96" t="n">
-        <v>0.452047</v>
+        <v>0.451421</v>
       </c>
       <c r="D96" t="n">
-        <v>0.393466</v>
+        <v>0.393344</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.533617</v>
+        <v>0.535371</v>
       </c>
       <c r="C97" t="n">
-        <v>0.449849</v>
+        <v>0.45059</v>
       </c>
       <c r="D97" t="n">
-        <v>0.393912</v>
+        <v>0.393433</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.534666</v>
+        <v>0.533166</v>
       </c>
       <c r="C98" t="n">
-        <v>0.438077</v>
+        <v>0.450515</v>
       </c>
       <c r="D98" t="n">
-        <v>0.391774</v>
+        <v>0.39266</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.534124</v>
+        <v>0.534281</v>
       </c>
       <c r="C99" t="n">
-        <v>0.449111</v>
+        <v>0.450209</v>
       </c>
       <c r="D99" t="n">
-        <v>0.379699</v>
+        <v>0.392807</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5344950000000001</v>
+        <v>0.534753</v>
       </c>
       <c r="C100" t="n">
-        <v>0.448657</v>
+        <v>0.449632</v>
       </c>
       <c r="D100" t="n">
-        <v>0.391935</v>
+        <v>0.391785</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.535891</v>
+        <v>0.536731</v>
       </c>
       <c r="C101" t="n">
-        <v>0.44951</v>
+        <v>0.448805</v>
       </c>
       <c r="D101" t="n">
-        <v>0.378354</v>
+        <v>0.392732</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.537012</v>
+        <v>0.539195</v>
       </c>
       <c r="C102" t="n">
-        <v>0.450053</v>
+        <v>0.449943</v>
       </c>
       <c r="D102" t="n">
-        <v>0.380098</v>
+        <v>0.393014</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.539032</v>
+        <v>0.542195</v>
       </c>
       <c r="C103" t="n">
-        <v>0.437375</v>
+        <v>0.452661</v>
       </c>
       <c r="D103" t="n">
-        <v>0.394596</v>
+        <v>0.391867</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.541357</v>
+        <v>0.5413480000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.451022</v>
+        <v>0.451088</v>
       </c>
       <c r="D104" t="n">
-        <v>0.395604</v>
+        <v>0.394155</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.54378</v>
+        <v>0.545608</v>
       </c>
       <c r="C105" t="n">
-        <v>0.441518</v>
+        <v>0.449267</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395946</v>
+        <v>0.396566</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.547591</v>
+        <v>0.550917</v>
       </c>
       <c r="C106" t="n">
-        <v>0.44485</v>
+        <v>0.455206</v>
       </c>
       <c r="D106" t="n">
-        <v>0.399463</v>
+        <v>0.400564</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.553511</v>
+        <v>0.55586</v>
       </c>
       <c r="C107" t="n">
-        <v>0.458137</v>
+        <v>0.459752</v>
       </c>
       <c r="D107" t="n">
-        <v>0.40355</v>
+        <v>0.402673</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.560137</v>
+        <v>0.563848</v>
       </c>
       <c r="C108" t="n">
-        <v>0.460853</v>
+        <v>0.464714</v>
       </c>
       <c r="D108" t="n">
-        <v>0.528917</v>
+        <v>0.527921</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.574583</v>
+        <v>0.570662</v>
       </c>
       <c r="C109" t="n">
-        <v>0.472918</v>
+        <v>0.470651</v>
       </c>
       <c r="D109" t="n">
-        <v>0.532722</v>
+        <v>0.529487</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.610007</v>
+        <v>0.61238</v>
       </c>
       <c r="C110" t="n">
-        <v>0.557795</v>
+        <v>0.558124</v>
       </c>
       <c r="D110" t="n">
-        <v>0.529686</v>
+        <v>0.530297</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.61189</v>
+        <v>0.612438</v>
       </c>
       <c r="C111" t="n">
-        <v>0.557338</v>
+        <v>0.553049</v>
       </c>
       <c r="D111" t="n">
-        <v>0.524527</v>
+        <v>0.53151</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.611545</v>
+        <v>0.612916</v>
       </c>
       <c r="C112" t="n">
-        <v>0.55857</v>
+        <v>0.559536</v>
       </c>
       <c r="D112" t="n">
-        <v>0.534729</v>
+        <v>0.531802</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.61361</v>
+        <v>0.612042</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5599</v>
+        <v>0.56021</v>
       </c>
       <c r="D113" t="n">
-        <v>0.531488</v>
+        <v>0.527985</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.615445</v>
+        <v>0.615241</v>
       </c>
       <c r="C114" t="n">
-        <v>0.559733</v>
+        <v>0.560727</v>
       </c>
       <c r="D114" t="n">
-        <v>0.534237</v>
+        <v>0.527489</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.615158</v>
+        <v>0.615598</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5613</v>
+        <v>0.555485</v>
       </c>
       <c r="D115" t="n">
-        <v>0.533151</v>
+        <v>0.530101</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.621939</v>
+        <v>0.619995</v>
       </c>
       <c r="C116" t="n">
-        <v>0.562596</v>
+        <v>0.563802</v>
       </c>
       <c r="D116" t="n">
-        <v>0.535403</v>
+        <v>0.535567</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.620501</v>
+        <v>0.620957</v>
       </c>
       <c r="C117" t="n">
-        <v>0.558756</v>
+        <v>0.564372</v>
       </c>
       <c r="D117" t="n">
-        <v>0.537931</v>
+        <v>0.538438</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.625501</v>
+        <v>0.626448</v>
       </c>
       <c r="C118" t="n">
-        <v>0.566167</v>
+        <v>0.560934</v>
       </c>
       <c r="D118" t="n">
-        <v>0.538326</v>
+        <v>0.540608</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.62656</v>
+        <v>0.626741</v>
       </c>
       <c r="C119" t="n">
-        <v>0.566454</v>
+        <v>0.563578</v>
       </c>
       <c r="D119" t="n">
-        <v>0.543882</v>
+        <v>0.543351</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.634854</v>
+        <v>0.631732</v>
       </c>
       <c r="C120" t="n">
-        <v>0.571418</v>
+        <v>0.566936</v>
       </c>
       <c r="D120" t="n">
-        <v>0.547165</v>
+        <v>0.539896</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.637602</v>
+        <v>0.638699</v>
       </c>
       <c r="C121" t="n">
-        <v>0.57458</v>
+        <v>0.574363</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5512280000000001</v>
+        <v>0.552508</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.647181</v>
+        <v>0.650106</v>
       </c>
       <c r="C122" t="n">
-        <v>0.578307</v>
+        <v>0.581001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5555330000000001</v>
+        <v>0.5553</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.658687</v>
+        <v>0.657787</v>
       </c>
       <c r="C123" t="n">
-        <v>0.587874</v>
+        <v>0.589678</v>
       </c>
       <c r="D123" t="n">
-        <v>0.686385</v>
+        <v>0.690885</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.75184</v>
+        <v>0.753437</v>
       </c>
       <c r="C124" t="n">
-        <v>0.684249</v>
+        <v>0.686348</v>
       </c>
       <c r="D124" t="n">
-        <v>0.689589</v>
+        <v>0.692554</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7515540000000001</v>
+        <v>0.753717</v>
       </c>
       <c r="C125" t="n">
-        <v>0.683987</v>
+        <v>0.687774</v>
       </c>
       <c r="D125" t="n">
-        <v>0.691087</v>
+        <v>0.695155</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.75284</v>
+        <v>0.752493</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6841739999999999</v>
+        <v>0.688092</v>
       </c>
       <c r="D126" t="n">
-        <v>0.69228</v>
+        <v>0.692287</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.751204</v>
+        <v>0.75492</v>
       </c>
       <c r="C127" t="n">
-        <v>0.685307</v>
+        <v>0.687186</v>
       </c>
       <c r="D127" t="n">
-        <v>0.695065</v>
+        <v>0.695211</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.752638</v>
+        <v>0.755201</v>
       </c>
       <c r="C128" t="n">
-        <v>0.688943</v>
+        <v>0.689766</v>
       </c>
       <c r="D128" t="n">
-        <v>0.693644</v>
+        <v>0.696233</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.75725</v>
+        <v>0.757139</v>
       </c>
       <c r="C129" t="n">
-        <v>0.690918</v>
+        <v>0.694576</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6961349999999999</v>
+        <v>0.698762</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.756423</v>
+        <v>0.757545</v>
       </c>
       <c r="C130" t="n">
-        <v>0.693056</v>
+        <v>0.696542</v>
       </c>
       <c r="D130" t="n">
-        <v>0.696581</v>
+        <v>0.700753</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7576850000000001</v>
+        <v>0.7608740000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.693268</v>
+        <v>0.699103</v>
       </c>
       <c r="D131" t="n">
-        <v>0.695256</v>
+        <v>0.7025169999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.762509</v>
+        <v>0.764765</v>
       </c>
       <c r="C132" t="n">
-        <v>0.693005</v>
+        <v>0.702361</v>
       </c>
       <c r="D132" t="n">
-        <v>0.700624</v>
+        <v>0.701339</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.766643</v>
+        <v>0.770854</v>
       </c>
       <c r="C133" t="n">
-        <v>0.700485</v>
+        <v>0.703593</v>
       </c>
       <c r="D133" t="n">
-        <v>0.705431</v>
+        <v>0.707393</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.772466</v>
+        <v>0.775581</v>
       </c>
       <c r="C134" t="n">
-        <v>0.704168</v>
+        <v>0.708856</v>
       </c>
       <c r="D134" t="n">
-        <v>0.708068</v>
+        <v>0.711704</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.778489</v>
+        <v>0.780766</v>
       </c>
       <c r="C135" t="n">
-        <v>0.711046</v>
+        <v>0.712265</v>
       </c>
       <c r="D135" t="n">
-        <v>0.711218</v>
+        <v>0.71684</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.786189</v>
+        <v>0.78754</v>
       </c>
       <c r="C136" t="n">
-        <v>0.714573</v>
+        <v>0.724174</v>
       </c>
       <c r="D136" t="n">
-        <v>0.719469</v>
+        <v>0.723727</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.798372</v>
+        <v>0.802289</v>
       </c>
       <c r="C137" t="n">
-        <v>0.725295</v>
+        <v>0.729925</v>
       </c>
       <c r="D137" t="n">
-        <v>0.82567</v>
+        <v>0.826165</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.873173</v>
+        <v>0.8752180000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.804376</v>
+        <v>0.805351</v>
       </c>
       <c r="D138" t="n">
-        <v>0.825359</v>
+        <v>0.82827</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8729980000000001</v>
+        <v>0.875589</v>
       </c>
       <c r="C139" t="n">
-        <v>0.805167</v>
+        <v>0.8066179999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.826385</v>
+        <v>0.828667</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.873618</v>
+        <v>0.875786</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8091930000000001</v>
+        <v>0.806642</v>
       </c>
       <c r="D140" t="n">
-        <v>0.826716</v>
+        <v>0.8272659999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.875328</v>
+        <v>0.878368</v>
       </c>
       <c r="C141" t="n">
-        <v>0.809073</v>
+        <v>0.810519</v>
       </c>
       <c r="D141" t="n">
-        <v>0.826495</v>
+        <v>0.829539</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.875184</v>
+        <v>0.8788820000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.809687</v>
+        <v>0.8115289999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.82813</v>
+        <v>0.829423</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.876075</v>
+        <v>0.8804110000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>0.812154</v>
+        <v>0.814554</v>
       </c>
       <c r="D143" t="n">
-        <v>0.827558</v>
+        <v>0.828812</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.132653</v>
+        <v>0.119547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0897497</v>
+        <v>0.0923669</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0997326</v>
+        <v>0.101924</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.123898</v>
+        <v>0.118167</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0891735</v>
+        <v>0.0911124</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09964580000000001</v>
+        <v>0.100655</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.125486</v>
+        <v>0.119765</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0893775</v>
+        <v>0.09216340000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0998367</v>
+        <v>0.102396</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117707</v>
+        <v>0.122295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0902266</v>
+        <v>0.09248770000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.100486</v>
+        <v>0.10298</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11975</v>
+        <v>0.123947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0898838</v>
+        <v>0.09286419999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.100638</v>
+        <v>0.102234</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.131979</v>
+        <v>0.126776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0902602</v>
+        <v>0.09303</v>
       </c>
       <c r="D7" t="n">
-        <v>0.101447</v>
+        <v>0.102623</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.148034</v>
+        <v>0.132691</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09140769999999999</v>
+        <v>0.0928629</v>
       </c>
       <c r="D8" t="n">
-        <v>0.102991</v>
+        <v>0.103951</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.141258</v>
+        <v>0.144479</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0935037</v>
+        <v>0.0948794</v>
       </c>
       <c r="D9" t="n">
-        <v>0.106042</v>
+        <v>0.106188</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124177</v>
+        <v>0.125156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.098223</v>
+        <v>0.09793549999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.106359</v>
+        <v>0.106391</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.12983</v>
+        <v>0.130219</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09740649999999999</v>
+        <v>0.0983246</v>
       </c>
       <c r="D11" t="n">
-        <v>0.105984</v>
+        <v>0.106392</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124246</v>
+        <v>0.12562</v>
       </c>
       <c r="C12" t="n">
-        <v>0.098082</v>
+        <v>0.0986354</v>
       </c>
       <c r="D12" t="n">
-        <v>0.106146</v>
+        <v>0.107174</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.138985</v>
+        <v>0.127145</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0982604</v>
+        <v>0.0988825</v>
       </c>
       <c r="D13" t="n">
-        <v>0.106697</v>
+        <v>0.107631</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.131708</v>
+        <v>0.127678</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09826219999999999</v>
+        <v>0.09922259999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.106966</v>
+        <v>0.107514</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.133582</v>
+        <v>0.130831</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0983072</v>
+        <v>0.0993417</v>
       </c>
       <c r="D15" t="n">
-        <v>0.106701</v>
+        <v>0.108199</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126446</v>
+        <v>0.129396</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0987532</v>
+        <v>0.09962749999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107096</v>
+        <v>0.108712</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127833</v>
+        <v>0.131555</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09901790000000001</v>
+        <v>0.0997257</v>
       </c>
       <c r="D17" t="n">
-        <v>0.107905</v>
+        <v>0.109279</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.135094</v>
+        <v>0.131739</v>
       </c>
       <c r="C18" t="n">
-        <v>0.10001</v>
+        <v>0.100182</v>
       </c>
       <c r="D18" t="n">
-        <v>0.10772</v>
+        <v>0.109018</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13807</v>
+        <v>0.135336</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0997369</v>
+        <v>0.100611</v>
       </c>
       <c r="D19" t="n">
-        <v>0.108263</v>
+        <v>0.109856</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.141259</v>
+        <v>0.139894</v>
       </c>
       <c r="C20" t="n">
-        <v>0.101261</v>
+        <v>0.100911</v>
       </c>
       <c r="D20" t="n">
-        <v>0.108902</v>
+        <v>0.110647</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.147246</v>
+        <v>0.142963</v>
       </c>
       <c r="C21" t="n">
-        <v>0.100977</v>
+        <v>0.101953</v>
       </c>
       <c r="D21" t="n">
-        <v>0.110022</v>
+        <v>0.111192</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.148145</v>
+        <v>0.160118</v>
       </c>
       <c r="C22" t="n">
-        <v>0.104118</v>
+        <v>0.106095</v>
       </c>
       <c r="D22" t="n">
-        <v>0.114547</v>
+        <v>0.116511</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165619</v>
+        <v>0.161756</v>
       </c>
       <c r="C23" t="n">
-        <v>0.112186</v>
+        <v>0.113694</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116452</v>
+        <v>0.116582</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134895</v>
+        <v>0.134153</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108005</v>
+        <v>0.107723</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116043</v>
+        <v>0.117413</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.140276</v>
+        <v>0.135119</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109094</v>
+        <v>0.109187</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116198</v>
+        <v>0.116485</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134889</v>
+        <v>0.135615</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108406</v>
+        <v>0.108445</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116318</v>
+        <v>0.117932</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135443</v>
+        <v>0.135766</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109393</v>
+        <v>0.109752</v>
       </c>
       <c r="D27" t="n">
-        <v>0.116581</v>
+        <v>0.118151</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136207</v>
+        <v>0.144159</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108827</v>
+        <v>0.109819</v>
       </c>
       <c r="D28" t="n">
-        <v>0.116463</v>
+        <v>0.118492</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.145288</v>
+        <v>0.145766</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109218</v>
+        <v>0.109964</v>
       </c>
       <c r="D29" t="n">
-        <v>0.116588</v>
+        <v>0.119674</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.144689</v>
+        <v>0.152061</v>
       </c>
       <c r="C30" t="n">
-        <v>0.109116</v>
+        <v>0.11185</v>
       </c>
       <c r="D30" t="n">
-        <v>0.116983</v>
+        <v>0.118332</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.140843</v>
+        <v>0.141062</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109572</v>
+        <v>0.110369</v>
       </c>
       <c r="D31" t="n">
-        <v>0.11726</v>
+        <v>0.118955</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.14206</v>
+        <v>0.160077</v>
       </c>
       <c r="C32" t="n">
-        <v>0.110054</v>
+        <v>0.111733</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117634</v>
+        <v>0.119065</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.151084</v>
+        <v>0.150347</v>
       </c>
       <c r="C33" t="n">
-        <v>0.112772</v>
+        <v>0.113663</v>
       </c>
       <c r="D33" t="n">
-        <v>0.118687</v>
+        <v>0.119646</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154665</v>
+        <v>0.151059</v>
       </c>
       <c r="C34" t="n">
-        <v>0.114714</v>
+        <v>0.116288</v>
       </c>
       <c r="D34" t="n">
-        <v>0.119315</v>
+        <v>0.119977</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.151955</v>
+        <v>0.15253</v>
       </c>
       <c r="C35" t="n">
-        <v>0.121639</v>
+        <v>0.11967</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125625</v>
+        <v>0.124495</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.166082</v>
+        <v>0.163228</v>
       </c>
       <c r="C36" t="n">
-        <v>0.123732</v>
+        <v>0.123437</v>
       </c>
       <c r="D36" t="n">
-        <v>0.133591</v>
+        <v>0.132734</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.179123</v>
+        <v>0.183158</v>
       </c>
       <c r="C37" t="n">
-        <v>0.127148</v>
+        <v>0.129114</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128238</v>
+        <v>0.127186</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.149291</v>
+        <v>0.148896</v>
       </c>
       <c r="C38" t="n">
-        <v>0.119934</v>
+        <v>0.119278</v>
       </c>
       <c r="D38" t="n">
-        <v>0.129803</v>
+        <v>0.130115</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.152529</v>
+        <v>0.147493</v>
       </c>
       <c r="C39" t="n">
-        <v>0.120656</v>
+        <v>0.119088</v>
       </c>
       <c r="D39" t="n">
-        <v>0.130187</v>
+        <v>0.129456</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.149651</v>
+        <v>0.14866</v>
       </c>
       <c r="C40" t="n">
-        <v>0.12027</v>
+        <v>0.118743</v>
       </c>
       <c r="D40" t="n">
-        <v>0.128602</v>
+        <v>0.126323</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.152992</v>
+        <v>0.15014</v>
       </c>
       <c r="C41" t="n">
-        <v>0.120147</v>
+        <v>0.119296</v>
       </c>
       <c r="D41" t="n">
-        <v>0.130014</v>
+        <v>0.126145</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.156034</v>
+        <v>0.152302</v>
       </c>
       <c r="C42" t="n">
-        <v>0.121202</v>
+        <v>0.120031</v>
       </c>
       <c r="D42" t="n">
-        <v>0.130038</v>
+        <v>0.126347</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149632</v>
+        <v>0.153208</v>
       </c>
       <c r="C43" t="n">
-        <v>0.120886</v>
+        <v>0.121566</v>
       </c>
       <c r="D43" t="n">
-        <v>0.129575</v>
+        <v>0.127439</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.157303</v>
+        <v>0.153796</v>
       </c>
       <c r="C44" t="n">
-        <v>0.122251</v>
+        <v>0.122559</v>
       </c>
       <c r="D44" t="n">
-        <v>0.130008</v>
+        <v>0.127836</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.158849</v>
+        <v>0.15307</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124788</v>
+        <v>0.124712</v>
       </c>
       <c r="D45" t="n">
-        <v>0.130635</v>
+        <v>0.131328</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155661</v>
+        <v>0.157121</v>
       </c>
       <c r="C46" t="n">
-        <v>0.12634</v>
+        <v>0.125702</v>
       </c>
       <c r="D46" t="n">
-        <v>0.130989</v>
+        <v>0.131109</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.163526</v>
+        <v>0.161556</v>
       </c>
       <c r="C47" t="n">
-        <v>0.127422</v>
+        <v>0.12766</v>
       </c>
       <c r="D47" t="n">
-        <v>0.13131</v>
+        <v>0.132279</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160857</v>
+        <v>0.160894</v>
       </c>
       <c r="C48" t="n">
-        <v>0.13018</v>
+        <v>0.12971</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13466</v>
+        <v>0.132572</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172805</v>
+        <v>0.166182</v>
       </c>
       <c r="C49" t="n">
-        <v>0.137359</v>
+        <v>0.131796</v>
       </c>
       <c r="D49" t="n">
-        <v>0.138341</v>
+        <v>0.136191</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.177096</v>
+        <v>0.169645</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136886</v>
+        <v>0.134974</v>
       </c>
       <c r="D50" t="n">
-        <v>0.142781</v>
+        <v>0.144124</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.184689</v>
+        <v>0.179261</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138086</v>
+        <v>0.139003</v>
       </c>
       <c r="D51" t="n">
-        <v>0.143667</v>
+        <v>0.140222</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.195242</v>
+        <v>0.18803</v>
       </c>
       <c r="C52" t="n">
-        <v>0.152205</v>
+        <v>0.145413</v>
       </c>
       <c r="D52" t="n">
-        <v>0.143363</v>
+        <v>0.139808</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160932</v>
+        <v>0.16038</v>
       </c>
       <c r="C53" t="n">
-        <v>0.129919</v>
+        <v>0.127687</v>
       </c>
       <c r="D53" t="n">
-        <v>0.143297</v>
+        <v>0.14111</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161777</v>
+        <v>0.161312</v>
       </c>
       <c r="C54" t="n">
-        <v>0.131099</v>
+        <v>0.128476</v>
       </c>
       <c r="D54" t="n">
-        <v>0.143129</v>
+        <v>0.142312</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.162845</v>
+        <v>0.161386</v>
       </c>
       <c r="C55" t="n">
-        <v>0.13187</v>
+        <v>0.129437</v>
       </c>
       <c r="D55" t="n">
-        <v>0.14329</v>
+        <v>0.143581</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.166835</v>
+        <v>0.16295</v>
       </c>
       <c r="C56" t="n">
-        <v>0.131322</v>
+        <v>0.129461</v>
       </c>
       <c r="D56" t="n">
-        <v>0.143415</v>
+        <v>0.144025</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.169736</v>
+        <v>0.163938</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133911</v>
+        <v>0.132043</v>
       </c>
       <c r="D57" t="n">
-        <v>0.143757</v>
+        <v>0.143872</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.16368</v>
+        <v>0.165113</v>
       </c>
       <c r="C58" t="n">
-        <v>0.133957</v>
+        <v>0.132987</v>
       </c>
       <c r="D58" t="n">
-        <v>0.144323</v>
+        <v>0.142971</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165711</v>
+        <v>0.166515</v>
       </c>
       <c r="C59" t="n">
-        <v>0.136193</v>
+        <v>0.135099</v>
       </c>
       <c r="D59" t="n">
-        <v>0.145003</v>
+        <v>0.144359</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.170038</v>
+        <v>0.168248</v>
       </c>
       <c r="C60" t="n">
-        <v>0.137147</v>
+        <v>0.136746</v>
       </c>
       <c r="D60" t="n">
-        <v>0.145519</v>
+        <v>0.145479</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.175496</v>
+        <v>0.171169</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138477</v>
+        <v>0.13902</v>
       </c>
       <c r="D61" t="n">
-        <v>0.147232</v>
+        <v>0.147613</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174744</v>
+        <v>0.17318</v>
       </c>
       <c r="C62" t="n">
-        <v>0.139558</v>
+        <v>0.13935</v>
       </c>
       <c r="D62" t="n">
-        <v>0.149704</v>
+        <v>0.150045</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.183826</v>
+        <v>0.177141</v>
       </c>
       <c r="C63" t="n">
-        <v>0.142693</v>
+        <v>0.142216</v>
       </c>
       <c r="D63" t="n">
-        <v>0.152113</v>
+        <v>0.152168</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187708</v>
+        <v>0.181625</v>
       </c>
       <c r="C64" t="n">
-        <v>0.151324</v>
+        <v>0.144122</v>
       </c>
       <c r="D64" t="n">
-        <v>0.156945</v>
+        <v>0.155346</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189995</v>
+        <v>0.191732</v>
       </c>
       <c r="C65" t="n">
-        <v>0.156749</v>
+        <v>0.155069</v>
       </c>
       <c r="D65" t="n">
-        <v>0.162936</v>
+        <v>0.163563</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.205933</v>
+        <v>0.199348</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163607</v>
+        <v>0.162023</v>
       </c>
       <c r="D66" t="n">
-        <v>0.156252</v>
+        <v>0.158609</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.187968</v>
+        <v>0.190671</v>
       </c>
       <c r="C67" t="n">
-        <v>0.149106</v>
+        <v>0.150061</v>
       </c>
       <c r="D67" t="n">
-        <v>0.157312</v>
+        <v>0.157966</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.191687</v>
+        <v>0.184274</v>
       </c>
       <c r="C68" t="n">
-        <v>0.151077</v>
+        <v>0.149743</v>
       </c>
       <c r="D68" t="n">
-        <v>0.158877</v>
+        <v>0.160111</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.188696</v>
+        <v>0.188087</v>
       </c>
       <c r="C69" t="n">
-        <v>0.148132</v>
+        <v>0.151192</v>
       </c>
       <c r="D69" t="n">
-        <v>0.157368</v>
+        <v>0.158441</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.186298</v>
+        <v>0.187436</v>
       </c>
       <c r="C70" t="n">
-        <v>0.151663</v>
+        <v>0.150867</v>
       </c>
       <c r="D70" t="n">
-        <v>0.159225</v>
+        <v>0.159889</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.188228</v>
+        <v>0.185849</v>
       </c>
       <c r="C71" t="n">
-        <v>0.151846</v>
+        <v>0.150081</v>
       </c>
       <c r="D71" t="n">
-        <v>0.159027</v>
+        <v>0.158365</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.198224</v>
+        <v>0.185115</v>
       </c>
       <c r="C72" t="n">
-        <v>0.154621</v>
+        <v>0.151596</v>
       </c>
       <c r="D72" t="n">
-        <v>0.159633</v>
+        <v>0.159089</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.201643</v>
+        <v>0.18798</v>
       </c>
       <c r="C73" t="n">
-        <v>0.159057</v>
+        <v>0.151741</v>
       </c>
       <c r="D73" t="n">
-        <v>0.160696</v>
+        <v>0.160367</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.195231</v>
+        <v>0.189813</v>
       </c>
       <c r="C74" t="n">
-        <v>0.155016</v>
+        <v>0.154294</v>
       </c>
       <c r="D74" t="n">
-        <v>0.160932</v>
+        <v>0.160813</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.199041</v>
+        <v>0.191646</v>
       </c>
       <c r="C75" t="n">
-        <v>0.16041</v>
+        <v>0.156628</v>
       </c>
       <c r="D75" t="n">
-        <v>0.162016</v>
+        <v>0.161642</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197485</v>
+        <v>0.194882</v>
       </c>
       <c r="C76" t="n">
-        <v>0.15952</v>
+        <v>0.158916</v>
       </c>
       <c r="D76" t="n">
-        <v>0.164127</v>
+        <v>0.164968</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.209662</v>
+        <v>0.197342</v>
       </c>
       <c r="C77" t="n">
-        <v>0.161201</v>
+        <v>0.159529</v>
       </c>
       <c r="D77" t="n">
-        <v>0.167544</v>
+        <v>0.166705</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.211632</v>
+        <v>0.2019</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170294</v>
+        <v>0.163659</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170026</v>
+        <v>0.170855</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.208937</v>
+        <v>0.209799</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174891</v>
+        <v>0.166269</v>
       </c>
       <c r="D79" t="n">
-        <v>0.175981</v>
+        <v>0.175454</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216906</v>
+        <v>0.219916</v>
       </c>
       <c r="C80" t="n">
-        <v>0.177673</v>
+        <v>0.177943</v>
       </c>
       <c r="D80" t="n">
-        <v>0.231424</v>
+        <v>0.243343</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.367345</v>
+        <v>0.387175</v>
       </c>
       <c r="C81" t="n">
-        <v>0.284474</v>
+        <v>0.306949</v>
       </c>
       <c r="D81" t="n">
-        <v>0.23372</v>
+        <v>0.243042</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.363718</v>
+        <v>0.395485</v>
       </c>
       <c r="C82" t="n">
-        <v>0.287345</v>
+        <v>0.306251</v>
       </c>
       <c r="D82" t="n">
-        <v>0.23357</v>
+        <v>0.250495</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.366476</v>
+        <v>0.387889</v>
       </c>
       <c r="C83" t="n">
-        <v>0.28222</v>
+        <v>0.30927</v>
       </c>
       <c r="D83" t="n">
-        <v>0.23226</v>
+        <v>0.242851</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.36779</v>
+        <v>0.393256</v>
       </c>
       <c r="C84" t="n">
-        <v>0.279405</v>
+        <v>0.300134</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231737</v>
+        <v>0.245617</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.368239</v>
+        <v>0.392828</v>
       </c>
       <c r="C85" t="n">
-        <v>0.279594</v>
+        <v>0.302548</v>
       </c>
       <c r="D85" t="n">
-        <v>0.234324</v>
+        <v>0.242469</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.370108</v>
+        <v>0.397145</v>
       </c>
       <c r="C86" t="n">
-        <v>0.278814</v>
+        <v>0.301188</v>
       </c>
       <c r="D86" t="n">
-        <v>0.232132</v>
+        <v>0.243435</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.368156</v>
+        <v>0.389748</v>
       </c>
       <c r="C87" t="n">
-        <v>0.27823</v>
+        <v>0.297214</v>
       </c>
       <c r="D87" t="n">
-        <v>0.232391</v>
+        <v>0.240732</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.373673</v>
+        <v>0.396791</v>
       </c>
       <c r="C88" t="n">
-        <v>0.277093</v>
+        <v>0.294662</v>
       </c>
       <c r="D88" t="n">
-        <v>0.229593</v>
+        <v>0.239598</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.367134</v>
+        <v>0.398926</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276696</v>
+        <v>0.292015</v>
       </c>
       <c r="D89" t="n">
-        <v>0.228631</v>
+        <v>0.237606</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372446</v>
+        <v>0.408052</v>
       </c>
       <c r="C90" t="n">
-        <v>0.27574</v>
+        <v>0.295843</v>
       </c>
       <c r="D90" t="n">
-        <v>0.231566</v>
+        <v>0.237523</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.372864</v>
+        <v>0.399464</v>
       </c>
       <c r="C91" t="n">
-        <v>0.274069</v>
+        <v>0.294591</v>
       </c>
       <c r="D91" t="n">
-        <v>0.229467</v>
+        <v>0.236609</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.377196</v>
+        <v>0.404565</v>
       </c>
       <c r="C92" t="n">
-        <v>0.276638</v>
+        <v>0.297221</v>
       </c>
       <c r="D92" t="n">
-        <v>0.230854</v>
+        <v>0.239154</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.386883</v>
+        <v>0.407231</v>
       </c>
       <c r="C93" t="n">
-        <v>0.281813</v>
+        <v>0.297966</v>
       </c>
       <c r="D93" t="n">
-        <v>0.234123</v>
+        <v>0.242257</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.391485</v>
+        <v>0.418422</v>
       </c>
       <c r="C94" t="n">
-        <v>0.281182</v>
+        <v>0.306512</v>
       </c>
       <c r="D94" t="n">
-        <v>0.395484</v>
+        <v>0.420846</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.534567</v>
+        <v>0.568316</v>
       </c>
       <c r="C95" t="n">
-        <v>0.451615</v>
+        <v>0.48555</v>
       </c>
       <c r="D95" t="n">
-        <v>0.395169</v>
+        <v>0.41948</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.535056</v>
+        <v>0.568671</v>
       </c>
       <c r="C96" t="n">
-        <v>0.451421</v>
+        <v>0.48447</v>
       </c>
       <c r="D96" t="n">
-        <v>0.393344</v>
+        <v>0.418119</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.535371</v>
+        <v>0.569268</v>
       </c>
       <c r="C97" t="n">
-        <v>0.45059</v>
+        <v>0.483557</v>
       </c>
       <c r="D97" t="n">
-        <v>0.393433</v>
+        <v>0.408546</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.533166</v>
+        <v>0.5702739999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.450515</v>
+        <v>0.481911</v>
       </c>
       <c r="D98" t="n">
-        <v>0.39266</v>
+        <v>0.417596</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.534281</v>
+        <v>0.570766</v>
       </c>
       <c r="C99" t="n">
-        <v>0.450209</v>
+        <v>0.482595</v>
       </c>
       <c r="D99" t="n">
-        <v>0.392807</v>
+        <v>0.416435</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.534753</v>
+        <v>0.571333</v>
       </c>
       <c r="C100" t="n">
-        <v>0.449632</v>
+        <v>0.482327</v>
       </c>
       <c r="D100" t="n">
-        <v>0.391785</v>
+        <v>0.417815</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.536731</v>
+        <v>0.5722969999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.448805</v>
+        <v>0.481581</v>
       </c>
       <c r="D101" t="n">
-        <v>0.392732</v>
+        <v>0.41808</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.539195</v>
+        <v>0.573505</v>
       </c>
       <c r="C102" t="n">
-        <v>0.449943</v>
+        <v>0.482196</v>
       </c>
       <c r="D102" t="n">
-        <v>0.393014</v>
+        <v>0.417335</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.542195</v>
+        <v>0.576464</v>
       </c>
       <c r="C103" t="n">
-        <v>0.452661</v>
+        <v>0.474362</v>
       </c>
       <c r="D103" t="n">
-        <v>0.391867</v>
+        <v>0.418402</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5413480000000001</v>
+        <v>0.578673</v>
       </c>
       <c r="C104" t="n">
-        <v>0.451088</v>
+        <v>0.483685</v>
       </c>
       <c r="D104" t="n">
-        <v>0.394155</v>
+        <v>0.42036</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.545608</v>
+        <v>0.581254</v>
       </c>
       <c r="C105" t="n">
-        <v>0.449267</v>
+        <v>0.484549</v>
       </c>
       <c r="D105" t="n">
-        <v>0.396566</v>
+        <v>0.41245</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.550917</v>
+        <v>0.584695</v>
       </c>
       <c r="C106" t="n">
-        <v>0.455206</v>
+        <v>0.477896</v>
       </c>
       <c r="D106" t="n">
-        <v>0.400564</v>
+        <v>0.424368</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.55586</v>
+        <v>0.590691</v>
       </c>
       <c r="C107" t="n">
-        <v>0.459752</v>
+        <v>0.490512</v>
       </c>
       <c r="D107" t="n">
-        <v>0.402673</v>
+        <v>0.431553</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.563848</v>
+        <v>0.597901</v>
       </c>
       <c r="C108" t="n">
-        <v>0.464714</v>
+        <v>0.496862</v>
       </c>
       <c r="D108" t="n">
-        <v>0.527921</v>
+        <v>0.568898</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.570662</v>
+        <v>0.609851</v>
       </c>
       <c r="C109" t="n">
-        <v>0.470651</v>
+        <v>0.505969</v>
       </c>
       <c r="D109" t="n">
-        <v>0.529487</v>
+        <v>0.564126</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.61238</v>
+        <v>0.653708</v>
       </c>
       <c r="C110" t="n">
-        <v>0.558124</v>
+        <v>0.595011</v>
       </c>
       <c r="D110" t="n">
-        <v>0.530297</v>
+        <v>0.5697140000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.612438</v>
+        <v>0.652312</v>
       </c>
       <c r="C111" t="n">
-        <v>0.553049</v>
+        <v>0.599809</v>
       </c>
       <c r="D111" t="n">
-        <v>0.53151</v>
+        <v>0.568237</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.612916</v>
+        <v>0.656226</v>
       </c>
       <c r="C112" t="n">
-        <v>0.559536</v>
+        <v>0.60085</v>
       </c>
       <c r="D112" t="n">
-        <v>0.531802</v>
+        <v>0.569045</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.612042</v>
+        <v>0.659121</v>
       </c>
       <c r="C113" t="n">
-        <v>0.56021</v>
+        <v>0.597377</v>
       </c>
       <c r="D113" t="n">
-        <v>0.527985</v>
+        <v>0.571198</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.615241</v>
+        <v>0.658662</v>
       </c>
       <c r="C114" t="n">
-        <v>0.560727</v>
+        <v>0.597975</v>
       </c>
       <c r="D114" t="n">
-        <v>0.527489</v>
+        <v>0.571791</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.615598</v>
+        <v>0.657574</v>
       </c>
       <c r="C115" t="n">
-        <v>0.555485</v>
+        <v>0.60271</v>
       </c>
       <c r="D115" t="n">
-        <v>0.530101</v>
+        <v>0.567356</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.619995</v>
+        <v>0.659154</v>
       </c>
       <c r="C116" t="n">
-        <v>0.563802</v>
+        <v>0.604564</v>
       </c>
       <c r="D116" t="n">
-        <v>0.535567</v>
+        <v>0.574773</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.620957</v>
+        <v>0.661227</v>
       </c>
       <c r="C117" t="n">
-        <v>0.564372</v>
+        <v>0.606069</v>
       </c>
       <c r="D117" t="n">
-        <v>0.538438</v>
+        <v>0.577384</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626448</v>
+        <v>0.666129</v>
       </c>
       <c r="C118" t="n">
-        <v>0.560934</v>
+        <v>0.607374</v>
       </c>
       <c r="D118" t="n">
-        <v>0.540608</v>
+        <v>0.572234</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.626741</v>
+        <v>0.669199</v>
       </c>
       <c r="C119" t="n">
-        <v>0.563578</v>
+        <v>0.612243</v>
       </c>
       <c r="D119" t="n">
-        <v>0.543351</v>
+        <v>0.583025</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.631732</v>
+        <v>0.678972</v>
       </c>
       <c r="C120" t="n">
-        <v>0.566936</v>
+        <v>0.613797</v>
       </c>
       <c r="D120" t="n">
-        <v>0.539896</v>
+        <v>0.585906</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.638699</v>
+        <v>0.685425</v>
       </c>
       <c r="C121" t="n">
-        <v>0.574363</v>
+        <v>0.619856</v>
       </c>
       <c r="D121" t="n">
-        <v>0.552508</v>
+        <v>0.588399</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.650106</v>
+        <v>0.690989</v>
       </c>
       <c r="C122" t="n">
-        <v>0.581001</v>
+        <v>0.623964</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5553</v>
+        <v>0.601054</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.657787</v>
+        <v>0.707158</v>
       </c>
       <c r="C123" t="n">
-        <v>0.589678</v>
+        <v>0.634135</v>
       </c>
       <c r="D123" t="n">
-        <v>0.690885</v>
+        <v>0.746018</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.753437</v>
+        <v>0.806229</v>
       </c>
       <c r="C124" t="n">
-        <v>0.686348</v>
+        <v>0.741049</v>
       </c>
       <c r="D124" t="n">
-        <v>0.692554</v>
+        <v>0.746499</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.753717</v>
+        <v>0.80627</v>
       </c>
       <c r="C125" t="n">
-        <v>0.687774</v>
+        <v>0.7438940000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.695155</v>
+        <v>0.748607</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.752493</v>
+        <v>0.809435</v>
       </c>
       <c r="C126" t="n">
-        <v>0.688092</v>
+        <v>0.744228</v>
       </c>
       <c r="D126" t="n">
-        <v>0.692287</v>
+        <v>0.750055</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.75492</v>
+        <v>0.810598</v>
       </c>
       <c r="C127" t="n">
-        <v>0.687186</v>
+        <v>0.744575</v>
       </c>
       <c r="D127" t="n">
-        <v>0.695211</v>
+        <v>0.749118</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.755201</v>
+        <v>0.811204</v>
       </c>
       <c r="C128" t="n">
-        <v>0.689766</v>
+        <v>0.7474499999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.696233</v>
+        <v>0.752952</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.757139</v>
+        <v>0.813272</v>
       </c>
       <c r="C129" t="n">
-        <v>0.694576</v>
+        <v>0.7480329999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.698762</v>
+        <v>0.753782</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.757545</v>
+        <v>0.813791</v>
       </c>
       <c r="C130" t="n">
-        <v>0.696542</v>
+        <v>0.7477200000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.700753</v>
+        <v>0.755387</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7608740000000001</v>
+        <v>0.815414</v>
       </c>
       <c r="C131" t="n">
-        <v>0.699103</v>
+        <v>0.75263</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7025169999999999</v>
+        <v>0.755342</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.764765</v>
+        <v>0.821221</v>
       </c>
       <c r="C132" t="n">
-        <v>0.702361</v>
+        <v>0.7560210000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.701339</v>
+        <v>0.758455</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.770854</v>
+        <v>0.824829</v>
       </c>
       <c r="C133" t="n">
-        <v>0.703593</v>
+        <v>0.755845</v>
       </c>
       <c r="D133" t="n">
-        <v>0.707393</v>
+        <v>0.761332</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.775581</v>
+        <v>0.829631</v>
       </c>
       <c r="C134" t="n">
-        <v>0.708856</v>
+        <v>0.761588</v>
       </c>
       <c r="D134" t="n">
-        <v>0.711704</v>
+        <v>0.767852</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.780766</v>
+        <v>0.8344009999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.712265</v>
+        <v>0.765524</v>
       </c>
       <c r="D135" t="n">
-        <v>0.71684</v>
+        <v>0.773582</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.78754</v>
+        <v>0.846278</v>
       </c>
       <c r="C136" t="n">
-        <v>0.724174</v>
+        <v>0.775979</v>
       </c>
       <c r="D136" t="n">
-        <v>0.723727</v>
+        <v>0.781196</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.802289</v>
+        <v>0.858407</v>
       </c>
       <c r="C137" t="n">
-        <v>0.729925</v>
+        <v>0.7891089999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.826165</v>
+        <v>0.895559</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8752180000000001</v>
+        <v>0.944265</v>
       </c>
       <c r="C138" t="n">
-        <v>0.805351</v>
+        <v>0.873526</v>
       </c>
       <c r="D138" t="n">
-        <v>0.82827</v>
+        <v>0.893279</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.875589</v>
+        <v>0.945169</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8066179999999999</v>
+        <v>0.8752180000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.828667</v>
+        <v>0.89603</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.875786</v>
+        <v>0.944571</v>
       </c>
       <c r="C140" t="n">
-        <v>0.806642</v>
+        <v>0.876566</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8272659999999999</v>
+        <v>0.895885</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.878368</v>
+        <v>0.9455789999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>0.810519</v>
+        <v>0.877131</v>
       </c>
       <c r="D141" t="n">
-        <v>0.829539</v>
+        <v>0.8955689999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8788820000000001</v>
+        <v>0.947478</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8115289999999999</v>
+        <v>0.878628</v>
       </c>
       <c r="D142" t="n">
-        <v>0.829423</v>
+        <v>0.89561</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8804110000000001</v>
+        <v>0.948807</v>
       </c>
       <c r="C143" t="n">
-        <v>0.814554</v>
+        <v>0.880485</v>
       </c>
       <c r="D143" t="n">
-        <v>0.828812</v>
+        <v>0.897949</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.119547</v>
+        <v>0.115672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0923669</v>
+        <v>0.0892355</v>
       </c>
       <c r="D2" t="n">
-        <v>0.101924</v>
+        <v>0.099768</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.118167</v>
+        <v>0.116362</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0911124</v>
+        <v>0.0893658</v>
       </c>
       <c r="D3" t="n">
-        <v>0.100655</v>
+        <v>0.100004</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.119765</v>
+        <v>0.117546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09216340000000001</v>
+        <v>0.0899654</v>
       </c>
       <c r="D4" t="n">
-        <v>0.102396</v>
+        <v>0.100479</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.122295</v>
+        <v>0.118417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09248770000000001</v>
+        <v>0.0901772</v>
       </c>
       <c r="D5" t="n">
-        <v>0.10298</v>
+        <v>0.100724</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123947</v>
+        <v>0.12078</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09286419999999999</v>
+        <v>0.0899861</v>
       </c>
       <c r="D6" t="n">
-        <v>0.102234</v>
+        <v>0.100997</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.126776</v>
+        <v>0.124052</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09303</v>
+        <v>0.0904546</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102623</v>
+        <v>0.101591</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.132691</v>
+        <v>0.13127</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0928629</v>
+        <v>0.0915658</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103951</v>
+        <v>0.103239</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.144479</v>
+        <v>0.142224</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0948794</v>
+        <v>0.09296500000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.106188</v>
+        <v>0.10725</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125156</v>
+        <v>0.132863</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09793549999999999</v>
+        <v>0.0992847</v>
       </c>
       <c r="D10" t="n">
-        <v>0.106391</v>
+        <v>0.107459</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.130219</v>
+        <v>0.134535</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0983246</v>
+        <v>0.09825730000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.106392</v>
+        <v>0.107005</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.12562</v>
+        <v>0.132456</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0986354</v>
+        <v>0.0989392</v>
       </c>
       <c r="D12" t="n">
-        <v>0.107174</v>
+        <v>0.107257</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.127145</v>
+        <v>0.130219</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0988825</v>
+        <v>0.100348</v>
       </c>
       <c r="D13" t="n">
-        <v>0.107631</v>
+        <v>0.107281</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127678</v>
+        <v>0.12994</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09922259999999999</v>
+        <v>0.099022</v>
       </c>
       <c r="D14" t="n">
-        <v>0.107514</v>
+        <v>0.107416</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.130831</v>
+        <v>0.127913</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0993417</v>
+        <v>0.0990403</v>
       </c>
       <c r="D15" t="n">
-        <v>0.108199</v>
+        <v>0.107206</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.129396</v>
+        <v>0.132693</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09962749999999999</v>
+        <v>0.09945610000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.108712</v>
+        <v>0.110016</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131555</v>
+        <v>0.133308</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0997257</v>
+        <v>0.0989174</v>
       </c>
       <c r="D17" t="n">
-        <v>0.109279</v>
+        <v>0.108496</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.131739</v>
+        <v>0.14342</v>
       </c>
       <c r="C18" t="n">
-        <v>0.100182</v>
+        <v>0.100284</v>
       </c>
       <c r="D18" t="n">
-        <v>0.109018</v>
+        <v>0.108209</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135336</v>
+        <v>0.13835</v>
       </c>
       <c r="C19" t="n">
-        <v>0.100611</v>
+        <v>0.100241</v>
       </c>
       <c r="D19" t="n">
-        <v>0.109856</v>
+        <v>0.108803</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.139894</v>
+        <v>0.135907</v>
       </c>
       <c r="C20" t="n">
-        <v>0.100911</v>
+        <v>0.101378</v>
       </c>
       <c r="D20" t="n">
-        <v>0.110647</v>
+        <v>0.110956</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.142963</v>
+        <v>0.141276</v>
       </c>
       <c r="C21" t="n">
-        <v>0.101953</v>
+        <v>0.102013</v>
       </c>
       <c r="D21" t="n">
-        <v>0.111192</v>
+        <v>0.110801</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.160118</v>
+        <v>0.158475</v>
       </c>
       <c r="C22" t="n">
-        <v>0.106095</v>
+        <v>0.106225</v>
       </c>
       <c r="D22" t="n">
-        <v>0.116511</v>
+        <v>0.114946</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161756</v>
+        <v>0.168686</v>
       </c>
       <c r="C23" t="n">
-        <v>0.113694</v>
+        <v>0.118845</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116582</v>
+        <v>0.116629</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134153</v>
+        <v>0.147181</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107723</v>
+        <v>0.108859</v>
       </c>
       <c r="D24" t="n">
-        <v>0.117413</v>
+        <v>0.116781</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135119</v>
+        <v>0.13405</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109187</v>
+        <v>0.108595</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116485</v>
+        <v>0.117196</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135615</v>
+        <v>0.135826</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108445</v>
+        <v>0.109179</v>
       </c>
       <c r="D26" t="n">
-        <v>0.117932</v>
+        <v>0.117205</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135766</v>
+        <v>0.141477</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109752</v>
+        <v>0.108837</v>
       </c>
       <c r="D27" t="n">
-        <v>0.118151</v>
+        <v>0.117321</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.144159</v>
+        <v>0.144071</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109819</v>
+        <v>0.109112</v>
       </c>
       <c r="D28" t="n">
-        <v>0.118492</v>
+        <v>0.117438</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.145766</v>
+        <v>0.137348</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109964</v>
+        <v>0.11001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.119674</v>
+        <v>0.117884</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.152061</v>
+        <v>0.138866</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11185</v>
+        <v>0.110024</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118332</v>
+        <v>0.118216</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141062</v>
+        <v>0.140716</v>
       </c>
       <c r="C31" t="n">
-        <v>0.110369</v>
+        <v>0.111188</v>
       </c>
       <c r="D31" t="n">
-        <v>0.118955</v>
+        <v>0.118131</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.160077</v>
+        <v>0.141081</v>
       </c>
       <c r="C32" t="n">
-        <v>0.111733</v>
+        <v>0.111176</v>
       </c>
       <c r="D32" t="n">
-        <v>0.119065</v>
+        <v>0.119296</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150347</v>
+        <v>0.148675</v>
       </c>
       <c r="C33" t="n">
-        <v>0.113663</v>
+        <v>0.113861</v>
       </c>
       <c r="D33" t="n">
-        <v>0.119646</v>
+        <v>0.119366</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.151059</v>
+        <v>0.157134</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116288</v>
+        <v>0.11612</v>
       </c>
       <c r="D34" t="n">
-        <v>0.119977</v>
+        <v>0.119809</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.15253</v>
+        <v>0.153173</v>
       </c>
       <c r="C35" t="n">
-        <v>0.11967</v>
+        <v>0.120135</v>
       </c>
       <c r="D35" t="n">
-        <v>0.124495</v>
+        <v>0.124076</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.163228</v>
+        <v>0.160343</v>
       </c>
       <c r="C36" t="n">
-        <v>0.123437</v>
+        <v>0.124309</v>
       </c>
       <c r="D36" t="n">
-        <v>0.132734</v>
+        <v>0.132155</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.183158</v>
+        <v>0.167288</v>
       </c>
       <c r="C37" t="n">
-        <v>0.129114</v>
+        <v>0.136075</v>
       </c>
       <c r="D37" t="n">
-        <v>0.127186</v>
+        <v>0.127116</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148896</v>
+        <v>0.15401</v>
       </c>
       <c r="C38" t="n">
-        <v>0.119278</v>
+        <v>0.124279</v>
       </c>
       <c r="D38" t="n">
-        <v>0.130115</v>
+        <v>0.12728</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147493</v>
+        <v>0.148841</v>
       </c>
       <c r="C39" t="n">
-        <v>0.119088</v>
+        <v>0.120088</v>
       </c>
       <c r="D39" t="n">
-        <v>0.129456</v>
+        <v>0.134927</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.14866</v>
+        <v>0.146176</v>
       </c>
       <c r="C40" t="n">
-        <v>0.118743</v>
+        <v>0.121389</v>
       </c>
       <c r="D40" t="n">
-        <v>0.126323</v>
+        <v>0.127665</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.15014</v>
+        <v>0.148137</v>
       </c>
       <c r="C41" t="n">
-        <v>0.119296</v>
+        <v>0.122501</v>
       </c>
       <c r="D41" t="n">
-        <v>0.126145</v>
+        <v>0.128618</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.152302</v>
+        <v>0.148692</v>
       </c>
       <c r="C42" t="n">
-        <v>0.120031</v>
+        <v>0.123757</v>
       </c>
       <c r="D42" t="n">
-        <v>0.126347</v>
+        <v>0.133391</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.153208</v>
+        <v>0.149862</v>
       </c>
       <c r="C43" t="n">
-        <v>0.121566</v>
+        <v>0.12457</v>
       </c>
       <c r="D43" t="n">
-        <v>0.127439</v>
+        <v>0.133554</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.153796</v>
+        <v>0.15139</v>
       </c>
       <c r="C44" t="n">
-        <v>0.122559</v>
+        <v>0.124712</v>
       </c>
       <c r="D44" t="n">
-        <v>0.127836</v>
+        <v>0.131785</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.15307</v>
+        <v>0.153973</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124712</v>
+        <v>0.125902</v>
       </c>
       <c r="D45" t="n">
-        <v>0.131328</v>
+        <v>0.134205</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.157121</v>
+        <v>0.154433</v>
       </c>
       <c r="C46" t="n">
-        <v>0.125702</v>
+        <v>0.128269</v>
       </c>
       <c r="D46" t="n">
-        <v>0.131109</v>
+        <v>0.133298</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.161556</v>
+        <v>0.171868</v>
       </c>
       <c r="C47" t="n">
-        <v>0.12766</v>
+        <v>0.129554</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132279</v>
+        <v>0.133772</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160894</v>
+        <v>0.16365</v>
       </c>
       <c r="C48" t="n">
-        <v>0.12971</v>
+        <v>0.128405</v>
       </c>
       <c r="D48" t="n">
-        <v>0.132572</v>
+        <v>0.140072</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.166182</v>
+        <v>0.165755</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131796</v>
+        <v>0.134173</v>
       </c>
       <c r="D49" t="n">
-        <v>0.136191</v>
+        <v>0.14033</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169645</v>
+        <v>0.173252</v>
       </c>
       <c r="C50" t="n">
-        <v>0.134974</v>
+        <v>0.136924</v>
       </c>
       <c r="D50" t="n">
-        <v>0.144124</v>
+        <v>0.147092</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.179261</v>
+        <v>0.177629</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139003</v>
+        <v>0.140743</v>
       </c>
       <c r="D51" t="n">
-        <v>0.140222</v>
+        <v>0.143159</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.18803</v>
+        <v>0.189309</v>
       </c>
       <c r="C52" t="n">
-        <v>0.145413</v>
+        <v>0.146738</v>
       </c>
       <c r="D52" t="n">
-        <v>0.139808</v>
+        <v>0.143556</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.16038</v>
+        <v>0.159698</v>
       </c>
       <c r="C53" t="n">
-        <v>0.127687</v>
+        <v>0.129969</v>
       </c>
       <c r="D53" t="n">
-        <v>0.14111</v>
+        <v>0.143403</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161312</v>
+        <v>0.161451</v>
       </c>
       <c r="C54" t="n">
-        <v>0.128476</v>
+        <v>0.130845</v>
       </c>
       <c r="D54" t="n">
-        <v>0.142312</v>
+        <v>0.143395</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161386</v>
+        <v>0.161974</v>
       </c>
       <c r="C55" t="n">
-        <v>0.129437</v>
+        <v>0.130566</v>
       </c>
       <c r="D55" t="n">
-        <v>0.143581</v>
+        <v>0.1439</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.16295</v>
+        <v>0.163113</v>
       </c>
       <c r="C56" t="n">
-        <v>0.129461</v>
+        <v>0.132923</v>
       </c>
       <c r="D56" t="n">
-        <v>0.144025</v>
+        <v>0.144737</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163938</v>
+        <v>0.164572</v>
       </c>
       <c r="C57" t="n">
-        <v>0.132043</v>
+        <v>0.134798</v>
       </c>
       <c r="D57" t="n">
-        <v>0.143872</v>
+        <v>0.144881</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.165113</v>
+        <v>0.165103</v>
       </c>
       <c r="C58" t="n">
-        <v>0.132987</v>
+        <v>0.135742</v>
       </c>
       <c r="D58" t="n">
-        <v>0.142971</v>
+        <v>0.144907</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166515</v>
+        <v>0.171347</v>
       </c>
       <c r="C59" t="n">
-        <v>0.135099</v>
+        <v>0.136546</v>
       </c>
       <c r="D59" t="n">
-        <v>0.144359</v>
+        <v>0.146025</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.168248</v>
+        <v>0.168009</v>
       </c>
       <c r="C60" t="n">
-        <v>0.136746</v>
+        <v>0.137678</v>
       </c>
       <c r="D60" t="n">
-        <v>0.145479</v>
+        <v>0.147088</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.171169</v>
+        <v>0.170811</v>
       </c>
       <c r="C61" t="n">
-        <v>0.13902</v>
+        <v>0.136911</v>
       </c>
       <c r="D61" t="n">
-        <v>0.147613</v>
+        <v>0.147918</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.17318</v>
+        <v>0.172647</v>
       </c>
       <c r="C62" t="n">
-        <v>0.13935</v>
+        <v>0.138959</v>
       </c>
       <c r="D62" t="n">
-        <v>0.150045</v>
+        <v>0.149721</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177141</v>
+        <v>0.177981</v>
       </c>
       <c r="C63" t="n">
-        <v>0.142216</v>
+        <v>0.143708</v>
       </c>
       <c r="D63" t="n">
-        <v>0.152168</v>
+        <v>0.153566</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.181625</v>
+        <v>0.183343</v>
       </c>
       <c r="C64" t="n">
-        <v>0.144122</v>
+        <v>0.147196</v>
       </c>
       <c r="D64" t="n">
-        <v>0.155346</v>
+        <v>0.158295</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.191732</v>
+        <v>0.190022</v>
       </c>
       <c r="C65" t="n">
-        <v>0.155069</v>
+        <v>0.14989</v>
       </c>
       <c r="D65" t="n">
-        <v>0.163563</v>
+        <v>0.164282</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.199348</v>
+        <v>0.200508</v>
       </c>
       <c r="C66" t="n">
-        <v>0.162023</v>
+        <v>0.159712</v>
       </c>
       <c r="D66" t="n">
-        <v>0.158609</v>
+        <v>0.156584</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.190671</v>
+        <v>0.180601</v>
       </c>
       <c r="C67" t="n">
-        <v>0.150061</v>
+        <v>0.150996</v>
       </c>
       <c r="D67" t="n">
-        <v>0.157966</v>
+        <v>0.157362</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184274</v>
+        <v>0.179852</v>
       </c>
       <c r="C68" t="n">
-        <v>0.149743</v>
+        <v>0.154136</v>
       </c>
       <c r="D68" t="n">
-        <v>0.160111</v>
+        <v>0.158591</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.188087</v>
+        <v>0.180441</v>
       </c>
       <c r="C69" t="n">
-        <v>0.151192</v>
+        <v>0.152668</v>
       </c>
       <c r="D69" t="n">
-        <v>0.158441</v>
+        <v>0.158384</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.187436</v>
+        <v>0.184267</v>
       </c>
       <c r="C70" t="n">
-        <v>0.150867</v>
+        <v>0.152398</v>
       </c>
       <c r="D70" t="n">
-        <v>0.159889</v>
+        <v>0.158798</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.185849</v>
+        <v>0.189156</v>
       </c>
       <c r="C71" t="n">
-        <v>0.150081</v>
+        <v>0.15254</v>
       </c>
       <c r="D71" t="n">
-        <v>0.158365</v>
+        <v>0.159933</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.185115</v>
+        <v>0.185969</v>
       </c>
       <c r="C72" t="n">
-        <v>0.151596</v>
+        <v>0.152913</v>
       </c>
       <c r="D72" t="n">
-        <v>0.159089</v>
+        <v>0.159192</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.18798</v>
+        <v>0.189826</v>
       </c>
       <c r="C73" t="n">
-        <v>0.151741</v>
+        <v>0.153941</v>
       </c>
       <c r="D73" t="n">
-        <v>0.160367</v>
+        <v>0.159613</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.189813</v>
+        <v>0.187225</v>
       </c>
       <c r="C74" t="n">
-        <v>0.154294</v>
+        <v>0.153951</v>
       </c>
       <c r="D74" t="n">
-        <v>0.160813</v>
+        <v>0.160087</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.191646</v>
+        <v>0.192828</v>
       </c>
       <c r="C75" t="n">
-        <v>0.156628</v>
+        <v>0.16181</v>
       </c>
       <c r="D75" t="n">
-        <v>0.161642</v>
+        <v>0.161948</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.194882</v>
+        <v>0.19637</v>
       </c>
       <c r="C76" t="n">
-        <v>0.158916</v>
+        <v>0.157595</v>
       </c>
       <c r="D76" t="n">
-        <v>0.164968</v>
+        <v>0.16332</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197342</v>
+        <v>0.195555</v>
       </c>
       <c r="C77" t="n">
-        <v>0.159529</v>
+        <v>0.158696</v>
       </c>
       <c r="D77" t="n">
-        <v>0.166705</v>
+        <v>0.166727</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2019</v>
+        <v>0.202062</v>
       </c>
       <c r="C78" t="n">
-        <v>0.163659</v>
+        <v>0.163201</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170855</v>
+        <v>0.169383</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.209799</v>
+        <v>0.209376</v>
       </c>
       <c r="C79" t="n">
-        <v>0.166269</v>
+        <v>0.173487</v>
       </c>
       <c r="D79" t="n">
-        <v>0.175454</v>
+        <v>0.175352</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.219916</v>
+        <v>0.220135</v>
       </c>
       <c r="C80" t="n">
-        <v>0.177943</v>
+        <v>0.171047</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243343</v>
+        <v>0.236517</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.387175</v>
+        <v>0.357932</v>
       </c>
       <c r="C81" t="n">
-        <v>0.306949</v>
+        <v>0.289251</v>
       </c>
       <c r="D81" t="n">
-        <v>0.243042</v>
+        <v>0.232961</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.395485</v>
+        <v>0.365513</v>
       </c>
       <c r="C82" t="n">
-        <v>0.306251</v>
+        <v>0.282235</v>
       </c>
       <c r="D82" t="n">
-        <v>0.250495</v>
+        <v>0.239584</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.387889</v>
+        <v>0.361073</v>
       </c>
       <c r="C83" t="n">
-        <v>0.30927</v>
+        <v>0.287694</v>
       </c>
       <c r="D83" t="n">
-        <v>0.242851</v>
+        <v>0.234493</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.393256</v>
+        <v>0.365075</v>
       </c>
       <c r="C84" t="n">
-        <v>0.300134</v>
+        <v>0.284716</v>
       </c>
       <c r="D84" t="n">
-        <v>0.245617</v>
+        <v>0.236765</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.392828</v>
+        <v>0.366593</v>
       </c>
       <c r="C85" t="n">
-        <v>0.302548</v>
+        <v>0.280156</v>
       </c>
       <c r="D85" t="n">
-        <v>0.242469</v>
+        <v>0.234509</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.397145</v>
+        <v>0.367726</v>
       </c>
       <c r="C86" t="n">
-        <v>0.301188</v>
+        <v>0.281607</v>
       </c>
       <c r="D86" t="n">
-        <v>0.243435</v>
+        <v>0.234137</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.389748</v>
+        <v>0.366141</v>
       </c>
       <c r="C87" t="n">
-        <v>0.297214</v>
+        <v>0.279457</v>
       </c>
       <c r="D87" t="n">
-        <v>0.240732</v>
+        <v>0.23224</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.396791</v>
+        <v>0.37269</v>
       </c>
       <c r="C88" t="n">
-        <v>0.294662</v>
+        <v>0.27738</v>
       </c>
       <c r="D88" t="n">
-        <v>0.239598</v>
+        <v>0.240452</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.398926</v>
+        <v>0.372629</v>
       </c>
       <c r="C89" t="n">
-        <v>0.292015</v>
+        <v>0.281329</v>
       </c>
       <c r="D89" t="n">
-        <v>0.237606</v>
+        <v>0.230556</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.408052</v>
+        <v>0.37458</v>
       </c>
       <c r="C90" t="n">
-        <v>0.295843</v>
+        <v>0.28221</v>
       </c>
       <c r="D90" t="n">
-        <v>0.237523</v>
+        <v>0.232535</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.399464</v>
+        <v>0.375764</v>
       </c>
       <c r="C91" t="n">
-        <v>0.294591</v>
+        <v>0.283093</v>
       </c>
       <c r="D91" t="n">
-        <v>0.236609</v>
+        <v>0.228196</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.404565</v>
+        <v>0.382229</v>
       </c>
       <c r="C92" t="n">
-        <v>0.297221</v>
+        <v>0.278538</v>
       </c>
       <c r="D92" t="n">
-        <v>0.239154</v>
+        <v>0.23823</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.407231</v>
+        <v>0.38132</v>
       </c>
       <c r="C93" t="n">
-        <v>0.297966</v>
+        <v>0.282147</v>
       </c>
       <c r="D93" t="n">
-        <v>0.242257</v>
+        <v>0.23973</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.418422</v>
+        <v>0.390213</v>
       </c>
       <c r="C94" t="n">
-        <v>0.306512</v>
+        <v>0.283112</v>
       </c>
       <c r="D94" t="n">
-        <v>0.420846</v>
+        <v>0.394265</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.568316</v>
+        <v>0.5313290000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.48555</v>
+        <v>0.450984</v>
       </c>
       <c r="D95" t="n">
-        <v>0.41948</v>
+        <v>0.393179</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.568671</v>
+        <v>0.531245</v>
       </c>
       <c r="C96" t="n">
-        <v>0.48447</v>
+        <v>0.450787</v>
       </c>
       <c r="D96" t="n">
-        <v>0.418119</v>
+        <v>0.392609</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.569268</v>
+        <v>0.53128</v>
       </c>
       <c r="C97" t="n">
-        <v>0.483557</v>
+        <v>0.449774</v>
       </c>
       <c r="D97" t="n">
-        <v>0.408546</v>
+        <v>0.392476</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5702739999999999</v>
+        <v>0.532903</v>
       </c>
       <c r="C98" t="n">
-        <v>0.481911</v>
+        <v>0.449415</v>
       </c>
       <c r="D98" t="n">
-        <v>0.417596</v>
+        <v>0.390849</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.570766</v>
+        <v>0.533243</v>
       </c>
       <c r="C99" t="n">
-        <v>0.482595</v>
+        <v>0.450046</v>
       </c>
       <c r="D99" t="n">
-        <v>0.416435</v>
+        <v>0.39283</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.571333</v>
+        <v>0.533565</v>
       </c>
       <c r="C100" t="n">
-        <v>0.482327</v>
+        <v>0.449509</v>
       </c>
       <c r="D100" t="n">
-        <v>0.417815</v>
+        <v>0.391656</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5722969999999999</v>
+        <v>0.53421</v>
       </c>
       <c r="C101" t="n">
-        <v>0.481581</v>
+        <v>0.44894</v>
       </c>
       <c r="D101" t="n">
-        <v>0.41808</v>
+        <v>0.391577</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.573505</v>
+        <v>0.536026</v>
       </c>
       <c r="C102" t="n">
-        <v>0.482196</v>
+        <v>0.449151</v>
       </c>
       <c r="D102" t="n">
-        <v>0.417335</v>
+        <v>0.393278</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.576464</v>
+        <v>0.537368</v>
       </c>
       <c r="C103" t="n">
-        <v>0.474362</v>
+        <v>0.450288</v>
       </c>
       <c r="D103" t="n">
-        <v>0.418402</v>
+        <v>0.393766</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.578673</v>
+        <v>0.539943</v>
       </c>
       <c r="C104" t="n">
-        <v>0.483685</v>
+        <v>0.450104</v>
       </c>
       <c r="D104" t="n">
-        <v>0.42036</v>
+        <v>0.393612</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.581254</v>
+        <v>0.542861</v>
       </c>
       <c r="C105" t="n">
-        <v>0.484549</v>
+        <v>0.452746</v>
       </c>
       <c r="D105" t="n">
-        <v>0.41245</v>
+        <v>0.395794</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.584695</v>
+        <v>0.546354</v>
       </c>
       <c r="C106" t="n">
-        <v>0.477896</v>
+        <v>0.454241</v>
       </c>
       <c r="D106" t="n">
-        <v>0.424368</v>
+        <v>0.398802</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.590691</v>
+        <v>0.5516259999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.490512</v>
+        <v>0.457366</v>
       </c>
       <c r="D107" t="n">
-        <v>0.431553</v>
+        <v>0.405546</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.597901</v>
+        <v>0.559772</v>
       </c>
       <c r="C108" t="n">
-        <v>0.496862</v>
+        <v>0.462649</v>
       </c>
       <c r="D108" t="n">
-        <v>0.568898</v>
+        <v>0.525405</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.609851</v>
+        <v>0.568798</v>
       </c>
       <c r="C109" t="n">
-        <v>0.505969</v>
+        <v>0.473601</v>
       </c>
       <c r="D109" t="n">
-        <v>0.564126</v>
+        <v>0.529772</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.653708</v>
+        <v>0.609718</v>
       </c>
       <c r="C110" t="n">
-        <v>0.595011</v>
+        <v>0.552357</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5697140000000001</v>
+        <v>0.531164</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.652312</v>
+        <v>0.6097050000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.599809</v>
+        <v>0.55255</v>
       </c>
       <c r="D111" t="n">
-        <v>0.568237</v>
+        <v>0.53026</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.656226</v>
+        <v>0.6117860000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.60085</v>
+        <v>0.559244</v>
       </c>
       <c r="D112" t="n">
-        <v>0.569045</v>
+        <v>0.526763</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.659121</v>
+        <v>0.614882</v>
       </c>
       <c r="C113" t="n">
-        <v>0.597377</v>
+        <v>0.557851</v>
       </c>
       <c r="D113" t="n">
-        <v>0.571198</v>
+        <v>0.530976</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.658662</v>
+        <v>0.612</v>
       </c>
       <c r="C114" t="n">
-        <v>0.597975</v>
+        <v>0.554042</v>
       </c>
       <c r="D114" t="n">
-        <v>0.571791</v>
+        <v>0.534796</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.657574</v>
+        <v>0.614352</v>
       </c>
       <c r="C115" t="n">
-        <v>0.60271</v>
+        <v>0.555051</v>
       </c>
       <c r="D115" t="n">
-        <v>0.567356</v>
+        <v>0.5354719999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.659154</v>
+        <v>0.616378</v>
       </c>
       <c r="C116" t="n">
-        <v>0.604564</v>
+        <v>0.561072</v>
       </c>
       <c r="D116" t="n">
-        <v>0.574773</v>
+        <v>0.535985</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.661227</v>
+        <v>0.620521</v>
       </c>
       <c r="C117" t="n">
-        <v>0.606069</v>
+        <v>0.558759</v>
       </c>
       <c r="D117" t="n">
-        <v>0.577384</v>
+        <v>0.537901</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.666129</v>
+        <v>0.621649</v>
       </c>
       <c r="C118" t="n">
-        <v>0.607374</v>
+        <v>0.564617</v>
       </c>
       <c r="D118" t="n">
-        <v>0.572234</v>
+        <v>0.539605</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.669199</v>
+        <v>0.62665</v>
       </c>
       <c r="C119" t="n">
-        <v>0.612243</v>
+        <v>0.5678339999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.583025</v>
+        <v>0.542739</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.678972</v>
+        <v>0.631722</v>
       </c>
       <c r="C120" t="n">
-        <v>0.613797</v>
+        <v>0.5709689999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.585906</v>
+        <v>0.546424</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.685425</v>
+        <v>0.638831</v>
       </c>
       <c r="C121" t="n">
-        <v>0.619856</v>
+        <v>0.570504</v>
       </c>
       <c r="D121" t="n">
-        <v>0.588399</v>
+        <v>0.55123</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.690989</v>
+        <v>0.645127</v>
       </c>
       <c r="C122" t="n">
-        <v>0.623964</v>
+        <v>0.5831</v>
       </c>
       <c r="D122" t="n">
-        <v>0.601054</v>
+        <v>0.555913</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.707158</v>
+        <v>0.65981</v>
       </c>
       <c r="C123" t="n">
-        <v>0.634135</v>
+        <v>0.585999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.746018</v>
+        <v>0.690876</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.806229</v>
+        <v>0.751661</v>
       </c>
       <c r="C124" t="n">
-        <v>0.741049</v>
+        <v>0.686992</v>
       </c>
       <c r="D124" t="n">
-        <v>0.746499</v>
+        <v>0.6937410000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.80627</v>
+        <v>0.753209</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7438940000000001</v>
+        <v>0.687223</v>
       </c>
       <c r="D125" t="n">
-        <v>0.748607</v>
+        <v>0.693765</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.809435</v>
+        <v>0.75388</v>
       </c>
       <c r="C126" t="n">
-        <v>0.744228</v>
+        <v>0.688692</v>
       </c>
       <c r="D126" t="n">
-        <v>0.750055</v>
+        <v>0.6946560000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.810598</v>
+        <v>0.755159</v>
       </c>
       <c r="C127" t="n">
-        <v>0.744575</v>
+        <v>0.689954</v>
       </c>
       <c r="D127" t="n">
-        <v>0.749118</v>
+        <v>0.693667</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.811204</v>
+        <v>0.755182</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7474499999999999</v>
+        <v>0.689416</v>
       </c>
       <c r="D128" t="n">
-        <v>0.752952</v>
+        <v>0.6927720000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.813272</v>
+        <v>0.757082</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7480329999999999</v>
+        <v>0.693153</v>
       </c>
       <c r="D129" t="n">
-        <v>0.753782</v>
+        <v>0.697749</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.813791</v>
+        <v>0.758993</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7477200000000001</v>
+        <v>0.6918800000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.755387</v>
+        <v>0.698955</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.815414</v>
+        <v>0.759486</v>
       </c>
       <c r="C131" t="n">
-        <v>0.75263</v>
+        <v>0.697587</v>
       </c>
       <c r="D131" t="n">
-        <v>0.755342</v>
+        <v>0.701161</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.821221</v>
+        <v>0.7664800000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7560210000000001</v>
+        <v>0.702569</v>
       </c>
       <c r="D132" t="n">
-        <v>0.758455</v>
+        <v>0.704982</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.824829</v>
+        <v>0.767755</v>
       </c>
       <c r="C133" t="n">
-        <v>0.755845</v>
+        <v>0.705052</v>
       </c>
       <c r="D133" t="n">
-        <v>0.761332</v>
+        <v>0.708389</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.829631</v>
+        <v>0.774327</v>
       </c>
       <c r="C134" t="n">
-        <v>0.761588</v>
+        <v>0.709071</v>
       </c>
       <c r="D134" t="n">
-        <v>0.767852</v>
+        <v>0.711248</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8344009999999999</v>
+        <v>0.779583</v>
       </c>
       <c r="C135" t="n">
-        <v>0.765524</v>
+        <v>0.7136400000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.773582</v>
+        <v>0.714103</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.846278</v>
+        <v>0.789915</v>
       </c>
       <c r="C136" t="n">
-        <v>0.775979</v>
+        <v>0.722929</v>
       </c>
       <c r="D136" t="n">
-        <v>0.781196</v>
+        <v>0.72054</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.858407</v>
+        <v>0.801754</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7891089999999999</v>
+        <v>0.729395</v>
       </c>
       <c r="D137" t="n">
-        <v>0.895559</v>
+        <v>0.828722</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.944265</v>
+        <v>0.876674</v>
       </c>
       <c r="C138" t="n">
-        <v>0.873526</v>
+        <v>0.806346</v>
       </c>
       <c r="D138" t="n">
-        <v>0.893279</v>
+        <v>0.830549</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.945169</v>
+        <v>0.875505</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8752180000000001</v>
+        <v>0.809527</v>
       </c>
       <c r="D139" t="n">
-        <v>0.89603</v>
+        <v>0.831139</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.944571</v>
+        <v>0.87598</v>
       </c>
       <c r="C140" t="n">
-        <v>0.876566</v>
+        <v>0.810921</v>
       </c>
       <c r="D140" t="n">
-        <v>0.895885</v>
+        <v>0.829125</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9455789999999999</v>
+        <v>0.876175</v>
       </c>
       <c r="C141" t="n">
-        <v>0.877131</v>
+        <v>0.8092549999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8955689999999999</v>
+        <v>0.832315</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.947478</v>
+        <v>0.877611</v>
       </c>
       <c r="C142" t="n">
-        <v>0.878628</v>
+        <v>0.813206</v>
       </c>
       <c r="D142" t="n">
-        <v>0.89561</v>
+        <v>0.831579</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.948807</v>
+        <v>0.878703</v>
       </c>
       <c r="C143" t="n">
-        <v>0.880485</v>
+        <v>0.811983</v>
       </c>
       <c r="D143" t="n">
-        <v>0.897949</v>
+        <v>0.833001</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115672</v>
+        <v>0.115531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0892355</v>
+        <v>0.08916449999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.099768</v>
+        <v>0.0997972</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116362</v>
+        <v>0.12718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0893658</v>
+        <v>0.08906260000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.100004</v>
+        <v>0.0996355</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117546</v>
+        <v>0.116496</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0899654</v>
+        <v>0.08953999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.100479</v>
+        <v>0.0999594</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118417</v>
+        <v>0.132293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0901772</v>
+        <v>0.09024749999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.100724</v>
+        <v>0.100466</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12078</v>
+        <v>0.129575</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0899861</v>
+        <v>0.0902244</v>
       </c>
       <c r="D6" t="n">
-        <v>0.100997</v>
+        <v>0.10084</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.124052</v>
+        <v>0.124269</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0904546</v>
+        <v>0.0905388</v>
       </c>
       <c r="D7" t="n">
-        <v>0.101591</v>
+        <v>0.101616</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.13127</v>
+        <v>0.142919</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0915658</v>
+        <v>0.0912449</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103239</v>
+        <v>0.103226</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.142224</v>
+        <v>0.147221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09296500000000001</v>
+        <v>0.0931372</v>
       </c>
       <c r="D9" t="n">
-        <v>0.10725</v>
+        <v>0.106616</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.132863</v>
+        <v>0.136219</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0992847</v>
+        <v>0.0986649</v>
       </c>
       <c r="D10" t="n">
-        <v>0.107459</v>
+        <v>0.106495</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.134535</v>
+        <v>0.128972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09825730000000001</v>
+        <v>0.0987835</v>
       </c>
       <c r="D11" t="n">
-        <v>0.107005</v>
+        <v>0.106958</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.132456</v>
+        <v>0.127753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0989392</v>
+        <v>0.0988039</v>
       </c>
       <c r="D12" t="n">
-        <v>0.107257</v>
+        <v>0.106646</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.130219</v>
+        <v>0.126441</v>
       </c>
       <c r="C13" t="n">
-        <v>0.100348</v>
+        <v>0.09925970000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.107281</v>
+        <v>0.110361</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12994</v>
+        <v>0.128179</v>
       </c>
       <c r="C14" t="n">
-        <v>0.099022</v>
+        <v>0.0991745</v>
       </c>
       <c r="D14" t="n">
-        <v>0.107416</v>
+        <v>0.108781</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.127913</v>
+        <v>0.127049</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0990403</v>
+        <v>0.09945080000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.107206</v>
+        <v>0.107571</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.132693</v>
+        <v>0.130192</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09945610000000001</v>
+        <v>0.100197</v>
       </c>
       <c r="D16" t="n">
-        <v>0.110016</v>
+        <v>0.108052</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.133308</v>
+        <v>0.130048</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0989174</v>
+        <v>0.100956</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108496</v>
+        <v>0.10805</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.14342</v>
+        <v>0.13064</v>
       </c>
       <c r="C18" t="n">
-        <v>0.100284</v>
+        <v>0.100552</v>
       </c>
       <c r="D18" t="n">
-        <v>0.108209</v>
+        <v>0.111779</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13835</v>
+        <v>0.131625</v>
       </c>
       <c r="C19" t="n">
-        <v>0.100241</v>
+        <v>0.100525</v>
       </c>
       <c r="D19" t="n">
-        <v>0.108803</v>
+        <v>0.108565</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.135907</v>
+        <v>0.136737</v>
       </c>
       <c r="C20" t="n">
-        <v>0.101378</v>
+        <v>0.101554</v>
       </c>
       <c r="D20" t="n">
-        <v>0.110956</v>
+        <v>0.109699</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.141276</v>
+        <v>0.141695</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102013</v>
+        <v>0.102262</v>
       </c>
       <c r="D21" t="n">
-        <v>0.110801</v>
+        <v>0.11092</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.158475</v>
+        <v>0.149071</v>
       </c>
       <c r="C22" t="n">
-        <v>0.106225</v>
+        <v>0.106714</v>
       </c>
       <c r="D22" t="n">
-        <v>0.114946</v>
+        <v>0.115956</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.168686</v>
+        <v>0.157863</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118845</v>
+        <v>0.11447</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116629</v>
+        <v>0.116213</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.147181</v>
+        <v>0.134929</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108859</v>
+        <v>0.107915</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116781</v>
+        <v>0.116381</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13405</v>
+        <v>0.1345</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108595</v>
+        <v>0.108191</v>
       </c>
       <c r="D25" t="n">
-        <v>0.117196</v>
+        <v>0.116304</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135826</v>
+        <v>0.134819</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109179</v>
+        <v>0.108286</v>
       </c>
       <c r="D26" t="n">
-        <v>0.117205</v>
+        <v>0.116703</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.141477</v>
+        <v>0.134722</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108837</v>
+        <v>0.108629</v>
       </c>
       <c r="D27" t="n">
-        <v>0.117321</v>
+        <v>0.116851</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.144071</v>
+        <v>0.136106</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109112</v>
+        <v>0.108844</v>
       </c>
       <c r="D28" t="n">
-        <v>0.117438</v>
+        <v>0.11791</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137348</v>
+        <v>0.135924</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11001</v>
+        <v>0.108939</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117884</v>
+        <v>0.117065</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138866</v>
+        <v>0.13806</v>
       </c>
       <c r="C30" t="n">
-        <v>0.110024</v>
+        <v>0.10936</v>
       </c>
       <c r="D30" t="n">
-        <v>0.118216</v>
+        <v>0.117147</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.140716</v>
+        <v>0.138853</v>
       </c>
       <c r="C31" t="n">
-        <v>0.111188</v>
+        <v>0.109967</v>
       </c>
       <c r="D31" t="n">
-        <v>0.118131</v>
+        <v>0.121086</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141081</v>
+        <v>0.140445</v>
       </c>
       <c r="C32" t="n">
-        <v>0.111176</v>
+        <v>0.110886</v>
       </c>
       <c r="D32" t="n">
-        <v>0.119296</v>
+        <v>0.117638</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.148675</v>
+        <v>0.143675</v>
       </c>
       <c r="C33" t="n">
-        <v>0.113861</v>
+        <v>0.112677</v>
       </c>
       <c r="D33" t="n">
-        <v>0.119366</v>
+        <v>0.118021</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.157134</v>
+        <v>0.147796</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11612</v>
+        <v>0.11516</v>
       </c>
       <c r="D34" t="n">
-        <v>0.119809</v>
+        <v>0.119297</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153173</v>
+        <v>0.152129</v>
       </c>
       <c r="C35" t="n">
-        <v>0.120135</v>
+        <v>0.118756</v>
       </c>
       <c r="D35" t="n">
-        <v>0.124076</v>
+        <v>0.123502</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.160343</v>
+        <v>0.158939</v>
       </c>
       <c r="C36" t="n">
-        <v>0.124309</v>
+        <v>0.12922</v>
       </c>
       <c r="D36" t="n">
-        <v>0.132155</v>
+        <v>0.130712</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167288</v>
+        <v>0.176599</v>
       </c>
       <c r="C37" t="n">
-        <v>0.136075</v>
+        <v>0.127519</v>
       </c>
       <c r="D37" t="n">
-        <v>0.127116</v>
+        <v>0.128806</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.15401</v>
+        <v>0.148443</v>
       </c>
       <c r="C38" t="n">
-        <v>0.124279</v>
+        <v>0.11905</v>
       </c>
       <c r="D38" t="n">
-        <v>0.12728</v>
+        <v>0.129476</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148841</v>
+        <v>0.14665</v>
       </c>
       <c r="C39" t="n">
-        <v>0.120088</v>
+        <v>0.119422</v>
       </c>
       <c r="D39" t="n">
-        <v>0.134927</v>
+        <v>0.129787</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146176</v>
+        <v>0.1479</v>
       </c>
       <c r="C40" t="n">
-        <v>0.121389</v>
+        <v>0.11998</v>
       </c>
       <c r="D40" t="n">
-        <v>0.127665</v>
+        <v>0.129761</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148137</v>
+        <v>0.149373</v>
       </c>
       <c r="C41" t="n">
-        <v>0.122501</v>
+        <v>0.119999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.128618</v>
+        <v>0.128289</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148692</v>
+        <v>0.147898</v>
       </c>
       <c r="C42" t="n">
-        <v>0.123757</v>
+        <v>0.120498</v>
       </c>
       <c r="D42" t="n">
-        <v>0.133391</v>
+        <v>0.130017</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149862</v>
+        <v>0.150211</v>
       </c>
       <c r="C43" t="n">
-        <v>0.12457</v>
+        <v>0.121376</v>
       </c>
       <c r="D43" t="n">
-        <v>0.133554</v>
+        <v>0.129506</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.15139</v>
+        <v>0.150579</v>
       </c>
       <c r="C44" t="n">
-        <v>0.124712</v>
+        <v>0.122729</v>
       </c>
       <c r="D44" t="n">
-        <v>0.131785</v>
+        <v>0.130252</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153973</v>
+        <v>0.151956</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125902</v>
+        <v>0.124193</v>
       </c>
       <c r="D45" t="n">
-        <v>0.134205</v>
+        <v>0.129717</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.154433</v>
+        <v>0.154035</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128269</v>
+        <v>0.125705</v>
       </c>
       <c r="D46" t="n">
-        <v>0.133298</v>
+        <v>0.13158</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.171868</v>
+        <v>0.156612</v>
       </c>
       <c r="C47" t="n">
-        <v>0.129554</v>
+        <v>0.126678</v>
       </c>
       <c r="D47" t="n">
-        <v>0.133772</v>
+        <v>0.131111</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.16365</v>
+        <v>0.160172</v>
       </c>
       <c r="C48" t="n">
-        <v>0.128405</v>
+        <v>0.134402</v>
       </c>
       <c r="D48" t="n">
-        <v>0.140072</v>
+        <v>0.13458</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165755</v>
+        <v>0.165233</v>
       </c>
       <c r="C49" t="n">
-        <v>0.134173</v>
+        <v>0.13191</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14033</v>
+        <v>0.138302</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173252</v>
+        <v>0.169769</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136924</v>
+        <v>0.133938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.147092</v>
+        <v>0.142933</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177629</v>
+        <v>0.179794</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140743</v>
+        <v>0.145143</v>
       </c>
       <c r="D51" t="n">
-        <v>0.143159</v>
+        <v>0.143695</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.189309</v>
+        <v>0.187847</v>
       </c>
       <c r="C52" t="n">
-        <v>0.146738</v>
+        <v>0.152312</v>
       </c>
       <c r="D52" t="n">
-        <v>0.143556</v>
+        <v>0.143389</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159698</v>
+        <v>0.160192</v>
       </c>
       <c r="C53" t="n">
-        <v>0.129969</v>
+        <v>0.12997</v>
       </c>
       <c r="D53" t="n">
-        <v>0.143403</v>
+        <v>0.14377</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161451</v>
+        <v>0.161898</v>
       </c>
       <c r="C54" t="n">
-        <v>0.130845</v>
+        <v>0.130757</v>
       </c>
       <c r="D54" t="n">
-        <v>0.143395</v>
+        <v>0.142729</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161974</v>
+        <v>0.16103</v>
       </c>
       <c r="C55" t="n">
-        <v>0.130566</v>
+        <v>0.13091</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1439</v>
+        <v>0.143058</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.163113</v>
+        <v>0.161317</v>
       </c>
       <c r="C56" t="n">
-        <v>0.132923</v>
+        <v>0.131495</v>
       </c>
       <c r="D56" t="n">
-        <v>0.144737</v>
+        <v>0.143762</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.164572</v>
+        <v>0.162122</v>
       </c>
       <c r="C57" t="n">
-        <v>0.134798</v>
+        <v>0.133764</v>
       </c>
       <c r="D57" t="n">
-        <v>0.144881</v>
+        <v>0.143914</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.165103</v>
+        <v>0.164545</v>
       </c>
       <c r="C58" t="n">
-        <v>0.135742</v>
+        <v>0.134136</v>
       </c>
       <c r="D58" t="n">
-        <v>0.144907</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.171347</v>
+        <v>0.165982</v>
       </c>
       <c r="C59" t="n">
-        <v>0.136546</v>
+        <v>0.13554</v>
       </c>
       <c r="D59" t="n">
-        <v>0.146025</v>
+        <v>0.144943</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.168009</v>
+        <v>0.166023</v>
       </c>
       <c r="C60" t="n">
-        <v>0.137678</v>
+        <v>0.13606</v>
       </c>
       <c r="D60" t="n">
-        <v>0.147088</v>
+        <v>0.145436</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.170811</v>
+        <v>0.168508</v>
       </c>
       <c r="C61" t="n">
-        <v>0.136911</v>
+        <v>0.138501</v>
       </c>
       <c r="D61" t="n">
-        <v>0.147918</v>
+        <v>0.147392</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172647</v>
+        <v>0.1717</v>
       </c>
       <c r="C62" t="n">
-        <v>0.138959</v>
+        <v>0.140694</v>
       </c>
       <c r="D62" t="n">
-        <v>0.149721</v>
+        <v>0.149717</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177981</v>
+        <v>0.176637</v>
       </c>
       <c r="C63" t="n">
-        <v>0.143708</v>
+        <v>0.143203</v>
       </c>
       <c r="D63" t="n">
-        <v>0.153566</v>
+        <v>0.153198</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.183343</v>
+        <v>0.182466</v>
       </c>
       <c r="C64" t="n">
-        <v>0.147196</v>
+        <v>0.14994</v>
       </c>
       <c r="D64" t="n">
-        <v>0.158295</v>
+        <v>0.157169</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190022</v>
+        <v>0.187043</v>
       </c>
       <c r="C65" t="n">
-        <v>0.14989</v>
+        <v>0.156809</v>
       </c>
       <c r="D65" t="n">
-        <v>0.164282</v>
+        <v>0.163663</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.200508</v>
+        <v>0.1976</v>
       </c>
       <c r="C66" t="n">
-        <v>0.159712</v>
+        <v>0.163615</v>
       </c>
       <c r="D66" t="n">
-        <v>0.156584</v>
+        <v>0.156505</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.180601</v>
+        <v>0.182122</v>
       </c>
       <c r="C67" t="n">
-        <v>0.150996</v>
+        <v>0.146913</v>
       </c>
       <c r="D67" t="n">
-        <v>0.157362</v>
+        <v>0.157766</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179852</v>
+        <v>0.182693</v>
       </c>
       <c r="C68" t="n">
-        <v>0.154136</v>
+        <v>0.14756</v>
       </c>
       <c r="D68" t="n">
-        <v>0.158591</v>
+        <v>0.156857</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180441</v>
+        <v>0.185974</v>
       </c>
       <c r="C69" t="n">
-        <v>0.152668</v>
+        <v>0.147987</v>
       </c>
       <c r="D69" t="n">
-        <v>0.158384</v>
+        <v>0.157453</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.184267</v>
+        <v>0.182405</v>
       </c>
       <c r="C70" t="n">
-        <v>0.152398</v>
+        <v>0.149277</v>
       </c>
       <c r="D70" t="n">
-        <v>0.158798</v>
+        <v>0.157629</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.189156</v>
+        <v>0.18344</v>
       </c>
       <c r="C71" t="n">
-        <v>0.15254</v>
+        <v>0.15134</v>
       </c>
       <c r="D71" t="n">
-        <v>0.159933</v>
+        <v>0.159271</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.185969</v>
+        <v>0.183631</v>
       </c>
       <c r="C72" t="n">
-        <v>0.152913</v>
+        <v>0.151646</v>
       </c>
       <c r="D72" t="n">
-        <v>0.159192</v>
+        <v>0.159166</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.189826</v>
+        <v>0.18499</v>
       </c>
       <c r="C73" t="n">
-        <v>0.153941</v>
+        <v>0.152549</v>
       </c>
       <c r="D73" t="n">
-        <v>0.159613</v>
+        <v>0.160327</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.187225</v>
+        <v>0.194583</v>
       </c>
       <c r="C74" t="n">
-        <v>0.153951</v>
+        <v>0.155764</v>
       </c>
       <c r="D74" t="n">
-        <v>0.160087</v>
+        <v>0.161486</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.192828</v>
+        <v>0.191755</v>
       </c>
       <c r="C75" t="n">
-        <v>0.16181</v>
+        <v>0.157045</v>
       </c>
       <c r="D75" t="n">
-        <v>0.161948</v>
+        <v>0.162673</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19637</v>
+        <v>0.19458</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157595</v>
+        <v>0.161875</v>
       </c>
       <c r="D76" t="n">
-        <v>0.16332</v>
+        <v>0.164276</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195555</v>
+        <v>0.19913</v>
       </c>
       <c r="C77" t="n">
-        <v>0.158696</v>
+        <v>0.160672</v>
       </c>
       <c r="D77" t="n">
-        <v>0.166727</v>
+        <v>0.165899</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.202062</v>
+        <v>0.203804</v>
       </c>
       <c r="C78" t="n">
-        <v>0.163201</v>
+        <v>0.164554</v>
       </c>
       <c r="D78" t="n">
-        <v>0.169383</v>
+        <v>0.170066</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.209376</v>
+        <v>0.210731</v>
       </c>
       <c r="C79" t="n">
-        <v>0.173487</v>
+        <v>0.166446</v>
       </c>
       <c r="D79" t="n">
-        <v>0.175352</v>
+        <v>0.176062</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.220135</v>
+        <v>0.216023</v>
       </c>
       <c r="C80" t="n">
-        <v>0.171047</v>
+        <v>0.177631</v>
       </c>
       <c r="D80" t="n">
-        <v>0.236517</v>
+        <v>0.233346</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357932</v>
+        <v>0.362985</v>
       </c>
       <c r="C81" t="n">
-        <v>0.289251</v>
+        <v>0.285203</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232961</v>
+        <v>0.235203</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.365513</v>
+        <v>0.36282</v>
       </c>
       <c r="C82" t="n">
-        <v>0.282235</v>
+        <v>0.280574</v>
       </c>
       <c r="D82" t="n">
-        <v>0.239584</v>
+        <v>0.232517</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.361073</v>
+        <v>0.359553</v>
       </c>
       <c r="C83" t="n">
-        <v>0.287694</v>
+        <v>0.283334</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234493</v>
+        <v>0.234019</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.365075</v>
+        <v>0.362977</v>
       </c>
       <c r="C84" t="n">
-        <v>0.284716</v>
+        <v>0.279637</v>
       </c>
       <c r="D84" t="n">
-        <v>0.236765</v>
+        <v>0.23398</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.366593</v>
+        <v>0.362555</v>
       </c>
       <c r="C85" t="n">
-        <v>0.280156</v>
+        <v>0.279511</v>
       </c>
       <c r="D85" t="n">
-        <v>0.234509</v>
+        <v>0.230829</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.367726</v>
+        <v>0.366337</v>
       </c>
       <c r="C86" t="n">
-        <v>0.281607</v>
+        <v>0.275799</v>
       </c>
       <c r="D86" t="n">
-        <v>0.234137</v>
+        <v>0.231615</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.366141</v>
+        <v>0.36361</v>
       </c>
       <c r="C87" t="n">
-        <v>0.279457</v>
+        <v>0.278863</v>
       </c>
       <c r="D87" t="n">
-        <v>0.23224</v>
+        <v>0.229847</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.37269</v>
+        <v>0.371636</v>
       </c>
       <c r="C88" t="n">
-        <v>0.27738</v>
+        <v>0.27274</v>
       </c>
       <c r="D88" t="n">
-        <v>0.240452</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.372629</v>
+        <v>0.368644</v>
       </c>
       <c r="C89" t="n">
-        <v>0.281329</v>
+        <v>0.274563</v>
       </c>
       <c r="D89" t="n">
-        <v>0.230556</v>
+        <v>0.229538</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.37458</v>
+        <v>0.369895</v>
       </c>
       <c r="C90" t="n">
-        <v>0.28221</v>
+        <v>0.272635</v>
       </c>
       <c r="D90" t="n">
-        <v>0.232535</v>
+        <v>0.229105</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375764</v>
+        <v>0.373859</v>
       </c>
       <c r="C91" t="n">
-        <v>0.283093</v>
+        <v>0.275404</v>
       </c>
       <c r="D91" t="n">
-        <v>0.228196</v>
+        <v>0.228351</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.382229</v>
+        <v>0.3792</v>
       </c>
       <c r="C92" t="n">
-        <v>0.278538</v>
+        <v>0.274355</v>
       </c>
       <c r="D92" t="n">
-        <v>0.23823</v>
+        <v>0.229946</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.38132</v>
+        <v>0.377576</v>
       </c>
       <c r="C93" t="n">
-        <v>0.282147</v>
+        <v>0.279266</v>
       </c>
       <c r="D93" t="n">
-        <v>0.23973</v>
+        <v>0.230144</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.390213</v>
+        <v>0.386451</v>
       </c>
       <c r="C94" t="n">
-        <v>0.283112</v>
+        <v>0.281202</v>
       </c>
       <c r="D94" t="n">
-        <v>0.394265</v>
+        <v>0.391784</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5313290000000001</v>
+        <v>0.528328</v>
       </c>
       <c r="C95" t="n">
-        <v>0.450984</v>
+        <v>0.447832</v>
       </c>
       <c r="D95" t="n">
-        <v>0.393179</v>
+        <v>0.390832</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.531245</v>
+        <v>0.52895</v>
       </c>
       <c r="C96" t="n">
-        <v>0.450787</v>
+        <v>0.447545</v>
       </c>
       <c r="D96" t="n">
-        <v>0.392609</v>
+        <v>0.391997</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.53128</v>
+        <v>0.529681</v>
       </c>
       <c r="C97" t="n">
-        <v>0.449774</v>
+        <v>0.446857</v>
       </c>
       <c r="D97" t="n">
-        <v>0.392476</v>
+        <v>0.390074</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.532903</v>
+        <v>0.529913</v>
       </c>
       <c r="C98" t="n">
-        <v>0.449415</v>
+        <v>0.446469</v>
       </c>
       <c r="D98" t="n">
-        <v>0.390849</v>
+        <v>0.38833</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.533243</v>
+        <v>0.530174</v>
       </c>
       <c r="C99" t="n">
-        <v>0.450046</v>
+        <v>0.446449</v>
       </c>
       <c r="D99" t="n">
-        <v>0.39283</v>
+        <v>0.38865</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.533565</v>
+        <v>0.5308349999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.449509</v>
+        <v>0.445224</v>
       </c>
       <c r="D100" t="n">
-        <v>0.391656</v>
+        <v>0.388552</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.53421</v>
+        <v>0.531216</v>
       </c>
       <c r="C101" t="n">
-        <v>0.44894</v>
+        <v>0.445965</v>
       </c>
       <c r="D101" t="n">
-        <v>0.391577</v>
+        <v>0.388505</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.536026</v>
+        <v>0.532918</v>
       </c>
       <c r="C102" t="n">
-        <v>0.449151</v>
+        <v>0.444587</v>
       </c>
       <c r="D102" t="n">
-        <v>0.393278</v>
+        <v>0.390041</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.537368</v>
+        <v>0.534629</v>
       </c>
       <c r="C103" t="n">
-        <v>0.450288</v>
+        <v>0.445757</v>
       </c>
       <c r="D103" t="n">
-        <v>0.393766</v>
+        <v>0.390025</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.539943</v>
+        <v>0.536754</v>
       </c>
       <c r="C104" t="n">
-        <v>0.450104</v>
+        <v>0.447101</v>
       </c>
       <c r="D104" t="n">
-        <v>0.393612</v>
+        <v>0.391517</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.542861</v>
+        <v>0.539843</v>
       </c>
       <c r="C105" t="n">
-        <v>0.452746</v>
+        <v>0.447601</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395794</v>
+        <v>0.393831</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.546354</v>
+        <v>0.543835</v>
       </c>
       <c r="C106" t="n">
-        <v>0.454241</v>
+        <v>0.451391</v>
       </c>
       <c r="D106" t="n">
-        <v>0.398802</v>
+        <v>0.39631</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5516259999999999</v>
+        <v>0.549658</v>
       </c>
       <c r="C107" t="n">
-        <v>0.457366</v>
+        <v>0.454017</v>
       </c>
       <c r="D107" t="n">
-        <v>0.405546</v>
+        <v>0.402571</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.559772</v>
+        <v>0.5567569999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.462649</v>
+        <v>0.459924</v>
       </c>
       <c r="D108" t="n">
-        <v>0.525405</v>
+        <v>0.529888</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.568798</v>
+        <v>0.566644</v>
       </c>
       <c r="C109" t="n">
-        <v>0.473601</v>
+        <v>0.469881</v>
       </c>
       <c r="D109" t="n">
-        <v>0.529772</v>
+        <v>0.529505</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.609718</v>
+        <v>0.608864</v>
       </c>
       <c r="C110" t="n">
-        <v>0.552357</v>
+        <v>0.552297</v>
       </c>
       <c r="D110" t="n">
-        <v>0.531164</v>
+        <v>0.529838</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6097050000000001</v>
+        <v>0.611302</v>
       </c>
       <c r="C111" t="n">
-        <v>0.55255</v>
+        <v>0.558729</v>
       </c>
       <c r="D111" t="n">
-        <v>0.53026</v>
+        <v>0.528995</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6117860000000001</v>
+        <v>0.610658</v>
       </c>
       <c r="C112" t="n">
-        <v>0.559244</v>
+        <v>0.5571390000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.526763</v>
+        <v>0.529249</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.614882</v>
+        <v>0.612368</v>
       </c>
       <c r="C113" t="n">
-        <v>0.557851</v>
+        <v>0.5582</v>
       </c>
       <c r="D113" t="n">
-        <v>0.530976</v>
+        <v>0.532048</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.612</v>
+        <v>0.615544</v>
       </c>
       <c r="C114" t="n">
-        <v>0.554042</v>
+        <v>0.558675</v>
       </c>
       <c r="D114" t="n">
-        <v>0.534796</v>
+        <v>0.528297</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.614352</v>
+        <v>0.615133</v>
       </c>
       <c r="C115" t="n">
-        <v>0.555051</v>
+        <v>0.560566</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5354719999999999</v>
+        <v>0.528787</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.616378</v>
+        <v>0.61654</v>
       </c>
       <c r="C116" t="n">
-        <v>0.561072</v>
+        <v>0.563542</v>
       </c>
       <c r="D116" t="n">
-        <v>0.535985</v>
+        <v>0.530244</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.620521</v>
+        <v>0.618932</v>
       </c>
       <c r="C117" t="n">
-        <v>0.558759</v>
+        <v>0.561795</v>
       </c>
       <c r="D117" t="n">
-        <v>0.537901</v>
+        <v>0.531105</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.621649</v>
+        <v>0.621686</v>
       </c>
       <c r="C118" t="n">
-        <v>0.564617</v>
+        <v>0.560649</v>
       </c>
       <c r="D118" t="n">
-        <v>0.539605</v>
+        <v>0.539353</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.62665</v>
+        <v>0.625779</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5678339999999999</v>
+        <v>0.562229</v>
       </c>
       <c r="D119" t="n">
-        <v>0.542739</v>
+        <v>0.537574</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.631722</v>
+        <v>0.631592</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5709689999999999</v>
+        <v>0.565654</v>
       </c>
       <c r="D120" t="n">
-        <v>0.546424</v>
+        <v>0.54221</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.638831</v>
+        <v>0.6369629999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.570504</v>
+        <v>0.572915</v>
       </c>
       <c r="D121" t="n">
-        <v>0.55123</v>
+        <v>0.5507840000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.645127</v>
+        <v>0.646663</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5831</v>
+        <v>0.581591</v>
       </c>
       <c r="D122" t="n">
-        <v>0.555913</v>
+        <v>0.560304</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.65981</v>
+        <v>0.658623</v>
       </c>
       <c r="C123" t="n">
-        <v>0.585999</v>
+        <v>0.58179</v>
       </c>
       <c r="D123" t="n">
-        <v>0.690876</v>
+        <v>0.6879690000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.751661</v>
+        <v>0.748248</v>
       </c>
       <c r="C124" t="n">
-        <v>0.686992</v>
+        <v>0.68346</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6937410000000001</v>
+        <v>0.6886949999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.753209</v>
+        <v>0.748991</v>
       </c>
       <c r="C125" t="n">
-        <v>0.687223</v>
+        <v>0.683037</v>
       </c>
       <c r="D125" t="n">
-        <v>0.693765</v>
+        <v>0.687935</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.75388</v>
+        <v>0.74976</v>
       </c>
       <c r="C126" t="n">
-        <v>0.688692</v>
+        <v>0.682997</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6946560000000001</v>
+        <v>0.690205</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.755159</v>
+        <v>0.750584</v>
       </c>
       <c r="C127" t="n">
-        <v>0.689954</v>
+        <v>0.6858340000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.693667</v>
+        <v>0.692196</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.755182</v>
+        <v>0.7520210000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.689416</v>
+        <v>0.688077</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6927720000000001</v>
+        <v>0.69304</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.757082</v>
+        <v>0.753346</v>
       </c>
       <c r="C129" t="n">
-        <v>0.693153</v>
+        <v>0.687461</v>
       </c>
       <c r="D129" t="n">
-        <v>0.697749</v>
+        <v>0.691663</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.758993</v>
+        <v>0.754482</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6918800000000001</v>
+        <v>0.692076</v>
       </c>
       <c r="D130" t="n">
-        <v>0.698955</v>
+        <v>0.693845</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.759486</v>
+        <v>0.7562449999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.697587</v>
+        <v>0.692947</v>
       </c>
       <c r="D131" t="n">
-        <v>0.701161</v>
+        <v>0.699178</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7664800000000001</v>
+        <v>0.75915</v>
       </c>
       <c r="C132" t="n">
-        <v>0.702569</v>
+        <v>0.694887</v>
       </c>
       <c r="D132" t="n">
-        <v>0.704982</v>
+        <v>0.698314</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.767755</v>
+        <v>0.761595</v>
       </c>
       <c r="C133" t="n">
-        <v>0.705052</v>
+        <v>0.700384</v>
       </c>
       <c r="D133" t="n">
-        <v>0.708389</v>
+        <v>0.702939</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.774327</v>
+        <v>0.767608</v>
       </c>
       <c r="C134" t="n">
-        <v>0.709071</v>
+        <v>0.702132</v>
       </c>
       <c r="D134" t="n">
-        <v>0.711248</v>
+        <v>0.707826</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.779583</v>
+        <v>0.774011</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7136400000000001</v>
+        <v>0.7075360000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.714103</v>
+        <v>0.708354</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.789915</v>
+        <v>0.784524</v>
       </c>
       <c r="C136" t="n">
-        <v>0.722929</v>
+        <v>0.714759</v>
       </c>
       <c r="D136" t="n">
-        <v>0.72054</v>
+        <v>0.7198560000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.801754</v>
+        <v>0.798634</v>
       </c>
       <c r="C137" t="n">
-        <v>0.729395</v>
+        <v>0.723855</v>
       </c>
       <c r="D137" t="n">
-        <v>0.828722</v>
+        <v>0.828516</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.876674</v>
+        <v>0.875483</v>
       </c>
       <c r="C138" t="n">
-        <v>0.806346</v>
+        <v>0.808179</v>
       </c>
       <c r="D138" t="n">
-        <v>0.830549</v>
+        <v>0.830366</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.875505</v>
+        <v>0.878799</v>
       </c>
       <c r="C139" t="n">
-        <v>0.809527</v>
+        <v>0.812671</v>
       </c>
       <c r="D139" t="n">
-        <v>0.831139</v>
+        <v>0.832615</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.87598</v>
+        <v>0.878707</v>
       </c>
       <c r="C140" t="n">
-        <v>0.810921</v>
+        <v>0.813151</v>
       </c>
       <c r="D140" t="n">
-        <v>0.829125</v>
+        <v>0.832657</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.876175</v>
+        <v>0.879881</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8092549999999999</v>
+        <v>0.813855</v>
       </c>
       <c r="D141" t="n">
-        <v>0.832315</v>
+        <v>0.831561</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.877611</v>
+        <v>0.880785</v>
       </c>
       <c r="C142" t="n">
-        <v>0.813206</v>
+        <v>0.81571</v>
       </c>
       <c r="D142" t="n">
-        <v>0.831579</v>
+        <v>0.833808</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.878703</v>
+        <v>0.881213</v>
       </c>
       <c r="C143" t="n">
-        <v>0.811983</v>
+        <v>0.817306</v>
       </c>
       <c r="D143" t="n">
-        <v>0.833001</v>
+        <v>0.834917</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115531</v>
+        <v>0.115327</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08916449999999999</v>
+        <v>0.201766</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0997972</v>
+        <v>0.101656</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12718</v>
+        <v>0.115922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08906260000000001</v>
+        <v>0.189188</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0996355</v>
+        <v>0.101783</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116496</v>
+        <v>0.116486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08953999999999999</v>
+        <v>0.22012</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0999594</v>
+        <v>0.10237</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.132293</v>
+        <v>0.117374</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09024749999999999</v>
+        <v>0.224471</v>
       </c>
       <c r="D5" t="n">
-        <v>0.100466</v>
+        <v>0.102975</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.129575</v>
+        <v>0.118959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0902244</v>
+        <v>0.240518</v>
       </c>
       <c r="D6" t="n">
-        <v>0.10084</v>
+        <v>0.107001</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.124269</v>
+        <v>0.13223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0905388</v>
+        <v>0.243097</v>
       </c>
       <c r="D7" t="n">
-        <v>0.101616</v>
+        <v>0.103882</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.142919</v>
+        <v>0.128552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0912449</v>
+        <v>0.149727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103226</v>
+        <v>0.110944</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.147221</v>
+        <v>0.137573</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0931372</v>
+        <v>0.162076</v>
       </c>
       <c r="D9" t="n">
-        <v>0.106616</v>
+        <v>0.109782</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.136219</v>
+        <v>0.125814</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0986649</v>
+        <v>0.164269</v>
       </c>
       <c r="D10" t="n">
-        <v>0.106495</v>
+        <v>0.110796</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.128972</v>
+        <v>0.125685</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0987835</v>
+        <v>0.177461</v>
       </c>
       <c r="D11" t="n">
-        <v>0.106958</v>
+        <v>0.111668</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127753</v>
+        <v>0.125724</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0988039</v>
+        <v>0.169362</v>
       </c>
       <c r="D12" t="n">
-        <v>0.106646</v>
+        <v>0.111256</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.126441</v>
+        <v>0.126966</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09925970000000001</v>
+        <v>0.181457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.110361</v>
+        <v>0.110738</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128179</v>
+        <v>0.126336</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0991745</v>
+        <v>0.195696</v>
       </c>
       <c r="D14" t="n">
-        <v>0.108781</v>
+        <v>0.110723</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.127049</v>
+        <v>0.135053</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09945080000000001</v>
+        <v>0.207187</v>
       </c>
       <c r="D15" t="n">
-        <v>0.107571</v>
+        <v>0.111656</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.130192</v>
+        <v>0.127553</v>
       </c>
       <c r="C16" t="n">
-        <v>0.100197</v>
+        <v>0.214989</v>
       </c>
       <c r="D16" t="n">
-        <v>0.108052</v>
+        <v>0.111165</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130048</v>
+        <v>0.12942</v>
       </c>
       <c r="C17" t="n">
-        <v>0.100956</v>
+        <v>0.238229</v>
       </c>
       <c r="D17" t="n">
-        <v>0.10805</v>
+        <v>0.113624</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.13064</v>
+        <v>0.130061</v>
       </c>
       <c r="C18" t="n">
-        <v>0.100552</v>
+        <v>0.251579</v>
       </c>
       <c r="D18" t="n">
-        <v>0.111779</v>
+        <v>0.111686</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131625</v>
+        <v>0.138468</v>
       </c>
       <c r="C19" t="n">
-        <v>0.100525</v>
+        <v>0.264948</v>
       </c>
       <c r="D19" t="n">
-        <v>0.108565</v>
+        <v>0.116947</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.136737</v>
+        <v>0.144472</v>
       </c>
       <c r="C20" t="n">
-        <v>0.101554</v>
+        <v>0.26473</v>
       </c>
       <c r="D20" t="n">
-        <v>0.109699</v>
+        <v>0.115165</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.141695</v>
+        <v>0.14196</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102262</v>
+        <v>0.264529</v>
       </c>
       <c r="D21" t="n">
-        <v>0.11092</v>
+        <v>0.1128</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.149071</v>
+        <v>0.153051</v>
       </c>
       <c r="C22" t="n">
-        <v>0.106714</v>
+        <v>0.174463</v>
       </c>
       <c r="D22" t="n">
-        <v>0.115956</v>
+        <v>0.119941</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.157863</v>
+        <v>0.164276</v>
       </c>
       <c r="C23" t="n">
-        <v>0.11447</v>
+        <v>0.171514</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116213</v>
+        <v>0.120189</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134929</v>
+        <v>0.146889</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107915</v>
+        <v>0.185649</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116381</v>
+        <v>0.119788</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1345</v>
+        <v>0.137662</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108191</v>
+        <v>0.196139</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116304</v>
+        <v>0.120514</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134819</v>
+        <v>0.134662</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108286</v>
+        <v>0.201064</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116703</v>
+        <v>0.119704</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134722</v>
+        <v>0.135575</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108629</v>
+        <v>0.203618</v>
       </c>
       <c r="D27" t="n">
-        <v>0.116851</v>
+        <v>0.120828</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136106</v>
+        <v>0.135762</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108844</v>
+        <v>0.21332</v>
       </c>
       <c r="D28" t="n">
-        <v>0.11791</v>
+        <v>0.124049</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135924</v>
+        <v>0.137211</v>
       </c>
       <c r="C29" t="n">
-        <v>0.108939</v>
+        <v>0.227535</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117065</v>
+        <v>0.123297</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.13806</v>
+        <v>0.137851</v>
       </c>
       <c r="C30" t="n">
-        <v>0.10936</v>
+        <v>0.241265</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117147</v>
+        <v>0.122975</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138853</v>
+        <v>0.140033</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109967</v>
+        <v>0.243581</v>
       </c>
       <c r="D31" t="n">
-        <v>0.121086</v>
+        <v>0.122793</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140445</v>
+        <v>0.141241</v>
       </c>
       <c r="C32" t="n">
-        <v>0.110886</v>
+        <v>0.24603</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117638</v>
+        <v>0.123298</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.143675</v>
+        <v>0.14389</v>
       </c>
       <c r="C33" t="n">
-        <v>0.112677</v>
+        <v>0.28143</v>
       </c>
       <c r="D33" t="n">
-        <v>0.118021</v>
+        <v>0.122622</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147796</v>
+        <v>0.14796</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11516</v>
+        <v>0.290871</v>
       </c>
       <c r="D34" t="n">
-        <v>0.119297</v>
+        <v>0.12294</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152129</v>
+        <v>0.153334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.118756</v>
+        <v>0.292328</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123502</v>
+        <v>0.126575</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.158939</v>
+        <v>0.159928</v>
       </c>
       <c r="C36" t="n">
-        <v>0.12922</v>
+        <v>0.313578</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130712</v>
+        <v>0.134995</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.176599</v>
+        <v>0.166345</v>
       </c>
       <c r="C37" t="n">
-        <v>0.127519</v>
+        <v>0.180268</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128806</v>
+        <v>0.133109</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148443</v>
+        <v>0.147129</v>
       </c>
       <c r="C38" t="n">
-        <v>0.11905</v>
+        <v>0.190353</v>
       </c>
       <c r="D38" t="n">
-        <v>0.129476</v>
+        <v>0.132362</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14665</v>
+        <v>0.148583</v>
       </c>
       <c r="C39" t="n">
-        <v>0.119422</v>
+        <v>0.189534</v>
       </c>
       <c r="D39" t="n">
-        <v>0.129787</v>
+        <v>0.131512</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1479</v>
+        <v>0.147798</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11998</v>
+        <v>0.197414</v>
       </c>
       <c r="D40" t="n">
-        <v>0.129761</v>
+        <v>0.130636</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149373</v>
+        <v>0.152613</v>
       </c>
       <c r="C41" t="n">
-        <v>0.119999</v>
+        <v>0.20759</v>
       </c>
       <c r="D41" t="n">
-        <v>0.128289</v>
+        <v>0.130936</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.147898</v>
+        <v>0.149601</v>
       </c>
       <c r="C42" t="n">
-        <v>0.120498</v>
+        <v>0.205819</v>
       </c>
       <c r="D42" t="n">
-        <v>0.130017</v>
+        <v>0.129701</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150211</v>
+        <v>0.150743</v>
       </c>
       <c r="C43" t="n">
-        <v>0.121376</v>
+        <v>0.214452</v>
       </c>
       <c r="D43" t="n">
-        <v>0.129506</v>
+        <v>0.135105</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150579</v>
+        <v>0.167039</v>
       </c>
       <c r="C44" t="n">
-        <v>0.122729</v>
+        <v>0.226131</v>
       </c>
       <c r="D44" t="n">
-        <v>0.130252</v>
+        <v>0.132303</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.151956</v>
+        <v>0.160233</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124193</v>
+        <v>0.237017</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129717</v>
+        <v>0.137831</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.154035</v>
+        <v>0.156102</v>
       </c>
       <c r="C46" t="n">
-        <v>0.125705</v>
+        <v>0.260229</v>
       </c>
       <c r="D46" t="n">
-        <v>0.13158</v>
+        <v>0.135975</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156612</v>
+        <v>0.157452</v>
       </c>
       <c r="C47" t="n">
-        <v>0.126678</v>
+        <v>0.27884</v>
       </c>
       <c r="D47" t="n">
-        <v>0.131111</v>
+        <v>0.137712</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160172</v>
+        <v>0.174114</v>
       </c>
       <c r="C48" t="n">
-        <v>0.134402</v>
+        <v>0.279815</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13458</v>
+        <v>0.136552</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165233</v>
+        <v>0.165826</v>
       </c>
       <c r="C49" t="n">
-        <v>0.13191</v>
+        <v>0.288573</v>
       </c>
       <c r="D49" t="n">
-        <v>0.138302</v>
+        <v>0.139977</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169769</v>
+        <v>0.17086</v>
       </c>
       <c r="C50" t="n">
-        <v>0.133938</v>
+        <v>0.299986</v>
       </c>
       <c r="D50" t="n">
-        <v>0.142933</v>
+        <v>0.151081</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.179794</v>
+        <v>0.192078</v>
       </c>
       <c r="C51" t="n">
-        <v>0.145143</v>
+        <v>0.186003</v>
       </c>
       <c r="D51" t="n">
-        <v>0.143695</v>
+        <v>0.144698</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187847</v>
+        <v>0.19842</v>
       </c>
       <c r="C52" t="n">
-        <v>0.152312</v>
+        <v>0.193285</v>
       </c>
       <c r="D52" t="n">
-        <v>0.143389</v>
+        <v>0.145725</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160192</v>
+        <v>0.160302</v>
       </c>
       <c r="C53" t="n">
-        <v>0.12997</v>
+        <v>0.207535</v>
       </c>
       <c r="D53" t="n">
-        <v>0.14377</v>
+        <v>0.143869</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161898</v>
+        <v>0.159381</v>
       </c>
       <c r="C54" t="n">
-        <v>0.130757</v>
+        <v>0.198015</v>
       </c>
       <c r="D54" t="n">
-        <v>0.142729</v>
+        <v>0.143676</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.16103</v>
+        <v>0.161211</v>
       </c>
       <c r="C55" t="n">
-        <v>0.13091</v>
+        <v>0.214497</v>
       </c>
       <c r="D55" t="n">
-        <v>0.143058</v>
+        <v>0.144456</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161317</v>
+        <v>0.161918</v>
       </c>
       <c r="C56" t="n">
-        <v>0.131495</v>
+        <v>0.210079</v>
       </c>
       <c r="D56" t="n">
-        <v>0.143762</v>
+        <v>0.144137</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162122</v>
+        <v>0.162046</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133764</v>
+        <v>0.225608</v>
       </c>
       <c r="D57" t="n">
-        <v>0.143914</v>
+        <v>0.146233</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164545</v>
+        <v>0.164055</v>
       </c>
       <c r="C58" t="n">
-        <v>0.134136</v>
+        <v>0.241965</v>
       </c>
       <c r="D58" t="n">
-        <v>0.144221</v>
+        <v>0.144634</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165982</v>
+        <v>0.166027</v>
       </c>
       <c r="C59" t="n">
-        <v>0.13554</v>
+        <v>0.260411</v>
       </c>
       <c r="D59" t="n">
-        <v>0.144943</v>
+        <v>0.144451</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.166023</v>
+        <v>0.167554</v>
       </c>
       <c r="C60" t="n">
-        <v>0.13606</v>
+        <v>0.252588</v>
       </c>
       <c r="D60" t="n">
-        <v>0.145436</v>
+        <v>0.146595</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.168508</v>
+        <v>0.169367</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138501</v>
+        <v>0.272938</v>
       </c>
       <c r="D61" t="n">
-        <v>0.147392</v>
+        <v>0.152932</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1717</v>
+        <v>0.171105</v>
       </c>
       <c r="C62" t="n">
-        <v>0.140694</v>
+        <v>0.289674</v>
       </c>
       <c r="D62" t="n">
-        <v>0.149717</v>
+        <v>0.150365</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176637</v>
+        <v>0.176072</v>
       </c>
       <c r="C63" t="n">
-        <v>0.143203</v>
+        <v>0.319599</v>
       </c>
       <c r="D63" t="n">
-        <v>0.153198</v>
+        <v>0.151661</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182466</v>
+        <v>0.183286</v>
       </c>
       <c r="C64" t="n">
-        <v>0.14994</v>
+        <v>0.330217</v>
       </c>
       <c r="D64" t="n">
-        <v>0.157169</v>
+        <v>0.157496</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187043</v>
+        <v>0.187558</v>
       </c>
       <c r="C65" t="n">
-        <v>0.156809</v>
+        <v>0.190602</v>
       </c>
       <c r="D65" t="n">
-        <v>0.163663</v>
+        <v>0.168482</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1976</v>
+        <v>0.19822</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163615</v>
+        <v>0.188001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.156505</v>
+        <v>0.165039</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.182122</v>
+        <v>0.207324</v>
       </c>
       <c r="C67" t="n">
-        <v>0.146913</v>
+        <v>0.20337</v>
       </c>
       <c r="D67" t="n">
-        <v>0.157766</v>
+        <v>0.168537</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.182693</v>
+        <v>0.202441</v>
       </c>
       <c r="C68" t="n">
-        <v>0.14756</v>
+        <v>0.207452</v>
       </c>
       <c r="D68" t="n">
-        <v>0.156857</v>
+        <v>0.167379</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.185974</v>
+        <v>0.210395</v>
       </c>
       <c r="C69" t="n">
-        <v>0.147987</v>
+        <v>0.205031</v>
       </c>
       <c r="D69" t="n">
-        <v>0.157453</v>
+        <v>0.169143</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182405</v>
+        <v>0.21245</v>
       </c>
       <c r="C70" t="n">
-        <v>0.149277</v>
+        <v>0.222176</v>
       </c>
       <c r="D70" t="n">
-        <v>0.157629</v>
+        <v>0.167491</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.18344</v>
+        <v>0.211357</v>
       </c>
       <c r="C71" t="n">
-        <v>0.15134</v>
+        <v>0.238159</v>
       </c>
       <c r="D71" t="n">
-        <v>0.159271</v>
+        <v>0.166728</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.183631</v>
+        <v>0.21942</v>
       </c>
       <c r="C72" t="n">
-        <v>0.151646</v>
+        <v>0.257518</v>
       </c>
       <c r="D72" t="n">
-        <v>0.159166</v>
+        <v>0.168446</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.18499</v>
+        <v>0.215975</v>
       </c>
       <c r="C73" t="n">
-        <v>0.152549</v>
+        <v>0.258492</v>
       </c>
       <c r="D73" t="n">
-        <v>0.160327</v>
+        <v>0.167976</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194583</v>
+        <v>0.218195</v>
       </c>
       <c r="C74" t="n">
-        <v>0.155764</v>
+        <v>0.26034</v>
       </c>
       <c r="D74" t="n">
-        <v>0.161486</v>
+        <v>0.17119</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.191755</v>
+        <v>0.221344</v>
       </c>
       <c r="C75" t="n">
-        <v>0.157045</v>
+        <v>0.269474</v>
       </c>
       <c r="D75" t="n">
-        <v>0.162673</v>
+        <v>0.170266</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19458</v>
+        <v>0.224271</v>
       </c>
       <c r="C76" t="n">
-        <v>0.161875</v>
+        <v>0.280817</v>
       </c>
       <c r="D76" t="n">
-        <v>0.164276</v>
+        <v>0.173858</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19913</v>
+        <v>0.237188</v>
       </c>
       <c r="C77" t="n">
-        <v>0.160672</v>
+        <v>0.303653</v>
       </c>
       <c r="D77" t="n">
-        <v>0.165899</v>
+        <v>0.178377</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.203804</v>
+        <v>0.228053</v>
       </c>
       <c r="C78" t="n">
-        <v>0.164554</v>
+        <v>0.314725</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170066</v>
+        <v>0.185161</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.210731</v>
+        <v>0.225024</v>
       </c>
       <c r="C79" t="n">
-        <v>0.166446</v>
+        <v>0.236967</v>
       </c>
       <c r="D79" t="n">
-        <v>0.176062</v>
+        <v>0.186463</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216023</v>
+        <v>0.242123</v>
       </c>
       <c r="C80" t="n">
-        <v>0.177631</v>
+        <v>0.255354</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233346</v>
+        <v>0.243398</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.362985</v>
+        <v>0.364427</v>
       </c>
       <c r="C81" t="n">
-        <v>0.285203</v>
+        <v>0.241723</v>
       </c>
       <c r="D81" t="n">
-        <v>0.235203</v>
+        <v>0.238756</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.36282</v>
+        <v>0.357439</v>
       </c>
       <c r="C82" t="n">
-        <v>0.280574</v>
+        <v>0.235155</v>
       </c>
       <c r="D82" t="n">
-        <v>0.232517</v>
+        <v>0.235075</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.359553</v>
+        <v>0.362351</v>
       </c>
       <c r="C83" t="n">
-        <v>0.283334</v>
+        <v>0.232318</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234019</v>
+        <v>0.235912</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.362977</v>
+        <v>0.361159</v>
       </c>
       <c r="C84" t="n">
-        <v>0.279637</v>
+        <v>0.258157</v>
       </c>
       <c r="D84" t="n">
-        <v>0.23398</v>
+        <v>0.235418</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.362555</v>
+        <v>0.366153</v>
       </c>
       <c r="C85" t="n">
-        <v>0.279511</v>
+        <v>0.266539</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230829</v>
+        <v>0.236349</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.366337</v>
+        <v>0.360971</v>
       </c>
       <c r="C86" t="n">
-        <v>0.275799</v>
+        <v>0.255148</v>
       </c>
       <c r="D86" t="n">
-        <v>0.231615</v>
+        <v>0.234506</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.36361</v>
+        <v>0.364493</v>
       </c>
       <c r="C87" t="n">
-        <v>0.278863</v>
+        <v>0.273049</v>
       </c>
       <c r="D87" t="n">
-        <v>0.229847</v>
+        <v>0.234943</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.371636</v>
+        <v>0.367236</v>
       </c>
       <c r="C88" t="n">
-        <v>0.27274</v>
+        <v>0.295191</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2309</v>
+        <v>0.232141</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.368644</v>
+        <v>0.36994</v>
       </c>
       <c r="C89" t="n">
-        <v>0.274563</v>
+        <v>0.317618</v>
       </c>
       <c r="D89" t="n">
-        <v>0.229538</v>
+        <v>0.231014</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.369895</v>
+        <v>0.369515</v>
       </c>
       <c r="C90" t="n">
-        <v>0.272635</v>
+        <v>0.323144</v>
       </c>
       <c r="D90" t="n">
-        <v>0.229105</v>
+        <v>0.231703</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.373859</v>
+        <v>0.38158</v>
       </c>
       <c r="C91" t="n">
-        <v>0.275404</v>
+        <v>0.346722</v>
       </c>
       <c r="D91" t="n">
-        <v>0.228351</v>
+        <v>0.231503</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3792</v>
+        <v>0.375639</v>
       </c>
       <c r="C92" t="n">
-        <v>0.274355</v>
+        <v>0.353001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229946</v>
+        <v>0.232925</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.377576</v>
+        <v>0.378541</v>
       </c>
       <c r="C93" t="n">
-        <v>0.279266</v>
+        <v>0.381969</v>
       </c>
       <c r="D93" t="n">
-        <v>0.230144</v>
+        <v>0.238043</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.386451</v>
+        <v>0.385305</v>
       </c>
       <c r="C94" t="n">
-        <v>0.281202</v>
+        <v>0.399427</v>
       </c>
       <c r="D94" t="n">
-        <v>0.391784</v>
+        <v>0.390211</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.528328</v>
+        <v>0.522438</v>
       </c>
       <c r="C95" t="n">
-        <v>0.447832</v>
+        <v>0.421782</v>
       </c>
       <c r="D95" t="n">
-        <v>0.390832</v>
+        <v>0.389983</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.52895</v>
+        <v>0.522113</v>
       </c>
       <c r="C96" t="n">
-        <v>0.447545</v>
+        <v>0.401041</v>
       </c>
       <c r="D96" t="n">
-        <v>0.391997</v>
+        <v>0.389282</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.529681</v>
+        <v>0.522458</v>
       </c>
       <c r="C97" t="n">
-        <v>0.446857</v>
+        <v>0.382315</v>
       </c>
       <c r="D97" t="n">
-        <v>0.390074</v>
+        <v>0.389308</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.529913</v>
+        <v>0.5273910000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.446469</v>
+        <v>0.393549</v>
       </c>
       <c r="D98" t="n">
-        <v>0.38833</v>
+        <v>0.388589</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.530174</v>
+        <v>0.528188</v>
       </c>
       <c r="C99" t="n">
-        <v>0.446449</v>
+        <v>0.403477</v>
       </c>
       <c r="D99" t="n">
-        <v>0.38865</v>
+        <v>0.387559</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5308349999999999</v>
+        <v>0.5254760000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.445224</v>
+        <v>0.415845</v>
       </c>
       <c r="D100" t="n">
-        <v>0.388552</v>
+        <v>0.39401</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.531216</v>
+        <v>0.526455</v>
       </c>
       <c r="C101" t="n">
-        <v>0.445965</v>
+        <v>0.434504</v>
       </c>
       <c r="D101" t="n">
-        <v>0.388505</v>
+        <v>0.387078</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.532918</v>
+        <v>0.526971</v>
       </c>
       <c r="C102" t="n">
-        <v>0.444587</v>
+        <v>0.468798</v>
       </c>
       <c r="D102" t="n">
-        <v>0.390041</v>
+        <v>0.3883</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.534629</v>
+        <v>0.5292829999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.445757</v>
+        <v>0.473935</v>
       </c>
       <c r="D103" t="n">
-        <v>0.390025</v>
+        <v>0.387808</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.536754</v>
+        <v>0.530828</v>
       </c>
       <c r="C104" t="n">
-        <v>0.447101</v>
+        <v>0.512379</v>
       </c>
       <c r="D104" t="n">
-        <v>0.391517</v>
+        <v>0.390237</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.539843</v>
+        <v>0.532799</v>
       </c>
       <c r="C105" t="n">
-        <v>0.447601</v>
+        <v>0.526666</v>
       </c>
       <c r="D105" t="n">
-        <v>0.393831</v>
+        <v>0.394034</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.543835</v>
+        <v>0.5369660000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.451391</v>
+        <v>0.519002</v>
       </c>
       <c r="D106" t="n">
-        <v>0.39631</v>
+        <v>0.395566</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.549658</v>
+        <v>0.542367</v>
       </c>
       <c r="C107" t="n">
-        <v>0.454017</v>
+        <v>0.538806</v>
       </c>
       <c r="D107" t="n">
-        <v>0.402571</v>
+        <v>0.401153</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5567569999999999</v>
+        <v>0.5500119999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.459924</v>
+        <v>0.476699</v>
       </c>
       <c r="D108" t="n">
-        <v>0.529888</v>
+        <v>0.526095</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.566644</v>
+        <v>0.5609189999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.469881</v>
+        <v>0.564754</v>
       </c>
       <c r="D109" t="n">
-        <v>0.529505</v>
+        <v>0.526604</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.608864</v>
+        <v>0.603711</v>
       </c>
       <c r="C110" t="n">
-        <v>0.552297</v>
+        <v>0.599561</v>
       </c>
       <c r="D110" t="n">
-        <v>0.529838</v>
+        <v>0.528458</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.611302</v>
+        <v>0.6087050000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.558729</v>
+        <v>0.571655</v>
       </c>
       <c r="D111" t="n">
-        <v>0.528995</v>
+        <v>0.525668</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.610658</v>
+        <v>0.605587</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5571390000000001</v>
+        <v>0.511699</v>
       </c>
       <c r="D112" t="n">
-        <v>0.529249</v>
+        <v>0.529034</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.612368</v>
+        <v>0.607013</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5582</v>
+        <v>0.520881</v>
       </c>
       <c r="D113" t="n">
-        <v>0.532048</v>
+        <v>0.534734</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.615544</v>
+        <v>0.606182</v>
       </c>
       <c r="C114" t="n">
-        <v>0.558675</v>
+        <v>0.537903</v>
       </c>
       <c r="D114" t="n">
-        <v>0.528297</v>
+        <v>0.530154</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.615133</v>
+        <v>0.608542</v>
       </c>
       <c r="C115" t="n">
-        <v>0.560566</v>
+        <v>0.566296</v>
       </c>
       <c r="D115" t="n">
-        <v>0.528787</v>
+        <v>0.527879</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.61654</v>
+        <v>0.607789</v>
       </c>
       <c r="C116" t="n">
-        <v>0.563542</v>
+        <v>0.677434</v>
       </c>
       <c r="D116" t="n">
-        <v>0.530244</v>
+        <v>0.529006</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.618932</v>
+        <v>0.61261</v>
       </c>
       <c r="C117" t="n">
-        <v>0.561795</v>
+        <v>0.666927</v>
       </c>
       <c r="D117" t="n">
-        <v>0.531105</v>
+        <v>0.5314489999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.621686</v>
+        <v>0.6135699999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.560649</v>
+        <v>0.657758</v>
       </c>
       <c r="D118" t="n">
-        <v>0.539353</v>
+        <v>0.534442</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.625779</v>
+        <v>0.620211</v>
       </c>
       <c r="C119" t="n">
-        <v>0.562229</v>
+        <v>0.716136</v>
       </c>
       <c r="D119" t="n">
-        <v>0.537574</v>
+        <v>0.537882</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.631592</v>
+        <v>0.624932</v>
       </c>
       <c r="C120" t="n">
-        <v>0.565654</v>
+        <v>0.707654</v>
       </c>
       <c r="D120" t="n">
-        <v>0.54221</v>
+        <v>0.542447</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6369629999999999</v>
+        <v>0.6320249999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.572915</v>
+        <v>0.7285970000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5507840000000001</v>
+        <v>0.546423</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.646663</v>
+        <v>0.639489</v>
       </c>
       <c r="C122" t="n">
-        <v>0.581591</v>
+        <v>0.661345</v>
       </c>
       <c r="D122" t="n">
-        <v>0.560304</v>
+        <v>0.555059</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.658623</v>
+        <v>0.651697</v>
       </c>
       <c r="C123" t="n">
-        <v>0.58179</v>
+        <v>0.684731</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6879690000000001</v>
+        <v>0.682988</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.748248</v>
+        <v>0.7430290000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.68346</v>
+        <v>0.543534</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6886949999999999</v>
+        <v>0.684401</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.748991</v>
+        <v>0.7448360000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.683037</v>
+        <v>0.7020420000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.687935</v>
+        <v>0.684329</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.74976</v>
+        <v>0.7449170000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.682997</v>
+        <v>0.563658</v>
       </c>
       <c r="D126" t="n">
-        <v>0.690205</v>
+        <v>0.688453</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.750584</v>
+        <v>0.745715</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6858340000000001</v>
+        <v>0.573197</v>
       </c>
       <c r="D127" t="n">
-        <v>0.692196</v>
+        <v>0.6897529999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7520210000000001</v>
+        <v>0.746041</v>
       </c>
       <c r="C128" t="n">
-        <v>0.688077</v>
+        <v>0.691174</v>
       </c>
       <c r="D128" t="n">
-        <v>0.69304</v>
+        <v>0.6857569999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.753346</v>
+        <v>0.747794</v>
       </c>
       <c r="C129" t="n">
-        <v>0.687461</v>
+        <v>0.743681</v>
       </c>
       <c r="D129" t="n">
-        <v>0.691663</v>
+        <v>0.689866</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.754482</v>
+        <v>0.749166</v>
       </c>
       <c r="C130" t="n">
-        <v>0.692076</v>
+        <v>0.657619</v>
       </c>
       <c r="D130" t="n">
-        <v>0.693845</v>
+        <v>0.692039</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7562449999999999</v>
+        <v>0.75326</v>
       </c>
       <c r="C131" t="n">
-        <v>0.692947</v>
+        <v>0.775055</v>
       </c>
       <c r="D131" t="n">
-        <v>0.699178</v>
+        <v>0.69404</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.75915</v>
+        <v>0.7564650000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.694887</v>
+        <v>0.799592</v>
       </c>
       <c r="D132" t="n">
-        <v>0.698314</v>
+        <v>0.69636</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.761595</v>
+        <v>0.760209</v>
       </c>
       <c r="C133" t="n">
-        <v>0.700384</v>
+        <v>0.795138</v>
       </c>
       <c r="D133" t="n">
-        <v>0.702939</v>
+        <v>0.695987</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.767608</v>
+        <v>0.765283</v>
       </c>
       <c r="C134" t="n">
-        <v>0.702132</v>
+        <v>0.808233</v>
       </c>
       <c r="D134" t="n">
-        <v>0.707826</v>
+        <v>0.702294</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.774011</v>
+        <v>0.770699</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7075360000000001</v>
+        <v>0.833345</v>
       </c>
       <c r="D135" t="n">
-        <v>0.708354</v>
+        <v>0.707826</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.784524</v>
+        <v>0.778406</v>
       </c>
       <c r="C136" t="n">
-        <v>0.714759</v>
+        <v>0.659786</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7198560000000001</v>
+        <v>0.7142309999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.798634</v>
+        <v>0.791502</v>
       </c>
       <c r="C137" t="n">
-        <v>0.723855</v>
+        <v>0.713081</v>
       </c>
       <c r="D137" t="n">
-        <v>0.828516</v>
+        <v>0.82157</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.875483</v>
+        <v>0.86453</v>
       </c>
       <c r="C138" t="n">
-        <v>0.808179</v>
+        <v>0.744175</v>
       </c>
       <c r="D138" t="n">
-        <v>0.830366</v>
+        <v>0.820959</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.878799</v>
+        <v>0.864543</v>
       </c>
       <c r="C139" t="n">
-        <v>0.812671</v>
+        <v>0.738805</v>
       </c>
       <c r="D139" t="n">
-        <v>0.832615</v>
+        <v>0.822277</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.878707</v>
+        <v>0.865462</v>
       </c>
       <c r="C140" t="n">
-        <v>0.813151</v>
+        <v>0.744772</v>
       </c>
       <c r="D140" t="n">
-        <v>0.832657</v>
+        <v>0.823305</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.879881</v>
+        <v>0.866532</v>
       </c>
       <c r="C141" t="n">
-        <v>0.813855</v>
+        <v>0.76427</v>
       </c>
       <c r="D141" t="n">
-        <v>0.831561</v>
+        <v>0.822425</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.880785</v>
+        <v>0.8661759999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>0.81571</v>
+        <v>0.768836</v>
       </c>
       <c r="D142" t="n">
-        <v>0.833808</v>
+        <v>0.825618</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.881213</v>
+        <v>0.8678979999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.817306</v>
+        <v>0.799673</v>
       </c>
       <c r="D143" t="n">
-        <v>0.834917</v>
+        <v>0.82523</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.0196963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0197664</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0200026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0201517</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201028</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0204562</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0206393</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0210339</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194206</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0195253</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0197643</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019862</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0200936</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204092</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204507</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206229</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0210343</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0211918</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.0215584</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0226513</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0258862</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.020452</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0206124</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207985</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0209652</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211055</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213203</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0217535</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0218513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0222928</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0226911</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.0235535</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0253242</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0277768</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0318669</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0214937</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0216708</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0218145</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0221247</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0222181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.022927</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0232657</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0238669</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0247955</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0260839</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.0280282</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0309436</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0352915</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0413191</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0232368</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0234077</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0234742</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0236931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0240065</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0243635</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.024742</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0254421</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0265507</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0278997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0300643</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0326618</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0366612</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0418935</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0281649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0283172</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.028481</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0286097</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0290029</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0293089</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0298234</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0304538</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0316262</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0328268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.034701</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0373006</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0405111</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.0453079</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0556282</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0556663</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0556563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0557576</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0561199</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0563284</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0566175</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0569801</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0575295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0584884</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.059328</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0609849</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.06332119999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.06701559999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.08579050000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085844</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.0859253</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.0859871</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.0861041</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.08631809999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0864688</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.087584</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.0871972</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08776539999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0885425</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.0897765</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0918954</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0951462</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.100134</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107276</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.107381</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.10763</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10747</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.107654</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108084</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.108774</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109483</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110216</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.111529</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.123333</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.114818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.117767</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.122643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.140956</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141254</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.141098</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141288</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.136251</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.1347</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.134998</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.135211</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.135722</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.136719</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.138058</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.138669</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.146036</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.147156</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.159468</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.157919</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.157814</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158306</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158314</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158718</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0370058</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0418052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0487309</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.057161</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.0638789</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.07558529999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0263746</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.0290195</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0319614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0351258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.0398863</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0439152</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0487144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0551437</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0637769</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.0718377</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.081882</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.09108090000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0974773</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.106323</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0397852</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0423426</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0452109</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0487996</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0527075</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0566831</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.06295779999999999</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0682238</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0771483</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.08561050000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0935257</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.103656</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.113227</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.123492</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.13034</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0509253</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0528575</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0577256</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0607325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0659752</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0703324</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.0767769</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.08390450000000001</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0925863</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.101274</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.11083</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.118478</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.125043</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.133906</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0529698</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0564495</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0593078</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0635886</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0686663</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.07259549999999999</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.07936020000000001</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.08643149999999999</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.09494660000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.104919</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.114287</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.122709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.129562</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.137533</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0546936</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0582601</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0617354</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0656432</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.07027899999999999</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.07689410000000001</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.0822326</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0895243</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.097702</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.107574</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.117728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.127246</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.134567</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.142834</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.064026</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0678048</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0717135</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0761748</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0812459</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0872613</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0936657</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.101731</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.111373</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.122588</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.133557</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.145035</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.154768</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.165492</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.17807</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.08862009999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0928022</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0974573</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.102899</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.117126</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.126086</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.137067</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.149677</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.163346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.192176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.209788</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.241063</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.111904</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.106764</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.110996</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.116155</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.123372</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.12867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.138409</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.146729</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.159703</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.171725</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.189215</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.206254</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.232862</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.300725</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.111313</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.118709</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.123239</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.128603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.134652</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.144169</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.150707</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.163675</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.19273</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.211146</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.248366</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.325236</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.115816</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.119248</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.123083</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.127447</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.132918</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.146881</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.154942</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0228125</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0226735</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.022881</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0228038</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0230981</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0232579</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0235219</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0232438</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0227364</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0231432</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0234719</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0235736</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0239307</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0240582</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.0241979</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0242753</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0244821</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0247755</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0250051</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.0262359</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0230816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0233082</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0236264</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0238223</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0242118</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0245034</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0247956</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.0251358</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0254192</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.025719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0260563</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0271309</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0289687</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0327012</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0240634</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0243796</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0245387</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0247873</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0250755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0252754</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0257843</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0261995</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0266811</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0271738</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0278438</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0291553</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0325561</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.0358238</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0243208</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0245637</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.0248053</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0250541</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0253017</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0258172</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.0261726</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0266081</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0271423</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0280035</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.02913</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0307407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0332634</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0376615</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0436362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0266204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0269618</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0273013</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0276864</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0282598</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0286701</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0289658</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0296943</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0308191</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0320137</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0337115</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0362699</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0399167</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0449066</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0395087</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.0404645</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0415858</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0423343</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0424792</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.043633</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.0447561</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.0453725</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0460016</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0469517</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0487554</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0506627</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0536386</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.058453</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.0785825</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.0789784</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.07963629999999999</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.0799203</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0804226</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0810888</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0818702</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.0822594</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.0861224</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.08439530000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.0860368</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.0872131</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.0897109</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0933244</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.09642630000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0977301</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0987176</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0995547</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.100355</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.101544</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.102478</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.103852</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.10514</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.106707</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.107111</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.110501</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.113388</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.117326</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.123656</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.113449</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.114553</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.115303</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.116783</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.11776</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.11949</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.120603</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.122672</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.124019</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.128612</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.131664</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.135936</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.14231</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.125329</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.126594</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.127683</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.128925</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.130349</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.131775</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.133565</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115531</v>
+        <v>0.11529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08916449999999999</v>
+        <v>0.0902361</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0997972</v>
+        <v>0.100092</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12718</v>
+        <v>0.116749</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08906260000000001</v>
+        <v>0.0898191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0996355</v>
+        <v>0.100238</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116496</v>
+        <v>0.117028</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08953999999999999</v>
+        <v>0.0898559</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0999594</v>
+        <v>0.100113</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.132293</v>
+        <v>0.118846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09024749999999999</v>
+        <v>0.09070300000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.100466</v>
+        <v>0.100932</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.129575</v>
+        <v>0.12062</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0902244</v>
+        <v>0.0908862</v>
       </c>
       <c r="D6" t="n">
-        <v>0.10084</v>
+        <v>0.10138</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.124269</v>
+        <v>0.123424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0905388</v>
+        <v>0.0909281</v>
       </c>
       <c r="D7" t="n">
-        <v>0.101616</v>
+        <v>0.101968</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.142919</v>
+        <v>0.131488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0912449</v>
+        <v>0.0917979</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103226</v>
+        <v>0.103785</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.147221</v>
+        <v>0.141988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0931372</v>
+        <v>0.0932653</v>
       </c>
       <c r="D9" t="n">
-        <v>0.106616</v>
+        <v>0.105429</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.136219</v>
+        <v>0.124098</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0986649</v>
+        <v>0.09927370000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.106495</v>
+        <v>0.107548</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.128972</v>
+        <v>0.12571</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0987835</v>
+        <v>0.0990974</v>
       </c>
       <c r="D11" t="n">
-        <v>0.106958</v>
+        <v>0.106876</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127753</v>
+        <v>0.124058</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0988039</v>
+        <v>0.0990182</v>
       </c>
       <c r="D12" t="n">
-        <v>0.106646</v>
+        <v>0.10688</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.126441</v>
+        <v>0.125925</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09925970000000001</v>
+        <v>0.0989418</v>
       </c>
       <c r="D13" t="n">
-        <v>0.110361</v>
+        <v>0.106881</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128179</v>
+        <v>0.136426</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0991745</v>
+        <v>0.09919840000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.108781</v>
+        <v>0.110852</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.127049</v>
+        <v>0.129516</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09945080000000001</v>
+        <v>0.09917239999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.107571</v>
+        <v>0.109639</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.130192</v>
+        <v>0.127148</v>
       </c>
       <c r="C16" t="n">
-        <v>0.100197</v>
+        <v>0.09948750000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.108052</v>
+        <v>0.109134</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130048</v>
+        <v>0.127449</v>
       </c>
       <c r="C17" t="n">
-        <v>0.100956</v>
+        <v>0.100054</v>
       </c>
       <c r="D17" t="n">
-        <v>0.10805</v>
+        <v>0.108057</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.13064</v>
+        <v>0.12913</v>
       </c>
       <c r="C18" t="n">
-        <v>0.100552</v>
+        <v>0.100216</v>
       </c>
       <c r="D18" t="n">
-        <v>0.111779</v>
+        <v>0.108917</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131625</v>
+        <v>0.141346</v>
       </c>
       <c r="C19" t="n">
-        <v>0.100525</v>
+        <v>0.100819</v>
       </c>
       <c r="D19" t="n">
-        <v>0.108565</v>
+        <v>0.108851</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.136737</v>
+        <v>0.137322</v>
       </c>
       <c r="C20" t="n">
-        <v>0.101554</v>
+        <v>0.10429</v>
       </c>
       <c r="D20" t="n">
-        <v>0.109699</v>
+        <v>0.110607</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.141695</v>
+        <v>0.141029</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102262</v>
+        <v>0.105287</v>
       </c>
       <c r="D21" t="n">
-        <v>0.11092</v>
+        <v>0.111016</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.149071</v>
+        <v>0.147899</v>
       </c>
       <c r="C22" t="n">
-        <v>0.106714</v>
+        <v>0.110125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.115956</v>
+        <v>0.115424</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.157863</v>
+        <v>0.159561</v>
       </c>
       <c r="C23" t="n">
-        <v>0.11447</v>
+        <v>0.110504</v>
       </c>
       <c r="D23" t="n">
-        <v>0.116213</v>
+        <v>0.118734</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134929</v>
+        <v>0.136688</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107915</v>
+        <v>0.111625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116381</v>
+        <v>0.121132</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1345</v>
+        <v>0.134303</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108191</v>
+        <v>0.110559</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116304</v>
+        <v>0.122547</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134819</v>
+        <v>0.137093</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108286</v>
+        <v>0.10928</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116703</v>
+        <v>0.118387</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134722</v>
+        <v>0.136192</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108629</v>
+        <v>0.110815</v>
       </c>
       <c r="D27" t="n">
-        <v>0.116851</v>
+        <v>0.119267</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136106</v>
+        <v>0.136715</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108844</v>
+        <v>0.110522</v>
       </c>
       <c r="D28" t="n">
-        <v>0.11791</v>
+        <v>0.119039</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135924</v>
+        <v>0.138224</v>
       </c>
       <c r="C29" t="n">
-        <v>0.108939</v>
+        <v>0.112079</v>
       </c>
       <c r="D29" t="n">
-        <v>0.117065</v>
+        <v>0.123341</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.13806</v>
+        <v>0.138399</v>
       </c>
       <c r="C30" t="n">
-        <v>0.10936</v>
+        <v>0.112491</v>
       </c>
       <c r="D30" t="n">
-        <v>0.117147</v>
+        <v>0.121643</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138853</v>
+        <v>0.149245</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109967</v>
+        <v>0.115706</v>
       </c>
       <c r="D31" t="n">
-        <v>0.121086</v>
+        <v>0.122557</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140445</v>
+        <v>0.141387</v>
       </c>
       <c r="C32" t="n">
-        <v>0.110886</v>
+        <v>0.111497</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117638</v>
+        <v>0.128905</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.143675</v>
+        <v>0.144809</v>
       </c>
       <c r="C33" t="n">
-        <v>0.112677</v>
+        <v>0.112003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.118021</v>
+        <v>0.120272</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147796</v>
+        <v>0.148956</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11516</v>
+        <v>0.117296</v>
       </c>
       <c r="D34" t="n">
-        <v>0.119297</v>
+        <v>0.122496</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152129</v>
+        <v>0.152633</v>
       </c>
       <c r="C35" t="n">
-        <v>0.118756</v>
+        <v>0.115354</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123502</v>
+        <v>0.128694</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.158939</v>
+        <v>0.160599</v>
       </c>
       <c r="C36" t="n">
-        <v>0.12922</v>
+        <v>0.120776</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130712</v>
+        <v>0.13259</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.176599</v>
+        <v>0.171092</v>
       </c>
       <c r="C37" t="n">
-        <v>0.127519</v>
+        <v>0.132289</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128806</v>
+        <v>0.127578</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148443</v>
+        <v>0.148751</v>
       </c>
       <c r="C38" t="n">
-        <v>0.11905</v>
+        <v>0.120207</v>
       </c>
       <c r="D38" t="n">
-        <v>0.129476</v>
+        <v>0.131399</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14665</v>
+        <v>0.149384</v>
       </c>
       <c r="C39" t="n">
-        <v>0.119422</v>
+        <v>0.119557</v>
       </c>
       <c r="D39" t="n">
-        <v>0.129787</v>
+        <v>0.130302</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1479</v>
+        <v>0.148243</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11998</v>
+        <v>0.120692</v>
       </c>
       <c r="D40" t="n">
-        <v>0.129761</v>
+        <v>0.131334</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149373</v>
+        <v>0.148389</v>
       </c>
       <c r="C41" t="n">
-        <v>0.119999</v>
+        <v>0.120815</v>
       </c>
       <c r="D41" t="n">
-        <v>0.128289</v>
+        <v>0.131008</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.147898</v>
+        <v>0.152135</v>
       </c>
       <c r="C42" t="n">
-        <v>0.120498</v>
+        <v>0.121623</v>
       </c>
       <c r="D42" t="n">
-        <v>0.130017</v>
+        <v>0.131539</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150211</v>
+        <v>0.153016</v>
       </c>
       <c r="C43" t="n">
-        <v>0.121376</v>
+        <v>0.122609</v>
       </c>
       <c r="D43" t="n">
-        <v>0.129506</v>
+        <v>0.136328</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150579</v>
+        <v>0.154119</v>
       </c>
       <c r="C44" t="n">
-        <v>0.122729</v>
+        <v>0.121706</v>
       </c>
       <c r="D44" t="n">
-        <v>0.130252</v>
+        <v>0.133445</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.151956</v>
+        <v>0.153939</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124193</v>
+        <v>0.126111</v>
       </c>
       <c r="D45" t="n">
-        <v>0.129717</v>
+        <v>0.133448</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.154035</v>
+        <v>0.158385</v>
       </c>
       <c r="C46" t="n">
-        <v>0.125705</v>
+        <v>0.130807</v>
       </c>
       <c r="D46" t="n">
-        <v>0.13158</v>
+        <v>0.135632</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156612</v>
+        <v>0.157439</v>
       </c>
       <c r="C47" t="n">
-        <v>0.126678</v>
+        <v>0.126141</v>
       </c>
       <c r="D47" t="n">
-        <v>0.131111</v>
+        <v>0.139028</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160172</v>
+        <v>0.162087</v>
       </c>
       <c r="C48" t="n">
-        <v>0.134402</v>
+        <v>0.126362</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13458</v>
+        <v>0.141676</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165233</v>
+        <v>0.16647</v>
       </c>
       <c r="C49" t="n">
-        <v>0.13191</v>
+        <v>0.129468</v>
       </c>
       <c r="D49" t="n">
-        <v>0.138302</v>
+        <v>0.140449</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169769</v>
+        <v>0.171125</v>
       </c>
       <c r="C50" t="n">
-        <v>0.133938</v>
+        <v>0.136199</v>
       </c>
       <c r="D50" t="n">
-        <v>0.142933</v>
+        <v>0.145324</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.179794</v>
+        <v>0.178844</v>
       </c>
       <c r="C51" t="n">
-        <v>0.145143</v>
+        <v>0.137413</v>
       </c>
       <c r="D51" t="n">
-        <v>0.143695</v>
+        <v>0.144851</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187847</v>
+        <v>0.187492</v>
       </c>
       <c r="C52" t="n">
-        <v>0.152312</v>
+        <v>0.145355</v>
       </c>
       <c r="D52" t="n">
-        <v>0.143389</v>
+        <v>0.144397</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160192</v>
+        <v>0.159633</v>
       </c>
       <c r="C53" t="n">
-        <v>0.12997</v>
+        <v>0.129723</v>
       </c>
       <c r="D53" t="n">
-        <v>0.14377</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161898</v>
+        <v>0.161599</v>
       </c>
       <c r="C54" t="n">
-        <v>0.130757</v>
+        <v>0.130178</v>
       </c>
       <c r="D54" t="n">
-        <v>0.142729</v>
+        <v>0.149669</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.16103</v>
+        <v>0.162016</v>
       </c>
       <c r="C55" t="n">
-        <v>0.13091</v>
+        <v>0.130332</v>
       </c>
       <c r="D55" t="n">
-        <v>0.143058</v>
+        <v>0.143725</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161317</v>
+        <v>0.161654</v>
       </c>
       <c r="C56" t="n">
-        <v>0.131495</v>
+        <v>0.131066</v>
       </c>
       <c r="D56" t="n">
-        <v>0.143762</v>
+        <v>0.143086</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162122</v>
+        <v>0.163079</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133764</v>
+        <v>0.132733</v>
       </c>
       <c r="D57" t="n">
-        <v>0.143914</v>
+        <v>0.144546</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164545</v>
+        <v>0.16423</v>
       </c>
       <c r="C58" t="n">
-        <v>0.134136</v>
+        <v>0.132024</v>
       </c>
       <c r="D58" t="n">
-        <v>0.144221</v>
+        <v>0.145459</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165982</v>
+        <v>0.166267</v>
       </c>
       <c r="C59" t="n">
-        <v>0.13554</v>
+        <v>0.133597</v>
       </c>
       <c r="D59" t="n">
-        <v>0.144943</v>
+        <v>0.144694</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.166023</v>
+        <v>0.167148</v>
       </c>
       <c r="C60" t="n">
-        <v>0.13606</v>
+        <v>0.13463</v>
       </c>
       <c r="D60" t="n">
-        <v>0.145436</v>
+        <v>0.145865</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.168508</v>
+        <v>0.168585</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138501</v>
+        <v>0.136445</v>
       </c>
       <c r="D61" t="n">
-        <v>0.147392</v>
+        <v>0.147389</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1717</v>
+        <v>0.173122</v>
       </c>
       <c r="C62" t="n">
-        <v>0.140694</v>
+        <v>0.13757</v>
       </c>
       <c r="D62" t="n">
-        <v>0.149717</v>
+        <v>0.149892</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176637</v>
+        <v>0.176498</v>
       </c>
       <c r="C63" t="n">
-        <v>0.143203</v>
+        <v>0.140867</v>
       </c>
       <c r="D63" t="n">
-        <v>0.153198</v>
+        <v>0.153049</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182466</v>
+        <v>0.181072</v>
       </c>
       <c r="C64" t="n">
-        <v>0.14994</v>
+        <v>0.143478</v>
       </c>
       <c r="D64" t="n">
-        <v>0.157169</v>
+        <v>0.158176</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187043</v>
+        <v>0.187505</v>
       </c>
       <c r="C65" t="n">
-        <v>0.156809</v>
+        <v>0.153052</v>
       </c>
       <c r="D65" t="n">
-        <v>0.163663</v>
+        <v>0.169824</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1976</v>
+        <v>0.19735</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163615</v>
+        <v>0.161933</v>
       </c>
       <c r="D66" t="n">
-        <v>0.156505</v>
+        <v>0.157623</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.182122</v>
+        <v>0.181158</v>
       </c>
       <c r="C67" t="n">
-        <v>0.146913</v>
+        <v>0.148594</v>
       </c>
       <c r="D67" t="n">
-        <v>0.157766</v>
+        <v>0.157877</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.182693</v>
+        <v>0.178849</v>
       </c>
       <c r="C68" t="n">
-        <v>0.14756</v>
+        <v>0.147603</v>
       </c>
       <c r="D68" t="n">
-        <v>0.156857</v>
+        <v>0.158927</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.185974</v>
+        <v>0.179864</v>
       </c>
       <c r="C69" t="n">
-        <v>0.147987</v>
+        <v>0.154127</v>
       </c>
       <c r="D69" t="n">
-        <v>0.157453</v>
+        <v>0.158256</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182405</v>
+        <v>0.183332</v>
       </c>
       <c r="C70" t="n">
-        <v>0.149277</v>
+        <v>0.147297</v>
       </c>
       <c r="D70" t="n">
-        <v>0.157629</v>
+        <v>0.159424</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.18344</v>
+        <v>0.181546</v>
       </c>
       <c r="C71" t="n">
-        <v>0.15134</v>
+        <v>0.149056</v>
       </c>
       <c r="D71" t="n">
-        <v>0.159271</v>
+        <v>0.158537</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.183631</v>
+        <v>0.18426</v>
       </c>
       <c r="C72" t="n">
-        <v>0.151646</v>
+        <v>0.152041</v>
       </c>
       <c r="D72" t="n">
-        <v>0.159166</v>
+        <v>0.166776</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.18499</v>
+        <v>0.187706</v>
       </c>
       <c r="C73" t="n">
-        <v>0.152549</v>
+        <v>0.150243</v>
       </c>
       <c r="D73" t="n">
-        <v>0.160327</v>
+        <v>0.167876</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194583</v>
+        <v>0.186691</v>
       </c>
       <c r="C74" t="n">
-        <v>0.155764</v>
+        <v>0.151541</v>
       </c>
       <c r="D74" t="n">
-        <v>0.161486</v>
+        <v>0.161622</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.191755</v>
+        <v>0.187365</v>
       </c>
       <c r="C75" t="n">
-        <v>0.157045</v>
+        <v>0.153962</v>
       </c>
       <c r="D75" t="n">
-        <v>0.162673</v>
+        <v>0.163539</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19458</v>
+        <v>0.190761</v>
       </c>
       <c r="C76" t="n">
-        <v>0.161875</v>
+        <v>0.156061</v>
       </c>
       <c r="D76" t="n">
-        <v>0.164276</v>
+        <v>0.164559</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19913</v>
+        <v>0.197034</v>
       </c>
       <c r="C77" t="n">
-        <v>0.160672</v>
+        <v>0.157888</v>
       </c>
       <c r="D77" t="n">
-        <v>0.165899</v>
+        <v>0.173225</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.203804</v>
+        <v>0.201832</v>
       </c>
       <c r="C78" t="n">
-        <v>0.164554</v>
+        <v>0.162203</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170066</v>
+        <v>0.16965</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.210731</v>
+        <v>0.206611</v>
       </c>
       <c r="C79" t="n">
-        <v>0.166446</v>
+        <v>0.16441</v>
       </c>
       <c r="D79" t="n">
-        <v>0.176062</v>
+        <v>0.182491</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216023</v>
+        <v>0.216516</v>
       </c>
       <c r="C80" t="n">
-        <v>0.177631</v>
+        <v>0.170666</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233346</v>
+        <v>0.234063</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.362985</v>
+        <v>0.361745</v>
       </c>
       <c r="C81" t="n">
-        <v>0.285203</v>
+        <v>0.288035</v>
       </c>
       <c r="D81" t="n">
-        <v>0.235203</v>
+        <v>0.233419</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.36282</v>
+        <v>0.362816</v>
       </c>
       <c r="C82" t="n">
-        <v>0.280574</v>
+        <v>0.266437</v>
       </c>
       <c r="D82" t="n">
-        <v>0.232517</v>
+        <v>0.236788</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.359553</v>
+        <v>0.364506</v>
       </c>
       <c r="C83" t="n">
-        <v>0.283334</v>
+        <v>0.282617</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234019</v>
+        <v>0.234923</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.362977</v>
+        <v>0.369588</v>
       </c>
       <c r="C84" t="n">
-        <v>0.279637</v>
+        <v>0.282124</v>
       </c>
       <c r="D84" t="n">
-        <v>0.23398</v>
+        <v>0.234345</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.362555</v>
+        <v>0.369635</v>
       </c>
       <c r="C85" t="n">
-        <v>0.279511</v>
+        <v>0.281924</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230829</v>
+        <v>0.234795</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.366337</v>
+        <v>0.371325</v>
       </c>
       <c r="C86" t="n">
-        <v>0.275799</v>
+        <v>0.281355</v>
       </c>
       <c r="D86" t="n">
-        <v>0.231615</v>
+        <v>0.234881</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.36361</v>
+        <v>0.367895</v>
       </c>
       <c r="C87" t="n">
-        <v>0.278863</v>
+        <v>0.27926</v>
       </c>
       <c r="D87" t="n">
-        <v>0.229847</v>
+        <v>0.233359</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.371636</v>
+        <v>0.370941</v>
       </c>
       <c r="C88" t="n">
-        <v>0.27274</v>
+        <v>0.276426</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2309</v>
+        <v>0.232866</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.368644</v>
+        <v>0.373579</v>
       </c>
       <c r="C89" t="n">
-        <v>0.274563</v>
+        <v>0.275482</v>
       </c>
       <c r="D89" t="n">
-        <v>0.229538</v>
+        <v>0.228848</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.369895</v>
+        <v>0.376021</v>
       </c>
       <c r="C90" t="n">
-        <v>0.272635</v>
+        <v>0.277932</v>
       </c>
       <c r="D90" t="n">
-        <v>0.229105</v>
+        <v>0.230897</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.373859</v>
+        <v>0.377258</v>
       </c>
       <c r="C91" t="n">
-        <v>0.275404</v>
+        <v>0.276129</v>
       </c>
       <c r="D91" t="n">
-        <v>0.228351</v>
+        <v>0.231646</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3792</v>
+        <v>0.381865</v>
       </c>
       <c r="C92" t="n">
-        <v>0.274355</v>
+        <v>0.279434</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229946</v>
+        <v>0.233103</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.377576</v>
+        <v>0.386594</v>
       </c>
       <c r="C93" t="n">
-        <v>0.279266</v>
+        <v>0.278984</v>
       </c>
       <c r="D93" t="n">
-        <v>0.230144</v>
+        <v>0.23871</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.386451</v>
+        <v>0.391596</v>
       </c>
       <c r="C94" t="n">
-        <v>0.281202</v>
+        <v>0.289032</v>
       </c>
       <c r="D94" t="n">
-        <v>0.391784</v>
+        <v>0.393985</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.528328</v>
+        <v>0.532691</v>
       </c>
       <c r="C95" t="n">
-        <v>0.447832</v>
+        <v>0.452174</v>
       </c>
       <c r="D95" t="n">
-        <v>0.390832</v>
+        <v>0.383803</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.52895</v>
+        <v>0.532515</v>
       </c>
       <c r="C96" t="n">
-        <v>0.447545</v>
+        <v>0.452874</v>
       </c>
       <c r="D96" t="n">
-        <v>0.391997</v>
+        <v>0.393355</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.529681</v>
+        <v>0.532833</v>
       </c>
       <c r="C97" t="n">
-        <v>0.446857</v>
+        <v>0.439263</v>
       </c>
       <c r="D97" t="n">
-        <v>0.390074</v>
+        <v>0.392356</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.529913</v>
+        <v>0.533334</v>
       </c>
       <c r="C98" t="n">
-        <v>0.446469</v>
+        <v>0.450019</v>
       </c>
       <c r="D98" t="n">
-        <v>0.38833</v>
+        <v>0.391231</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.530174</v>
+        <v>0.534744</v>
       </c>
       <c r="C99" t="n">
-        <v>0.446449</v>
+        <v>0.43726</v>
       </c>
       <c r="D99" t="n">
-        <v>0.38865</v>
+        <v>0.391248</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5308349999999999</v>
+        <v>0.534309</v>
       </c>
       <c r="C100" t="n">
-        <v>0.445224</v>
+        <v>0.44984</v>
       </c>
       <c r="D100" t="n">
-        <v>0.388552</v>
+        <v>0.392818</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.531216</v>
+        <v>0.537283</v>
       </c>
       <c r="C101" t="n">
-        <v>0.445965</v>
+        <v>0.438625</v>
       </c>
       <c r="D101" t="n">
-        <v>0.388505</v>
+        <v>0.393192</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.532918</v>
+        <v>0.538305</v>
       </c>
       <c r="C102" t="n">
-        <v>0.444587</v>
+        <v>0.449782</v>
       </c>
       <c r="D102" t="n">
-        <v>0.390041</v>
+        <v>0.378752</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.534629</v>
+        <v>0.539348</v>
       </c>
       <c r="C103" t="n">
-        <v>0.445757</v>
+        <v>0.450171</v>
       </c>
       <c r="D103" t="n">
-        <v>0.390025</v>
+        <v>0.393073</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.536754</v>
+        <v>0.542111</v>
       </c>
       <c r="C104" t="n">
-        <v>0.447101</v>
+        <v>0.451036</v>
       </c>
       <c r="D104" t="n">
-        <v>0.391517</v>
+        <v>0.394525</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.539843</v>
+        <v>0.544762</v>
       </c>
       <c r="C105" t="n">
-        <v>0.447601</v>
+        <v>0.452026</v>
       </c>
       <c r="D105" t="n">
-        <v>0.393831</v>
+        <v>0.397263</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.543835</v>
+        <v>0.548803</v>
       </c>
       <c r="C106" t="n">
-        <v>0.451391</v>
+        <v>0.441463</v>
       </c>
       <c r="D106" t="n">
-        <v>0.39631</v>
+        <v>0.38807</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.549658</v>
+        <v>0.553607</v>
       </c>
       <c r="C107" t="n">
-        <v>0.454017</v>
+        <v>0.445583</v>
       </c>
       <c r="D107" t="n">
-        <v>0.402571</v>
+        <v>0.399138</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5567569999999999</v>
+        <v>0.562042</v>
       </c>
       <c r="C108" t="n">
-        <v>0.459924</v>
+        <v>0.461757</v>
       </c>
       <c r="D108" t="n">
-        <v>0.529888</v>
+        <v>0.531293</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.566644</v>
+        <v>0.572096</v>
       </c>
       <c r="C109" t="n">
-        <v>0.469881</v>
+        <v>0.469787</v>
       </c>
       <c r="D109" t="n">
-        <v>0.529505</v>
+        <v>0.522252</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.608864</v>
+        <v>0.613267</v>
       </c>
       <c r="C110" t="n">
-        <v>0.552297</v>
+        <v>0.557573</v>
       </c>
       <c r="D110" t="n">
-        <v>0.529838</v>
+        <v>0.523142</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.611302</v>
+        <v>0.6130060000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.558729</v>
+        <v>0.557341</v>
       </c>
       <c r="D111" t="n">
-        <v>0.528995</v>
+        <v>0.530054</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.610658</v>
+        <v>0.613438</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5571390000000001</v>
+        <v>0.557609</v>
       </c>
       <c r="D112" t="n">
-        <v>0.529249</v>
+        <v>0.530298</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.612368</v>
+        <v>0.613096</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5582</v>
+        <v>0.5590270000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.532048</v>
+        <v>0.53234</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.615544</v>
+        <v>0.612428</v>
       </c>
       <c r="C114" t="n">
-        <v>0.558675</v>
+        <v>0.558886</v>
       </c>
       <c r="D114" t="n">
-        <v>0.528297</v>
+        <v>0.532664</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.615133</v>
+        <v>0.6180099999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.560566</v>
+        <v>0.554254</v>
       </c>
       <c r="D115" t="n">
-        <v>0.528787</v>
+        <v>0.534171</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.61654</v>
+        <v>0.617458</v>
       </c>
       <c r="C116" t="n">
-        <v>0.563542</v>
+        <v>0.561572</v>
       </c>
       <c r="D116" t="n">
-        <v>0.530244</v>
+        <v>0.5345529999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.618932</v>
+        <v>0.620824</v>
       </c>
       <c r="C117" t="n">
-        <v>0.561795</v>
+        <v>0.561339</v>
       </c>
       <c r="D117" t="n">
-        <v>0.531105</v>
+        <v>0.537094</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.621686</v>
+        <v>0.622498</v>
       </c>
       <c r="C118" t="n">
-        <v>0.560649</v>
+        <v>0.562518</v>
       </c>
       <c r="D118" t="n">
-        <v>0.539353</v>
+        <v>0.539614</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.625779</v>
+        <v>0.62662</v>
       </c>
       <c r="C119" t="n">
-        <v>0.562229</v>
+        <v>0.564906</v>
       </c>
       <c r="D119" t="n">
-        <v>0.537574</v>
+        <v>0.542633</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.631592</v>
+        <v>0.630796</v>
       </c>
       <c r="C120" t="n">
-        <v>0.565654</v>
+        <v>0.5680730000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.54221</v>
+        <v>0.546802</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6369629999999999</v>
+        <v>0.638357</v>
       </c>
       <c r="C121" t="n">
-        <v>0.572915</v>
+        <v>0.573285</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5507840000000001</v>
+        <v>0.5521160000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.646663</v>
+        <v>0.647737</v>
       </c>
       <c r="C122" t="n">
-        <v>0.581591</v>
+        <v>0.574119</v>
       </c>
       <c r="D122" t="n">
-        <v>0.560304</v>
+        <v>0.559702</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.658623</v>
+        <v>0.6606109999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.58179</v>
+        <v>0.587242</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6879690000000001</v>
+        <v>0.691035</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.748248</v>
+        <v>0.750426</v>
       </c>
       <c r="C124" t="n">
-        <v>0.68346</v>
+        <v>0.6858030000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6886949999999999</v>
+        <v>0.694059</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.748991</v>
+        <v>0.750601</v>
       </c>
       <c r="C125" t="n">
-        <v>0.683037</v>
+        <v>0.6862470000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.687935</v>
+        <v>0.691833</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.74976</v>
+        <v>0.7515309999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>0.682997</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.690205</v>
+        <v>0.693396</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.750584</v>
+        <v>0.754232</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6858340000000001</v>
+        <v>0.688917</v>
       </c>
       <c r="D127" t="n">
-        <v>0.692196</v>
+        <v>0.695877</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7520210000000001</v>
+        <v>0.754355</v>
       </c>
       <c r="C128" t="n">
-        <v>0.688077</v>
+        <v>0.685198</v>
       </c>
       <c r="D128" t="n">
-        <v>0.69304</v>
+        <v>0.692126</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.753346</v>
+        <v>0.7554689999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.687461</v>
+        <v>0.687384</v>
       </c>
       <c r="D129" t="n">
-        <v>0.691663</v>
+        <v>0.695257</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.754482</v>
+        <v>0.7571059999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.692076</v>
+        <v>0.692925</v>
       </c>
       <c r="D130" t="n">
-        <v>0.693845</v>
+        <v>0.696592</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7562449999999999</v>
+        <v>0.761104</v>
       </c>
       <c r="C131" t="n">
-        <v>0.692947</v>
+        <v>0.69572</v>
       </c>
       <c r="D131" t="n">
-        <v>0.699178</v>
+        <v>0.697387</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.75915</v>
+        <v>0.761601</v>
       </c>
       <c r="C132" t="n">
-        <v>0.694887</v>
+        <v>0.697659</v>
       </c>
       <c r="D132" t="n">
-        <v>0.698314</v>
+        <v>0.701972</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.761595</v>
+        <v>0.76615</v>
       </c>
       <c r="C133" t="n">
-        <v>0.700384</v>
+        <v>0.698202</v>
       </c>
       <c r="D133" t="n">
-        <v>0.702939</v>
+        <v>0.7051809999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.767608</v>
+        <v>0.772321</v>
       </c>
       <c r="C134" t="n">
-        <v>0.702132</v>
+        <v>0.706054</v>
       </c>
       <c r="D134" t="n">
-        <v>0.707826</v>
+        <v>0.704436</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.774011</v>
+        <v>0.779849</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7075360000000001</v>
+        <v>0.705659</v>
       </c>
       <c r="D135" t="n">
-        <v>0.708354</v>
+        <v>0.71021</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.784524</v>
+        <v>0.7881629999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.714759</v>
+        <v>0.716521</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7198560000000001</v>
+        <v>0.71813</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.798634</v>
+        <v>0.79955</v>
       </c>
       <c r="C137" t="n">
-        <v>0.723855</v>
+        <v>0.719269</v>
       </c>
       <c r="D137" t="n">
-        <v>0.828516</v>
+        <v>0.824624</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.875483</v>
+        <v>0.874095</v>
       </c>
       <c r="C138" t="n">
-        <v>0.808179</v>
+        <v>0.805407</v>
       </c>
       <c r="D138" t="n">
-        <v>0.830366</v>
+        <v>0.825325</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.878799</v>
+        <v>0.873702</v>
       </c>
       <c r="C139" t="n">
-        <v>0.812671</v>
+        <v>0.805474</v>
       </c>
       <c r="D139" t="n">
-        <v>0.832615</v>
+        <v>0.827027</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.878707</v>
+        <v>0.875292</v>
       </c>
       <c r="C140" t="n">
-        <v>0.813151</v>
+        <v>0.808293</v>
       </c>
       <c r="D140" t="n">
-        <v>0.832657</v>
+        <v>0.8269030000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.879881</v>
+        <v>0.874918</v>
       </c>
       <c r="C141" t="n">
-        <v>0.813855</v>
+        <v>0.8093089999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.831561</v>
+        <v>0.825353</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.880785</v>
+        <v>0.876088</v>
       </c>
       <c r="C142" t="n">
-        <v>0.81571</v>
+        <v>0.810832</v>
       </c>
       <c r="D142" t="n">
-        <v>0.833808</v>
+        <v>0.827909</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.881213</v>
+        <v>0.877622</v>
       </c>
       <c r="C143" t="n">
-        <v>0.817306</v>
+        <v>0.812122</v>
       </c>
       <c r="D143" t="n">
-        <v>0.834917</v>
+        <v>0.828418</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11529</v>
+        <v>0.119164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0902361</v>
+        <v>0.0912192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.100092</v>
+        <v>0.106861</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116749</v>
+        <v>0.120957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0898191</v>
+        <v>0.09348430000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.100238</v>
+        <v>0.0994975</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117028</v>
+        <v>0.1203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0898559</v>
+        <v>0.09254800000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.100113</v>
+        <v>0.105355</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118846</v>
+        <v>0.121337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09070300000000001</v>
+        <v>0.0926109</v>
       </c>
       <c r="D5" t="n">
-        <v>0.100932</v>
+        <v>0.106122</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12062</v>
+        <v>0.123162</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0908862</v>
+        <v>0.09282600000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.10138</v>
+        <v>0.106038</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.123424</v>
+        <v>0.127558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0909281</v>
+        <v>0.0937513</v>
       </c>
       <c r="D7" t="n">
-        <v>0.101968</v>
+        <v>0.111991</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.131488</v>
+        <v>0.133848</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0917979</v>
+        <v>0.09495099999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103785</v>
+        <v>0.102905</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.141988</v>
+        <v>0.14502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0932653</v>
+        <v>0.096021</v>
       </c>
       <c r="D9" t="n">
-        <v>0.105429</v>
+        <v>0.113704</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124098</v>
+        <v>0.126903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09927370000000001</v>
+        <v>0.09864779999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.107548</v>
+        <v>0.111553</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.12571</v>
+        <v>0.127364</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0990974</v>
+        <v>0.09966940000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.106876</v>
+        <v>0.116214</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124058</v>
+        <v>0.12947</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0990182</v>
+        <v>0.09995950000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.10688</v>
+        <v>0.115705</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125925</v>
+        <v>0.127086</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0989418</v>
+        <v>0.100589</v>
       </c>
       <c r="D13" t="n">
-        <v>0.106881</v>
+        <v>0.108303</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.136426</v>
+        <v>0.131049</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09919840000000001</v>
+        <v>0.100866</v>
       </c>
       <c r="D14" t="n">
-        <v>0.110852</v>
+        <v>0.110725</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129516</v>
+        <v>0.12972</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09917239999999999</v>
+        <v>0.101148</v>
       </c>
       <c r="D15" t="n">
-        <v>0.109639</v>
+        <v>0.110722</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127148</v>
+        <v>0.131657</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09948750000000001</v>
+        <v>0.101588</v>
       </c>
       <c r="D16" t="n">
-        <v>0.109134</v>
+        <v>0.116228</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127449</v>
+        <v>0.131973</v>
       </c>
       <c r="C17" t="n">
-        <v>0.100054</v>
+        <v>0.101212</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108057</v>
+        <v>0.10961</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12913</v>
+        <v>0.133708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.100216</v>
+        <v>0.101579</v>
       </c>
       <c r="D18" t="n">
-        <v>0.108917</v>
+        <v>0.118377</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.141346</v>
+        <v>0.141633</v>
       </c>
       <c r="C19" t="n">
-        <v>0.100819</v>
+        <v>0.101748</v>
       </c>
       <c r="D19" t="n">
-        <v>0.108851</v>
+        <v>0.116574</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.137322</v>
+        <v>0.140482</v>
       </c>
       <c r="C20" t="n">
-        <v>0.10429</v>
+        <v>0.102256</v>
       </c>
       <c r="D20" t="n">
-        <v>0.110607</v>
+        <v>0.116569</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.141029</v>
+        <v>0.149947</v>
       </c>
       <c r="C21" t="n">
-        <v>0.105287</v>
+        <v>0.103578</v>
       </c>
       <c r="D21" t="n">
-        <v>0.111016</v>
+        <v>0.121761</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.147899</v>
+        <v>0.149186</v>
       </c>
       <c r="C22" t="n">
-        <v>0.110125</v>
+        <v>0.108606</v>
       </c>
       <c r="D22" t="n">
-        <v>0.115424</v>
+        <v>0.12373</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.159561</v>
+        <v>0.169359</v>
       </c>
       <c r="C23" t="n">
-        <v>0.110504</v>
+        <v>0.115451</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118734</v>
+        <v>0.124072</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136688</v>
+        <v>0.133844</v>
       </c>
       <c r="C24" t="n">
-        <v>0.111625</v>
+        <v>0.109432</v>
       </c>
       <c r="D24" t="n">
-        <v>0.121132</v>
+        <v>0.116158</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134303</v>
+        <v>0.136582</v>
       </c>
       <c r="C25" t="n">
-        <v>0.110559</v>
+        <v>0.109352</v>
       </c>
       <c r="D25" t="n">
-        <v>0.122547</v>
+        <v>0.123238</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137093</v>
+        <v>0.135991</v>
       </c>
       <c r="C26" t="n">
-        <v>0.10928</v>
+        <v>0.10936</v>
       </c>
       <c r="D26" t="n">
-        <v>0.118387</v>
+        <v>0.124526</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136192</v>
+        <v>0.136456</v>
       </c>
       <c r="C27" t="n">
-        <v>0.110815</v>
+        <v>0.109387</v>
       </c>
       <c r="D27" t="n">
-        <v>0.119267</v>
+        <v>0.120832</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136715</v>
+        <v>0.136063</v>
       </c>
       <c r="C28" t="n">
-        <v>0.110522</v>
+        <v>0.109682</v>
       </c>
       <c r="D28" t="n">
-        <v>0.119039</v>
+        <v>0.117761</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.138224</v>
+        <v>0.138479</v>
       </c>
       <c r="C29" t="n">
-        <v>0.112079</v>
+        <v>0.110193</v>
       </c>
       <c r="D29" t="n">
-        <v>0.123341</v>
+        <v>0.125034</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138399</v>
+        <v>0.139759</v>
       </c>
       <c r="C30" t="n">
-        <v>0.112491</v>
+        <v>0.110431</v>
       </c>
       <c r="D30" t="n">
-        <v>0.121643</v>
+        <v>0.120716</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.149245</v>
+        <v>0.139828</v>
       </c>
       <c r="C31" t="n">
-        <v>0.115706</v>
+        <v>0.110723</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122557</v>
+        <v>0.127333</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141387</v>
+        <v>0.142642</v>
       </c>
       <c r="C32" t="n">
-        <v>0.111497</v>
+        <v>0.112263</v>
       </c>
       <c r="D32" t="n">
-        <v>0.128905</v>
+        <v>0.123747</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144809</v>
+        <v>0.144413</v>
       </c>
       <c r="C33" t="n">
-        <v>0.112003</v>
+        <v>0.114409</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120272</v>
+        <v>0.121757</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.148956</v>
+        <v>0.149212</v>
       </c>
       <c r="C34" t="n">
-        <v>0.117296</v>
+        <v>0.116639</v>
       </c>
       <c r="D34" t="n">
-        <v>0.122496</v>
+        <v>0.125118</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152633</v>
+        <v>0.152003</v>
       </c>
       <c r="C35" t="n">
-        <v>0.115354</v>
+        <v>0.11983</v>
       </c>
       <c r="D35" t="n">
-        <v>0.128694</v>
+        <v>0.130945</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.160599</v>
+        <v>0.160358</v>
       </c>
       <c r="C36" t="n">
-        <v>0.120776</v>
+        <v>0.123897</v>
       </c>
       <c r="D36" t="n">
-        <v>0.13259</v>
+        <v>0.132935</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171092</v>
+        <v>0.166919</v>
       </c>
       <c r="C37" t="n">
-        <v>0.132289</v>
+        <v>0.128633</v>
       </c>
       <c r="D37" t="n">
-        <v>0.127578</v>
+        <v>0.137003</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148751</v>
+        <v>0.146658</v>
       </c>
       <c r="C38" t="n">
-        <v>0.120207</v>
+        <v>0.12079</v>
       </c>
       <c r="D38" t="n">
-        <v>0.131399</v>
+        <v>0.135455</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149384</v>
+        <v>0.147481</v>
       </c>
       <c r="C39" t="n">
-        <v>0.119557</v>
+        <v>0.120161</v>
       </c>
       <c r="D39" t="n">
-        <v>0.130302</v>
+        <v>0.134963</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148243</v>
+        <v>0.148597</v>
       </c>
       <c r="C40" t="n">
-        <v>0.120692</v>
+        <v>0.120209</v>
       </c>
       <c r="D40" t="n">
-        <v>0.131334</v>
+        <v>0.138321</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148389</v>
+        <v>0.153881</v>
       </c>
       <c r="C41" t="n">
-        <v>0.120815</v>
+        <v>0.120185</v>
       </c>
       <c r="D41" t="n">
-        <v>0.131008</v>
+        <v>0.132723</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.152135</v>
+        <v>0.149531</v>
       </c>
       <c r="C42" t="n">
-        <v>0.121623</v>
+        <v>0.120405</v>
       </c>
       <c r="D42" t="n">
-        <v>0.131539</v>
+        <v>0.133849</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.153016</v>
+        <v>0.158089</v>
       </c>
       <c r="C43" t="n">
-        <v>0.122609</v>
+        <v>0.122111</v>
       </c>
       <c r="D43" t="n">
-        <v>0.136328</v>
+        <v>0.139655</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.154119</v>
+        <v>0.150514</v>
       </c>
       <c r="C44" t="n">
-        <v>0.121706</v>
+        <v>0.123286</v>
       </c>
       <c r="D44" t="n">
-        <v>0.133445</v>
+        <v>0.128668</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153939</v>
+        <v>0.159243</v>
       </c>
       <c r="C45" t="n">
-        <v>0.126111</v>
+        <v>0.123714</v>
       </c>
       <c r="D45" t="n">
-        <v>0.133448</v>
+        <v>0.133566</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.158385</v>
+        <v>0.155135</v>
       </c>
       <c r="C46" t="n">
-        <v>0.130807</v>
+        <v>0.125551</v>
       </c>
       <c r="D46" t="n">
-        <v>0.135632</v>
+        <v>0.134228</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.157439</v>
+        <v>0.165571</v>
       </c>
       <c r="C47" t="n">
-        <v>0.126141</v>
+        <v>0.128368</v>
       </c>
       <c r="D47" t="n">
-        <v>0.139028</v>
+        <v>0.136709</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.162087</v>
+        <v>0.162626</v>
       </c>
       <c r="C48" t="n">
-        <v>0.126362</v>
+        <v>0.130075</v>
       </c>
       <c r="D48" t="n">
-        <v>0.141676</v>
+        <v>0.140481</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.16647</v>
+        <v>0.164489</v>
       </c>
       <c r="C49" t="n">
-        <v>0.129468</v>
+        <v>0.132071</v>
       </c>
       <c r="D49" t="n">
-        <v>0.140449</v>
+        <v>0.141948</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171125</v>
+        <v>0.17762</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136199</v>
+        <v>0.141849</v>
       </c>
       <c r="D50" t="n">
-        <v>0.145324</v>
+        <v>0.150739</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178844</v>
+        <v>0.180402</v>
       </c>
       <c r="C51" t="n">
-        <v>0.137413</v>
+        <v>0.139533</v>
       </c>
       <c r="D51" t="n">
-        <v>0.144851</v>
+        <v>0.146331</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187492</v>
+        <v>0.187671</v>
       </c>
       <c r="C52" t="n">
-        <v>0.145355</v>
+        <v>0.14496</v>
       </c>
       <c r="D52" t="n">
-        <v>0.144397</v>
+        <v>0.145159</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159633</v>
+        <v>0.160583</v>
       </c>
       <c r="C53" t="n">
-        <v>0.129723</v>
+        <v>0.12937</v>
       </c>
       <c r="D53" t="n">
-        <v>0.144221</v>
+        <v>0.140037</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161599</v>
+        <v>0.162439</v>
       </c>
       <c r="C54" t="n">
-        <v>0.130178</v>
+        <v>0.129593</v>
       </c>
       <c r="D54" t="n">
-        <v>0.149669</v>
+        <v>0.144314</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.162016</v>
+        <v>0.160386</v>
       </c>
       <c r="C55" t="n">
-        <v>0.130332</v>
+        <v>0.130866</v>
       </c>
       <c r="D55" t="n">
-        <v>0.143725</v>
+        <v>0.143944</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161654</v>
+        <v>0.1627</v>
       </c>
       <c r="C56" t="n">
-        <v>0.131066</v>
+        <v>0.132466</v>
       </c>
       <c r="D56" t="n">
-        <v>0.143086</v>
+        <v>0.155179</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163079</v>
+        <v>0.163211</v>
       </c>
       <c r="C57" t="n">
-        <v>0.132733</v>
+        <v>0.133562</v>
       </c>
       <c r="D57" t="n">
-        <v>0.144546</v>
+        <v>0.149315</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.16423</v>
+        <v>0.163733</v>
       </c>
       <c r="C58" t="n">
-        <v>0.132024</v>
+        <v>0.133926</v>
       </c>
       <c r="D58" t="n">
-        <v>0.145459</v>
+        <v>0.146823</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166267</v>
+        <v>0.1658</v>
       </c>
       <c r="C59" t="n">
-        <v>0.133597</v>
+        <v>0.135584</v>
       </c>
       <c r="D59" t="n">
-        <v>0.144694</v>
+        <v>0.148601</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167148</v>
+        <v>0.167415</v>
       </c>
       <c r="C60" t="n">
-        <v>0.13463</v>
+        <v>0.136426</v>
       </c>
       <c r="D60" t="n">
-        <v>0.145865</v>
+        <v>0.146277</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.168585</v>
+        <v>0.169405</v>
       </c>
       <c r="C61" t="n">
-        <v>0.136445</v>
+        <v>0.138155</v>
       </c>
       <c r="D61" t="n">
-        <v>0.147389</v>
+        <v>0.146627</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173122</v>
+        <v>0.172468</v>
       </c>
       <c r="C62" t="n">
-        <v>0.13757</v>
+        <v>0.137646</v>
       </c>
       <c r="D62" t="n">
-        <v>0.149892</v>
+        <v>0.153644</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176498</v>
+        <v>0.176688</v>
       </c>
       <c r="C63" t="n">
-        <v>0.140867</v>
+        <v>0.139353</v>
       </c>
       <c r="D63" t="n">
-        <v>0.153049</v>
+        <v>0.156574</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.181072</v>
+        <v>0.18143</v>
       </c>
       <c r="C64" t="n">
-        <v>0.143478</v>
+        <v>0.14842</v>
       </c>
       <c r="D64" t="n">
-        <v>0.158176</v>
+        <v>0.162283</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187505</v>
+        <v>0.188962</v>
       </c>
       <c r="C65" t="n">
-        <v>0.153052</v>
+        <v>0.155926</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169824</v>
+        <v>0.165344</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19735</v>
+        <v>0.197568</v>
       </c>
       <c r="C66" t="n">
-        <v>0.161933</v>
+        <v>0.162668</v>
       </c>
       <c r="D66" t="n">
-        <v>0.157623</v>
+        <v>0.161943</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.181158</v>
+        <v>0.179347</v>
       </c>
       <c r="C67" t="n">
-        <v>0.148594</v>
+        <v>0.147103</v>
       </c>
       <c r="D67" t="n">
-        <v>0.157877</v>
+        <v>0.158421</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.178849</v>
+        <v>0.181803</v>
       </c>
       <c r="C68" t="n">
-        <v>0.147603</v>
+        <v>0.147702</v>
       </c>
       <c r="D68" t="n">
-        <v>0.158927</v>
+        <v>0.162507</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.179864</v>
+        <v>0.181357</v>
       </c>
       <c r="C69" t="n">
-        <v>0.154127</v>
+        <v>0.147626</v>
       </c>
       <c r="D69" t="n">
-        <v>0.158256</v>
+        <v>0.163313</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.183332</v>
+        <v>0.181274</v>
       </c>
       <c r="C70" t="n">
-        <v>0.147297</v>
+        <v>0.149761</v>
       </c>
       <c r="D70" t="n">
-        <v>0.159424</v>
+        <v>0.167466</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181546</v>
+        <v>0.182639</v>
       </c>
       <c r="C71" t="n">
-        <v>0.149056</v>
+        <v>0.151588</v>
       </c>
       <c r="D71" t="n">
-        <v>0.158537</v>
+        <v>0.159086</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.18426</v>
+        <v>0.184171</v>
       </c>
       <c r="C72" t="n">
-        <v>0.152041</v>
+        <v>0.151725</v>
       </c>
       <c r="D72" t="n">
-        <v>0.166776</v>
+        <v>0.164581</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.187706</v>
+        <v>0.185111</v>
       </c>
       <c r="C73" t="n">
-        <v>0.150243</v>
+        <v>0.152723</v>
       </c>
       <c r="D73" t="n">
-        <v>0.167876</v>
+        <v>0.165344</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.186691</v>
+        <v>0.188366</v>
       </c>
       <c r="C74" t="n">
-        <v>0.151541</v>
+        <v>0.162844</v>
       </c>
       <c r="D74" t="n">
-        <v>0.161622</v>
+        <v>0.173528</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.187365</v>
+        <v>0.190475</v>
       </c>
       <c r="C75" t="n">
-        <v>0.153962</v>
+        <v>0.158601</v>
       </c>
       <c r="D75" t="n">
-        <v>0.163539</v>
+        <v>0.1728</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.190761</v>
+        <v>0.195529</v>
       </c>
       <c r="C76" t="n">
-        <v>0.156061</v>
+        <v>0.159429</v>
       </c>
       <c r="D76" t="n">
-        <v>0.164559</v>
+        <v>0.170078</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197034</v>
+        <v>0.199642</v>
       </c>
       <c r="C77" t="n">
-        <v>0.157888</v>
+        <v>0.159615</v>
       </c>
       <c r="D77" t="n">
-        <v>0.173225</v>
+        <v>0.176459</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.201832</v>
+        <v>0.199578</v>
       </c>
       <c r="C78" t="n">
-        <v>0.162203</v>
+        <v>0.167073</v>
       </c>
       <c r="D78" t="n">
-        <v>0.16965</v>
+        <v>0.176336</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.206611</v>
+        <v>0.206114</v>
       </c>
       <c r="C79" t="n">
-        <v>0.16441</v>
+        <v>0.164949</v>
       </c>
       <c r="D79" t="n">
-        <v>0.182491</v>
+        <v>0.182262</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216516</v>
+        <v>0.212723</v>
       </c>
       <c r="C80" t="n">
-        <v>0.170666</v>
+        <v>0.176147</v>
       </c>
       <c r="D80" t="n">
-        <v>0.234063</v>
+        <v>0.244276</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.361745</v>
+        <v>0.358951</v>
       </c>
       <c r="C81" t="n">
-        <v>0.288035</v>
+        <v>0.287735</v>
       </c>
       <c r="D81" t="n">
-        <v>0.233419</v>
+        <v>0.241139</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.362816</v>
+        <v>0.363348</v>
       </c>
       <c r="C82" t="n">
-        <v>0.266437</v>
+        <v>0.283114</v>
       </c>
       <c r="D82" t="n">
-        <v>0.236788</v>
+        <v>0.240454</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.364506</v>
+        <v>0.364422</v>
       </c>
       <c r="C83" t="n">
-        <v>0.282617</v>
+        <v>0.284158</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234923</v>
+        <v>0.238914</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.369588</v>
+        <v>0.363242</v>
       </c>
       <c r="C84" t="n">
-        <v>0.282124</v>
+        <v>0.28537</v>
       </c>
       <c r="D84" t="n">
-        <v>0.234345</v>
+        <v>0.242078</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.369635</v>
+        <v>0.36915</v>
       </c>
       <c r="C85" t="n">
-        <v>0.281924</v>
+        <v>0.283712</v>
       </c>
       <c r="D85" t="n">
-        <v>0.234795</v>
+        <v>0.243375</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371325</v>
+        <v>0.367691</v>
       </c>
       <c r="C86" t="n">
-        <v>0.281355</v>
+        <v>0.279436</v>
       </c>
       <c r="D86" t="n">
-        <v>0.234881</v>
+        <v>0.241487</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.367895</v>
+        <v>0.370193</v>
       </c>
       <c r="C87" t="n">
-        <v>0.27926</v>
+        <v>0.280368</v>
       </c>
       <c r="D87" t="n">
-        <v>0.233359</v>
+        <v>0.242099</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.370941</v>
+        <v>0.368796</v>
       </c>
       <c r="C88" t="n">
-        <v>0.276426</v>
+        <v>0.279262</v>
       </c>
       <c r="D88" t="n">
-        <v>0.232866</v>
+        <v>0.235357</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.373579</v>
+        <v>0.367875</v>
       </c>
       <c r="C89" t="n">
-        <v>0.275482</v>
+        <v>0.276205</v>
       </c>
       <c r="D89" t="n">
-        <v>0.228848</v>
+        <v>0.23288</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.376021</v>
+        <v>0.377079</v>
       </c>
       <c r="C90" t="n">
-        <v>0.277932</v>
+        <v>0.274459</v>
       </c>
       <c r="D90" t="n">
-        <v>0.230897</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.377258</v>
+        <v>0.375172</v>
       </c>
       <c r="C91" t="n">
-        <v>0.276129</v>
+        <v>0.276731</v>
       </c>
       <c r="D91" t="n">
-        <v>0.231646</v>
+        <v>0.233898</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.381865</v>
+        <v>0.379907</v>
       </c>
       <c r="C92" t="n">
-        <v>0.279434</v>
+        <v>0.276508</v>
       </c>
       <c r="D92" t="n">
-        <v>0.233103</v>
+        <v>0.24432</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.386594</v>
+        <v>0.384408</v>
       </c>
       <c r="C93" t="n">
-        <v>0.278984</v>
+        <v>0.280593</v>
       </c>
       <c r="D93" t="n">
-        <v>0.23871</v>
+        <v>0.242521</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.391596</v>
+        <v>0.390619</v>
       </c>
       <c r="C94" t="n">
-        <v>0.289032</v>
+        <v>0.287604</v>
       </c>
       <c r="D94" t="n">
-        <v>0.393985</v>
+        <v>0.398962</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.532691</v>
+        <v>0.526934</v>
       </c>
       <c r="C95" t="n">
-        <v>0.452174</v>
+        <v>0.446719</v>
       </c>
       <c r="D95" t="n">
-        <v>0.383803</v>
+        <v>0.40149</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.532515</v>
+        <v>0.52801</v>
       </c>
       <c r="C96" t="n">
-        <v>0.452874</v>
+        <v>0.447013</v>
       </c>
       <c r="D96" t="n">
-        <v>0.393355</v>
+        <v>0.401668</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.532833</v>
+        <v>0.527606</v>
       </c>
       <c r="C97" t="n">
-        <v>0.439263</v>
+        <v>0.4464</v>
       </c>
       <c r="D97" t="n">
-        <v>0.392356</v>
+        <v>0.395744</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.533334</v>
+        <v>0.528745</v>
       </c>
       <c r="C98" t="n">
-        <v>0.450019</v>
+        <v>0.445199</v>
       </c>
       <c r="D98" t="n">
-        <v>0.391231</v>
+        <v>0.395765</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.534744</v>
+        <v>0.529108</v>
       </c>
       <c r="C99" t="n">
-        <v>0.43726</v>
+        <v>0.445604</v>
       </c>
       <c r="D99" t="n">
-        <v>0.391248</v>
+        <v>0.396978</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.534309</v>
+        <v>0.5299700000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.44984</v>
+        <v>0.444594</v>
       </c>
       <c r="D100" t="n">
-        <v>0.392818</v>
+        <v>0.39559</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.537283</v>
+        <v>0.530477</v>
       </c>
       <c r="C101" t="n">
-        <v>0.438625</v>
+        <v>0.444542</v>
       </c>
       <c r="D101" t="n">
-        <v>0.393192</v>
+        <v>0.396211</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.538305</v>
+        <v>0.5328349999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.449782</v>
+        <v>0.444046</v>
       </c>
       <c r="D102" t="n">
-        <v>0.378752</v>
+        <v>0.40098</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.539348</v>
+        <v>0.534382</v>
       </c>
       <c r="C103" t="n">
-        <v>0.450171</v>
+        <v>0.444384</v>
       </c>
       <c r="D103" t="n">
-        <v>0.393073</v>
+        <v>0.399525</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.542111</v>
+        <v>0.535906</v>
       </c>
       <c r="C104" t="n">
-        <v>0.451036</v>
+        <v>0.447517</v>
       </c>
       <c r="D104" t="n">
-        <v>0.394525</v>
+        <v>0.401444</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.544762</v>
+        <v>0.538087</v>
       </c>
       <c r="C105" t="n">
-        <v>0.452026</v>
+        <v>0.447785</v>
       </c>
       <c r="D105" t="n">
-        <v>0.397263</v>
+        <v>0.404852</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.548803</v>
+        <v>0.542024</v>
       </c>
       <c r="C106" t="n">
-        <v>0.441463</v>
+        <v>0.450566</v>
       </c>
       <c r="D106" t="n">
-        <v>0.38807</v>
+        <v>0.401973</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.553607</v>
+        <v>0.547864</v>
       </c>
       <c r="C107" t="n">
-        <v>0.445583</v>
+        <v>0.453943</v>
       </c>
       <c r="D107" t="n">
-        <v>0.399138</v>
+        <v>0.40899</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.562042</v>
+        <v>0.5554829999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.461757</v>
+        <v>0.458354</v>
       </c>
       <c r="D108" t="n">
-        <v>0.531293</v>
+        <v>0.536532</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.572096</v>
+        <v>0.567284</v>
       </c>
       <c r="C109" t="n">
-        <v>0.469787</v>
+        <v>0.469595</v>
       </c>
       <c r="D109" t="n">
-        <v>0.522252</v>
+        <v>0.535004</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.613267</v>
+        <v>0.609842</v>
       </c>
       <c r="C110" t="n">
-        <v>0.557573</v>
+        <v>0.556521</v>
       </c>
       <c r="D110" t="n">
-        <v>0.523142</v>
+        <v>0.532762</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6130060000000001</v>
+        <v>0.612717</v>
       </c>
       <c r="C111" t="n">
-        <v>0.557341</v>
+        <v>0.557681</v>
       </c>
       <c r="D111" t="n">
-        <v>0.530054</v>
+        <v>0.5330009999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.613438</v>
+        <v>0.612488</v>
       </c>
       <c r="C112" t="n">
-        <v>0.557609</v>
+        <v>0.5534520000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.530298</v>
+        <v>0.535879</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.613096</v>
+        <v>0.612636</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5590270000000001</v>
+        <v>0.55751</v>
       </c>
       <c r="D113" t="n">
-        <v>0.53234</v>
+        <v>0.536572</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.612428</v>
+        <v>0.6134309999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.558886</v>
+        <v>0.559077</v>
       </c>
       <c r="D114" t="n">
-        <v>0.532664</v>
+        <v>0.534859</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6180099999999999</v>
+        <v>0.615799</v>
       </c>
       <c r="C115" t="n">
-        <v>0.554254</v>
+        <v>0.558698</v>
       </c>
       <c r="D115" t="n">
-        <v>0.534171</v>
+        <v>0.5416879999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.617458</v>
+        <v>0.618514</v>
       </c>
       <c r="C116" t="n">
-        <v>0.561572</v>
+        <v>0.560036</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5345529999999999</v>
+        <v>0.546495</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.620824</v>
+        <v>0.6199170000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.561339</v>
+        <v>0.561398</v>
       </c>
       <c r="D117" t="n">
-        <v>0.537094</v>
+        <v>0.539984</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.622498</v>
+        <v>0.621578</v>
       </c>
       <c r="C118" t="n">
-        <v>0.562518</v>
+        <v>0.563287</v>
       </c>
       <c r="D118" t="n">
-        <v>0.539614</v>
+        <v>0.543665</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.62662</v>
+        <v>0.6258860000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.564906</v>
+        <v>0.567709</v>
       </c>
       <c r="D119" t="n">
-        <v>0.542633</v>
+        <v>0.545779</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.630796</v>
+        <v>0.631991</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5680730000000001</v>
+        <v>0.5697140000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.546802</v>
+        <v>0.544736</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.638357</v>
+        <v>0.635614</v>
       </c>
       <c r="C121" t="n">
-        <v>0.573285</v>
+        <v>0.574675</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5521160000000001</v>
+        <v>0.554909</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.647737</v>
+        <v>0.64616</v>
       </c>
       <c r="C122" t="n">
-        <v>0.574119</v>
+        <v>0.578562</v>
       </c>
       <c r="D122" t="n">
-        <v>0.559702</v>
+        <v>0.56306</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6606109999999999</v>
+        <v>0.6601</v>
       </c>
       <c r="C123" t="n">
-        <v>0.587242</v>
+        <v>0.589317</v>
       </c>
       <c r="D123" t="n">
-        <v>0.691035</v>
+        <v>0.692505</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.750426</v>
+        <v>0.74927</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6858030000000001</v>
+        <v>0.6825870000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.694059</v>
+        <v>0.694569</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.750601</v>
+        <v>0.75037</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6862470000000001</v>
+        <v>0.68527</v>
       </c>
       <c r="D125" t="n">
-        <v>0.691833</v>
+        <v>0.694367</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7515309999999999</v>
+        <v>0.750837</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.6842</v>
       </c>
       <c r="D126" t="n">
-        <v>0.693396</v>
+        <v>0.6966059999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.754232</v>
+        <v>0.749081</v>
       </c>
       <c r="C127" t="n">
-        <v>0.688917</v>
+        <v>0.683487</v>
       </c>
       <c r="D127" t="n">
-        <v>0.695877</v>
+        <v>0.693997</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.754355</v>
+        <v>0.750047</v>
       </c>
       <c r="C128" t="n">
-        <v>0.685198</v>
+        <v>0.688343</v>
       </c>
       <c r="D128" t="n">
-        <v>0.692126</v>
+        <v>0.694188</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7554689999999999</v>
+        <v>0.752506</v>
       </c>
       <c r="C129" t="n">
-        <v>0.687384</v>
+        <v>0.686555</v>
       </c>
       <c r="D129" t="n">
-        <v>0.695257</v>
+        <v>0.695014</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7571059999999999</v>
+        <v>0.755644</v>
       </c>
       <c r="C130" t="n">
-        <v>0.692925</v>
+        <v>0.6883049999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.696592</v>
+        <v>0.699027</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.761104</v>
+        <v>0.75684</v>
       </c>
       <c r="C131" t="n">
-        <v>0.69572</v>
+        <v>0.6908260000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.697387</v>
+        <v>0.7009609999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.761601</v>
+        <v>0.758339</v>
       </c>
       <c r="C132" t="n">
-        <v>0.697659</v>
+        <v>0.696916</v>
       </c>
       <c r="D132" t="n">
-        <v>0.701972</v>
+        <v>0.704174</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.76615</v>
+        <v>0.762888</v>
       </c>
       <c r="C133" t="n">
-        <v>0.698202</v>
+        <v>0.699967</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7051809999999999</v>
+        <v>0.702627</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.772321</v>
+        <v>0.768887</v>
       </c>
       <c r="C134" t="n">
-        <v>0.706054</v>
+        <v>0.700968</v>
       </c>
       <c r="D134" t="n">
-        <v>0.704436</v>
+        <v>0.71093</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.779849</v>
+        <v>0.7763949999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.705659</v>
+        <v>0.709993</v>
       </c>
       <c r="D135" t="n">
-        <v>0.71021</v>
+        <v>0.7206399999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7881629999999999</v>
+        <v>0.78428</v>
       </c>
       <c r="C136" t="n">
-        <v>0.716521</v>
+        <v>0.713903</v>
       </c>
       <c r="D136" t="n">
-        <v>0.71813</v>
+        <v>0.722353</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.79955</v>
+        <v>0.79497</v>
       </c>
       <c r="C137" t="n">
-        <v>0.719269</v>
+        <v>0.72742</v>
       </c>
       <c r="D137" t="n">
-        <v>0.824624</v>
+        <v>0.825186</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.874095</v>
+        <v>0.871803</v>
       </c>
       <c r="C138" t="n">
-        <v>0.805407</v>
+        <v>0.802017</v>
       </c>
       <c r="D138" t="n">
-        <v>0.825325</v>
+        <v>0.824774</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.873702</v>
+        <v>0.87335</v>
       </c>
       <c r="C139" t="n">
-        <v>0.805474</v>
+        <v>0.804947</v>
       </c>
       <c r="D139" t="n">
-        <v>0.827027</v>
+        <v>0.83001</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.875292</v>
+        <v>0.873689</v>
       </c>
       <c r="C140" t="n">
-        <v>0.808293</v>
+        <v>0.807172</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8269030000000001</v>
+        <v>0.8277910000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.874918</v>
+        <v>0.87326</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8093089999999999</v>
+        <v>0.808067</v>
       </c>
       <c r="D141" t="n">
-        <v>0.825353</v>
+        <v>0.829938</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.876088</v>
+        <v>0.87523</v>
       </c>
       <c r="C142" t="n">
-        <v>0.810832</v>
+        <v>0.810527</v>
       </c>
       <c r="D142" t="n">
-        <v>0.827909</v>
+        <v>0.832987</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.877622</v>
+        <v>0.875881</v>
       </c>
       <c r="C143" t="n">
-        <v>0.812122</v>
+        <v>0.811958</v>
       </c>
       <c r="D143" t="n">
-        <v>0.828418</v>
+        <v>0.829869</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.119164</v>
+        <v>0.117757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0912192</v>
+        <v>0.09233089999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.106861</v>
+        <v>0.10504</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.120957</v>
+        <v>0.119085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09348430000000001</v>
+        <v>0.0925426</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0994975</v>
+        <v>0.105198</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1203</v>
+        <v>0.12023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09254800000000001</v>
+        <v>0.0932688</v>
       </c>
       <c r="D4" t="n">
-        <v>0.105355</v>
+        <v>0.10004</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121337</v>
+        <v>0.121393</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0926109</v>
+        <v>0.0933071</v>
       </c>
       <c r="D5" t="n">
-        <v>0.106122</v>
+        <v>0.10625</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123162</v>
+        <v>0.123052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09282600000000001</v>
+        <v>0.09429220000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.106038</v>
+        <v>0.107958</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127558</v>
+        <v>0.127325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0937513</v>
+        <v>0.0948446</v>
       </c>
       <c r="D7" t="n">
-        <v>0.111991</v>
+        <v>0.108141</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.133848</v>
+        <v>0.133126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09495099999999999</v>
+        <v>0.0941193</v>
       </c>
       <c r="D8" t="n">
-        <v>0.102905</v>
+        <v>0.108452</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14502</v>
+        <v>0.144175</v>
       </c>
       <c r="C9" t="n">
-        <v>0.096021</v>
+        <v>0.0951784</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113704</v>
+        <v>0.111448</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126903</v>
+        <v>0.124059</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09864779999999999</v>
+        <v>0.09914779999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.111553</v>
+        <v>0.107196</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127364</v>
+        <v>0.126157</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09966940000000001</v>
+        <v>0.09899860000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.116214</v>
+        <v>0.103264</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.12947</v>
+        <v>0.124753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09995950000000001</v>
+        <v>0.09906470000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.115705</v>
+        <v>0.110384</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.127086</v>
+        <v>0.130817</v>
       </c>
       <c r="C13" t="n">
-        <v>0.100589</v>
+        <v>0.0992537</v>
       </c>
       <c r="D13" t="n">
-        <v>0.108303</v>
+        <v>0.109805</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.131049</v>
+        <v>0.127827</v>
       </c>
       <c r="C14" t="n">
-        <v>0.100866</v>
+        <v>0.100341</v>
       </c>
       <c r="D14" t="n">
-        <v>0.110725</v>
+        <v>0.114567</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12972</v>
+        <v>0.126486</v>
       </c>
       <c r="C15" t="n">
-        <v>0.101148</v>
+        <v>0.0998732</v>
       </c>
       <c r="D15" t="n">
-        <v>0.110722</v>
+        <v>0.111398</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.131657</v>
+        <v>0.126843</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101588</v>
+        <v>0.0996341</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116228</v>
+        <v>0.10681</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131973</v>
+        <v>0.129908</v>
       </c>
       <c r="C17" t="n">
-        <v>0.101212</v>
+        <v>0.100921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.10961</v>
+        <v>0.112399</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133708</v>
+        <v>0.12948</v>
       </c>
       <c r="C18" t="n">
-        <v>0.101579</v>
+        <v>0.100891</v>
       </c>
       <c r="D18" t="n">
-        <v>0.118377</v>
+        <v>0.106023</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.141633</v>
+        <v>0.13249</v>
       </c>
       <c r="C19" t="n">
-        <v>0.101748</v>
+        <v>0.101301</v>
       </c>
       <c r="D19" t="n">
-        <v>0.116574</v>
+        <v>0.112157</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.140482</v>
+        <v>0.140381</v>
       </c>
       <c r="C20" t="n">
-        <v>0.102256</v>
+        <v>0.101294</v>
       </c>
       <c r="D20" t="n">
-        <v>0.116569</v>
+        <v>0.113177</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.149947</v>
+        <v>0.150216</v>
       </c>
       <c r="C21" t="n">
-        <v>0.103578</v>
+        <v>0.102679</v>
       </c>
       <c r="D21" t="n">
-        <v>0.121761</v>
+        <v>0.115243</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.149186</v>
+        <v>0.147555</v>
       </c>
       <c r="C22" t="n">
-        <v>0.108606</v>
+        <v>0.107218</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12373</v>
+        <v>0.119231</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169359</v>
+        <v>0.16722</v>
       </c>
       <c r="C23" t="n">
-        <v>0.115451</v>
+        <v>0.119188</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124072</v>
+        <v>0.123116</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133844</v>
+        <v>0.134645</v>
       </c>
       <c r="C24" t="n">
-        <v>0.109432</v>
+        <v>0.111527</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116158</v>
+        <v>0.114201</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.136582</v>
+        <v>0.134407</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109352</v>
+        <v>0.110621</v>
       </c>
       <c r="D25" t="n">
-        <v>0.123238</v>
+        <v>0.114329</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135991</v>
+        <v>0.137578</v>
       </c>
       <c r="C26" t="n">
-        <v>0.10936</v>
+        <v>0.110493</v>
       </c>
       <c r="D26" t="n">
-        <v>0.124526</v>
+        <v>0.119891</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136456</v>
+        <v>0.135761</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109387</v>
+        <v>0.110681</v>
       </c>
       <c r="D27" t="n">
-        <v>0.120832</v>
+        <v>0.114379</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136063</v>
+        <v>0.135844</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109682</v>
+        <v>0.111494</v>
       </c>
       <c r="D28" t="n">
-        <v>0.117761</v>
+        <v>0.118334</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.138479</v>
+        <v>0.136983</v>
       </c>
       <c r="C29" t="n">
-        <v>0.110193</v>
+        <v>0.111749</v>
       </c>
       <c r="D29" t="n">
-        <v>0.125034</v>
+        <v>0.114509</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.139759</v>
+        <v>0.1378</v>
       </c>
       <c r="C30" t="n">
-        <v>0.110431</v>
+        <v>0.111988</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120716</v>
+        <v>0.12008</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139828</v>
+        <v>0.138972</v>
       </c>
       <c r="C31" t="n">
-        <v>0.110723</v>
+        <v>0.110937</v>
       </c>
       <c r="D31" t="n">
-        <v>0.127333</v>
+        <v>0.125177</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142642</v>
+        <v>0.141926</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112263</v>
+        <v>0.112558</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123747</v>
+        <v>0.123439</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144413</v>
+        <v>0.144598</v>
       </c>
       <c r="C33" t="n">
-        <v>0.114409</v>
+        <v>0.114105</v>
       </c>
       <c r="D33" t="n">
-        <v>0.121757</v>
+        <v>0.125447</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.149212</v>
+        <v>0.148218</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116639</v>
+        <v>0.117365</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125118</v>
+        <v>0.122404</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152003</v>
+        <v>0.151843</v>
       </c>
       <c r="C35" t="n">
-        <v>0.11983</v>
+        <v>0.120879</v>
       </c>
       <c r="D35" t="n">
-        <v>0.130945</v>
+        <v>0.120839</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.160358</v>
+        <v>0.15951</v>
       </c>
       <c r="C36" t="n">
-        <v>0.123897</v>
+        <v>0.12507</v>
       </c>
       <c r="D36" t="n">
-        <v>0.132935</v>
+        <v>0.130464</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166919</v>
+        <v>0.167258</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128633</v>
+        <v>0.130319</v>
       </c>
       <c r="D37" t="n">
-        <v>0.137003</v>
+        <v>0.134906</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.146658</v>
+        <v>0.147781</v>
       </c>
       <c r="C38" t="n">
-        <v>0.12079</v>
+        <v>0.122707</v>
       </c>
       <c r="D38" t="n">
-        <v>0.135455</v>
+        <v>0.129069</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147481</v>
+        <v>0.147806</v>
       </c>
       <c r="C39" t="n">
-        <v>0.120161</v>
+        <v>0.123477</v>
       </c>
       <c r="D39" t="n">
-        <v>0.134963</v>
+        <v>0.131868</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148597</v>
+        <v>0.149636</v>
       </c>
       <c r="C40" t="n">
-        <v>0.120209</v>
+        <v>0.123324</v>
       </c>
       <c r="D40" t="n">
-        <v>0.138321</v>
+        <v>0.134111</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.153881</v>
+        <v>0.149241</v>
       </c>
       <c r="C41" t="n">
-        <v>0.120185</v>
+        <v>0.123381</v>
       </c>
       <c r="D41" t="n">
-        <v>0.132723</v>
+        <v>0.134648</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149531</v>
+        <v>0.149057</v>
       </c>
       <c r="C42" t="n">
-        <v>0.120405</v>
+        <v>0.123632</v>
       </c>
       <c r="D42" t="n">
-        <v>0.133849</v>
+        <v>0.137882</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.158089</v>
+        <v>0.151096</v>
       </c>
       <c r="C43" t="n">
-        <v>0.122111</v>
+        <v>0.124053</v>
       </c>
       <c r="D43" t="n">
-        <v>0.139655</v>
+        <v>0.128051</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150514</v>
+        <v>0.151675</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123286</v>
+        <v>0.12587</v>
       </c>
       <c r="D44" t="n">
-        <v>0.128668</v>
+        <v>0.129398</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.159243</v>
+        <v>0.151661</v>
       </c>
       <c r="C45" t="n">
-        <v>0.123714</v>
+        <v>0.127075</v>
       </c>
       <c r="D45" t="n">
-        <v>0.133566</v>
+        <v>0.131834</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155135</v>
+        <v>0.154968</v>
       </c>
       <c r="C46" t="n">
-        <v>0.125551</v>
+        <v>0.12948</v>
       </c>
       <c r="D46" t="n">
-        <v>0.134228</v>
+        <v>0.130619</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.165571</v>
+        <v>0.158194</v>
       </c>
       <c r="C47" t="n">
-        <v>0.128368</v>
+        <v>0.12962</v>
       </c>
       <c r="D47" t="n">
-        <v>0.136709</v>
+        <v>0.135224</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.162626</v>
+        <v>0.160716</v>
       </c>
       <c r="C48" t="n">
-        <v>0.130075</v>
+        <v>0.131446</v>
       </c>
       <c r="D48" t="n">
-        <v>0.140481</v>
+        <v>0.132965</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164489</v>
+        <v>0.164117</v>
       </c>
       <c r="C49" t="n">
-        <v>0.132071</v>
+        <v>0.133734</v>
       </c>
       <c r="D49" t="n">
-        <v>0.141948</v>
+        <v>0.148587</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.17762</v>
+        <v>0.171028</v>
       </c>
       <c r="C50" t="n">
-        <v>0.141849</v>
+        <v>0.136421</v>
       </c>
       <c r="D50" t="n">
-        <v>0.150739</v>
+        <v>0.144459</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.180402</v>
+        <v>0.177928</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139533</v>
+        <v>0.139218</v>
       </c>
       <c r="D51" t="n">
-        <v>0.146331</v>
+        <v>0.143886</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187671</v>
+        <v>0.187835</v>
       </c>
       <c r="C52" t="n">
-        <v>0.14496</v>
+        <v>0.146057</v>
       </c>
       <c r="D52" t="n">
-        <v>0.145159</v>
+        <v>0.142216</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160583</v>
+        <v>0.165934</v>
       </c>
       <c r="C53" t="n">
-        <v>0.12937</v>
+        <v>0.13246</v>
       </c>
       <c r="D53" t="n">
-        <v>0.140037</v>
+        <v>0.147894</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.162439</v>
+        <v>0.162014</v>
       </c>
       <c r="C54" t="n">
-        <v>0.129593</v>
+        <v>0.13269</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144314</v>
+        <v>0.147009</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160386</v>
+        <v>0.161313</v>
       </c>
       <c r="C55" t="n">
-        <v>0.130866</v>
+        <v>0.133348</v>
       </c>
       <c r="D55" t="n">
-        <v>0.143944</v>
+        <v>0.145927</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1627</v>
+        <v>0.161861</v>
       </c>
       <c r="C56" t="n">
-        <v>0.132466</v>
+        <v>0.134422</v>
       </c>
       <c r="D56" t="n">
-        <v>0.155179</v>
+        <v>0.14599</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163211</v>
+        <v>0.163323</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133562</v>
+        <v>0.135609</v>
       </c>
       <c r="D57" t="n">
-        <v>0.149315</v>
+        <v>0.146393</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163733</v>
+        <v>0.16472</v>
       </c>
       <c r="C58" t="n">
-        <v>0.133926</v>
+        <v>0.136221</v>
       </c>
       <c r="D58" t="n">
-        <v>0.146823</v>
+        <v>0.143836</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1658</v>
+        <v>0.166321</v>
       </c>
       <c r="C59" t="n">
-        <v>0.135584</v>
+        <v>0.137786</v>
       </c>
       <c r="D59" t="n">
-        <v>0.148601</v>
+        <v>0.142884</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167415</v>
+        <v>0.168597</v>
       </c>
       <c r="C60" t="n">
-        <v>0.136426</v>
+        <v>0.138796</v>
       </c>
       <c r="D60" t="n">
-        <v>0.146277</v>
+        <v>0.149538</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169405</v>
+        <v>0.171312</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138155</v>
+        <v>0.140203</v>
       </c>
       <c r="D61" t="n">
-        <v>0.146627</v>
+        <v>0.151861</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172468</v>
+        <v>0.17447</v>
       </c>
       <c r="C62" t="n">
-        <v>0.137646</v>
+        <v>0.141821</v>
       </c>
       <c r="D62" t="n">
-        <v>0.153644</v>
+        <v>0.154206</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176688</v>
+        <v>0.177414</v>
       </c>
       <c r="C63" t="n">
-        <v>0.139353</v>
+        <v>0.147678</v>
       </c>
       <c r="D63" t="n">
-        <v>0.156574</v>
+        <v>0.156043</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18143</v>
+        <v>0.181734</v>
       </c>
       <c r="C64" t="n">
-        <v>0.14842</v>
+        <v>0.146686</v>
       </c>
       <c r="D64" t="n">
-        <v>0.162283</v>
+        <v>0.161296</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.188962</v>
+        <v>0.18884</v>
       </c>
       <c r="C65" t="n">
-        <v>0.155926</v>
+        <v>0.150261</v>
       </c>
       <c r="D65" t="n">
-        <v>0.165344</v>
+        <v>0.176201</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197568</v>
+        <v>0.198028</v>
       </c>
       <c r="C66" t="n">
-        <v>0.162668</v>
+        <v>0.163909</v>
       </c>
       <c r="D66" t="n">
-        <v>0.161943</v>
+        <v>0.158675</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.179347</v>
+        <v>0.191045</v>
       </c>
       <c r="C67" t="n">
-        <v>0.147103</v>
+        <v>0.154955</v>
       </c>
       <c r="D67" t="n">
-        <v>0.158421</v>
+        <v>0.159012</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.181803</v>
+        <v>0.192788</v>
       </c>
       <c r="C68" t="n">
-        <v>0.147702</v>
+        <v>0.158633</v>
       </c>
       <c r="D68" t="n">
-        <v>0.162507</v>
+        <v>0.158359</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.181357</v>
+        <v>0.192823</v>
       </c>
       <c r="C69" t="n">
-        <v>0.147626</v>
+        <v>0.154624</v>
       </c>
       <c r="D69" t="n">
-        <v>0.163313</v>
+        <v>0.161775</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.181274</v>
+        <v>0.191369</v>
       </c>
       <c r="C70" t="n">
-        <v>0.149761</v>
+        <v>0.160652</v>
       </c>
       <c r="D70" t="n">
-        <v>0.167466</v>
+        <v>0.163696</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.182639</v>
+        <v>0.189093</v>
       </c>
       <c r="C71" t="n">
-        <v>0.151588</v>
+        <v>0.159196</v>
       </c>
       <c r="D71" t="n">
-        <v>0.159086</v>
+        <v>0.164032</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.184171</v>
+        <v>0.194256</v>
       </c>
       <c r="C72" t="n">
-        <v>0.151725</v>
+        <v>0.157785</v>
       </c>
       <c r="D72" t="n">
-        <v>0.164581</v>
+        <v>0.16386</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.185111</v>
+        <v>0.196311</v>
       </c>
       <c r="C73" t="n">
-        <v>0.152723</v>
+        <v>0.159107</v>
       </c>
       <c r="D73" t="n">
-        <v>0.165344</v>
+        <v>0.16699</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.188366</v>
+        <v>0.199943</v>
       </c>
       <c r="C74" t="n">
-        <v>0.162844</v>
+        <v>0.160285</v>
       </c>
       <c r="D74" t="n">
-        <v>0.173528</v>
+        <v>0.168713</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.190475</v>
+        <v>0.196743</v>
       </c>
       <c r="C75" t="n">
-        <v>0.158601</v>
+        <v>0.158823</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1728</v>
+        <v>0.168203</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195529</v>
+        <v>0.208946</v>
       </c>
       <c r="C76" t="n">
-        <v>0.159429</v>
+        <v>0.163118</v>
       </c>
       <c r="D76" t="n">
-        <v>0.170078</v>
+        <v>0.17149</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.199642</v>
+        <v>0.206952</v>
       </c>
       <c r="C77" t="n">
-        <v>0.159615</v>
+        <v>0.166179</v>
       </c>
       <c r="D77" t="n">
-        <v>0.176459</v>
+        <v>0.168335</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.199578</v>
+        <v>0.210957</v>
       </c>
       <c r="C78" t="n">
-        <v>0.167073</v>
+        <v>0.170155</v>
       </c>
       <c r="D78" t="n">
-        <v>0.176336</v>
+        <v>0.177996</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.206114</v>
+        <v>0.208034</v>
       </c>
       <c r="C79" t="n">
-        <v>0.164949</v>
+        <v>0.167115</v>
       </c>
       <c r="D79" t="n">
-        <v>0.182262</v>
+        <v>0.180555</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.212723</v>
+        <v>0.216246</v>
       </c>
       <c r="C80" t="n">
-        <v>0.176147</v>
+        <v>0.178319</v>
       </c>
       <c r="D80" t="n">
-        <v>0.244276</v>
+        <v>0.236206</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358951</v>
+        <v>0.365121</v>
       </c>
       <c r="C81" t="n">
-        <v>0.287735</v>
+        <v>0.29149</v>
       </c>
       <c r="D81" t="n">
-        <v>0.241139</v>
+        <v>0.246966</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.363348</v>
+        <v>0.365056</v>
       </c>
       <c r="C82" t="n">
-        <v>0.283114</v>
+        <v>0.29192</v>
       </c>
       <c r="D82" t="n">
-        <v>0.240454</v>
+        <v>0.24383</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.364422</v>
+        <v>0.366052</v>
       </c>
       <c r="C83" t="n">
-        <v>0.284158</v>
+        <v>0.287335</v>
       </c>
       <c r="D83" t="n">
-        <v>0.238914</v>
+        <v>0.241015</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.363242</v>
+        <v>0.36542</v>
       </c>
       <c r="C84" t="n">
-        <v>0.28537</v>
+        <v>0.284965</v>
       </c>
       <c r="D84" t="n">
-        <v>0.242078</v>
+        <v>0.242731</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.36915</v>
+        <v>0.368374</v>
       </c>
       <c r="C85" t="n">
-        <v>0.283712</v>
+        <v>0.284899</v>
       </c>
       <c r="D85" t="n">
-        <v>0.243375</v>
+        <v>0.244119</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.367691</v>
+        <v>0.371286</v>
       </c>
       <c r="C86" t="n">
-        <v>0.279436</v>
+        <v>0.283433</v>
       </c>
       <c r="D86" t="n">
-        <v>0.241487</v>
+        <v>0.238876</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.370193</v>
+        <v>0.36799</v>
       </c>
       <c r="C87" t="n">
-        <v>0.280368</v>
+        <v>0.281573</v>
       </c>
       <c r="D87" t="n">
-        <v>0.242099</v>
+        <v>0.237558</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.368796</v>
+        <v>0.371265</v>
       </c>
       <c r="C88" t="n">
-        <v>0.279262</v>
+        <v>0.280311</v>
       </c>
       <c r="D88" t="n">
-        <v>0.235357</v>
+        <v>0.233076</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.367875</v>
+        <v>0.370683</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276205</v>
+        <v>0.278423</v>
       </c>
       <c r="D89" t="n">
-        <v>0.23288</v>
+        <v>0.23667</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.377079</v>
+        <v>0.373248</v>
       </c>
       <c r="C90" t="n">
-        <v>0.274459</v>
+        <v>0.277783</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2366</v>
+        <v>0.23761</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375172</v>
+        <v>0.386049</v>
       </c>
       <c r="C91" t="n">
-        <v>0.276731</v>
+        <v>0.280408</v>
       </c>
       <c r="D91" t="n">
-        <v>0.233898</v>
+        <v>0.24067</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.379907</v>
+        <v>0.37968</v>
       </c>
       <c r="C92" t="n">
-        <v>0.276508</v>
+        <v>0.280075</v>
       </c>
       <c r="D92" t="n">
-        <v>0.24432</v>
+        <v>0.239004</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.384408</v>
+        <v>0.385029</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280593</v>
+        <v>0.287347</v>
       </c>
       <c r="D93" t="n">
-        <v>0.242521</v>
+        <v>0.242676</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.390619</v>
+        <v>0.392653</v>
       </c>
       <c r="C94" t="n">
-        <v>0.287604</v>
+        <v>0.290475</v>
       </c>
       <c r="D94" t="n">
-        <v>0.398962</v>
+        <v>0.405756</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.526934</v>
+        <v>0.530891</v>
       </c>
       <c r="C95" t="n">
-        <v>0.446719</v>
+        <v>0.449511</v>
       </c>
       <c r="D95" t="n">
-        <v>0.40149</v>
+        <v>0.397256</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.52801</v>
+        <v>0.532311</v>
       </c>
       <c r="C96" t="n">
-        <v>0.447013</v>
+        <v>0.452608</v>
       </c>
       <c r="D96" t="n">
-        <v>0.401668</v>
+        <v>0.396887</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.527606</v>
+        <v>0.532565</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4464</v>
+        <v>0.451748</v>
       </c>
       <c r="D97" t="n">
-        <v>0.395744</v>
+        <v>0.396185</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.528745</v>
+        <v>0.532117</v>
       </c>
       <c r="C98" t="n">
-        <v>0.445199</v>
+        <v>0.45088</v>
       </c>
       <c r="D98" t="n">
-        <v>0.395765</v>
+        <v>0.402137</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.529108</v>
+        <v>0.53473</v>
       </c>
       <c r="C99" t="n">
-        <v>0.445604</v>
+        <v>0.451999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.396978</v>
+        <v>0.39281</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5299700000000001</v>
+        <v>0.5352749999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.444594</v>
+        <v>0.451221</v>
       </c>
       <c r="D100" t="n">
-        <v>0.39559</v>
+        <v>0.398165</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.530477</v>
+        <v>0.53685</v>
       </c>
       <c r="C101" t="n">
-        <v>0.444542</v>
+        <v>0.446557</v>
       </c>
       <c r="D101" t="n">
-        <v>0.396211</v>
+        <v>0.397739</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5328349999999999</v>
+        <v>0.536373</v>
       </c>
       <c r="C102" t="n">
-        <v>0.444046</v>
+        <v>0.450116</v>
       </c>
       <c r="D102" t="n">
-        <v>0.40098</v>
+        <v>0.398511</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.534382</v>
+        <v>0.5374679999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.444384</v>
+        <v>0.449973</v>
       </c>
       <c r="D103" t="n">
-        <v>0.399525</v>
+        <v>0.403219</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.535906</v>
+        <v>0.540767</v>
       </c>
       <c r="C104" t="n">
-        <v>0.447517</v>
+        <v>0.45342</v>
       </c>
       <c r="D104" t="n">
-        <v>0.401444</v>
+        <v>0.400576</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.538087</v>
+        <v>0.543324</v>
       </c>
       <c r="C105" t="n">
-        <v>0.447785</v>
+        <v>0.45446</v>
       </c>
       <c r="D105" t="n">
-        <v>0.404852</v>
+        <v>0.404129</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.542024</v>
+        <v>0.547566</v>
       </c>
       <c r="C106" t="n">
-        <v>0.450566</v>
+        <v>0.456356</v>
       </c>
       <c r="D106" t="n">
-        <v>0.401973</v>
+        <v>0.406553</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.547864</v>
+        <v>0.552627</v>
       </c>
       <c r="C107" t="n">
-        <v>0.453943</v>
+        <v>0.4599</v>
       </c>
       <c r="D107" t="n">
-        <v>0.40899</v>
+        <v>0.417068</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5554829999999999</v>
+        <v>0.561029</v>
       </c>
       <c r="C108" t="n">
-        <v>0.458354</v>
+        <v>0.463366</v>
       </c>
       <c r="D108" t="n">
-        <v>0.536532</v>
+        <v>0.535873</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.567284</v>
+        <v>0.572912</v>
       </c>
       <c r="C109" t="n">
-        <v>0.469595</v>
+        <v>0.473364</v>
       </c>
       <c r="D109" t="n">
-        <v>0.535004</v>
+        <v>0.536013</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.609842</v>
+        <v>0.611405</v>
       </c>
       <c r="C110" t="n">
-        <v>0.556521</v>
+        <v>0.561121</v>
       </c>
       <c r="D110" t="n">
-        <v>0.532762</v>
+        <v>0.537606</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.612717</v>
+        <v>0.611299</v>
       </c>
       <c r="C111" t="n">
-        <v>0.557681</v>
+        <v>0.561883</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5330009999999999</v>
+        <v>0.537948</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.612488</v>
+        <v>0.616356</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5534520000000001</v>
+        <v>0.563704</v>
       </c>
       <c r="D112" t="n">
-        <v>0.535879</v>
+        <v>0.540508</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.612636</v>
+        <v>0.615186</v>
       </c>
       <c r="C113" t="n">
-        <v>0.55751</v>
+        <v>0.558586</v>
       </c>
       <c r="D113" t="n">
-        <v>0.536572</v>
+        <v>0.5404060000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6134309999999999</v>
+        <v>0.616489</v>
       </c>
       <c r="C114" t="n">
-        <v>0.559077</v>
+        <v>0.563461</v>
       </c>
       <c r="D114" t="n">
-        <v>0.534859</v>
+        <v>0.53873</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.615799</v>
+        <v>0.615496</v>
       </c>
       <c r="C115" t="n">
-        <v>0.558698</v>
+        <v>0.564703</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5416879999999999</v>
+        <v>0.537658</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.618514</v>
+        <v>0.61982</v>
       </c>
       <c r="C116" t="n">
-        <v>0.560036</v>
+        <v>0.5643280000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.546495</v>
+        <v>0.541584</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6199170000000001</v>
+        <v>0.622899</v>
       </c>
       <c r="C117" t="n">
-        <v>0.561398</v>
+        <v>0.566002</v>
       </c>
       <c r="D117" t="n">
-        <v>0.539984</v>
+        <v>0.546435</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.621578</v>
+        <v>0.625214</v>
       </c>
       <c r="C118" t="n">
-        <v>0.563287</v>
+        <v>0.569673</v>
       </c>
       <c r="D118" t="n">
-        <v>0.543665</v>
+        <v>0.548387</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6258860000000001</v>
+        <v>0.6274729999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.567709</v>
+        <v>0.571181</v>
       </c>
       <c r="D119" t="n">
-        <v>0.545779</v>
+        <v>0.542874</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.631991</v>
+        <v>0.634195</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5697140000000001</v>
+        <v>0.573895</v>
       </c>
       <c r="D120" t="n">
-        <v>0.544736</v>
+        <v>0.547662</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.635614</v>
+        <v>0.640383</v>
       </c>
       <c r="C121" t="n">
-        <v>0.574675</v>
+        <v>0.579851</v>
       </c>
       <c r="D121" t="n">
-        <v>0.554909</v>
+        <v>0.558922</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.64616</v>
+        <v>0.648962</v>
       </c>
       <c r="C122" t="n">
-        <v>0.578562</v>
+        <v>0.584182</v>
       </c>
       <c r="D122" t="n">
-        <v>0.56306</v>
+        <v>0.570281</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6601</v>
+        <v>0.661751</v>
       </c>
       <c r="C123" t="n">
-        <v>0.589317</v>
+        <v>0.596168</v>
       </c>
       <c r="D123" t="n">
-        <v>0.692505</v>
+        <v>0.69352</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.74927</v>
+        <v>0.7524149999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6825870000000001</v>
+        <v>0.6853089999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.694569</v>
+        <v>0.693245</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.75037</v>
+        <v>0.752964</v>
       </c>
       <c r="C125" t="n">
-        <v>0.68527</v>
+        <v>0.689582</v>
       </c>
       <c r="D125" t="n">
-        <v>0.694367</v>
+        <v>0.699755</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.750837</v>
+        <v>0.754234</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6842</v>
+        <v>0.691053</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6966059999999999</v>
+        <v>0.7005479999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.749081</v>
+        <v>0.757039</v>
       </c>
       <c r="C127" t="n">
-        <v>0.683487</v>
+        <v>0.689622</v>
       </c>
       <c r="D127" t="n">
-        <v>0.693997</v>
+        <v>0.696471</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.750047</v>
+        <v>0.7557160000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.688343</v>
+        <v>0.693244</v>
       </c>
       <c r="D128" t="n">
-        <v>0.694188</v>
+        <v>0.70161</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.752506</v>
+        <v>0.757846</v>
       </c>
       <c r="C129" t="n">
-        <v>0.686555</v>
+        <v>0.696311</v>
       </c>
       <c r="D129" t="n">
-        <v>0.695014</v>
+        <v>0.701982</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.755644</v>
+        <v>0.7619629999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6883049999999999</v>
+        <v>0.698958</v>
       </c>
       <c r="D130" t="n">
-        <v>0.699027</v>
+        <v>0.704658</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.75684</v>
+        <v>0.762471</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6908260000000001</v>
+        <v>0.696348</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7009609999999999</v>
+        <v>0.703358</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.758339</v>
+        <v>0.766776</v>
       </c>
       <c r="C132" t="n">
-        <v>0.696916</v>
+        <v>0.704094</v>
       </c>
       <c r="D132" t="n">
-        <v>0.704174</v>
+        <v>0.709193</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.762888</v>
+        <v>0.7687</v>
       </c>
       <c r="C133" t="n">
-        <v>0.699967</v>
+        <v>0.704633</v>
       </c>
       <c r="D133" t="n">
-        <v>0.702627</v>
+        <v>0.715516</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.768887</v>
+        <v>0.776007</v>
       </c>
       <c r="C134" t="n">
-        <v>0.700968</v>
+        <v>0.7085050000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.71093</v>
+        <v>0.715407</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7763949999999999</v>
+        <v>0.7799430000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.709993</v>
+        <v>0.7155860000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7206399999999999</v>
+        <v>0.72196</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.78428</v>
+        <v>0.789108</v>
       </c>
       <c r="C136" t="n">
-        <v>0.713903</v>
+        <v>0.716465</v>
       </c>
       <c r="D136" t="n">
-        <v>0.722353</v>
+        <v>0.730726</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.79497</v>
+        <v>0.800275</v>
       </c>
       <c r="C137" t="n">
-        <v>0.72742</v>
+        <v>0.72607</v>
       </c>
       <c r="D137" t="n">
-        <v>0.825186</v>
+        <v>0.828238</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.871803</v>
+        <v>0.876826</v>
       </c>
       <c r="C138" t="n">
-        <v>0.802017</v>
+        <v>0.81053</v>
       </c>
       <c r="D138" t="n">
-        <v>0.824774</v>
+        <v>0.83319</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.87335</v>
+        <v>0.878207</v>
       </c>
       <c r="C139" t="n">
-        <v>0.804947</v>
+        <v>0.809885</v>
       </c>
       <c r="D139" t="n">
-        <v>0.83001</v>
+        <v>0.831577</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.873689</v>
+        <v>0.877785</v>
       </c>
       <c r="C140" t="n">
-        <v>0.807172</v>
+        <v>0.8122239999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8277910000000001</v>
+        <v>0.830834</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.87326</v>
+        <v>0.877631</v>
       </c>
       <c r="C141" t="n">
-        <v>0.808067</v>
+        <v>0.814786</v>
       </c>
       <c r="D141" t="n">
-        <v>0.829938</v>
+        <v>0.831689</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.87523</v>
+        <v>0.878684</v>
       </c>
       <c r="C142" t="n">
-        <v>0.810527</v>
+        <v>0.815491</v>
       </c>
       <c r="D142" t="n">
-        <v>0.832987</v>
+        <v>0.8312</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.875881</v>
+        <v>0.881852</v>
       </c>
       <c r="C143" t="n">
-        <v>0.811958</v>
+        <v>0.815705</v>
       </c>
       <c r="D143" t="n">
-        <v>0.829869</v>
+        <v>0.833836</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.117757</v>
+        <v>0.115247</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09233089999999999</v>
+        <v>0.0893244</v>
       </c>
       <c r="D2" t="n">
-        <v>0.10504</v>
+        <v>0.103224</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.119085</v>
+        <v>0.115869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0925426</v>
+        <v>0.0891643</v>
       </c>
       <c r="D3" t="n">
-        <v>0.105198</v>
+        <v>0.103075</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.12023</v>
+        <v>0.116858</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0932688</v>
+        <v>0.0892294</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10004</v>
+        <v>0.09703100000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121393</v>
+        <v>0.118117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0933071</v>
+        <v>0.0899068</v>
       </c>
       <c r="D5" t="n">
-        <v>0.10625</v>
+        <v>0.104293</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123052</v>
+        <v>0.120478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09429220000000001</v>
+        <v>0.090159</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107958</v>
+        <v>0.104739</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127325</v>
+        <v>0.122933</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0948446</v>
+        <v>0.0905049</v>
       </c>
       <c r="D7" t="n">
-        <v>0.108141</v>
+        <v>0.105342</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.133126</v>
+        <v>0.130006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0941193</v>
+        <v>0.09132270000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108452</v>
+        <v>0.107124</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.144175</v>
+        <v>0.141295</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0951784</v>
+        <v>0.09280330000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.111448</v>
+        <v>0.113738</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124059</v>
+        <v>0.125317</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09914779999999999</v>
+        <v>0.098246</v>
       </c>
       <c r="D10" t="n">
-        <v>0.107196</v>
+        <v>0.11265</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126157</v>
+        <v>0.125738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09899860000000001</v>
+        <v>0.0982687</v>
       </c>
       <c r="D11" t="n">
-        <v>0.103264</v>
+        <v>0.112887</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124753</v>
+        <v>0.128258</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09906470000000001</v>
+        <v>0.0987463</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110384</v>
+        <v>0.105805</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.130817</v>
+        <v>0.133516</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0992537</v>
+        <v>0.09895809999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.109805</v>
+        <v>0.114325</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127827</v>
+        <v>0.128108</v>
       </c>
       <c r="C14" t="n">
-        <v>0.100341</v>
+        <v>0.09923269999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.114567</v>
+        <v>0.109177</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126486</v>
+        <v>0.129268</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0998732</v>
+        <v>0.09897590000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111398</v>
+        <v>0.115506</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126843</v>
+        <v>0.127463</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0996341</v>
+        <v>0.0989517</v>
       </c>
       <c r="D16" t="n">
-        <v>0.10681</v>
+        <v>0.111949</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129908</v>
+        <v>0.131903</v>
       </c>
       <c r="C17" t="n">
-        <v>0.100921</v>
+        <v>0.0995992</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112399</v>
+        <v>0.114822</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12948</v>
+        <v>0.12949</v>
       </c>
       <c r="C18" t="n">
-        <v>0.100891</v>
+        <v>0.09941419999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.106023</v>
+        <v>0.109538</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13249</v>
+        <v>0.133119</v>
       </c>
       <c r="C19" t="n">
-        <v>0.101301</v>
+        <v>0.09976839999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.112157</v>
+        <v>0.115573</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.140381</v>
+        <v>0.136481</v>
       </c>
       <c r="C20" t="n">
-        <v>0.101294</v>
+        <v>0.104128</v>
       </c>
       <c r="D20" t="n">
-        <v>0.113177</v>
+        <v>0.117247</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.150216</v>
+        <v>0.141775</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102679</v>
+        <v>0.101731</v>
       </c>
       <c r="D21" t="n">
-        <v>0.115243</v>
+        <v>0.117711</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.147555</v>
+        <v>0.156611</v>
       </c>
       <c r="C22" t="n">
-        <v>0.107218</v>
+        <v>0.105944</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119231</v>
+        <v>0.121177</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16722</v>
+        <v>0.170311</v>
       </c>
       <c r="C23" t="n">
-        <v>0.119188</v>
+        <v>0.112985</v>
       </c>
       <c r="D23" t="n">
-        <v>0.123116</v>
+        <v>0.124051</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134645</v>
+        <v>0.140347</v>
       </c>
       <c r="C24" t="n">
-        <v>0.111527</v>
+        <v>0.108538</v>
       </c>
       <c r="D24" t="n">
-        <v>0.114201</v>
+        <v>0.119708</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134407</v>
+        <v>0.134838</v>
       </c>
       <c r="C25" t="n">
-        <v>0.110621</v>
+        <v>0.109859</v>
       </c>
       <c r="D25" t="n">
-        <v>0.114329</v>
+        <v>0.126534</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137578</v>
+        <v>0.137795</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110493</v>
+        <v>0.109426</v>
       </c>
       <c r="D26" t="n">
-        <v>0.119891</v>
+        <v>0.123813</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135761</v>
+        <v>0.138682</v>
       </c>
       <c r="C27" t="n">
-        <v>0.110681</v>
+        <v>0.109481</v>
       </c>
       <c r="D27" t="n">
-        <v>0.114379</v>
+        <v>0.12356</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135844</v>
+        <v>0.136445</v>
       </c>
       <c r="C28" t="n">
-        <v>0.111494</v>
+        <v>0.109945</v>
       </c>
       <c r="D28" t="n">
-        <v>0.118334</v>
+        <v>0.118077</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136983</v>
+        <v>0.136882</v>
       </c>
       <c r="C29" t="n">
-        <v>0.111749</v>
+        <v>0.110587</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114509</v>
+        <v>0.120531</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1378</v>
+        <v>0.139603</v>
       </c>
       <c r="C30" t="n">
-        <v>0.111988</v>
+        <v>0.110642</v>
       </c>
       <c r="D30" t="n">
-        <v>0.12008</v>
+        <v>0.125456</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138972</v>
+        <v>0.140719</v>
       </c>
       <c r="C31" t="n">
-        <v>0.110937</v>
+        <v>0.111332</v>
       </c>
       <c r="D31" t="n">
-        <v>0.125177</v>
+        <v>0.11983</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141926</v>
+        <v>0.141402</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112558</v>
+        <v>0.112776</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123439</v>
+        <v>0.12903</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144598</v>
+        <v>0.145067</v>
       </c>
       <c r="C33" t="n">
-        <v>0.114105</v>
+        <v>0.114594</v>
       </c>
       <c r="D33" t="n">
-        <v>0.125447</v>
+        <v>0.125364</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.148218</v>
+        <v>0.148621</v>
       </c>
       <c r="C34" t="n">
-        <v>0.117365</v>
+        <v>0.115765</v>
       </c>
       <c r="D34" t="n">
-        <v>0.122404</v>
+        <v>0.129774</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.151843</v>
+        <v>0.152783</v>
       </c>
       <c r="C35" t="n">
-        <v>0.120879</v>
+        <v>0.119338</v>
       </c>
       <c r="D35" t="n">
-        <v>0.120839</v>
+        <v>0.129149</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.15951</v>
+        <v>0.159601</v>
       </c>
       <c r="C36" t="n">
-        <v>0.12507</v>
+        <v>0.124443</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130464</v>
+        <v>0.138924</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167258</v>
+        <v>0.170965</v>
       </c>
       <c r="C37" t="n">
-        <v>0.130319</v>
+        <v>0.129291</v>
       </c>
       <c r="D37" t="n">
-        <v>0.134906</v>
+        <v>0.132597</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147781</v>
+        <v>0.147317</v>
       </c>
       <c r="C38" t="n">
-        <v>0.122707</v>
+        <v>0.120596</v>
       </c>
       <c r="D38" t="n">
-        <v>0.129069</v>
+        <v>0.132458</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147806</v>
+        <v>0.147558</v>
       </c>
       <c r="C39" t="n">
-        <v>0.123477</v>
+        <v>0.120947</v>
       </c>
       <c r="D39" t="n">
-        <v>0.131868</v>
+        <v>0.131294</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.149636</v>
+        <v>0.150905</v>
       </c>
       <c r="C40" t="n">
-        <v>0.123324</v>
+        <v>0.121311</v>
       </c>
       <c r="D40" t="n">
-        <v>0.134111</v>
+        <v>0.137418</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149241</v>
+        <v>0.150383</v>
       </c>
       <c r="C41" t="n">
-        <v>0.123381</v>
+        <v>0.122418</v>
       </c>
       <c r="D41" t="n">
-        <v>0.134648</v>
+        <v>0.140393</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149057</v>
+        <v>0.151074</v>
       </c>
       <c r="C42" t="n">
-        <v>0.123632</v>
+        <v>0.122817</v>
       </c>
       <c r="D42" t="n">
-        <v>0.137882</v>
+        <v>0.141717</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.151096</v>
+        <v>0.153271</v>
       </c>
       <c r="C43" t="n">
-        <v>0.124053</v>
+        <v>0.122693</v>
       </c>
       <c r="D43" t="n">
-        <v>0.128051</v>
+        <v>0.136835</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151675</v>
+        <v>0.150994</v>
       </c>
       <c r="C44" t="n">
-        <v>0.12587</v>
+        <v>0.125014</v>
       </c>
       <c r="D44" t="n">
-        <v>0.129398</v>
+        <v>0.133057</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.151661</v>
+        <v>0.153603</v>
       </c>
       <c r="C45" t="n">
-        <v>0.127075</v>
+        <v>0.125986</v>
       </c>
       <c r="D45" t="n">
-        <v>0.131834</v>
+        <v>0.144114</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.154968</v>
+        <v>0.155767</v>
       </c>
       <c r="C46" t="n">
-        <v>0.12948</v>
+        <v>0.126895</v>
       </c>
       <c r="D46" t="n">
-        <v>0.130619</v>
+        <v>0.138691</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.158194</v>
+        <v>0.160303</v>
       </c>
       <c r="C47" t="n">
-        <v>0.12962</v>
+        <v>0.128281</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135224</v>
+        <v>0.142685</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160716</v>
+        <v>0.160942</v>
       </c>
       <c r="C48" t="n">
-        <v>0.131446</v>
+        <v>0.130755</v>
       </c>
       <c r="D48" t="n">
-        <v>0.132965</v>
+        <v>0.142938</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164117</v>
+        <v>0.167762</v>
       </c>
       <c r="C49" t="n">
-        <v>0.133734</v>
+        <v>0.133071</v>
       </c>
       <c r="D49" t="n">
-        <v>0.148587</v>
+        <v>0.14521</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171028</v>
+        <v>0.173338</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136421</v>
+        <v>0.136165</v>
       </c>
       <c r="D50" t="n">
-        <v>0.144459</v>
+        <v>0.150508</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177928</v>
+        <v>0.179055</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139218</v>
+        <v>0.140247</v>
       </c>
       <c r="D51" t="n">
-        <v>0.143886</v>
+        <v>0.14288</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187835</v>
+        <v>0.190008</v>
       </c>
       <c r="C52" t="n">
-        <v>0.146057</v>
+        <v>0.145765</v>
       </c>
       <c r="D52" t="n">
-        <v>0.142216</v>
+        <v>0.148364</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.165934</v>
+        <v>0.160108</v>
       </c>
       <c r="C53" t="n">
-        <v>0.13246</v>
+        <v>0.129714</v>
       </c>
       <c r="D53" t="n">
-        <v>0.147894</v>
+        <v>0.148679</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.162014</v>
+        <v>0.161616</v>
       </c>
       <c r="C54" t="n">
-        <v>0.13269</v>
+        <v>0.131059</v>
       </c>
       <c r="D54" t="n">
-        <v>0.147009</v>
+        <v>0.15061</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161313</v>
+        <v>0.161449</v>
       </c>
       <c r="C55" t="n">
-        <v>0.133348</v>
+        <v>0.131226</v>
       </c>
       <c r="D55" t="n">
-        <v>0.145927</v>
+        <v>0.1551</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161861</v>
+        <v>0.161877</v>
       </c>
       <c r="C56" t="n">
-        <v>0.134422</v>
+        <v>0.133669</v>
       </c>
       <c r="D56" t="n">
-        <v>0.14599</v>
+        <v>0.155349</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163323</v>
+        <v>0.162559</v>
       </c>
       <c r="C57" t="n">
-        <v>0.135609</v>
+        <v>0.134349</v>
       </c>
       <c r="D57" t="n">
-        <v>0.146393</v>
+        <v>0.149716</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.16472</v>
+        <v>0.163851</v>
       </c>
       <c r="C58" t="n">
-        <v>0.136221</v>
+        <v>0.134991</v>
       </c>
       <c r="D58" t="n">
-        <v>0.143836</v>
+        <v>0.150184</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166321</v>
+        <v>0.165224</v>
       </c>
       <c r="C59" t="n">
-        <v>0.137786</v>
+        <v>0.136492</v>
       </c>
       <c r="D59" t="n">
-        <v>0.142884</v>
+        <v>0.150462</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.168597</v>
+        <v>0.167228</v>
       </c>
       <c r="C60" t="n">
-        <v>0.138796</v>
+        <v>0.137302</v>
       </c>
       <c r="D60" t="n">
-        <v>0.149538</v>
+        <v>0.15126</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.171312</v>
+        <v>0.169218</v>
       </c>
       <c r="C61" t="n">
-        <v>0.140203</v>
+        <v>0.138932</v>
       </c>
       <c r="D61" t="n">
-        <v>0.151861</v>
+        <v>0.156285</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.17447</v>
+        <v>0.175144</v>
       </c>
       <c r="C62" t="n">
-        <v>0.141821</v>
+        <v>0.140911</v>
       </c>
       <c r="D62" t="n">
-        <v>0.154206</v>
+        <v>0.15491</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177414</v>
+        <v>0.176348</v>
       </c>
       <c r="C63" t="n">
-        <v>0.147678</v>
+        <v>0.145916</v>
       </c>
       <c r="D63" t="n">
-        <v>0.156043</v>
+        <v>0.159406</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.181734</v>
+        <v>0.181145</v>
       </c>
       <c r="C64" t="n">
-        <v>0.146686</v>
+        <v>0.146284</v>
       </c>
       <c r="D64" t="n">
-        <v>0.161296</v>
+        <v>0.163524</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.18884</v>
+        <v>0.188426</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150261</v>
+        <v>0.150217</v>
       </c>
       <c r="D65" t="n">
-        <v>0.176201</v>
+        <v>0.177597</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198028</v>
+        <v>0.196678</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163909</v>
+        <v>0.155929</v>
       </c>
       <c r="D66" t="n">
-        <v>0.158675</v>
+        <v>0.169801</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.191045</v>
+        <v>0.181519</v>
       </c>
       <c r="C67" t="n">
-        <v>0.154955</v>
+        <v>0.14715</v>
       </c>
       <c r="D67" t="n">
-        <v>0.159012</v>
+        <v>0.163751</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.192788</v>
+        <v>0.187003</v>
       </c>
       <c r="C68" t="n">
-        <v>0.158633</v>
+        <v>0.151299</v>
       </c>
       <c r="D68" t="n">
-        <v>0.158359</v>
+        <v>0.158668</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.192823</v>
+        <v>0.18432</v>
       </c>
       <c r="C69" t="n">
-        <v>0.154624</v>
+        <v>0.149982</v>
       </c>
       <c r="D69" t="n">
-        <v>0.161775</v>
+        <v>0.162238</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.191369</v>
+        <v>0.183647</v>
       </c>
       <c r="C70" t="n">
-        <v>0.160652</v>
+        <v>0.149479</v>
       </c>
       <c r="D70" t="n">
-        <v>0.163696</v>
+        <v>0.164121</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.189093</v>
+        <v>0.182194</v>
       </c>
       <c r="C71" t="n">
-        <v>0.159196</v>
+        <v>0.150133</v>
       </c>
       <c r="D71" t="n">
-        <v>0.164032</v>
+        <v>0.166323</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.194256</v>
+        <v>0.188962</v>
       </c>
       <c r="C72" t="n">
-        <v>0.157785</v>
+        <v>0.150626</v>
       </c>
       <c r="D72" t="n">
-        <v>0.16386</v>
+        <v>0.164192</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.196311</v>
+        <v>0.185809</v>
       </c>
       <c r="C73" t="n">
-        <v>0.159107</v>
+        <v>0.152726</v>
       </c>
       <c r="D73" t="n">
-        <v>0.16699</v>
+        <v>0.164347</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.199943</v>
+        <v>0.187827</v>
       </c>
       <c r="C74" t="n">
-        <v>0.160285</v>
+        <v>0.154583</v>
       </c>
       <c r="D74" t="n">
-        <v>0.168713</v>
+        <v>0.168469</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.196743</v>
+        <v>0.192769</v>
       </c>
       <c r="C75" t="n">
-        <v>0.158823</v>
+        <v>0.156549</v>
       </c>
       <c r="D75" t="n">
-        <v>0.168203</v>
+        <v>0.176136</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.208946</v>
+        <v>0.200269</v>
       </c>
       <c r="C76" t="n">
-        <v>0.163118</v>
+        <v>0.158995</v>
       </c>
       <c r="D76" t="n">
-        <v>0.17149</v>
+        <v>0.170651</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.206952</v>
+        <v>0.196255</v>
       </c>
       <c r="C77" t="n">
-        <v>0.166179</v>
+        <v>0.159208</v>
       </c>
       <c r="D77" t="n">
-        <v>0.168335</v>
+        <v>0.168234</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.210957</v>
+        <v>0.206548</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170155</v>
+        <v>0.162255</v>
       </c>
       <c r="D78" t="n">
-        <v>0.177996</v>
+        <v>0.183674</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.208034</v>
+        <v>0.208413</v>
       </c>
       <c r="C79" t="n">
-        <v>0.167115</v>
+        <v>0.166432</v>
       </c>
       <c r="D79" t="n">
-        <v>0.180555</v>
+        <v>0.190796</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216246</v>
+        <v>0.218648</v>
       </c>
       <c r="C80" t="n">
-        <v>0.178319</v>
+        <v>0.171273</v>
       </c>
       <c r="D80" t="n">
-        <v>0.236206</v>
+        <v>0.244098</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.365121</v>
+        <v>0.361034</v>
       </c>
       <c r="C81" t="n">
-        <v>0.29149</v>
+        <v>0.285511</v>
       </c>
       <c r="D81" t="n">
-        <v>0.246966</v>
+        <v>0.240943</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.365056</v>
+        <v>0.365764</v>
       </c>
       <c r="C82" t="n">
-        <v>0.29192</v>
+        <v>0.285367</v>
       </c>
       <c r="D82" t="n">
-        <v>0.24383</v>
+        <v>0.241514</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.366052</v>
+        <v>0.367791</v>
       </c>
       <c r="C83" t="n">
-        <v>0.287335</v>
+        <v>0.284124</v>
       </c>
       <c r="D83" t="n">
-        <v>0.241015</v>
+        <v>0.250415</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.36542</v>
+        <v>0.362117</v>
       </c>
       <c r="C84" t="n">
-        <v>0.284965</v>
+        <v>0.285653</v>
       </c>
       <c r="D84" t="n">
-        <v>0.242731</v>
+        <v>0.247733</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.368374</v>
+        <v>0.37082</v>
       </c>
       <c r="C85" t="n">
-        <v>0.284899</v>
+        <v>0.282195</v>
       </c>
       <c r="D85" t="n">
-        <v>0.244119</v>
+        <v>0.236738</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371286</v>
+        <v>0.366736</v>
       </c>
       <c r="C86" t="n">
-        <v>0.283433</v>
+        <v>0.282544</v>
       </c>
       <c r="D86" t="n">
-        <v>0.238876</v>
+        <v>0.244297</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.36799</v>
+        <v>0.369548</v>
       </c>
       <c r="C87" t="n">
-        <v>0.281573</v>
+        <v>0.279257</v>
       </c>
       <c r="D87" t="n">
-        <v>0.237558</v>
+        <v>0.235875</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.371265</v>
+        <v>0.371349</v>
       </c>
       <c r="C88" t="n">
-        <v>0.280311</v>
+        <v>0.278695</v>
       </c>
       <c r="D88" t="n">
-        <v>0.233076</v>
+        <v>0.248463</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.370683</v>
+        <v>0.369845</v>
       </c>
       <c r="C89" t="n">
-        <v>0.278423</v>
+        <v>0.276273</v>
       </c>
       <c r="D89" t="n">
-        <v>0.23667</v>
+        <v>0.245407</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.373248</v>
+        <v>0.371442</v>
       </c>
       <c r="C90" t="n">
-        <v>0.277783</v>
+        <v>0.278018</v>
       </c>
       <c r="D90" t="n">
-        <v>0.23761</v>
+        <v>0.23923</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.386049</v>
+        <v>0.374886</v>
       </c>
       <c r="C91" t="n">
-        <v>0.280408</v>
+        <v>0.276218</v>
       </c>
       <c r="D91" t="n">
-        <v>0.24067</v>
+        <v>0.235417</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.37968</v>
+        <v>0.379833</v>
       </c>
       <c r="C92" t="n">
-        <v>0.280075</v>
+        <v>0.280011</v>
       </c>
       <c r="D92" t="n">
-        <v>0.239004</v>
+        <v>0.24426</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.385029</v>
+        <v>0.385211</v>
       </c>
       <c r="C93" t="n">
-        <v>0.287347</v>
+        <v>0.280029</v>
       </c>
       <c r="D93" t="n">
-        <v>0.242676</v>
+        <v>0.237119</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.392653</v>
+        <v>0.389779</v>
       </c>
       <c r="C94" t="n">
-        <v>0.290475</v>
+        <v>0.283851</v>
       </c>
       <c r="D94" t="n">
-        <v>0.405756</v>
+        <v>0.402973</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.530891</v>
+        <v>0.5272210000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.449511</v>
+        <v>0.448132</v>
       </c>
       <c r="D95" t="n">
-        <v>0.397256</v>
+        <v>0.400487</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.532311</v>
+        <v>0.52777</v>
       </c>
       <c r="C96" t="n">
-        <v>0.452608</v>
+        <v>0.44713</v>
       </c>
       <c r="D96" t="n">
-        <v>0.396887</v>
+        <v>0.397736</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.532565</v>
+        <v>0.527844</v>
       </c>
       <c r="C97" t="n">
-        <v>0.451748</v>
+        <v>0.447285</v>
       </c>
       <c r="D97" t="n">
-        <v>0.396185</v>
+        <v>0.403387</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.532117</v>
+        <v>0.5295</v>
       </c>
       <c r="C98" t="n">
-        <v>0.45088</v>
+        <v>0.446377</v>
       </c>
       <c r="D98" t="n">
-        <v>0.402137</v>
+        <v>0.397408</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.53473</v>
+        <v>0.529805</v>
       </c>
       <c r="C99" t="n">
-        <v>0.451999</v>
+        <v>0.447253</v>
       </c>
       <c r="D99" t="n">
-        <v>0.39281</v>
+        <v>0.400451</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5352749999999999</v>
+        <v>0.530815</v>
       </c>
       <c r="C100" t="n">
-        <v>0.451221</v>
+        <v>0.445516</v>
       </c>
       <c r="D100" t="n">
-        <v>0.398165</v>
+        <v>0.399234</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.53685</v>
+        <v>0.531292</v>
       </c>
       <c r="C101" t="n">
-        <v>0.446557</v>
+        <v>0.446479</v>
       </c>
       <c r="D101" t="n">
-        <v>0.397739</v>
+        <v>0.400793</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.536373</v>
+        <v>0.532154</v>
       </c>
       <c r="C102" t="n">
-        <v>0.450116</v>
+        <v>0.444933</v>
       </c>
       <c r="D102" t="n">
-        <v>0.398511</v>
+        <v>0.401091</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5374679999999999</v>
+        <v>0.533847</v>
       </c>
       <c r="C103" t="n">
-        <v>0.449973</v>
+        <v>0.446075</v>
       </c>
       <c r="D103" t="n">
-        <v>0.403219</v>
+        <v>0.400675</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.540767</v>
+        <v>0.53652</v>
       </c>
       <c r="C104" t="n">
-        <v>0.45342</v>
+        <v>0.447301</v>
       </c>
       <c r="D104" t="n">
-        <v>0.400576</v>
+        <v>0.403433</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.543324</v>
+        <v>0.539198</v>
       </c>
       <c r="C105" t="n">
-        <v>0.45446</v>
+        <v>0.448974</v>
       </c>
       <c r="D105" t="n">
-        <v>0.404129</v>
+        <v>0.404516</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.547566</v>
+        <v>0.544109</v>
       </c>
       <c r="C106" t="n">
-        <v>0.456356</v>
+        <v>0.45126</v>
       </c>
       <c r="D106" t="n">
-        <v>0.406553</v>
+        <v>0.404494</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.552627</v>
+        <v>0.549149</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4599</v>
+        <v>0.455959</v>
       </c>
       <c r="D107" t="n">
-        <v>0.417068</v>
+        <v>0.412007</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.561029</v>
+        <v>0.5564750000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.463366</v>
+        <v>0.460755</v>
       </c>
       <c r="D108" t="n">
-        <v>0.535873</v>
+        <v>0.536561</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.572912</v>
+        <v>0.567392</v>
       </c>
       <c r="C109" t="n">
-        <v>0.473364</v>
+        <v>0.466965</v>
       </c>
       <c r="D109" t="n">
-        <v>0.536013</v>
+        <v>0.530041</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.611405</v>
+        <v>0.6079560000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.561121</v>
+        <v>0.556051</v>
       </c>
       <c r="D110" t="n">
-        <v>0.537606</v>
+        <v>0.53252</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.611299</v>
+        <v>0.608208</v>
       </c>
       <c r="C111" t="n">
-        <v>0.561883</v>
+        <v>0.553889</v>
       </c>
       <c r="D111" t="n">
-        <v>0.537948</v>
+        <v>0.534363</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.616356</v>
+        <v>0.6074349999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.563704</v>
+        <v>0.555276</v>
       </c>
       <c r="D112" t="n">
-        <v>0.540508</v>
+        <v>0.533903</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.615186</v>
+        <v>0.609271</v>
       </c>
       <c r="C113" t="n">
-        <v>0.558586</v>
+        <v>0.5546489999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5404060000000001</v>
+        <v>0.535003</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.616489</v>
+        <v>0.607962</v>
       </c>
       <c r="C114" t="n">
-        <v>0.563461</v>
+        <v>0.556594</v>
       </c>
       <c r="D114" t="n">
-        <v>0.53873</v>
+        <v>0.532878</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.615496</v>
+        <v>0.610824</v>
       </c>
       <c r="C115" t="n">
-        <v>0.564703</v>
+        <v>0.5552820000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.537658</v>
+        <v>0.53685</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.61982</v>
+        <v>0.614049</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5643280000000001</v>
+        <v>0.557075</v>
       </c>
       <c r="D116" t="n">
-        <v>0.541584</v>
+        <v>0.537042</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.622899</v>
+        <v>0.616874</v>
       </c>
       <c r="C117" t="n">
-        <v>0.566002</v>
+        <v>0.559183</v>
       </c>
       <c r="D117" t="n">
-        <v>0.546435</v>
+        <v>0.537158</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.625214</v>
+        <v>0.618456</v>
       </c>
       <c r="C118" t="n">
-        <v>0.569673</v>
+        <v>0.560495</v>
       </c>
       <c r="D118" t="n">
-        <v>0.548387</v>
+        <v>0.5397650000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6274729999999999</v>
+        <v>0.625194</v>
       </c>
       <c r="C119" t="n">
-        <v>0.571181</v>
+        <v>0.563575</v>
       </c>
       <c r="D119" t="n">
-        <v>0.542874</v>
+        <v>0.546135</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.634195</v>
+        <v>0.628379</v>
       </c>
       <c r="C120" t="n">
-        <v>0.573895</v>
+        <v>0.566377</v>
       </c>
       <c r="D120" t="n">
-        <v>0.547662</v>
+        <v>0.549415</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.640383</v>
+        <v>0.63269</v>
       </c>
       <c r="C121" t="n">
-        <v>0.579851</v>
+        <v>0.570075</v>
       </c>
       <c r="D121" t="n">
-        <v>0.558922</v>
+        <v>0.551829</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.648962</v>
+        <v>0.643821</v>
       </c>
       <c r="C122" t="n">
-        <v>0.584182</v>
+        <v>0.578202</v>
       </c>
       <c r="D122" t="n">
-        <v>0.570281</v>
+        <v>0.563318</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.661751</v>
+        <v>0.656185</v>
       </c>
       <c r="C123" t="n">
-        <v>0.596168</v>
+        <v>0.586855</v>
       </c>
       <c r="D123" t="n">
-        <v>0.69352</v>
+        <v>0.69313</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7524149999999999</v>
+        <v>0.747803</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6853089999999999</v>
+        <v>0.684109</v>
       </c>
       <c r="D124" t="n">
-        <v>0.693245</v>
+        <v>0.690053</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.752964</v>
+        <v>0.748714</v>
       </c>
       <c r="C125" t="n">
-        <v>0.689582</v>
+        <v>0.68464</v>
       </c>
       <c r="D125" t="n">
-        <v>0.699755</v>
+        <v>0.692092</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.754234</v>
+        <v>0.750167</v>
       </c>
       <c r="C126" t="n">
-        <v>0.691053</v>
+        <v>0.685673</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7005479999999999</v>
+        <v>0.693424</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.757039</v>
+        <v>0.74971</v>
       </c>
       <c r="C127" t="n">
-        <v>0.689622</v>
+        <v>0.686901</v>
       </c>
       <c r="D127" t="n">
-        <v>0.696471</v>
+        <v>0.694759</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7557160000000001</v>
+        <v>0.75102</v>
       </c>
       <c r="C128" t="n">
-        <v>0.693244</v>
+        <v>0.6883359999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.70161</v>
+        <v>0.696005</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.757846</v>
+        <v>0.75296</v>
       </c>
       <c r="C129" t="n">
-        <v>0.696311</v>
+        <v>0.68999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.701982</v>
+        <v>0.700075</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7619629999999999</v>
+        <v>0.754573</v>
       </c>
       <c r="C130" t="n">
-        <v>0.698958</v>
+        <v>0.691448</v>
       </c>
       <c r="D130" t="n">
-        <v>0.704658</v>
+        <v>0.698886</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.762471</v>
+        <v>0.756344</v>
       </c>
       <c r="C131" t="n">
-        <v>0.696348</v>
+        <v>0.693734</v>
       </c>
       <c r="D131" t="n">
-        <v>0.703358</v>
+        <v>0.698829</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.766776</v>
+        <v>0.761378</v>
       </c>
       <c r="C132" t="n">
-        <v>0.704094</v>
+        <v>0.697501</v>
       </c>
       <c r="D132" t="n">
-        <v>0.709193</v>
+        <v>0.705326</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7687</v>
+        <v>0.761652</v>
       </c>
       <c r="C133" t="n">
-        <v>0.704633</v>
+        <v>0.697041</v>
       </c>
       <c r="D133" t="n">
-        <v>0.715516</v>
+        <v>0.708182</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.776007</v>
+        <v>0.769261</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7085050000000001</v>
+        <v>0.703098</v>
       </c>
       <c r="D134" t="n">
-        <v>0.715407</v>
+        <v>0.710564</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7799430000000001</v>
+        <v>0.774178</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7155860000000001</v>
+        <v>0.707329</v>
       </c>
       <c r="D135" t="n">
-        <v>0.72196</v>
+        <v>0.719839</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.789108</v>
+        <v>0.782776</v>
       </c>
       <c r="C136" t="n">
-        <v>0.716465</v>
+        <v>0.714129</v>
       </c>
       <c r="D136" t="n">
-        <v>0.730726</v>
+        <v>0.723244</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.800275</v>
+        <v>0.795677</v>
       </c>
       <c r="C137" t="n">
-        <v>0.72607</v>
+        <v>0.72195</v>
       </c>
       <c r="D137" t="n">
-        <v>0.828238</v>
+        <v>0.8279840000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.876826</v>
+        <v>0.8748089999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>0.81053</v>
+        <v>0.80555</v>
       </c>
       <c r="D138" t="n">
-        <v>0.83319</v>
+        <v>0.828263</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.878207</v>
+        <v>0.874438</v>
       </c>
       <c r="C139" t="n">
-        <v>0.809885</v>
+        <v>0.807187</v>
       </c>
       <c r="D139" t="n">
-        <v>0.831577</v>
+        <v>0.833964</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.877785</v>
+        <v>0.875773</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8122239999999999</v>
+        <v>0.808611</v>
       </c>
       <c r="D140" t="n">
-        <v>0.830834</v>
+        <v>0.827735</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.877631</v>
+        <v>0.875719</v>
       </c>
       <c r="C141" t="n">
-        <v>0.814786</v>
+        <v>0.8096100000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.831689</v>
+        <v>0.832265</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.878684</v>
+        <v>0.877166</v>
       </c>
       <c r="C142" t="n">
-        <v>0.815491</v>
+        <v>0.811618</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8312</v>
+        <v>0.828253</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.881852</v>
+        <v>0.8789130000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>0.815705</v>
+        <v>0.813757</v>
       </c>
       <c r="D143" t="n">
-        <v>0.833836</v>
+        <v>0.829703</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115247</v>
+        <v>0.116907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0893244</v>
+        <v>0.09017</v>
       </c>
       <c r="D2" t="n">
-        <v>0.103224</v>
+        <v>0.09766030000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115869</v>
+        <v>0.116987</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0891643</v>
+        <v>0.0898737</v>
       </c>
       <c r="D3" t="n">
-        <v>0.103075</v>
+        <v>0.103652</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116858</v>
+        <v>0.117998</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0892294</v>
+        <v>0.0903355</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09703100000000001</v>
+        <v>0.103502</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118117</v>
+        <v>0.118474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0899068</v>
+        <v>0.0897756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.104293</v>
+        <v>0.103211</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.120478</v>
+        <v>0.120646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.090159</v>
+        <v>0.09006749999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.104739</v>
+        <v>0.104133</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.122933</v>
+        <v>0.123783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0905049</v>
+        <v>0.09057220000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.105342</v>
+        <v>0.105606</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.130006</v>
+        <v>0.131362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09132270000000001</v>
+        <v>0.092433</v>
       </c>
       <c r="D8" t="n">
-        <v>0.107124</v>
+        <v>0.102075</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.141295</v>
+        <v>0.142813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09280330000000001</v>
+        <v>0.0940764</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113738</v>
+        <v>0.105107</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125317</v>
+        <v>0.12985</v>
       </c>
       <c r="C10" t="n">
-        <v>0.098246</v>
+        <v>0.0982364</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11265</v>
+        <v>0.113715</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125738</v>
+        <v>0.126263</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0982687</v>
+        <v>0.0997513</v>
       </c>
       <c r="D11" t="n">
-        <v>0.112887</v>
+        <v>0.107256</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128258</v>
+        <v>0.128271</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0987463</v>
+        <v>0.100012</v>
       </c>
       <c r="D12" t="n">
-        <v>0.105805</v>
+        <v>0.112382</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.133516</v>
+        <v>0.129576</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09895809999999999</v>
+        <v>0.100254</v>
       </c>
       <c r="D13" t="n">
-        <v>0.114325</v>
+        <v>0.11409</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128108</v>
+        <v>0.127328</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09923269999999999</v>
+        <v>0.0996365</v>
       </c>
       <c r="D14" t="n">
-        <v>0.109177</v>
+        <v>0.118352</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129268</v>
+        <v>0.126624</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09897590000000001</v>
+        <v>0.101232</v>
       </c>
       <c r="D15" t="n">
-        <v>0.115506</v>
+        <v>0.116508</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127463</v>
+        <v>0.129339</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0989517</v>
+        <v>0.100394</v>
       </c>
       <c r="D16" t="n">
-        <v>0.111949</v>
+        <v>0.116801</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131903</v>
+        <v>0.129337</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0995992</v>
+        <v>0.100367</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114822</v>
+        <v>0.11997</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12949</v>
+        <v>0.132258</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09941419999999999</v>
+        <v>0.101029</v>
       </c>
       <c r="D18" t="n">
-        <v>0.109538</v>
+        <v>0.116681</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.133119</v>
+        <v>0.138152</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09976839999999999</v>
+        <v>0.101726</v>
       </c>
       <c r="D19" t="n">
-        <v>0.115573</v>
+        <v>0.114791</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.136481</v>
+        <v>0.136982</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104128</v>
+        <v>0.101849</v>
       </c>
       <c r="D20" t="n">
-        <v>0.117247</v>
+        <v>0.115207</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.141775</v>
+        <v>0.141286</v>
       </c>
       <c r="C21" t="n">
-        <v>0.101731</v>
+        <v>0.107307</v>
       </c>
       <c r="D21" t="n">
-        <v>0.117711</v>
+        <v>0.12303</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.156611</v>
+        <v>0.148909</v>
       </c>
       <c r="C22" t="n">
-        <v>0.105944</v>
+        <v>0.108194</v>
       </c>
       <c r="D22" t="n">
-        <v>0.121177</v>
+        <v>0.125225</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170311</v>
+        <v>0.160773</v>
       </c>
       <c r="C23" t="n">
-        <v>0.112985</v>
+        <v>0.115908</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124051</v>
+        <v>0.135973</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.140347</v>
+        <v>0.135692</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108538</v>
+        <v>0.10888</v>
       </c>
       <c r="D24" t="n">
-        <v>0.119708</v>
+        <v>0.116282</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134838</v>
+        <v>0.135525</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109859</v>
+        <v>0.108274</v>
       </c>
       <c r="D25" t="n">
-        <v>0.126534</v>
+        <v>0.115494</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137795</v>
+        <v>0.136027</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109426</v>
+        <v>0.111123</v>
       </c>
       <c r="D26" t="n">
-        <v>0.123813</v>
+        <v>0.119444</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138682</v>
+        <v>0.136651</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109481</v>
+        <v>0.11169</v>
       </c>
       <c r="D27" t="n">
-        <v>0.12356</v>
+        <v>0.124194</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136445</v>
+        <v>0.136084</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109945</v>
+        <v>0.110981</v>
       </c>
       <c r="D28" t="n">
-        <v>0.118077</v>
+        <v>0.12982</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136882</v>
+        <v>0.137447</v>
       </c>
       <c r="C29" t="n">
-        <v>0.110587</v>
+        <v>0.111942</v>
       </c>
       <c r="D29" t="n">
-        <v>0.120531</v>
+        <v>0.12406</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.139603</v>
+        <v>0.137676</v>
       </c>
       <c r="C30" t="n">
-        <v>0.110642</v>
+        <v>0.111267</v>
       </c>
       <c r="D30" t="n">
-        <v>0.125456</v>
+        <v>0.128123</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.140719</v>
+        <v>0.139979</v>
       </c>
       <c r="C31" t="n">
-        <v>0.111332</v>
+        <v>0.111383</v>
       </c>
       <c r="D31" t="n">
-        <v>0.11983</v>
+        <v>0.121448</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141402</v>
+        <v>0.141813</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112776</v>
+        <v>0.113078</v>
       </c>
       <c r="D32" t="n">
-        <v>0.12903</v>
+        <v>0.120174</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.145067</v>
+        <v>0.145912</v>
       </c>
       <c r="C33" t="n">
-        <v>0.114594</v>
+        <v>0.114677</v>
       </c>
       <c r="D33" t="n">
-        <v>0.125364</v>
+        <v>0.125418</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.148621</v>
+        <v>0.15571</v>
       </c>
       <c r="C34" t="n">
-        <v>0.115765</v>
+        <v>0.116286</v>
       </c>
       <c r="D34" t="n">
-        <v>0.129774</v>
+        <v>0.123018</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152783</v>
+        <v>0.152916</v>
       </c>
       <c r="C35" t="n">
-        <v>0.119338</v>
+        <v>0.119937</v>
       </c>
       <c r="D35" t="n">
-        <v>0.129149</v>
+        <v>0.130326</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159601</v>
+        <v>0.161917</v>
       </c>
       <c r="C36" t="n">
-        <v>0.124443</v>
+        <v>0.124888</v>
       </c>
       <c r="D36" t="n">
-        <v>0.138924</v>
+        <v>0.138063</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170965</v>
+        <v>0.167275</v>
       </c>
       <c r="C37" t="n">
-        <v>0.129291</v>
+        <v>0.130006</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132597</v>
+        <v>0.144876</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147317</v>
+        <v>0.147432</v>
       </c>
       <c r="C38" t="n">
-        <v>0.120596</v>
+        <v>0.120963</v>
       </c>
       <c r="D38" t="n">
-        <v>0.132458</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147558</v>
+        <v>0.14588</v>
       </c>
       <c r="C39" t="n">
-        <v>0.120947</v>
+        <v>0.123155</v>
       </c>
       <c r="D39" t="n">
-        <v>0.131294</v>
+        <v>0.133518</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150905</v>
+        <v>0.150529</v>
       </c>
       <c r="C40" t="n">
-        <v>0.121311</v>
+        <v>0.123141</v>
       </c>
       <c r="D40" t="n">
-        <v>0.137418</v>
+        <v>0.136511</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.150383</v>
+        <v>0.14839</v>
       </c>
       <c r="C41" t="n">
-        <v>0.122418</v>
+        <v>0.124437</v>
       </c>
       <c r="D41" t="n">
-        <v>0.140393</v>
+        <v>0.137527</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.151074</v>
+        <v>0.152099</v>
       </c>
       <c r="C42" t="n">
-        <v>0.122817</v>
+        <v>0.123326</v>
       </c>
       <c r="D42" t="n">
-        <v>0.141717</v>
+        <v>0.135244</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.153271</v>
+        <v>0.152375</v>
       </c>
       <c r="C43" t="n">
-        <v>0.122693</v>
+        <v>0.12498</v>
       </c>
       <c r="D43" t="n">
-        <v>0.136835</v>
+        <v>0.135669</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150994</v>
+        <v>0.153085</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125014</v>
+        <v>0.125728</v>
       </c>
       <c r="D44" t="n">
-        <v>0.133057</v>
+        <v>0.138531</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153603</v>
+        <v>0.152688</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125986</v>
+        <v>0.125948</v>
       </c>
       <c r="D45" t="n">
-        <v>0.144114</v>
+        <v>0.139021</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155767</v>
+        <v>0.157546</v>
       </c>
       <c r="C46" t="n">
-        <v>0.126895</v>
+        <v>0.128891</v>
       </c>
       <c r="D46" t="n">
-        <v>0.138691</v>
+        <v>0.139638</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.160303</v>
+        <v>0.159142</v>
       </c>
       <c r="C47" t="n">
-        <v>0.128281</v>
+        <v>0.129736</v>
       </c>
       <c r="D47" t="n">
-        <v>0.142685</v>
+        <v>0.139826</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160942</v>
+        <v>0.165653</v>
       </c>
       <c r="C48" t="n">
-        <v>0.130755</v>
+        <v>0.131711</v>
       </c>
       <c r="D48" t="n">
-        <v>0.142938</v>
+        <v>0.141383</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.167762</v>
+        <v>0.162631</v>
       </c>
       <c r="C49" t="n">
-        <v>0.133071</v>
+        <v>0.13393</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14521</v>
+        <v>0.1473</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173338</v>
+        <v>0.173772</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136165</v>
+        <v>0.136188</v>
       </c>
       <c r="D50" t="n">
-        <v>0.150508</v>
+        <v>0.144824</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.179055</v>
+        <v>0.178649</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140247</v>
+        <v>0.139616</v>
       </c>
       <c r="D51" t="n">
-        <v>0.14288</v>
+        <v>0.152184</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.190008</v>
+        <v>0.188151</v>
       </c>
       <c r="C52" t="n">
-        <v>0.145765</v>
+        <v>0.146511</v>
       </c>
       <c r="D52" t="n">
-        <v>0.148364</v>
+        <v>0.168198</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160108</v>
+        <v>0.161718</v>
       </c>
       <c r="C53" t="n">
-        <v>0.129714</v>
+        <v>0.131513</v>
       </c>
       <c r="D53" t="n">
-        <v>0.148679</v>
+        <v>0.146856</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161616</v>
+        <v>0.1612</v>
       </c>
       <c r="C54" t="n">
-        <v>0.131059</v>
+        <v>0.131367</v>
       </c>
       <c r="D54" t="n">
-        <v>0.15061</v>
+        <v>0.145013</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161449</v>
+        <v>0.161326</v>
       </c>
       <c r="C55" t="n">
-        <v>0.131226</v>
+        <v>0.131024</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1551</v>
+        <v>0.146991</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161877</v>
+        <v>0.166246</v>
       </c>
       <c r="C56" t="n">
-        <v>0.133669</v>
+        <v>0.133032</v>
       </c>
       <c r="D56" t="n">
-        <v>0.155349</v>
+        <v>0.145777</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162559</v>
+        <v>0.164437</v>
       </c>
       <c r="C57" t="n">
-        <v>0.134349</v>
+        <v>0.133796</v>
       </c>
       <c r="D57" t="n">
-        <v>0.149716</v>
+        <v>0.141426</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163851</v>
+        <v>0.164907</v>
       </c>
       <c r="C58" t="n">
-        <v>0.134991</v>
+        <v>0.134536</v>
       </c>
       <c r="D58" t="n">
-        <v>0.150184</v>
+        <v>0.148001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165224</v>
+        <v>0.166192</v>
       </c>
       <c r="C59" t="n">
-        <v>0.136492</v>
+        <v>0.137107</v>
       </c>
       <c r="D59" t="n">
-        <v>0.150462</v>
+        <v>0.145207</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167228</v>
+        <v>0.168344</v>
       </c>
       <c r="C60" t="n">
-        <v>0.137302</v>
+        <v>0.138128</v>
       </c>
       <c r="D60" t="n">
-        <v>0.15126</v>
+        <v>0.147296</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169218</v>
+        <v>0.170347</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138932</v>
+        <v>0.140409</v>
       </c>
       <c r="D61" t="n">
-        <v>0.156285</v>
+        <v>0.151791</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.175144</v>
+        <v>0.173474</v>
       </c>
       <c r="C62" t="n">
-        <v>0.140911</v>
+        <v>0.140828</v>
       </c>
       <c r="D62" t="n">
-        <v>0.15491</v>
+        <v>0.147941</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176348</v>
+        <v>0.177644</v>
       </c>
       <c r="C63" t="n">
-        <v>0.145916</v>
+        <v>0.143685</v>
       </c>
       <c r="D63" t="n">
-        <v>0.159406</v>
+        <v>0.156169</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.181145</v>
+        <v>0.189272</v>
       </c>
       <c r="C64" t="n">
-        <v>0.146284</v>
+        <v>0.146386</v>
       </c>
       <c r="D64" t="n">
-        <v>0.163524</v>
+        <v>0.155509</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.188426</v>
+        <v>0.195004</v>
       </c>
       <c r="C65" t="n">
-        <v>0.150217</v>
+        <v>0.147668</v>
       </c>
       <c r="D65" t="n">
-        <v>0.177597</v>
+        <v>0.166917</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.196678</v>
+        <v>0.198096</v>
       </c>
       <c r="C66" t="n">
-        <v>0.155929</v>
+        <v>0.155715</v>
       </c>
       <c r="D66" t="n">
-        <v>0.169801</v>
+        <v>0.176979</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.181519</v>
+        <v>0.183118</v>
       </c>
       <c r="C67" t="n">
-        <v>0.14715</v>
+        <v>0.154452</v>
       </c>
       <c r="D67" t="n">
-        <v>0.163751</v>
+        <v>0.163953</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.187003</v>
+        <v>0.18052</v>
       </c>
       <c r="C68" t="n">
-        <v>0.151299</v>
+        <v>0.149976</v>
       </c>
       <c r="D68" t="n">
-        <v>0.158668</v>
+        <v>0.162415</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.18432</v>
+        <v>0.182314</v>
       </c>
       <c r="C69" t="n">
-        <v>0.149982</v>
+        <v>0.154609</v>
       </c>
       <c r="D69" t="n">
-        <v>0.162238</v>
+        <v>0.161768</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.183647</v>
+        <v>0.181811</v>
       </c>
       <c r="C70" t="n">
-        <v>0.149479</v>
+        <v>0.153367</v>
       </c>
       <c r="D70" t="n">
-        <v>0.164121</v>
+        <v>0.168302</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.182194</v>
+        <v>0.188771</v>
       </c>
       <c r="C71" t="n">
-        <v>0.150133</v>
+        <v>0.158261</v>
       </c>
       <c r="D71" t="n">
-        <v>0.166323</v>
+        <v>0.168479</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.188962</v>
+        <v>0.186936</v>
       </c>
       <c r="C72" t="n">
-        <v>0.150626</v>
+        <v>0.155758</v>
       </c>
       <c r="D72" t="n">
-        <v>0.164192</v>
+        <v>0.171334</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.185809</v>
+        <v>0.195812</v>
       </c>
       <c r="C73" t="n">
-        <v>0.152726</v>
+        <v>0.156972</v>
       </c>
       <c r="D73" t="n">
-        <v>0.164347</v>
+        <v>0.169973</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.187827</v>
+        <v>0.192513</v>
       </c>
       <c r="C74" t="n">
-        <v>0.154583</v>
+        <v>0.15838</v>
       </c>
       <c r="D74" t="n">
-        <v>0.168469</v>
+        <v>0.171262</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.192769</v>
+        <v>0.19119</v>
       </c>
       <c r="C75" t="n">
-        <v>0.156549</v>
+        <v>0.157722</v>
       </c>
       <c r="D75" t="n">
-        <v>0.176136</v>
+        <v>0.169212</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.200269</v>
+        <v>0.195936</v>
       </c>
       <c r="C76" t="n">
-        <v>0.158995</v>
+        <v>0.160478</v>
       </c>
       <c r="D76" t="n">
-        <v>0.170651</v>
+        <v>0.171936</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196255</v>
+        <v>0.195339</v>
       </c>
       <c r="C77" t="n">
-        <v>0.159208</v>
+        <v>0.161168</v>
       </c>
       <c r="D77" t="n">
-        <v>0.168234</v>
+        <v>0.168034</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.206548</v>
+        <v>0.205458</v>
       </c>
       <c r="C78" t="n">
-        <v>0.162255</v>
+        <v>0.162049</v>
       </c>
       <c r="D78" t="n">
-        <v>0.183674</v>
+        <v>0.171377</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.208413</v>
+        <v>0.206953</v>
       </c>
       <c r="C79" t="n">
-        <v>0.166432</v>
+        <v>0.174157</v>
       </c>
       <c r="D79" t="n">
-        <v>0.190796</v>
+        <v>0.177904</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218648</v>
+        <v>0.213972</v>
       </c>
       <c r="C80" t="n">
-        <v>0.171273</v>
+        <v>0.181009</v>
       </c>
       <c r="D80" t="n">
-        <v>0.244098</v>
+        <v>0.191424</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.361034</v>
+        <v>0.386866</v>
       </c>
       <c r="C81" t="n">
-        <v>0.285511</v>
+        <v>0.305771</v>
       </c>
       <c r="D81" t="n">
-        <v>0.240943</v>
+        <v>0.31845</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.365764</v>
+        <v>0.387275</v>
       </c>
       <c r="C82" t="n">
-        <v>0.285367</v>
+        <v>0.308316</v>
       </c>
       <c r="D82" t="n">
-        <v>0.241514</v>
+        <v>0.310328</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.367791</v>
+        <v>0.393328</v>
       </c>
       <c r="C83" t="n">
-        <v>0.284124</v>
+        <v>0.302602</v>
       </c>
       <c r="D83" t="n">
-        <v>0.250415</v>
+        <v>0.319489</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.362117</v>
+        <v>0.390295</v>
       </c>
       <c r="C84" t="n">
-        <v>0.285653</v>
+        <v>0.302167</v>
       </c>
       <c r="D84" t="n">
-        <v>0.247733</v>
+        <v>0.314543</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.37082</v>
+        <v>0.395942</v>
       </c>
       <c r="C85" t="n">
-        <v>0.282195</v>
+        <v>0.299282</v>
       </c>
       <c r="D85" t="n">
-        <v>0.236738</v>
+        <v>0.314971</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.366736</v>
+        <v>0.394647</v>
       </c>
       <c r="C86" t="n">
-        <v>0.282544</v>
+        <v>0.301097</v>
       </c>
       <c r="D86" t="n">
-        <v>0.244297</v>
+        <v>0.30793</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.369548</v>
+        <v>0.399893</v>
       </c>
       <c r="C87" t="n">
-        <v>0.279257</v>
+        <v>0.296767</v>
       </c>
       <c r="D87" t="n">
-        <v>0.235875</v>
+        <v>0.308339</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.371349</v>
+        <v>0.393032</v>
       </c>
       <c r="C88" t="n">
-        <v>0.278695</v>
+        <v>0.297709</v>
       </c>
       <c r="D88" t="n">
-        <v>0.248463</v>
+        <v>0.307243</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.369845</v>
+        <v>0.394403</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276273</v>
+        <v>0.295011</v>
       </c>
       <c r="D89" t="n">
-        <v>0.245407</v>
+        <v>0.305403</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.371442</v>
+        <v>0.396377</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278018</v>
+        <v>0.294623</v>
       </c>
       <c r="D90" t="n">
-        <v>0.23923</v>
+        <v>0.302142</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374886</v>
+        <v>0.403522</v>
       </c>
       <c r="C91" t="n">
-        <v>0.276218</v>
+        <v>0.29125</v>
       </c>
       <c r="D91" t="n">
-        <v>0.235417</v>
+        <v>0.303441</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.379833</v>
+        <v>0.403679</v>
       </c>
       <c r="C92" t="n">
-        <v>0.280011</v>
+        <v>0.297327</v>
       </c>
       <c r="D92" t="n">
-        <v>0.24426</v>
+        <v>0.308122</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.385211</v>
+        <v>0.414136</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280029</v>
+        <v>0.298748</v>
       </c>
       <c r="D93" t="n">
-        <v>0.237119</v>
+        <v>0.312523</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.389779</v>
+        <v>0.412156</v>
       </c>
       <c r="C94" t="n">
-        <v>0.283851</v>
+        <v>0.305537</v>
       </c>
       <c r="D94" t="n">
-        <v>0.402973</v>
+        <v>0.308647</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5272210000000001</v>
+        <v>0.582766</v>
       </c>
       <c r="C95" t="n">
-        <v>0.448132</v>
+        <v>0.491762</v>
       </c>
       <c r="D95" t="n">
-        <v>0.400487</v>
+        <v>0.499332</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.52777</v>
+        <v>0.574902</v>
       </c>
       <c r="C96" t="n">
-        <v>0.44713</v>
+        <v>0.491267</v>
       </c>
       <c r="D96" t="n">
-        <v>0.397736</v>
+        <v>0.500976</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.527844</v>
+        <v>0.5762969999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.447285</v>
+        <v>0.490707</v>
       </c>
       <c r="D97" t="n">
-        <v>0.403387</v>
+        <v>0.496395</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5295</v>
+        <v>0.576135</v>
       </c>
       <c r="C98" t="n">
-        <v>0.446377</v>
+        <v>0.488908</v>
       </c>
       <c r="D98" t="n">
-        <v>0.397408</v>
+        <v>0.497927</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.529805</v>
+        <v>0.577834</v>
       </c>
       <c r="C99" t="n">
-        <v>0.447253</v>
+        <v>0.487435</v>
       </c>
       <c r="D99" t="n">
-        <v>0.400451</v>
+        <v>0.494056</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.530815</v>
+        <v>0.577772</v>
       </c>
       <c r="C100" t="n">
-        <v>0.445516</v>
+        <v>0.48748</v>
       </c>
       <c r="D100" t="n">
-        <v>0.399234</v>
+        <v>0.492845</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.531292</v>
+        <v>0.578985</v>
       </c>
       <c r="C101" t="n">
-        <v>0.446479</v>
+        <v>0.488048</v>
       </c>
       <c r="D101" t="n">
-        <v>0.400793</v>
+        <v>0.492443</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.532154</v>
+        <v>0.580269</v>
       </c>
       <c r="C102" t="n">
-        <v>0.444933</v>
+        <v>0.487478</v>
       </c>
       <c r="D102" t="n">
-        <v>0.401091</v>
+        <v>0.495418</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.533847</v>
+        <v>0.581992</v>
       </c>
       <c r="C103" t="n">
-        <v>0.446075</v>
+        <v>0.487524</v>
       </c>
       <c r="D103" t="n">
-        <v>0.400675</v>
+        <v>0.497467</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.53652</v>
+        <v>0.584239</v>
       </c>
       <c r="C104" t="n">
-        <v>0.447301</v>
+        <v>0.488896</v>
       </c>
       <c r="D104" t="n">
-        <v>0.403433</v>
+        <v>0.496211</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.539198</v>
+        <v>0.58909</v>
       </c>
       <c r="C105" t="n">
-        <v>0.448974</v>
+        <v>0.490563</v>
       </c>
       <c r="D105" t="n">
-        <v>0.404516</v>
+        <v>0.499799</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.544109</v>
+        <v>0.590982</v>
       </c>
       <c r="C106" t="n">
-        <v>0.45126</v>
+        <v>0.493039</v>
       </c>
       <c r="D106" t="n">
-        <v>0.404494</v>
+        <v>0.503804</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.549149</v>
+        <v>0.597228</v>
       </c>
       <c r="C107" t="n">
-        <v>0.455959</v>
+        <v>0.496402</v>
       </c>
       <c r="D107" t="n">
-        <v>0.412007</v>
+        <v>0.502936</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5564750000000001</v>
+        <v>0.604446</v>
       </c>
       <c r="C108" t="n">
-        <v>0.460755</v>
+        <v>0.502466</v>
       </c>
       <c r="D108" t="n">
-        <v>0.536561</v>
+        <v>0.510998</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.567392</v>
+        <v>0.615912</v>
       </c>
       <c r="C109" t="n">
-        <v>0.466965</v>
+        <v>0.508636</v>
       </c>
       <c r="D109" t="n">
-        <v>0.530041</v>
+        <v>0.52723</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6079560000000001</v>
+        <v>0.665766</v>
       </c>
       <c r="C110" t="n">
-        <v>0.556051</v>
+        <v>0.613105</v>
       </c>
       <c r="D110" t="n">
-        <v>0.53252</v>
+        <v>0.620333</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.608208</v>
+        <v>0.665888</v>
       </c>
       <c r="C111" t="n">
-        <v>0.553889</v>
+        <v>0.612101</v>
       </c>
       <c r="D111" t="n">
-        <v>0.534363</v>
+        <v>0.6224420000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6074349999999999</v>
+        <v>0.665353</v>
       </c>
       <c r="C112" t="n">
-        <v>0.555276</v>
+        <v>0.6115350000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.533903</v>
+        <v>0.619153</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.609271</v>
+        <v>0.669092</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5546489999999999</v>
+        <v>0.613565</v>
       </c>
       <c r="D113" t="n">
-        <v>0.535003</v>
+        <v>0.619696</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.607962</v>
+        <v>0.667374</v>
       </c>
       <c r="C114" t="n">
-        <v>0.556594</v>
+        <v>0.612707</v>
       </c>
       <c r="D114" t="n">
-        <v>0.532878</v>
+        <v>0.619248</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.610824</v>
+        <v>0.669306</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5552820000000001</v>
+        <v>0.6134540000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.53685</v>
+        <v>0.620308</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.614049</v>
+        <v>0.670293</v>
       </c>
       <c r="C116" t="n">
-        <v>0.557075</v>
+        <v>0.614043</v>
       </c>
       <c r="D116" t="n">
-        <v>0.537042</v>
+        <v>0.620355</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.616874</v>
+        <v>0.67463</v>
       </c>
       <c r="C117" t="n">
-        <v>0.559183</v>
+        <v>0.6155389999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.537158</v>
+        <v>0.623043</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.618456</v>
+        <v>0.677071</v>
       </c>
       <c r="C118" t="n">
-        <v>0.560495</v>
+        <v>0.616991</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5397650000000001</v>
+        <v>0.623458</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.625194</v>
+        <v>0.682047</v>
       </c>
       <c r="C119" t="n">
-        <v>0.563575</v>
+        <v>0.619344</v>
       </c>
       <c r="D119" t="n">
-        <v>0.546135</v>
+        <v>0.62753</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.628379</v>
+        <v>0.68816</v>
       </c>
       <c r="C120" t="n">
-        <v>0.566377</v>
+        <v>0.625624</v>
       </c>
       <c r="D120" t="n">
-        <v>0.549415</v>
+        <v>0.633068</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.63269</v>
+        <v>0.694846</v>
       </c>
       <c r="C121" t="n">
-        <v>0.570075</v>
+        <v>0.6261330000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.551829</v>
+        <v>0.637067</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.643821</v>
+        <v>0.70487</v>
       </c>
       <c r="C122" t="n">
-        <v>0.578202</v>
+        <v>0.634244</v>
       </c>
       <c r="D122" t="n">
-        <v>0.563318</v>
+        <v>0.6449240000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.656185</v>
+        <v>0.718279</v>
       </c>
       <c r="C123" t="n">
-        <v>0.586855</v>
+        <v>0.641814</v>
       </c>
       <c r="D123" t="n">
-        <v>0.69313</v>
+        <v>0.660743</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.747803</v>
+        <v>0.821786</v>
       </c>
       <c r="C124" t="n">
-        <v>0.684109</v>
+        <v>0.755933</v>
       </c>
       <c r="D124" t="n">
-        <v>0.690053</v>
+        <v>0.760447</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.748714</v>
+        <v>0.82179</v>
       </c>
       <c r="C125" t="n">
-        <v>0.68464</v>
+        <v>0.756533</v>
       </c>
       <c r="D125" t="n">
-        <v>0.692092</v>
+        <v>0.765628</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.750167</v>
+        <v>0.823412</v>
       </c>
       <c r="C126" t="n">
-        <v>0.685673</v>
+        <v>0.755841</v>
       </c>
       <c r="D126" t="n">
-        <v>0.693424</v>
+        <v>0.764812</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.74971</v>
+        <v>0.822921</v>
       </c>
       <c r="C127" t="n">
-        <v>0.686901</v>
+        <v>0.7589590000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.694759</v>
+        <v>0.763476</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.75102</v>
+        <v>0.823984</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6883359999999999</v>
+        <v>0.763877</v>
       </c>
       <c r="D128" t="n">
-        <v>0.696005</v>
+        <v>0.7637930000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.75296</v>
+        <v>0.827721</v>
       </c>
       <c r="C129" t="n">
-        <v>0.68999</v>
+        <v>0.761679</v>
       </c>
       <c r="D129" t="n">
-        <v>0.700075</v>
+        <v>0.768142</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.754573</v>
+        <v>0.82913</v>
       </c>
       <c r="C130" t="n">
-        <v>0.691448</v>
+        <v>0.765437</v>
       </c>
       <c r="D130" t="n">
-        <v>0.698886</v>
+        <v>0.767673</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.756344</v>
+        <v>0.832745</v>
       </c>
       <c r="C131" t="n">
-        <v>0.693734</v>
+        <v>0.767535</v>
       </c>
       <c r="D131" t="n">
-        <v>0.698829</v>
+        <v>0.770802</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.761378</v>
+        <v>0.833717</v>
       </c>
       <c r="C132" t="n">
-        <v>0.697501</v>
+        <v>0.767647</v>
       </c>
       <c r="D132" t="n">
-        <v>0.705326</v>
+        <v>0.773301</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.761652</v>
+        <v>0.841065</v>
       </c>
       <c r="C133" t="n">
-        <v>0.697041</v>
+        <v>0.773896</v>
       </c>
       <c r="D133" t="n">
-        <v>0.708182</v>
+        <v>0.776047</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.769261</v>
+        <v>0.843668</v>
       </c>
       <c r="C134" t="n">
-        <v>0.703098</v>
+        <v>0.775899</v>
       </c>
       <c r="D134" t="n">
-        <v>0.710564</v>
+        <v>0.784362</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.774178</v>
+        <v>0.854625</v>
       </c>
       <c r="C135" t="n">
-        <v>0.707329</v>
+        <v>0.782188</v>
       </c>
       <c r="D135" t="n">
-        <v>0.719839</v>
+        <v>0.788637</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.782776</v>
+        <v>0.861435</v>
       </c>
       <c r="C136" t="n">
-        <v>0.714129</v>
+        <v>0.790133</v>
       </c>
       <c r="D136" t="n">
-        <v>0.723244</v>
+        <v>0.796519</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.795677</v>
+        <v>0.876292</v>
       </c>
       <c r="C137" t="n">
-        <v>0.72195</v>
+        <v>0.798164</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8279840000000001</v>
+        <v>0.814215</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8748089999999999</v>
+        <v>0.96561</v>
       </c>
       <c r="C138" t="n">
-        <v>0.80555</v>
+        <v>0.89127</v>
       </c>
       <c r="D138" t="n">
-        <v>0.828263</v>
+        <v>0.903854</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.874438</v>
+        <v>0.967152</v>
       </c>
       <c r="C139" t="n">
-        <v>0.807187</v>
+        <v>0.891655</v>
       </c>
       <c r="D139" t="n">
-        <v>0.833964</v>
+        <v>0.900946</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.875773</v>
+        <v>0.966933</v>
       </c>
       <c r="C140" t="n">
-        <v>0.808611</v>
+        <v>0.895379</v>
       </c>
       <c r="D140" t="n">
-        <v>0.827735</v>
+        <v>0.902548</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.875719</v>
+        <v>0.969208</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8096100000000001</v>
+        <v>0.898464</v>
       </c>
       <c r="D141" t="n">
-        <v>0.832265</v>
+        <v>0.902102</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.877166</v>
+        <v>0.969971</v>
       </c>
       <c r="C142" t="n">
-        <v>0.811618</v>
+        <v>0.900385</v>
       </c>
       <c r="D142" t="n">
-        <v>0.828253</v>
+        <v>0.90498</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8789130000000001</v>
+        <v>0.972979</v>
       </c>
       <c r="C143" t="n">
-        <v>0.813757</v>
+        <v>0.900403</v>
       </c>
       <c r="D143" t="n">
-        <v>0.829703</v>
+        <v>0.906541</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116907</v>
+        <v>0.120708</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09017</v>
+        <v>0.0930252</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09766030000000001</v>
+        <v>0.100669</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116987</v>
+        <v>0.11979</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0898737</v>
+        <v>0.0912345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.103652</v>
+        <v>0.105424</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117998</v>
+        <v>0.120116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0903355</v>
+        <v>0.0914934</v>
       </c>
       <c r="D4" t="n">
-        <v>0.103502</v>
+        <v>0.105139</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118474</v>
+        <v>0.121582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0897756</v>
+        <v>0.0923602</v>
       </c>
       <c r="D5" t="n">
-        <v>0.103211</v>
+        <v>0.105435</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.120646</v>
+        <v>0.125538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09006749999999999</v>
+        <v>0.0940327</v>
       </c>
       <c r="D6" t="n">
-        <v>0.104133</v>
+        <v>0.108854</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.123783</v>
+        <v>0.128678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09057220000000001</v>
+        <v>0.09361949999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.105606</v>
+        <v>0.106448</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.131362</v>
+        <v>0.131808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.092433</v>
+        <v>0.09154229999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.102075</v>
+        <v>0.101791</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.142813</v>
+        <v>0.145098</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0940764</v>
+        <v>0.0959754</v>
       </c>
       <c r="D9" t="n">
-        <v>0.105107</v>
+        <v>0.113636</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12985</v>
+        <v>0.124627</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0982364</v>
+        <v>0.0991374</v>
       </c>
       <c r="D10" t="n">
-        <v>0.113715</v>
+        <v>0.104511</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126263</v>
+        <v>0.125331</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0997513</v>
+        <v>0.0987913</v>
       </c>
       <c r="D11" t="n">
-        <v>0.107256</v>
+        <v>0.105467</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128271</v>
+        <v>0.126011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.100012</v>
+        <v>0.09885670000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.112382</v>
+        <v>0.105287</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.129576</v>
+        <v>0.126302</v>
       </c>
       <c r="C13" t="n">
-        <v>0.100254</v>
+        <v>0.098982</v>
       </c>
       <c r="D13" t="n">
-        <v>0.11409</v>
+        <v>0.111565</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127328</v>
+        <v>0.127175</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0996365</v>
+        <v>0.0990962</v>
       </c>
       <c r="D14" t="n">
-        <v>0.118352</v>
+        <v>0.105213</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126624</v>
+        <v>0.127653</v>
       </c>
       <c r="C15" t="n">
-        <v>0.101232</v>
+        <v>0.0990803</v>
       </c>
       <c r="D15" t="n">
-        <v>0.116508</v>
+        <v>0.112749</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.129339</v>
+        <v>0.128644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.100394</v>
+        <v>0.0991281</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116801</v>
+        <v>0.11224</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129337</v>
+        <v>0.129067</v>
       </c>
       <c r="C17" t="n">
-        <v>0.100367</v>
+        <v>0.09923700000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.11997</v>
+        <v>0.112621</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.132258</v>
+        <v>0.130728</v>
       </c>
       <c r="C18" t="n">
-        <v>0.101029</v>
+        <v>0.09987169999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116681</v>
+        <v>0.107293</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.138152</v>
+        <v>0.133171</v>
       </c>
       <c r="C19" t="n">
-        <v>0.101726</v>
+        <v>0.100514</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114791</v>
+        <v>0.114148</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.136982</v>
+        <v>0.143313</v>
       </c>
       <c r="C20" t="n">
-        <v>0.101849</v>
+        <v>0.10097</v>
       </c>
       <c r="D20" t="n">
-        <v>0.115207</v>
+        <v>0.114179</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.141286</v>
+        <v>0.141653</v>
       </c>
       <c r="C21" t="n">
-        <v>0.107307</v>
+        <v>0.10191</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12303</v>
+        <v>0.116069</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.148909</v>
+        <v>0.149181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.108194</v>
+        <v>0.105602</v>
       </c>
       <c r="D22" t="n">
-        <v>0.125225</v>
+        <v>0.122121</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.160773</v>
+        <v>0.174252</v>
       </c>
       <c r="C23" t="n">
-        <v>0.115908</v>
+        <v>0.114043</v>
       </c>
       <c r="D23" t="n">
-        <v>0.135973</v>
+        <v>0.127775</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135692</v>
+        <v>0.134663</v>
       </c>
       <c r="C24" t="n">
-        <v>0.10888</v>
+        <v>0.107117</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116282</v>
+        <v>0.12061</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135525</v>
+        <v>0.136066</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108274</v>
+        <v>0.108356</v>
       </c>
       <c r="D25" t="n">
-        <v>0.115494</v>
+        <v>0.121122</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136027</v>
+        <v>0.136222</v>
       </c>
       <c r="C26" t="n">
-        <v>0.111123</v>
+        <v>0.108216</v>
       </c>
       <c r="D26" t="n">
-        <v>0.119444</v>
+        <v>0.118014</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136651</v>
+        <v>0.138694</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11169</v>
+        <v>0.108543</v>
       </c>
       <c r="D27" t="n">
-        <v>0.124194</v>
+        <v>0.121563</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136084</v>
+        <v>0.137513</v>
       </c>
       <c r="C28" t="n">
-        <v>0.110981</v>
+        <v>0.109065</v>
       </c>
       <c r="D28" t="n">
-        <v>0.12982</v>
+        <v>0.121668</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137447</v>
+        <v>0.137152</v>
       </c>
       <c r="C29" t="n">
-        <v>0.111942</v>
+        <v>0.109216</v>
       </c>
       <c r="D29" t="n">
-        <v>0.12406</v>
+        <v>0.121864</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137676</v>
+        <v>0.13793</v>
       </c>
       <c r="C30" t="n">
-        <v>0.111267</v>
+        <v>0.109498</v>
       </c>
       <c r="D30" t="n">
-        <v>0.128123</v>
+        <v>0.116188</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139979</v>
+        <v>0.13936</v>
       </c>
       <c r="C31" t="n">
-        <v>0.111383</v>
+        <v>0.109492</v>
       </c>
       <c r="D31" t="n">
-        <v>0.121448</v>
+        <v>0.116352</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141813</v>
+        <v>0.141588</v>
       </c>
       <c r="C32" t="n">
-        <v>0.113078</v>
+        <v>0.110914</v>
       </c>
       <c r="D32" t="n">
-        <v>0.120174</v>
+        <v>0.117318</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.145912</v>
+        <v>0.153725</v>
       </c>
       <c r="C33" t="n">
-        <v>0.114677</v>
+        <v>0.112765</v>
       </c>
       <c r="D33" t="n">
-        <v>0.125418</v>
+        <v>0.123627</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.15571</v>
+        <v>0.148183</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116286</v>
+        <v>0.11556</v>
       </c>
       <c r="D34" t="n">
-        <v>0.123018</v>
+        <v>0.124651</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152916</v>
+        <v>0.152988</v>
       </c>
       <c r="C35" t="n">
-        <v>0.119937</v>
+        <v>0.118465</v>
       </c>
       <c r="D35" t="n">
-        <v>0.130326</v>
+        <v>0.126794</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.161917</v>
+        <v>0.159649</v>
       </c>
       <c r="C36" t="n">
-        <v>0.124888</v>
+        <v>0.123844</v>
       </c>
       <c r="D36" t="n">
-        <v>0.138063</v>
+        <v>0.130127</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167275</v>
+        <v>0.167527</v>
       </c>
       <c r="C37" t="n">
-        <v>0.130006</v>
+        <v>0.128765</v>
       </c>
       <c r="D37" t="n">
-        <v>0.144876</v>
+        <v>0.146782</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147432</v>
+        <v>0.143713</v>
       </c>
       <c r="C38" t="n">
-        <v>0.120963</v>
+        <v>0.118804</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1275</v>
+        <v>0.131198</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14588</v>
+        <v>0.146977</v>
       </c>
       <c r="C39" t="n">
-        <v>0.123155</v>
+        <v>0.119524</v>
       </c>
       <c r="D39" t="n">
-        <v>0.133518</v>
+        <v>0.132475</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150529</v>
+        <v>0.148435</v>
       </c>
       <c r="C40" t="n">
-        <v>0.123141</v>
+        <v>0.120527</v>
       </c>
       <c r="D40" t="n">
-        <v>0.136511</v>
+        <v>0.138455</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.14839</v>
+        <v>0.149248</v>
       </c>
       <c r="C41" t="n">
-        <v>0.124437</v>
+        <v>0.120557</v>
       </c>
       <c r="D41" t="n">
-        <v>0.137527</v>
+        <v>0.126041</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.152099</v>
+        <v>0.149856</v>
       </c>
       <c r="C42" t="n">
-        <v>0.123326</v>
+        <v>0.121465</v>
       </c>
       <c r="D42" t="n">
-        <v>0.135244</v>
+        <v>0.13406</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.152375</v>
+        <v>0.150131</v>
       </c>
       <c r="C43" t="n">
-        <v>0.12498</v>
+        <v>0.121447</v>
       </c>
       <c r="D43" t="n">
-        <v>0.135669</v>
+        <v>0.130469</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.153085</v>
+        <v>0.148808</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125728</v>
+        <v>0.12311</v>
       </c>
       <c r="D44" t="n">
-        <v>0.138531</v>
+        <v>0.129986</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152688</v>
+        <v>0.155118</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125948</v>
+        <v>0.124597</v>
       </c>
       <c r="D45" t="n">
-        <v>0.139021</v>
+        <v>0.136306</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.157546</v>
+        <v>0.155809</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128891</v>
+        <v>0.125435</v>
       </c>
       <c r="D46" t="n">
-        <v>0.139638</v>
+        <v>0.131672</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.159142</v>
+        <v>0.158133</v>
       </c>
       <c r="C47" t="n">
-        <v>0.129736</v>
+        <v>0.127584</v>
       </c>
       <c r="D47" t="n">
-        <v>0.139826</v>
+        <v>0.138935</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.165653</v>
+        <v>0.161747</v>
       </c>
       <c r="C48" t="n">
-        <v>0.131711</v>
+        <v>0.130952</v>
       </c>
       <c r="D48" t="n">
-        <v>0.141383</v>
+        <v>0.134563</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.162631</v>
+        <v>0.162779</v>
       </c>
       <c r="C49" t="n">
-        <v>0.13393</v>
+        <v>0.134025</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1473</v>
+        <v>0.14585</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173772</v>
+        <v>0.171742</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136188</v>
+        <v>0.134809</v>
       </c>
       <c r="D50" t="n">
-        <v>0.144824</v>
+        <v>0.144808</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178649</v>
+        <v>0.179561</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139616</v>
+        <v>0.138484</v>
       </c>
       <c r="D51" t="n">
-        <v>0.152184</v>
+        <v>0.158023</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188151</v>
+        <v>0.188816</v>
       </c>
       <c r="C52" t="n">
-        <v>0.146511</v>
+        <v>0.146057</v>
       </c>
       <c r="D52" t="n">
-        <v>0.168198</v>
+        <v>0.162803</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161718</v>
+        <v>0.160727</v>
       </c>
       <c r="C53" t="n">
-        <v>0.131513</v>
+        <v>0.12893</v>
       </c>
       <c r="D53" t="n">
-        <v>0.146856</v>
+        <v>0.135145</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1612</v>
+        <v>0.164721</v>
       </c>
       <c r="C54" t="n">
-        <v>0.131367</v>
+        <v>0.129788</v>
       </c>
       <c r="D54" t="n">
-        <v>0.145013</v>
+        <v>0.148714</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161326</v>
+        <v>0.161478</v>
       </c>
       <c r="C55" t="n">
-        <v>0.131024</v>
+        <v>0.129654</v>
       </c>
       <c r="D55" t="n">
-        <v>0.146991</v>
+        <v>0.139981</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.166246</v>
+        <v>0.162033</v>
       </c>
       <c r="C56" t="n">
-        <v>0.133032</v>
+        <v>0.130217</v>
       </c>
       <c r="D56" t="n">
-        <v>0.145777</v>
+        <v>0.144243</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.164437</v>
+        <v>0.163084</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133796</v>
+        <v>0.131914</v>
       </c>
       <c r="D57" t="n">
-        <v>0.141426</v>
+        <v>0.144431</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164907</v>
+        <v>0.164816</v>
       </c>
       <c r="C58" t="n">
-        <v>0.134536</v>
+        <v>0.133442</v>
       </c>
       <c r="D58" t="n">
-        <v>0.148001</v>
+        <v>0.147847</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166192</v>
+        <v>0.166349</v>
       </c>
       <c r="C59" t="n">
-        <v>0.137107</v>
+        <v>0.135382</v>
       </c>
       <c r="D59" t="n">
-        <v>0.145207</v>
+        <v>0.146006</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.168344</v>
+        <v>0.168626</v>
       </c>
       <c r="C60" t="n">
-        <v>0.138128</v>
+        <v>0.134909</v>
       </c>
       <c r="D60" t="n">
-        <v>0.147296</v>
+        <v>0.146068</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.170347</v>
+        <v>0.17125</v>
       </c>
       <c r="C61" t="n">
-        <v>0.140409</v>
+        <v>0.142991</v>
       </c>
       <c r="D61" t="n">
-        <v>0.151791</v>
+        <v>0.149869</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173474</v>
+        <v>0.173511</v>
       </c>
       <c r="C62" t="n">
-        <v>0.140828</v>
+        <v>0.137874</v>
       </c>
       <c r="D62" t="n">
-        <v>0.147941</v>
+        <v>0.14321</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177644</v>
+        <v>0.177098</v>
       </c>
       <c r="C63" t="n">
-        <v>0.143685</v>
+        <v>0.142351</v>
       </c>
       <c r="D63" t="n">
-        <v>0.156169</v>
+        <v>0.153974</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.189272</v>
+        <v>0.182722</v>
       </c>
       <c r="C64" t="n">
-        <v>0.146386</v>
+        <v>0.145276</v>
       </c>
       <c r="D64" t="n">
-        <v>0.155509</v>
+        <v>0.159177</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.195004</v>
+        <v>0.189396</v>
       </c>
       <c r="C65" t="n">
-        <v>0.147668</v>
+        <v>0.153814</v>
       </c>
       <c r="D65" t="n">
-        <v>0.166917</v>
+        <v>0.174282</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198096</v>
+        <v>0.19802</v>
       </c>
       <c r="C66" t="n">
-        <v>0.155715</v>
+        <v>0.153816</v>
       </c>
       <c r="D66" t="n">
-        <v>0.176979</v>
+        <v>0.16906</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.183118</v>
+        <v>0.181384</v>
       </c>
       <c r="C67" t="n">
-        <v>0.154452</v>
+        <v>0.144662</v>
       </c>
       <c r="D67" t="n">
-        <v>0.163953</v>
+        <v>0.158183</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.18052</v>
+        <v>0.179112</v>
       </c>
       <c r="C68" t="n">
-        <v>0.149976</v>
+        <v>0.148762</v>
       </c>
       <c r="D68" t="n">
-        <v>0.162415</v>
+        <v>0.155088</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.182314</v>
+        <v>0.184187</v>
       </c>
       <c r="C69" t="n">
-        <v>0.154609</v>
+        <v>0.148548</v>
       </c>
       <c r="D69" t="n">
-        <v>0.161768</v>
+        <v>0.160285</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.181811</v>
+        <v>0.181381</v>
       </c>
       <c r="C70" t="n">
-        <v>0.153367</v>
+        <v>0.148713</v>
       </c>
       <c r="D70" t="n">
-        <v>0.168302</v>
+        <v>0.158212</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.188771</v>
+        <v>0.187428</v>
       </c>
       <c r="C71" t="n">
-        <v>0.158261</v>
+        <v>0.150196</v>
       </c>
       <c r="D71" t="n">
-        <v>0.168479</v>
+        <v>0.162659</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.186936</v>
+        <v>0.185699</v>
       </c>
       <c r="C72" t="n">
-        <v>0.155758</v>
+        <v>0.157351</v>
       </c>
       <c r="D72" t="n">
-        <v>0.171334</v>
+        <v>0.169604</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.195812</v>
+        <v>0.188027</v>
       </c>
       <c r="C73" t="n">
-        <v>0.156972</v>
+        <v>0.157412</v>
       </c>
       <c r="D73" t="n">
-        <v>0.169973</v>
+        <v>0.16696</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.192513</v>
+        <v>0.192393</v>
       </c>
       <c r="C74" t="n">
-        <v>0.15838</v>
+        <v>0.156416</v>
       </c>
       <c r="D74" t="n">
-        <v>0.171262</v>
+        <v>0.165809</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.19119</v>
+        <v>0.194807</v>
       </c>
       <c r="C75" t="n">
-        <v>0.157722</v>
+        <v>0.158134</v>
       </c>
       <c r="D75" t="n">
-        <v>0.169212</v>
+        <v>0.16877</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195936</v>
+        <v>0.198321</v>
       </c>
       <c r="C76" t="n">
-        <v>0.160478</v>
+        <v>0.159092</v>
       </c>
       <c r="D76" t="n">
-        <v>0.171936</v>
+        <v>0.173385</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195339</v>
+        <v>0.201744</v>
       </c>
       <c r="C77" t="n">
-        <v>0.161168</v>
+        <v>0.162115</v>
       </c>
       <c r="D77" t="n">
-        <v>0.168034</v>
+        <v>0.172779</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205458</v>
+        <v>0.207933</v>
       </c>
       <c r="C78" t="n">
-        <v>0.162049</v>
+        <v>0.168442</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171377</v>
+        <v>0.174135</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.206953</v>
+        <v>0.209173</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174157</v>
+        <v>0.176447</v>
       </c>
       <c r="D79" t="n">
-        <v>0.177904</v>
+        <v>0.178885</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213972</v>
+        <v>0.220812</v>
       </c>
       <c r="C80" t="n">
-        <v>0.181009</v>
+        <v>0.170036</v>
       </c>
       <c r="D80" t="n">
-        <v>0.191424</v>
+        <v>0.195226</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.386866</v>
+        <v>0.386017</v>
       </c>
       <c r="C81" t="n">
-        <v>0.305771</v>
+        <v>0.30625</v>
       </c>
       <c r="D81" t="n">
-        <v>0.31845</v>
+        <v>0.312762</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.387275</v>
+        <v>0.390259</v>
       </c>
       <c r="C82" t="n">
-        <v>0.308316</v>
+        <v>0.30586</v>
       </c>
       <c r="D82" t="n">
-        <v>0.310328</v>
+        <v>0.313991</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.393328</v>
+        <v>0.386508</v>
       </c>
       <c r="C83" t="n">
-        <v>0.302602</v>
+        <v>0.303772</v>
       </c>
       <c r="D83" t="n">
-        <v>0.319489</v>
+        <v>0.312253</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.390295</v>
+        <v>0.392862</v>
       </c>
       <c r="C84" t="n">
-        <v>0.302167</v>
+        <v>0.300744</v>
       </c>
       <c r="D84" t="n">
-        <v>0.314543</v>
+        <v>0.312728</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.395942</v>
+        <v>0.391112</v>
       </c>
       <c r="C85" t="n">
-        <v>0.299282</v>
+        <v>0.300772</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314971</v>
+        <v>0.306774</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.394647</v>
+        <v>0.393045</v>
       </c>
       <c r="C86" t="n">
-        <v>0.301097</v>
+        <v>0.29665</v>
       </c>
       <c r="D86" t="n">
-        <v>0.30793</v>
+        <v>0.305081</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.399893</v>
+        <v>0.390265</v>
       </c>
       <c r="C87" t="n">
-        <v>0.296767</v>
+        <v>0.295832</v>
       </c>
       <c r="D87" t="n">
-        <v>0.308339</v>
+        <v>0.303719</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.393032</v>
+        <v>0.393079</v>
       </c>
       <c r="C88" t="n">
-        <v>0.297709</v>
+        <v>0.295942</v>
       </c>
       <c r="D88" t="n">
-        <v>0.307243</v>
+        <v>0.301108</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.394403</v>
+        <v>0.398667</v>
       </c>
       <c r="C89" t="n">
-        <v>0.295011</v>
+        <v>0.291826</v>
       </c>
       <c r="D89" t="n">
-        <v>0.305403</v>
+        <v>0.303021</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.396377</v>
+        <v>0.397562</v>
       </c>
       <c r="C90" t="n">
-        <v>0.294623</v>
+        <v>0.288548</v>
       </c>
       <c r="D90" t="n">
-        <v>0.302142</v>
+        <v>0.299187</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.403522</v>
+        <v>0.399838</v>
       </c>
       <c r="C91" t="n">
-        <v>0.29125</v>
+        <v>0.294192</v>
       </c>
       <c r="D91" t="n">
-        <v>0.303441</v>
+        <v>0.293904</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.403679</v>
+        <v>0.40694</v>
       </c>
       <c r="C92" t="n">
-        <v>0.297327</v>
+        <v>0.29727</v>
       </c>
       <c r="D92" t="n">
-        <v>0.308122</v>
+        <v>0.30857</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.414136</v>
+        <v>0.412094</v>
       </c>
       <c r="C93" t="n">
-        <v>0.298748</v>
+        <v>0.299703</v>
       </c>
       <c r="D93" t="n">
-        <v>0.312523</v>
+        <v>0.304409</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.412156</v>
+        <v>0.420071</v>
       </c>
       <c r="C94" t="n">
-        <v>0.305537</v>
+        <v>0.307151</v>
       </c>
       <c r="D94" t="n">
-        <v>0.308647</v>
+        <v>0.312705</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.582766</v>
+        <v>0.575356</v>
       </c>
       <c r="C95" t="n">
-        <v>0.491762</v>
+        <v>0.490408</v>
       </c>
       <c r="D95" t="n">
-        <v>0.499332</v>
+        <v>0.497073</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.574902</v>
+        <v>0.5758180000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.491267</v>
+        <v>0.489751</v>
       </c>
       <c r="D96" t="n">
-        <v>0.500976</v>
+        <v>0.49975</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5762969999999999</v>
+        <v>0.575971</v>
       </c>
       <c r="C97" t="n">
-        <v>0.490707</v>
+        <v>0.48279</v>
       </c>
       <c r="D97" t="n">
-        <v>0.496395</v>
+        <v>0.494925</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.576135</v>
+        <v>0.575931</v>
       </c>
       <c r="C98" t="n">
-        <v>0.488908</v>
+        <v>0.489365</v>
       </c>
       <c r="D98" t="n">
-        <v>0.497927</v>
+        <v>0.494883</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.577834</v>
+        <v>0.578402</v>
       </c>
       <c r="C99" t="n">
-        <v>0.487435</v>
+        <v>0.488734</v>
       </c>
       <c r="D99" t="n">
-        <v>0.494056</v>
+        <v>0.497489</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.577772</v>
+        <v>0.579153</v>
       </c>
       <c r="C100" t="n">
-        <v>0.48748</v>
+        <v>0.487743</v>
       </c>
       <c r="D100" t="n">
-        <v>0.492845</v>
+        <v>0.493762</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.578985</v>
+        <v>0.580265</v>
       </c>
       <c r="C101" t="n">
-        <v>0.488048</v>
+        <v>0.487453</v>
       </c>
       <c r="D101" t="n">
-        <v>0.492443</v>
+        <v>0.491824</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.580269</v>
+        <v>0.580759</v>
       </c>
       <c r="C102" t="n">
-        <v>0.487478</v>
+        <v>0.487654</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495418</v>
+        <v>0.484598</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.581992</v>
+        <v>0.583052</v>
       </c>
       <c r="C103" t="n">
-        <v>0.487524</v>
+        <v>0.487345</v>
       </c>
       <c r="D103" t="n">
-        <v>0.497467</v>
+        <v>0.493135</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.584239</v>
+        <v>0.584452</v>
       </c>
       <c r="C104" t="n">
-        <v>0.488896</v>
+        <v>0.488716</v>
       </c>
       <c r="D104" t="n">
-        <v>0.496211</v>
+        <v>0.497287</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.58909</v>
+        <v>0.588946</v>
       </c>
       <c r="C105" t="n">
-        <v>0.490563</v>
+        <v>0.483009</v>
       </c>
       <c r="D105" t="n">
-        <v>0.499799</v>
+        <v>0.495421</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.590982</v>
+        <v>0.591788</v>
       </c>
       <c r="C106" t="n">
-        <v>0.493039</v>
+        <v>0.492</v>
       </c>
       <c r="D106" t="n">
-        <v>0.503804</v>
+        <v>0.498194</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.597228</v>
+        <v>0.5975510000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.496402</v>
+        <v>0.486373</v>
       </c>
       <c r="D107" t="n">
-        <v>0.502936</v>
+        <v>0.503963</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.604446</v>
+        <v>0.605712</v>
       </c>
       <c r="C108" t="n">
-        <v>0.502466</v>
+        <v>0.500521</v>
       </c>
       <c r="D108" t="n">
-        <v>0.510998</v>
+        <v>0.515207</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.615912</v>
+        <v>0.617154</v>
       </c>
       <c r="C109" t="n">
-        <v>0.508636</v>
+        <v>0.508117</v>
       </c>
       <c r="D109" t="n">
-        <v>0.52723</v>
+        <v>0.5250899999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.665766</v>
+        <v>0.661457</v>
       </c>
       <c r="C110" t="n">
-        <v>0.613105</v>
+        <v>0.610365</v>
       </c>
       <c r="D110" t="n">
-        <v>0.620333</v>
+        <v>0.611648</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.665888</v>
+        <v>0.664019</v>
       </c>
       <c r="C111" t="n">
-        <v>0.612101</v>
+        <v>0.61012</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6224420000000001</v>
+        <v>0.613013</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.665353</v>
+        <v>0.664083</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6115350000000001</v>
+        <v>0.60897</v>
       </c>
       <c r="D112" t="n">
-        <v>0.619153</v>
+        <v>0.613254</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.669092</v>
+        <v>0.664792</v>
       </c>
       <c r="C113" t="n">
-        <v>0.613565</v>
+        <v>0.611049</v>
       </c>
       <c r="D113" t="n">
-        <v>0.619696</v>
+        <v>0.614868</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.667374</v>
+        <v>0.6682979999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.612707</v>
+        <v>0.607851</v>
       </c>
       <c r="D114" t="n">
-        <v>0.619248</v>
+        <v>0.618339</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.669306</v>
+        <v>0.668</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6134540000000001</v>
+        <v>0.610526</v>
       </c>
       <c r="D115" t="n">
-        <v>0.620308</v>
+        <v>0.614324</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.670293</v>
+        <v>0.672416</v>
       </c>
       <c r="C116" t="n">
-        <v>0.614043</v>
+        <v>0.612914</v>
       </c>
       <c r="D116" t="n">
-        <v>0.620355</v>
+        <v>0.616904</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.67463</v>
+        <v>0.67287</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6155389999999999</v>
+        <v>0.614627</v>
       </c>
       <c r="D117" t="n">
-        <v>0.623043</v>
+        <v>0.620865</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.677071</v>
+        <v>0.674963</v>
       </c>
       <c r="C118" t="n">
-        <v>0.616991</v>
+        <v>0.616841</v>
       </c>
       <c r="D118" t="n">
-        <v>0.623458</v>
+        <v>0.624291</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.682047</v>
+        <v>0.680207</v>
       </c>
       <c r="C119" t="n">
-        <v>0.619344</v>
+        <v>0.612849</v>
       </c>
       <c r="D119" t="n">
-        <v>0.62753</v>
+        <v>0.623282</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.68816</v>
+        <v>0.686347</v>
       </c>
       <c r="C120" t="n">
-        <v>0.625624</v>
+        <v>0.6205580000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.633068</v>
+        <v>0.628898</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.694846</v>
+        <v>0.692333</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6261330000000001</v>
+        <v>0.620414</v>
       </c>
       <c r="D121" t="n">
-        <v>0.637067</v>
+        <v>0.634934</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.70487</v>
+        <v>0.701345</v>
       </c>
       <c r="C122" t="n">
-        <v>0.634244</v>
+        <v>0.630473</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6449240000000001</v>
+        <v>0.646424</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.718279</v>
+        <v>0.7145860000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.641814</v>
+        <v>0.641157</v>
       </c>
       <c r="D123" t="n">
-        <v>0.660743</v>
+        <v>0.661097</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.821786</v>
+        <v>0.819375</v>
       </c>
       <c r="C124" t="n">
-        <v>0.755933</v>
+        <v>0.752731</v>
       </c>
       <c r="D124" t="n">
-        <v>0.760447</v>
+        <v>0.760591</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.82179</v>
+        <v>0.820111</v>
       </c>
       <c r="C125" t="n">
-        <v>0.756533</v>
+        <v>0.7520210000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.765628</v>
+        <v>0.757678</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.823412</v>
+        <v>0.821867</v>
       </c>
       <c r="C126" t="n">
-        <v>0.755841</v>
+        <v>0.756259</v>
       </c>
       <c r="D126" t="n">
-        <v>0.764812</v>
+        <v>0.754445</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.822921</v>
+        <v>0.822175</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7589590000000001</v>
+        <v>0.755973</v>
       </c>
       <c r="D127" t="n">
-        <v>0.763476</v>
+        <v>0.760139</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.823984</v>
+        <v>0.825316</v>
       </c>
       <c r="C128" t="n">
-        <v>0.763877</v>
+        <v>0.753286</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7637930000000001</v>
+        <v>0.7626270000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.827721</v>
+        <v>0.825264</v>
       </c>
       <c r="C129" t="n">
-        <v>0.761679</v>
+        <v>0.757302</v>
       </c>
       <c r="D129" t="n">
-        <v>0.768142</v>
+        <v>0.76411</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.82913</v>
+        <v>0.827349</v>
       </c>
       <c r="C130" t="n">
-        <v>0.765437</v>
+        <v>0.760583</v>
       </c>
       <c r="D130" t="n">
-        <v>0.767673</v>
+        <v>0.765286</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.832745</v>
+        <v>0.829674</v>
       </c>
       <c r="C131" t="n">
-        <v>0.767535</v>
+        <v>0.767392</v>
       </c>
       <c r="D131" t="n">
-        <v>0.770802</v>
+        <v>0.767617</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.833717</v>
+        <v>0.834058</v>
       </c>
       <c r="C132" t="n">
-        <v>0.767647</v>
+        <v>0.7656500000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.773301</v>
+        <v>0.765139</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.841065</v>
+        <v>0.835114</v>
       </c>
       <c r="C133" t="n">
-        <v>0.773896</v>
+        <v>0.769486</v>
       </c>
       <c r="D133" t="n">
-        <v>0.776047</v>
+        <v>0.77323</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.843668</v>
+        <v>0.843275</v>
       </c>
       <c r="C134" t="n">
-        <v>0.775899</v>
+        <v>0.773765</v>
       </c>
       <c r="D134" t="n">
-        <v>0.784362</v>
+        <v>0.780008</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.854625</v>
+        <v>0.850942</v>
       </c>
       <c r="C135" t="n">
-        <v>0.782188</v>
+        <v>0.782882</v>
       </c>
       <c r="D135" t="n">
-        <v>0.788637</v>
+        <v>0.78473</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.861435</v>
+        <v>0.859341</v>
       </c>
       <c r="C136" t="n">
-        <v>0.790133</v>
+        <v>0.7867150000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.796519</v>
+        <v>0.797215</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.876292</v>
+        <v>0.872178</v>
       </c>
       <c r="C137" t="n">
-        <v>0.798164</v>
+        <v>0.7966</v>
       </c>
       <c r="D137" t="n">
-        <v>0.814215</v>
+        <v>0.810378</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.96561</v>
+        <v>0.959395</v>
       </c>
       <c r="C138" t="n">
-        <v>0.89127</v>
+        <v>0.886733</v>
       </c>
       <c r="D138" t="n">
-        <v>0.903854</v>
+        <v>0.895111</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.967152</v>
+        <v>0.958782</v>
       </c>
       <c r="C139" t="n">
-        <v>0.891655</v>
+        <v>0.887841</v>
       </c>
       <c r="D139" t="n">
-        <v>0.900946</v>
+        <v>0.895208</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.966933</v>
+        <v>0.960148</v>
       </c>
       <c r="C140" t="n">
-        <v>0.895379</v>
+        <v>0.888585</v>
       </c>
       <c r="D140" t="n">
-        <v>0.902548</v>
+        <v>0.897384</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.969208</v>
+        <v>0.961126</v>
       </c>
       <c r="C141" t="n">
-        <v>0.898464</v>
+        <v>0.889244</v>
       </c>
       <c r="D141" t="n">
-        <v>0.902102</v>
+        <v>0.895827</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.969971</v>
+        <v>0.962411</v>
       </c>
       <c r="C142" t="n">
-        <v>0.900385</v>
+        <v>0.893171</v>
       </c>
       <c r="D142" t="n">
-        <v>0.90498</v>
+        <v>0.898309</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.972979</v>
+        <v>0.963276</v>
       </c>
       <c r="C143" t="n">
-        <v>0.900403</v>
+        <v>0.893084</v>
       </c>
       <c r="D143" t="n">
-        <v>0.906541</v>
+        <v>0.902365</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.120708</v>
+        <v>0.124181</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0930252</v>
+        <v>0.0895056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.100669</v>
+        <v>0.0969986</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11979</v>
+        <v>0.12126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0912345</v>
+        <v>0.0894688</v>
       </c>
       <c r="D3" t="n">
-        <v>0.105424</v>
+        <v>0.103068</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120116</v>
+        <v>0.123193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0914934</v>
+        <v>0.0901454</v>
       </c>
       <c r="D4" t="n">
-        <v>0.105139</v>
+        <v>0.103897</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121582</v>
+        <v>0.118549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0923602</v>
+        <v>0.08996800000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.105435</v>
+        <v>0.103858</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.125538</v>
+        <v>0.137589</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0940327</v>
+        <v>0.0903977</v>
       </c>
       <c r="D6" t="n">
-        <v>0.108854</v>
+        <v>0.104275</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.128678</v>
+        <v>0.134819</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09361949999999999</v>
+        <v>0.0910604</v>
       </c>
       <c r="D7" t="n">
-        <v>0.106448</v>
+        <v>0.105115</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.131808</v>
+        <v>0.13054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09154229999999999</v>
+        <v>0.0921014</v>
       </c>
       <c r="D8" t="n">
-        <v>0.101791</v>
+        <v>0.107509</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145098</v>
+        <v>0.141194</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0959754</v>
+        <v>0.09258180000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113636</v>
+        <v>0.111219</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124627</v>
+        <v>0.124674</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0991374</v>
+        <v>0.0980096</v>
       </c>
       <c r="D10" t="n">
-        <v>0.104511</v>
+        <v>0.105171</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125331</v>
+        <v>0.125408</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0987913</v>
+        <v>0.098651</v>
       </c>
       <c r="D11" t="n">
-        <v>0.105467</v>
+        <v>0.105159</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.126011</v>
+        <v>0.128798</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09885670000000001</v>
+        <v>0.09871290000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.105287</v>
+        <v>0.104665</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.126302</v>
+        <v>0.127267</v>
       </c>
       <c r="C13" t="n">
-        <v>0.098982</v>
+        <v>0.0984356</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111565</v>
+        <v>0.112134</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127175</v>
+        <v>0.125868</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0990962</v>
+        <v>0.0992075</v>
       </c>
       <c r="D14" t="n">
-        <v>0.105213</v>
+        <v>0.111609</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.127653</v>
+        <v>0.127223</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0990803</v>
+        <v>0.0993025</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112749</v>
+        <v>0.106195</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128644</v>
+        <v>0.127141</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0991281</v>
+        <v>0.100979</v>
       </c>
       <c r="D16" t="n">
-        <v>0.11224</v>
+        <v>0.112935</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129067</v>
+        <v>0.134682</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09923700000000001</v>
+        <v>0.0999637</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112621</v>
+        <v>0.105313</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130728</v>
+        <v>0.130032</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09987169999999999</v>
+        <v>0.0996616</v>
       </c>
       <c r="D18" t="n">
-        <v>0.107293</v>
+        <v>0.106798</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.133171</v>
+        <v>0.131735</v>
       </c>
       <c r="C19" t="n">
-        <v>0.100514</v>
+        <v>0.09976260000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114148</v>
+        <v>0.113595</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.143313</v>
+        <v>0.135532</v>
       </c>
       <c r="C20" t="n">
-        <v>0.10097</v>
+        <v>0.100476</v>
       </c>
       <c r="D20" t="n">
-        <v>0.114179</v>
+        <v>0.114431</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.141653</v>
+        <v>0.140455</v>
       </c>
       <c r="C21" t="n">
-        <v>0.10191</v>
+        <v>0.101932</v>
       </c>
       <c r="D21" t="n">
-        <v>0.116069</v>
+        <v>0.110582</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.149181</v>
+        <v>0.156777</v>
       </c>
       <c r="C22" t="n">
-        <v>0.105602</v>
+        <v>0.105535</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122121</v>
+        <v>0.114503</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.174252</v>
+        <v>0.159029</v>
       </c>
       <c r="C23" t="n">
-        <v>0.114043</v>
+        <v>0.113006</v>
       </c>
       <c r="D23" t="n">
-        <v>0.127775</v>
+        <v>0.127137</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134663</v>
+        <v>0.135102</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107117</v>
+        <v>0.10872</v>
       </c>
       <c r="D24" t="n">
-        <v>0.12061</v>
+        <v>0.121381</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.136066</v>
+        <v>0.135676</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108356</v>
+        <v>0.10866</v>
       </c>
       <c r="D25" t="n">
-        <v>0.121122</v>
+        <v>0.121846</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136222</v>
+        <v>0.13523</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108216</v>
+        <v>0.109069</v>
       </c>
       <c r="D26" t="n">
-        <v>0.118014</v>
+        <v>0.122172</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138694</v>
+        <v>0.135111</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108543</v>
+        <v>0.109153</v>
       </c>
       <c r="D27" t="n">
-        <v>0.121563</v>
+        <v>0.122232</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.137513</v>
+        <v>0.136928</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109065</v>
+        <v>0.109432</v>
       </c>
       <c r="D28" t="n">
-        <v>0.121668</v>
+        <v>0.122349</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137152</v>
+        <v>0.136819</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109216</v>
+        <v>0.109965</v>
       </c>
       <c r="D29" t="n">
-        <v>0.121864</v>
+        <v>0.122557</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.13793</v>
+        <v>0.137596</v>
       </c>
       <c r="C30" t="n">
-        <v>0.109498</v>
+        <v>0.109673</v>
       </c>
       <c r="D30" t="n">
-        <v>0.116188</v>
+        <v>0.116811</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13936</v>
+        <v>0.139872</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109492</v>
+        <v>0.110189</v>
       </c>
       <c r="D31" t="n">
-        <v>0.116352</v>
+        <v>0.123285</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141588</v>
+        <v>0.14063</v>
       </c>
       <c r="C32" t="n">
-        <v>0.110914</v>
+        <v>0.111027</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117318</v>
+        <v>0.116869</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.153725</v>
+        <v>0.143675</v>
       </c>
       <c r="C33" t="n">
         <v>0.112765</v>
       </c>
       <c r="D33" t="n">
-        <v>0.123627</v>
+        <v>0.117951</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.148183</v>
+        <v>0.148233</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11556</v>
+        <v>0.115044</v>
       </c>
       <c r="D34" t="n">
-        <v>0.124651</v>
+        <v>0.119272</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152988</v>
+        <v>0.153685</v>
       </c>
       <c r="C35" t="n">
-        <v>0.118465</v>
+        <v>0.118325</v>
       </c>
       <c r="D35" t="n">
-        <v>0.126794</v>
+        <v>0.129615</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159649</v>
+        <v>0.159679</v>
       </c>
       <c r="C36" t="n">
-        <v>0.123844</v>
+        <v>0.122608</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130127</v>
+        <v>0.130528</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167527</v>
+        <v>0.167394</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128765</v>
+        <v>0.133646</v>
       </c>
       <c r="D37" t="n">
-        <v>0.146782</v>
+        <v>0.146556</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.143713</v>
+        <v>0.147094</v>
       </c>
       <c r="C38" t="n">
-        <v>0.118804</v>
+        <v>0.117466</v>
       </c>
       <c r="D38" t="n">
-        <v>0.131198</v>
+        <v>0.132411</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146977</v>
+        <v>0.148582</v>
       </c>
       <c r="C39" t="n">
-        <v>0.119524</v>
+        <v>0.119557</v>
       </c>
       <c r="D39" t="n">
-        <v>0.132475</v>
+        <v>0.133142</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148435</v>
+        <v>0.150277</v>
       </c>
       <c r="C40" t="n">
-        <v>0.120527</v>
+        <v>0.12008</v>
       </c>
       <c r="D40" t="n">
-        <v>0.138455</v>
+        <v>0.133539</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149248</v>
+        <v>0.149112</v>
       </c>
       <c r="C41" t="n">
-        <v>0.120557</v>
+        <v>0.120556</v>
       </c>
       <c r="D41" t="n">
-        <v>0.126041</v>
+        <v>0.13314</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149856</v>
+        <v>0.150326</v>
       </c>
       <c r="C42" t="n">
-        <v>0.121465</v>
+        <v>0.120625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.13406</v>
+        <v>0.13491</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150131</v>
+        <v>0.150291</v>
       </c>
       <c r="C43" t="n">
-        <v>0.121447</v>
+        <v>0.122009</v>
       </c>
       <c r="D43" t="n">
-        <v>0.130469</v>
+        <v>0.127829</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148808</v>
+        <v>0.150763</v>
       </c>
       <c r="C44" t="n">
-        <v>0.12311</v>
+        <v>0.123568</v>
       </c>
       <c r="D44" t="n">
-        <v>0.129986</v>
+        <v>0.129098</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.155118</v>
+        <v>0.154847</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124597</v>
+        <v>0.124637</v>
       </c>
       <c r="D45" t="n">
-        <v>0.136306</v>
+        <v>0.134991</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155809</v>
+        <v>0.155923</v>
       </c>
       <c r="C46" t="n">
-        <v>0.125435</v>
+        <v>0.126225</v>
       </c>
       <c r="D46" t="n">
-        <v>0.131672</v>
+        <v>0.13546</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.158133</v>
+        <v>0.158387</v>
       </c>
       <c r="C47" t="n">
-        <v>0.127584</v>
+        <v>0.128089</v>
       </c>
       <c r="D47" t="n">
-        <v>0.138935</v>
+        <v>0.131588</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.161747</v>
+        <v>0.161485</v>
       </c>
       <c r="C48" t="n">
-        <v>0.130952</v>
+        <v>0.129966</v>
       </c>
       <c r="D48" t="n">
-        <v>0.134563</v>
+        <v>0.13476</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.162779</v>
+        <v>0.167094</v>
       </c>
       <c r="C49" t="n">
-        <v>0.134025</v>
+        <v>0.131077</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14585</v>
+        <v>0.137867</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171742</v>
+        <v>0.171609</v>
       </c>
       <c r="C50" t="n">
-        <v>0.134809</v>
+        <v>0.135307</v>
       </c>
       <c r="D50" t="n">
-        <v>0.144808</v>
+        <v>0.142375</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.179561</v>
+        <v>0.178951</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138484</v>
+        <v>0.13849</v>
       </c>
       <c r="D51" t="n">
-        <v>0.158023</v>
+        <v>0.156295</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188816</v>
+        <v>0.188192</v>
       </c>
       <c r="C52" t="n">
-        <v>0.146057</v>
+        <v>0.145418</v>
       </c>
       <c r="D52" t="n">
-        <v>0.162803</v>
+        <v>0.159339</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160727</v>
+        <v>0.163363</v>
       </c>
       <c r="C53" t="n">
-        <v>0.12893</v>
+        <v>0.129113</v>
       </c>
       <c r="D53" t="n">
-        <v>0.135145</v>
+        <v>0.143725</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.164721</v>
+        <v>0.162186</v>
       </c>
       <c r="C54" t="n">
-        <v>0.129788</v>
+        <v>0.130125</v>
       </c>
       <c r="D54" t="n">
-        <v>0.148714</v>
+        <v>0.143136</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161478</v>
+        <v>0.165586</v>
       </c>
       <c r="C55" t="n">
-        <v>0.129654</v>
+        <v>0.131684</v>
       </c>
       <c r="D55" t="n">
-        <v>0.139981</v>
+        <v>0.139044</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162033</v>
+        <v>0.162686</v>
       </c>
       <c r="C56" t="n">
-        <v>0.130217</v>
+        <v>0.131491</v>
       </c>
       <c r="D56" t="n">
-        <v>0.144243</v>
+        <v>0.144461</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163084</v>
+        <v>0.163008</v>
       </c>
       <c r="C57" t="n">
-        <v>0.131914</v>
+        <v>0.133668</v>
       </c>
       <c r="D57" t="n">
-        <v>0.144431</v>
+        <v>0.140056</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164816</v>
+        <v>0.165237</v>
       </c>
       <c r="C58" t="n">
-        <v>0.133442</v>
+        <v>0.133939</v>
       </c>
       <c r="D58" t="n">
-        <v>0.147847</v>
+        <v>0.140255</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166349</v>
+        <v>0.165766</v>
       </c>
       <c r="C59" t="n">
-        <v>0.135382</v>
+        <v>0.133042</v>
       </c>
       <c r="D59" t="n">
-        <v>0.146006</v>
+        <v>0.145392</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.168626</v>
+        <v>0.16812</v>
       </c>
       <c r="C60" t="n">
-        <v>0.134909</v>
+        <v>0.135785</v>
       </c>
       <c r="D60" t="n">
-        <v>0.146068</v>
+        <v>0.141693</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.17125</v>
+        <v>0.169226</v>
       </c>
       <c r="C61" t="n">
-        <v>0.142991</v>
+        <v>0.135363</v>
       </c>
       <c r="D61" t="n">
-        <v>0.149869</v>
+        <v>0.149187</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173511</v>
+        <v>0.174059</v>
       </c>
       <c r="C62" t="n">
-        <v>0.137874</v>
+        <v>0.137772</v>
       </c>
       <c r="D62" t="n">
-        <v>0.14321</v>
+        <v>0.151533</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177098</v>
+        <v>0.177529</v>
       </c>
       <c r="C63" t="n">
-        <v>0.142351</v>
+        <v>0.139865</v>
       </c>
       <c r="D63" t="n">
-        <v>0.153974</v>
+        <v>0.150062</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182722</v>
+        <v>0.182191</v>
       </c>
       <c r="C64" t="n">
-        <v>0.145276</v>
+        <v>0.142568</v>
       </c>
       <c r="D64" t="n">
-        <v>0.159177</v>
+        <v>0.159292</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189396</v>
+        <v>0.191344</v>
       </c>
       <c r="C65" t="n">
-        <v>0.153814</v>
+        <v>0.148199</v>
       </c>
       <c r="D65" t="n">
-        <v>0.174282</v>
+        <v>0.159672</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19802</v>
+        <v>0.197283</v>
       </c>
       <c r="C66" t="n">
-        <v>0.153816</v>
+        <v>0.153761</v>
       </c>
       <c r="D66" t="n">
-        <v>0.16906</v>
+        <v>0.168238</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.181384</v>
+        <v>0.181281</v>
       </c>
       <c r="C67" t="n">
-        <v>0.144662</v>
+        <v>0.14873</v>
       </c>
       <c r="D67" t="n">
-        <v>0.158183</v>
+        <v>0.15634</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179112</v>
+        <v>0.182531</v>
       </c>
       <c r="C68" t="n">
-        <v>0.148762</v>
+        <v>0.150178</v>
       </c>
       <c r="D68" t="n">
-        <v>0.155088</v>
+        <v>0.162332</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.184187</v>
+        <v>0.184232</v>
       </c>
       <c r="C69" t="n">
-        <v>0.148548</v>
+        <v>0.151018</v>
       </c>
       <c r="D69" t="n">
-        <v>0.160285</v>
+        <v>0.161494</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.181381</v>
+        <v>0.186038</v>
       </c>
       <c r="C70" t="n">
-        <v>0.148713</v>
+        <v>0.149403</v>
       </c>
       <c r="D70" t="n">
-        <v>0.158212</v>
+        <v>0.156537</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.187428</v>
+        <v>0.188618</v>
       </c>
       <c r="C71" t="n">
-        <v>0.150196</v>
+        <v>0.150332</v>
       </c>
       <c r="D71" t="n">
-        <v>0.162659</v>
+        <v>0.157467</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.185699</v>
+        <v>0.188499</v>
       </c>
       <c r="C72" t="n">
-        <v>0.157351</v>
+        <v>0.151398</v>
       </c>
       <c r="D72" t="n">
-        <v>0.169604</v>
+        <v>0.164225</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.188027</v>
+        <v>0.190154</v>
       </c>
       <c r="C73" t="n">
-        <v>0.157412</v>
+        <v>0.151482</v>
       </c>
       <c r="D73" t="n">
-        <v>0.16696</v>
+        <v>0.163637</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.192393</v>
+        <v>0.188113</v>
       </c>
       <c r="C74" t="n">
-        <v>0.156416</v>
+        <v>0.155051</v>
       </c>
       <c r="D74" t="n">
-        <v>0.165809</v>
+        <v>0.160328</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.194807</v>
+        <v>0.191185</v>
       </c>
       <c r="C75" t="n">
-        <v>0.158134</v>
+        <v>0.158554</v>
       </c>
       <c r="D75" t="n">
-        <v>0.16877</v>
+        <v>0.161995</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.198321</v>
+        <v>0.19929</v>
       </c>
       <c r="C76" t="n">
-        <v>0.159092</v>
+        <v>0.158324</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173385</v>
+        <v>0.164577</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.201744</v>
+        <v>0.201553</v>
       </c>
       <c r="C77" t="n">
-        <v>0.162115</v>
+        <v>0.157546</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172779</v>
+        <v>0.170383</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207933</v>
+        <v>0.200352</v>
       </c>
       <c r="C78" t="n">
-        <v>0.168442</v>
+        <v>0.15963</v>
       </c>
       <c r="D78" t="n">
-        <v>0.174135</v>
+        <v>0.173025</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.209173</v>
+        <v>0.207025</v>
       </c>
       <c r="C79" t="n">
-        <v>0.176447</v>
+        <v>0.16763</v>
       </c>
       <c r="D79" t="n">
-        <v>0.178885</v>
+        <v>0.173287</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.220812</v>
+        <v>0.213789</v>
       </c>
       <c r="C80" t="n">
-        <v>0.170036</v>
+        <v>0.168541</v>
       </c>
       <c r="D80" t="n">
-        <v>0.195226</v>
+        <v>0.182598</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.386017</v>
+        <v>0.363439</v>
       </c>
       <c r="C81" t="n">
-        <v>0.30625</v>
+        <v>0.2852</v>
       </c>
       <c r="D81" t="n">
-        <v>0.312762</v>
+        <v>0.293678</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.390259</v>
+        <v>0.363147</v>
       </c>
       <c r="C82" t="n">
-        <v>0.30586</v>
+        <v>0.285541</v>
       </c>
       <c r="D82" t="n">
-        <v>0.313991</v>
+        <v>0.296857</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.386508</v>
+        <v>0.367457</v>
       </c>
       <c r="C83" t="n">
-        <v>0.303772</v>
+        <v>0.280501</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312253</v>
+        <v>0.300919</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.392862</v>
+        <v>0.362691</v>
       </c>
       <c r="C84" t="n">
-        <v>0.300744</v>
+        <v>0.2843</v>
       </c>
       <c r="D84" t="n">
-        <v>0.312728</v>
+        <v>0.290278</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.391112</v>
+        <v>0.369896</v>
       </c>
       <c r="C85" t="n">
-        <v>0.300772</v>
+        <v>0.283658</v>
       </c>
       <c r="D85" t="n">
-        <v>0.306774</v>
+        <v>0.296677</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.393045</v>
+        <v>0.369342</v>
       </c>
       <c r="C86" t="n">
-        <v>0.29665</v>
+        <v>0.281957</v>
       </c>
       <c r="D86" t="n">
-        <v>0.305081</v>
+        <v>0.286949</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.390265</v>
+        <v>0.370545</v>
       </c>
       <c r="C87" t="n">
-        <v>0.295832</v>
+        <v>0.281139</v>
       </c>
       <c r="D87" t="n">
-        <v>0.303719</v>
+        <v>0.290565</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.393079</v>
+        <v>0.371356</v>
       </c>
       <c r="C88" t="n">
-        <v>0.295942</v>
+        <v>0.282037</v>
       </c>
       <c r="D88" t="n">
-        <v>0.301108</v>
+        <v>0.292903</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.398667</v>
+        <v>0.370953</v>
       </c>
       <c r="C89" t="n">
-        <v>0.291826</v>
+        <v>0.277651</v>
       </c>
       <c r="D89" t="n">
-        <v>0.303021</v>
+        <v>0.290368</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.397562</v>
+        <v>0.375839</v>
       </c>
       <c r="C90" t="n">
-        <v>0.288548</v>
+        <v>0.274261</v>
       </c>
       <c r="D90" t="n">
-        <v>0.299187</v>
+        <v>0.285201</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.399838</v>
+        <v>0.376963</v>
       </c>
       <c r="C91" t="n">
-        <v>0.294192</v>
+        <v>0.279758</v>
       </c>
       <c r="D91" t="n">
-        <v>0.293904</v>
+        <v>0.278891</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.40694</v>
+        <v>0.383565</v>
       </c>
       <c r="C92" t="n">
-        <v>0.29727</v>
+        <v>0.28032</v>
       </c>
       <c r="D92" t="n">
-        <v>0.30857</v>
+        <v>0.291509</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.412094</v>
+        <v>0.385952</v>
       </c>
       <c r="C93" t="n">
-        <v>0.299703</v>
+        <v>0.281044</v>
       </c>
       <c r="D93" t="n">
-        <v>0.304409</v>
+        <v>0.29391</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.420071</v>
+        <v>0.389877</v>
       </c>
       <c r="C94" t="n">
-        <v>0.307151</v>
+        <v>0.287072</v>
       </c>
       <c r="D94" t="n">
-        <v>0.312705</v>
+        <v>0.295243</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.575356</v>
+        <v>0.532185</v>
       </c>
       <c r="C95" t="n">
-        <v>0.490408</v>
+        <v>0.452223</v>
       </c>
       <c r="D95" t="n">
-        <v>0.497073</v>
+        <v>0.458874</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5758180000000001</v>
+        <v>0.532706</v>
       </c>
       <c r="C96" t="n">
-        <v>0.489751</v>
+        <v>0.451147</v>
       </c>
       <c r="D96" t="n">
-        <v>0.49975</v>
+        <v>0.462416</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.575971</v>
+        <v>0.532817</v>
       </c>
       <c r="C97" t="n">
-        <v>0.48279</v>
+        <v>0.450482</v>
       </c>
       <c r="D97" t="n">
-        <v>0.494925</v>
+        <v>0.460524</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.575931</v>
+        <v>0.532317</v>
       </c>
       <c r="C98" t="n">
-        <v>0.489365</v>
+        <v>0.45206</v>
       </c>
       <c r="D98" t="n">
-        <v>0.494883</v>
+        <v>0.456696</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.578402</v>
+        <v>0.533432</v>
       </c>
       <c r="C99" t="n">
-        <v>0.488734</v>
+        <v>0.450037</v>
       </c>
       <c r="D99" t="n">
-        <v>0.497489</v>
+        <v>0.458323</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.579153</v>
+        <v>0.53392</v>
       </c>
       <c r="C100" t="n">
-        <v>0.487743</v>
+        <v>0.448806</v>
       </c>
       <c r="D100" t="n">
-        <v>0.493762</v>
+        <v>0.457998</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.580265</v>
+        <v>0.534991</v>
       </c>
       <c r="C101" t="n">
-        <v>0.487453</v>
+        <v>0.449095</v>
       </c>
       <c r="D101" t="n">
-        <v>0.491824</v>
+        <v>0.45408</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.580759</v>
+        <v>0.5356379999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.487654</v>
+        <v>0.449172</v>
       </c>
       <c r="D102" t="n">
-        <v>0.484598</v>
+        <v>0.457303</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.583052</v>
+        <v>0.537289</v>
       </c>
       <c r="C103" t="n">
-        <v>0.487345</v>
+        <v>0.448015</v>
       </c>
       <c r="D103" t="n">
-        <v>0.493135</v>
+        <v>0.454652</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.584452</v>
+        <v>0.539941</v>
       </c>
       <c r="C104" t="n">
-        <v>0.488716</v>
+        <v>0.449619</v>
       </c>
       <c r="D104" t="n">
-        <v>0.497287</v>
+        <v>0.456412</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.588946</v>
+        <v>0.542504</v>
       </c>
       <c r="C105" t="n">
-        <v>0.483009</v>
+        <v>0.451694</v>
       </c>
       <c r="D105" t="n">
-        <v>0.495421</v>
+        <v>0.462107</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.591788</v>
+        <v>0.545748</v>
       </c>
       <c r="C106" t="n">
-        <v>0.492</v>
+        <v>0.455012</v>
       </c>
       <c r="D106" t="n">
-        <v>0.498194</v>
+        <v>0.460634</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5975510000000001</v>
+        <v>0.553168</v>
       </c>
       <c r="C107" t="n">
-        <v>0.486373</v>
+        <v>0.456448</v>
       </c>
       <c r="D107" t="n">
-        <v>0.503963</v>
+        <v>0.465948</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.605712</v>
+        <v>0.560495</v>
       </c>
       <c r="C108" t="n">
-        <v>0.500521</v>
+        <v>0.460649</v>
       </c>
       <c r="D108" t="n">
-        <v>0.515207</v>
+        <v>0.477691</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.617154</v>
+        <v>0.572535</v>
       </c>
       <c r="C109" t="n">
-        <v>0.508117</v>
+        <v>0.46902</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5250899999999999</v>
+        <v>0.486536</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.661457</v>
+        <v>0.611845</v>
       </c>
       <c r="C110" t="n">
-        <v>0.610365</v>
+        <v>0.5583939999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.611648</v>
+        <v>0.566802</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.664019</v>
+        <v>0.613494</v>
       </c>
       <c r="C111" t="n">
-        <v>0.61012</v>
+        <v>0.556202</v>
       </c>
       <c r="D111" t="n">
-        <v>0.613013</v>
+        <v>0.568317</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.664083</v>
+        <v>0.61419</v>
       </c>
       <c r="C112" t="n">
-        <v>0.60897</v>
+        <v>0.559295</v>
       </c>
       <c r="D112" t="n">
-        <v>0.613254</v>
+        <v>0.5680190000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.664792</v>
+        <v>0.614061</v>
       </c>
       <c r="C113" t="n">
-        <v>0.611049</v>
+        <v>0.561046</v>
       </c>
       <c r="D113" t="n">
-        <v>0.614868</v>
+        <v>0.567107</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6682979999999999</v>
+        <v>0.6147319999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.607851</v>
+        <v>0.56043</v>
       </c>
       <c r="D114" t="n">
-        <v>0.618339</v>
+        <v>0.566618</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.668</v>
+        <v>0.617516</v>
       </c>
       <c r="C115" t="n">
-        <v>0.610526</v>
+        <v>0.560393</v>
       </c>
       <c r="D115" t="n">
-        <v>0.614324</v>
+        <v>0.570522</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.672416</v>
+        <v>0.620102</v>
       </c>
       <c r="C116" t="n">
-        <v>0.612914</v>
+        <v>0.558429</v>
       </c>
       <c r="D116" t="n">
-        <v>0.616904</v>
+        <v>0.566094</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.67287</v>
+        <v>0.62154</v>
       </c>
       <c r="C117" t="n">
-        <v>0.614627</v>
+        <v>0.56482</v>
       </c>
       <c r="D117" t="n">
-        <v>0.620865</v>
+        <v>0.573568</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.674963</v>
+        <v>0.62454</v>
       </c>
       <c r="C118" t="n">
-        <v>0.616841</v>
+        <v>0.561366</v>
       </c>
       <c r="D118" t="n">
-        <v>0.624291</v>
+        <v>0.569649</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.680207</v>
+        <v>0.628501</v>
       </c>
       <c r="C119" t="n">
-        <v>0.612849</v>
+        <v>0.56447</v>
       </c>
       <c r="D119" t="n">
-        <v>0.623282</v>
+        <v>0.57383</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.686347</v>
+        <v>0.632475</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6205580000000001</v>
+        <v>0.570615</v>
       </c>
       <c r="D120" t="n">
-        <v>0.628898</v>
+        <v>0.580766</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.692333</v>
+        <v>0.639829</v>
       </c>
       <c r="C121" t="n">
-        <v>0.620414</v>
+        <v>0.570476</v>
       </c>
       <c r="D121" t="n">
-        <v>0.634934</v>
+        <v>0.582985</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.701345</v>
+        <v>0.647025</v>
       </c>
       <c r="C122" t="n">
-        <v>0.630473</v>
+        <v>0.578808</v>
       </c>
       <c r="D122" t="n">
-        <v>0.646424</v>
+        <v>0.592882</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7145860000000001</v>
+        <v>0.661478</v>
       </c>
       <c r="C123" t="n">
-        <v>0.641157</v>
+        <v>0.588296</v>
       </c>
       <c r="D123" t="n">
-        <v>0.661097</v>
+        <v>0.609188</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.819375</v>
+        <v>0.750802</v>
       </c>
       <c r="C124" t="n">
-        <v>0.752731</v>
+        <v>0.685837</v>
       </c>
       <c r="D124" t="n">
-        <v>0.760591</v>
+        <v>0.693585</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.820111</v>
+        <v>0.75079</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7520210000000001</v>
+        <v>0.687258</v>
       </c>
       <c r="D125" t="n">
-        <v>0.757678</v>
+        <v>0.691721</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.821867</v>
+        <v>0.750156</v>
       </c>
       <c r="C126" t="n">
-        <v>0.756259</v>
+        <v>0.686717</v>
       </c>
       <c r="D126" t="n">
-        <v>0.754445</v>
+        <v>0.693677</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.822175</v>
+        <v>0.752887</v>
       </c>
       <c r="C127" t="n">
-        <v>0.755973</v>
+        <v>0.688107</v>
       </c>
       <c r="D127" t="n">
-        <v>0.760139</v>
+        <v>0.697383</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.825316</v>
+        <v>0.753986</v>
       </c>
       <c r="C128" t="n">
-        <v>0.753286</v>
+        <v>0.690446</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7626270000000001</v>
+        <v>0.696444</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.825264</v>
+        <v>0.7553339999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.757302</v>
+        <v>0.691824</v>
       </c>
       <c r="D129" t="n">
-        <v>0.76411</v>
+        <v>0.6986329999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.827349</v>
+        <v>0.757876</v>
       </c>
       <c r="C130" t="n">
-        <v>0.760583</v>
+        <v>0.695345</v>
       </c>
       <c r="D130" t="n">
-        <v>0.765286</v>
+        <v>0.698829</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.829674</v>
+        <v>0.759422</v>
       </c>
       <c r="C131" t="n">
-        <v>0.767392</v>
+        <v>0.6977719999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.767617</v>
+        <v>0.701586</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.834058</v>
+        <v>0.76357</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7656500000000001</v>
+        <v>0.694706</v>
       </c>
       <c r="D132" t="n">
-        <v>0.765139</v>
+        <v>0.705739</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.835114</v>
+        <v>0.768176</v>
       </c>
       <c r="C133" t="n">
-        <v>0.769486</v>
+        <v>0.703412</v>
       </c>
       <c r="D133" t="n">
-        <v>0.77323</v>
+        <v>0.708517</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.843275</v>
+        <v>0.772183</v>
       </c>
       <c r="C134" t="n">
-        <v>0.773765</v>
+        <v>0.70865</v>
       </c>
       <c r="D134" t="n">
-        <v>0.780008</v>
+        <v>0.7111769999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.850942</v>
+        <v>0.779537</v>
       </c>
       <c r="C135" t="n">
-        <v>0.782882</v>
+        <v>0.710304</v>
       </c>
       <c r="D135" t="n">
-        <v>0.78473</v>
+        <v>0.717795</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.859341</v>
+        <v>0.787475</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7867150000000001</v>
+        <v>0.718462</v>
       </c>
       <c r="D136" t="n">
-        <v>0.797215</v>
+        <v>0.726809</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.872178</v>
+        <v>0.79932</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7966</v>
+        <v>0.726658</v>
       </c>
       <c r="D137" t="n">
-        <v>0.810378</v>
+        <v>0.740213</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.959395</v>
+        <v>0.877514</v>
       </c>
       <c r="C138" t="n">
-        <v>0.886733</v>
+        <v>0.80842</v>
       </c>
       <c r="D138" t="n">
-        <v>0.895111</v>
+        <v>0.816307</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.958782</v>
+        <v>0.87745</v>
       </c>
       <c r="C139" t="n">
-        <v>0.887841</v>
+        <v>0.810296</v>
       </c>
       <c r="D139" t="n">
-        <v>0.895208</v>
+        <v>0.819983</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.960148</v>
+        <v>0.876903</v>
       </c>
       <c r="C140" t="n">
-        <v>0.888585</v>
+        <v>0.812338</v>
       </c>
       <c r="D140" t="n">
-        <v>0.897384</v>
+        <v>0.819958</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.961126</v>
+        <v>0.879269</v>
       </c>
       <c r="C141" t="n">
-        <v>0.889244</v>
+        <v>0.812887</v>
       </c>
       <c r="D141" t="n">
-        <v>0.895827</v>
+        <v>0.82137</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.962411</v>
+        <v>0.879908</v>
       </c>
       <c r="C142" t="n">
-        <v>0.893171</v>
+        <v>0.814537</v>
       </c>
       <c r="D142" t="n">
-        <v>0.898309</v>
+        <v>0.824062</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.963276</v>
+        <v>0.881759</v>
       </c>
       <c r="C143" t="n">
-        <v>0.893084</v>
+        <v>0.813704</v>
       </c>
       <c r="D143" t="n">
-        <v>0.902365</v>
+        <v>0.8256</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.124181</v>
+        <v>0.132311</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0895056</v>
+        <v>0.0930303</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0969986</v>
+        <v>0.106738</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12126</v>
+        <v>0.122823</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0894688</v>
+        <v>0.0919336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.103068</v>
+        <v>0.106237</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123193</v>
+        <v>0.119822</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0901454</v>
+        <v>0.0929883</v>
       </c>
       <c r="D4" t="n">
-        <v>0.103897</v>
+        <v>0.101104</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118549</v>
+        <v>0.123115</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08996800000000001</v>
+        <v>0.09288009999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.103858</v>
+        <v>0.107783</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.137589</v>
+        <v>0.140581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0903977</v>
+        <v>0.09451569999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.104275</v>
+        <v>0.108249</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.134819</v>
+        <v>0.13435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0910604</v>
+        <v>0.0937095</v>
       </c>
       <c r="D7" t="n">
-        <v>0.105115</v>
+        <v>0.10711</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.13054</v>
+        <v>0.133246</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0921014</v>
+        <v>0.0944808</v>
       </c>
       <c r="D8" t="n">
-        <v>0.107509</v>
+        <v>0.110599</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.141194</v>
+        <v>0.152607</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09258180000000001</v>
+        <v>0.0987656</v>
       </c>
       <c r="D9" t="n">
-        <v>0.111219</v>
+        <v>0.108529</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124674</v>
+        <v>0.125623</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0980096</v>
+        <v>0.104757</v>
       </c>
       <c r="D10" t="n">
-        <v>0.105171</v>
+        <v>0.116159</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125408</v>
+        <v>0.128114</v>
       </c>
       <c r="C11" t="n">
-        <v>0.098651</v>
+        <v>0.104078</v>
       </c>
       <c r="D11" t="n">
-        <v>0.105159</v>
+        <v>0.110398</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128798</v>
+        <v>0.129488</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09871290000000001</v>
+        <v>0.103185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.104665</v>
+        <v>0.110246</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.127267</v>
+        <v>0.129698</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0984356</v>
+        <v>0.103403</v>
       </c>
       <c r="D13" t="n">
-        <v>0.112134</v>
+        <v>0.11578</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125868</v>
+        <v>0.12879</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0992075</v>
+        <v>0.102222</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111609</v>
+        <v>0.109389</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.127223</v>
+        <v>0.131319</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0993025</v>
+        <v>0.102672</v>
       </c>
       <c r="D15" t="n">
-        <v>0.106195</v>
+        <v>0.116138</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127141</v>
+        <v>0.12975</v>
       </c>
       <c r="C16" t="n">
-        <v>0.100979</v>
+        <v>0.102953</v>
       </c>
       <c r="D16" t="n">
-        <v>0.112935</v>
+        <v>0.110224</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.134682</v>
+        <v>0.133029</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0999637</v>
+        <v>0.103467</v>
       </c>
       <c r="D17" t="n">
-        <v>0.105313</v>
+        <v>0.117491</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130032</v>
+        <v>0.133142</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0996616</v>
+        <v>0.103225</v>
       </c>
       <c r="D18" t="n">
-        <v>0.106798</v>
+        <v>0.113231</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131735</v>
+        <v>0.13534</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09976260000000001</v>
+        <v>0.103834</v>
       </c>
       <c r="D19" t="n">
-        <v>0.113595</v>
+        <v>0.117721</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.135532</v>
+        <v>0.137483</v>
       </c>
       <c r="C20" t="n">
-        <v>0.100476</v>
+        <v>0.106082</v>
       </c>
       <c r="D20" t="n">
-        <v>0.114431</v>
+        <v>0.112734</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140455</v>
+        <v>0.144044</v>
       </c>
       <c r="C21" t="n">
-        <v>0.101932</v>
+        <v>0.105766</v>
       </c>
       <c r="D21" t="n">
-        <v>0.110582</v>
+        <v>0.117102</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.156777</v>
+        <v>0.14973</v>
       </c>
       <c r="C22" t="n">
-        <v>0.105535</v>
+        <v>0.107223</v>
       </c>
       <c r="D22" t="n">
-        <v>0.114503</v>
+        <v>0.124196</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.159029</v>
+        <v>0.162486</v>
       </c>
       <c r="C23" t="n">
-        <v>0.113006</v>
+        <v>0.115549</v>
       </c>
       <c r="D23" t="n">
-        <v>0.127137</v>
+        <v>0.137295</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135102</v>
+        <v>0.13797</v>
       </c>
       <c r="C24" t="n">
-        <v>0.10872</v>
+        <v>0.112287</v>
       </c>
       <c r="D24" t="n">
-        <v>0.121381</v>
+        <v>0.12036</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135676</v>
+        <v>0.135775</v>
       </c>
       <c r="C25" t="n">
-        <v>0.10866</v>
+        <v>0.111546</v>
       </c>
       <c r="D25" t="n">
-        <v>0.121846</v>
+        <v>0.127207</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13523</v>
+        <v>0.137484</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109069</v>
+        <v>0.112027</v>
       </c>
       <c r="D26" t="n">
-        <v>0.122172</v>
+        <v>0.12472</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135111</v>
+        <v>0.135936</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109153</v>
+        <v>0.111868</v>
       </c>
       <c r="D27" t="n">
-        <v>0.122232</v>
+        <v>0.118877</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136928</v>
+        <v>0.147503</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109432</v>
+        <v>0.111675</v>
       </c>
       <c r="D28" t="n">
-        <v>0.122349</v>
+        <v>0.119457</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136819</v>
+        <v>0.139195</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109965</v>
+        <v>0.112052</v>
       </c>
       <c r="D29" t="n">
-        <v>0.122557</v>
+        <v>0.125052</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137596</v>
+        <v>0.138101</v>
       </c>
       <c r="C30" t="n">
-        <v>0.109673</v>
+        <v>0.112835</v>
       </c>
       <c r="D30" t="n">
-        <v>0.116811</v>
+        <v>0.125107</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139872</v>
+        <v>0.140445</v>
       </c>
       <c r="C31" t="n">
-        <v>0.110189</v>
+        <v>0.112127</v>
       </c>
       <c r="D31" t="n">
-        <v>0.123285</v>
+        <v>0.125423</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.14063</v>
+        <v>0.141172</v>
       </c>
       <c r="C32" t="n">
-        <v>0.111027</v>
+        <v>0.113057</v>
       </c>
       <c r="D32" t="n">
-        <v>0.116869</v>
+        <v>0.120022</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.143675</v>
+        <v>0.144997</v>
       </c>
       <c r="C33" t="n">
-        <v>0.112765</v>
+        <v>0.113928</v>
       </c>
       <c r="D33" t="n">
-        <v>0.117951</v>
+        <v>0.125839</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.148233</v>
+        <v>0.148928</v>
       </c>
       <c r="C34" t="n">
-        <v>0.115044</v>
+        <v>0.116879</v>
       </c>
       <c r="D34" t="n">
-        <v>0.119272</v>
+        <v>0.127057</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153685</v>
+        <v>0.153822</v>
       </c>
       <c r="C35" t="n">
-        <v>0.118325</v>
+        <v>0.121117</v>
       </c>
       <c r="D35" t="n">
-        <v>0.129615</v>
+        <v>0.128165</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159679</v>
+        <v>0.164605</v>
       </c>
       <c r="C36" t="n">
-        <v>0.122608</v>
+        <v>0.124643</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130528</v>
+        <v>0.138438</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167394</v>
+        <v>0.167236</v>
       </c>
       <c r="C37" t="n">
-        <v>0.133646</v>
+        <v>0.136831</v>
       </c>
       <c r="D37" t="n">
-        <v>0.146556</v>
+        <v>0.148628</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147094</v>
+        <v>0.147641</v>
       </c>
       <c r="C38" t="n">
-        <v>0.117466</v>
+        <v>0.123816</v>
       </c>
       <c r="D38" t="n">
-        <v>0.132411</v>
+        <v>0.135828</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148582</v>
+        <v>0.152478</v>
       </c>
       <c r="C39" t="n">
-        <v>0.119557</v>
+        <v>0.123864</v>
       </c>
       <c r="D39" t="n">
-        <v>0.133142</v>
+        <v>0.134374</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150277</v>
+        <v>0.149145</v>
       </c>
       <c r="C40" t="n">
-        <v>0.12008</v>
+        <v>0.124553</v>
       </c>
       <c r="D40" t="n">
-        <v>0.133539</v>
+        <v>0.136648</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149112</v>
+        <v>0.149199</v>
       </c>
       <c r="C41" t="n">
-        <v>0.120556</v>
+        <v>0.125195</v>
       </c>
       <c r="D41" t="n">
-        <v>0.13314</v>
+        <v>0.136056</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150326</v>
+        <v>0.150858</v>
       </c>
       <c r="C42" t="n">
-        <v>0.120625</v>
+        <v>0.124624</v>
       </c>
       <c r="D42" t="n">
-        <v>0.13491</v>
+        <v>0.137168</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150291</v>
+        <v>0.150531</v>
       </c>
       <c r="C43" t="n">
-        <v>0.122009</v>
+        <v>0.123522</v>
       </c>
       <c r="D43" t="n">
-        <v>0.127829</v>
+        <v>0.131683</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150763</v>
+        <v>0.152612</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123568</v>
+        <v>0.126473</v>
       </c>
       <c r="D44" t="n">
-        <v>0.129098</v>
+        <v>0.132532</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.154847</v>
+        <v>0.152338</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124637</v>
+        <v>0.126864</v>
       </c>
       <c r="D45" t="n">
-        <v>0.134991</v>
+        <v>0.132451</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155923</v>
+        <v>0.156396</v>
       </c>
       <c r="C46" t="n">
-        <v>0.126225</v>
+        <v>0.128486</v>
       </c>
       <c r="D46" t="n">
-        <v>0.13546</v>
+        <v>0.131214</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.158387</v>
+        <v>0.160779</v>
       </c>
       <c r="C47" t="n">
-        <v>0.128089</v>
+        <v>0.129247</v>
       </c>
       <c r="D47" t="n">
-        <v>0.131588</v>
+        <v>0.132499</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.161485</v>
+        <v>0.161535</v>
       </c>
       <c r="C48" t="n">
-        <v>0.129966</v>
+        <v>0.131514</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13476</v>
+        <v>0.136079</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.167094</v>
+        <v>0.165732</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131077</v>
+        <v>0.133352</v>
       </c>
       <c r="D49" t="n">
-        <v>0.137867</v>
+        <v>0.144039</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171609</v>
+        <v>0.172354</v>
       </c>
       <c r="C50" t="n">
-        <v>0.135307</v>
+        <v>0.136593</v>
       </c>
       <c r="D50" t="n">
-        <v>0.142375</v>
+        <v>0.142797</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178951</v>
+        <v>0.178259</v>
       </c>
       <c r="C51" t="n">
-        <v>0.13849</v>
+        <v>0.147628</v>
       </c>
       <c r="D51" t="n">
-        <v>0.156295</v>
+        <v>0.157191</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188192</v>
+        <v>0.192244</v>
       </c>
       <c r="C52" t="n">
-        <v>0.145418</v>
+        <v>0.146313</v>
       </c>
       <c r="D52" t="n">
-        <v>0.159339</v>
+        <v>0.161923</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.163363</v>
+        <v>0.16029</v>
       </c>
       <c r="C53" t="n">
-        <v>0.129113</v>
+        <v>0.133341</v>
       </c>
       <c r="D53" t="n">
-        <v>0.143725</v>
+        <v>0.142126</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.162186</v>
+        <v>0.160524</v>
       </c>
       <c r="C54" t="n">
-        <v>0.130125</v>
+        <v>0.133641</v>
       </c>
       <c r="D54" t="n">
-        <v>0.143136</v>
+        <v>0.142265</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.165586</v>
+        <v>0.165098</v>
       </c>
       <c r="C55" t="n">
-        <v>0.131684</v>
+        <v>0.134515</v>
       </c>
       <c r="D55" t="n">
-        <v>0.139044</v>
+        <v>0.148455</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162686</v>
+        <v>0.162558</v>
       </c>
       <c r="C56" t="n">
-        <v>0.131491</v>
+        <v>0.134644</v>
       </c>
       <c r="D56" t="n">
-        <v>0.144461</v>
+        <v>0.141518</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163008</v>
+        <v>0.162841</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133668</v>
+        <v>0.136164</v>
       </c>
       <c r="D57" t="n">
-        <v>0.140056</v>
+        <v>0.142775</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.165237</v>
+        <v>0.164659</v>
       </c>
       <c r="C58" t="n">
-        <v>0.133939</v>
+        <v>0.135857</v>
       </c>
       <c r="D58" t="n">
-        <v>0.140255</v>
+        <v>0.142107</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165766</v>
+        <v>0.166403</v>
       </c>
       <c r="C59" t="n">
-        <v>0.133042</v>
+        <v>0.136215</v>
       </c>
       <c r="D59" t="n">
-        <v>0.145392</v>
+        <v>0.148425</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16812</v>
+        <v>0.172658</v>
       </c>
       <c r="C60" t="n">
-        <v>0.135785</v>
+        <v>0.138811</v>
       </c>
       <c r="D60" t="n">
-        <v>0.141693</v>
+        <v>0.149406</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169226</v>
+        <v>0.170493</v>
       </c>
       <c r="C61" t="n">
-        <v>0.135363</v>
+        <v>0.139991</v>
       </c>
       <c r="D61" t="n">
-        <v>0.149187</v>
+        <v>0.151371</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174059</v>
+        <v>0.173614</v>
       </c>
       <c r="C62" t="n">
-        <v>0.137772</v>
+        <v>0.143974</v>
       </c>
       <c r="D62" t="n">
-        <v>0.151533</v>
+        <v>0.153205</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177529</v>
+        <v>0.177318</v>
       </c>
       <c r="C63" t="n">
-        <v>0.139865</v>
+        <v>0.143235</v>
       </c>
       <c r="D63" t="n">
-        <v>0.150062</v>
+        <v>0.149517</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182191</v>
+        <v>0.183283</v>
       </c>
       <c r="C64" t="n">
-        <v>0.142568</v>
+        <v>0.151515</v>
       </c>
       <c r="D64" t="n">
-        <v>0.159292</v>
+        <v>0.158286</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.191344</v>
+        <v>0.188889</v>
       </c>
       <c r="C65" t="n">
-        <v>0.148199</v>
+        <v>0.153966</v>
       </c>
       <c r="D65" t="n">
-        <v>0.159672</v>
+        <v>0.163277</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197283</v>
+        <v>0.200244</v>
       </c>
       <c r="C66" t="n">
-        <v>0.153761</v>
+        <v>0.154337</v>
       </c>
       <c r="D66" t="n">
-        <v>0.168238</v>
+        <v>0.169761</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.181281</v>
+        <v>0.183353</v>
       </c>
       <c r="C67" t="n">
-        <v>0.14873</v>
+        <v>0.150005</v>
       </c>
       <c r="D67" t="n">
-        <v>0.15634</v>
+        <v>0.165004</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.182531</v>
+        <v>0.185539</v>
       </c>
       <c r="C68" t="n">
-        <v>0.150178</v>
+        <v>0.149498</v>
       </c>
       <c r="D68" t="n">
-        <v>0.162332</v>
+        <v>0.160445</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.184232</v>
+        <v>0.186776</v>
       </c>
       <c r="C69" t="n">
-        <v>0.151018</v>
+        <v>0.154618</v>
       </c>
       <c r="D69" t="n">
-        <v>0.161494</v>
+        <v>0.159927</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.186038</v>
+        <v>0.182813</v>
       </c>
       <c r="C70" t="n">
-        <v>0.149403</v>
+        <v>0.153758</v>
       </c>
       <c r="D70" t="n">
-        <v>0.156537</v>
+        <v>0.166266</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.188618</v>
+        <v>0.185267</v>
       </c>
       <c r="C71" t="n">
-        <v>0.150332</v>
+        <v>0.156254</v>
       </c>
       <c r="D71" t="n">
-        <v>0.157467</v>
+        <v>0.161363</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.188499</v>
+        <v>0.186942</v>
       </c>
       <c r="C72" t="n">
-        <v>0.151398</v>
+        <v>0.155344</v>
       </c>
       <c r="D72" t="n">
-        <v>0.164225</v>
+        <v>0.165631</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.190154</v>
+        <v>0.18663</v>
       </c>
       <c r="C73" t="n">
-        <v>0.151482</v>
+        <v>0.158168</v>
       </c>
       <c r="D73" t="n">
-        <v>0.163637</v>
+        <v>0.163172</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.188113</v>
+        <v>0.189069</v>
       </c>
       <c r="C74" t="n">
-        <v>0.155051</v>
+        <v>0.15957</v>
       </c>
       <c r="D74" t="n">
-        <v>0.160328</v>
+        <v>0.163356</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.191185</v>
+        <v>0.192051</v>
       </c>
       <c r="C75" t="n">
-        <v>0.158554</v>
+        <v>0.158325</v>
       </c>
       <c r="D75" t="n">
-        <v>0.161995</v>
+        <v>0.1688</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19929</v>
+        <v>0.196388</v>
       </c>
       <c r="C76" t="n">
-        <v>0.158324</v>
+        <v>0.157994</v>
       </c>
       <c r="D76" t="n">
-        <v>0.164577</v>
+        <v>0.170183</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.201553</v>
+        <v>0.198645</v>
       </c>
       <c r="C77" t="n">
-        <v>0.157546</v>
+        <v>0.166566</v>
       </c>
       <c r="D77" t="n">
-        <v>0.170383</v>
+        <v>0.174241</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200352</v>
+        <v>0.208799</v>
       </c>
       <c r="C78" t="n">
-        <v>0.15963</v>
+        <v>0.160357</v>
       </c>
       <c r="D78" t="n">
-        <v>0.173025</v>
+        <v>0.172879</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.207025</v>
+        <v>0.20835</v>
       </c>
       <c r="C79" t="n">
-        <v>0.16763</v>
+        <v>0.167666</v>
       </c>
       <c r="D79" t="n">
-        <v>0.173287</v>
+        <v>0.181079</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213789</v>
+        <v>0.215076</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168541</v>
+        <v>0.16968</v>
       </c>
       <c r="D80" t="n">
-        <v>0.182598</v>
+        <v>0.184793</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.363439</v>
+        <v>0.360502</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2852</v>
+        <v>0.288221</v>
       </c>
       <c r="D81" t="n">
-        <v>0.293678</v>
+        <v>0.298018</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.363147</v>
+        <v>0.364087</v>
       </c>
       <c r="C82" t="n">
-        <v>0.285541</v>
+        <v>0.291872</v>
       </c>
       <c r="D82" t="n">
-        <v>0.296857</v>
+        <v>0.288264</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.367457</v>
+        <v>0.367414</v>
       </c>
       <c r="C83" t="n">
-        <v>0.280501</v>
+        <v>0.28602</v>
       </c>
       <c r="D83" t="n">
-        <v>0.300919</v>
+        <v>0.284721</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.362691</v>
+        <v>0.36519</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2843</v>
+        <v>0.284036</v>
       </c>
       <c r="D84" t="n">
-        <v>0.290278</v>
+        <v>0.298559</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.369896</v>
+        <v>0.366267</v>
       </c>
       <c r="C85" t="n">
-        <v>0.283658</v>
+        <v>0.273423</v>
       </c>
       <c r="D85" t="n">
-        <v>0.296677</v>
+        <v>0.294168</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.369342</v>
+        <v>0.38421</v>
       </c>
       <c r="C86" t="n">
-        <v>0.281957</v>
+        <v>0.279894</v>
       </c>
       <c r="D86" t="n">
-        <v>0.286949</v>
+        <v>0.29755</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.370545</v>
+        <v>0.369314</v>
       </c>
       <c r="C87" t="n">
-        <v>0.281139</v>
+        <v>0.285898</v>
       </c>
       <c r="D87" t="n">
-        <v>0.290565</v>
+        <v>0.288418</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.371356</v>
+        <v>0.376383</v>
       </c>
       <c r="C88" t="n">
-        <v>0.282037</v>
+        <v>0.282198</v>
       </c>
       <c r="D88" t="n">
-        <v>0.292903</v>
+        <v>0.291527</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.370953</v>
+        <v>0.375962</v>
       </c>
       <c r="C89" t="n">
-        <v>0.277651</v>
+        <v>0.283584</v>
       </c>
       <c r="D89" t="n">
-        <v>0.290368</v>
+        <v>0.292417</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.375839</v>
+        <v>0.378557</v>
       </c>
       <c r="C90" t="n">
-        <v>0.274261</v>
+        <v>0.278368</v>
       </c>
       <c r="D90" t="n">
-        <v>0.285201</v>
+        <v>0.283651</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.376963</v>
+        <v>0.382841</v>
       </c>
       <c r="C91" t="n">
-        <v>0.279758</v>
+        <v>0.279435</v>
       </c>
       <c r="D91" t="n">
-        <v>0.278891</v>
+        <v>0.283046</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.383565</v>
+        <v>0.382436</v>
       </c>
       <c r="C92" t="n">
-        <v>0.28032</v>
+        <v>0.280542</v>
       </c>
       <c r="D92" t="n">
-        <v>0.291509</v>
+        <v>0.291264</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.385952</v>
+        <v>0.389077</v>
       </c>
       <c r="C93" t="n">
-        <v>0.281044</v>
+        <v>0.290877</v>
       </c>
       <c r="D93" t="n">
-        <v>0.29391</v>
+        <v>0.290915</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.389877</v>
+        <v>0.394936</v>
       </c>
       <c r="C94" t="n">
-        <v>0.287072</v>
+        <v>0.28322</v>
       </c>
       <c r="D94" t="n">
-        <v>0.295243</v>
+        <v>0.303622</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.532185</v>
+        <v>0.535155</v>
       </c>
       <c r="C95" t="n">
-        <v>0.452223</v>
+        <v>0.457602</v>
       </c>
       <c r="D95" t="n">
-        <v>0.458874</v>
+        <v>0.464631</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.532706</v>
+        <v>0.535379</v>
       </c>
       <c r="C96" t="n">
-        <v>0.451147</v>
+        <v>0.456403</v>
       </c>
       <c r="D96" t="n">
-        <v>0.462416</v>
+        <v>0.462962</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.532817</v>
+        <v>0.535064</v>
       </c>
       <c r="C97" t="n">
-        <v>0.450482</v>
+        <v>0.456214</v>
       </c>
       <c r="D97" t="n">
-        <v>0.460524</v>
+        <v>0.462335</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.532317</v>
+        <v>0.535698</v>
       </c>
       <c r="C98" t="n">
-        <v>0.45206</v>
+        <v>0.45609</v>
       </c>
       <c r="D98" t="n">
-        <v>0.456696</v>
+        <v>0.461628</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.533432</v>
+        <v>0.536026</v>
       </c>
       <c r="C99" t="n">
-        <v>0.450037</v>
+        <v>0.454475</v>
       </c>
       <c r="D99" t="n">
-        <v>0.458323</v>
+        <v>0.447227</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.53392</v>
+        <v>0.538155</v>
       </c>
       <c r="C100" t="n">
-        <v>0.448806</v>
+        <v>0.454549</v>
       </c>
       <c r="D100" t="n">
-        <v>0.457998</v>
+        <v>0.460123</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.534991</v>
+        <v>0.538901</v>
       </c>
       <c r="C101" t="n">
-        <v>0.449095</v>
+        <v>0.453283</v>
       </c>
       <c r="D101" t="n">
-        <v>0.45408</v>
+        <v>0.458387</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5356379999999999</v>
+        <v>0.538282</v>
       </c>
       <c r="C102" t="n">
-        <v>0.449172</v>
+        <v>0.452319</v>
       </c>
       <c r="D102" t="n">
-        <v>0.457303</v>
+        <v>0.461931</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.537289</v>
+        <v>0.540442</v>
       </c>
       <c r="C103" t="n">
-        <v>0.448015</v>
+        <v>0.454103</v>
       </c>
       <c r="D103" t="n">
-        <v>0.454652</v>
+        <v>0.451833</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.539941</v>
+        <v>0.5419040000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.449619</v>
+        <v>0.448495</v>
       </c>
       <c r="D104" t="n">
-        <v>0.456412</v>
+        <v>0.462942</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.542504</v>
+        <v>0.544547</v>
       </c>
       <c r="C105" t="n">
-        <v>0.451694</v>
+        <v>0.448596</v>
       </c>
       <c r="D105" t="n">
-        <v>0.462107</v>
+        <v>0.465721</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.545748</v>
+        <v>0.548665</v>
       </c>
       <c r="C106" t="n">
-        <v>0.455012</v>
+        <v>0.457664</v>
       </c>
       <c r="D106" t="n">
-        <v>0.460634</v>
+        <v>0.462913</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.553168</v>
+        <v>0.554518</v>
       </c>
       <c r="C107" t="n">
-        <v>0.456448</v>
+        <v>0.45971</v>
       </c>
       <c r="D107" t="n">
-        <v>0.465948</v>
+        <v>0.467378</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.560495</v>
+        <v>0.559932</v>
       </c>
       <c r="C108" t="n">
-        <v>0.460649</v>
+        <v>0.463239</v>
       </c>
       <c r="D108" t="n">
-        <v>0.477691</v>
+        <v>0.479666</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.572535</v>
+        <v>0.572684</v>
       </c>
       <c r="C109" t="n">
-        <v>0.46902</v>
+        <v>0.474379</v>
       </c>
       <c r="D109" t="n">
-        <v>0.486536</v>
+        <v>0.489748</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.611845</v>
+        <v>0.613534</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5583939999999999</v>
+        <v>0.559844</v>
       </c>
       <c r="D110" t="n">
-        <v>0.566802</v>
+        <v>0.565701</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.613494</v>
+        <v>0.612583</v>
       </c>
       <c r="C111" t="n">
-        <v>0.556202</v>
+        <v>0.562204</v>
       </c>
       <c r="D111" t="n">
-        <v>0.568317</v>
+        <v>0.564623</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.61419</v>
+        <v>0.614972</v>
       </c>
       <c r="C112" t="n">
-        <v>0.559295</v>
+        <v>0.564678</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5680190000000001</v>
+        <v>0.570831</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.614061</v>
+        <v>0.616168</v>
       </c>
       <c r="C113" t="n">
-        <v>0.561046</v>
+        <v>0.563354</v>
       </c>
       <c r="D113" t="n">
-        <v>0.567107</v>
+        <v>0.567457</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6147319999999999</v>
+        <v>0.616391</v>
       </c>
       <c r="C114" t="n">
-        <v>0.56043</v>
+        <v>0.5576140000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.566618</v>
+        <v>0.5719880000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.617516</v>
+        <v>0.618113</v>
       </c>
       <c r="C115" t="n">
-        <v>0.560393</v>
+        <v>0.560008</v>
       </c>
       <c r="D115" t="n">
-        <v>0.570522</v>
+        <v>0.57267</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.620102</v>
+        <v>0.619436</v>
       </c>
       <c r="C116" t="n">
-        <v>0.558429</v>
+        <v>0.5661079999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.566094</v>
+        <v>0.566331</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.62154</v>
+        <v>0.62094</v>
       </c>
       <c r="C117" t="n">
-        <v>0.56482</v>
+        <v>0.560541</v>
       </c>
       <c r="D117" t="n">
-        <v>0.573568</v>
+        <v>0.572397</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.62454</v>
+        <v>0.626714</v>
       </c>
       <c r="C118" t="n">
-        <v>0.561366</v>
+        <v>0.563345</v>
       </c>
       <c r="D118" t="n">
-        <v>0.569649</v>
+        <v>0.57285</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.628501</v>
+        <v>0.629383</v>
       </c>
       <c r="C119" t="n">
-        <v>0.56447</v>
+        <v>0.570906</v>
       </c>
       <c r="D119" t="n">
-        <v>0.57383</v>
+        <v>0.579947</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.632475</v>
+        <v>0.634267</v>
       </c>
       <c r="C120" t="n">
-        <v>0.570615</v>
+        <v>0.573452</v>
       </c>
       <c r="D120" t="n">
-        <v>0.580766</v>
+        <v>0.584078</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.639829</v>
+        <v>0.639191</v>
       </c>
       <c r="C121" t="n">
-        <v>0.570476</v>
+        <v>0.577368</v>
       </c>
       <c r="D121" t="n">
-        <v>0.582985</v>
+        <v>0.588452</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.647025</v>
+        <v>0.648941</v>
       </c>
       <c r="C122" t="n">
-        <v>0.578808</v>
+        <v>0.580725</v>
       </c>
       <c r="D122" t="n">
-        <v>0.592882</v>
+        <v>0.5888640000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.661478</v>
+        <v>0.661529</v>
       </c>
       <c r="C123" t="n">
-        <v>0.588296</v>
+        <v>0.591905</v>
       </c>
       <c r="D123" t="n">
-        <v>0.609188</v>
+        <v>0.609401</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.750802</v>
+        <v>0.752015</v>
       </c>
       <c r="C124" t="n">
-        <v>0.685837</v>
+        <v>0.689339</v>
       </c>
       <c r="D124" t="n">
-        <v>0.693585</v>
+        <v>0.6949650000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.75079</v>
+        <v>0.7543800000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.687258</v>
+        <v>0.689957</v>
       </c>
       <c r="D125" t="n">
-        <v>0.691721</v>
+        <v>0.700615</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.750156</v>
+        <v>0.755474</v>
       </c>
       <c r="C126" t="n">
-        <v>0.686717</v>
+        <v>0.688307</v>
       </c>
       <c r="D126" t="n">
-        <v>0.693677</v>
+        <v>0.700464</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.752887</v>
+        <v>0.754061</v>
       </c>
       <c r="C127" t="n">
-        <v>0.688107</v>
+        <v>0.694442</v>
       </c>
       <c r="D127" t="n">
-        <v>0.697383</v>
+        <v>0.703573</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.753986</v>
+        <v>0.755509</v>
       </c>
       <c r="C128" t="n">
-        <v>0.690446</v>
+        <v>0.695499</v>
       </c>
       <c r="D128" t="n">
-        <v>0.696444</v>
+        <v>0.698916</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7553339999999999</v>
+        <v>0.7596580000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.691824</v>
+        <v>0.697816</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6986329999999999</v>
+        <v>0.702833</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.757876</v>
+        <v>0.760277</v>
       </c>
       <c r="C130" t="n">
-        <v>0.695345</v>
+        <v>0.69565</v>
       </c>
       <c r="D130" t="n">
-        <v>0.698829</v>
+        <v>0.706251</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.759422</v>
+        <v>0.761375</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6977719999999999</v>
+        <v>0.701048</v>
       </c>
       <c r="D131" t="n">
-        <v>0.701586</v>
+        <v>0.7085900000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.76357</v>
+        <v>0.76639</v>
       </c>
       <c r="C132" t="n">
-        <v>0.694706</v>
+        <v>0.700102</v>
       </c>
       <c r="D132" t="n">
-        <v>0.705739</v>
+        <v>0.709635</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.768176</v>
+        <v>0.775235</v>
       </c>
       <c r="C133" t="n">
-        <v>0.703412</v>
+        <v>0.703458</v>
       </c>
       <c r="D133" t="n">
-        <v>0.708517</v>
+        <v>0.711523</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.772183</v>
+        <v>0.7757309999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.70865</v>
+        <v>0.70889</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7111769999999999</v>
+        <v>0.711032</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.779537</v>
+        <v>0.783155</v>
       </c>
       <c r="C135" t="n">
-        <v>0.710304</v>
+        <v>0.717032</v>
       </c>
       <c r="D135" t="n">
-        <v>0.717795</v>
+        <v>0.724319</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.787475</v>
+        <v>0.790195</v>
       </c>
       <c r="C136" t="n">
-        <v>0.718462</v>
+        <v>0.723016</v>
       </c>
       <c r="D136" t="n">
-        <v>0.726809</v>
+        <v>0.732423</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.79932</v>
+        <v>0.8031509999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.726658</v>
+        <v>0.730604</v>
       </c>
       <c r="D137" t="n">
-        <v>0.740213</v>
+        <v>0.746611</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.877514</v>
+        <v>0.878548</v>
       </c>
       <c r="C138" t="n">
-        <v>0.80842</v>
+        <v>0.811832</v>
       </c>
       <c r="D138" t="n">
-        <v>0.816307</v>
+        <v>0.81808</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.87745</v>
+        <v>0.878748</v>
       </c>
       <c r="C139" t="n">
-        <v>0.810296</v>
+        <v>0.81431</v>
       </c>
       <c r="D139" t="n">
-        <v>0.819983</v>
+        <v>0.81947</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.876903</v>
+        <v>0.88083</v>
       </c>
       <c r="C140" t="n">
-        <v>0.812338</v>
+        <v>0.813966</v>
       </c>
       <c r="D140" t="n">
-        <v>0.819958</v>
+        <v>0.825645</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.879269</v>
+        <v>0.881027</v>
       </c>
       <c r="C141" t="n">
-        <v>0.812887</v>
+        <v>0.8154979999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.82137</v>
+        <v>0.821674</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.879908</v>
+        <v>0.8818</v>
       </c>
       <c r="C142" t="n">
-        <v>0.814537</v>
+        <v>0.818446</v>
       </c>
       <c r="D142" t="n">
-        <v>0.824062</v>
+        <v>0.827279</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.881759</v>
+        <v>0.882907</v>
       </c>
       <c r="C143" t="n">
-        <v>0.813704</v>
+        <v>0.820226</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8256</v>
+        <v>0.826263</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.132311</v>
+        <v>0.117015</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0930303</v>
+        <v>0.09012000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.106738</v>
+        <v>0.103784</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.122823</v>
+        <v>0.117048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0919336</v>
+        <v>0.0896498</v>
       </c>
       <c r="D3" t="n">
-        <v>0.106237</v>
+        <v>0.104057</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.119822</v>
+        <v>0.117045</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0929883</v>
+        <v>0.08952590000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.101104</v>
+        <v>0.103708</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123115</v>
+        <v>0.118647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09288009999999999</v>
+        <v>0.0902056</v>
       </c>
       <c r="D5" t="n">
-        <v>0.107783</v>
+        <v>0.104596</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.140581</v>
+        <v>0.120876</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09451569999999999</v>
+        <v>0.09051149999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.108249</v>
+        <v>0.105098</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.13435</v>
+        <v>0.125272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0937095</v>
+        <v>0.0915733</v>
       </c>
       <c r="D7" t="n">
-        <v>0.10711</v>
+        <v>0.0997461</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.133246</v>
+        <v>0.131918</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0944808</v>
+        <v>0.0917336</v>
       </c>
       <c r="D8" t="n">
-        <v>0.110599</v>
+        <v>0.107785</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152607</v>
+        <v>0.141391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0987656</v>
+        <v>0.0929079</v>
       </c>
       <c r="D9" t="n">
-        <v>0.108529</v>
+        <v>0.10309</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125623</v>
+        <v>0.125908</v>
       </c>
       <c r="C10" t="n">
-        <v>0.104757</v>
+        <v>0.0980075</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116159</v>
+        <v>0.109301</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.128114</v>
+        <v>0.124717</v>
       </c>
       <c r="C11" t="n">
-        <v>0.104078</v>
+        <v>0.0978933</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110398</v>
+        <v>0.109487</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.129488</v>
+        <v>0.125644</v>
       </c>
       <c r="C12" t="n">
-        <v>0.103185</v>
+        <v>0.0986204</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110246</v>
+        <v>0.109897</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.129698</v>
+        <v>0.127941</v>
       </c>
       <c r="C13" t="n">
-        <v>0.103403</v>
+        <v>0.0981962</v>
       </c>
       <c r="D13" t="n">
-        <v>0.11578</v>
+        <v>0.10957</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12879</v>
+        <v>0.128265</v>
       </c>
       <c r="C14" t="n">
-        <v>0.102222</v>
+        <v>0.09895139999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.109389</v>
+        <v>0.109915</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.131319</v>
+        <v>0.142495</v>
       </c>
       <c r="C15" t="n">
-        <v>0.102672</v>
+        <v>0.09893929999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.116138</v>
+        <v>0.104193</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.12975</v>
+        <v>0.134103</v>
       </c>
       <c r="C16" t="n">
-        <v>0.102953</v>
+        <v>0.09872259999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.110224</v>
+        <v>0.110403</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.133029</v>
+        <v>0.137459</v>
       </c>
       <c r="C17" t="n">
-        <v>0.103467</v>
+        <v>0.0990322</v>
       </c>
       <c r="D17" t="n">
-        <v>0.117491</v>
+        <v>0.110988</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133142</v>
+        <v>0.132859</v>
       </c>
       <c r="C18" t="n">
-        <v>0.103225</v>
+        <v>0.0994384</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113231</v>
+        <v>0.111341</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13534</v>
+        <v>0.135931</v>
       </c>
       <c r="C19" t="n">
-        <v>0.103834</v>
+        <v>0.100657</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117721</v>
+        <v>0.105025</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.137483</v>
+        <v>0.145358</v>
       </c>
       <c r="C20" t="n">
-        <v>0.106082</v>
+        <v>0.100985</v>
       </c>
       <c r="D20" t="n">
-        <v>0.112734</v>
+        <v>0.112185</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.144044</v>
+        <v>0.142853</v>
       </c>
       <c r="C21" t="n">
-        <v>0.105766</v>
+        <v>0.101161</v>
       </c>
       <c r="D21" t="n">
-        <v>0.117102</v>
+        <v>0.110748</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.14973</v>
+        <v>0.150681</v>
       </c>
       <c r="C22" t="n">
-        <v>0.107223</v>
+        <v>0.103784</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124196</v>
+        <v>0.119258</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162486</v>
+        <v>0.164869</v>
       </c>
       <c r="C23" t="n">
-        <v>0.115549</v>
+        <v>0.111186</v>
       </c>
       <c r="D23" t="n">
-        <v>0.137295</v>
+        <v>0.119801</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.13797</v>
+        <v>0.137458</v>
       </c>
       <c r="C24" t="n">
-        <v>0.112287</v>
+        <v>0.108542</v>
       </c>
       <c r="D24" t="n">
-        <v>0.12036</v>
+        <v>0.1194</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135775</v>
+        <v>0.13395</v>
       </c>
       <c r="C25" t="n">
-        <v>0.111546</v>
+        <v>0.108169</v>
       </c>
       <c r="D25" t="n">
-        <v>0.127207</v>
+        <v>0.119623</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137484</v>
+        <v>0.135006</v>
       </c>
       <c r="C26" t="n">
-        <v>0.112027</v>
+        <v>0.108538</v>
       </c>
       <c r="D26" t="n">
-        <v>0.12472</v>
+        <v>0.113892</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135936</v>
+        <v>0.13482</v>
       </c>
       <c r="C27" t="n">
-        <v>0.111868</v>
+        <v>0.108601</v>
       </c>
       <c r="D27" t="n">
-        <v>0.118877</v>
+        <v>0.121853</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.147503</v>
+        <v>0.135916</v>
       </c>
       <c r="C28" t="n">
-        <v>0.111675</v>
+        <v>0.108604</v>
       </c>
       <c r="D28" t="n">
-        <v>0.119457</v>
+        <v>0.114025</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.139195</v>
+        <v>0.13617</v>
       </c>
       <c r="C29" t="n">
-        <v>0.112052</v>
+        <v>0.108887</v>
       </c>
       <c r="D29" t="n">
-        <v>0.125052</v>
+        <v>0.12018</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138101</v>
+        <v>0.137127</v>
       </c>
       <c r="C30" t="n">
-        <v>0.112835</v>
+        <v>0.109993</v>
       </c>
       <c r="D30" t="n">
-        <v>0.125107</v>
+        <v>0.120528</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.140445</v>
+        <v>0.139702</v>
       </c>
       <c r="C31" t="n">
-        <v>0.112127</v>
+        <v>0.109447</v>
       </c>
       <c r="D31" t="n">
-        <v>0.125423</v>
+        <v>0.11505</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141172</v>
+        <v>0.140747</v>
       </c>
       <c r="C32" t="n">
-        <v>0.113057</v>
+        <v>0.111002</v>
       </c>
       <c r="D32" t="n">
-        <v>0.120022</v>
+        <v>0.121128</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144997</v>
+        <v>0.144937</v>
       </c>
       <c r="C33" t="n">
-        <v>0.113928</v>
+        <v>0.112059</v>
       </c>
       <c r="D33" t="n">
-        <v>0.125839</v>
+        <v>0.11552</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.148928</v>
+        <v>0.14879</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116879</v>
+        <v>0.11448</v>
       </c>
       <c r="D34" t="n">
-        <v>0.127057</v>
+        <v>0.122497</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153822</v>
+        <v>0.160477</v>
       </c>
       <c r="C35" t="n">
-        <v>0.121117</v>
+        <v>0.117685</v>
       </c>
       <c r="D35" t="n">
-        <v>0.128165</v>
+        <v>0.121017</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.164605</v>
+        <v>0.166265</v>
       </c>
       <c r="C36" t="n">
-        <v>0.124643</v>
+        <v>0.122001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.138438</v>
+        <v>0.134827</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167236</v>
+        <v>0.167219</v>
       </c>
       <c r="C37" t="n">
-        <v>0.136831</v>
+        <v>0.133455</v>
       </c>
       <c r="D37" t="n">
-        <v>0.148628</v>
+        <v>0.131569</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147641</v>
+        <v>0.149114</v>
       </c>
       <c r="C38" t="n">
-        <v>0.123816</v>
+        <v>0.118048</v>
       </c>
       <c r="D38" t="n">
-        <v>0.135828</v>
+        <v>0.126114</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.152478</v>
+        <v>0.148644</v>
       </c>
       <c r="C39" t="n">
-        <v>0.123864</v>
+        <v>0.119463</v>
       </c>
       <c r="D39" t="n">
-        <v>0.134374</v>
+        <v>0.125266</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.149145</v>
+        <v>0.147994</v>
       </c>
       <c r="C40" t="n">
-        <v>0.124553</v>
+        <v>0.119805</v>
       </c>
       <c r="D40" t="n">
-        <v>0.136648</v>
+        <v>0.132787</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149199</v>
+        <v>0.15106</v>
       </c>
       <c r="C41" t="n">
-        <v>0.125195</v>
+        <v>0.120371</v>
       </c>
       <c r="D41" t="n">
-        <v>0.136056</v>
+        <v>0.131193</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150858</v>
+        <v>0.149514</v>
       </c>
       <c r="C42" t="n">
-        <v>0.124624</v>
+        <v>0.121063</v>
       </c>
       <c r="D42" t="n">
-        <v>0.137168</v>
+        <v>0.132168</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150531</v>
+        <v>0.149872</v>
       </c>
       <c r="C43" t="n">
-        <v>0.123522</v>
+        <v>0.122383</v>
       </c>
       <c r="D43" t="n">
-        <v>0.131683</v>
+        <v>0.128065</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.152612</v>
+        <v>0.151288</v>
       </c>
       <c r="C44" t="n">
-        <v>0.126473</v>
+        <v>0.123094</v>
       </c>
       <c r="D44" t="n">
-        <v>0.132532</v>
+        <v>0.128585</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152338</v>
+        <v>0.149686</v>
       </c>
       <c r="C45" t="n">
-        <v>0.126864</v>
+        <v>0.125006</v>
       </c>
       <c r="D45" t="n">
-        <v>0.132451</v>
+        <v>0.133825</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.156396</v>
+        <v>0.154769</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128486</v>
+        <v>0.125224</v>
       </c>
       <c r="D46" t="n">
-        <v>0.131214</v>
+        <v>0.134152</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.160779</v>
+        <v>0.159014</v>
       </c>
       <c r="C47" t="n">
-        <v>0.129247</v>
+        <v>0.127578</v>
       </c>
       <c r="D47" t="n">
-        <v>0.132499</v>
+        <v>0.13018</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.161535</v>
+        <v>0.161239</v>
       </c>
       <c r="C48" t="n">
-        <v>0.131514</v>
+        <v>0.13499</v>
       </c>
       <c r="D48" t="n">
-        <v>0.136079</v>
+        <v>0.138205</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165732</v>
+        <v>0.165575</v>
       </c>
       <c r="C49" t="n">
-        <v>0.133352</v>
+        <v>0.131726</v>
       </c>
       <c r="D49" t="n">
-        <v>0.144039</v>
+        <v>0.135871</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172354</v>
+        <v>0.171198</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136593</v>
+        <v>0.139701</v>
       </c>
       <c r="D50" t="n">
-        <v>0.142797</v>
+        <v>0.146634</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178259</v>
+        <v>0.177628</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147628</v>
+        <v>0.138244</v>
       </c>
       <c r="D51" t="n">
-        <v>0.157191</v>
+        <v>0.145513</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.192244</v>
+        <v>0.190475</v>
       </c>
       <c r="C52" t="n">
-        <v>0.146313</v>
+        <v>0.149189</v>
       </c>
       <c r="D52" t="n">
-        <v>0.161923</v>
+        <v>0.145324</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.16029</v>
+        <v>0.161999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.133341</v>
+        <v>0.129861</v>
       </c>
       <c r="D53" t="n">
-        <v>0.142126</v>
+        <v>0.145511</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160524</v>
+        <v>0.161145</v>
       </c>
       <c r="C54" t="n">
-        <v>0.133641</v>
+        <v>0.130267</v>
       </c>
       <c r="D54" t="n">
-        <v>0.142265</v>
+        <v>0.140251</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.165098</v>
+        <v>0.161678</v>
       </c>
       <c r="C55" t="n">
-        <v>0.134515</v>
+        <v>0.130936</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148455</v>
+        <v>0.145393</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162558</v>
+        <v>0.162247</v>
       </c>
       <c r="C56" t="n">
-        <v>0.134644</v>
+        <v>0.132377</v>
       </c>
       <c r="D56" t="n">
-        <v>0.141518</v>
+        <v>0.141588</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162841</v>
+        <v>0.164118</v>
       </c>
       <c r="C57" t="n">
-        <v>0.136164</v>
+        <v>0.13339</v>
       </c>
       <c r="D57" t="n">
-        <v>0.142775</v>
+        <v>0.146499</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164659</v>
+        <v>0.164072</v>
       </c>
       <c r="C58" t="n">
-        <v>0.135857</v>
+        <v>0.134534</v>
       </c>
       <c r="D58" t="n">
-        <v>0.142107</v>
+        <v>0.143036</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166403</v>
+        <v>0.165762</v>
       </c>
       <c r="C59" t="n">
-        <v>0.136215</v>
+        <v>0.135477</v>
       </c>
       <c r="D59" t="n">
-        <v>0.148425</v>
+        <v>0.147371</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.172658</v>
+        <v>0.167788</v>
       </c>
       <c r="C60" t="n">
-        <v>0.138811</v>
+        <v>0.136755</v>
       </c>
       <c r="D60" t="n">
-        <v>0.149406</v>
+        <v>0.149077</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.170493</v>
+        <v>0.169063</v>
       </c>
       <c r="C61" t="n">
-        <v>0.139991</v>
+        <v>0.137831</v>
       </c>
       <c r="D61" t="n">
-        <v>0.151371</v>
+        <v>0.149522</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173614</v>
+        <v>0.172729</v>
       </c>
       <c r="C62" t="n">
-        <v>0.143974</v>
+        <v>0.139558</v>
       </c>
       <c r="D62" t="n">
-        <v>0.153205</v>
+        <v>0.152564</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177318</v>
+        <v>0.176741</v>
       </c>
       <c r="C63" t="n">
-        <v>0.143235</v>
+        <v>0.141657</v>
       </c>
       <c r="D63" t="n">
-        <v>0.149517</v>
+        <v>0.150287</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.183283</v>
+        <v>0.180789</v>
       </c>
       <c r="C64" t="n">
-        <v>0.151515</v>
+        <v>0.144705</v>
       </c>
       <c r="D64" t="n">
-        <v>0.158286</v>
+        <v>0.160836</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.188889</v>
+        <v>0.189309</v>
       </c>
       <c r="C65" t="n">
-        <v>0.153966</v>
+        <v>0.149634</v>
       </c>
       <c r="D65" t="n">
-        <v>0.163277</v>
+        <v>0.161386</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.200244</v>
+        <v>0.198258</v>
       </c>
       <c r="C66" t="n">
-        <v>0.154337</v>
+        <v>0.154627</v>
       </c>
       <c r="D66" t="n">
-        <v>0.169761</v>
+        <v>0.154107</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.183353</v>
+        <v>0.182668</v>
       </c>
       <c r="C67" t="n">
-        <v>0.150005</v>
+        <v>0.145128</v>
       </c>
       <c r="D67" t="n">
-        <v>0.165004</v>
+        <v>0.156091</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.185539</v>
+        <v>0.180514</v>
       </c>
       <c r="C68" t="n">
-        <v>0.149498</v>
+        <v>0.147571</v>
       </c>
       <c r="D68" t="n">
-        <v>0.160445</v>
+        <v>0.160761</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186776</v>
+        <v>0.183721</v>
       </c>
       <c r="C69" t="n">
-        <v>0.154618</v>
+        <v>0.148632</v>
       </c>
       <c r="D69" t="n">
-        <v>0.159927</v>
+        <v>0.15552</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182813</v>
+        <v>0.182536</v>
       </c>
       <c r="C70" t="n">
-        <v>0.153758</v>
+        <v>0.148476</v>
       </c>
       <c r="D70" t="n">
-        <v>0.166266</v>
+        <v>0.156358</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.185267</v>
+        <v>0.190965</v>
       </c>
       <c r="C71" t="n">
-        <v>0.156254</v>
+        <v>0.151809</v>
       </c>
       <c r="D71" t="n">
-        <v>0.161363</v>
+        <v>0.162042</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.186942</v>
+        <v>0.189349</v>
       </c>
       <c r="C72" t="n">
-        <v>0.155344</v>
+        <v>0.151142</v>
       </c>
       <c r="D72" t="n">
-        <v>0.165631</v>
+        <v>0.158492</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.18663</v>
+        <v>0.186808</v>
       </c>
       <c r="C73" t="n">
-        <v>0.158168</v>
+        <v>0.153812</v>
       </c>
       <c r="D73" t="n">
-        <v>0.163172</v>
+        <v>0.159079</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.189069</v>
+        <v>0.191844</v>
       </c>
       <c r="C74" t="n">
-        <v>0.15957</v>
+        <v>0.155676</v>
       </c>
       <c r="D74" t="n">
-        <v>0.163356</v>
+        <v>0.16032</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.192051</v>
+        <v>0.193809</v>
       </c>
       <c r="C75" t="n">
-        <v>0.158325</v>
+        <v>0.15672</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1688</v>
+        <v>0.166316</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.196388</v>
+        <v>0.194074</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157994</v>
+        <v>0.157309</v>
       </c>
       <c r="D76" t="n">
-        <v>0.170183</v>
+        <v>0.166844</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198645</v>
+        <v>0.198658</v>
       </c>
       <c r="C77" t="n">
-        <v>0.166566</v>
+        <v>0.158906</v>
       </c>
       <c r="D77" t="n">
-        <v>0.174241</v>
+        <v>0.165054</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208799</v>
+        <v>0.200454</v>
       </c>
       <c r="C78" t="n">
-        <v>0.160357</v>
+        <v>0.159981</v>
       </c>
       <c r="D78" t="n">
-        <v>0.172879</v>
+        <v>0.173123</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.20835</v>
+        <v>0.204882</v>
       </c>
       <c r="C79" t="n">
-        <v>0.167666</v>
+        <v>0.170819</v>
       </c>
       <c r="D79" t="n">
-        <v>0.181079</v>
+        <v>0.179183</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.215076</v>
+        <v>0.214441</v>
       </c>
       <c r="C80" t="n">
-        <v>0.16968</v>
+        <v>0.173442</v>
       </c>
       <c r="D80" t="n">
-        <v>0.184793</v>
+        <v>0.2428</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.360502</v>
+        <v>0.36288</v>
       </c>
       <c r="C81" t="n">
-        <v>0.288221</v>
+        <v>0.289046</v>
       </c>
       <c r="D81" t="n">
-        <v>0.298018</v>
+        <v>0.240986</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.364087</v>
+        <v>0.363843</v>
       </c>
       <c r="C82" t="n">
-        <v>0.291872</v>
+        <v>0.283475</v>
       </c>
       <c r="D82" t="n">
-        <v>0.288264</v>
+        <v>0.237845</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.367414</v>
+        <v>0.362026</v>
       </c>
       <c r="C83" t="n">
-        <v>0.28602</v>
+        <v>0.285754</v>
       </c>
       <c r="D83" t="n">
-        <v>0.284721</v>
+        <v>0.23443</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.36519</v>
+        <v>0.366307</v>
       </c>
       <c r="C84" t="n">
-        <v>0.284036</v>
+        <v>0.280151</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298559</v>
+        <v>0.241378</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.366267</v>
+        <v>0.362478</v>
       </c>
       <c r="C85" t="n">
-        <v>0.273423</v>
+        <v>0.284114</v>
       </c>
       <c r="D85" t="n">
-        <v>0.294168</v>
+        <v>0.23173</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.38421</v>
+        <v>0.373319</v>
       </c>
       <c r="C86" t="n">
-        <v>0.279894</v>
+        <v>0.278324</v>
       </c>
       <c r="D86" t="n">
-        <v>0.29755</v>
+        <v>0.241283</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.369314</v>
+        <v>0.368244</v>
       </c>
       <c r="C87" t="n">
-        <v>0.285898</v>
+        <v>0.282045</v>
       </c>
       <c r="D87" t="n">
-        <v>0.288418</v>
+        <v>0.239728</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.376383</v>
+        <v>0.37171</v>
       </c>
       <c r="C88" t="n">
-        <v>0.282198</v>
+        <v>0.279307</v>
       </c>
       <c r="D88" t="n">
-        <v>0.291527</v>
+        <v>0.238111</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.375962</v>
+        <v>0.373733</v>
       </c>
       <c r="C89" t="n">
-        <v>0.283584</v>
+        <v>0.279031</v>
       </c>
       <c r="D89" t="n">
-        <v>0.292417</v>
+        <v>0.237919</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.378557</v>
+        <v>0.374331</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278368</v>
+        <v>0.278448</v>
       </c>
       <c r="D90" t="n">
-        <v>0.283651</v>
+        <v>0.236724</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.382841</v>
+        <v>0.376159</v>
       </c>
       <c r="C91" t="n">
-        <v>0.279435</v>
+        <v>0.276225</v>
       </c>
       <c r="D91" t="n">
-        <v>0.283046</v>
+        <v>0.23733</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.382436</v>
+        <v>0.379751</v>
       </c>
       <c r="C92" t="n">
-        <v>0.280542</v>
+        <v>0.276855</v>
       </c>
       <c r="D92" t="n">
-        <v>0.291264</v>
+        <v>0.234222</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.389077</v>
+        <v>0.382259</v>
       </c>
       <c r="C93" t="n">
-        <v>0.290877</v>
+        <v>0.277744</v>
       </c>
       <c r="D93" t="n">
-        <v>0.290915</v>
+        <v>0.243046</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.394936</v>
+        <v>0.389442</v>
       </c>
       <c r="C94" t="n">
-        <v>0.28322</v>
+        <v>0.281621</v>
       </c>
       <c r="D94" t="n">
-        <v>0.303622</v>
+        <v>0.400885</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.535155</v>
+        <v>0.530846</v>
       </c>
       <c r="C95" t="n">
-        <v>0.457602</v>
+        <v>0.451263</v>
       </c>
       <c r="D95" t="n">
-        <v>0.464631</v>
+        <v>0.399824</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.535379</v>
+        <v>0.531589</v>
       </c>
       <c r="C96" t="n">
-        <v>0.456403</v>
+        <v>0.45081</v>
       </c>
       <c r="D96" t="n">
-        <v>0.462962</v>
+        <v>0.398394</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.535064</v>
+        <v>0.5314140000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.456214</v>
+        <v>0.450141</v>
       </c>
       <c r="D97" t="n">
-        <v>0.462335</v>
+        <v>0.401739</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.535698</v>
+        <v>0.531188</v>
       </c>
       <c r="C98" t="n">
-        <v>0.45609</v>
+        <v>0.449634</v>
       </c>
       <c r="D98" t="n">
-        <v>0.461628</v>
+        <v>0.396903</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.536026</v>
+        <v>0.533547</v>
       </c>
       <c r="C99" t="n">
-        <v>0.454475</v>
+        <v>0.440917</v>
       </c>
       <c r="D99" t="n">
-        <v>0.447227</v>
+        <v>0.393364</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.538155</v>
+        <v>0.533813</v>
       </c>
       <c r="C100" t="n">
-        <v>0.454549</v>
+        <v>0.448443</v>
       </c>
       <c r="D100" t="n">
-        <v>0.460123</v>
+        <v>0.389157</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.538901</v>
+        <v>0.534552</v>
       </c>
       <c r="C101" t="n">
-        <v>0.453283</v>
+        <v>0.440925</v>
       </c>
       <c r="D101" t="n">
-        <v>0.458387</v>
+        <v>0.401593</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.538282</v>
+        <v>0.536153</v>
       </c>
       <c r="C102" t="n">
-        <v>0.452319</v>
+        <v>0.449127</v>
       </c>
       <c r="D102" t="n">
-        <v>0.461931</v>
+        <v>0.403011</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.540442</v>
+        <v>0.538034</v>
       </c>
       <c r="C103" t="n">
-        <v>0.454103</v>
+        <v>0.441239</v>
       </c>
       <c r="D103" t="n">
-        <v>0.451833</v>
+        <v>0.402595</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5419040000000001</v>
+        <v>0.540992</v>
       </c>
       <c r="C104" t="n">
-        <v>0.448495</v>
+        <v>0.45071</v>
       </c>
       <c r="D104" t="n">
-        <v>0.462942</v>
+        <v>0.400609</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.544547</v>
+        <v>0.544248</v>
       </c>
       <c r="C105" t="n">
-        <v>0.448596</v>
+        <v>0.452425</v>
       </c>
       <c r="D105" t="n">
-        <v>0.465721</v>
+        <v>0.402499</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.548665</v>
+        <v>0.548145</v>
       </c>
       <c r="C106" t="n">
-        <v>0.457664</v>
+        <v>0.454327</v>
       </c>
       <c r="D106" t="n">
-        <v>0.462913</v>
+        <v>0.410117</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.554518</v>
+        <v>0.55191</v>
       </c>
       <c r="C107" t="n">
-        <v>0.45971</v>
+        <v>0.457225</v>
       </c>
       <c r="D107" t="n">
-        <v>0.467378</v>
+        <v>0.411184</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.559932</v>
+        <v>0.56057</v>
       </c>
       <c r="C108" t="n">
-        <v>0.463239</v>
+        <v>0.462607</v>
       </c>
       <c r="D108" t="n">
-        <v>0.479666</v>
+        <v>0.528773</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.572684</v>
+        <v>0.572086</v>
       </c>
       <c r="C109" t="n">
-        <v>0.474379</v>
+        <v>0.470449</v>
       </c>
       <c r="D109" t="n">
-        <v>0.489748</v>
+        <v>0.533639</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.613534</v>
+        <v>0.611965</v>
       </c>
       <c r="C110" t="n">
-        <v>0.559844</v>
+        <v>0.5570619999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.565701</v>
+        <v>0.532736</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.612583</v>
+        <v>0.6112919999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.562204</v>
+        <v>0.557456</v>
       </c>
       <c r="D111" t="n">
-        <v>0.564623</v>
+        <v>0.535423</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.614972</v>
+        <v>0.612514</v>
       </c>
       <c r="C112" t="n">
-        <v>0.564678</v>
+        <v>0.55814</v>
       </c>
       <c r="D112" t="n">
-        <v>0.570831</v>
+        <v>0.536358</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.616168</v>
+        <v>0.61285</v>
       </c>
       <c r="C113" t="n">
-        <v>0.563354</v>
+        <v>0.558941</v>
       </c>
       <c r="D113" t="n">
-        <v>0.567457</v>
+        <v>0.531832</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.616391</v>
+        <v>0.612886</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5576140000000001</v>
+        <v>0.55982</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5719880000000001</v>
+        <v>0.533311</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.618113</v>
+        <v>0.616516</v>
       </c>
       <c r="C115" t="n">
-        <v>0.560008</v>
+        <v>0.560194</v>
       </c>
       <c r="D115" t="n">
-        <v>0.57267</v>
+        <v>0.531617</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.619436</v>
+        <v>0.617381</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5661079999999999</v>
+        <v>0.560818</v>
       </c>
       <c r="D116" t="n">
-        <v>0.566331</v>
+        <v>0.53295</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.62094</v>
+        <v>0.619552</v>
       </c>
       <c r="C117" t="n">
-        <v>0.560541</v>
+        <v>0.5620579999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.572397</v>
+        <v>0.544486</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626714</v>
+        <v>0.625022</v>
       </c>
       <c r="C118" t="n">
-        <v>0.563345</v>
+        <v>0.564501</v>
       </c>
       <c r="D118" t="n">
-        <v>0.57285</v>
+        <v>0.538349</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.629383</v>
+        <v>0.62529</v>
       </c>
       <c r="C119" t="n">
-        <v>0.570906</v>
+        <v>0.562603</v>
       </c>
       <c r="D119" t="n">
-        <v>0.579947</v>
+        <v>0.545996</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.634267</v>
+        <v>0.632962</v>
       </c>
       <c r="C120" t="n">
-        <v>0.573452</v>
+        <v>0.570778</v>
       </c>
       <c r="D120" t="n">
-        <v>0.584078</v>
+        <v>0.550374</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.639191</v>
+        <v>0.63975</v>
       </c>
       <c r="C121" t="n">
-        <v>0.577368</v>
+        <v>0.574981</v>
       </c>
       <c r="D121" t="n">
-        <v>0.588452</v>
+        <v>0.558169</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.648941</v>
+        <v>0.64736</v>
       </c>
       <c r="C122" t="n">
-        <v>0.580725</v>
+        <v>0.581151</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5888640000000001</v>
+        <v>0.569006</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.661529</v>
+        <v>0.66204</v>
       </c>
       <c r="C123" t="n">
-        <v>0.591905</v>
+        <v>0.5921380000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.609401</v>
+        <v>0.69097</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.752015</v>
+        <v>0.750449</v>
       </c>
       <c r="C124" t="n">
-        <v>0.689339</v>
+        <v>0.678365</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6949650000000001</v>
+        <v>0.694871</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7543800000000001</v>
+        <v>0.753367</v>
       </c>
       <c r="C125" t="n">
-        <v>0.689957</v>
+        <v>0.686049</v>
       </c>
       <c r="D125" t="n">
-        <v>0.700615</v>
+        <v>0.695354</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.755474</v>
+        <v>0.751901</v>
       </c>
       <c r="C126" t="n">
-        <v>0.688307</v>
+        <v>0.6849229999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.700464</v>
+        <v>0.695909</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.754061</v>
+        <v>0.753614</v>
       </c>
       <c r="C127" t="n">
-        <v>0.694442</v>
+        <v>0.687138</v>
       </c>
       <c r="D127" t="n">
-        <v>0.703573</v>
+        <v>0.694604</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.755509</v>
+        <v>0.753219</v>
       </c>
       <c r="C128" t="n">
-        <v>0.695499</v>
+        <v>0.690437</v>
       </c>
       <c r="D128" t="n">
-        <v>0.698916</v>
+        <v>0.699404</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7596580000000001</v>
+        <v>0.757115</v>
       </c>
       <c r="C129" t="n">
-        <v>0.697816</v>
+        <v>0.691361</v>
       </c>
       <c r="D129" t="n">
-        <v>0.702833</v>
+        <v>0.698108</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.760277</v>
+        <v>0.756927</v>
       </c>
       <c r="C130" t="n">
-        <v>0.69565</v>
+        <v>0.695141</v>
       </c>
       <c r="D130" t="n">
-        <v>0.706251</v>
+        <v>0.702367</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.761375</v>
+        <v>0.761226</v>
       </c>
       <c r="C131" t="n">
-        <v>0.701048</v>
+        <v>0.695856</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7085900000000001</v>
+        <v>0.702851</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.76639</v>
+        <v>0.764354</v>
       </c>
       <c r="C132" t="n">
-        <v>0.700102</v>
+        <v>0.697739</v>
       </c>
       <c r="D132" t="n">
-        <v>0.709635</v>
+        <v>0.702431</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.775235</v>
+        <v>0.765628</v>
       </c>
       <c r="C133" t="n">
-        <v>0.703458</v>
+        <v>0.7005</v>
       </c>
       <c r="D133" t="n">
-        <v>0.711523</v>
+        <v>0.70552</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7757309999999999</v>
+        <v>0.769922</v>
       </c>
       <c r="C134" t="n">
-        <v>0.70889</v>
+        <v>0.700949</v>
       </c>
       <c r="D134" t="n">
-        <v>0.711032</v>
+        <v>0.707292</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.783155</v>
+        <v>0.778087</v>
       </c>
       <c r="C135" t="n">
-        <v>0.717032</v>
+        <v>0.710402</v>
       </c>
       <c r="D135" t="n">
-        <v>0.724319</v>
+        <v>0.715062</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.790195</v>
+        <v>0.784058</v>
       </c>
       <c r="C136" t="n">
-        <v>0.723016</v>
+        <v>0.717293</v>
       </c>
       <c r="D136" t="n">
-        <v>0.732423</v>
+        <v>0.728664</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8031509999999999</v>
+        <v>0.797045</v>
       </c>
       <c r="C137" t="n">
-        <v>0.730604</v>
+        <v>0.726557</v>
       </c>
       <c r="D137" t="n">
-        <v>0.746611</v>
+        <v>0.828897</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.878548</v>
+        <v>0.872916</v>
       </c>
       <c r="C138" t="n">
-        <v>0.811832</v>
+        <v>0.805306</v>
       </c>
       <c r="D138" t="n">
-        <v>0.81808</v>
+        <v>0.8298450000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.878748</v>
+        <v>0.873153</v>
       </c>
       <c r="C139" t="n">
-        <v>0.81431</v>
+        <v>0.806778</v>
       </c>
       <c r="D139" t="n">
-        <v>0.81947</v>
+        <v>0.825354</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.88083</v>
+        <v>0.874156</v>
       </c>
       <c r="C140" t="n">
-        <v>0.813966</v>
+        <v>0.807399</v>
       </c>
       <c r="D140" t="n">
-        <v>0.825645</v>
+        <v>0.826713</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.881027</v>
+        <v>0.875174</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8154979999999999</v>
+        <v>0.808014</v>
       </c>
       <c r="D141" t="n">
-        <v>0.821674</v>
+        <v>0.833587</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8818</v>
+        <v>0.876609</v>
       </c>
       <c r="C142" t="n">
-        <v>0.818446</v>
+        <v>0.811322</v>
       </c>
       <c r="D142" t="n">
-        <v>0.827279</v>
+        <v>0.82686</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.882907</v>
+        <v>0.876894</v>
       </c>
       <c r="C143" t="n">
-        <v>0.820226</v>
+        <v>0.8115869999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.826263</v>
+        <v>0.829349</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.117015</v>
+        <v>0.120591</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09012000000000001</v>
+        <v>0.0929359</v>
       </c>
       <c r="D2" t="n">
-        <v>0.103784</v>
+        <v>0.10532</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117048</v>
+        <v>0.121128</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0896498</v>
+        <v>0.0924093</v>
       </c>
       <c r="D3" t="n">
-        <v>0.104057</v>
+        <v>0.09890740000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117045</v>
+        <v>0.121024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08952590000000001</v>
+        <v>0.09388100000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.103708</v>
+        <v>0.106654</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118647</v>
+        <v>0.123225</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0902056</v>
+        <v>0.09305380000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.104596</v>
+        <v>0.106071</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.120876</v>
+        <v>0.12495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09051149999999999</v>
+        <v>0.0931632</v>
       </c>
       <c r="D6" t="n">
-        <v>0.105098</v>
+        <v>0.106637</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.125272</v>
+        <v>0.127358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0915733</v>
+        <v>0.0933721</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0997461</v>
+        <v>0.10028</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.131918</v>
+        <v>0.134272</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0917336</v>
+        <v>0.09456050000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.107785</v>
+        <v>0.109091</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.141391</v>
+        <v>0.146128</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0929079</v>
+        <v>0.09720959999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.10309</v>
+        <v>0.102545</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125908</v>
+        <v>0.126313</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0980075</v>
+        <v>0.0994698</v>
       </c>
       <c r="D10" t="n">
-        <v>0.109301</v>
+        <v>0.109716</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124717</v>
+        <v>0.132858</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0978933</v>
+        <v>0.0990186</v>
       </c>
       <c r="D11" t="n">
-        <v>0.109487</v>
+        <v>0.109687</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125644</v>
+        <v>0.126279</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0986204</v>
+        <v>0.0978871</v>
       </c>
       <c r="D12" t="n">
-        <v>0.109897</v>
+        <v>0.103151</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.127941</v>
+        <v>0.128869</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0981962</v>
+        <v>0.0985254</v>
       </c>
       <c r="D13" t="n">
-        <v>0.10957</v>
+        <v>0.10953</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128265</v>
+        <v>0.129404</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09895139999999999</v>
+        <v>0.09850150000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.109915</v>
+        <v>0.109947</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.142495</v>
+        <v>0.134047</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09893929999999999</v>
+        <v>0.0985482</v>
       </c>
       <c r="D15" t="n">
-        <v>0.104193</v>
+        <v>0.103666</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.134103</v>
+        <v>0.128633</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09872259999999999</v>
+        <v>0.0994942</v>
       </c>
       <c r="D16" t="n">
-        <v>0.110403</v>
+        <v>0.105339</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.137459</v>
+        <v>0.130044</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0990322</v>
+        <v>0.0990332</v>
       </c>
       <c r="D17" t="n">
-        <v>0.110988</v>
+        <v>0.104438</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.132859</v>
+        <v>0.128563</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0994384</v>
+        <v>0.09897350000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.111341</v>
+        <v>0.104301</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135931</v>
+        <v>0.137515</v>
       </c>
       <c r="C19" t="n">
-        <v>0.100657</v>
+        <v>0.09962020000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.105025</v>
+        <v>0.111778</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.145358</v>
+        <v>0.137203</v>
       </c>
       <c r="C20" t="n">
-        <v>0.100985</v>
+        <v>0.100893</v>
       </c>
       <c r="D20" t="n">
-        <v>0.112185</v>
+        <v>0.112452</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.142853</v>
+        <v>0.145157</v>
       </c>
       <c r="C21" t="n">
-        <v>0.101161</v>
+        <v>0.102171</v>
       </c>
       <c r="D21" t="n">
-        <v>0.110748</v>
+        <v>0.114082</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.150681</v>
+        <v>0.14985</v>
       </c>
       <c r="C22" t="n">
-        <v>0.103784</v>
+        <v>0.103613</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119258</v>
+        <v>0.119168</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164869</v>
+        <v>0.166067</v>
       </c>
       <c r="C23" t="n">
-        <v>0.111186</v>
+        <v>0.110154</v>
       </c>
       <c r="D23" t="n">
-        <v>0.119801</v>
+        <v>0.119355</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.137458</v>
+        <v>0.135912</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108542</v>
+        <v>0.108547</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1194</v>
+        <v>0.119133</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13395</v>
+        <v>0.134349</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108169</v>
+        <v>0.107962</v>
       </c>
       <c r="D25" t="n">
-        <v>0.119623</v>
+        <v>0.119228</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135006</v>
+        <v>0.135539</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108538</v>
+        <v>0.10862</v>
       </c>
       <c r="D26" t="n">
-        <v>0.113892</v>
+        <v>0.116079</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.13482</v>
+        <v>0.135411</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108601</v>
+        <v>0.108297</v>
       </c>
       <c r="D27" t="n">
-        <v>0.121853</v>
+        <v>0.119605</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135916</v>
+        <v>0.136821</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108604</v>
+        <v>0.109391</v>
       </c>
       <c r="D28" t="n">
-        <v>0.114025</v>
+        <v>0.119729</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.13617</v>
+        <v>0.1357</v>
       </c>
       <c r="C29" t="n">
-        <v>0.108887</v>
+        <v>0.109053</v>
       </c>
       <c r="D29" t="n">
-        <v>0.12018</v>
+        <v>0.114285</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137127</v>
+        <v>0.138048</v>
       </c>
       <c r="C30" t="n">
-        <v>0.109993</v>
+        <v>0.109028</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120528</v>
+        <v>0.120537</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139702</v>
+        <v>0.139584</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109447</v>
+        <v>0.109601</v>
       </c>
       <c r="D31" t="n">
-        <v>0.11505</v>
+        <v>0.114495</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140747</v>
+        <v>0.140972</v>
       </c>
       <c r="C32" t="n">
-        <v>0.111002</v>
+        <v>0.110303</v>
       </c>
       <c r="D32" t="n">
-        <v>0.121128</v>
+        <v>0.11474</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144937</v>
+        <v>0.142776</v>
       </c>
       <c r="C33" t="n">
-        <v>0.112059</v>
+        <v>0.112139</v>
       </c>
       <c r="D33" t="n">
-        <v>0.11552</v>
+        <v>0.115705</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.14879</v>
+        <v>0.148002</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11448</v>
+        <v>0.114923</v>
       </c>
       <c r="D34" t="n">
-        <v>0.122497</v>
+        <v>0.117466</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.160477</v>
+        <v>0.160604</v>
       </c>
       <c r="C35" t="n">
-        <v>0.117685</v>
+        <v>0.117654</v>
       </c>
       <c r="D35" t="n">
-        <v>0.121017</v>
+        <v>0.126738</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.166265</v>
+        <v>0.167364</v>
       </c>
       <c r="C36" t="n">
-        <v>0.122001</v>
+        <v>0.122376</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134827</v>
+        <v>0.134591</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167219</v>
+        <v>0.176139</v>
       </c>
       <c r="C37" t="n">
-        <v>0.133455</v>
+        <v>0.127613</v>
       </c>
       <c r="D37" t="n">
-        <v>0.131569</v>
+        <v>0.125879</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.149114</v>
+        <v>0.147123</v>
       </c>
       <c r="C38" t="n">
-        <v>0.118048</v>
+        <v>0.119735</v>
       </c>
       <c r="D38" t="n">
-        <v>0.126114</v>
+        <v>0.12698</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148644</v>
+        <v>0.149314</v>
       </c>
       <c r="C39" t="n">
-        <v>0.119463</v>
+        <v>0.119766</v>
       </c>
       <c r="D39" t="n">
-        <v>0.125266</v>
+        <v>0.132067</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147994</v>
+        <v>0.148895</v>
       </c>
       <c r="C40" t="n">
-        <v>0.119805</v>
+        <v>0.120373</v>
       </c>
       <c r="D40" t="n">
-        <v>0.132787</v>
+        <v>0.127015</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.15106</v>
+        <v>0.158255</v>
       </c>
       <c r="C41" t="n">
-        <v>0.120371</v>
+        <v>0.120332</v>
       </c>
       <c r="D41" t="n">
-        <v>0.131193</v>
+        <v>0.133209</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149514</v>
+        <v>0.151071</v>
       </c>
       <c r="C42" t="n">
-        <v>0.121063</v>
+        <v>0.121552</v>
       </c>
       <c r="D42" t="n">
-        <v>0.132168</v>
+        <v>0.127869</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149872</v>
+        <v>0.151407</v>
       </c>
       <c r="C43" t="n">
-        <v>0.122383</v>
+        <v>0.122593</v>
       </c>
       <c r="D43" t="n">
-        <v>0.128065</v>
+        <v>0.128053</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151288</v>
+        <v>0.154988</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123094</v>
+        <v>0.124103</v>
       </c>
       <c r="D44" t="n">
-        <v>0.128585</v>
+        <v>0.129633</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.149686</v>
+        <v>0.153609</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125006</v>
+        <v>0.125049</v>
       </c>
       <c r="D45" t="n">
-        <v>0.133825</v>
+        <v>0.13474</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.154769</v>
+        <v>0.157425</v>
       </c>
       <c r="C46" t="n">
-        <v>0.125224</v>
+        <v>0.126802</v>
       </c>
       <c r="D46" t="n">
-        <v>0.134152</v>
+        <v>0.135168</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.159014</v>
+        <v>0.160669</v>
       </c>
       <c r="C47" t="n">
-        <v>0.127578</v>
+        <v>0.12817</v>
       </c>
       <c r="D47" t="n">
-        <v>0.13018</v>
+        <v>0.129963</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.161239</v>
+        <v>0.162173</v>
       </c>
       <c r="C48" t="n">
-        <v>0.13499</v>
+        <v>0.129187</v>
       </c>
       <c r="D48" t="n">
-        <v>0.138205</v>
+        <v>0.138488</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165575</v>
+        <v>0.16809</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131726</v>
+        <v>0.132855</v>
       </c>
       <c r="D49" t="n">
-        <v>0.135871</v>
+        <v>0.143343</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171198</v>
+        <v>0.172064</v>
       </c>
       <c r="C50" t="n">
-        <v>0.139701</v>
+        <v>0.134835</v>
       </c>
       <c r="D50" t="n">
-        <v>0.146634</v>
+        <v>0.141357</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177628</v>
+        <v>0.177528</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138244</v>
+        <v>0.139182</v>
       </c>
       <c r="D51" t="n">
-        <v>0.145513</v>
+        <v>0.140724</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.190475</v>
+        <v>0.186391</v>
       </c>
       <c r="C52" t="n">
-        <v>0.149189</v>
+        <v>0.145213</v>
       </c>
       <c r="D52" t="n">
-        <v>0.145324</v>
+        <v>0.141116</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161999</v>
+        <v>0.160091</v>
       </c>
       <c r="C53" t="n">
-        <v>0.129861</v>
+        <v>0.130011</v>
       </c>
       <c r="D53" t="n">
-        <v>0.145511</v>
+        <v>0.141111</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161145</v>
+        <v>0.160071</v>
       </c>
       <c r="C54" t="n">
-        <v>0.130267</v>
+        <v>0.130846</v>
       </c>
       <c r="D54" t="n">
-        <v>0.140251</v>
+        <v>0.146078</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161678</v>
+        <v>0.160944</v>
       </c>
       <c r="C55" t="n">
-        <v>0.130936</v>
+        <v>0.131175</v>
       </c>
       <c r="D55" t="n">
-        <v>0.145393</v>
+        <v>0.146076</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162247</v>
+        <v>0.161147</v>
       </c>
       <c r="C56" t="n">
-        <v>0.132377</v>
+        <v>0.132113</v>
       </c>
       <c r="D56" t="n">
-        <v>0.141588</v>
+        <v>0.141303</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.164118</v>
+        <v>0.162859</v>
       </c>
       <c r="C57" t="n">
-        <v>0.13339</v>
+        <v>0.133183</v>
       </c>
       <c r="D57" t="n">
-        <v>0.146499</v>
+        <v>0.146928</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164072</v>
+        <v>0.169581</v>
       </c>
       <c r="C58" t="n">
-        <v>0.134534</v>
+        <v>0.13442</v>
       </c>
       <c r="D58" t="n">
-        <v>0.143036</v>
+        <v>0.147057</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165762</v>
+        <v>0.169305</v>
       </c>
       <c r="C59" t="n">
-        <v>0.135477</v>
+        <v>0.1355</v>
       </c>
       <c r="D59" t="n">
-        <v>0.147371</v>
+        <v>0.142915</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167788</v>
+        <v>0.172869</v>
       </c>
       <c r="C60" t="n">
-        <v>0.136755</v>
+        <v>0.137088</v>
       </c>
       <c r="D60" t="n">
-        <v>0.149077</v>
+        <v>0.14424</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169063</v>
+        <v>0.169441</v>
       </c>
       <c r="C61" t="n">
-        <v>0.137831</v>
+        <v>0.138467</v>
       </c>
       <c r="D61" t="n">
-        <v>0.149522</v>
+        <v>0.146189</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172729</v>
+        <v>0.171743</v>
       </c>
       <c r="C62" t="n">
-        <v>0.139558</v>
+        <v>0.143281</v>
       </c>
       <c r="D62" t="n">
-        <v>0.152564</v>
+        <v>0.153365</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176741</v>
+        <v>0.176678</v>
       </c>
       <c r="C63" t="n">
-        <v>0.141657</v>
+        <v>0.142817</v>
       </c>
       <c r="D63" t="n">
-        <v>0.150287</v>
+        <v>0.155996</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180789</v>
+        <v>0.181434</v>
       </c>
       <c r="C64" t="n">
-        <v>0.144705</v>
+        <v>0.144695</v>
       </c>
       <c r="D64" t="n">
-        <v>0.160836</v>
+        <v>0.154571</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189309</v>
+        <v>0.187494</v>
       </c>
       <c r="C65" t="n">
-        <v>0.149634</v>
+        <v>0.148854</v>
       </c>
       <c r="D65" t="n">
-        <v>0.161386</v>
+        <v>0.161563</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198258</v>
+        <v>0.197405</v>
       </c>
       <c r="C66" t="n">
-        <v>0.154627</v>
+        <v>0.162199</v>
       </c>
       <c r="D66" t="n">
-        <v>0.154107</v>
+        <v>0.161073</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.182668</v>
+        <v>0.187642</v>
       </c>
       <c r="C67" t="n">
-        <v>0.145128</v>
+        <v>0.149131</v>
       </c>
       <c r="D67" t="n">
-        <v>0.156091</v>
+        <v>0.160938</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.180514</v>
+        <v>0.184762</v>
       </c>
       <c r="C68" t="n">
-        <v>0.147571</v>
+        <v>0.150651</v>
       </c>
       <c r="D68" t="n">
-        <v>0.160761</v>
+        <v>0.157107</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.183721</v>
+        <v>0.183818</v>
       </c>
       <c r="C69" t="n">
-        <v>0.148632</v>
+        <v>0.149684</v>
       </c>
       <c r="D69" t="n">
-        <v>0.15552</v>
+        <v>0.160613</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182536</v>
+        <v>0.184172</v>
       </c>
       <c r="C70" t="n">
-        <v>0.148476</v>
+        <v>0.150282</v>
       </c>
       <c r="D70" t="n">
-        <v>0.156358</v>
+        <v>0.15724</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.190965</v>
+        <v>0.185998</v>
       </c>
       <c r="C71" t="n">
-        <v>0.151809</v>
+        <v>0.150518</v>
       </c>
       <c r="D71" t="n">
-        <v>0.162042</v>
+        <v>0.163245</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.189349</v>
+        <v>0.186085</v>
       </c>
       <c r="C72" t="n">
-        <v>0.151142</v>
+        <v>0.152168</v>
       </c>
       <c r="D72" t="n">
-        <v>0.158492</v>
+        <v>0.162495</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.186808</v>
+        <v>0.186029</v>
       </c>
       <c r="C73" t="n">
-        <v>0.153812</v>
+        <v>0.155189</v>
       </c>
       <c r="D73" t="n">
-        <v>0.159079</v>
+        <v>0.160132</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.191844</v>
+        <v>0.188457</v>
       </c>
       <c r="C74" t="n">
-        <v>0.155676</v>
+        <v>0.155368</v>
       </c>
       <c r="D74" t="n">
-        <v>0.16032</v>
+        <v>0.160353</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.193809</v>
+        <v>0.191277</v>
       </c>
       <c r="C75" t="n">
-        <v>0.15672</v>
+        <v>0.157049</v>
       </c>
       <c r="D75" t="n">
-        <v>0.166316</v>
+        <v>0.166678</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.194074</v>
+        <v>0.19286</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157309</v>
+        <v>0.156059</v>
       </c>
       <c r="D76" t="n">
-        <v>0.166844</v>
+        <v>0.161901</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198658</v>
+        <v>0.196734</v>
       </c>
       <c r="C77" t="n">
-        <v>0.158906</v>
+        <v>0.160227</v>
       </c>
       <c r="D77" t="n">
-        <v>0.165054</v>
+        <v>0.169833</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200454</v>
+        <v>0.205822</v>
       </c>
       <c r="C78" t="n">
-        <v>0.159981</v>
+        <v>0.161936</v>
       </c>
       <c r="D78" t="n">
-        <v>0.173123</v>
+        <v>0.173841</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.204882</v>
+        <v>0.208256</v>
       </c>
       <c r="C79" t="n">
-        <v>0.170819</v>
+        <v>0.166324</v>
       </c>
       <c r="D79" t="n">
-        <v>0.179183</v>
+        <v>0.173497</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.214441</v>
+        <v>0.216468</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173442</v>
+        <v>0.17885</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2428</v>
+        <v>0.236336</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.36288</v>
+        <v>0.363019</v>
       </c>
       <c r="C81" t="n">
-        <v>0.289046</v>
+        <v>0.289328</v>
       </c>
       <c r="D81" t="n">
-        <v>0.240986</v>
+        <v>0.234073</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.363843</v>
+        <v>0.365715</v>
       </c>
       <c r="C82" t="n">
-        <v>0.283475</v>
+        <v>0.283936</v>
       </c>
       <c r="D82" t="n">
-        <v>0.237845</v>
+        <v>0.240584</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.362026</v>
+        <v>0.365816</v>
       </c>
       <c r="C83" t="n">
-        <v>0.285754</v>
+        <v>0.285171</v>
       </c>
       <c r="D83" t="n">
-        <v>0.23443</v>
+        <v>0.239791</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.366307</v>
+        <v>0.367537</v>
       </c>
       <c r="C84" t="n">
-        <v>0.280151</v>
+        <v>0.284176</v>
       </c>
       <c r="D84" t="n">
-        <v>0.241378</v>
+        <v>0.240609</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.362478</v>
+        <v>0.369354</v>
       </c>
       <c r="C85" t="n">
-        <v>0.284114</v>
+        <v>0.286102</v>
       </c>
       <c r="D85" t="n">
-        <v>0.23173</v>
+        <v>0.24007</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.373319</v>
+        <v>0.370495</v>
       </c>
       <c r="C86" t="n">
-        <v>0.278324</v>
+        <v>0.283899</v>
       </c>
       <c r="D86" t="n">
-        <v>0.241283</v>
+        <v>0.2407</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.368244</v>
+        <v>0.369899</v>
       </c>
       <c r="C87" t="n">
-        <v>0.282045</v>
+        <v>0.280812</v>
       </c>
       <c r="D87" t="n">
-        <v>0.239728</v>
+        <v>0.238137</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.37171</v>
+        <v>0.372533</v>
       </c>
       <c r="C88" t="n">
-        <v>0.279307</v>
+        <v>0.277925</v>
       </c>
       <c r="D88" t="n">
-        <v>0.238111</v>
+        <v>0.233138</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.373733</v>
+        <v>0.372393</v>
       </c>
       <c r="C89" t="n">
-        <v>0.279031</v>
+        <v>0.277909</v>
       </c>
       <c r="D89" t="n">
-        <v>0.237919</v>
+        <v>0.23557</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.374331</v>
+        <v>0.375623</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278448</v>
+        <v>0.279455</v>
       </c>
       <c r="D90" t="n">
-        <v>0.236724</v>
+        <v>0.230497</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.376159</v>
+        <v>0.377689</v>
       </c>
       <c r="C91" t="n">
-        <v>0.276225</v>
+        <v>0.281245</v>
       </c>
       <c r="D91" t="n">
-        <v>0.23733</v>
+        <v>0.234501</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.379751</v>
+        <v>0.38157</v>
       </c>
       <c r="C92" t="n">
-        <v>0.276855</v>
+        <v>0.28079</v>
       </c>
       <c r="D92" t="n">
-        <v>0.234222</v>
+        <v>0.2382</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.382259</v>
+        <v>0.387128</v>
       </c>
       <c r="C93" t="n">
-        <v>0.277744</v>
+        <v>0.280069</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243046</v>
+        <v>0.241949</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.389442</v>
+        <v>0.391522</v>
       </c>
       <c r="C94" t="n">
-        <v>0.281621</v>
+        <v>0.288024</v>
       </c>
       <c r="D94" t="n">
-        <v>0.400885</v>
+        <v>0.399487</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.530846</v>
+        <v>0.53187</v>
       </c>
       <c r="C95" t="n">
-        <v>0.451263</v>
+        <v>0.44097</v>
       </c>
       <c r="D95" t="n">
-        <v>0.399824</v>
+        <v>0.398482</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.531589</v>
+        <v>0.531787</v>
       </c>
       <c r="C96" t="n">
-        <v>0.45081</v>
+        <v>0.451486</v>
       </c>
       <c r="D96" t="n">
-        <v>0.398394</v>
+        <v>0.402424</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5314140000000001</v>
+        <v>0.533119</v>
       </c>
       <c r="C97" t="n">
-        <v>0.450141</v>
+        <v>0.45089</v>
       </c>
       <c r="D97" t="n">
-        <v>0.401739</v>
+        <v>0.387714</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.531188</v>
+        <v>0.533533</v>
       </c>
       <c r="C98" t="n">
-        <v>0.449634</v>
+        <v>0.451086</v>
       </c>
       <c r="D98" t="n">
-        <v>0.396903</v>
+        <v>0.401778</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.533547</v>
+        <v>0.533959</v>
       </c>
       <c r="C99" t="n">
-        <v>0.440917</v>
+        <v>0.451118</v>
       </c>
       <c r="D99" t="n">
-        <v>0.393364</v>
+        <v>0.401633</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.533813</v>
+        <v>0.53496</v>
       </c>
       <c r="C100" t="n">
-        <v>0.448443</v>
+        <v>0.450375</v>
       </c>
       <c r="D100" t="n">
-        <v>0.389157</v>
+        <v>0.396635</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.534552</v>
+        <v>0.535913</v>
       </c>
       <c r="C101" t="n">
-        <v>0.440925</v>
+        <v>0.448993</v>
       </c>
       <c r="D101" t="n">
-        <v>0.401593</v>
+        <v>0.39735</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.536153</v>
+        <v>0.537346</v>
       </c>
       <c r="C102" t="n">
-        <v>0.449127</v>
+        <v>0.449652</v>
       </c>
       <c r="D102" t="n">
-        <v>0.403011</v>
+        <v>0.38504</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.538034</v>
+        <v>0.539292</v>
       </c>
       <c r="C103" t="n">
-        <v>0.441239</v>
+        <v>0.449893</v>
       </c>
       <c r="D103" t="n">
-        <v>0.402595</v>
+        <v>0.397925</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.540992</v>
+        <v>0.541625</v>
       </c>
       <c r="C104" t="n">
-        <v>0.45071</v>
+        <v>0.45149</v>
       </c>
       <c r="D104" t="n">
-        <v>0.400609</v>
+        <v>0.403491</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.544248</v>
+        <v>0.544168</v>
       </c>
       <c r="C105" t="n">
-        <v>0.452425</v>
+        <v>0.453176</v>
       </c>
       <c r="D105" t="n">
-        <v>0.402499</v>
+        <v>0.401855</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.548145</v>
+        <v>0.548606</v>
       </c>
       <c r="C106" t="n">
-        <v>0.454327</v>
+        <v>0.45483</v>
       </c>
       <c r="D106" t="n">
-        <v>0.410117</v>
+        <v>0.406432</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.55191</v>
+        <v>0.55444</v>
       </c>
       <c r="C107" t="n">
-        <v>0.457225</v>
+        <v>0.457633</v>
       </c>
       <c r="D107" t="n">
-        <v>0.411184</v>
+        <v>0.415484</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.56057</v>
+        <v>0.5608880000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.462607</v>
+        <v>0.462624</v>
       </c>
       <c r="D108" t="n">
-        <v>0.528773</v>
+        <v>0.529735</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.572086</v>
+        <v>0.572414</v>
       </c>
       <c r="C109" t="n">
-        <v>0.470449</v>
+        <v>0.463233</v>
       </c>
       <c r="D109" t="n">
-        <v>0.533639</v>
+        <v>0.529363</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.611965</v>
+        <v>0.6099869999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5570619999999999</v>
+        <v>0.5508999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.532736</v>
+        <v>0.531202</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6112919999999999</v>
+        <v>0.611576</v>
       </c>
       <c r="C111" t="n">
-        <v>0.557456</v>
+        <v>0.556959</v>
       </c>
       <c r="D111" t="n">
-        <v>0.535423</v>
+        <v>0.536281</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.612514</v>
+        <v>0.612364</v>
       </c>
       <c r="C112" t="n">
-        <v>0.55814</v>
+        <v>0.556876</v>
       </c>
       <c r="D112" t="n">
-        <v>0.536358</v>
+        <v>0.532855</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.61285</v>
+        <v>0.614564</v>
       </c>
       <c r="C113" t="n">
-        <v>0.558941</v>
+        <v>0.556578</v>
       </c>
       <c r="D113" t="n">
-        <v>0.531832</v>
+        <v>0.5365529999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.612886</v>
+        <v>0.613072</v>
       </c>
       <c r="C114" t="n">
-        <v>0.55982</v>
+        <v>0.558131</v>
       </c>
       <c r="D114" t="n">
-        <v>0.533311</v>
+        <v>0.537066</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.616516</v>
+        <v>0.614557</v>
       </c>
       <c r="C115" t="n">
-        <v>0.560194</v>
+        <v>0.55854</v>
       </c>
       <c r="D115" t="n">
-        <v>0.531617</v>
+        <v>0.530115</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.617381</v>
+        <v>0.6161140000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.560818</v>
+        <v>0.559441</v>
       </c>
       <c r="D116" t="n">
-        <v>0.53295</v>
+        <v>0.541878</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.619552</v>
+        <v>0.620219</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5620579999999999</v>
+        <v>0.561418</v>
       </c>
       <c r="D117" t="n">
-        <v>0.544486</v>
+        <v>0.5418539999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.625022</v>
+        <v>0.6205039999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.564501</v>
+        <v>0.563609</v>
       </c>
       <c r="D118" t="n">
-        <v>0.538349</v>
+        <v>0.544943</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.62529</v>
+        <v>0.6242760000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.562603</v>
+        <v>0.565991</v>
       </c>
       <c r="D119" t="n">
-        <v>0.545996</v>
+        <v>0.546891</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.632962</v>
+        <v>0.6288010000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.570778</v>
+        <v>0.567838</v>
       </c>
       <c r="D120" t="n">
-        <v>0.550374</v>
+        <v>0.549965</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.63975</v>
+        <v>0.63737</v>
       </c>
       <c r="C121" t="n">
-        <v>0.574981</v>
+        <v>0.571801</v>
       </c>
       <c r="D121" t="n">
-        <v>0.558169</v>
+        <v>0.557511</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.64736</v>
+        <v>0.644053</v>
       </c>
       <c r="C122" t="n">
-        <v>0.581151</v>
+        <v>0.578138</v>
       </c>
       <c r="D122" t="n">
-        <v>0.569006</v>
+        <v>0.563628</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.66204</v>
+        <v>0.657826</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5921380000000001</v>
+        <v>0.58294</v>
       </c>
       <c r="D123" t="n">
-        <v>0.69097</v>
+        <v>0.6893590000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.750449</v>
+        <v>0.750142</v>
       </c>
       <c r="C124" t="n">
-        <v>0.678365</v>
+        <v>0.683175</v>
       </c>
       <c r="D124" t="n">
-        <v>0.694871</v>
+        <v>0.69403</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.753367</v>
+        <v>0.750223</v>
       </c>
       <c r="C125" t="n">
-        <v>0.686049</v>
+        <v>0.684508</v>
       </c>
       <c r="D125" t="n">
-        <v>0.695354</v>
+        <v>0.695603</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.751901</v>
+        <v>0.751051</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6849229999999999</v>
+        <v>0.681488</v>
       </c>
       <c r="D126" t="n">
-        <v>0.695909</v>
+        <v>0.689809</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.753614</v>
+        <v>0.750914</v>
       </c>
       <c r="C127" t="n">
-        <v>0.687138</v>
+        <v>0.684772</v>
       </c>
       <c r="D127" t="n">
-        <v>0.694604</v>
+        <v>0.694519</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.753219</v>
+        <v>0.752345</v>
       </c>
       <c r="C128" t="n">
-        <v>0.690437</v>
+        <v>0.688096</v>
       </c>
       <c r="D128" t="n">
-        <v>0.699404</v>
+        <v>0.691218</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.757115</v>
+        <v>0.755076</v>
       </c>
       <c r="C129" t="n">
-        <v>0.691361</v>
+        <v>0.689185</v>
       </c>
       <c r="D129" t="n">
-        <v>0.698108</v>
+        <v>0.697776</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.756927</v>
+        <v>0.755552</v>
       </c>
       <c r="C130" t="n">
-        <v>0.695141</v>
+        <v>0.692929</v>
       </c>
       <c r="D130" t="n">
-        <v>0.702367</v>
+        <v>0.698686</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.761226</v>
+        <v>0.759424</v>
       </c>
       <c r="C131" t="n">
-        <v>0.695856</v>
+        <v>0.6897</v>
       </c>
       <c r="D131" t="n">
-        <v>0.702851</v>
+        <v>0.700088</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.764354</v>
+        <v>0.760105</v>
       </c>
       <c r="C132" t="n">
-        <v>0.697739</v>
+        <v>0.696572</v>
       </c>
       <c r="D132" t="n">
-        <v>0.702431</v>
+        <v>0.705001</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.765628</v>
+        <v>0.766286</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7005</v>
+        <v>0.696727</v>
       </c>
       <c r="D133" t="n">
-        <v>0.70552</v>
+        <v>0.707619</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.769922</v>
+        <v>0.770227</v>
       </c>
       <c r="C134" t="n">
-        <v>0.700949</v>
+        <v>0.701105</v>
       </c>
       <c r="D134" t="n">
-        <v>0.707292</v>
+        <v>0.70833</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.778087</v>
+        <v>0.7759239999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.710402</v>
+        <v>0.708367</v>
       </c>
       <c r="D135" t="n">
-        <v>0.715062</v>
+        <v>0.7167519999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.784058</v>
+        <v>0.783168</v>
       </c>
       <c r="C136" t="n">
-        <v>0.717293</v>
+        <v>0.712951</v>
       </c>
       <c r="D136" t="n">
-        <v>0.728664</v>
+        <v>0.723769</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.797045</v>
+        <v>0.797164</v>
       </c>
       <c r="C137" t="n">
-        <v>0.726557</v>
+        <v>0.724314</v>
       </c>
       <c r="D137" t="n">
-        <v>0.828897</v>
+        <v>0.830083</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.872916</v>
+        <v>0.87442</v>
       </c>
       <c r="C138" t="n">
-        <v>0.805306</v>
+        <v>0.806902</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8298450000000001</v>
+        <v>0.827494</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.873153</v>
+        <v>0.874903</v>
       </c>
       <c r="C139" t="n">
-        <v>0.806778</v>
+        <v>0.805664</v>
       </c>
       <c r="D139" t="n">
-        <v>0.825354</v>
+        <v>0.831885</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.874156</v>
+        <v>0.8755810000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>0.807399</v>
+        <v>0.8078920000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.826713</v>
+        <v>0.8325979999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.875174</v>
+        <v>0.876843</v>
       </c>
       <c r="C141" t="n">
-        <v>0.808014</v>
+        <v>0.811212</v>
       </c>
       <c r="D141" t="n">
-        <v>0.833587</v>
+        <v>0.829904</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.876609</v>
+        <v>0.8775309999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>0.811322</v>
+        <v>0.813302</v>
       </c>
       <c r="D142" t="n">
-        <v>0.82686</v>
+        <v>0.829805</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.876894</v>
+        <v>0.880408</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8115869999999999</v>
+        <v>0.81094</v>
       </c>
       <c r="D143" t="n">
-        <v>0.829349</v>
+        <v>0.830742</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.120591</v>
+        <v>0.125032</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0929359</v>
+        <v>0.0920405</v>
       </c>
       <c r="D2" t="n">
-        <v>0.10532</v>
+        <v>0.104841</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.121128</v>
+        <v>0.12774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0924093</v>
+        <v>0.09367</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09890740000000001</v>
+        <v>0.105455</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.121024</v>
+        <v>0.128274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09388100000000001</v>
+        <v>0.0942958</v>
       </c>
       <c r="D4" t="n">
-        <v>0.106654</v>
+        <v>0.106273</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123225</v>
+        <v>0.122135</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09305380000000001</v>
+        <v>0.092697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.106071</v>
+        <v>0.106051</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12495</v>
+        <v>0.12442</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0931632</v>
+        <v>0.0946028</v>
       </c>
       <c r="D6" t="n">
-        <v>0.106637</v>
+        <v>0.107665</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127358</v>
+        <v>0.127499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0933721</v>
+        <v>0.09399399999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.10028</v>
+        <v>0.107562</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.134272</v>
+        <v>0.151233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09456050000000001</v>
+        <v>0.0965789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.109091</v>
+        <v>0.109344</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146128</v>
+        <v>0.16505</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09720959999999999</v>
+        <v>0.0974537</v>
       </c>
       <c r="D9" t="n">
-        <v>0.102545</v>
+        <v>0.110633</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126313</v>
+        <v>0.127754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0994698</v>
+        <v>0.100316</v>
       </c>
       <c r="D10" t="n">
-        <v>0.109716</v>
+        <v>0.110831</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.132858</v>
+        <v>0.126646</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0990186</v>
+        <v>0.09927279999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.109687</v>
+        <v>0.104537</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.126279</v>
+        <v>0.128785</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0978871</v>
+        <v>0.09926219999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.103151</v>
+        <v>0.11044</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128869</v>
+        <v>0.129458</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0985254</v>
+        <v>0.0991464</v>
       </c>
       <c r="D13" t="n">
-        <v>0.10953</v>
+        <v>0.111297</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.129404</v>
+        <v>0.128078</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09850150000000001</v>
+        <v>0.0987273</v>
       </c>
       <c r="D14" t="n">
-        <v>0.109947</v>
+        <v>0.103822</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.134047</v>
+        <v>0.132815</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0985482</v>
+        <v>0.09922350000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.103666</v>
+        <v>0.110498</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128633</v>
+        <v>0.13055</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0994942</v>
+        <v>0.1011</v>
       </c>
       <c r="D16" t="n">
-        <v>0.105339</v>
+        <v>0.111276</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130044</v>
+        <v>0.140391</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0990332</v>
+        <v>0.100469</v>
       </c>
       <c r="D17" t="n">
-        <v>0.104438</v>
+        <v>0.111409</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128563</v>
+        <v>0.131916</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09897350000000001</v>
+        <v>0.0998329</v>
       </c>
       <c r="D18" t="n">
-        <v>0.104301</v>
+        <v>0.105473</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.137515</v>
+        <v>0.136225</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09962020000000001</v>
+        <v>0.100595</v>
       </c>
       <c r="D19" t="n">
-        <v>0.111778</v>
+        <v>0.11223</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.137203</v>
+        <v>0.141118</v>
       </c>
       <c r="C20" t="n">
-        <v>0.100893</v>
+        <v>0.101243</v>
       </c>
       <c r="D20" t="n">
-        <v>0.112452</v>
+        <v>0.106942</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.145157</v>
+        <v>0.149628</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102171</v>
+        <v>0.102585</v>
       </c>
       <c r="D21" t="n">
-        <v>0.114082</v>
+        <v>0.108202</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.14985</v>
+        <v>0.150904</v>
       </c>
       <c r="C22" t="n">
-        <v>0.103613</v>
+        <v>0.104523</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119168</v>
+        <v>0.11352</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166067</v>
+        <v>0.168164</v>
       </c>
       <c r="C23" t="n">
-        <v>0.110154</v>
+        <v>0.112776</v>
       </c>
       <c r="D23" t="n">
-        <v>0.119355</v>
+        <v>0.120301</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135912</v>
+        <v>0.135018</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108547</v>
+        <v>0.109082</v>
       </c>
       <c r="D24" t="n">
-        <v>0.119133</v>
+        <v>0.113963</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134349</v>
+        <v>0.13543</v>
       </c>
       <c r="C25" t="n">
-        <v>0.107962</v>
+        <v>0.108245</v>
       </c>
       <c r="D25" t="n">
-        <v>0.119228</v>
+        <v>0.12051</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135539</v>
+        <v>0.135987</v>
       </c>
       <c r="C26" t="n">
-        <v>0.10862</v>
+        <v>0.108761</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116079</v>
+        <v>0.114321</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135411</v>
+        <v>0.135616</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108297</v>
+        <v>0.109028</v>
       </c>
       <c r="D27" t="n">
-        <v>0.119605</v>
+        <v>0.120119</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136821</v>
+        <v>0.138311</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109391</v>
+        <v>0.108997</v>
       </c>
       <c r="D28" t="n">
-        <v>0.119729</v>
+        <v>0.120601</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1357</v>
+        <v>0.137975</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109053</v>
+        <v>0.109415</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114285</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138048</v>
+        <v>0.138493</v>
       </c>
       <c r="C30" t="n">
-        <v>0.109028</v>
+        <v>0.109555</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120537</v>
+        <v>0.114936</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139584</v>
+        <v>0.141079</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109601</v>
+        <v>0.110079</v>
       </c>
       <c r="D31" t="n">
-        <v>0.114495</v>
+        <v>0.115164</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140972</v>
+        <v>0.14215</v>
       </c>
       <c r="C32" t="n">
-        <v>0.110303</v>
+        <v>0.111659</v>
       </c>
       <c r="D32" t="n">
-        <v>0.11474</v>
+        <v>0.121336</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.142776</v>
+        <v>0.144584</v>
       </c>
       <c r="C33" t="n">
-        <v>0.112139</v>
+        <v>0.11257</v>
       </c>
       <c r="D33" t="n">
-        <v>0.115705</v>
+        <v>0.116554</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.148002</v>
+        <v>0.149306</v>
       </c>
       <c r="C34" t="n">
-        <v>0.114923</v>
+        <v>0.114872</v>
       </c>
       <c r="D34" t="n">
-        <v>0.117466</v>
+        <v>0.123439</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.160604</v>
+        <v>0.152452</v>
       </c>
       <c r="C35" t="n">
-        <v>0.117654</v>
+        <v>0.118039</v>
       </c>
       <c r="D35" t="n">
-        <v>0.126738</v>
+        <v>0.127615</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167364</v>
+        <v>0.159457</v>
       </c>
       <c r="C36" t="n">
-        <v>0.122376</v>
+        <v>0.122517</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134591</v>
+        <v>0.128831</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.176139</v>
+        <v>0.167079</v>
       </c>
       <c r="C37" t="n">
-        <v>0.127613</v>
+        <v>0.127761</v>
       </c>
       <c r="D37" t="n">
-        <v>0.125879</v>
+        <v>0.129939</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147123</v>
+        <v>0.150289</v>
       </c>
       <c r="C38" t="n">
-        <v>0.119735</v>
+        <v>0.119817</v>
       </c>
       <c r="D38" t="n">
-        <v>0.12698</v>
+        <v>0.127889</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149314</v>
+        <v>0.148679</v>
       </c>
       <c r="C39" t="n">
-        <v>0.119766</v>
+        <v>0.119478</v>
       </c>
       <c r="D39" t="n">
-        <v>0.132067</v>
+        <v>0.132663</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148895</v>
+        <v>0.148189</v>
       </c>
       <c r="C40" t="n">
-        <v>0.120373</v>
+        <v>0.120254</v>
       </c>
       <c r="D40" t="n">
-        <v>0.127015</v>
+        <v>0.127736</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.158255</v>
+        <v>0.149943</v>
       </c>
       <c r="C41" t="n">
-        <v>0.120332</v>
+        <v>0.120551</v>
       </c>
       <c r="D41" t="n">
-        <v>0.133209</v>
+        <v>0.132335</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.151071</v>
+        <v>0.149955</v>
       </c>
       <c r="C42" t="n">
-        <v>0.121552</v>
+        <v>0.121193</v>
       </c>
       <c r="D42" t="n">
-        <v>0.127869</v>
+        <v>0.128628</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.151407</v>
+        <v>0.15036</v>
       </c>
       <c r="C43" t="n">
-        <v>0.122593</v>
+        <v>0.122501</v>
       </c>
       <c r="D43" t="n">
-        <v>0.128053</v>
+        <v>0.128858</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.154988</v>
+        <v>0.154038</v>
       </c>
       <c r="C44" t="n">
-        <v>0.124103</v>
+        <v>0.1233</v>
       </c>
       <c r="D44" t="n">
-        <v>0.129633</v>
+        <v>0.134042</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153609</v>
+        <v>0.154455</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125049</v>
+        <v>0.124391</v>
       </c>
       <c r="D45" t="n">
-        <v>0.13474</v>
+        <v>0.134354</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.157425</v>
+        <v>0.155394</v>
       </c>
       <c r="C46" t="n">
-        <v>0.126802</v>
+        <v>0.12554</v>
       </c>
       <c r="D46" t="n">
-        <v>0.135168</v>
+        <v>0.129652</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.160669</v>
+        <v>0.16079</v>
       </c>
       <c r="C47" t="n">
-        <v>0.12817</v>
+        <v>0.127505</v>
       </c>
       <c r="D47" t="n">
-        <v>0.129963</v>
+        <v>0.135296</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.162173</v>
+        <v>0.16224</v>
       </c>
       <c r="C48" t="n">
-        <v>0.129187</v>
+        <v>0.128594</v>
       </c>
       <c r="D48" t="n">
-        <v>0.138488</v>
+        <v>0.132201</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.16809</v>
+        <v>0.167254</v>
       </c>
       <c r="C49" t="n">
-        <v>0.132855</v>
+        <v>0.131726</v>
       </c>
       <c r="D49" t="n">
-        <v>0.143343</v>
+        <v>0.136276</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172064</v>
+        <v>0.170688</v>
       </c>
       <c r="C50" t="n">
-        <v>0.134835</v>
+        <v>0.134802</v>
       </c>
       <c r="D50" t="n">
-        <v>0.141357</v>
+        <v>0.146791</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177528</v>
+        <v>0.188952</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139182</v>
+        <v>0.138828</v>
       </c>
       <c r="D51" t="n">
-        <v>0.140724</v>
+        <v>0.145437</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.186391</v>
+        <v>0.188768</v>
       </c>
       <c r="C52" t="n">
-        <v>0.145213</v>
+        <v>0.14549</v>
       </c>
       <c r="D52" t="n">
-        <v>0.141116</v>
+        <v>0.140094</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160091</v>
+        <v>0.159788</v>
       </c>
       <c r="C53" t="n">
-        <v>0.130011</v>
+        <v>0.129481</v>
       </c>
       <c r="D53" t="n">
-        <v>0.141111</v>
+        <v>0.140356</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160071</v>
+        <v>0.162167</v>
       </c>
       <c r="C54" t="n">
-        <v>0.130846</v>
+        <v>0.130474</v>
       </c>
       <c r="D54" t="n">
-        <v>0.146078</v>
+        <v>0.145588</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160944</v>
+        <v>0.16235</v>
       </c>
       <c r="C55" t="n">
-        <v>0.131175</v>
+        <v>0.131272</v>
       </c>
       <c r="D55" t="n">
-        <v>0.146076</v>
+        <v>0.140962</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161147</v>
+        <v>0.164025</v>
       </c>
       <c r="C56" t="n">
-        <v>0.132113</v>
+        <v>0.132072</v>
       </c>
       <c r="D56" t="n">
-        <v>0.141303</v>
+        <v>0.140855</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162859</v>
+        <v>0.163905</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133183</v>
+        <v>0.133071</v>
       </c>
       <c r="D57" t="n">
-        <v>0.146928</v>
+        <v>0.141085</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.169581</v>
+        <v>0.165116</v>
       </c>
       <c r="C58" t="n">
-        <v>0.13442</v>
+        <v>0.133354</v>
       </c>
       <c r="D58" t="n">
-        <v>0.147057</v>
+        <v>0.146472</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.169305</v>
+        <v>0.165901</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1355</v>
+        <v>0.135126</v>
       </c>
       <c r="D59" t="n">
-        <v>0.142915</v>
+        <v>0.142198</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.172869</v>
+        <v>0.16837</v>
       </c>
       <c r="C60" t="n">
-        <v>0.137088</v>
+        <v>0.136442</v>
       </c>
       <c r="D60" t="n">
-        <v>0.14424</v>
+        <v>0.143734</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169441</v>
+        <v>0.173511</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138467</v>
+        <v>0.137808</v>
       </c>
       <c r="D61" t="n">
-        <v>0.146189</v>
+        <v>0.145401</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.171743</v>
+        <v>0.174221</v>
       </c>
       <c r="C62" t="n">
-        <v>0.143281</v>
+        <v>0.139362</v>
       </c>
       <c r="D62" t="n">
-        <v>0.153365</v>
+        <v>0.146922</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176678</v>
+        <v>0.177458</v>
       </c>
       <c r="C63" t="n">
-        <v>0.142817</v>
+        <v>0.148397</v>
       </c>
       <c r="D63" t="n">
-        <v>0.155996</v>
+        <v>0.150367</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.181434</v>
+        <v>0.182603</v>
       </c>
       <c r="C64" t="n">
-        <v>0.144695</v>
+        <v>0.144675</v>
       </c>
       <c r="D64" t="n">
-        <v>0.154571</v>
+        <v>0.160118</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187494</v>
+        <v>0.190226</v>
       </c>
       <c r="C65" t="n">
-        <v>0.148854</v>
+        <v>0.148488</v>
       </c>
       <c r="D65" t="n">
-        <v>0.161563</v>
+        <v>0.160697</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197405</v>
+        <v>0.197544</v>
       </c>
       <c r="C66" t="n">
-        <v>0.162199</v>
+        <v>0.153523</v>
       </c>
       <c r="D66" t="n">
-        <v>0.161073</v>
+        <v>0.159922</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.187642</v>
+        <v>0.181681</v>
       </c>
       <c r="C67" t="n">
-        <v>0.149131</v>
+        <v>0.150747</v>
       </c>
       <c r="D67" t="n">
-        <v>0.160938</v>
+        <v>0.160762</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184762</v>
+        <v>0.182995</v>
       </c>
       <c r="C68" t="n">
-        <v>0.150651</v>
+        <v>0.151311</v>
       </c>
       <c r="D68" t="n">
-        <v>0.157107</v>
+        <v>0.162233</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.183818</v>
+        <v>0.18685</v>
       </c>
       <c r="C69" t="n">
-        <v>0.149684</v>
+        <v>0.154604</v>
       </c>
       <c r="D69" t="n">
-        <v>0.160613</v>
+        <v>0.156786</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.184172</v>
+        <v>0.187387</v>
       </c>
       <c r="C70" t="n">
-        <v>0.150282</v>
+        <v>0.154294</v>
       </c>
       <c r="D70" t="n">
-        <v>0.15724</v>
+        <v>0.161774</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.185998</v>
+        <v>0.18996</v>
       </c>
       <c r="C71" t="n">
-        <v>0.150518</v>
+        <v>0.152741</v>
       </c>
       <c r="D71" t="n">
-        <v>0.163245</v>
+        <v>0.165031</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.186085</v>
+        <v>0.192976</v>
       </c>
       <c r="C72" t="n">
-        <v>0.152168</v>
+        <v>0.153115</v>
       </c>
       <c r="D72" t="n">
-        <v>0.162495</v>
+        <v>0.16296</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.186029</v>
+        <v>0.189007</v>
       </c>
       <c r="C73" t="n">
-        <v>0.155189</v>
+        <v>0.155492</v>
       </c>
       <c r="D73" t="n">
-        <v>0.160132</v>
+        <v>0.163777</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.188457</v>
+        <v>0.187895</v>
       </c>
       <c r="C74" t="n">
-        <v>0.155368</v>
+        <v>0.156593</v>
       </c>
       <c r="D74" t="n">
-        <v>0.160353</v>
+        <v>0.160157</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.191277</v>
+        <v>0.196025</v>
       </c>
       <c r="C75" t="n">
-        <v>0.157049</v>
+        <v>0.160683</v>
       </c>
       <c r="D75" t="n">
-        <v>0.166678</v>
+        <v>0.161655</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19286</v>
+        <v>0.199923</v>
       </c>
       <c r="C76" t="n">
-        <v>0.156059</v>
+        <v>0.161163</v>
       </c>
       <c r="D76" t="n">
-        <v>0.161901</v>
+        <v>0.168135</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196734</v>
+        <v>0.20241</v>
       </c>
       <c r="C77" t="n">
-        <v>0.160227</v>
+        <v>0.162987</v>
       </c>
       <c r="D77" t="n">
-        <v>0.169833</v>
+        <v>0.164594</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205822</v>
+        <v>0.202106</v>
       </c>
       <c r="C78" t="n">
-        <v>0.161936</v>
+        <v>0.166254</v>
       </c>
       <c r="D78" t="n">
-        <v>0.173841</v>
+        <v>0.167475</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.208256</v>
+        <v>0.210722</v>
       </c>
       <c r="C79" t="n">
-        <v>0.166324</v>
+        <v>0.163304</v>
       </c>
       <c r="D79" t="n">
-        <v>0.173497</v>
+        <v>0.178235</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216468</v>
+        <v>0.214811</v>
       </c>
       <c r="C80" t="n">
-        <v>0.17885</v>
+        <v>0.169951</v>
       </c>
       <c r="D80" t="n">
-        <v>0.236336</v>
+        <v>0.234116</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.363019</v>
+        <v>0.364895</v>
       </c>
       <c r="C81" t="n">
-        <v>0.289328</v>
+        <v>0.28404</v>
       </c>
       <c r="D81" t="n">
-        <v>0.234073</v>
+        <v>0.238175</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.365715</v>
+        <v>0.366175</v>
       </c>
       <c r="C82" t="n">
-        <v>0.283936</v>
+        <v>0.284538</v>
       </c>
       <c r="D82" t="n">
-        <v>0.240584</v>
+        <v>0.235169</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.365816</v>
+        <v>0.369103</v>
       </c>
       <c r="C83" t="n">
-        <v>0.285171</v>
+        <v>0.285541</v>
       </c>
       <c r="D83" t="n">
-        <v>0.239791</v>
+        <v>0.242103</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.367537</v>
+        <v>0.369031</v>
       </c>
       <c r="C84" t="n">
-        <v>0.284176</v>
+        <v>0.284458</v>
       </c>
       <c r="D84" t="n">
-        <v>0.240609</v>
+        <v>0.235156</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.369354</v>
+        <v>0.37075</v>
       </c>
       <c r="C85" t="n">
-        <v>0.286102</v>
+        <v>0.283775</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24007</v>
+        <v>0.234938</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.370495</v>
+        <v>0.371018</v>
       </c>
       <c r="C86" t="n">
-        <v>0.283899</v>
+        <v>0.28039</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2407</v>
+        <v>0.2367</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.369899</v>
+        <v>0.371783</v>
       </c>
       <c r="C87" t="n">
-        <v>0.280812</v>
+        <v>0.281105</v>
       </c>
       <c r="D87" t="n">
-        <v>0.238137</v>
+        <v>0.238275</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.372533</v>
+        <v>0.370556</v>
       </c>
       <c r="C88" t="n">
-        <v>0.277925</v>
+        <v>0.28245</v>
       </c>
       <c r="D88" t="n">
-        <v>0.233138</v>
+        <v>0.234666</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.372393</v>
+        <v>0.377522</v>
       </c>
       <c r="C89" t="n">
-        <v>0.277909</v>
+        <v>0.281245</v>
       </c>
       <c r="D89" t="n">
-        <v>0.23557</v>
+        <v>0.231859</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.375623</v>
+        <v>0.377136</v>
       </c>
       <c r="C90" t="n">
-        <v>0.279455</v>
+        <v>0.27568</v>
       </c>
       <c r="D90" t="n">
-        <v>0.230497</v>
+        <v>0.235505</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.377689</v>
+        <v>0.372443</v>
       </c>
       <c r="C91" t="n">
-        <v>0.281245</v>
+        <v>0.277508</v>
       </c>
       <c r="D91" t="n">
-        <v>0.234501</v>
+        <v>0.230963</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.38157</v>
+        <v>0.382864</v>
       </c>
       <c r="C92" t="n">
-        <v>0.28079</v>
+        <v>0.281465</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2382</v>
+        <v>0.233535</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.387128</v>
+        <v>0.388124</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280069</v>
+        <v>0.282805</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241949</v>
+        <v>0.243866</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.391522</v>
+        <v>0.392784</v>
       </c>
       <c r="C94" t="n">
-        <v>0.288024</v>
+        <v>0.284928</v>
       </c>
       <c r="D94" t="n">
-        <v>0.399487</v>
+        <v>0.399059</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.53187</v>
+        <v>0.532727</v>
       </c>
       <c r="C95" t="n">
-        <v>0.44097</v>
+        <v>0.452823</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398482</v>
+        <v>0.4042</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.531787</v>
+        <v>0.532384</v>
       </c>
       <c r="C96" t="n">
-        <v>0.451486</v>
+        <v>0.452681</v>
       </c>
       <c r="D96" t="n">
-        <v>0.402424</v>
+        <v>0.394301</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.533119</v>
+        <v>0.533199</v>
       </c>
       <c r="C97" t="n">
-        <v>0.45089</v>
+        <v>0.44458</v>
       </c>
       <c r="D97" t="n">
-        <v>0.387714</v>
+        <v>0.398562</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.533533</v>
+        <v>0.533536</v>
       </c>
       <c r="C98" t="n">
-        <v>0.451086</v>
+        <v>0.451756</v>
       </c>
       <c r="D98" t="n">
-        <v>0.401778</v>
+        <v>0.40121</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.533959</v>
+        <v>0.534345</v>
       </c>
       <c r="C99" t="n">
-        <v>0.451118</v>
+        <v>0.449946</v>
       </c>
       <c r="D99" t="n">
-        <v>0.401633</v>
+        <v>0.397785</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.53496</v>
+        <v>0.534757</v>
       </c>
       <c r="C100" t="n">
-        <v>0.450375</v>
+        <v>0.449353</v>
       </c>
       <c r="D100" t="n">
-        <v>0.396635</v>
+        <v>0.401716</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.535913</v>
+        <v>0.536613</v>
       </c>
       <c r="C101" t="n">
-        <v>0.448993</v>
+        <v>0.448546</v>
       </c>
       <c r="D101" t="n">
-        <v>0.39735</v>
+        <v>0.401341</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.537346</v>
+        <v>0.537</v>
       </c>
       <c r="C102" t="n">
-        <v>0.449652</v>
+        <v>0.438863</v>
       </c>
       <c r="D102" t="n">
-        <v>0.38504</v>
+        <v>0.39846</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.539292</v>
+        <v>0.5385760000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.449893</v>
+        <v>0.438145</v>
       </c>
       <c r="D103" t="n">
-        <v>0.397925</v>
+        <v>0.402687</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.541625</v>
+        <v>0.541568</v>
       </c>
       <c r="C104" t="n">
-        <v>0.45149</v>
+        <v>0.441255</v>
       </c>
       <c r="D104" t="n">
-        <v>0.403491</v>
+        <v>0.400274</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.544168</v>
+        <v>0.544613</v>
       </c>
       <c r="C105" t="n">
-        <v>0.453176</v>
+        <v>0.452673</v>
       </c>
       <c r="D105" t="n">
-        <v>0.401855</v>
+        <v>0.402114</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.548606</v>
+        <v>0.548663</v>
       </c>
       <c r="C106" t="n">
-        <v>0.45483</v>
+        <v>0.454853</v>
       </c>
       <c r="D106" t="n">
-        <v>0.406432</v>
+        <v>0.410759</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.55444</v>
+        <v>0.553601</v>
       </c>
       <c r="C107" t="n">
-        <v>0.457633</v>
+        <v>0.45844</v>
       </c>
       <c r="D107" t="n">
-        <v>0.415484</v>
+        <v>0.411844</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5608880000000001</v>
+        <v>0.561851</v>
       </c>
       <c r="C108" t="n">
-        <v>0.462624</v>
+        <v>0.464575</v>
       </c>
       <c r="D108" t="n">
-        <v>0.529735</v>
+        <v>0.536562</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.572414</v>
+        <v>0.573483</v>
       </c>
       <c r="C109" t="n">
-        <v>0.463233</v>
+        <v>0.469717</v>
       </c>
       <c r="D109" t="n">
-        <v>0.529363</v>
+        <v>0.537782</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6099869999999999</v>
+        <v>0.611886</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5508999999999999</v>
+        <v>0.558068</v>
       </c>
       <c r="D110" t="n">
-        <v>0.531202</v>
+        <v>0.533995</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.611576</v>
+        <v>0.6107900000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.556959</v>
+        <v>0.556833</v>
       </c>
       <c r="D111" t="n">
-        <v>0.536281</v>
+        <v>0.538021</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.612364</v>
+        <v>0.6105930000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.556876</v>
+        <v>0.558104</v>
       </c>
       <c r="D112" t="n">
-        <v>0.532855</v>
+        <v>0.538399</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.614564</v>
+        <v>0.613007</v>
       </c>
       <c r="C113" t="n">
-        <v>0.556578</v>
+        <v>0.558036</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5365529999999999</v>
+        <v>0.537049</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.613072</v>
+        <v>0.612661</v>
       </c>
       <c r="C114" t="n">
-        <v>0.558131</v>
+        <v>0.5603399999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.537066</v>
+        <v>0.537733</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.614557</v>
+        <v>0.615021</v>
       </c>
       <c r="C115" t="n">
-        <v>0.55854</v>
+        <v>0.554337</v>
       </c>
       <c r="D115" t="n">
-        <v>0.530115</v>
+        <v>0.527467</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6161140000000001</v>
+        <v>0.618544</v>
       </c>
       <c r="C116" t="n">
-        <v>0.559441</v>
+        <v>0.55645</v>
       </c>
       <c r="D116" t="n">
-        <v>0.541878</v>
+        <v>0.537516</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.620219</v>
+        <v>0.618507</v>
       </c>
       <c r="C117" t="n">
-        <v>0.561418</v>
+        <v>0.557824</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5418539999999999</v>
+        <v>0.540141</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6205039999999999</v>
+        <v>0.620164</v>
       </c>
       <c r="C118" t="n">
-        <v>0.563609</v>
+        <v>0.562967</v>
       </c>
       <c r="D118" t="n">
-        <v>0.544943</v>
+        <v>0.536599</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6242760000000001</v>
+        <v>0.627041</v>
       </c>
       <c r="C119" t="n">
-        <v>0.565991</v>
+        <v>0.567904</v>
       </c>
       <c r="D119" t="n">
-        <v>0.546891</v>
+        <v>0.547186</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6288010000000001</v>
+        <v>0.629346</v>
       </c>
       <c r="C120" t="n">
-        <v>0.567838</v>
+        <v>0.570501</v>
       </c>
       <c r="D120" t="n">
-        <v>0.549965</v>
+        <v>0.552224</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.63737</v>
+        <v>0.637389</v>
       </c>
       <c r="C121" t="n">
-        <v>0.571801</v>
+        <v>0.572885</v>
       </c>
       <c r="D121" t="n">
-        <v>0.557511</v>
+        <v>0.554914</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.644053</v>
+        <v>0.645189</v>
       </c>
       <c r="C122" t="n">
-        <v>0.578138</v>
+        <v>0.5799260000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.563628</v>
+        <v>0.56712</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.657826</v>
+        <v>0.6596959999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.58294</v>
+        <v>0.583112</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6893590000000001</v>
+        <v>0.696356</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.750142</v>
+        <v>0.752986</v>
       </c>
       <c r="C124" t="n">
-        <v>0.683175</v>
+        <v>0.686608</v>
       </c>
       <c r="D124" t="n">
-        <v>0.69403</v>
+        <v>0.694669</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.750223</v>
+        <v>0.7561639999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.684508</v>
+        <v>0.6869150000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.695603</v>
+        <v>0.694985</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.751051</v>
+        <v>0.752328</v>
       </c>
       <c r="C126" t="n">
-        <v>0.681488</v>
+        <v>0.687666</v>
       </c>
       <c r="D126" t="n">
-        <v>0.689809</v>
+        <v>0.695079</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.750914</v>
+        <v>0.75319</v>
       </c>
       <c r="C127" t="n">
-        <v>0.684772</v>
+        <v>0.689347</v>
       </c>
       <c r="D127" t="n">
-        <v>0.694519</v>
+        <v>0.695605</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.752345</v>
+        <v>0.755397</v>
       </c>
       <c r="C128" t="n">
-        <v>0.688096</v>
+        <v>0.686259</v>
       </c>
       <c r="D128" t="n">
-        <v>0.691218</v>
+        <v>0.697686</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.755076</v>
+        <v>0.75573</v>
       </c>
       <c r="C129" t="n">
-        <v>0.689185</v>
+        <v>0.691721</v>
       </c>
       <c r="D129" t="n">
-        <v>0.697776</v>
+        <v>0.701935</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.755552</v>
+        <v>0.7595499999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.692929</v>
+        <v>0.6924090000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.698686</v>
+        <v>0.701426</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.759424</v>
+        <v>0.762128</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6897</v>
+        <v>0.696693</v>
       </c>
       <c r="D131" t="n">
-        <v>0.700088</v>
+        <v>0.70551</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.760105</v>
+        <v>0.764915</v>
       </c>
       <c r="C132" t="n">
-        <v>0.696572</v>
+        <v>0.699475</v>
       </c>
       <c r="D132" t="n">
-        <v>0.705001</v>
+        <v>0.705833</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.766286</v>
+        <v>0.764873</v>
       </c>
       <c r="C133" t="n">
-        <v>0.696727</v>
+        <v>0.702749</v>
       </c>
       <c r="D133" t="n">
-        <v>0.707619</v>
+        <v>0.7113969999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.770227</v>
+        <v>0.770931</v>
       </c>
       <c r="C134" t="n">
-        <v>0.701105</v>
+        <v>0.705775</v>
       </c>
       <c r="D134" t="n">
-        <v>0.70833</v>
+        <v>0.716931</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7759239999999999</v>
+        <v>0.777628</v>
       </c>
       <c r="C135" t="n">
-        <v>0.708367</v>
+        <v>0.714902</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7167519999999999</v>
+        <v>0.71653</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.783168</v>
+        <v>0.787736</v>
       </c>
       <c r="C136" t="n">
-        <v>0.712951</v>
+        <v>0.719873</v>
       </c>
       <c r="D136" t="n">
-        <v>0.723769</v>
+        <v>0.729917</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.797164</v>
+        <v>0.798026</v>
       </c>
       <c r="C137" t="n">
-        <v>0.724314</v>
+        <v>0.726052</v>
       </c>
       <c r="D137" t="n">
-        <v>0.830083</v>
+        <v>0.828518</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.87442</v>
+        <v>0.877437</v>
       </c>
       <c r="C138" t="n">
-        <v>0.806902</v>
+        <v>0.808429</v>
       </c>
       <c r="D138" t="n">
-        <v>0.827494</v>
+        <v>0.829829</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.874903</v>
+        <v>0.878765</v>
       </c>
       <c r="C139" t="n">
-        <v>0.805664</v>
+        <v>0.810014</v>
       </c>
       <c r="D139" t="n">
-        <v>0.831885</v>
+        <v>0.828931</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8755810000000001</v>
+        <v>0.87926</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8078920000000001</v>
+        <v>0.8114479999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8325979999999999</v>
+        <v>0.8301809999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.876843</v>
+        <v>0.879077</v>
       </c>
       <c r="C141" t="n">
-        <v>0.811212</v>
+        <v>0.810526</v>
       </c>
       <c r="D141" t="n">
-        <v>0.829904</v>
+        <v>0.834389</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8775309999999999</v>
+        <v>0.880647</v>
       </c>
       <c r="C142" t="n">
-        <v>0.813302</v>
+        <v>0.814628</v>
       </c>
       <c r="D142" t="n">
-        <v>0.829805</v>
+        <v>0.832052</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.880408</v>
+        <v>0.881896</v>
       </c>
       <c r="C143" t="n">
-        <v>0.81094</v>
+        <v>0.816364</v>
       </c>
       <c r="D143" t="n">
-        <v>0.830742</v>
+        <v>0.831202</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115327</v>
+        <v>0.128611</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201766</v>
+        <v>0.200162</v>
       </c>
       <c r="D2" t="n">
-        <v>0.101656</v>
+        <v>0.10599</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115922</v>
+        <v>0.128662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.189188</v>
+        <v>0.221793</v>
       </c>
       <c r="D3" t="n">
-        <v>0.101783</v>
+        <v>0.10404</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116486</v>
+        <v>0.129508</v>
       </c>
       <c r="C4" t="n">
-        <v>0.22012</v>
+        <v>0.222503</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10237</v>
+        <v>0.106376</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117374</v>
+        <v>0.131055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224471</v>
+        <v>0.223555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.102975</v>
+        <v>0.104474</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.118959</v>
+        <v>0.139742</v>
       </c>
       <c r="C6" t="n">
-        <v>0.240518</v>
+        <v>0.239343</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107001</v>
+        <v>0.106169</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.13223</v>
+        <v>0.144414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.243097</v>
+        <v>0.24201</v>
       </c>
       <c r="D7" t="n">
-        <v>0.103882</v>
+        <v>0.107808</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128552</v>
+        <v>0.144662</v>
       </c>
       <c r="C8" t="n">
-        <v>0.149727</v>
+        <v>0.159196</v>
       </c>
       <c r="D8" t="n">
-        <v>0.110944</v>
+        <v>0.108316</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.137573</v>
+        <v>0.149034</v>
       </c>
       <c r="C9" t="n">
-        <v>0.162076</v>
+        <v>0.156857</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109782</v>
+        <v>0.108204</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125814</v>
+        <v>0.125071</v>
       </c>
       <c r="C10" t="n">
-        <v>0.164269</v>
+        <v>0.172798</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110796</v>
+        <v>0.10555</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125685</v>
+        <v>0.137703</v>
       </c>
       <c r="C11" t="n">
-        <v>0.177461</v>
+        <v>0.176435</v>
       </c>
       <c r="D11" t="n">
-        <v>0.111668</v>
+        <v>0.105979</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125724</v>
+        <v>0.130933</v>
       </c>
       <c r="C12" t="n">
-        <v>0.169362</v>
+        <v>0.183065</v>
       </c>
       <c r="D12" t="n">
-        <v>0.111256</v>
+        <v>0.106131</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.126966</v>
+        <v>0.131857</v>
       </c>
       <c r="C13" t="n">
-        <v>0.181457</v>
+        <v>0.17907</v>
       </c>
       <c r="D13" t="n">
-        <v>0.110738</v>
+        <v>0.10723</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.126336</v>
+        <v>0.128087</v>
       </c>
       <c r="C14" t="n">
-        <v>0.195696</v>
+        <v>0.194242</v>
       </c>
       <c r="D14" t="n">
-        <v>0.110723</v>
+        <v>0.106072</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.135053</v>
+        <v>0.134227</v>
       </c>
       <c r="C15" t="n">
-        <v>0.207187</v>
+        <v>0.210718</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111656</v>
+        <v>0.110214</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127553</v>
+        <v>0.13555</v>
       </c>
       <c r="C16" t="n">
-        <v>0.214989</v>
+        <v>0.218063</v>
       </c>
       <c r="D16" t="n">
-        <v>0.111165</v>
+        <v>0.105969</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.12942</v>
+        <v>0.136404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238229</v>
+        <v>0.237437</v>
       </c>
       <c r="D17" t="n">
-        <v>0.113624</v>
+        <v>0.106453</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130061</v>
+        <v>0.137657</v>
       </c>
       <c r="C18" t="n">
-        <v>0.251579</v>
+        <v>0.240991</v>
       </c>
       <c r="D18" t="n">
-        <v>0.111686</v>
+        <v>0.111119</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.138468</v>
+        <v>0.14743</v>
       </c>
       <c r="C19" t="n">
-        <v>0.264948</v>
+        <v>0.272245</v>
       </c>
       <c r="D19" t="n">
-        <v>0.116947</v>
+        <v>0.110157</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.144472</v>
+        <v>0.143893</v>
       </c>
       <c r="C20" t="n">
-        <v>0.26473</v>
+        <v>0.255068</v>
       </c>
       <c r="D20" t="n">
-        <v>0.115165</v>
+        <v>0.112867</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.14196</v>
+        <v>0.155858</v>
       </c>
       <c r="C21" t="n">
-        <v>0.264529</v>
+        <v>0.263832</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1128</v>
+        <v>0.113252</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.153051</v>
+        <v>0.16097</v>
       </c>
       <c r="C22" t="n">
-        <v>0.174463</v>
+        <v>0.180525</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119941</v>
+        <v>0.115858</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164276</v>
+        <v>0.174362</v>
       </c>
       <c r="C23" t="n">
-        <v>0.171514</v>
+        <v>0.174609</v>
       </c>
       <c r="D23" t="n">
-        <v>0.120189</v>
+        <v>0.116311</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.146889</v>
+        <v>0.142418</v>
       </c>
       <c r="C24" t="n">
-        <v>0.185649</v>
+        <v>0.179363</v>
       </c>
       <c r="D24" t="n">
-        <v>0.119788</v>
+        <v>0.119941</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.137662</v>
+        <v>0.13404</v>
       </c>
       <c r="C25" t="n">
-        <v>0.196139</v>
+        <v>0.18791</v>
       </c>
       <c r="D25" t="n">
-        <v>0.120514</v>
+        <v>0.117341</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134662</v>
+        <v>0.142243</v>
       </c>
       <c r="C26" t="n">
-        <v>0.201064</v>
+        <v>0.198513</v>
       </c>
       <c r="D26" t="n">
-        <v>0.119704</v>
+        <v>0.119024</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135575</v>
+        <v>0.141264</v>
       </c>
       <c r="C27" t="n">
-        <v>0.203618</v>
+        <v>0.203567</v>
       </c>
       <c r="D27" t="n">
-        <v>0.120828</v>
+        <v>0.120942</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135762</v>
+        <v>0.142949</v>
       </c>
       <c r="C28" t="n">
-        <v>0.21332</v>
+        <v>0.222679</v>
       </c>
       <c r="D28" t="n">
-        <v>0.124049</v>
+        <v>0.120062</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137211</v>
+        <v>0.144241</v>
       </c>
       <c r="C29" t="n">
-        <v>0.227535</v>
+        <v>0.220387</v>
       </c>
       <c r="D29" t="n">
-        <v>0.123297</v>
+        <v>0.118307</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137851</v>
+        <v>0.144213</v>
       </c>
       <c r="C30" t="n">
-        <v>0.241265</v>
+        <v>0.230977</v>
       </c>
       <c r="D30" t="n">
-        <v>0.122975</v>
+        <v>0.117954</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.140033</v>
+        <v>0.147777</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243581</v>
+        <v>0.256094</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122793</v>
+        <v>0.119535</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141241</v>
+        <v>0.14846</v>
       </c>
       <c r="C32" t="n">
-        <v>0.24603</v>
+        <v>0.26088</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123298</v>
+        <v>0.117661</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.14389</v>
+        <v>0.148215</v>
       </c>
       <c r="C33" t="n">
-        <v>0.28143</v>
+        <v>0.282311</v>
       </c>
       <c r="D33" t="n">
-        <v>0.122622</v>
+        <v>0.121929</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.14796</v>
+        <v>0.154745</v>
       </c>
       <c r="C34" t="n">
-        <v>0.290871</v>
+        <v>0.287094</v>
       </c>
       <c r="D34" t="n">
-        <v>0.12294</v>
+        <v>0.120832</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153334</v>
+        <v>0.161145</v>
       </c>
       <c r="C35" t="n">
-        <v>0.292328</v>
+        <v>0.291769</v>
       </c>
       <c r="D35" t="n">
-        <v>0.126575</v>
+        <v>0.124699</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159928</v>
+        <v>0.158886</v>
       </c>
       <c r="C36" t="n">
-        <v>0.313578</v>
+        <v>0.305674</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134995</v>
+        <v>0.131624</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166345</v>
+        <v>0.175076</v>
       </c>
       <c r="C37" t="n">
-        <v>0.180268</v>
+        <v>0.179983</v>
       </c>
       <c r="D37" t="n">
-        <v>0.133109</v>
+        <v>0.132521</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147129</v>
+        <v>0.154519</v>
       </c>
       <c r="C38" t="n">
-        <v>0.190353</v>
+        <v>0.19295</v>
       </c>
       <c r="D38" t="n">
-        <v>0.132362</v>
+        <v>0.133247</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148583</v>
+        <v>0.147311</v>
       </c>
       <c r="C39" t="n">
-        <v>0.189534</v>
+        <v>0.193508</v>
       </c>
       <c r="D39" t="n">
-        <v>0.131512</v>
+        <v>0.135429</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147798</v>
+        <v>0.152403</v>
       </c>
       <c r="C40" t="n">
-        <v>0.197414</v>
+        <v>0.205299</v>
       </c>
       <c r="D40" t="n">
-        <v>0.130636</v>
+        <v>0.135724</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.152613</v>
+        <v>0.156226</v>
       </c>
       <c r="C41" t="n">
-        <v>0.20759</v>
+        <v>0.198488</v>
       </c>
       <c r="D41" t="n">
-        <v>0.130936</v>
+        <v>0.129854</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149601</v>
+        <v>0.154877</v>
       </c>
       <c r="C42" t="n">
-        <v>0.205819</v>
+        <v>0.2135</v>
       </c>
       <c r="D42" t="n">
-        <v>0.129701</v>
+        <v>0.131336</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150743</v>
+        <v>0.157076</v>
       </c>
       <c r="C43" t="n">
-        <v>0.214452</v>
+        <v>0.23059</v>
       </c>
       <c r="D43" t="n">
-        <v>0.135105</v>
+        <v>0.13382</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.167039</v>
+        <v>0.15196</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226131</v>
+        <v>0.234527</v>
       </c>
       <c r="D44" t="n">
-        <v>0.132303</v>
+        <v>0.132403</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.160233</v>
+        <v>0.15966</v>
       </c>
       <c r="C45" t="n">
-        <v>0.237017</v>
+        <v>0.246365</v>
       </c>
       <c r="D45" t="n">
-        <v>0.137831</v>
+        <v>0.135421</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.156102</v>
+        <v>0.17327</v>
       </c>
       <c r="C46" t="n">
-        <v>0.260229</v>
+        <v>0.27902</v>
       </c>
       <c r="D46" t="n">
-        <v>0.135975</v>
+        <v>0.134633</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.157452</v>
+        <v>0.159996</v>
       </c>
       <c r="C47" t="n">
-        <v>0.27884</v>
+        <v>0.263863</v>
       </c>
       <c r="D47" t="n">
-        <v>0.137712</v>
+        <v>0.138767</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.174114</v>
+        <v>0.167651</v>
       </c>
       <c r="C48" t="n">
-        <v>0.279815</v>
+        <v>0.301279</v>
       </c>
       <c r="D48" t="n">
-        <v>0.136552</v>
+        <v>0.138662</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165826</v>
+        <v>0.173783</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288573</v>
+        <v>0.301548</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139977</v>
+        <v>0.140589</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.17086</v>
+        <v>0.175418</v>
       </c>
       <c r="C50" t="n">
-        <v>0.299986</v>
+        <v>0.325225</v>
       </c>
       <c r="D50" t="n">
-        <v>0.151081</v>
+        <v>0.146989</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.192078</v>
+        <v>0.179842</v>
       </c>
       <c r="C51" t="n">
-        <v>0.186003</v>
+        <v>0.183733</v>
       </c>
       <c r="D51" t="n">
-        <v>0.144698</v>
+        <v>0.149135</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.19842</v>
+        <v>0.203643</v>
       </c>
       <c r="C52" t="n">
-        <v>0.193285</v>
+        <v>0.193364</v>
       </c>
       <c r="D52" t="n">
-        <v>0.145725</v>
+        <v>0.140461</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160302</v>
+        <v>0.160035</v>
       </c>
       <c r="C53" t="n">
-        <v>0.207535</v>
+        <v>0.202578</v>
       </c>
       <c r="D53" t="n">
-        <v>0.143869</v>
+        <v>0.142612</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159381</v>
+        <v>0.16632</v>
       </c>
       <c r="C54" t="n">
-        <v>0.198015</v>
+        <v>0.207377</v>
       </c>
       <c r="D54" t="n">
-        <v>0.143676</v>
+        <v>0.142172</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161211</v>
+        <v>0.162098</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214497</v>
+        <v>0.207539</v>
       </c>
       <c r="D55" t="n">
-        <v>0.144456</v>
+        <v>0.140759</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161918</v>
+        <v>0.162328</v>
       </c>
       <c r="C56" t="n">
-        <v>0.210079</v>
+        <v>0.21802</v>
       </c>
       <c r="D56" t="n">
-        <v>0.144137</v>
+        <v>0.148231</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162046</v>
+        <v>0.167295</v>
       </c>
       <c r="C57" t="n">
-        <v>0.225608</v>
+        <v>0.21976</v>
       </c>
       <c r="D57" t="n">
-        <v>0.146233</v>
+        <v>0.144702</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164055</v>
+        <v>0.161988</v>
       </c>
       <c r="C58" t="n">
-        <v>0.241965</v>
+        <v>0.256046</v>
       </c>
       <c r="D58" t="n">
-        <v>0.144634</v>
+        <v>0.144184</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166027</v>
+        <v>0.164805</v>
       </c>
       <c r="C59" t="n">
-        <v>0.260411</v>
+        <v>0.256503</v>
       </c>
       <c r="D59" t="n">
-        <v>0.144451</v>
+        <v>0.150006</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167554</v>
+        <v>0.167284</v>
       </c>
       <c r="C60" t="n">
-        <v>0.252588</v>
+        <v>0.255772</v>
       </c>
       <c r="D60" t="n">
-        <v>0.146595</v>
+        <v>0.145199</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169367</v>
+        <v>0.175587</v>
       </c>
       <c r="C61" t="n">
-        <v>0.272938</v>
+        <v>0.261073</v>
       </c>
       <c r="D61" t="n">
-        <v>0.152932</v>
+        <v>0.154475</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.171105</v>
+        <v>0.171825</v>
       </c>
       <c r="C62" t="n">
-        <v>0.289674</v>
+        <v>0.272415</v>
       </c>
       <c r="D62" t="n">
-        <v>0.150365</v>
+        <v>0.149108</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176072</v>
+        <v>0.190099</v>
       </c>
       <c r="C63" t="n">
-        <v>0.319599</v>
+        <v>0.295847</v>
       </c>
       <c r="D63" t="n">
-        <v>0.151661</v>
+        <v>0.156361</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.183286</v>
+        <v>0.188101</v>
       </c>
       <c r="C64" t="n">
-        <v>0.330217</v>
+        <v>0.332967</v>
       </c>
       <c r="D64" t="n">
-        <v>0.157496</v>
+        <v>0.157867</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187558</v>
+        <v>0.187623</v>
       </c>
       <c r="C65" t="n">
-        <v>0.190602</v>
+        <v>0.182184</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168482</v>
+        <v>0.163929</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19822</v>
+        <v>0.20311</v>
       </c>
       <c r="C66" t="n">
-        <v>0.188001</v>
+        <v>0.186361</v>
       </c>
       <c r="D66" t="n">
-        <v>0.165039</v>
+        <v>0.160745</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.207324</v>
+        <v>0.187054</v>
       </c>
       <c r="C67" t="n">
-        <v>0.20337</v>
+        <v>0.195524</v>
       </c>
       <c r="D67" t="n">
-        <v>0.168537</v>
+        <v>0.164417</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.202441</v>
+        <v>0.179142</v>
       </c>
       <c r="C68" t="n">
-        <v>0.207452</v>
+        <v>0.196901</v>
       </c>
       <c r="D68" t="n">
-        <v>0.167379</v>
+        <v>0.156605</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.210395</v>
+        <v>0.191814</v>
       </c>
       <c r="C69" t="n">
-        <v>0.205031</v>
+        <v>0.200263</v>
       </c>
       <c r="D69" t="n">
-        <v>0.169143</v>
+        <v>0.15923</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.21245</v>
+        <v>0.188733</v>
       </c>
       <c r="C70" t="n">
-        <v>0.222176</v>
+        <v>0.211255</v>
       </c>
       <c r="D70" t="n">
-        <v>0.167491</v>
+        <v>0.161718</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.211357</v>
+        <v>0.187791</v>
       </c>
       <c r="C71" t="n">
-        <v>0.238159</v>
+        <v>0.22546</v>
       </c>
       <c r="D71" t="n">
-        <v>0.166728</v>
+        <v>0.164315</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.21942</v>
+        <v>0.189365</v>
       </c>
       <c r="C72" t="n">
-        <v>0.257518</v>
+        <v>0.254796</v>
       </c>
       <c r="D72" t="n">
-        <v>0.168446</v>
+        <v>0.159705</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.215975</v>
+        <v>0.194577</v>
       </c>
       <c r="C73" t="n">
-        <v>0.258492</v>
+        <v>0.252247</v>
       </c>
       <c r="D73" t="n">
-        <v>0.167976</v>
+        <v>0.160123</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.218195</v>
+        <v>0.185601</v>
       </c>
       <c r="C74" t="n">
-        <v>0.26034</v>
+        <v>0.281016</v>
       </c>
       <c r="D74" t="n">
-        <v>0.17119</v>
+        <v>0.167893</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.221344</v>
+        <v>0.196909</v>
       </c>
       <c r="C75" t="n">
-        <v>0.269474</v>
+        <v>0.27385</v>
       </c>
       <c r="D75" t="n">
-        <v>0.170266</v>
+        <v>0.170051</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.224271</v>
+        <v>0.200925</v>
       </c>
       <c r="C76" t="n">
-        <v>0.280817</v>
+        <v>0.291094</v>
       </c>
       <c r="D76" t="n">
-        <v>0.173858</v>
+        <v>0.164881</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.237188</v>
+        <v>0.207483</v>
       </c>
       <c r="C77" t="n">
-        <v>0.303653</v>
+        <v>0.303191</v>
       </c>
       <c r="D77" t="n">
-        <v>0.178377</v>
+        <v>0.167954</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.228053</v>
+        <v>0.206245</v>
       </c>
       <c r="C78" t="n">
-        <v>0.314725</v>
+        <v>0.339403</v>
       </c>
       <c r="D78" t="n">
-        <v>0.185161</v>
+        <v>0.172508</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.225024</v>
+        <v>0.212868</v>
       </c>
       <c r="C79" t="n">
-        <v>0.236967</v>
+        <v>0.219577</v>
       </c>
       <c r="D79" t="n">
-        <v>0.186463</v>
+        <v>0.176831</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.242123</v>
+        <v>0.222459</v>
       </c>
       <c r="C80" t="n">
-        <v>0.255354</v>
+        <v>0.22839</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243398</v>
+        <v>0.238937</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.364427</v>
+        <v>0.363761</v>
       </c>
       <c r="C81" t="n">
-        <v>0.241723</v>
+        <v>0.218418</v>
       </c>
       <c r="D81" t="n">
-        <v>0.238756</v>
+        <v>0.231836</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.357439</v>
+        <v>0.365371</v>
       </c>
       <c r="C82" t="n">
-        <v>0.235155</v>
+        <v>0.248965</v>
       </c>
       <c r="D82" t="n">
-        <v>0.235075</v>
+        <v>0.240247</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.362351</v>
+        <v>0.368575</v>
       </c>
       <c r="C83" t="n">
-        <v>0.232318</v>
+        <v>0.248896</v>
       </c>
       <c r="D83" t="n">
-        <v>0.235912</v>
+        <v>0.230776</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.361159</v>
+        <v>0.365612</v>
       </c>
       <c r="C84" t="n">
-        <v>0.258157</v>
+        <v>0.261048</v>
       </c>
       <c r="D84" t="n">
-        <v>0.235418</v>
+        <v>0.239995</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.366153</v>
+        <v>0.371599</v>
       </c>
       <c r="C85" t="n">
-        <v>0.266539</v>
+        <v>0.267684</v>
       </c>
       <c r="D85" t="n">
-        <v>0.236349</v>
+        <v>0.24053</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.360971</v>
+        <v>0.365808</v>
       </c>
       <c r="C86" t="n">
-        <v>0.255148</v>
+        <v>0.294465</v>
       </c>
       <c r="D86" t="n">
-        <v>0.234506</v>
+        <v>0.236061</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.364493</v>
+        <v>0.372604</v>
       </c>
       <c r="C87" t="n">
-        <v>0.273049</v>
+        <v>0.29694</v>
       </c>
       <c r="D87" t="n">
-        <v>0.234943</v>
+        <v>0.23296</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.367236</v>
+        <v>0.372786</v>
       </c>
       <c r="C88" t="n">
-        <v>0.295191</v>
+        <v>0.295462</v>
       </c>
       <c r="D88" t="n">
-        <v>0.232141</v>
+        <v>0.239442</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.36994</v>
+        <v>0.375972</v>
       </c>
       <c r="C89" t="n">
-        <v>0.317618</v>
+        <v>0.317985</v>
       </c>
       <c r="D89" t="n">
-        <v>0.231014</v>
+        <v>0.234133</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.369515</v>
+        <v>0.376354</v>
       </c>
       <c r="C90" t="n">
-        <v>0.323144</v>
+        <v>0.327659</v>
       </c>
       <c r="D90" t="n">
-        <v>0.231703</v>
+        <v>0.23535</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.38158</v>
+        <v>0.379295</v>
       </c>
       <c r="C91" t="n">
-        <v>0.346722</v>
+        <v>0.329579</v>
       </c>
       <c r="D91" t="n">
-        <v>0.231503</v>
+        <v>0.233707</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.375639</v>
+        <v>0.377512</v>
       </c>
       <c r="C92" t="n">
-        <v>0.353001</v>
+        <v>0.358364</v>
       </c>
       <c r="D92" t="n">
-        <v>0.232925</v>
+        <v>0.232229</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.378541</v>
+        <v>0.38839</v>
       </c>
       <c r="C93" t="n">
-        <v>0.381969</v>
+        <v>0.379215</v>
       </c>
       <c r="D93" t="n">
-        <v>0.238043</v>
+        <v>0.234508</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.385305</v>
+        <v>0.391562</v>
       </c>
       <c r="C94" t="n">
-        <v>0.399427</v>
+        <v>0.37131</v>
       </c>
       <c r="D94" t="n">
-        <v>0.390211</v>
+        <v>0.39356</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.522438</v>
+        <v>0.52819</v>
       </c>
       <c r="C95" t="n">
-        <v>0.421782</v>
+        <v>0.378547</v>
       </c>
       <c r="D95" t="n">
-        <v>0.389983</v>
+        <v>0.393818</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.522113</v>
+        <v>0.533021</v>
       </c>
       <c r="C96" t="n">
-        <v>0.401041</v>
+        <v>0.388738</v>
       </c>
       <c r="D96" t="n">
-        <v>0.389282</v>
+        <v>0.392534</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.522458</v>
+        <v>0.530075</v>
       </c>
       <c r="C97" t="n">
-        <v>0.382315</v>
+        <v>0.416105</v>
       </c>
       <c r="D97" t="n">
-        <v>0.389308</v>
+        <v>0.395493</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5273910000000001</v>
+        <v>0.532288</v>
       </c>
       <c r="C98" t="n">
-        <v>0.393549</v>
+        <v>0.442096</v>
       </c>
       <c r="D98" t="n">
-        <v>0.388589</v>
+        <v>0.39463</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528188</v>
+        <v>0.535842</v>
       </c>
       <c r="C99" t="n">
-        <v>0.403477</v>
+        <v>0.454313</v>
       </c>
       <c r="D99" t="n">
-        <v>0.387559</v>
+        <v>0.391814</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5254760000000001</v>
+        <v>0.536833</v>
       </c>
       <c r="C100" t="n">
-        <v>0.415845</v>
+        <v>0.457608</v>
       </c>
       <c r="D100" t="n">
-        <v>0.39401</v>
+        <v>0.393346</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.526455</v>
+        <v>0.535789</v>
       </c>
       <c r="C101" t="n">
-        <v>0.434504</v>
+        <v>0.440322</v>
       </c>
       <c r="D101" t="n">
-        <v>0.387078</v>
+        <v>0.396302</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.526971</v>
+        <v>0.539313</v>
       </c>
       <c r="C102" t="n">
-        <v>0.468798</v>
+        <v>0.477264</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3883</v>
+        <v>0.391947</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5292829999999999</v>
+        <v>0.538506</v>
       </c>
       <c r="C103" t="n">
-        <v>0.473935</v>
+        <v>0.527593</v>
       </c>
       <c r="D103" t="n">
-        <v>0.387808</v>
+        <v>0.381542</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.530828</v>
+        <v>0.542712</v>
       </c>
       <c r="C104" t="n">
-        <v>0.512379</v>
+        <v>0.499672</v>
       </c>
       <c r="D104" t="n">
-        <v>0.390237</v>
+        <v>0.394366</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.532799</v>
+        <v>0.544981</v>
       </c>
       <c r="C105" t="n">
-        <v>0.526666</v>
+        <v>0.520021</v>
       </c>
       <c r="D105" t="n">
-        <v>0.394034</v>
+        <v>0.403087</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5369660000000001</v>
+        <v>0.548127</v>
       </c>
       <c r="C106" t="n">
-        <v>0.519002</v>
+        <v>0.533207</v>
       </c>
       <c r="D106" t="n">
-        <v>0.395566</v>
+        <v>0.40041</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.542367</v>
+        <v>0.550341</v>
       </c>
       <c r="C107" t="n">
-        <v>0.538806</v>
+        <v>0.536604</v>
       </c>
       <c r="D107" t="n">
-        <v>0.401153</v>
+        <v>0.405533</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5500119999999999</v>
+        <v>0.563936</v>
       </c>
       <c r="C108" t="n">
-        <v>0.476699</v>
+        <v>0.598086</v>
       </c>
       <c r="D108" t="n">
-        <v>0.526095</v>
+        <v>0.529904</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5609189999999999</v>
+        <v>0.572198</v>
       </c>
       <c r="C109" t="n">
-        <v>0.564754</v>
+        <v>0.6082880000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.526604</v>
+        <v>0.529202</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.603711</v>
+        <v>0.6095429999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.599561</v>
+        <v>0.5876</v>
       </c>
       <c r="D110" t="n">
-        <v>0.528458</v>
+        <v>0.53046</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6087050000000001</v>
+        <v>0.609387</v>
       </c>
       <c r="C111" t="n">
-        <v>0.571655</v>
+        <v>0.510228</v>
       </c>
       <c r="D111" t="n">
-        <v>0.525668</v>
+        <v>0.524271</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.605587</v>
+        <v>0.611446</v>
       </c>
       <c r="C112" t="n">
-        <v>0.511699</v>
+        <v>0.517609</v>
       </c>
       <c r="D112" t="n">
-        <v>0.529034</v>
+        <v>0.531009</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.607013</v>
+        <v>0.609704</v>
       </c>
       <c r="C113" t="n">
-        <v>0.520881</v>
+        <v>0.6339050000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.534734</v>
+        <v>0.530968</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.606182</v>
+        <v>0.614069</v>
       </c>
       <c r="C114" t="n">
-        <v>0.537903</v>
+        <v>0.613472</v>
       </c>
       <c r="D114" t="n">
-        <v>0.530154</v>
+        <v>0.531178</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.608542</v>
+        <v>0.615281</v>
       </c>
       <c r="C115" t="n">
-        <v>0.566296</v>
+        <v>0.608326</v>
       </c>
       <c r="D115" t="n">
-        <v>0.527879</v>
+        <v>0.528346</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.607789</v>
+        <v>0.613024</v>
       </c>
       <c r="C116" t="n">
-        <v>0.677434</v>
+        <v>0.682397</v>
       </c>
       <c r="D116" t="n">
-        <v>0.529006</v>
+        <v>0.536304</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.61261</v>
+        <v>0.622075</v>
       </c>
       <c r="C117" t="n">
-        <v>0.666927</v>
+        <v>0.705332</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5314489999999999</v>
+        <v>0.531928</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6135699999999999</v>
+        <v>0.624207</v>
       </c>
       <c r="C118" t="n">
-        <v>0.657758</v>
+        <v>0.69646</v>
       </c>
       <c r="D118" t="n">
-        <v>0.534442</v>
+        <v>0.540399</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.620211</v>
+        <v>0.6241370000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.716136</v>
+        <v>0.681791</v>
       </c>
       <c r="D119" t="n">
-        <v>0.537882</v>
+        <v>0.5435720000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.624932</v>
+        <v>0.632513</v>
       </c>
       <c r="C120" t="n">
-        <v>0.707654</v>
+        <v>0.724807</v>
       </c>
       <c r="D120" t="n">
-        <v>0.542447</v>
+        <v>0.547031</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6320249999999999</v>
+        <v>0.637547</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7285970000000001</v>
+        <v>0.733778</v>
       </c>
       <c r="D121" t="n">
-        <v>0.546423</v>
+        <v>0.546111</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.639489</v>
+        <v>0.6464029999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.661345</v>
+        <v>0.534597</v>
       </c>
       <c r="D122" t="n">
-        <v>0.555059</v>
+        <v>0.561303</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.651697</v>
+        <v>0.656083</v>
       </c>
       <c r="C123" t="n">
-        <v>0.684731</v>
+        <v>0.56542</v>
       </c>
       <c r="D123" t="n">
-        <v>0.682988</v>
+        <v>0.691124</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7430290000000001</v>
+        <v>0.745801</v>
       </c>
       <c r="C124" t="n">
-        <v>0.543534</v>
+        <v>0.6125429999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.684401</v>
+        <v>0.688106</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7448360000000001</v>
+        <v>0.750339</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7020420000000001</v>
+        <v>0.707533</v>
       </c>
       <c r="D125" t="n">
-        <v>0.684329</v>
+        <v>0.692511</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7449170000000001</v>
+        <v>0.750919</v>
       </c>
       <c r="C126" t="n">
-        <v>0.563658</v>
+        <v>0.599059</v>
       </c>
       <c r="D126" t="n">
-        <v>0.688453</v>
+        <v>0.689407</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.745715</v>
+        <v>0.752803</v>
       </c>
       <c r="C127" t="n">
-        <v>0.573197</v>
+        <v>0.711978</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6897529999999999</v>
+        <v>0.692547</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.746041</v>
+        <v>0.75543</v>
       </c>
       <c r="C128" t="n">
-        <v>0.691174</v>
+        <v>0.73773</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6857569999999999</v>
+        <v>0.693439</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.747794</v>
+        <v>0.753157</v>
       </c>
       <c r="C129" t="n">
-        <v>0.743681</v>
+        <v>0.739846</v>
       </c>
       <c r="D129" t="n">
-        <v>0.689866</v>
+        <v>0.694619</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.749166</v>
+        <v>0.754623</v>
       </c>
       <c r="C130" t="n">
-        <v>0.657619</v>
+        <v>0.732022</v>
       </c>
       <c r="D130" t="n">
-        <v>0.692039</v>
+        <v>0.690924</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.75326</v>
+        <v>0.759203</v>
       </c>
       <c r="C131" t="n">
-        <v>0.775055</v>
+        <v>0.7702870000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.69404</v>
+        <v>0.698959</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7564650000000001</v>
+        <v>0.758798</v>
       </c>
       <c r="C132" t="n">
-        <v>0.799592</v>
+        <v>0.79575</v>
       </c>
       <c r="D132" t="n">
-        <v>0.69636</v>
+        <v>0.70234</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.760209</v>
+        <v>0.76428</v>
       </c>
       <c r="C133" t="n">
-        <v>0.795138</v>
+        <v>0.819164</v>
       </c>
       <c r="D133" t="n">
-        <v>0.695987</v>
+        <v>0.704245</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.765283</v>
+        <v>0.76972</v>
       </c>
       <c r="C134" t="n">
-        <v>0.808233</v>
+        <v>0.827718</v>
       </c>
       <c r="D134" t="n">
-        <v>0.702294</v>
+        <v>0.708855</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.770699</v>
+        <v>0.773334</v>
       </c>
       <c r="C135" t="n">
-        <v>0.833345</v>
+        <v>0.842679</v>
       </c>
       <c r="D135" t="n">
-        <v>0.707826</v>
+        <v>0.712264</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.778406</v>
+        <v>0.786805</v>
       </c>
       <c r="C136" t="n">
-        <v>0.659786</v>
+        <v>0.560798</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7142309999999999</v>
+        <v>0.722074</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.791502</v>
+        <v>0.806142</v>
       </c>
       <c r="C137" t="n">
-        <v>0.713081</v>
+        <v>0.7455039999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.82157</v>
+        <v>0.82852</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.86453</v>
+        <v>0.877615</v>
       </c>
       <c r="C138" t="n">
-        <v>0.744175</v>
+        <v>0.750814</v>
       </c>
       <c r="D138" t="n">
-        <v>0.820959</v>
+        <v>0.828643</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.864543</v>
+        <v>0.879985</v>
       </c>
       <c r="C139" t="n">
-        <v>0.738805</v>
+        <v>0.761707</v>
       </c>
       <c r="D139" t="n">
-        <v>0.822277</v>
+        <v>0.829425</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.865462</v>
+        <v>0.878579</v>
       </c>
       <c r="C140" t="n">
-        <v>0.744772</v>
+        <v>0.738618</v>
       </c>
       <c r="D140" t="n">
-        <v>0.823305</v>
+        <v>0.830372</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.866532</v>
+        <v>0.882644</v>
       </c>
       <c r="C141" t="n">
-        <v>0.76427</v>
+        <v>0.766861</v>
       </c>
       <c r="D141" t="n">
-        <v>0.822425</v>
+        <v>0.830075</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8661759999999999</v>
+        <v>0.890373</v>
       </c>
       <c r="C142" t="n">
-        <v>0.768836</v>
+        <v>0.784623</v>
       </c>
       <c r="D142" t="n">
-        <v>0.825618</v>
+        <v>0.831186</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8678979999999999</v>
+        <v>0.883978</v>
       </c>
       <c r="C143" t="n">
-        <v>0.799673</v>
+        <v>0.790488</v>
       </c>
       <c r="D143" t="n">
-        <v>0.82523</v>
+        <v>0.83096</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.125032</v>
+        <v>0.127716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0920405</v>
+        <v>0.09359140000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.104841</v>
+        <v>0.104879</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12774</v>
+        <v>0.132484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09367</v>
+        <v>0.10027</v>
       </c>
       <c r="D3" t="n">
-        <v>0.105455</v>
+        <v>0.110744</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.128274</v>
+        <v>0.132073</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0942958</v>
+        <v>0.0959829</v>
       </c>
       <c r="D4" t="n">
-        <v>0.106273</v>
+        <v>0.100358</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.122135</v>
+        <v>0.132572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.092697</v>
+        <v>0.0935983</v>
       </c>
       <c r="D5" t="n">
-        <v>0.106051</v>
+        <v>0.106559</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12442</v>
+        <v>0.134521</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0946028</v>
+        <v>0.0946531</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107665</v>
+        <v>0.100205</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127499</v>
+        <v>0.142632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09399399999999999</v>
+        <v>0.09724430000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.107562</v>
+        <v>0.110024</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.151233</v>
+        <v>0.136583</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0965789</v>
+        <v>0.09854889999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.109344</v>
+        <v>0.114504</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.16505</v>
+        <v>0.1559</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0974537</v>
+        <v>0.0979071</v>
       </c>
       <c r="D9" t="n">
-        <v>0.110633</v>
+        <v>0.113497</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.127754</v>
+        <v>0.126644</v>
       </c>
       <c r="C10" t="n">
-        <v>0.100316</v>
+        <v>0.09981089999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110831</v>
+        <v>0.11144</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126646</v>
+        <v>0.128271</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09927279999999999</v>
+        <v>0.100597</v>
       </c>
       <c r="D11" t="n">
-        <v>0.104537</v>
+        <v>0.109187</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128785</v>
+        <v>0.127342</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09926219999999999</v>
+        <v>0.100841</v>
       </c>
       <c r="D12" t="n">
-        <v>0.11044</v>
+        <v>0.112383</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.129458</v>
+        <v>0.129974</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0991464</v>
+        <v>0.101653</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111297</v>
+        <v>0.112614</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128078</v>
+        <v>0.129487</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0987273</v>
+        <v>0.101005</v>
       </c>
       <c r="D14" t="n">
-        <v>0.103822</v>
+        <v>0.108222</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.132815</v>
+        <v>0.132983</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09922350000000001</v>
+        <v>0.1017</v>
       </c>
       <c r="D15" t="n">
-        <v>0.110498</v>
+        <v>0.112779</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.13055</v>
+        <v>0.131077</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1011</v>
+        <v>0.101694</v>
       </c>
       <c r="D16" t="n">
-        <v>0.111276</v>
+        <v>0.115245</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.140391</v>
+        <v>0.132455</v>
       </c>
       <c r="C17" t="n">
-        <v>0.100469</v>
+        <v>0.102097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111409</v>
+        <v>0.113671</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.131916</v>
+        <v>0.134151</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0998329</v>
+        <v>0.102703</v>
       </c>
       <c r="D18" t="n">
-        <v>0.105473</v>
+        <v>0.114716</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.136225</v>
+        <v>0.135243</v>
       </c>
       <c r="C19" t="n">
-        <v>0.100595</v>
+        <v>0.103289</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11223</v>
+        <v>0.116846</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.141118</v>
+        <v>0.138946</v>
       </c>
       <c r="C20" t="n">
-        <v>0.101243</v>
+        <v>0.104375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.106942</v>
+        <v>0.117709</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.149628</v>
+        <v>0.145475</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102585</v>
+        <v>0.105984</v>
       </c>
       <c r="D21" t="n">
-        <v>0.108202</v>
+        <v>0.11479</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.150904</v>
+        <v>0.151304</v>
       </c>
       <c r="C22" t="n">
-        <v>0.104523</v>
+        <v>0.109676</v>
       </c>
       <c r="D22" t="n">
-        <v>0.11352</v>
+        <v>0.123348</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.168164</v>
+        <v>0.161504</v>
       </c>
       <c r="C23" t="n">
-        <v>0.112776</v>
+        <v>0.116781</v>
       </c>
       <c r="D23" t="n">
-        <v>0.120301</v>
+        <v>0.119446</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135018</v>
+        <v>0.134052</v>
       </c>
       <c r="C24" t="n">
-        <v>0.109082</v>
+        <v>0.109481</v>
       </c>
       <c r="D24" t="n">
-        <v>0.113963</v>
+        <v>0.120241</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13543</v>
+        <v>0.145024</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108245</v>
+        <v>0.109362</v>
       </c>
       <c r="D25" t="n">
-        <v>0.12051</v>
+        <v>0.120441</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135987</v>
+        <v>0.134626</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108761</v>
+        <v>0.109277</v>
       </c>
       <c r="D26" t="n">
-        <v>0.114321</v>
+        <v>0.120384</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135616</v>
+        <v>0.135198</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109028</v>
+        <v>0.108579</v>
       </c>
       <c r="D27" t="n">
-        <v>0.120119</v>
+        <v>0.114498</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138311</v>
+        <v>0.137233</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108997</v>
+        <v>0.10911</v>
       </c>
       <c r="D28" t="n">
-        <v>0.120601</v>
+        <v>0.120624</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137975</v>
+        <v>0.138004</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109415</v>
+        <v>0.110117</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1146</v>
+        <v>0.12105</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138493</v>
+        <v>0.138034</v>
       </c>
       <c r="C30" t="n">
-        <v>0.109555</v>
+        <v>0.109615</v>
       </c>
       <c r="D30" t="n">
-        <v>0.114936</v>
+        <v>0.120217</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141079</v>
+        <v>0.138961</v>
       </c>
       <c r="C31" t="n">
-        <v>0.110079</v>
+        <v>0.110668</v>
       </c>
       <c r="D31" t="n">
-        <v>0.115164</v>
+        <v>0.122867</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.14215</v>
+        <v>0.141113</v>
       </c>
       <c r="C32" t="n">
-        <v>0.111659</v>
+        <v>0.11149</v>
       </c>
       <c r="D32" t="n">
-        <v>0.121336</v>
+        <v>0.115723</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144584</v>
+        <v>0.144428</v>
       </c>
       <c r="C33" t="n">
-        <v>0.11257</v>
+        <v>0.11305</v>
       </c>
       <c r="D33" t="n">
-        <v>0.116554</v>
+        <v>0.116254</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.149306</v>
+        <v>0.146888</v>
       </c>
       <c r="C34" t="n">
-        <v>0.114872</v>
+        <v>0.115607</v>
       </c>
       <c r="D34" t="n">
-        <v>0.123439</v>
+        <v>0.117524</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152452</v>
+        <v>0.152434</v>
       </c>
       <c r="C35" t="n">
-        <v>0.118039</v>
+        <v>0.1181</v>
       </c>
       <c r="D35" t="n">
-        <v>0.127615</v>
+        <v>0.127256</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159457</v>
+        <v>0.15842</v>
       </c>
       <c r="C36" t="n">
-        <v>0.122517</v>
+        <v>0.128757</v>
       </c>
       <c r="D36" t="n">
-        <v>0.128831</v>
+        <v>0.1284</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167079</v>
+        <v>0.166922</v>
       </c>
       <c r="C37" t="n">
-        <v>0.127761</v>
+        <v>0.128005</v>
       </c>
       <c r="D37" t="n">
-        <v>0.129939</v>
+        <v>0.129577</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.150289</v>
+        <v>0.147986</v>
       </c>
       <c r="C38" t="n">
-        <v>0.119817</v>
+        <v>0.118906</v>
       </c>
       <c r="D38" t="n">
-        <v>0.127889</v>
+        <v>0.127168</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148679</v>
+        <v>0.146318</v>
       </c>
       <c r="C39" t="n">
-        <v>0.119478</v>
+        <v>0.120105</v>
       </c>
       <c r="D39" t="n">
-        <v>0.132663</v>
+        <v>0.132319</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148189</v>
+        <v>0.14817</v>
       </c>
       <c r="C40" t="n">
-        <v>0.120254</v>
+        <v>0.119976</v>
       </c>
       <c r="D40" t="n">
-        <v>0.127736</v>
+        <v>0.126737</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149943</v>
+        <v>0.14734</v>
       </c>
       <c r="C41" t="n">
-        <v>0.120551</v>
+        <v>0.120109</v>
       </c>
       <c r="D41" t="n">
-        <v>0.132335</v>
+        <v>0.127377</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149955</v>
+        <v>0.147866</v>
       </c>
       <c r="C42" t="n">
-        <v>0.121193</v>
+        <v>0.12076</v>
       </c>
       <c r="D42" t="n">
-        <v>0.128628</v>
+        <v>0.133262</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.15036</v>
+        <v>0.150238</v>
       </c>
       <c r="C43" t="n">
-        <v>0.122501</v>
+        <v>0.121494</v>
       </c>
       <c r="D43" t="n">
-        <v>0.128858</v>
+        <v>0.133884</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.154038</v>
+        <v>0.150563</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1233</v>
+        <v>0.122648</v>
       </c>
       <c r="D44" t="n">
-        <v>0.134042</v>
+        <v>0.128419</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.154455</v>
+        <v>0.152501</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124391</v>
+        <v>0.124133</v>
       </c>
       <c r="D45" t="n">
-        <v>0.134354</v>
+        <v>0.128351</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155394</v>
+        <v>0.155569</v>
       </c>
       <c r="C46" t="n">
-        <v>0.12554</v>
+        <v>0.126171</v>
       </c>
       <c r="D46" t="n">
-        <v>0.129652</v>
+        <v>0.13512</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16079</v>
+        <v>0.158947</v>
       </c>
       <c r="C47" t="n">
-        <v>0.127505</v>
+        <v>0.127119</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135296</v>
+        <v>0.129244</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.16224</v>
+        <v>0.160298</v>
       </c>
       <c r="C48" t="n">
-        <v>0.128594</v>
+        <v>0.130405</v>
       </c>
       <c r="D48" t="n">
-        <v>0.132201</v>
+        <v>0.132589</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.167254</v>
+        <v>0.165396</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131726</v>
+        <v>0.131508</v>
       </c>
       <c r="D49" t="n">
-        <v>0.136276</v>
+        <v>0.135827</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170688</v>
+        <v>0.172687</v>
       </c>
       <c r="C50" t="n">
-        <v>0.134802</v>
+        <v>0.13441</v>
       </c>
       <c r="D50" t="n">
-        <v>0.146791</v>
+        <v>0.140155</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.188952</v>
+        <v>0.178464</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138828</v>
+        <v>0.14566</v>
       </c>
       <c r="D51" t="n">
-        <v>0.145437</v>
+        <v>0.140903</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188768</v>
+        <v>0.190487</v>
       </c>
       <c r="C52" t="n">
-        <v>0.14549</v>
+        <v>0.145031</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140094</v>
+        <v>0.140978</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159788</v>
+        <v>0.159758</v>
       </c>
       <c r="C53" t="n">
-        <v>0.129481</v>
+        <v>0.1298</v>
       </c>
       <c r="D53" t="n">
-        <v>0.140356</v>
+        <v>0.145468</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.162167</v>
+        <v>0.160097</v>
       </c>
       <c r="C54" t="n">
-        <v>0.130474</v>
+        <v>0.130396</v>
       </c>
       <c r="D54" t="n">
-        <v>0.145588</v>
+        <v>0.141007</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.16235</v>
+        <v>0.16831</v>
       </c>
       <c r="C55" t="n">
-        <v>0.131272</v>
+        <v>0.130913</v>
       </c>
       <c r="D55" t="n">
-        <v>0.140962</v>
+        <v>0.145799</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.164025</v>
+        <v>0.161395</v>
       </c>
       <c r="C56" t="n">
-        <v>0.132072</v>
+        <v>0.131904</v>
       </c>
       <c r="D56" t="n">
-        <v>0.140855</v>
+        <v>0.141429</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163905</v>
+        <v>0.162538</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133071</v>
+        <v>0.132659</v>
       </c>
       <c r="D57" t="n">
-        <v>0.141085</v>
+        <v>0.146136</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.165116</v>
+        <v>0.164248</v>
       </c>
       <c r="C58" t="n">
-        <v>0.133354</v>
+        <v>0.133586</v>
       </c>
       <c r="D58" t="n">
-        <v>0.146472</v>
+        <v>0.141897</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165901</v>
+        <v>0.165384</v>
       </c>
       <c r="C59" t="n">
-        <v>0.135126</v>
+        <v>0.134801</v>
       </c>
       <c r="D59" t="n">
-        <v>0.142198</v>
+        <v>0.142349</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16837</v>
+        <v>0.16804</v>
       </c>
       <c r="C60" t="n">
-        <v>0.136442</v>
+        <v>0.136023</v>
       </c>
       <c r="D60" t="n">
-        <v>0.143734</v>
+        <v>0.14852</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.173511</v>
+        <v>0.169309</v>
       </c>
       <c r="C61" t="n">
-        <v>0.137808</v>
+        <v>0.137524</v>
       </c>
       <c r="D61" t="n">
-        <v>0.145401</v>
+        <v>0.150293</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174221</v>
+        <v>0.172731</v>
       </c>
       <c r="C62" t="n">
-        <v>0.139362</v>
+        <v>0.13916</v>
       </c>
       <c r="D62" t="n">
-        <v>0.146922</v>
+        <v>0.152327</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177458</v>
+        <v>0.17605</v>
       </c>
       <c r="C63" t="n">
-        <v>0.148397</v>
+        <v>0.14103</v>
       </c>
       <c r="D63" t="n">
-        <v>0.150367</v>
+        <v>0.155355</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182603</v>
+        <v>0.182934</v>
       </c>
       <c r="C64" t="n">
-        <v>0.144675</v>
+        <v>0.145478</v>
       </c>
       <c r="D64" t="n">
-        <v>0.160118</v>
+        <v>0.154166</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190226</v>
+        <v>0.188352</v>
       </c>
       <c r="C65" t="n">
-        <v>0.148488</v>
+        <v>0.148367</v>
       </c>
       <c r="D65" t="n">
-        <v>0.160697</v>
+        <v>0.160832</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197544</v>
+        <v>0.196171</v>
       </c>
       <c r="C66" t="n">
-        <v>0.153523</v>
+        <v>0.161136</v>
       </c>
       <c r="D66" t="n">
-        <v>0.159922</v>
+        <v>0.159765</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.181681</v>
+        <v>0.182511</v>
       </c>
       <c r="C67" t="n">
-        <v>0.150747</v>
+        <v>0.146227</v>
       </c>
       <c r="D67" t="n">
-        <v>0.160762</v>
+        <v>0.154946</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.182995</v>
+        <v>0.181661</v>
       </c>
       <c r="C68" t="n">
-        <v>0.151311</v>
+        <v>0.14761</v>
       </c>
       <c r="D68" t="n">
-        <v>0.162233</v>
+        <v>0.155033</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.18685</v>
+        <v>0.181935</v>
       </c>
       <c r="C69" t="n">
-        <v>0.154604</v>
+        <v>0.147601</v>
       </c>
       <c r="D69" t="n">
-        <v>0.156786</v>
+        <v>0.154725</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.187387</v>
+        <v>0.182515</v>
       </c>
       <c r="C70" t="n">
-        <v>0.154294</v>
+        <v>0.147289</v>
       </c>
       <c r="D70" t="n">
-        <v>0.161774</v>
+        <v>0.154998</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.18996</v>
+        <v>0.185782</v>
       </c>
       <c r="C71" t="n">
-        <v>0.152741</v>
+        <v>0.150559</v>
       </c>
       <c r="D71" t="n">
-        <v>0.165031</v>
+        <v>0.15679</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192976</v>
+        <v>0.186218</v>
       </c>
       <c r="C72" t="n">
-        <v>0.153115</v>
+        <v>0.149824</v>
       </c>
       <c r="D72" t="n">
-        <v>0.16296</v>
+        <v>0.15734</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.189007</v>
+        <v>0.184782</v>
       </c>
       <c r="C73" t="n">
-        <v>0.155492</v>
+        <v>0.151964</v>
       </c>
       <c r="D73" t="n">
-        <v>0.163777</v>
+        <v>0.157226</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.187895</v>
+        <v>0.188754</v>
       </c>
       <c r="C74" t="n">
-        <v>0.156593</v>
+        <v>0.153813</v>
       </c>
       <c r="D74" t="n">
-        <v>0.160157</v>
+        <v>0.158248</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.196025</v>
+        <v>0.190377</v>
       </c>
       <c r="C75" t="n">
-        <v>0.160683</v>
+        <v>0.152982</v>
       </c>
       <c r="D75" t="n">
-        <v>0.161655</v>
+        <v>0.160153</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.199923</v>
+        <v>0.191461</v>
       </c>
       <c r="C76" t="n">
-        <v>0.161163</v>
+        <v>0.154728</v>
       </c>
       <c r="D76" t="n">
-        <v>0.168135</v>
+        <v>0.161666</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.20241</v>
+        <v>0.19646</v>
       </c>
       <c r="C77" t="n">
-        <v>0.162987</v>
+        <v>0.158675</v>
       </c>
       <c r="D77" t="n">
-        <v>0.164594</v>
+        <v>0.169297</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.202106</v>
+        <v>0.200845</v>
       </c>
       <c r="C78" t="n">
-        <v>0.166254</v>
+        <v>0.16445</v>
       </c>
       <c r="D78" t="n">
-        <v>0.167475</v>
+        <v>0.173215</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.210722</v>
+        <v>0.207237</v>
       </c>
       <c r="C79" t="n">
-        <v>0.163304</v>
+        <v>0.163166</v>
       </c>
       <c r="D79" t="n">
-        <v>0.178235</v>
+        <v>0.173136</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.214811</v>
+        <v>0.215463</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169951</v>
+        <v>0.170996</v>
       </c>
       <c r="D80" t="n">
-        <v>0.234116</v>
+        <v>0.234752</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.364895</v>
+        <v>0.361557</v>
       </c>
       <c r="C81" t="n">
-        <v>0.28404</v>
+        <v>0.2877</v>
       </c>
       <c r="D81" t="n">
-        <v>0.238175</v>
+        <v>0.233236</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.366175</v>
+        <v>0.363904</v>
       </c>
       <c r="C82" t="n">
-        <v>0.284538</v>
+        <v>0.283931</v>
       </c>
       <c r="D82" t="n">
-        <v>0.235169</v>
+        <v>0.240455</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.369103</v>
+        <v>0.363637</v>
       </c>
       <c r="C83" t="n">
-        <v>0.285541</v>
+        <v>0.286134</v>
       </c>
       <c r="D83" t="n">
-        <v>0.242103</v>
+        <v>0.234602</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.369031</v>
+        <v>0.370602</v>
       </c>
       <c r="C84" t="n">
-        <v>0.284458</v>
+        <v>0.28399</v>
       </c>
       <c r="D84" t="n">
-        <v>0.235156</v>
+        <v>0.242504</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.37075</v>
+        <v>0.366679</v>
       </c>
       <c r="C85" t="n">
-        <v>0.283775</v>
+        <v>0.283785</v>
       </c>
       <c r="D85" t="n">
-        <v>0.234938</v>
+        <v>0.236261</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371018</v>
+        <v>0.365879</v>
       </c>
       <c r="C86" t="n">
-        <v>0.28039</v>
+        <v>0.283948</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2367</v>
+        <v>0.234446</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.371783</v>
+        <v>0.374173</v>
       </c>
       <c r="C87" t="n">
-        <v>0.281105</v>
+        <v>0.280583</v>
       </c>
       <c r="D87" t="n">
-        <v>0.238275</v>
+        <v>0.239529</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.370556</v>
+        <v>0.373724</v>
       </c>
       <c r="C88" t="n">
-        <v>0.28245</v>
+        <v>0.281928</v>
       </c>
       <c r="D88" t="n">
-        <v>0.234666</v>
+        <v>0.236567</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.377522</v>
+        <v>0.37559</v>
       </c>
       <c r="C89" t="n">
-        <v>0.281245</v>
+        <v>0.280239</v>
       </c>
       <c r="D89" t="n">
-        <v>0.231859</v>
+        <v>0.233123</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.377136</v>
+        <v>0.372715</v>
       </c>
       <c r="C90" t="n">
-        <v>0.27568</v>
+        <v>0.281287</v>
       </c>
       <c r="D90" t="n">
-        <v>0.235505</v>
+        <v>0.232341</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.372443</v>
+        <v>0.382364</v>
       </c>
       <c r="C91" t="n">
-        <v>0.277508</v>
+        <v>0.274105</v>
       </c>
       <c r="D91" t="n">
-        <v>0.230963</v>
+        <v>0.237503</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.382864</v>
+        <v>0.379219</v>
       </c>
       <c r="C92" t="n">
-        <v>0.281465</v>
+        <v>0.278742</v>
       </c>
       <c r="D92" t="n">
-        <v>0.233535</v>
+        <v>0.23818</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.388124</v>
+        <v>0.38425</v>
       </c>
       <c r="C93" t="n">
-        <v>0.282805</v>
+        <v>0.280659</v>
       </c>
       <c r="D93" t="n">
-        <v>0.243866</v>
+        <v>0.240543</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.392784</v>
+        <v>0.390834</v>
       </c>
       <c r="C94" t="n">
-        <v>0.284928</v>
+        <v>0.283668</v>
       </c>
       <c r="D94" t="n">
-        <v>0.399059</v>
+        <v>0.400801</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.532727</v>
+        <v>0.531389</v>
       </c>
       <c r="C95" t="n">
-        <v>0.452823</v>
+        <v>0.442371</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4042</v>
+        <v>0.403437</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.532384</v>
+        <v>0.533186</v>
       </c>
       <c r="C96" t="n">
-        <v>0.452681</v>
+        <v>0.440987</v>
       </c>
       <c r="D96" t="n">
-        <v>0.394301</v>
+        <v>0.404764</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.533199</v>
+        <v>0.533096</v>
       </c>
       <c r="C97" t="n">
-        <v>0.44458</v>
+        <v>0.440645</v>
       </c>
       <c r="D97" t="n">
-        <v>0.398562</v>
+        <v>0.390906</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.533536</v>
+        <v>0.53287</v>
       </c>
       <c r="C98" t="n">
-        <v>0.451756</v>
+        <v>0.450712</v>
       </c>
       <c r="D98" t="n">
-        <v>0.40121</v>
+        <v>0.392711</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.534345</v>
+        <v>0.533268</v>
     